--- a/BigBasket/BigBasket_products.xlsx
+++ b/BigBasket/BigBasket_products.xlsx
@@ -38,33 +38,33 @@
     <t>timestamp</t>
   </si>
   <si>
+    <t>Tomato - Hybrid</t>
+  </si>
+  <si>
+    <t>Onion</t>
+  </si>
+  <si>
+    <t>Carrot - Orange (Loose)</t>
+  </si>
+  <si>
+    <t>Tomato - Local</t>
+  </si>
+  <si>
+    <t>Ladies' Fingers (Loose)</t>
+  </si>
+  <si>
+    <t>Capsicum - Green (Loose)</t>
+  </si>
+  <si>
+    <t>Cucumber</t>
+  </si>
+  <si>
+    <t>Coriander Leaves</t>
+  </si>
+  <si>
     <t>Tomato - Hybrid (Loose)</t>
   </si>
   <si>
-    <t>Onion</t>
-  </si>
-  <si>
-    <t>Carrot - Orange (Loose)</t>
-  </si>
-  <si>
-    <t>Tomato - Local</t>
-  </si>
-  <si>
-    <t>Ladies' Fingers (Loose)</t>
-  </si>
-  <si>
-    <t>Capsicum - Green (Loose)</t>
-  </si>
-  <si>
-    <t>Cucumber</t>
-  </si>
-  <si>
-    <t>Coriander Leaves</t>
-  </si>
-  <si>
-    <t>Tomato - Hybrid</t>
-  </si>
-  <si>
     <t>Cauliflower</t>
   </si>
   <si>
@@ -320,153 +320,153 @@
     <t>Bitter Gourd - Organically Grown (Loose)</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>₹122</t>
+  </si>
+  <si>
+    <t>₹19</t>
+  </si>
+  <si>
+    <t>₹7</t>
+  </si>
+  <si>
+    <t>₹59</t>
+  </si>
+  <si>
+    <t>₹100</t>
+  </si>
+  <si>
+    <t>₹103</t>
+  </si>
+  <si>
     <t>₹10</t>
   </si>
   <si>
-    <t>₹122</t>
+    <t>₹54</t>
+  </si>
+  <si>
+    <t>₹33</t>
+  </si>
+  <si>
+    <t>₹51</t>
+  </si>
+  <si>
+    <t>₹42</t>
+  </si>
+  <si>
+    <t>₹22.24</t>
+  </si>
+  <si>
+    <t>₹14</t>
+  </si>
+  <si>
+    <t>₹84</t>
+  </si>
+  <si>
+    <t>₹29</t>
+  </si>
+  <si>
+    <t>₹62</t>
+  </si>
+  <si>
+    <t>₹13</t>
+  </si>
+  <si>
+    <t>₹64</t>
+  </si>
+  <si>
+    <t>₹31</t>
+  </si>
+  <si>
+    <t>₹57</t>
+  </si>
+  <si>
+    <t>₹36</t>
+  </si>
+  <si>
+    <t>₹24</t>
+  </si>
+  <si>
+    <t>₹52</t>
+  </si>
+  <si>
+    <t>₹21</t>
+  </si>
+  <si>
+    <t>₹32</t>
+  </si>
+  <si>
+    <t>₹81</t>
+  </si>
+  <si>
+    <t>₹18</t>
+  </si>
+  <si>
+    <t>₹20</t>
+  </si>
+  <si>
+    <t>₹68</t>
+  </si>
+  <si>
+    <t>₹40</t>
+  </si>
+  <si>
+    <t>₹90</t>
+  </si>
+  <si>
+    <t>₹95</t>
+  </si>
+  <si>
+    <t>₹37</t>
+  </si>
+  <si>
+    <t>₹73</t>
+  </si>
+  <si>
+    <t>₹28</t>
+  </si>
+  <si>
+    <t>₹46</t>
+  </si>
+  <si>
+    <t>₹13.16</t>
+  </si>
+  <si>
+    <t>₹199</t>
+  </si>
+  <si>
+    <t>₹50</t>
+  </si>
+  <si>
+    <t>₹16</t>
+  </si>
+  <si>
+    <t>₹43</t>
+  </si>
+  <si>
+    <t>₹170</t>
+  </si>
+  <si>
+    <t>₹69</t>
+  </si>
+  <si>
+    <t>₹17</t>
+  </si>
+  <si>
+    <t>₹316</t>
+  </si>
+  <si>
+    <t>₹133</t>
+  </si>
+  <si>
+    <t>₹35</t>
   </si>
   <si>
     <t>₹70</t>
   </si>
   <si>
-    <t>₹7</t>
-  </si>
-  <si>
-    <t>₹59</t>
-  </si>
-  <si>
-    <t>₹100</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>₹103</t>
-  </si>
-  <si>
-    <t>₹54</t>
-  </si>
-  <si>
-    <t>₹33</t>
-  </si>
-  <si>
-    <t>₹51</t>
-  </si>
-  <si>
-    <t>₹42</t>
-  </si>
-  <si>
-    <t>₹22.24</t>
-  </si>
-  <si>
-    <t>₹14</t>
-  </si>
-  <si>
-    <t>₹84</t>
-  </si>
-  <si>
-    <t>₹29</t>
-  </si>
-  <si>
-    <t>₹62</t>
-  </si>
-  <si>
-    <t>₹13</t>
-  </si>
-  <si>
-    <t>₹64</t>
-  </si>
-  <si>
-    <t>₹31</t>
-  </si>
-  <si>
-    <t>₹57</t>
-  </si>
-  <si>
-    <t>₹36</t>
-  </si>
-  <si>
-    <t>₹24</t>
-  </si>
-  <si>
-    <t>₹52</t>
-  </si>
-  <si>
-    <t>₹21</t>
-  </si>
-  <si>
-    <t>₹32</t>
-  </si>
-  <si>
-    <t>₹255</t>
-  </si>
-  <si>
-    <t>₹18</t>
-  </si>
-  <si>
-    <t>₹20</t>
-  </si>
-  <si>
-    <t>₹68</t>
-  </si>
-  <si>
-    <t>₹40</t>
-  </si>
-  <si>
-    <t>₹90</t>
-  </si>
-  <si>
-    <t>₹95</t>
-  </si>
-  <si>
-    <t>₹37</t>
-  </si>
-  <si>
-    <t>₹73</t>
-  </si>
-  <si>
-    <t>₹28</t>
-  </si>
-  <si>
-    <t>₹46</t>
-  </si>
-  <si>
-    <t>₹13.16</t>
-  </si>
-  <si>
-    <t>₹199</t>
-  </si>
-  <si>
-    <t>₹50</t>
-  </si>
-  <si>
-    <t>₹16</t>
-  </si>
-  <si>
-    <t>₹43</t>
-  </si>
-  <si>
-    <t>₹170</t>
-  </si>
-  <si>
-    <t>₹69</t>
-  </si>
-  <si>
-    <t>₹17</t>
-  </si>
-  <si>
-    <t>₹316</t>
-  </si>
-  <si>
-    <t>₹133</t>
-  </si>
-  <si>
-    <t>₹35</t>
-  </si>
-  <si>
-    <t>₹19</t>
-  </si>
-  <si>
     <t>₹48</t>
   </si>
   <si>
@@ -500,6 +500,9 @@
     <t>₹80</t>
   </si>
   <si>
+    <t>₹10.5</t>
+  </si>
+  <si>
     <t>₹5.11</t>
   </si>
   <si>
@@ -512,6 +515,9 @@
     <t>₹39.42</t>
   </si>
   <si>
+    <t>₹24.09</t>
+  </si>
+  <si>
     <t>₹22.5</t>
   </si>
   <si>
@@ -554,7 +560,7 @@
     <t>₹23.36</t>
   </si>
   <si>
-    <t>₹186.15</t>
+    <t>₹49.5</t>
   </si>
   <si>
     <t>₹13.14</t>
@@ -647,9 +653,6 @@
     <t>₹90.52</t>
   </si>
   <si>
-    <t>₹24.09</t>
-  </si>
-  <si>
     <t>₹97.09</t>
   </si>
   <si>
@@ -665,39 +668,39 @@
     <t>₹60</t>
   </si>
   <si>
+    <t>34% OFF</t>
+  </si>
+  <si>
+    <t>45% OFF</t>
+  </si>
+  <si>
+    <t>27% OFF</t>
+  </si>
+  <si>
+    <t>51% OFF</t>
+  </si>
+  <si>
+    <t>48% OFF</t>
+  </si>
+  <si>
     <t>30% OFF</t>
   </si>
   <si>
-    <t>34% OFF</t>
-  </si>
-  <si>
-    <t>40% OFF</t>
-  </si>
-  <si>
-    <t>27% OFF</t>
-  </si>
-  <si>
-    <t>51% OFF</t>
-  </si>
-  <si>
-    <t>48% OFF</t>
+    <t>56% OFF</t>
+  </si>
+  <si>
+    <t>36% OFF</t>
+  </si>
+  <si>
+    <t>41% OFF</t>
+  </si>
+  <si>
+    <t>29% OFF</t>
   </si>
   <si>
     <t>42% OFF</t>
   </si>
   <si>
-    <t>56% OFF</t>
-  </si>
-  <si>
-    <t>36% OFF</t>
-  </si>
-  <si>
-    <t>41% OFF</t>
-  </si>
-  <si>
-    <t>29% OFF</t>
-  </si>
-  <si>
     <t>39% OFF</t>
   </si>
   <si>
@@ -710,45 +713,42 @@
     <t>Fresh Vegetables</t>
   </si>
   <si>
+    <t>2 kg</t>
+  </si>
+  <si>
+    <t>2 kg - Multipack</t>
+  </si>
+  <si>
+    <t>250 g</t>
+  </si>
+  <si>
+    <t>1 kg</t>
+  </si>
+  <si>
+    <t>10 kg</t>
+  </si>
+  <si>
     <t>500 g</t>
   </si>
   <si>
-    <t>2 kg - Multipack</t>
-  </si>
-  <si>
-    <t>1 kg</t>
-  </si>
-  <si>
-    <t>250 g</t>
-  </si>
-  <si>
-    <t>10 kg</t>
-  </si>
-  <si>
-    <t>2 kg</t>
-  </si>
-  <si>
     <t>100 g</t>
   </si>
   <si>
     <t>1 pc - (approx. 500 g to 800 g)</t>
   </si>
   <si>
-    <t>5 kg</t>
-  </si>
-  <si>
     <t>70 to 100 g (Bunch)</t>
   </si>
   <si>
     <t>1 pc (Approx 500-1000 g)</t>
   </si>
   <si>
-    <t>2023-09-20 11:14:17</t>
-  </si>
-  <si>
     <t>2023-09-20 11:18:38</t>
   </si>
   <si>
+    <t>2023-09-20 11:27:29</t>
+  </si>
+  <si>
     <t>Banana - Robusta, Organically Grown</t>
   </si>
   <si>
@@ -1469,7 +1469,7 @@
     <t>4 Pcs (Approx.500g-650g)</t>
   </si>
   <si>
-    <t>2023-09-20 11:19:18</t>
+    <t>2023-09-20 11:28:09</t>
   </si>
 </sst>
 </file>
@@ -1864,16 +1864,16 @@
         <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>216</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G2" t="s">
         <v>242</v>
@@ -1893,10 +1893,10 @@
         <v>217</v>
       </c>
       <c r="E3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G3" t="s">
         <v>243</v>
@@ -1910,16 +1910,16 @@
         <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="D4" t="s">
         <v>218</v>
       </c>
       <c r="E4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G4" t="s">
         <v>243</v>
@@ -1933,13 +1933,13 @@
         <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D5" t="s">
         <v>219</v>
       </c>
       <c r="E5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F5" t="s">
         <v>234</v>
@@ -1962,10 +1962,10 @@
         <v>220</v>
       </c>
       <c r="E6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F6" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G6" t="s">
         <v>243</v>
@@ -1985,10 +1985,10 @@
         <v>221</v>
       </c>
       <c r="E7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G7" t="s">
         <v>243</v>
@@ -1999,19 +1999,19 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G8" t="s">
         <v>243</v>
@@ -2022,19 +2022,19 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D9" t="s">
         <v>219</v>
       </c>
       <c r="E9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F9" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G9" t="s">
         <v>243</v>
@@ -2045,19 +2045,19 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>222</v>
       </c>
       <c r="E10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G10" t="s">
         <v>243</v>
@@ -2071,16 +2071,16 @@
         <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D11" t="s">
         <v>219</v>
       </c>
       <c r="E11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G11" t="s">
         <v>243</v>
@@ -2094,13 +2094,13 @@
         <v>110</v>
       </c>
       <c r="C12" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="D12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F12" t="s">
         <v>234</v>
@@ -2117,16 +2117,16 @@
         <v>111</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D13" t="s">
         <v>223</v>
       </c>
       <c r="E13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F13" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G13" t="s">
         <v>243</v>
@@ -2140,13 +2140,13 @@
         <v>112</v>
       </c>
       <c r="C14" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D14" t="s">
         <v>219</v>
       </c>
       <c r="E14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F14" t="s">
         <v>234</v>
@@ -2163,13 +2163,13 @@
         <v>113</v>
       </c>
       <c r="C15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D15" t="s">
         <v>219</v>
       </c>
       <c r="E15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F15" t="s">
         <v>234</v>
@@ -2186,16 +2186,16 @@
         <v>114</v>
       </c>
       <c r="C16" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D16" t="s">
         <v>219</v>
       </c>
       <c r="E16" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F16" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G16" t="s">
         <v>243</v>
@@ -2215,10 +2215,10 @@
         <v>224</v>
       </c>
       <c r="E17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F17" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G17" t="s">
         <v>243</v>
@@ -2238,10 +2238,10 @@
         <v>225</v>
       </c>
       <c r="E18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F18" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G18" t="s">
         <v>243</v>
@@ -2255,16 +2255,16 @@
         <v>117</v>
       </c>
       <c r="C19" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D19" t="s">
         <v>226</v>
       </c>
       <c r="E19" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F19" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G19" t="s">
         <v>243</v>
@@ -2278,16 +2278,16 @@
         <v>112</v>
       </c>
       <c r="C20" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D20" t="s">
         <v>219</v>
       </c>
       <c r="E20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F20" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G20" t="s">
         <v>243</v>
@@ -2301,13 +2301,13 @@
         <v>118</v>
       </c>
       <c r="C21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D21" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E21" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F21" t="s">
         <v>234</v>
@@ -2324,16 +2324,16 @@
         <v>119</v>
       </c>
       <c r="C22" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D22" t="s">
         <v>219</v>
       </c>
       <c r="E22" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F22" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G22" t="s">
         <v>243</v>
@@ -2347,16 +2347,16 @@
         <v>120</v>
       </c>
       <c r="C23" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="D23" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E23" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F23" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G23" t="s">
         <v>243</v>
@@ -2370,13 +2370,13 @@
         <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D24" t="s">
         <v>219</v>
       </c>
       <c r="E24" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F24" t="s">
         <v>234</v>
@@ -2393,16 +2393,16 @@
         <v>122</v>
       </c>
       <c r="C25" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D25" t="s">
         <v>219</v>
       </c>
       <c r="E25" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F25" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G25" t="s">
         <v>243</v>
@@ -2416,13 +2416,13 @@
         <v>123</v>
       </c>
       <c r="C26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D26" t="s">
         <v>219</v>
       </c>
       <c r="E26" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F26" t="s">
         <v>234</v>
@@ -2439,16 +2439,16 @@
         <v>114</v>
       </c>
       <c r="C27" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D27" t="s">
         <v>226</v>
       </c>
       <c r="E27" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F27" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G27" t="s">
         <v>243</v>
@@ -2462,13 +2462,13 @@
         <v>124</v>
       </c>
       <c r="C28" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D28" t="s">
         <v>219</v>
       </c>
       <c r="E28" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F28" t="s">
         <v>234</v>
@@ -2485,16 +2485,16 @@
         <v>125</v>
       </c>
       <c r="C29" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D29" t="s">
         <v>219</v>
       </c>
       <c r="E29" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F29" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G29" t="s">
         <v>243</v>
@@ -2508,13 +2508,13 @@
         <v>126</v>
       </c>
       <c r="C30" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D30" t="s">
         <v>219</v>
       </c>
       <c r="E30" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F30" t="s">
         <v>234</v>
@@ -2531,16 +2531,16 @@
         <v>127</v>
       </c>
       <c r="C31" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D31" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E31" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F31" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G31" t="s">
         <v>243</v>
@@ -2554,16 +2554,16 @@
         <v>128</v>
       </c>
       <c r="C32" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D32" t="s">
         <v>219</v>
       </c>
       <c r="E32" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F32" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G32" t="s">
         <v>243</v>
@@ -2577,16 +2577,16 @@
         <v>121</v>
       </c>
       <c r="C33" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D33" t="s">
         <v>219</v>
       </c>
       <c r="E33" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F33" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G33" t="s">
         <v>243</v>
@@ -2600,16 +2600,16 @@
         <v>111</v>
       </c>
       <c r="C34" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D34" t="s">
         <v>219</v>
       </c>
       <c r="E34" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F34" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G34" t="s">
         <v>243</v>
@@ -2623,16 +2623,16 @@
         <v>129</v>
       </c>
       <c r="C35" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D35" t="s">
         <v>219</v>
       </c>
       <c r="E35" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F35" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G35" t="s">
         <v>243</v>
@@ -2652,10 +2652,10 @@
         <v>226</v>
       </c>
       <c r="E36" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F36" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G36" t="s">
         <v>243</v>
@@ -2669,16 +2669,16 @@
         <v>121</v>
       </c>
       <c r="C37" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D37" t="s">
         <v>219</v>
       </c>
       <c r="E37" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F37" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G37" t="s">
         <v>243</v>
@@ -2692,16 +2692,16 @@
         <v>131</v>
       </c>
       <c r="C38" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D38" t="s">
         <v>219</v>
       </c>
       <c r="E38" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F38" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G38" t="s">
         <v>243</v>
@@ -2715,16 +2715,16 @@
         <v>132</v>
       </c>
       <c r="C39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D39" t="s">
         <v>219</v>
       </c>
       <c r="E39" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F39" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G39" t="s">
         <v>243</v>
@@ -2735,16 +2735,16 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C40" t="s">
         <v>136</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E40" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F40" t="s">
         <v>234</v>
@@ -2761,16 +2761,16 @@
         <v>133</v>
       </c>
       <c r="C41" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D41" t="s">
         <v>219</v>
       </c>
       <c r="E41" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F41" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G41" t="s">
         <v>243</v>
@@ -2784,16 +2784,16 @@
         <v>117</v>
       </c>
       <c r="C42" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D42" t="s">
         <v>219</v>
       </c>
       <c r="E42" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F42" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G42" t="s">
         <v>243</v>
@@ -2807,16 +2807,16 @@
         <v>134</v>
       </c>
       <c r="C43" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D43" t="s">
         <v>219</v>
       </c>
       <c r="E43" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F43" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G43" t="s">
         <v>243</v>
@@ -2830,16 +2830,16 @@
         <v>135</v>
       </c>
       <c r="C44" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D44" t="s">
         <v>219</v>
       </c>
       <c r="E44" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F44" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G44" t="s">
         <v>243</v>
@@ -2853,13 +2853,13 @@
         <v>112</v>
       </c>
       <c r="C45" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D45" t="s">
         <v>219</v>
       </c>
       <c r="E45" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F45" t="s">
         <v>234</v>
@@ -2876,16 +2876,16 @@
         <v>136</v>
       </c>
       <c r="C46" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D46" t="s">
         <v>219</v>
       </c>
       <c r="E46" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F46" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G46" t="s">
         <v>243</v>
@@ -2899,16 +2899,16 @@
         <v>137</v>
       </c>
       <c r="C47" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D47" t="s">
         <v>219</v>
       </c>
       <c r="E47" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F47" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G47" t="s">
         <v>243</v>
@@ -2922,16 +2922,16 @@
         <v>138</v>
       </c>
       <c r="C48" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D48" t="s">
         <v>219</v>
       </c>
       <c r="E48" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F48" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G48" t="s">
         <v>243</v>
@@ -2945,16 +2945,16 @@
         <v>139</v>
       </c>
       <c r="C49" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D49" t="s">
         <v>219</v>
       </c>
       <c r="E49" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F49" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G49" t="s">
         <v>243</v>
@@ -2968,16 +2968,16 @@
         <v>140</v>
       </c>
       <c r="C50" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D50" t="s">
         <v>219</v>
       </c>
       <c r="E50" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F50" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G50" t="s">
         <v>243</v>
@@ -2991,13 +2991,13 @@
         <v>141</v>
       </c>
       <c r="C51" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D51" t="s">
         <v>219</v>
       </c>
       <c r="E51" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F51" t="s">
         <v>234</v>
@@ -3014,13 +3014,13 @@
         <v>114</v>
       </c>
       <c r="C52" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D52" t="s">
         <v>219</v>
       </c>
       <c r="E52" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F52" t="s">
         <v>234</v>
@@ -3037,16 +3037,16 @@
         <v>142</v>
       </c>
       <c r="C53" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D53" t="s">
         <v>219</v>
       </c>
       <c r="E53" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F53" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G53" t="s">
         <v>243</v>
@@ -3060,16 +3060,16 @@
         <v>125</v>
       </c>
       <c r="C54" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D54" t="s">
         <v>219</v>
       </c>
       <c r="E54" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F54" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G54" t="s">
         <v>243</v>
@@ -3083,16 +3083,16 @@
         <v>143</v>
       </c>
       <c r="C55" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D55" t="s">
         <v>219</v>
       </c>
       <c r="E55" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F55" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G55" t="s">
         <v>243</v>
@@ -3106,16 +3106,16 @@
         <v>140</v>
       </c>
       <c r="C56" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D56" t="s">
         <v>219</v>
       </c>
       <c r="E56" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F56" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G56" t="s">
         <v>243</v>
@@ -3129,16 +3129,16 @@
         <v>144</v>
       </c>
       <c r="C57" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D57" t="s">
         <v>219</v>
       </c>
       <c r="E57" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F57" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G57" t="s">
         <v>243</v>
@@ -3152,13 +3152,13 @@
         <v>145</v>
       </c>
       <c r="C58" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D58" t="s">
         <v>219</v>
       </c>
       <c r="E58" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F58" t="s">
         <v>240</v>
@@ -3175,16 +3175,16 @@
         <v>144</v>
       </c>
       <c r="C59" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D59" t="s">
         <v>219</v>
       </c>
       <c r="E59" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F59" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G59" t="s">
         <v>243</v>
@@ -3198,16 +3198,16 @@
         <v>146</v>
       </c>
       <c r="C60" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D60" t="s">
         <v>219</v>
       </c>
       <c r="E60" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F60" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G60" t="s">
         <v>243</v>
@@ -3221,16 +3221,16 @@
         <v>147</v>
       </c>
       <c r="C61" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D61" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E61" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F61" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G61" t="s">
         <v>243</v>
@@ -3244,16 +3244,16 @@
         <v>148</v>
       </c>
       <c r="C62" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D62" t="s">
         <v>219</v>
       </c>
       <c r="E62" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F62" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G62" t="s">
         <v>243</v>
@@ -3267,16 +3267,16 @@
         <v>109</v>
       </c>
       <c r="C63" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D63" t="s">
         <v>219</v>
       </c>
       <c r="E63" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F63" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G63" t="s">
         <v>243</v>
@@ -3290,16 +3290,16 @@
         <v>144</v>
       </c>
       <c r="C64" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D64" t="s">
         <v>219</v>
       </c>
       <c r="E64" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F64" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G64" t="s">
         <v>243</v>
@@ -3310,19 +3310,19 @@
         <v>70</v>
       </c>
       <c r="B65" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="C65" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D65" t="s">
         <v>219</v>
       </c>
       <c r="E65" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F65" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G65" t="s">
         <v>243</v>
@@ -3333,19 +3333,19 @@
         <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="C66" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D66" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E66" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F66" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G66" t="s">
         <v>243</v>
@@ -3359,16 +3359,16 @@
         <v>150</v>
       </c>
       <c r="C67" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D67" t="s">
         <v>219</v>
       </c>
       <c r="E67" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F67" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G67" t="s">
         <v>243</v>
@@ -3382,16 +3382,16 @@
         <v>151</v>
       </c>
       <c r="C68" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D68" t="s">
         <v>219</v>
       </c>
       <c r="E68" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F68" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G68" t="s">
         <v>243</v>
@@ -3405,16 +3405,16 @@
         <v>152</v>
       </c>
       <c r="C69" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D69" t="s">
         <v>219</v>
       </c>
       <c r="E69" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F69" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G69" t="s">
         <v>243</v>
@@ -3428,16 +3428,16 @@
         <v>145</v>
       </c>
       <c r="C70" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D70" t="s">
         <v>219</v>
       </c>
       <c r="E70" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F70" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G70" t="s">
         <v>243</v>
@@ -3451,13 +3451,13 @@
         <v>148</v>
       </c>
       <c r="C71" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D71" t="s">
         <v>219</v>
       </c>
       <c r="E71" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F71" t="s">
         <v>241</v>
@@ -3474,16 +3474,16 @@
         <v>148</v>
       </c>
       <c r="C72" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D72" t="s">
         <v>219</v>
       </c>
       <c r="E72" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F72" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G72" t="s">
         <v>243</v>
@@ -3497,16 +3497,16 @@
         <v>137</v>
       </c>
       <c r="C73" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D73" t="s">
         <v>219</v>
       </c>
       <c r="E73" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F73" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G73" t="s">
         <v>243</v>
@@ -3520,13 +3520,13 @@
         <v>145</v>
       </c>
       <c r="C74" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D74" t="s">
         <v>219</v>
       </c>
       <c r="E74" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F74" t="s">
         <v>234</v>
@@ -3543,13 +3543,13 @@
         <v>153</v>
       </c>
       <c r="C75" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D75" t="s">
         <v>219</v>
       </c>
       <c r="E75" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F75" t="s">
         <v>234</v>
@@ -3566,16 +3566,16 @@
         <v>137</v>
       </c>
       <c r="C76" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D76" t="s">
         <v>219</v>
       </c>
       <c r="E76" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F76" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G76" t="s">
         <v>243</v>
@@ -3589,13 +3589,13 @@
         <v>114</v>
       </c>
       <c r="C77" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D77" t="s">
         <v>219</v>
       </c>
       <c r="E77" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F77" t="s">
         <v>234</v>
@@ -3612,16 +3612,16 @@
         <v>154</v>
       </c>
       <c r="C78" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D78" t="s">
         <v>219</v>
       </c>
       <c r="E78" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F78" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G78" t="s">
         <v>243</v>
@@ -3635,16 +3635,16 @@
         <v>155</v>
       </c>
       <c r="C79" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D79" t="s">
         <v>219</v>
       </c>
       <c r="E79" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F79" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G79" t="s">
         <v>243</v>
@@ -3658,16 +3658,16 @@
         <v>156</v>
       </c>
       <c r="C80" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D80" t="s">
         <v>219</v>
       </c>
       <c r="E80" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F80" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G80" t="s">
         <v>243</v>
@@ -3681,16 +3681,16 @@
         <v>109</v>
       </c>
       <c r="C81" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D81" t="s">
         <v>219</v>
       </c>
       <c r="E81" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F81" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G81" t="s">
         <v>243</v>
@@ -3704,16 +3704,16 @@
         <v>110</v>
       </c>
       <c r="C82" t="s">
-        <v>210</v>
+        <v>166</v>
       </c>
       <c r="D82" t="s">
         <v>219</v>
       </c>
       <c r="E82" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F82" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G82" t="s">
         <v>243</v>
@@ -3727,16 +3727,16 @@
         <v>147</v>
       </c>
       <c r="C83" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D83" t="s">
         <v>219</v>
       </c>
       <c r="E83" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F83" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G83" t="s">
         <v>243</v>
@@ -3750,16 +3750,16 @@
         <v>130</v>
       </c>
       <c r="C84" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D84" t="s">
         <v>219</v>
       </c>
       <c r="E84" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F84" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G84" t="s">
         <v>243</v>
@@ -3770,19 +3770,19 @@
         <v>90</v>
       </c>
       <c r="B85" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="C85" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D85" t="s">
         <v>219</v>
       </c>
       <c r="E85" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F85" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G85" t="s">
         <v>243</v>
@@ -3796,16 +3796,16 @@
         <v>110</v>
       </c>
       <c r="C86" t="s">
-        <v>210</v>
+        <v>166</v>
       </c>
       <c r="D86" t="s">
         <v>219</v>
       </c>
       <c r="E86" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F86" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G86" t="s">
         <v>243</v>
@@ -3825,10 +3825,10 @@
         <v>219</v>
       </c>
       <c r="E87" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F87" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G87" t="s">
         <v>243</v>
@@ -3842,16 +3842,16 @@
         <v>122</v>
       </c>
       <c r="C88" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D88" t="s">
         <v>219</v>
       </c>
       <c r="E88" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F88" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G88" t="s">
         <v>243</v>
@@ -3865,16 +3865,16 @@
         <v>157</v>
       </c>
       <c r="C89" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D89" t="s">
         <v>219</v>
       </c>
       <c r="E89" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F89" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G89" t="s">
         <v>243</v>
@@ -3888,16 +3888,16 @@
         <v>112</v>
       </c>
       <c r="C90" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D90" t="s">
         <v>219</v>
       </c>
       <c r="E90" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F90" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G90" t="s">
         <v>243</v>
@@ -3911,16 +3911,16 @@
         <v>158</v>
       </c>
       <c r="C91" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D91" t="s">
         <v>219</v>
       </c>
       <c r="E91" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F91" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G91" t="s">
         <v>243</v>
@@ -3934,13 +3934,13 @@
         <v>159</v>
       </c>
       <c r="C92" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D92" t="s">
         <v>219</v>
       </c>
       <c r="E92" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F92" t="s">
         <v>234</v>
@@ -3957,16 +3957,16 @@
         <v>156</v>
       </c>
       <c r="C93" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D93" t="s">
         <v>219</v>
       </c>
       <c r="E93" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F93" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G93" t="s">
         <v>243</v>
@@ -3980,13 +3980,13 @@
         <v>129</v>
       </c>
       <c r="C94" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D94" t="s">
         <v>219</v>
       </c>
       <c r="E94" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F94" t="s">
         <v>234</v>
@@ -4003,13 +4003,13 @@
         <v>141</v>
       </c>
       <c r="C95" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D95" t="s">
         <v>219</v>
       </c>
       <c r="E95" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F95" t="s">
         <v>234</v>
@@ -4062,7 +4062,7 @@
         <v>133</v>
       </c>
       <c r="C2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D2" t="s">
         <v>219</v>
@@ -4071,7 +4071,7 @@
         <v>469</v>
       </c>
       <c r="F2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G2" t="s">
         <v>484</v>
@@ -4088,13 +4088,13 @@
         <v>399</v>
       </c>
       <c r="D3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E3" t="s">
         <v>469</v>
       </c>
       <c r="F3" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G3" t="s">
         <v>484</v>
@@ -4108,7 +4108,7 @@
         <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D4" t="s">
         <v>219</v>
@@ -4140,7 +4140,7 @@
         <v>469</v>
       </c>
       <c r="F5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G5" t="s">
         <v>484</v>
@@ -4163,7 +4163,7 @@
         <v>469</v>
       </c>
       <c r="F6" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G6" t="s">
         <v>484</v>
@@ -4186,7 +4186,7 @@
         <v>469</v>
       </c>
       <c r="F7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G7" t="s">
         <v>484</v>
@@ -4209,7 +4209,7 @@
         <v>469</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
         <v>484</v>
@@ -4232,7 +4232,7 @@
         <v>469</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
         <v>484</v>
@@ -4255,7 +4255,7 @@
         <v>469</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
         <v>484</v>
@@ -4278,7 +4278,7 @@
         <v>469</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G11" t="s">
         <v>484</v>
@@ -4301,7 +4301,7 @@
         <v>469</v>
       </c>
       <c r="F12" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G12" t="s">
         <v>484</v>
@@ -4324,7 +4324,7 @@
         <v>469</v>
       </c>
       <c r="F13" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G13" t="s">
         <v>484</v>
@@ -4347,7 +4347,7 @@
         <v>469</v>
       </c>
       <c r="F14" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G14" t="s">
         <v>484</v>
@@ -4370,7 +4370,7 @@
         <v>469</v>
       </c>
       <c r="F15" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G15" t="s">
         <v>484</v>
@@ -4416,7 +4416,7 @@
         <v>469</v>
       </c>
       <c r="F17" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G17" t="s">
         <v>484</v>
@@ -4462,7 +4462,7 @@
         <v>469</v>
       </c>
       <c r="F19" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G19" t="s">
         <v>484</v>
@@ -4485,7 +4485,7 @@
         <v>469</v>
       </c>
       <c r="F20" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G20" t="s">
         <v>484</v>
@@ -4508,7 +4508,7 @@
         <v>469</v>
       </c>
       <c r="F21" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G21" t="s">
         <v>484</v>
@@ -4531,7 +4531,7 @@
         <v>469</v>
       </c>
       <c r="F22" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G22" t="s">
         <v>484</v>
@@ -4554,7 +4554,7 @@
         <v>469</v>
       </c>
       <c r="F23" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G23" t="s">
         <v>484</v>
@@ -4600,7 +4600,7 @@
         <v>469</v>
       </c>
       <c r="F25" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G25" t="s">
         <v>484</v>
@@ -4614,7 +4614,7 @@
         <v>111</v>
       </c>
       <c r="C26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D26" t="s">
         <v>219</v>
@@ -4646,7 +4646,7 @@
         <v>469</v>
       </c>
       <c r="F27" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G27" t="s">
         <v>484</v>
@@ -4669,7 +4669,7 @@
         <v>469</v>
       </c>
       <c r="F28" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G28" t="s">
         <v>484</v>
@@ -4709,7 +4709,7 @@
         <v>150</v>
       </c>
       <c r="D30" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E30" t="s">
         <v>469</v>
@@ -4729,7 +4729,7 @@
         <v>147</v>
       </c>
       <c r="C31" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D31" t="s">
         <v>219</v>
@@ -4738,7 +4738,7 @@
         <v>469</v>
       </c>
       <c r="F31" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G31" t="s">
         <v>484</v>
@@ -4752,7 +4752,7 @@
         <v>133</v>
       </c>
       <c r="C32" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D32" t="s">
         <v>219</v>
@@ -4761,7 +4761,7 @@
         <v>469</v>
       </c>
       <c r="F32" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G32" t="s">
         <v>484</v>
@@ -4807,7 +4807,7 @@
         <v>469</v>
       </c>
       <c r="F34" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G34" t="s">
         <v>484</v>
@@ -4830,7 +4830,7 @@
         <v>469</v>
       </c>
       <c r="F35" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G35" t="s">
         <v>484</v>
@@ -4853,7 +4853,7 @@
         <v>469</v>
       </c>
       <c r="F36" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G36" t="s">
         <v>484</v>
@@ -4876,7 +4876,7 @@
         <v>469</v>
       </c>
       <c r="F37" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G37" t="s">
         <v>484</v>
@@ -4887,7 +4887,7 @@
         <v>280</v>
       </c>
       <c r="B38" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C38" t="s">
         <v>427</v>
@@ -4899,7 +4899,7 @@
         <v>469</v>
       </c>
       <c r="F38" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G38" t="s">
         <v>484</v>
@@ -4922,7 +4922,7 @@
         <v>469</v>
       </c>
       <c r="F39" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G39" t="s">
         <v>484</v>
@@ -4968,7 +4968,7 @@
         <v>469</v>
       </c>
       <c r="F41" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G41" t="s">
         <v>484</v>
@@ -4991,7 +4991,7 @@
         <v>469</v>
       </c>
       <c r="F42" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G42" t="s">
         <v>484</v>
@@ -5005,7 +5005,7 @@
         <v>109</v>
       </c>
       <c r="C43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D43" t="s">
         <v>219</v>
@@ -5014,7 +5014,7 @@
         <v>469</v>
       </c>
       <c r="F43" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G43" t="s">
         <v>484</v>
@@ -5028,7 +5028,7 @@
         <v>139</v>
       </c>
       <c r="C44" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D44" t="s">
         <v>219</v>
@@ -5037,7 +5037,7 @@
         <v>469</v>
       </c>
       <c r="F44" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G44" t="s">
         <v>484</v>
@@ -5074,7 +5074,7 @@
         <v>137</v>
       </c>
       <c r="C46" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D46" t="s">
         <v>219</v>
@@ -5083,7 +5083,7 @@
         <v>469</v>
       </c>
       <c r="F46" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G46" t="s">
         <v>484</v>
@@ -5106,7 +5106,7 @@
         <v>469</v>
       </c>
       <c r="F47" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G47" t="s">
         <v>484</v>
@@ -5152,7 +5152,7 @@
         <v>469</v>
       </c>
       <c r="F49" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G49" t="s">
         <v>484</v>
@@ -5175,7 +5175,7 @@
         <v>469</v>
       </c>
       <c r="F50" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G50" t="s">
         <v>484</v>
@@ -5221,7 +5221,7 @@
         <v>469</v>
       </c>
       <c r="F52" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G52" t="s">
         <v>484</v>
@@ -5238,13 +5238,13 @@
         <v>136</v>
       </c>
       <c r="D53" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E53" t="s">
         <v>469</v>
       </c>
       <c r="F53" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G53" t="s">
         <v>484</v>
@@ -5258,7 +5258,7 @@
         <v>122</v>
       </c>
       <c r="C54" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D54" t="s">
         <v>219</v>
@@ -5267,7 +5267,7 @@
         <v>469</v>
       </c>
       <c r="F54" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G54" t="s">
         <v>484</v>
@@ -5290,7 +5290,7 @@
         <v>469</v>
       </c>
       <c r="F55" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G55" t="s">
         <v>484</v>
@@ -5301,10 +5301,10 @@
         <v>298</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C56" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" t="s">
         <v>219</v>
@@ -5313,7 +5313,7 @@
         <v>469</v>
       </c>
       <c r="F56" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G56" t="s">
         <v>484</v>
@@ -5336,7 +5336,7 @@
         <v>469</v>
       </c>
       <c r="F57" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G57" t="s">
         <v>484</v>
@@ -5350,7 +5350,7 @@
         <v>121</v>
       </c>
       <c r="C58" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D58" t="s">
         <v>219</v>
@@ -5359,7 +5359,7 @@
         <v>469</v>
       </c>
       <c r="F58" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G58" t="s">
         <v>484</v>
@@ -5382,7 +5382,7 @@
         <v>469</v>
       </c>
       <c r="F59" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G59" t="s">
         <v>484</v>
@@ -5405,7 +5405,7 @@
         <v>469</v>
       </c>
       <c r="F60" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G60" t="s">
         <v>484</v>
@@ -5419,7 +5419,7 @@
         <v>140</v>
       </c>
       <c r="C61" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D61" t="s">
         <v>219</v>
@@ -5428,7 +5428,7 @@
         <v>469</v>
       </c>
       <c r="F61" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G61" t="s">
         <v>484</v>
@@ -5442,7 +5442,7 @@
         <v>114</v>
       </c>
       <c r="C62" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D62" t="s">
         <v>219</v>
@@ -5474,7 +5474,7 @@
         <v>469</v>
       </c>
       <c r="F63" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G63" t="s">
         <v>484</v>
@@ -5497,7 +5497,7 @@
         <v>469</v>
       </c>
       <c r="F64" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G64" t="s">
         <v>484</v>
@@ -5520,7 +5520,7 @@
         <v>469</v>
       </c>
       <c r="F65" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G65" t="s">
         <v>484</v>
@@ -5543,7 +5543,7 @@
         <v>469</v>
       </c>
       <c r="F66" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G66" t="s">
         <v>484</v>
@@ -5557,7 +5557,7 @@
         <v>158</v>
       </c>
       <c r="C67" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D67" t="s">
         <v>219</v>
@@ -5566,7 +5566,7 @@
         <v>469</v>
       </c>
       <c r="F67" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G67" t="s">
         <v>484</v>
@@ -5589,7 +5589,7 @@
         <v>469</v>
       </c>
       <c r="F68" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G68" t="s">
         <v>484</v>
@@ -5612,7 +5612,7 @@
         <v>469</v>
       </c>
       <c r="F69" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G69" t="s">
         <v>484</v>
@@ -5635,7 +5635,7 @@
         <v>469</v>
       </c>
       <c r="F70" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G70" t="s">
         <v>484</v>
@@ -5658,7 +5658,7 @@
         <v>469</v>
       </c>
       <c r="F71" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G71" t="s">
         <v>484</v>
@@ -5695,7 +5695,7 @@
         <v>130</v>
       </c>
       <c r="C73" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" t="s">
         <v>219</v>
@@ -5704,7 +5704,7 @@
         <v>469</v>
       </c>
       <c r="F73" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G73" t="s">
         <v>484</v>
@@ -5727,7 +5727,7 @@
         <v>469</v>
       </c>
       <c r="F74" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G74" t="s">
         <v>484</v>
@@ -5750,7 +5750,7 @@
         <v>469</v>
       </c>
       <c r="F75" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G75" t="s">
         <v>484</v>
@@ -5764,7 +5764,7 @@
         <v>141</v>
       </c>
       <c r="C76" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D76" t="s">
         <v>219</v>
@@ -5773,7 +5773,7 @@
         <v>469</v>
       </c>
       <c r="F76" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G76" t="s">
         <v>484</v>
@@ -5796,7 +5796,7 @@
         <v>469</v>
       </c>
       <c r="F77" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G77" t="s">
         <v>484</v>
@@ -5819,7 +5819,7 @@
         <v>469</v>
       </c>
       <c r="F78" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G78" t="s">
         <v>484</v>
@@ -5842,7 +5842,7 @@
         <v>469</v>
       </c>
       <c r="F79" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G79" t="s">
         <v>484</v>
@@ -5865,7 +5865,7 @@
         <v>469</v>
       </c>
       <c r="F80" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G80" t="s">
         <v>484</v>
@@ -5879,7 +5879,7 @@
         <v>156</v>
       </c>
       <c r="C81" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D81" t="s">
         <v>219</v>
@@ -5888,7 +5888,7 @@
         <v>469</v>
       </c>
       <c r="F81" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G81" t="s">
         <v>484</v>
@@ -5911,7 +5911,7 @@
         <v>469</v>
       </c>
       <c r="F82" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G82" t="s">
         <v>484</v>
@@ -5934,7 +5934,7 @@
         <v>469</v>
       </c>
       <c r="F83" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G83" t="s">
         <v>484</v>
@@ -5980,7 +5980,7 @@
         <v>469</v>
       </c>
       <c r="F85" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G85" t="s">
         <v>484</v>
@@ -5994,7 +5994,7 @@
         <v>137</v>
       </c>
       <c r="C86" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D86" t="s">
         <v>219</v>
@@ -6003,7 +6003,7 @@
         <v>469</v>
       </c>
       <c r="F86" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G86" t="s">
         <v>484</v>
@@ -6026,7 +6026,7 @@
         <v>469</v>
       </c>
       <c r="F87" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G87" t="s">
         <v>484</v>
@@ -6049,7 +6049,7 @@
         <v>469</v>
       </c>
       <c r="F88" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G88" t="s">
         <v>484</v>
@@ -6086,7 +6086,7 @@
         <v>135</v>
       </c>
       <c r="C90" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D90" t="s">
         <v>219</v>
@@ -6095,7 +6095,7 @@
         <v>469</v>
       </c>
       <c r="F90" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G90" t="s">
         <v>484</v>
@@ -6118,7 +6118,7 @@
         <v>469</v>
       </c>
       <c r="F91" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G91" t="s">
         <v>484</v>
@@ -6141,7 +6141,7 @@
         <v>469</v>
       </c>
       <c r="F92" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G92" t="s">
         <v>484</v>
@@ -6178,7 +6178,7 @@
         <v>135</v>
       </c>
       <c r="C94" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D94" t="s">
         <v>219</v>
@@ -6201,7 +6201,7 @@
         <v>397</v>
       </c>
       <c r="C95" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D95" t="s">
         <v>219</v>
@@ -6210,7 +6210,7 @@
         <v>469</v>
       </c>
       <c r="F95" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G95" t="s">
         <v>484</v>
@@ -6224,7 +6224,7 @@
         <v>398</v>
       </c>
       <c r="C96" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D96" t="s">
         <v>219</v>
@@ -6233,7 +6233,7 @@
         <v>469</v>
       </c>
       <c r="F96" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G96" t="s">
         <v>484</v>

--- a/BigBasket/BigBasket_products.xlsx
+++ b/BigBasket/BigBasket_products.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="530">
   <si>
     <t>product_name</t>
   </si>
@@ -41,6 +41,15 @@
     <t>Tomato - Hybrid</t>
   </si>
   <si>
+    <t>Ginger - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Beans - French Ring, Organically Grown</t>
+  </si>
+  <si>
+    <t>Onion (Loose)</t>
+  </si>
+  <si>
     <t>Onion</t>
   </si>
   <si>
@@ -104,7 +113,7 @@
     <t>Bottle Gourd (Loose)</t>
   </si>
   <si>
-    <t>Ginger - Organically Grown (Loose)</t>
+    <t>Ginger - Organically Grown</t>
   </si>
   <si>
     <t>Drumstick/Moringa</t>
@@ -227,7 +236,7 @@
     <t>Amaranthus - Green Cleaned, without roots</t>
   </si>
   <si>
-    <t>Beans - French Ring, Organically Grown</t>
+    <t>Beans - Organically Grown (Loose)</t>
   </si>
   <si>
     <t>Tomato - Hybrid, Organically Grown (Loose)</t>
@@ -323,1153 +332,1279 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>₹57</t>
+  </si>
+  <si>
+    <t>₹70</t>
+  </si>
+  <si>
+    <t>₹61</t>
+  </si>
+  <si>
+    <t>₹124</t>
+  </si>
+  <si>
+    <t>₹20</t>
+  </si>
+  <si>
+    <t>₹7</t>
+  </si>
+  <si>
+    <t>₹17</t>
+  </si>
+  <si>
+    <t>₹29</t>
+  </si>
+  <si>
+    <t>₹103</t>
+  </si>
+  <si>
+    <t>₹10</t>
+  </si>
+  <si>
+    <t>₹54</t>
+  </si>
+  <si>
+    <t>₹150</t>
+  </si>
+  <si>
+    <t>₹27</t>
+  </si>
+  <si>
+    <t>₹42</t>
+  </si>
+  <si>
+    <t>₹22.24</t>
+  </si>
+  <si>
+    <t>₹14</t>
+  </si>
+  <si>
+    <t>₹22</t>
+  </si>
+  <si>
+    <t>₹48</t>
+  </si>
+  <si>
+    <t>₹24</t>
+  </si>
+  <si>
+    <t>₹64</t>
+  </si>
+  <si>
+    <t>₹28</t>
+  </si>
+  <si>
+    <t>₹139</t>
+  </si>
+  <si>
+    <t>₹36</t>
+  </si>
+  <si>
+    <t>₹62</t>
+  </si>
+  <si>
+    <t>₹50</t>
+  </si>
+  <si>
+    <t>₹33</t>
+  </si>
+  <si>
+    <t>₹83</t>
+  </si>
+  <si>
+    <t>₹18</t>
+  </si>
+  <si>
+    <t>₹37</t>
+  </si>
+  <si>
+    <t>₹117</t>
+  </si>
+  <si>
+    <t>₹40</t>
+  </si>
+  <si>
+    <t>₹51</t>
+  </si>
+  <si>
+    <t>₹95</t>
+  </si>
+  <si>
+    <t>₹47.95</t>
+  </si>
+  <si>
+    <t>₹12.16</t>
+  </si>
+  <si>
+    <t>₹13.16</t>
+  </si>
+  <si>
+    <t>₹73</t>
+  </si>
+  <si>
     <t>₹122</t>
   </si>
   <si>
+    <t>₹65</t>
+  </si>
+  <si>
+    <t>₹53</t>
+  </si>
+  <si>
+    <t>₹69</t>
+  </si>
+  <si>
+    <t>₹316</t>
+  </si>
+  <si>
+    <t>₹35</t>
+  </si>
+  <si>
+    <t>₹58</t>
+  </si>
+  <si>
+    <t>₹46</t>
+  </si>
+  <si>
+    <t>₹31.51</t>
+  </si>
+  <si>
+    <t>₹11</t>
+  </si>
+  <si>
+    <t>₹118</t>
+  </si>
+  <si>
+    <t>₹44</t>
+  </si>
+  <si>
+    <t>₹133</t>
+  </si>
+  <si>
+    <t>₹68</t>
+  </si>
+  <si>
+    <t>₹325</t>
+  </si>
+  <si>
+    <t>₹75.34</t>
+  </si>
+  <si>
+    <t>₹16</t>
+  </si>
+  <si>
+    <t>₹84</t>
+  </si>
+  <si>
+    <t>₹41.61</t>
+  </si>
+  <si>
+    <t>₹51.1</t>
+  </si>
+  <si>
+    <t>₹41</t>
+  </si>
+  <si>
+    <t>₹10.5</t>
+  </si>
+  <si>
+    <t>₹5.11</t>
+  </si>
+  <si>
+    <t>₹6</t>
+  </si>
+  <si>
+    <t>₹12</t>
+  </si>
+  <si>
+    <t>₹14.6</t>
+  </si>
+  <si>
+    <t>₹75.19</t>
+  </si>
+  <si>
+    <t>₹39.42</t>
+  </si>
+  <si>
+    <t>₹109.5</t>
+  </si>
+  <si>
+    <t>₹11.5</t>
+  </si>
+  <si>
+    <t>₹30.66</t>
+  </si>
+  <si>
+    <t>₹16.24</t>
+  </si>
+  <si>
+    <t>₹10.22</t>
+  </si>
+  <si>
+    <t>₹35.04</t>
+  </si>
+  <si>
+    <t>₹9</t>
+  </si>
+  <si>
+    <t>₹46.72</t>
+  </si>
+  <si>
     <t>₹19</t>
   </si>
   <si>
-    <t>₹7</t>
+    <t>₹101.47</t>
+  </si>
+  <si>
+    <t>₹26.28</t>
+  </si>
+  <si>
+    <t>₹45.26</t>
+  </si>
+  <si>
+    <t>₹9.35</t>
+  </si>
+  <si>
+    <t>₹36.5</t>
+  </si>
+  <si>
+    <t>₹24.09</t>
+  </si>
+  <si>
+    <t>₹49.5</t>
+  </si>
+  <si>
+    <t>₹13.14</t>
+  </si>
+  <si>
+    <t>₹21.17</t>
+  </si>
+  <si>
+    <t>₹16.06</t>
+  </si>
+  <si>
+    <t>₹85.41</t>
+  </si>
+  <si>
+    <t>₹29.2</t>
+  </si>
+  <si>
+    <t>₹37.23</t>
+  </si>
+  <si>
+    <t>₹17.52</t>
+  </si>
+  <si>
+    <t>₹69.35</t>
+  </si>
+  <si>
+    <t>₹12.41</t>
+  </si>
+  <si>
+    <t>₹27.01</t>
+  </si>
+  <si>
+    <t>₹20.44</t>
+  </si>
+  <si>
+    <t>₹8.88</t>
+  </si>
+  <si>
+    <t>₹53.29</t>
+  </si>
+  <si>
+    <t>₹89.06</t>
+  </si>
+  <si>
+    <t>₹47.45</t>
+  </si>
+  <si>
+    <t>₹38.69</t>
+  </si>
+  <si>
+    <t>₹50.37</t>
+  </si>
+  <si>
+    <t>₹230.68</t>
+  </si>
+  <si>
+    <t>₹25.55</t>
+  </si>
+  <si>
+    <t>₹42.34</t>
+  </si>
+  <si>
+    <t>₹44.53</t>
+  </si>
+  <si>
+    <t>₹33.58</t>
+  </si>
+  <si>
+    <t>₹23</t>
+  </si>
+  <si>
+    <t>₹8.03</t>
+  </si>
+  <si>
+    <t>₹86.14</t>
+  </si>
+  <si>
+    <t>₹32.12</t>
+  </si>
+  <si>
+    <t>₹97.09</t>
+  </si>
+  <si>
+    <t>₹49.64</t>
+  </si>
+  <si>
+    <t>₹237.25</t>
+  </si>
+  <si>
+    <t>₹55</t>
+  </si>
+  <si>
+    <t>₹90.52</t>
+  </si>
+  <si>
+    <t>₹11.68</t>
+  </si>
+  <si>
+    <t>27% OFF</t>
+  </si>
+  <si>
+    <t>33% OFF</t>
+  </si>
+  <si>
+    <t>32% OFF</t>
+  </si>
+  <si>
+    <t>48% OFF</t>
+  </si>
+  <si>
+    <t>65% OFF</t>
+  </si>
+  <si>
+    <t>59% OFF</t>
+  </si>
+  <si>
+    <t>30% OFF</t>
+  </si>
+  <si>
+    <t>57% OFF</t>
+  </si>
+  <si>
+    <t>45% OFF</t>
+  </si>
+  <si>
+    <t>41% OFF</t>
+  </si>
+  <si>
+    <t>28% OFF</t>
+  </si>
+  <si>
+    <t>63% OFF</t>
+  </si>
+  <si>
+    <t>40% OFF</t>
+  </si>
+  <si>
+    <t>35% OFF</t>
+  </si>
+  <si>
+    <t>Fresh Vegetables</t>
+  </si>
+  <si>
+    <t>2 kg</t>
+  </si>
+  <si>
+    <t>250 g</t>
+  </si>
+  <si>
+    <t>500 g</t>
+  </si>
+  <si>
+    <t>1 kg</t>
+  </si>
+  <si>
+    <t>2 kg - Multipack</t>
+  </si>
+  <si>
+    <t>1 pc - (approx. 400 to 600 g)</t>
+  </si>
+  <si>
+    <t>100 g</t>
+  </si>
+  <si>
+    <t>1 pc - (approx. 500 g to 800 g)</t>
+  </si>
+  <si>
+    <t>1 pack - (Approx .180g - 200 g)</t>
+  </si>
+  <si>
+    <t>2 pcs</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 500 g - 800 g)</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 100 g)</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 250g-500g)</t>
+  </si>
+  <si>
+    <t>350 g (2 pieces)</t>
+  </si>
+  <si>
+    <t>70 to 100 g (Bunch)</t>
+  </si>
+  <si>
+    <t>1 pc - Approx. 400 to 600 g</t>
+  </si>
+  <si>
+    <t>1 pc (Approx 500-1000 g)</t>
+  </si>
+  <si>
+    <t>1 pc</t>
+  </si>
+  <si>
+    <t>1 pc (approx. 300-1.3 Kg)</t>
+  </si>
+  <si>
+    <t>10 g</t>
+  </si>
+  <si>
+    <t>1 pc - Approx. 2.5 to 4 Kg</t>
+  </si>
+  <si>
+    <t>2023-09-20 11:18:38</t>
+  </si>
+  <si>
+    <t>2023-09-20 11:27:29</t>
+  </si>
+  <si>
+    <t>2023-09-21 06:07:38</t>
+  </si>
+  <si>
+    <t>2023-09-21 07:41:35</t>
+  </si>
+  <si>
+    <t>Grapes - Bangalore Blue</t>
+  </si>
+  <si>
+    <t>Avocado</t>
+  </si>
+  <si>
+    <t>Apple - Red Delicious, Regular</t>
+  </si>
+  <si>
+    <t>Watermelon -  Medium</t>
+  </si>
+  <si>
+    <t>Banana - Robusta, Organically Grown</t>
+  </si>
+  <si>
+    <t>Banana - Robusta</t>
+  </si>
+  <si>
+    <t>Apple - Shimla</t>
+  </si>
+  <si>
+    <t>Pomegranate - Regular (Loose)</t>
+  </si>
+  <si>
+    <t>Banana - Yelakki</t>
+  </si>
+  <si>
+    <t>Baby Apple</t>
+  </si>
+  <si>
+    <t>Apple - Shimla, Regular</t>
+  </si>
+  <si>
+    <t>Coconut - Medium</t>
+  </si>
+  <si>
+    <t>Tender Coconut</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala Economy</t>
+  </si>
+  <si>
+    <t>Papaya</t>
+  </si>
+  <si>
+    <t>Mini Orange Imported (Loose)</t>
+  </si>
+  <si>
+    <t>Pomegranate (Loose)</t>
+  </si>
+  <si>
+    <t>Kiwi - Green</t>
+  </si>
+  <si>
+    <t>Mosambi - Economy (Loose)</t>
+  </si>
+  <si>
+    <t>Guava - Thai (Loose)</t>
+  </si>
+  <si>
+    <t>Watermelon  - Small</t>
+  </si>
+  <si>
+    <t>Banana - Nendran</t>
+  </si>
+  <si>
+    <t>Pear - Naspathi, Indian</t>
+  </si>
+  <si>
+    <t>Dragon Fruit (Loose)</t>
+  </si>
+  <si>
+    <t>Papaya - Small</t>
+  </si>
+  <si>
+    <t>Guava (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala, Regular</t>
+  </si>
+  <si>
+    <t>Blueberry</t>
+  </si>
+  <si>
+    <t>Muskmelon -  Netted Medium</t>
+  </si>
+  <si>
+    <t>Grapes - Bangalore Blue with Seed</t>
+  </si>
+  <si>
+    <t>Avocado - Imported, Medium (Loose)</t>
+  </si>
+  <si>
+    <t>Pear - Green, Imported</t>
+  </si>
+  <si>
+    <t>Avocado (Loose)</t>
+  </si>
+  <si>
+    <t>Banana - Yelakki, Organically Grown</t>
+  </si>
+  <si>
+    <t>Banana - Raw Green (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala, Premium</t>
+  </si>
+  <si>
+    <t>Mosambi - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Fresh Figs</t>
+  </si>
+  <si>
+    <t>Pineapple</t>
+  </si>
+  <si>
+    <t>Mango - Neelam</t>
+  </si>
+  <si>
+    <t>Coconut - Large</t>
+  </si>
+  <si>
+    <t>Langra Mango</t>
+  </si>
+  <si>
+    <t>Apple - Green, Regular</t>
+  </si>
+  <si>
+    <t>Apple - Pink Lady</t>
+  </si>
+  <si>
+    <t>Mallika Mango</t>
+  </si>
+  <si>
+    <t>Banana - Red</t>
+  </si>
+  <si>
+    <t>Pear Beauty</t>
+  </si>
+  <si>
+    <t>Pomegranate - Peeled</t>
+  </si>
+  <si>
+    <t>Raw Mango - Rich in Vitamin C (Loose)</t>
+  </si>
+  <si>
+    <t>Orange - Imported (Loose)</t>
+  </si>
+  <si>
+    <t>Mango - Banganpalli</t>
+  </si>
+  <si>
+    <t>Dates - Kimia, with Seed</t>
+  </si>
+  <si>
+    <t>Guava - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Longan</t>
+  </si>
+  <si>
+    <t>Sapota</t>
+  </si>
+  <si>
+    <t>Baby Banana - Robusta</t>
+  </si>
+  <si>
+    <t>Coconut with Husk - Pooja Coconut</t>
+  </si>
+  <si>
+    <t>Grapes - Red Globe</t>
+  </si>
+  <si>
+    <t>Banana - Poovan</t>
+  </si>
+  <si>
+    <t>Zespri Kiwi - Sun Gold</t>
+  </si>
+  <si>
+    <t>Banana - Karpooravalli</t>
+  </si>
+  <si>
+    <t>Banana - Nendran, Organically Grown</t>
+  </si>
+  <si>
+    <t>Apple - Red Delicious, Economy</t>
+  </si>
+  <si>
+    <t>Coconut - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Sugarcane</t>
+  </si>
+  <si>
+    <t>Pear - Beauty, Rich In Fiber, Vitamin C, Great For Gut Health</t>
+  </si>
+  <si>
+    <t>Soursop</t>
+  </si>
+  <si>
+    <t>Cherry - Kashmir</t>
+  </si>
+  <si>
+    <t>Plum - Indian</t>
+  </si>
+  <si>
+    <t>Ber - Apple (Loose)</t>
+  </si>
+  <si>
+    <t>Coconut - Diced</t>
+  </si>
+  <si>
+    <t>Apple - Fuji, Economy</t>
+  </si>
+  <si>
+    <t>Pineapple - Slices</t>
+  </si>
+  <si>
+    <t>Apricot - Dried</t>
+  </si>
+  <si>
+    <t>Rambutan</t>
+  </si>
+  <si>
+    <t>Papaya- Diced</t>
+  </si>
+  <si>
+    <t>Watermelon - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Mosambi - Premium (Loose)</t>
+  </si>
+  <si>
+    <t>Mango - Raw, Totapuri</t>
+  </si>
+  <si>
+    <t>Pomegranate - Single Serve, Peeled</t>
+  </si>
+  <si>
+    <t>Kesar Mango</t>
+  </si>
+  <si>
+    <t>Apple - Ambri</t>
+  </si>
+  <si>
+    <t>Pineapple - Chunks, Single Serve</t>
+  </si>
+  <si>
+    <t>Cherry</t>
+  </si>
+  <si>
+    <t>Grape fruit - Imported (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Washington, Regular</t>
+  </si>
+  <si>
+    <t>Apple - Red Delicious / Washington, Regular</t>
+  </si>
+  <si>
+    <t>Mosambi (Loose)</t>
+  </si>
+  <si>
+    <t>Ber (Loose)</t>
+  </si>
+  <si>
+    <t>Grapes - Red Globeâ€š  Indian</t>
+  </si>
+  <si>
+    <t>Tamarind - Sweet</t>
+  </si>
+  <si>
+    <t>Mangosteen</t>
+  </si>
+  <si>
+    <t>Sapota - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Pomelo - Peeled</t>
+  </si>
+  <si>
+    <t>Guava - Thai Organic, White</t>
+  </si>
+  <si>
+    <t>Apple - Fuji, Regular</t>
+  </si>
+  <si>
+    <t>Plum - Imported</t>
+  </si>
+  <si>
+    <t>Himayath Mango</t>
+  </si>
+  <si>
+    <t>Raspuri/Gola Mango</t>
+  </si>
+  <si>
+    <t>₹146</t>
+  </si>
+  <si>
+    <t>₹202</t>
+  </si>
+  <si>
+    <t>₹170</t>
+  </si>
+  <si>
+    <t>₹288</t>
+  </si>
+  <si>
+    <t>₹229</t>
+  </si>
+  <si>
+    <t>₹121</t>
+  </si>
+  <si>
+    <t>₹164</t>
+  </si>
+  <si>
+    <t>₹90</t>
+  </si>
+  <si>
+    <t>₹329</t>
   </si>
   <si>
     <t>₹59</t>
   </si>
   <si>
+    <t>₹213</t>
+  </si>
+  <si>
+    <t>₹258</t>
+  </si>
+  <si>
+    <t>₹195</t>
+  </si>
+  <si>
+    <t>₹216</t>
+  </si>
+  <si>
+    <t>₹72</t>
+  </si>
+  <si>
+    <t>₹77</t>
+  </si>
+  <si>
+    <t>₹125</t>
+  </si>
+  <si>
+    <t>₹120</t>
+  </si>
+  <si>
+    <t>₹570</t>
+  </si>
+  <si>
+    <t>₹368</t>
+  </si>
+  <si>
+    <t>₹173</t>
+  </si>
+  <si>
+    <t>₹354</t>
+  </si>
+  <si>
+    <t>₹135</t>
+  </si>
+  <si>
+    <t>₹484</t>
+  </si>
+  <si>
+    <t>₹60</t>
+  </si>
+  <si>
+    <t>₹210.53</t>
+  </si>
+  <si>
+    <t>₹102</t>
+  </si>
+  <si>
+    <t>₹127</t>
+  </si>
+  <si>
+    <t>₹247</t>
+  </si>
+  <si>
+    <t>₹535</t>
+  </si>
+  <si>
+    <t>₹199</t>
+  </si>
+  <si>
+    <t>₹176</t>
+  </si>
+  <si>
+    <t>₹318</t>
+  </si>
+  <si>
+    <t>₹411</t>
+  </si>
+  <si>
+    <t>₹129</t>
+  </si>
+  <si>
+    <t>₹111</t>
+  </si>
+  <si>
+    <t>₹391</t>
+  </si>
+  <si>
+    <t>₹98</t>
+  </si>
+  <si>
+    <t>₹313</t>
+  </si>
+  <si>
+    <t>₹424</t>
+  </si>
+  <si>
+    <t>₹162</t>
+  </si>
+  <si>
+    <t>₹554</t>
+  </si>
+  <si>
+    <t>₹147</t>
+  </si>
+  <si>
+    <t>₹114</t>
+  </si>
+  <si>
+    <t>₹196</t>
+  </si>
+  <si>
+    <t>₹377</t>
+  </si>
+  <si>
+    <t>₹462</t>
+  </si>
+  <si>
+    <t>₹105</t>
+  </si>
+  <si>
+    <t>₹82.19</t>
+  </si>
+  <si>
+    <t>₹187</t>
+  </si>
+  <si>
+    <t>₹290</t>
+  </si>
+  <si>
+    <t>₹76</t>
+  </si>
+  <si>
+    <t>₹158</t>
+  </si>
+  <si>
+    <t>₹410</t>
+  </si>
+  <si>
+    <t>₹161</t>
+  </si>
+  <si>
     <t>₹100</t>
   </si>
   <si>
-    <t>₹103</t>
-  </si>
-  <si>
-    <t>₹10</t>
-  </si>
-  <si>
-    <t>₹54</t>
-  </si>
-  <si>
-    <t>₹33</t>
-  </si>
-  <si>
-    <t>₹51</t>
-  </si>
-  <si>
-    <t>₹42</t>
-  </si>
-  <si>
-    <t>₹22.24</t>
-  </si>
-  <si>
-    <t>₹14</t>
-  </si>
-  <si>
-    <t>₹84</t>
-  </si>
-  <si>
-    <t>₹29</t>
-  </si>
-  <si>
-    <t>₹62</t>
-  </si>
-  <si>
-    <t>₹13</t>
-  </si>
-  <si>
-    <t>₹64</t>
-  </si>
-  <si>
-    <t>₹31</t>
-  </si>
-  <si>
-    <t>₹57</t>
-  </si>
-  <si>
-    <t>₹36</t>
-  </si>
-  <si>
-    <t>₹24</t>
-  </si>
-  <si>
-    <t>₹52</t>
-  </si>
-  <si>
-    <t>₹21</t>
-  </si>
-  <si>
-    <t>₹32</t>
-  </si>
-  <si>
-    <t>₹81</t>
-  </si>
-  <si>
-    <t>₹18</t>
-  </si>
-  <si>
-    <t>₹20</t>
-  </si>
-  <si>
-    <t>₹68</t>
-  </si>
-  <si>
-    <t>₹40</t>
-  </si>
-  <si>
-    <t>₹90</t>
-  </si>
-  <si>
-    <t>₹95</t>
-  </si>
-  <si>
-    <t>₹37</t>
-  </si>
-  <si>
-    <t>₹73</t>
-  </si>
-  <si>
-    <t>₹28</t>
-  </si>
-  <si>
-    <t>₹46</t>
-  </si>
-  <si>
-    <t>₹13.16</t>
-  </si>
-  <si>
-    <t>₹199</t>
-  </si>
-  <si>
-    <t>₹50</t>
-  </si>
-  <si>
-    <t>₹16</t>
-  </si>
-  <si>
-    <t>₹43</t>
-  </si>
-  <si>
-    <t>₹170</t>
-  </si>
-  <si>
-    <t>₹69</t>
-  </si>
-  <si>
-    <t>₹17</t>
-  </si>
-  <si>
-    <t>₹316</t>
-  </si>
-  <si>
-    <t>₹133</t>
-  </si>
-  <si>
-    <t>₹35</t>
-  </si>
-  <si>
-    <t>₹70</t>
-  </si>
-  <si>
-    <t>₹48</t>
-  </si>
-  <si>
-    <t>₹58</t>
-  </si>
-  <si>
-    <t>₹61</t>
-  </si>
-  <si>
-    <t>₹36.99</t>
-  </si>
-  <si>
-    <t>₹53</t>
-  </si>
-  <si>
-    <t>₹11</t>
-  </si>
-  <si>
-    <t>₹124</t>
-  </si>
-  <si>
-    <t>₹30.26</t>
-  </si>
-  <si>
-    <t>₹114</t>
-  </si>
-  <si>
-    <t>₹82.19</t>
-  </si>
-  <si>
-    <t>₹80</t>
-  </si>
-  <si>
-    <t>₹10.5</t>
-  </si>
-  <si>
-    <t>₹5.11</t>
-  </si>
-  <si>
-    <t>₹490</t>
-  </si>
-  <si>
-    <t>₹75.19</t>
-  </si>
-  <si>
-    <t>₹39.42</t>
-  </si>
-  <si>
-    <t>₹24.09</t>
-  </si>
-  <si>
-    <t>₹22.5</t>
-  </si>
-  <si>
-    <t>₹30.66</t>
-  </si>
-  <si>
-    <t>₹16.24</t>
-  </si>
-  <si>
-    <t>₹10.22</t>
-  </si>
-  <si>
-    <t>₹44</t>
-  </si>
-  <si>
-    <t>₹7.5</t>
-  </si>
-  <si>
-    <t>₹46.72</t>
-  </si>
-  <si>
-    <t>₹41.61</t>
-  </si>
-  <si>
-    <t>₹26.28</t>
-  </si>
-  <si>
-    <t>₹17.52</t>
-  </si>
-  <si>
-    <t>₹9.9</t>
-  </si>
-  <si>
-    <t>₹37.96</t>
-  </si>
-  <si>
-    <t>₹15.33</t>
-  </si>
-  <si>
-    <t>₹23.36</t>
-  </si>
-  <si>
-    <t>₹49.5</t>
-  </si>
-  <si>
-    <t>₹13.14</t>
-  </si>
-  <si>
-    <t>₹37.23</t>
-  </si>
-  <si>
-    <t>₹14.6</t>
-  </si>
-  <si>
-    <t>₹29.2</t>
-  </si>
-  <si>
-    <t>₹65.7</t>
-  </si>
-  <si>
-    <t>₹69.35</t>
-  </si>
-  <si>
-    <t>₹45.26</t>
-  </si>
-  <si>
-    <t>₹27.01</t>
-  </si>
-  <si>
-    <t>₹53.29</t>
-  </si>
-  <si>
-    <t>₹20.44</t>
-  </si>
-  <si>
-    <t>₹33.58</t>
+    <t>₹320</t>
+  </si>
+  <si>
+    <t>₹179</t>
+  </si>
+  <si>
+    <t>₹211.25</t>
+  </si>
+  <si>
+    <t>₹78.75</t>
+  </si>
+  <si>
+    <t>₹106.58</t>
+  </si>
+  <si>
+    <t>₹147.46</t>
+  </si>
+  <si>
+    <t>₹60.59</t>
+  </si>
+  <si>
+    <t>₹124.1</t>
+  </si>
+  <si>
+    <t>₹210.24</t>
+  </si>
+  <si>
+    <t>₹88.33</t>
+  </si>
+  <si>
+    <t>₹119.72</t>
+  </si>
+  <si>
+    <t>₹51.5</t>
+  </si>
+  <si>
+    <t>₹240.17</t>
+  </si>
+  <si>
+    <t>₹43.07</t>
+  </si>
+  <si>
+    <t>₹155.49</t>
+  </si>
+  <si>
+    <t>₹188.34</t>
+  </si>
+  <si>
+    <t>₹142</t>
+  </si>
+  <si>
+    <t>₹144</t>
+  </si>
+  <si>
+    <t>₹56.21</t>
+  </si>
+  <si>
+    <t>₹91.25</t>
+  </si>
+  <si>
+    <t>₹85.5</t>
+  </si>
+  <si>
+    <t>₹40.15</t>
+  </si>
+  <si>
+    <t>₹34</t>
+  </si>
+  <si>
+    <t>₹416</t>
+  </si>
+  <si>
+    <t>₹268.64</t>
+  </si>
+  <si>
+    <t>₹126.29</t>
+  </si>
+  <si>
+    <t>₹258.42</t>
+  </si>
+  <si>
+    <t>₹98.55</t>
+  </si>
+  <si>
+    <t>₹353.32</t>
+  </si>
+  <si>
+    <t>₹43.8</t>
+  </si>
+  <si>
+    <t>₹153.69</t>
+  </si>
+  <si>
+    <t>₹74.46</t>
+  </si>
+  <si>
+    <t>₹92.71</t>
+  </si>
+  <si>
+    <t>₹180.31</t>
+  </si>
+  <si>
+    <t>₹350</t>
   </si>
   <si>
     <t>₹145.27</t>
   </si>
   <si>
-    <t>₹36.5</t>
-  </si>
-  <si>
-    <t>₹11.68</t>
-  </si>
-  <si>
-    <t>₹31.39</t>
-  </si>
-  <si>
-    <t>₹124.1</t>
-  </si>
-  <si>
-    <t>₹50.37</t>
-  </si>
-  <si>
-    <t>₹12.41</t>
-  </si>
-  <si>
-    <t>₹230.68</t>
-  </si>
-  <si>
-    <t>₹46.5</t>
-  </si>
-  <si>
-    <t>₹25.55</t>
-  </si>
-  <si>
-    <t>₹51.1</t>
-  </si>
-  <si>
-    <t>₹12</t>
-  </si>
-  <si>
-    <t>₹35.04</t>
-  </si>
-  <si>
-    <t>₹42.34</t>
-  </si>
-  <si>
-    <t>₹44.53</t>
-  </si>
-  <si>
-    <t>₹27</t>
-  </si>
-  <si>
-    <t>₹38.69</t>
-  </si>
-  <si>
-    <t>₹8.03</t>
-  </si>
-  <si>
-    <t>₹90.52</t>
-  </si>
-  <si>
-    <t>₹97.09</t>
-  </si>
-  <si>
-    <t>₹49.64</t>
-  </si>
-  <si>
-    <t>₹22.09</t>
+    <t>₹128.48</t>
+  </si>
+  <si>
+    <t>₹232.14</t>
+  </si>
+  <si>
+    <t>₹300.03</t>
+  </si>
+  <si>
+    <t>₹94.17</t>
+  </si>
+  <si>
+    <t>₹81.03</t>
+  </si>
+  <si>
+    <t>₹285.43</t>
+  </si>
+  <si>
+    <t>₹71.54</t>
+  </si>
+  <si>
+    <t>₹228.49</t>
+  </si>
+  <si>
+    <t>₹309.52</t>
+  </si>
+  <si>
+    <t>₹118.26</t>
+  </si>
+  <si>
+    <t>₹404.42</t>
+  </si>
+  <si>
+    <t>₹107.31</t>
   </si>
   <si>
     <t>₹83.22</t>
   </si>
   <si>
-    <t>₹60</t>
+    <t>₹143.08</t>
+  </si>
+  <si>
+    <t>₹275.21</t>
+  </si>
+  <si>
+    <t>₹337.26</t>
+  </si>
+  <si>
+    <t>₹76.65</t>
+  </si>
+  <si>
+    <t>₹136.51</t>
+  </si>
+  <si>
+    <t>₹211.7</t>
+  </si>
+  <si>
+    <t>₹55.48</t>
+  </si>
+  <si>
+    <t>₹115.34</t>
+  </si>
+  <si>
+    <t>₹299.3</t>
+  </si>
+  <si>
+    <t>₹117.53</t>
+  </si>
+  <si>
+    <t>₹61.32</t>
+  </si>
+  <si>
+    <t>₹233.6</t>
+  </si>
+  <si>
+    <t>₹130.67</t>
+  </si>
+  <si>
+    <t>42% OFF</t>
+  </si>
+  <si>
+    <t>39% OFF</t>
   </si>
   <si>
     <t>34% OFF</t>
   </si>
   <si>
-    <t>45% OFF</t>
-  </si>
-  <si>
-    <t>27% OFF</t>
-  </si>
-  <si>
-    <t>51% OFF</t>
-  </si>
-  <si>
-    <t>48% OFF</t>
-  </si>
-  <si>
-    <t>30% OFF</t>
-  </si>
-  <si>
-    <t>56% OFF</t>
-  </si>
-  <si>
-    <t>36% OFF</t>
-  </si>
-  <si>
-    <t>41% OFF</t>
+    <t>43% OFF</t>
+  </si>
+  <si>
+    <t>50% OFF</t>
   </si>
   <si>
     <t>29% OFF</t>
   </si>
   <si>
-    <t>42% OFF</t>
-  </si>
-  <si>
-    <t>39% OFF</t>
-  </si>
-  <si>
-    <t>65% OFF</t>
-  </si>
-  <si>
-    <t>37% OFF</t>
-  </si>
-  <si>
-    <t>Fresh Vegetables</t>
-  </si>
-  <si>
-    <t>2 kg</t>
-  </si>
-  <si>
-    <t>2 kg - Multipack</t>
-  </si>
-  <si>
-    <t>250 g</t>
-  </si>
-  <si>
-    <t>1 kg</t>
-  </si>
-  <si>
-    <t>10 kg</t>
-  </si>
-  <si>
-    <t>500 g</t>
-  </si>
-  <si>
-    <t>100 g</t>
-  </si>
-  <si>
-    <t>1 pc - (approx. 500 g to 800 g)</t>
-  </si>
-  <si>
-    <t>70 to 100 g (Bunch)</t>
-  </si>
-  <si>
-    <t>1 pc (Approx 500-1000 g)</t>
-  </si>
-  <si>
-    <t>2023-09-20 11:18:38</t>
-  </si>
-  <si>
-    <t>2023-09-20 11:27:29</t>
-  </si>
-  <si>
-    <t>Banana - Robusta, Organically Grown</t>
-  </si>
-  <si>
-    <t>Banana - Robusta</t>
-  </si>
-  <si>
-    <t>Apple - Shimla</t>
-  </si>
-  <si>
-    <t>Pomegranate - Regular (Loose)</t>
-  </si>
-  <si>
-    <t>Banana - Yelakki</t>
-  </si>
-  <si>
-    <t>Baby Apple</t>
-  </si>
-  <si>
-    <t>Apple - Shimla, Regular</t>
-  </si>
-  <si>
-    <t>Coconut - Medium</t>
-  </si>
-  <si>
-    <t>Tender Coconut</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala Economy</t>
-  </si>
-  <si>
-    <t>Papaya</t>
-  </si>
-  <si>
-    <t>Mini Orange Imported (Loose)</t>
-  </si>
-  <si>
-    <t>Pomegranate (Loose)</t>
-  </si>
-  <si>
-    <t>Kiwi - Green</t>
-  </si>
-  <si>
-    <t>Mosambi - Economy (Loose)</t>
-  </si>
-  <si>
-    <t>Guava - Thai (Loose)</t>
-  </si>
-  <si>
-    <t>Watermelon  - Small</t>
-  </si>
-  <si>
-    <t>Banana - Nendran</t>
-  </si>
-  <si>
-    <t>Pear - Naspathi, Indian</t>
-  </si>
-  <si>
-    <t>Dragon Fruit (Loose)</t>
-  </si>
-  <si>
-    <t>Papaya - Small</t>
-  </si>
-  <si>
-    <t>Guava (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala, Regular</t>
-  </si>
-  <si>
-    <t>Blueberry</t>
-  </si>
-  <si>
-    <t>Muskmelon -  Netted Medium</t>
-  </si>
-  <si>
-    <t>Grapes - Bangalore Blue</t>
-  </si>
-  <si>
-    <t>Avocado - Imported, Medium (Loose)</t>
-  </si>
-  <si>
-    <t>Pear - Green, Imported</t>
-  </si>
-  <si>
-    <t>Avocado</t>
-  </si>
-  <si>
-    <t>Banana - Yelakki, Organically Grown</t>
-  </si>
-  <si>
-    <t>Banana - Raw Green (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala, Premium</t>
-  </si>
-  <si>
-    <t>Mosambi - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Fresh Figs</t>
-  </si>
-  <si>
-    <t>Pineapple</t>
-  </si>
-  <si>
-    <t>Mango - Neelam</t>
-  </si>
-  <si>
-    <t>Coconut - Large</t>
-  </si>
-  <si>
-    <t>Langra Mango</t>
-  </si>
-  <si>
-    <t>Apple - Green, Regular</t>
-  </si>
-  <si>
-    <t>Apple - Pink Lady</t>
-  </si>
-  <si>
-    <t>Mallika Mango</t>
-  </si>
-  <si>
-    <t>Banana - Red</t>
-  </si>
-  <si>
-    <t>Pear Beauty</t>
-  </si>
-  <si>
-    <t>Pomegranate - Peeled</t>
-  </si>
-  <si>
-    <t>Raw Mango - Rich in Vitamin C (Loose)</t>
-  </si>
-  <si>
-    <t>Orange - Imported (Loose)</t>
-  </si>
-  <si>
-    <t>Mango - Banganpalli</t>
-  </si>
-  <si>
-    <t>Dates - Kimia, with Seed</t>
-  </si>
-  <si>
-    <t>Guava - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Longan</t>
-  </si>
-  <si>
-    <t>Sapota</t>
-  </si>
-  <si>
-    <t>Baby Banana - Robusta</t>
-  </si>
-  <si>
-    <t>Coconut with Husk - Pooja Coconut</t>
-  </si>
-  <si>
-    <t>Grapes - Red Globe</t>
-  </si>
-  <si>
-    <t>Banana - Poovan</t>
-  </si>
-  <si>
-    <t>Zespri Kiwi - Sun Gold</t>
-  </si>
-  <si>
-    <t>Banana - Karpooravalli</t>
-  </si>
-  <si>
-    <t>Banana - Nendran, Organically Grown</t>
-  </si>
-  <si>
-    <t>Apple - Red Delicious, Economy</t>
-  </si>
-  <si>
-    <t>Coconut - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Sugarcane</t>
-  </si>
-  <si>
-    <t>Pear - Beauty, Rich In Fiber, Vitamin C, Great For Gut Health</t>
-  </si>
-  <si>
-    <t>Soursop</t>
-  </si>
-  <si>
-    <t>Cherry - Kashmir</t>
-  </si>
-  <si>
-    <t>Plum - Indian</t>
-  </si>
-  <si>
-    <t>Ber - Apple (Loose)</t>
-  </si>
-  <si>
-    <t>Coconut - Diced</t>
-  </si>
-  <si>
-    <t>Apple - Fuji, Economy</t>
-  </si>
-  <si>
-    <t>Pineapple - Slices</t>
-  </si>
-  <si>
-    <t>Apricot - Dried</t>
-  </si>
-  <si>
-    <t>Rambutan</t>
-  </si>
-  <si>
-    <t>Papaya- Diced</t>
-  </si>
-  <si>
-    <t>Watermelon - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Mosambi - Premium (Loose)</t>
-  </si>
-  <si>
-    <t>Mango - Raw, Totapuri</t>
-  </si>
-  <si>
-    <t>Pomegranate - Single Serve, Peeled</t>
-  </si>
-  <si>
-    <t>Kesar Mango</t>
-  </si>
-  <si>
-    <t>Apple - Ambri</t>
-  </si>
-  <si>
-    <t>Pineapple - Chunks, Single Serve</t>
-  </si>
-  <si>
-    <t>Cherry</t>
-  </si>
-  <si>
-    <t>Grape fruit - Imported (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Washington, Regular</t>
-  </si>
-  <si>
-    <t>Apple - Red Delicious, Regular</t>
-  </si>
-  <si>
-    <t>Mosambi (Loose)</t>
-  </si>
-  <si>
-    <t>Ber (Loose)</t>
-  </si>
-  <si>
-    <t>Grapes - Red Globeâ€š  Indian</t>
-  </si>
-  <si>
-    <t>Tamarind - Sweet</t>
-  </si>
-  <si>
-    <t>Mangosteen</t>
-  </si>
-  <si>
-    <t>Sapota - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Pomelo - Peeled</t>
-  </si>
-  <si>
-    <t>Guava - Thai Organic, White</t>
-  </si>
-  <si>
-    <t>Apple - Fuji, Regular</t>
-  </si>
-  <si>
-    <t>Plum - Imported</t>
-  </si>
-  <si>
-    <t>Himayath Mango</t>
-  </si>
-  <si>
-    <t>Raspuri/Gola Mango</t>
-  </si>
-  <si>
-    <t>₹288</t>
-  </si>
-  <si>
-    <t>₹229</t>
-  </si>
-  <si>
-    <t>₹109</t>
-  </si>
-  <si>
-    <t>₹164</t>
-  </si>
-  <si>
-    <t>₹329</t>
-  </si>
-  <si>
-    <t>₹211</t>
-  </si>
-  <si>
-    <t>₹258</t>
-  </si>
-  <si>
-    <t>₹195</t>
-  </si>
-  <si>
-    <t>₹72</t>
-  </si>
-  <si>
-    <t>₹79</t>
-  </si>
-  <si>
-    <t>₹248</t>
-  </si>
-  <si>
-    <t>₹117</t>
-  </si>
-  <si>
-    <t>₹55</t>
-  </si>
-  <si>
-    <t>₹285</t>
-  </si>
-  <si>
-    <t>₹368</t>
-  </si>
-  <si>
-    <t>₹146</t>
-  </si>
-  <si>
-    <t>₹173</t>
-  </si>
-  <si>
-    <t>₹354</t>
-  </si>
-  <si>
-    <t>₹83</t>
-  </si>
-  <si>
-    <t>₹484</t>
-  </si>
-  <si>
-    <t>₹110</t>
-  </si>
-  <si>
-    <t>₹210.53</t>
-  </si>
-  <si>
-    <t>₹102</t>
-  </si>
-  <si>
-    <t>₹127</t>
-  </si>
-  <si>
-    <t>₹125</t>
-  </si>
-  <si>
-    <t>₹247</t>
-  </si>
-  <si>
-    <t>₹535</t>
-  </si>
-  <si>
-    <t>₹150</t>
-  </si>
-  <si>
-    <t>₹174</t>
-  </si>
-  <si>
-    <t>₹318</t>
-  </si>
-  <si>
-    <t>₹411</t>
-  </si>
-  <si>
-    <t>₹137</t>
-  </si>
-  <si>
-    <t>₹111</t>
-  </si>
-  <si>
-    <t>₹391</t>
-  </si>
-  <si>
-    <t>₹98</t>
-  </si>
-  <si>
-    <t>₹313</t>
-  </si>
-  <si>
-    <t>₹425</t>
-  </si>
-  <si>
-    <t>₹162</t>
-  </si>
-  <si>
-    <t>₹554</t>
-  </si>
-  <si>
-    <t>₹147</t>
-  </si>
-  <si>
-    <t>₹196</t>
-  </si>
-  <si>
-    <t>₹377</t>
-  </si>
-  <si>
-    <t>₹458</t>
-  </si>
-  <si>
-    <t>₹120</t>
-  </si>
-  <si>
-    <t>₹105</t>
-  </si>
-  <si>
-    <t>₹87.67</t>
-  </si>
-  <si>
-    <t>₹185</t>
-  </si>
-  <si>
-    <t>₹290</t>
-  </si>
-  <si>
-    <t>₹76</t>
-  </si>
-  <si>
-    <t>₹158</t>
-  </si>
-  <si>
-    <t>₹462</t>
-  </si>
-  <si>
-    <t>₹202</t>
-  </si>
-  <si>
-    <t>₹77</t>
-  </si>
-  <si>
-    <t>₹406</t>
-  </si>
-  <si>
-    <t>₹106</t>
-  </si>
-  <si>
-    <t>₹161</t>
-  </si>
-  <si>
-    <t>₹102.74</t>
-  </si>
-  <si>
-    <t>₹320</t>
-  </si>
-  <si>
-    <t>₹211.25</t>
-  </si>
-  <si>
-    <t>₹78.75</t>
-  </si>
-  <si>
-    <t>₹22</t>
-  </si>
-  <si>
-    <t>₹210.24</t>
-  </si>
-  <si>
-    <t>₹79.57</t>
-  </si>
-  <si>
-    <t>₹119.72</t>
-  </si>
-  <si>
-    <t>₹23</t>
-  </si>
-  <si>
-    <t>₹51.5</t>
-  </si>
-  <si>
-    <t>₹240.17</t>
-  </si>
-  <si>
-    <t>₹43.07</t>
-  </si>
-  <si>
-    <t>₹154.03</t>
-  </si>
-  <si>
-    <t>₹188.34</t>
-  </si>
-  <si>
-    <t>₹142</t>
-  </si>
-  <si>
-    <t>₹142.35</t>
-  </si>
-  <si>
-    <t>₹57.67</t>
-  </si>
-  <si>
-    <t>₹30</t>
-  </si>
-  <si>
-    <t>₹181.04</t>
-  </si>
-  <si>
-    <t>₹85.41</t>
-  </si>
-  <si>
-    <t>₹40.15</t>
-  </si>
-  <si>
-    <t>₹34</t>
-  </si>
-  <si>
-    <t>₹208.05</t>
-  </si>
-  <si>
-    <t>₹268.64</t>
-  </si>
-  <si>
-    <t>₹106.58</t>
-  </si>
-  <si>
-    <t>₹126.29</t>
-  </si>
-  <si>
-    <t>₹258.42</t>
-  </si>
-  <si>
-    <t>₹353.32</t>
-  </si>
-  <si>
-    <t>₹51.12</t>
-  </si>
-  <si>
-    <t>₹153.69</t>
-  </si>
-  <si>
-    <t>₹57.6</t>
-  </si>
-  <si>
-    <t>₹92.71</t>
-  </si>
-  <si>
-    <t>₹32.12</t>
-  </si>
-  <si>
-    <t>₹91.25</t>
-  </si>
-  <si>
-    <t>₹180.31</t>
-  </si>
-  <si>
-    <t>₹340</t>
-  </si>
-  <si>
-    <t>₹109.5</t>
-  </si>
-  <si>
-    <t>₹127.02</t>
-  </si>
-  <si>
-    <t>₹232.14</t>
-  </si>
-  <si>
-    <t>₹300.03</t>
-  </si>
-  <si>
-    <t>₹100.01</t>
-  </si>
-  <si>
-    <t>₹81.03</t>
-  </si>
-  <si>
-    <t>₹285.43</t>
-  </si>
-  <si>
-    <t>₹71.54</t>
-  </si>
-  <si>
-    <t>₹228.49</t>
-  </si>
-  <si>
-    <t>₹310.25</t>
-  </si>
-  <si>
-    <t>₹118.26</t>
-  </si>
-  <si>
-    <t>₹404.42</t>
-  </si>
-  <si>
-    <t>₹107.31</t>
-  </si>
-  <si>
-    <t>₹143.08</t>
-  </si>
-  <si>
-    <t>₹275.21</t>
-  </si>
-  <si>
-    <t>₹334.34</t>
-  </si>
-  <si>
-    <t>₹87.6</t>
-  </si>
-  <si>
-    <t>₹76.65</t>
-  </si>
-  <si>
-    <t>₹135.05</t>
-  </si>
-  <si>
-    <t>₹211.7</t>
-  </si>
-  <si>
-    <t>₹55.48</t>
-  </si>
-  <si>
-    <t>₹115.34</t>
-  </si>
-  <si>
-    <t>₹249.6</t>
-  </si>
-  <si>
-    <t>₹147.46</t>
-  </si>
-  <si>
-    <t>₹56.21</t>
-  </si>
-  <si>
-    <t>₹296.38</t>
-  </si>
-  <si>
-    <t>₹77.38</t>
-  </si>
-  <si>
-    <t>₹117.53</t>
-  </si>
-  <si>
-    <t>₹75</t>
-  </si>
-  <si>
-    <t>₹61.32</t>
-  </si>
-  <si>
-    <t>₹233.6</t>
-  </si>
-  <si>
-    <t>28% OFF</t>
-  </si>
-  <si>
-    <t>43% OFF</t>
-  </si>
-  <si>
-    <t>50% OFF</t>
-  </si>
-  <si>
-    <t>38% OFF</t>
-  </si>
-  <si>
-    <t>54% OFF</t>
-  </si>
-  <si>
-    <t>44% OFF</t>
-  </si>
-  <si>
-    <t>46% OFF</t>
-  </si>
-  <si>
     <t>Fresh Fruits</t>
   </si>
   <si>
+    <t>4 pcs - (Approx. 500g - 600g)</t>
+  </si>
+  <si>
+    <t>1 pc - 2.5 - 3.8 kg</t>
+  </si>
+  <si>
     <t>4 pcs - (Approx. 550 - 640 g)</t>
   </si>
   <si>
+    <t>1 kg - (5-6 pcs per kg)</t>
+  </si>
+  <si>
+    <t>4 pcs - (Approx. 640-720 g)</t>
+  </si>
+  <si>
+    <t>1 pc - (approx. 450g to 500)</t>
+  </si>
+  <si>
+    <t>4 pcs - (Approx.450 g-500 g)</t>
+  </si>
+  <si>
+    <t>4 pcs - (Approx. 800 g - 880 g)</t>
+  </si>
+  <si>
+    <t>3 pcs</t>
+  </si>
+  <si>
     <t>3 kg</t>
   </si>
   <si>
     <t>1 pc - 1.7 - 2.5 kg</t>
   </si>
   <si>
-    <t>4 pcs - (Approx. 520 g - 600 g)</t>
+    <t>1 pc - 250 to 350 g</t>
+  </si>
+  <si>
+    <t>1 pc - 500 g - 800 g</t>
+  </si>
+  <si>
+    <t>2x4 pcs - Multipack</t>
+  </si>
+  <si>
+    <t>125 g</t>
   </si>
   <si>
     <t>1 pc - 1.2 - 2 kg</t>
   </si>
   <si>
-    <t>2x4 pcs - Multipack</t>
-  </si>
-  <si>
     <t>4 pcs(Approx.600 g-700 g)</t>
   </si>
   <si>
+    <t>1 pc - 800 g -1000 g</t>
+  </si>
+  <si>
+    <t>1 pc - (approx. 550g to 650g)</t>
+  </si>
+  <si>
     <t>4 pcs Approx(500g-650g)</t>
   </si>
   <si>
+    <t>4 pcs</t>
+  </si>
+  <si>
     <t>200 g</t>
   </si>
   <si>
+    <t>6 pcs</t>
+  </si>
+  <si>
     <t>3 kg - Combo</t>
   </si>
   <si>
-    <t>1 pc</t>
-  </si>
-  <si>
-    <t>4 pcs - (Approx. 500g - 600g)</t>
-  </si>
-  <si>
-    <t>2 pcs</t>
+    <t>1 pc - (Approx. 400 to 500g)</t>
+  </si>
+  <si>
+    <t>1 pc - (approx. 250g to 300g)</t>
+  </si>
+  <si>
+    <t>1 Kg</t>
+  </si>
+  <si>
+    <t>4 pcs - (Approx. 450g - 500g)</t>
+  </si>
+  <si>
+    <t>1 pc - (approx. 300g to 400g)</t>
+  </si>
+  <si>
+    <t>4 pcs - (500 - 600g)</t>
+  </si>
+  <si>
+    <t>1 pc - 400 - 800g</t>
+  </si>
+  <si>
+    <t>Approx 500 g - 1 Pack</t>
+  </si>
+  <si>
+    <t>150 g</t>
+  </si>
+  <si>
+    <t>1 pc (approx. 1 -3 kg)</t>
+  </si>
+  <si>
+    <t>4 pcs - 900-1 kg</t>
+  </si>
+  <si>
+    <t>80 g</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 200 g -  300 g)</t>
+  </si>
+  <si>
+    <t>4 pcs - 530g - 640g</t>
+  </si>
+  <si>
+    <t>2x4 pcs</t>
+  </si>
+  <si>
+    <t>4 pcs - 700-900g</t>
+  </si>
+  <si>
+    <t>225 g</t>
+  </si>
+  <si>
+    <t>1 pc - approx. 300 g to 500 g</t>
   </si>
   <si>
     <t>4 Pcs (Approx.500g-650g)</t>
   </si>
   <si>
+    <t>6 pcs - (approx. 350 g - 400 g)</t>
+  </si>
+  <si>
     <t>2023-09-20 11:28:09</t>
+  </si>
+  <si>
+    <t>2023-09-21 06:08:19</t>
+  </si>
+  <si>
+    <t>2023-09-21 07:42:13</t>
+  </si>
+  <si>
+    <t>2023-09-21 07:42:14</t>
   </si>
 </sst>
 </file>
@@ -1827,7 +1962,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1861,22 +1996,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G2" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1884,22 +2019,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
         <v>160</v>
       </c>
       <c r="D3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G3" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1907,7 +2042,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
         <v>161</v>
@@ -1916,13 +2051,13 @@
         <v>218</v>
       </c>
       <c r="E4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G4" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1930,7 +2065,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
         <v>162</v>
@@ -1939,13 +2074,13 @@
         <v>219</v>
       </c>
       <c r="E5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G5" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1953,22 +2088,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="D6" t="s">
         <v>220</v>
       </c>
       <c r="E6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G6" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1976,22 +2111,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="D7" t="s">
         <v>221</v>
       </c>
       <c r="E7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G7" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1999,22 +2134,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="E8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G8" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2022,22 +2157,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D9" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G9" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2045,22 +2180,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>166</v>
       </c>
       <c r="D10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F10" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G10" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2071,19 +2206,19 @@
         <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>234</v>
       </c>
       <c r="G11" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2091,22 +2226,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G12" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2114,22 +2249,22 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F13" t="s">
         <v>235</v>
       </c>
       <c r="G13" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2137,22 +2272,22 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F14" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G14" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2160,22 +2295,22 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F15" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G15" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2183,22 +2318,22 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D16" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E16" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F16" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G16" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2206,22 +2341,22 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>172</v>
       </c>
       <c r="D17" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E17" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G17" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2229,22 +2364,22 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C18" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="D18" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F18" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G18" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2252,22 +2387,22 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D19" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E19" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F19" t="s">
-        <v>101</v>
+        <v>239</v>
       </c>
       <c r="G19" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2275,22 +2410,22 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D20" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="E20" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F20" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G20" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2298,22 +2433,22 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>172</v>
+        <v>111</v>
       </c>
       <c r="D21" t="s">
         <v>227</v>
       </c>
       <c r="E21" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F21" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G21" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2321,22 +2456,22 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="D22" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F22" t="s">
-        <v>101</v>
+        <v>241</v>
       </c>
       <c r="G22" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2344,22 +2479,22 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="D23" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E23" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F23" t="s">
-        <v>101</v>
+        <v>236</v>
       </c>
       <c r="G23" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2367,22 +2502,22 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C24" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D24" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="E24" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F24" t="s">
         <v>234</v>
       </c>
       <c r="G24" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2390,22 +2525,22 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C25" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E25" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F25" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G25" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2413,22 +2548,22 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C26" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D26" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E26" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F26" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="G26" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2436,22 +2571,22 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C27" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D27" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E27" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F27" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G27" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2459,22 +2594,22 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E28" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G28" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2482,22 +2617,22 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E29" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F29" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G29" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2505,22 +2640,22 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C30" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D30" t="s">
         <v>219</v>
       </c>
       <c r="E30" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F30" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G30" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2528,22 +2663,22 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C31" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D31" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E31" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F31" t="s">
         <v>235</v>
       </c>
       <c r="G31" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2551,22 +2686,22 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C32" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F32" t="s">
-        <v>101</v>
+        <v>234</v>
       </c>
       <c r="G32" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2574,22 +2709,22 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C33" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E33" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G33" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2597,22 +2732,22 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C34" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D34" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="E34" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F34" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G34" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2620,22 +2755,22 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C35" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E35" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F35" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G35" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2643,22 +2778,22 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C36" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="D36" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E36" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F36" t="s">
         <v>235</v>
       </c>
       <c r="G36" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2669,19 +2804,19 @@
         <v>121</v>
       </c>
       <c r="C37" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="D37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E37" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F37" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G37" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2689,22 +2824,22 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C38" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E38" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F38" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G38" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2712,22 +2847,22 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C39" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
       <c r="D39" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="E39" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F39" t="s">
         <v>235</v>
       </c>
       <c r="G39" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2735,22 +2870,22 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="C40" t="s">
-        <v>136</v>
+        <v>189</v>
       </c>
       <c r="D40" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="E40" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F40" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G40" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2758,22 +2893,22 @@
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C41" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E41" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F41" t="s">
         <v>235</v>
       </c>
       <c r="G41" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2781,22 +2916,22 @@
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="C42" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E42" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F42" t="s">
         <v>235</v>
       </c>
       <c r="G42" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2804,22 +2939,22 @@
         <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C43" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E43" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F43" t="s">
-        <v>101</v>
+        <v>235</v>
       </c>
       <c r="G43" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2827,22 +2962,22 @@
         <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C44" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E44" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F44" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G44" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2850,22 +2985,22 @@
         <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C45" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="D45" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E45" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F45" t="s">
         <v>234</v>
       </c>
       <c r="G45" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2873,22 +3008,22 @@
         <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C46" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E46" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F46" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="G46" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2896,22 +3031,22 @@
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="C47" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="D47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E47" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F47" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G47" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2922,19 +3057,19 @@
         <v>138</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="D48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E48" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F48" t="s">
-        <v>101</v>
+        <v>235</v>
       </c>
       <c r="G48" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2942,22 +3077,22 @@
         <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C49" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E49" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F49" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G49" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2965,22 +3100,22 @@
         <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C50" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E50" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F50" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G50" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2988,22 +3123,22 @@
         <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C51" t="s">
-        <v>195</v>
+        <v>104</v>
       </c>
       <c r="D51" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E51" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F51" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G51" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3011,22 +3146,22 @@
         <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C52" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D52" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E52" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F52" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G52" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3034,22 +3169,22 @@
         <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C53" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="D53" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E53" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F53" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G53" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3057,22 +3192,22 @@
         <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C54" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="D54" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E54" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F54" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G54" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3080,22 +3215,22 @@
         <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D55" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E55" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F55" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G55" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3103,22 +3238,22 @@
         <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C56" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D56" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E56" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F56" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G56" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3126,22 +3261,22 @@
         <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="C57" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="D57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E57" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F57" t="s">
-        <v>101</v>
+        <v>236</v>
       </c>
       <c r="G57" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3149,22 +3284,22 @@
         <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C58" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D58" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E58" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F58" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G58" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3175,19 +3310,19 @@
         <v>144</v>
       </c>
       <c r="C59" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E59" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F59" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G59" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3195,22 +3330,22 @@
         <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D60" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E60" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F60" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="G60" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3218,22 +3353,22 @@
         <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="C61" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="D61" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="E61" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F61" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="G61" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3241,22 +3376,22 @@
         <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C62" t="s">
         <v>202</v>
       </c>
       <c r="D62" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E62" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F62" t="s">
-        <v>101</v>
+        <v>235</v>
       </c>
       <c r="G62" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3264,22 +3399,22 @@
         <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="C63" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="D63" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E63" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F63" t="s">
-        <v>101</v>
+        <v>235</v>
       </c>
       <c r="G63" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3287,22 +3422,22 @@
         <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="C64" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D64" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E64" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F64" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G64" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3310,22 +3445,22 @@
         <v>70</v>
       </c>
       <c r="B65" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C65" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E65" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F65" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G65" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3333,22 +3468,22 @@
         <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C66" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="D66" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="E66" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F66" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G66" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3356,22 +3491,22 @@
         <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C67" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D67" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E67" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F67" t="s">
-        <v>101</v>
+        <v>235</v>
       </c>
       <c r="G67" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3379,22 +3514,22 @@
         <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C68" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D68" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E68" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F68" t="s">
-        <v>101</v>
+        <v>234</v>
       </c>
       <c r="G68" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3402,22 +3537,22 @@
         <v>74</v>
       </c>
       <c r="B69" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="C69" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="D69" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E69" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F69" t="s">
-        <v>101</v>
+        <v>236</v>
       </c>
       <c r="G69" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3425,22 +3560,22 @@
         <v>75</v>
       </c>
       <c r="B70" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="C70" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="D70" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E70" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F70" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G70" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3451,19 +3586,19 @@
         <v>148</v>
       </c>
       <c r="C71" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D71" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E71" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F71" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G71" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3471,22 +3606,22 @@
         <v>77</v>
       </c>
       <c r="B72" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="C72" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E72" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F72" t="s">
-        <v>101</v>
+        <v>248</v>
       </c>
       <c r="G72" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3494,22 +3629,22 @@
         <v>78</v>
       </c>
       <c r="B73" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="C73" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D73" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E73" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F73" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G73" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3517,22 +3652,22 @@
         <v>79</v>
       </c>
       <c r="B74" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C74" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D74" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E74" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F74" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="G74" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3540,22 +3675,22 @@
         <v>80</v>
       </c>
       <c r="B75" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="C75" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="D75" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E75" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F75" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="G75" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3563,22 +3698,22 @@
         <v>81</v>
       </c>
       <c r="B76" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="C76" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="D76" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E76" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F76" t="s">
-        <v>101</v>
+        <v>235</v>
       </c>
       <c r="G76" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3586,22 +3721,22 @@
         <v>82</v>
       </c>
       <c r="B77" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C77" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="D77" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E77" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F77" t="s">
         <v>234</v>
       </c>
       <c r="G77" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3609,22 +3744,22 @@
         <v>83</v>
       </c>
       <c r="B78" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C78" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D78" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E78" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F78" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G78" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3632,22 +3767,22 @@
         <v>84</v>
       </c>
       <c r="B79" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C79" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D79" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E79" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F79" t="s">
-        <v>101</v>
+        <v>234</v>
       </c>
       <c r="G79" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3655,22 +3790,22 @@
         <v>85</v>
       </c>
       <c r="B80" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="C80" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="D80" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E80" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F80" t="s">
-        <v>101</v>
+        <v>234</v>
       </c>
       <c r="G80" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3678,22 +3813,22 @@
         <v>86</v>
       </c>
       <c r="B81" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C81" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E81" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F81" t="s">
-        <v>101</v>
+        <v>236</v>
       </c>
       <c r="G81" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3701,22 +3836,22 @@
         <v>87</v>
       </c>
       <c r="B82" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="C82" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="D82" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E82" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F82" t="s">
-        <v>101</v>
+        <v>239</v>
       </c>
       <c r="G82" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3724,22 +3859,22 @@
         <v>88</v>
       </c>
       <c r="B83" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C83" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D83" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E83" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F83" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="G83" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3747,22 +3882,22 @@
         <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C84" t="s">
-        <v>213</v>
+        <v>169</v>
       </c>
       <c r="D84" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E84" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F84" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G84" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3770,22 +3905,22 @@
         <v>90</v>
       </c>
       <c r="B85" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C85" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D85" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E85" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F85" t="s">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="G85" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3793,22 +3928,22 @@
         <v>91</v>
       </c>
       <c r="B86" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="C86" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="D86" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E86" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F86" t="s">
-        <v>101</v>
+        <v>236</v>
       </c>
       <c r="G86" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3816,22 +3951,22 @@
         <v>92</v>
       </c>
       <c r="B87" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C87" t="s">
-        <v>148</v>
+        <v>213</v>
       </c>
       <c r="D87" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E87" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F87" t="s">
-        <v>101</v>
+        <v>235</v>
       </c>
       <c r="G87" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3839,22 +3974,22 @@
         <v>93</v>
       </c>
       <c r="B88" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C88" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="D88" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E88" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F88" t="s">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="G88" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3862,22 +3997,22 @@
         <v>94</v>
       </c>
       <c r="B89" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="C89" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="D89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E89" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F89" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="G89" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3885,22 +4020,22 @@
         <v>95</v>
       </c>
       <c r="B90" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C90" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D90" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E90" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F90" t="s">
-        <v>101</v>
+        <v>235</v>
       </c>
       <c r="G90" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3908,22 +4043,22 @@
         <v>96</v>
       </c>
       <c r="B91" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="C91" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="D91" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E91" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F91" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="G91" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3931,22 +4066,22 @@
         <v>97</v>
       </c>
       <c r="B92" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C92" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D92" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E92" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F92" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G92" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3954,22 +4089,22 @@
         <v>98</v>
       </c>
       <c r="B93" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="C93" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="D93" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E93" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F93" t="s">
-        <v>101</v>
+        <v>252</v>
       </c>
       <c r="G93" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3977,22 +4112,22 @@
         <v>99</v>
       </c>
       <c r="B94" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="C94" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="D94" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E94" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F94" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G94" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4000,22 +4135,91 @@
         <v>100</v>
       </c>
       <c r="B95" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="C95" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="D95" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E95" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F95" t="s">
         <v>234</v>
       </c>
       <c r="G95" t="s">
-        <v>243</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96" t="s">
+        <v>108</v>
+      </c>
+      <c r="C96" t="s">
+        <v>216</v>
+      </c>
+      <c r="D96" t="s">
+        <v>218</v>
+      </c>
+      <c r="E96" t="s">
+        <v>232</v>
+      </c>
+      <c r="F96" t="s">
+        <v>253</v>
+      </c>
+      <c r="G96" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97" t="s">
+        <v>121</v>
+      </c>
+      <c r="C97" t="s">
+        <v>188</v>
+      </c>
+      <c r="D97" t="s">
+        <v>218</v>
+      </c>
+      <c r="E97" t="s">
+        <v>232</v>
+      </c>
+      <c r="F97" t="s">
+        <v>234</v>
+      </c>
+      <c r="G97" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98" t="s">
+        <v>158</v>
+      </c>
+      <c r="C98" t="s">
+        <v>217</v>
+      </c>
+      <c r="D98" t="s">
+        <v>218</v>
+      </c>
+      <c r="E98" t="s">
+        <v>232</v>
+      </c>
+      <c r="F98" t="s">
+        <v>234</v>
+      </c>
+      <c r="G98" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -4025,7 +4229,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4056,2187 +4260,2279 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>357</v>
       </c>
       <c r="C2" t="s">
-        <v>187</v>
+        <v>417</v>
       </c>
       <c r="D2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E2" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G2" t="s">
-        <v>484</v>
+        <v>526</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" t="s">
         <v>122</v>
       </c>
-      <c r="C3" t="s">
-        <v>399</v>
-      </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>475</v>
       </c>
       <c r="E3" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G3" t="s">
-        <v>484</v>
+        <v>526</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>358</v>
       </c>
       <c r="C4" t="s">
-        <v>197</v>
+        <v>418</v>
       </c>
       <c r="D4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E4" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F4" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="G4" t="s">
-        <v>484</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="B5" t="s">
-        <v>339</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="D5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E5" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>483</v>
       </c>
       <c r="G5" t="s">
-        <v>484</v>
+        <v>527</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="B6" t="s">
-        <v>340</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
-        <v>342</v>
+        <v>193</v>
       </c>
       <c r="D6" t="s">
-        <v>462</v>
+        <v>218</v>
       </c>
       <c r="E6" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G6" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="B7" t="s">
-        <v>341</v>
+        <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>401</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>219</v>
+        <v>476</v>
       </c>
       <c r="E7" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G7" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="B8" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="C8" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="D8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E8" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>484</v>
       </c>
       <c r="G8" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>360</v>
       </c>
       <c r="C9" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="D9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E9" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>485</v>
       </c>
       <c r="G9" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>361</v>
       </c>
       <c r="C10" t="s">
-        <v>404</v>
+        <v>154</v>
       </c>
       <c r="D10" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="E10" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>236</v>
       </c>
       <c r="G10" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="B11" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="C11" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="D11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E11" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>235</v>
       </c>
       <c r="G11" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>363</v>
       </c>
       <c r="C12" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="D12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E12" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>486</v>
       </c>
       <c r="G12" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="B13" t="s">
-        <v>344</v>
+        <v>147</v>
       </c>
       <c r="C13" t="s">
-        <v>407</v>
+        <v>208</v>
       </c>
       <c r="D13" t="s">
-        <v>219</v>
+        <v>477</v>
       </c>
       <c r="E13" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F13" t="s">
-        <v>237</v>
+        <v>487</v>
       </c>
       <c r="G13" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="B14" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="C14" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="D14" t="s">
-        <v>219</v>
+        <v>478</v>
       </c>
       <c r="E14" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F14" t="s">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="G14" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="B15" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="C15" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="D15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E15" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F15" t="s">
-        <v>101</v>
+        <v>488</v>
       </c>
       <c r="G15" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="B16" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="C16" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="D16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E16" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F16" t="s">
-        <v>471</v>
+        <v>236</v>
       </c>
       <c r="G16" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="B17" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>427</v>
       </c>
       <c r="D17" t="s">
-        <v>464</v>
+        <v>218</v>
       </c>
       <c r="E17" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F17" t="s">
-        <v>101</v>
+        <v>235</v>
       </c>
       <c r="G17" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="B18" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="C18" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="D18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E18" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F18" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="G18" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="B19" t="s">
-        <v>150</v>
+        <v>369</v>
       </c>
       <c r="C19" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="D19" t="s">
-        <v>465</v>
+        <v>218</v>
       </c>
       <c r="E19" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F19" t="s">
-        <v>237</v>
+        <v>490</v>
       </c>
       <c r="G19" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="B20" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="C20" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="D20" t="s">
         <v>219</v>
       </c>
       <c r="E20" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F20" t="s">
-        <v>235</v>
+        <v>491</v>
       </c>
       <c r="G20" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B21" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="C21" t="s">
-        <v>414</v>
+        <v>127</v>
       </c>
       <c r="D21" t="s">
-        <v>219</v>
+        <v>479</v>
       </c>
       <c r="E21" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F21" t="s">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="G21" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="B22" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="C22" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="D22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E22" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F22" t="s">
-        <v>101</v>
+        <v>492</v>
       </c>
       <c r="G22" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="B23" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="C23" t="s">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="D23" t="s">
-        <v>226</v>
+        <v>475</v>
       </c>
       <c r="E23" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G23" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="B24" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="C24" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="D24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E24" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F24" t="s">
-        <v>473</v>
+        <v>235</v>
       </c>
       <c r="G24" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="B25" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="C25" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="D25" t="s">
-        <v>219</v>
+        <v>480</v>
       </c>
       <c r="E25" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F25" t="s">
-        <v>101</v>
+        <v>493</v>
       </c>
       <c r="G25" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>215</v>
       </c>
       <c r="C26" t="s">
-        <v>183</v>
+        <v>434</v>
       </c>
       <c r="D26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E26" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F26" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="G26" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="B27" t="s">
-        <v>354</v>
+        <v>122</v>
       </c>
       <c r="C27" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="D27" t="s">
-        <v>219</v>
+        <v>480</v>
       </c>
       <c r="E27" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F27" t="s">
         <v>235</v>
       </c>
       <c r="G27" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="B28" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="C28" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="D28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E28" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F28" t="s">
-        <v>101</v>
+        <v>495</v>
       </c>
       <c r="G28" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="B29" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="C29" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="D29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E29" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F29" t="s">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="G29" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="B30" t="s">
-        <v>357</v>
+        <v>136</v>
       </c>
       <c r="C30" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="D30" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="E30" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F30" t="s">
-        <v>234</v>
+        <v>497</v>
       </c>
       <c r="G30" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="B31" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C31" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E31" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F31" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G31" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>377</v>
       </c>
       <c r="C32" t="s">
-        <v>187</v>
+        <v>438</v>
       </c>
       <c r="D32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E32" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F32" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="G32" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="B33" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="C33" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="D33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E33" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F33" t="s">
-        <v>476</v>
+        <v>495</v>
       </c>
       <c r="G33" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="B34" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="C34" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="D34" t="s">
-        <v>466</v>
+        <v>218</v>
       </c>
       <c r="E34" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F34" t="s">
         <v>235</v>
       </c>
       <c r="G34" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="B35" t="s">
-        <v>360</v>
+        <v>154</v>
       </c>
       <c r="C35" t="s">
-        <v>424</v>
+        <v>212</v>
       </c>
       <c r="D35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E35" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F35" t="s">
         <v>235</v>
       </c>
       <c r="G35" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="B36" t="s">
-        <v>361</v>
+        <v>137</v>
       </c>
       <c r="C36" t="s">
-        <v>425</v>
+        <v>193</v>
       </c>
       <c r="D36" t="s">
-        <v>467</v>
+        <v>218</v>
       </c>
       <c r="E36" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F36" t="s">
-        <v>101</v>
+        <v>236</v>
       </c>
       <c r="G36" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="B37" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="C37" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="D37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E37" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F37" t="s">
-        <v>101</v>
+        <v>498</v>
       </c>
       <c r="G37" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="B38" t="s">
-        <v>171</v>
+        <v>381</v>
       </c>
       <c r="C38" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="D38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E38" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F38" t="s">
-        <v>101</v>
+        <v>235</v>
       </c>
       <c r="G38" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="B39" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="C39" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="D39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E39" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F39" t="s">
-        <v>101</v>
+        <v>236</v>
       </c>
       <c r="G39" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="B40" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="C40" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="D40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E40" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F40" t="s">
-        <v>477</v>
+        <v>499</v>
       </c>
       <c r="G40" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="B41" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="C41" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="D41" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E41" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F41" t="s">
-        <v>101</v>
+        <v>236</v>
       </c>
       <c r="G41" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="B42" t="s">
-        <v>366</v>
+        <v>153</v>
       </c>
       <c r="C42" t="s">
-        <v>431</v>
+        <v>211</v>
       </c>
       <c r="D42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E42" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F42" t="s">
-        <v>101</v>
+        <v>500</v>
       </c>
       <c r="G42" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>373</v>
       </c>
       <c r="C43" t="s">
-        <v>165</v>
+        <v>432</v>
       </c>
       <c r="D43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E43" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G43" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="B44" t="s">
-        <v>139</v>
+        <v>385</v>
       </c>
       <c r="C44" t="s">
-        <v>193</v>
+        <v>446</v>
       </c>
       <c r="D44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E44" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F44" t="s">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="G44" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="B45" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="C45" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="D45" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="E45" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F45" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
       <c r="G45" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="B46" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C46" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="D46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E46" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F46" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G46" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="B47" t="s">
-        <v>368</v>
+        <v>115</v>
       </c>
       <c r="C47" t="s">
-        <v>433</v>
+        <v>169</v>
       </c>
       <c r="D47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E47" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F47" t="s">
-        <v>101</v>
+        <v>235</v>
       </c>
       <c r="G47" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="B48" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="C48" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="D48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E48" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F48" t="s">
-        <v>479</v>
+        <v>242</v>
       </c>
       <c r="G48" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="B49" t="s">
-        <v>339</v>
+        <v>388</v>
       </c>
       <c r="C49" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="D49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E49" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F49" t="s">
-        <v>101</v>
+        <v>503</v>
       </c>
       <c r="G49" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="B50" t="s">
-        <v>370</v>
+        <v>137</v>
       </c>
       <c r="C50" t="s">
-        <v>435</v>
+        <v>193</v>
       </c>
       <c r="D50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E50" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F50" t="s">
         <v>235</v>
       </c>
       <c r="G50" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="B51" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="C51" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="D51" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E51" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F51" t="s">
-        <v>234</v>
+        <v>504</v>
       </c>
       <c r="G51" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="B52" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="C52" t="s">
-        <v>415</v>
+        <v>451</v>
       </c>
       <c r="D52" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E52" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F52" t="s">
-        <v>237</v>
+        <v>505</v>
       </c>
       <c r="G52" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="B53" t="s">
-        <v>137</v>
+        <v>360</v>
       </c>
       <c r="C53" t="s">
-        <v>136</v>
+        <v>421</v>
       </c>
       <c r="D53" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E53" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F53" t="s">
-        <v>101</v>
+        <v>506</v>
       </c>
       <c r="G53" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="B54" t="s">
-        <v>122</v>
+        <v>391</v>
       </c>
       <c r="C54" t="s">
-        <v>175</v>
+        <v>452</v>
       </c>
       <c r="D54" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E54" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F54" t="s">
-        <v>101</v>
+        <v>236</v>
       </c>
       <c r="G54" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="B55" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="C55" t="s">
-        <v>418</v>
+        <v>453</v>
       </c>
       <c r="D55" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E55" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F55" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G55" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="B56" t="s">
-        <v>107</v>
+        <v>215</v>
       </c>
       <c r="C56" t="s">
-        <v>164</v>
+        <v>434</v>
       </c>
       <c r="D56" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E56" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F56" t="s">
         <v>235</v>
       </c>
       <c r="G56" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="B57" t="s">
-        <v>372</v>
+        <v>149</v>
       </c>
       <c r="C57" t="s">
-        <v>437</v>
+        <v>125</v>
       </c>
       <c r="D57" t="s">
-        <v>219</v>
+        <v>476</v>
       </c>
       <c r="E57" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F57" t="s">
-        <v>101</v>
+        <v>235</v>
       </c>
       <c r="G57" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="B58" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C58" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D58" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E58" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F58" t="s">
-        <v>237</v>
+        <v>507</v>
       </c>
       <c r="G58" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="B59" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C59" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E59" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F59" t="s">
-        <v>101</v>
+        <v>235</v>
       </c>
       <c r="G59" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="B60" t="s">
-        <v>374</v>
+        <v>144</v>
       </c>
       <c r="C60" t="s">
-        <v>439</v>
+        <v>201</v>
       </c>
       <c r="D60" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E60" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F60" t="s">
-        <v>101</v>
+        <v>235</v>
       </c>
       <c r="G60" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="B61" t="s">
-        <v>140</v>
+        <v>393</v>
       </c>
       <c r="C61" t="s">
-        <v>194</v>
+        <v>454</v>
       </c>
       <c r="D61" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E61" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F61" t="s">
-        <v>101</v>
+        <v>490</v>
       </c>
       <c r="G61" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="B62" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C62" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D62" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E62" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F62" t="s">
-        <v>480</v>
+        <v>235</v>
       </c>
       <c r="G62" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="B63" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="C63" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="D63" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E63" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F63" t="s">
-        <v>101</v>
+        <v>508</v>
       </c>
       <c r="G63" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="B64" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="C64" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="D64" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E64" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F64" t="s">
-        <v>101</v>
+        <v>509</v>
       </c>
       <c r="G64" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="B65" t="s">
-        <v>377</v>
+        <v>129</v>
       </c>
       <c r="C65" t="s">
-        <v>442</v>
+        <v>183</v>
       </c>
       <c r="D65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E65" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F65" t="s">
-        <v>101</v>
+        <v>510</v>
       </c>
       <c r="G65" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="B66" t="s">
-        <v>378</v>
+        <v>120</v>
       </c>
       <c r="C66" t="s">
-        <v>443</v>
+        <v>174</v>
       </c>
       <c r="D66" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E66" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F66" t="s">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="G66" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="B67" t="s">
-        <v>158</v>
+        <v>396</v>
       </c>
       <c r="C67" t="s">
-        <v>215</v>
+        <v>457</v>
       </c>
       <c r="D67" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E67" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F67" t="s">
-        <v>235</v>
+        <v>511</v>
       </c>
       <c r="G67" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="B68" t="s">
-        <v>351</v>
+        <v>397</v>
       </c>
       <c r="C68" t="s">
-        <v>415</v>
+        <v>458</v>
       </c>
       <c r="D68" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E68" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F68" t="s">
-        <v>101</v>
+        <v>512</v>
       </c>
       <c r="G68" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="B69" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="C69" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="D69" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E69" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F69" t="s">
-        <v>101</v>
+        <v>513</v>
       </c>
       <c r="G69" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B70" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="C70" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="D70" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E70" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F70" t="s">
-        <v>101</v>
+        <v>513</v>
       </c>
       <c r="G70" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="B71" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="C71" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="D71" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E71" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F71" t="s">
-        <v>101</v>
+        <v>236</v>
       </c>
       <c r="G71" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="B72" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="C72" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="D72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E72" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F72" t="s">
-        <v>234</v>
+        <v>514</v>
       </c>
       <c r="G72" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="B73" t="s">
-        <v>130</v>
+        <v>401</v>
       </c>
       <c r="C73" t="s">
-        <v>213</v>
+        <v>462</v>
       </c>
       <c r="D73" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E73" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F73" t="s">
-        <v>101</v>
+        <v>502</v>
       </c>
       <c r="G73" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="B74" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="C74" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D74" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E74" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F74" t="s">
-        <v>101</v>
+        <v>503</v>
       </c>
       <c r="G74" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="B75" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="C75" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="D75" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E75" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F75" t="s">
-        <v>101</v>
+        <v>503</v>
       </c>
       <c r="G75" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="B76" t="s">
-        <v>141</v>
+        <v>403</v>
       </c>
       <c r="C76" t="s">
-        <v>195</v>
+        <v>464</v>
       </c>
       <c r="D76" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E76" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F76" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G76" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="B77" t="s">
-        <v>384</v>
+        <v>141</v>
       </c>
       <c r="C77" t="s">
-        <v>119</v>
+        <v>198</v>
       </c>
       <c r="D77" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E77" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F77" t="s">
-        <v>101</v>
+        <v>503</v>
       </c>
       <c r="G77" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="B78" t="s">
-        <v>385</v>
+        <v>113</v>
       </c>
       <c r="C78" t="s">
-        <v>449</v>
+        <v>168</v>
       </c>
       <c r="D78" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E78" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F78" t="s">
-        <v>235</v>
+        <v>515</v>
       </c>
       <c r="G78" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="B79" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="C79" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="D79" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E79" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F79" t="s">
-        <v>235</v>
+        <v>516</v>
       </c>
       <c r="G79" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="B80" t="s">
-        <v>387</v>
+        <v>158</v>
       </c>
       <c r="C80" t="s">
-        <v>451</v>
+        <v>217</v>
       </c>
       <c r="D80" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E80" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F80" t="s">
-        <v>101</v>
+        <v>235</v>
       </c>
       <c r="G80" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="B81" t="s">
-        <v>156</v>
+        <v>405</v>
       </c>
       <c r="C81" t="s">
-        <v>211</v>
+        <v>381</v>
       </c>
       <c r="D81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E81" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F81" t="s">
-        <v>101</v>
+        <v>517</v>
       </c>
       <c r="G81" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="B82" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="C82" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="D82" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E82" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F82" t="s">
-        <v>101</v>
+        <v>236</v>
       </c>
       <c r="G82" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="B83" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="C83" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="D83" t="s">
-        <v>468</v>
+        <v>218</v>
       </c>
       <c r="E83" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F83" t="s">
-        <v>101</v>
+        <v>236</v>
       </c>
       <c r="G83" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="B84" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="C84" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="D84" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E84" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F84" t="s">
-        <v>481</v>
+        <v>517</v>
       </c>
       <c r="G84" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="B85" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="C85" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="D85" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E85" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F85" t="s">
-        <v>101</v>
+        <v>234</v>
       </c>
       <c r="G85" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="B86" t="s">
-        <v>137</v>
+        <v>409</v>
       </c>
       <c r="C86" t="s">
-        <v>192</v>
+        <v>469</v>
       </c>
       <c r="D86" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E86" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F86" t="s">
-        <v>237</v>
+        <v>518</v>
       </c>
       <c r="G86" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="B87" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="C87" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="D87" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E87" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F87" t="s">
-        <v>235</v>
+        <v>519</v>
       </c>
       <c r="G87" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="B88" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="C88" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="D88" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E88" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F88" t="s">
-        <v>101</v>
+        <v>520</v>
       </c>
       <c r="G88" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="B89" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="C89" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
       <c r="D89" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E89" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F89" t="s">
-        <v>482</v>
+        <v>521</v>
       </c>
       <c r="G89" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="B90" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C90" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="D90" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E90" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F90" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G90" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="B91" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="C91" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="D91" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E91" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F91" t="s">
-        <v>101</v>
+        <v>236</v>
       </c>
       <c r="G91" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="B92" t="s">
-        <v>115</v>
+        <v>404</v>
       </c>
       <c r="C92" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="D92" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E92" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F92" t="s">
-        <v>101</v>
+        <v>522</v>
       </c>
       <c r="G92" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="B93" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="C93" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="D93" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E93" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F93" t="s">
-        <v>483</v>
+        <v>242</v>
       </c>
       <c r="G93" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="B94" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C94" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="D94" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E94" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F94" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G94" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="B95" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="C95" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="D95" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E95" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F95" t="s">
-        <v>101</v>
+        <v>503</v>
       </c>
       <c r="G95" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="B96" t="s">
-        <v>398</v>
+        <v>159</v>
       </c>
       <c r="C96" t="s">
-        <v>101</v>
+        <v>472</v>
       </c>
       <c r="D96" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E96" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F96" t="s">
-        <v>101</v>
+        <v>523</v>
       </c>
       <c r="G96" t="s">
-        <v>484</v>
+        <v>529</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>353</v>
+      </c>
+      <c r="B97" t="s">
+        <v>413</v>
+      </c>
+      <c r="C97" t="s">
+        <v>473</v>
+      </c>
+      <c r="D97" t="s">
+        <v>218</v>
+      </c>
+      <c r="E97" t="s">
+        <v>481</v>
+      </c>
+      <c r="F97" t="s">
+        <v>524</v>
+      </c>
+      <c r="G97" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>354</v>
+      </c>
+      <c r="B98" t="s">
+        <v>414</v>
+      </c>
+      <c r="C98" t="s">
+        <v>474</v>
+      </c>
+      <c r="D98" t="s">
+        <v>218</v>
+      </c>
+      <c r="E98" t="s">
+        <v>481</v>
+      </c>
+      <c r="F98" t="s">
+        <v>525</v>
+      </c>
+      <c r="G98" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>355</v>
+      </c>
+      <c r="B99" t="s">
+        <v>415</v>
+      </c>
+      <c r="C99" t="s">
+        <v>104</v>
+      </c>
+      <c r="D99" t="s">
+        <v>218</v>
+      </c>
+      <c r="E99" t="s">
+        <v>481</v>
+      </c>
+      <c r="F99" t="s">
+        <v>236</v>
+      </c>
+      <c r="G99" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>356</v>
+      </c>
+      <c r="B100" t="s">
+        <v>416</v>
+      </c>
+      <c r="C100" t="s">
+        <v>104</v>
+      </c>
+      <c r="D100" t="s">
+        <v>218</v>
+      </c>
+      <c r="E100" t="s">
+        <v>481</v>
+      </c>
+      <c r="F100" t="s">
+        <v>236</v>
+      </c>
+      <c r="G100" t="s">
+        <v>529</v>
       </c>
     </row>
   </sheetData>

--- a/BigBasket/BigBasket_products.xlsx
+++ b/BigBasket/BigBasket_products.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="529">
   <si>
     <t>product_name</t>
   </si>
@@ -38,18 +38,18 @@
     <t>timestamp</t>
   </si>
   <si>
+    <t>Ginger - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Beans - French Ring, Organically Grown</t>
+  </si>
+  <si>
+    <t>Onion (Loose)</t>
+  </si>
+  <si>
     <t>Tomato - Hybrid</t>
   </si>
   <si>
-    <t>Ginger - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Beans - French Ring, Organically Grown</t>
-  </si>
-  <si>
-    <t>Onion (Loose)</t>
-  </si>
-  <si>
     <t>Onion</t>
   </si>
   <si>
@@ -329,18 +329,18 @@
     <t>Bitter Gourd - Organically Grown (Loose)</t>
   </si>
   <si>
+    <t>₹57</t>
+  </si>
+  <si>
+    <t>₹70</t>
+  </si>
+  <si>
+    <t>₹61</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>₹57</t>
-  </si>
-  <si>
-    <t>₹70</t>
-  </si>
-  <si>
-    <t>₹61</t>
-  </si>
-  <si>
     <t>₹124</t>
   </si>
   <si>
@@ -353,1014 +353,1029 @@
     <t>₹17</t>
   </si>
   <si>
+    <t>₹46</t>
+  </si>
+  <si>
+    <t>₹103</t>
+  </si>
+  <si>
+    <t>₹10</t>
+  </si>
+  <si>
+    <t>₹54</t>
+  </si>
+  <si>
+    <t>₹37</t>
+  </si>
+  <si>
+    <t>₹27</t>
+  </si>
+  <si>
+    <t>₹42</t>
+  </si>
+  <si>
+    <t>₹22.24</t>
+  </si>
+  <si>
+    <t>₹14</t>
+  </si>
+  <si>
+    <t>₹22</t>
+  </si>
+  <si>
+    <t>₹48</t>
+  </si>
+  <si>
+    <t>₹24</t>
+  </si>
+  <si>
+    <t>₹64</t>
+  </si>
+  <si>
+    <t>₹28</t>
+  </si>
+  <si>
+    <t>₹139</t>
+  </si>
+  <si>
+    <t>₹36</t>
+  </si>
+  <si>
+    <t>₹62</t>
+  </si>
+  <si>
+    <t>₹16</t>
+  </si>
+  <si>
+    <t>₹50</t>
+  </si>
+  <si>
+    <t>₹33</t>
+  </si>
+  <si>
+    <t>₹83</t>
+  </si>
+  <si>
+    <t>₹18</t>
+  </si>
+  <si>
     <t>₹29</t>
   </si>
   <si>
-    <t>₹103</t>
-  </si>
-  <si>
-    <t>₹10</t>
-  </si>
-  <si>
-    <t>₹54</t>
+    <t>₹111</t>
+  </si>
+  <si>
+    <t>₹40</t>
+  </si>
+  <si>
+    <t>₹51</t>
+  </si>
+  <si>
+    <t>₹95</t>
+  </si>
+  <si>
+    <t>₹47.95</t>
+  </si>
+  <si>
+    <t>₹12.16</t>
+  </si>
+  <si>
+    <t>₹13.16</t>
+  </si>
+  <si>
+    <t>₹73</t>
+  </si>
+  <si>
+    <t>₹122</t>
+  </si>
+  <si>
+    <t>₹65</t>
+  </si>
+  <si>
+    <t>₹53</t>
+  </si>
+  <si>
+    <t>₹125</t>
+  </si>
+  <si>
+    <t>₹69</t>
+  </si>
+  <si>
+    <t>₹316</t>
+  </si>
+  <si>
+    <t>₹35</t>
+  </si>
+  <si>
+    <t>₹58</t>
+  </si>
+  <si>
+    <t>₹31.51</t>
+  </si>
+  <si>
+    <t>₹11</t>
+  </si>
+  <si>
+    <t>₹118</t>
+  </si>
+  <si>
+    <t>₹133</t>
+  </si>
+  <si>
+    <t>₹68</t>
+  </si>
+  <si>
+    <t>₹325</t>
+  </si>
+  <si>
+    <t>₹75.34</t>
+  </si>
+  <si>
+    <t>₹84</t>
+  </si>
+  <si>
+    <t>₹41.61</t>
+  </si>
+  <si>
+    <t>₹51.1</t>
+  </si>
+  <si>
+    <t>₹41</t>
+  </si>
+  <si>
+    <t>₹10.5</t>
+  </si>
+  <si>
+    <t>₹5.11</t>
+  </si>
+  <si>
+    <t>₹6</t>
+  </si>
+  <si>
+    <t>₹27.5</t>
+  </si>
+  <si>
+    <t>₹14.6</t>
+  </si>
+  <si>
+    <t>₹75.19</t>
+  </si>
+  <si>
+    <t>₹39.42</t>
+  </si>
+  <si>
+    <t>₹24.5</t>
+  </si>
+  <si>
+    <t>₹11.5</t>
+  </si>
+  <si>
+    <t>₹30.66</t>
+  </si>
+  <si>
+    <t>₹16.24</t>
+  </si>
+  <si>
+    <t>₹10.22</t>
+  </si>
+  <si>
+    <t>₹12</t>
+  </si>
+  <si>
+    <t>₹44</t>
+  </si>
+  <si>
+    <t>₹35.04</t>
+  </si>
+  <si>
+    <t>₹9</t>
+  </si>
+  <si>
+    <t>₹46.72</t>
+  </si>
+  <si>
+    <t>₹19</t>
+  </si>
+  <si>
+    <t>₹101.47</t>
+  </si>
+  <si>
+    <t>₹26.28</t>
+  </si>
+  <si>
+    <t>₹45.26</t>
+  </si>
+  <si>
+    <t>₹9.35</t>
+  </si>
+  <si>
+    <t>₹36.5</t>
+  </si>
+  <si>
+    <t>₹24.09</t>
+  </si>
+  <si>
+    <t>₹49.5</t>
+  </si>
+  <si>
+    <t>₹13.14</t>
+  </si>
+  <si>
+    <t>₹21.17</t>
+  </si>
+  <si>
+    <t>₹16.06</t>
+  </si>
+  <si>
+    <t>₹81.03</t>
+  </si>
+  <si>
+    <t>₹29.2</t>
+  </si>
+  <si>
+    <t>₹37.23</t>
+  </si>
+  <si>
+    <t>₹17.52</t>
+  </si>
+  <si>
+    <t>₹69.35</t>
+  </si>
+  <si>
+    <t>₹12.41</t>
+  </si>
+  <si>
+    <t>₹27.01</t>
+  </si>
+  <si>
+    <t>₹20.44</t>
+  </si>
+  <si>
+    <t>₹8.88</t>
+  </si>
+  <si>
+    <t>₹53.29</t>
+  </si>
+  <si>
+    <t>₹89.06</t>
+  </si>
+  <si>
+    <t>₹47.45</t>
+  </si>
+  <si>
+    <t>₹38.69</t>
+  </si>
+  <si>
+    <t>₹91.25</t>
+  </si>
+  <si>
+    <t>₹50.37</t>
+  </si>
+  <si>
+    <t>₹230.68</t>
+  </si>
+  <si>
+    <t>₹25.55</t>
+  </si>
+  <si>
+    <t>₹42.34</t>
+  </si>
+  <si>
+    <t>₹33.58</t>
+  </si>
+  <si>
+    <t>₹23</t>
+  </si>
+  <si>
+    <t>₹8.03</t>
+  </si>
+  <si>
+    <t>₹86.14</t>
+  </si>
+  <si>
+    <t>₹97.09</t>
+  </si>
+  <si>
+    <t>₹49.64</t>
+  </si>
+  <si>
+    <t>₹237.25</t>
+  </si>
+  <si>
+    <t>₹55</t>
+  </si>
+  <si>
+    <t>₹90.52</t>
+  </si>
+  <si>
+    <t>₹61.32</t>
+  </si>
+  <si>
+    <t>₹11.68</t>
+  </si>
+  <si>
+    <t>27% OFF</t>
+  </si>
+  <si>
+    <t>33% OFF</t>
+  </si>
+  <si>
+    <t>32% OFF</t>
+  </si>
+  <si>
+    <t>48% OFF</t>
+  </si>
+  <si>
+    <t>65% OFF</t>
+  </si>
+  <si>
+    <t>40% OFF</t>
+  </si>
+  <si>
+    <t>30% OFF</t>
+  </si>
+  <si>
+    <t>34% OFF</t>
+  </si>
+  <si>
+    <t>57% OFF</t>
+  </si>
+  <si>
+    <t>45% OFF</t>
+  </si>
+  <si>
+    <t>37% OFF</t>
+  </si>
+  <si>
+    <t>28% OFF</t>
+  </si>
+  <si>
+    <t>63% OFF</t>
+  </si>
+  <si>
+    <t>42% OFF</t>
+  </si>
+  <si>
+    <t>35% OFF</t>
+  </si>
+  <si>
+    <t>Fresh Vegetables</t>
+  </si>
+  <si>
+    <t>250 g</t>
+  </si>
+  <si>
+    <t>500 g</t>
+  </si>
+  <si>
+    <t>1 kg</t>
+  </si>
+  <si>
+    <t>2 kg</t>
+  </si>
+  <si>
+    <t>2 kg - Multipack</t>
+  </si>
+  <si>
+    <t>1 pc - (approx. 400 to 600 g)</t>
+  </si>
+  <si>
+    <t>100 g</t>
+  </si>
+  <si>
+    <t>1 pc - (approx. 500 g to 800 g)</t>
+  </si>
+  <si>
+    <t>1 pack - (Approx .180g - 200 g)</t>
+  </si>
+  <si>
+    <t>2 pcs</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 500 g - 800 g)</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 100 g)</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 250g-500g)</t>
+  </si>
+  <si>
+    <t>350 g (2 pieces)</t>
+  </si>
+  <si>
+    <t>70 to 100 g (Bunch)</t>
+  </si>
+  <si>
+    <t>1 pc - Approx. 400 to 600 g</t>
+  </si>
+  <si>
+    <t>1 pc (Approx 500-1000 g)</t>
+  </si>
+  <si>
+    <t>1 pc</t>
+  </si>
+  <si>
+    <t>1 pc (approx. 300-1.3 Kg)</t>
+  </si>
+  <si>
+    <t>10 g</t>
+  </si>
+  <si>
+    <t>1 pc - Approx. 2.5 to 4 Kg</t>
+  </si>
+  <si>
+    <t>2023-09-20 11:27:29</t>
+  </si>
+  <si>
+    <t>2023-09-21 06:07:38</t>
+  </si>
+  <si>
+    <t>2023-09-21 10:15:49</t>
+  </si>
+  <si>
+    <t>2023-09-21 10:59:58</t>
+  </si>
+  <si>
+    <t>Grapes - Bangalore Blue</t>
+  </si>
+  <si>
+    <t>Avocado</t>
+  </si>
+  <si>
+    <t>Apple - Red Delicious, Regular</t>
+  </si>
+  <si>
+    <t>Watermelon -  Medium</t>
+  </si>
+  <si>
+    <t>Banana - Robusta, Organically Grown</t>
+  </si>
+  <si>
+    <t>Banana - Robusta</t>
+  </si>
+  <si>
+    <t>Apple - Shimla</t>
+  </si>
+  <si>
+    <t>Pomegranate - Regular (Loose)</t>
+  </si>
+  <si>
+    <t>Banana - Yelakki</t>
+  </si>
+  <si>
+    <t>Baby Apple</t>
+  </si>
+  <si>
+    <t>Apple - Shimla, Regular</t>
+  </si>
+  <si>
+    <t>Coconut - Medium</t>
+  </si>
+  <si>
+    <t>Tender Coconut</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala Economy</t>
+  </si>
+  <si>
+    <t>Papaya</t>
+  </si>
+  <si>
+    <t>Mini Orange Imported (Loose)</t>
+  </si>
+  <si>
+    <t>Pomegranate (Loose)</t>
+  </si>
+  <si>
+    <t>Kiwi - Green</t>
+  </si>
+  <si>
+    <t>Mosambi - Economy (Loose)</t>
+  </si>
+  <si>
+    <t>Guava - Thai (Loose)</t>
+  </si>
+  <si>
+    <t>Watermelon  - Small</t>
+  </si>
+  <si>
+    <t>Banana - Nendran</t>
+  </si>
+  <si>
+    <t>Pear - Naspathi, Indian</t>
+  </si>
+  <si>
+    <t>Dragon Fruit (Loose)</t>
+  </si>
+  <si>
+    <t>Papaya - Small</t>
+  </si>
+  <si>
+    <t>Guava (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala, Regular</t>
+  </si>
+  <si>
+    <t>Blueberry</t>
+  </si>
+  <si>
+    <t>Muskmelon -  Netted Medium</t>
+  </si>
+  <si>
+    <t>Grapes - Bangalore Blue with Seed</t>
+  </si>
+  <si>
+    <t>Avocado - Imported, Medium (Loose)</t>
+  </si>
+  <si>
+    <t>Pear - Green, Imported</t>
+  </si>
+  <si>
+    <t>Avocado (Loose)</t>
+  </si>
+  <si>
+    <t>Banana - Yelakki, Organically Grown</t>
+  </si>
+  <si>
+    <t>Banana - Raw Green (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala, Premium</t>
+  </si>
+  <si>
+    <t>Mosambi - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Fresh Figs</t>
+  </si>
+  <si>
+    <t>Pineapple</t>
+  </si>
+  <si>
+    <t>Mango - Neelam</t>
+  </si>
+  <si>
+    <t>Coconut - Large</t>
+  </si>
+  <si>
+    <t>Langra Mango</t>
+  </si>
+  <si>
+    <t>Apple - Green, Regular</t>
+  </si>
+  <si>
+    <t>Apple - Pink Lady</t>
+  </si>
+  <si>
+    <t>Mallika Mango</t>
+  </si>
+  <si>
+    <t>Banana - Red</t>
+  </si>
+  <si>
+    <t>Pear Beauty</t>
+  </si>
+  <si>
+    <t>Pomegranate - Peeled</t>
+  </si>
+  <si>
+    <t>Raw Mango - Rich in Vitamin C (Loose)</t>
+  </si>
+  <si>
+    <t>Orange - Imported (Loose)</t>
+  </si>
+  <si>
+    <t>Mango - Banganpalli</t>
+  </si>
+  <si>
+    <t>Dates - Kimia, with Seed</t>
+  </si>
+  <si>
+    <t>Guava - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Longan</t>
+  </si>
+  <si>
+    <t>Sapota</t>
+  </si>
+  <si>
+    <t>Baby Banana - Robusta</t>
+  </si>
+  <si>
+    <t>Coconut with Husk - Pooja Coconut</t>
+  </si>
+  <si>
+    <t>Grapes - Red Globe</t>
+  </si>
+  <si>
+    <t>Banana - Poovan</t>
+  </si>
+  <si>
+    <t>Zespri Kiwi - Sun Gold</t>
+  </si>
+  <si>
+    <t>Banana - Karpooravalli</t>
+  </si>
+  <si>
+    <t>Banana - Nendran, Organically Grown</t>
+  </si>
+  <si>
+    <t>Apple - Red Delicious, Economy</t>
+  </si>
+  <si>
+    <t>Coconut - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Sugarcane</t>
+  </si>
+  <si>
+    <t>Pear - Beauty, Rich In Fiber, Vitamin C, Great For Gut Health</t>
+  </si>
+  <si>
+    <t>Soursop</t>
+  </si>
+  <si>
+    <t>Cherry - Kashmir</t>
+  </si>
+  <si>
+    <t>Plum - Indian</t>
+  </si>
+  <si>
+    <t>Ber - Apple (Loose)</t>
+  </si>
+  <si>
+    <t>Coconut - Diced</t>
+  </si>
+  <si>
+    <t>Apple - Fuji, Economy</t>
+  </si>
+  <si>
+    <t>Pineapple - Slices</t>
+  </si>
+  <si>
+    <t>Apricot - Dried</t>
+  </si>
+  <si>
+    <t>Rambutan</t>
+  </si>
+  <si>
+    <t>Papaya- Diced</t>
+  </si>
+  <si>
+    <t>Watermelon - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Mosambi - Premium (Loose)</t>
+  </si>
+  <si>
+    <t>Mango - Raw, Totapuri</t>
+  </si>
+  <si>
+    <t>Pomegranate - Single Serve, Peeled</t>
+  </si>
+  <si>
+    <t>Kesar Mango</t>
+  </si>
+  <si>
+    <t>Apple - Ambri</t>
+  </si>
+  <si>
+    <t>Pineapple - Chunks, Single Serve</t>
+  </si>
+  <si>
+    <t>Cherry</t>
+  </si>
+  <si>
+    <t>Grape fruit - Imported (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Washington, Regular</t>
+  </si>
+  <si>
+    <t>Apple - Red Delicious / Washington, Regular</t>
+  </si>
+  <si>
+    <t>Mosambi (Loose)</t>
+  </si>
+  <si>
+    <t>Ber (Loose)</t>
+  </si>
+  <si>
+    <t>Grapes - Red Globeâ€š  Indian</t>
+  </si>
+  <si>
+    <t>Tamarind - Sweet</t>
+  </si>
+  <si>
+    <t>Mangosteen</t>
+  </si>
+  <si>
+    <t>Sapota - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Pomelo - Peeled</t>
+  </si>
+  <si>
+    <t>Guava - Thai Organic, White</t>
+  </si>
+  <si>
+    <t>Apple - Fuji, Regular</t>
+  </si>
+  <si>
+    <t>Plum - Imported</t>
+  </si>
+  <si>
+    <t>Himayath Mango</t>
+  </si>
+  <si>
+    <t>Raspuri/Gola Mango</t>
+  </si>
+  <si>
+    <t>₹146</t>
+  </si>
+  <si>
+    <t>₹202</t>
+  </si>
+  <si>
+    <t>₹170</t>
+  </si>
+  <si>
+    <t>₹288</t>
+  </si>
+  <si>
+    <t>₹229</t>
+  </si>
+  <si>
+    <t>₹121</t>
+  </si>
+  <si>
+    <t>₹164</t>
+  </si>
+  <si>
+    <t>₹90</t>
+  </si>
+  <si>
+    <t>₹329</t>
+  </si>
+  <si>
+    <t>₹59</t>
+  </si>
+  <si>
+    <t>₹213</t>
+  </si>
+  <si>
+    <t>₹258</t>
+  </si>
+  <si>
+    <t>₹195</t>
+  </si>
+  <si>
+    <t>₹216</t>
+  </si>
+  <si>
+    <t>₹72</t>
+  </si>
+  <si>
+    <t>₹77</t>
+  </si>
+  <si>
+    <t>₹248</t>
+  </si>
+  <si>
+    <t>₹120</t>
+  </si>
+  <si>
+    <t>₹570</t>
+  </si>
+  <si>
+    <t>₹368</t>
+  </si>
+  <si>
+    <t>₹173</t>
+  </si>
+  <si>
+    <t>₹354</t>
+  </si>
+  <si>
+    <t>₹152</t>
+  </si>
+  <si>
+    <t>₹265</t>
+  </si>
+  <si>
+    <t>₹484</t>
+  </si>
+  <si>
+    <t>₹60</t>
+  </si>
+  <si>
+    <t>₹210.53</t>
+  </si>
+  <si>
+    <t>₹102</t>
+  </si>
+  <si>
+    <t>₹127</t>
+  </si>
+  <si>
+    <t>₹247</t>
+  </si>
+  <si>
+    <t>₹535</t>
   </si>
   <si>
     <t>₹150</t>
   </si>
   <si>
-    <t>₹27</t>
-  </si>
-  <si>
-    <t>₹42</t>
-  </si>
-  <si>
-    <t>₹22.24</t>
-  </si>
-  <si>
-    <t>₹14</t>
-  </si>
-  <si>
-    <t>₹22</t>
-  </si>
-  <si>
-    <t>₹48</t>
-  </si>
-  <si>
-    <t>₹24</t>
-  </si>
-  <si>
-    <t>₹64</t>
-  </si>
-  <si>
-    <t>₹28</t>
-  </si>
-  <si>
-    <t>₹139</t>
-  </si>
-  <si>
-    <t>₹36</t>
-  </si>
-  <si>
-    <t>₹62</t>
-  </si>
-  <si>
-    <t>₹50</t>
-  </si>
-  <si>
-    <t>₹33</t>
-  </si>
-  <si>
-    <t>₹83</t>
-  </si>
-  <si>
-    <t>₹18</t>
-  </si>
-  <si>
-    <t>₹37</t>
-  </si>
-  <si>
-    <t>₹117</t>
-  </si>
-  <si>
-    <t>₹40</t>
-  </si>
-  <si>
-    <t>₹51</t>
-  </si>
-  <si>
-    <t>₹95</t>
-  </si>
-  <si>
-    <t>₹47.95</t>
-  </si>
-  <si>
-    <t>₹12.16</t>
-  </si>
-  <si>
-    <t>₹13.16</t>
-  </si>
-  <si>
-    <t>₹73</t>
-  </si>
-  <si>
-    <t>₹122</t>
-  </si>
-  <si>
-    <t>₹65</t>
-  </si>
-  <si>
-    <t>₹53</t>
-  </si>
-  <si>
-    <t>₹69</t>
-  </si>
-  <si>
-    <t>₹316</t>
-  </si>
-  <si>
-    <t>₹35</t>
-  </si>
-  <si>
-    <t>₹58</t>
-  </si>
-  <si>
-    <t>₹46</t>
-  </si>
-  <si>
-    <t>₹31.51</t>
-  </si>
-  <si>
-    <t>₹11</t>
-  </si>
-  <si>
-    <t>₹118</t>
-  </si>
-  <si>
-    <t>₹44</t>
-  </si>
-  <si>
-    <t>₹133</t>
-  </si>
-  <si>
-    <t>₹68</t>
-  </si>
-  <si>
-    <t>₹325</t>
-  </si>
-  <si>
-    <t>₹75.34</t>
-  </si>
-  <si>
-    <t>₹16</t>
-  </si>
-  <si>
-    <t>₹84</t>
-  </si>
-  <si>
-    <t>₹41.61</t>
-  </si>
-  <si>
-    <t>₹51.1</t>
-  </si>
-  <si>
-    <t>₹41</t>
-  </si>
-  <si>
-    <t>₹10.5</t>
-  </si>
-  <si>
-    <t>₹5.11</t>
-  </si>
-  <si>
-    <t>₹6</t>
-  </si>
-  <si>
-    <t>₹12</t>
-  </si>
-  <si>
-    <t>₹14.6</t>
-  </si>
-  <si>
-    <t>₹75.19</t>
-  </si>
-  <si>
-    <t>₹39.42</t>
+    <t>₹199</t>
+  </si>
+  <si>
+    <t>₹176</t>
+  </si>
+  <si>
+    <t>₹318</t>
+  </si>
+  <si>
+    <t>₹411</t>
+  </si>
+  <si>
+    <t>₹129</t>
+  </si>
+  <si>
+    <t>₹391</t>
+  </si>
+  <si>
+    <t>₹98</t>
+  </si>
+  <si>
+    <t>₹313</t>
+  </si>
+  <si>
+    <t>₹425</t>
+  </si>
+  <si>
+    <t>₹162</t>
+  </si>
+  <si>
+    <t>₹554</t>
+  </si>
+  <si>
+    <t>₹147</t>
+  </si>
+  <si>
+    <t>₹114</t>
+  </si>
+  <si>
+    <t>₹196</t>
+  </si>
+  <si>
+    <t>₹377</t>
+  </si>
+  <si>
+    <t>₹462</t>
+  </si>
+  <si>
+    <t>₹82.19</t>
+  </si>
+  <si>
+    <t>₹187</t>
+  </si>
+  <si>
+    <t>₹290</t>
+  </si>
+  <si>
+    <t>₹158</t>
+  </si>
+  <si>
+    <t>₹410</t>
+  </si>
+  <si>
+    <t>₹105</t>
+  </si>
+  <si>
+    <t>₹161</t>
+  </si>
+  <si>
+    <t>₹100</t>
+  </si>
+  <si>
+    <t>₹320</t>
+  </si>
+  <si>
+    <t>₹179</t>
+  </si>
+  <si>
+    <t>₹211.25</t>
+  </si>
+  <si>
+    <t>₹78.75</t>
+  </si>
+  <si>
+    <t>₹106.58</t>
+  </si>
+  <si>
+    <t>₹147.46</t>
+  </si>
+  <si>
+    <t>₹60.59</t>
+  </si>
+  <si>
+    <t>₹124.1</t>
+  </si>
+  <si>
+    <t>₹210.24</t>
+  </si>
+  <si>
+    <t>₹88.33</t>
+  </si>
+  <si>
+    <t>₹119.72</t>
+  </si>
+  <si>
+    <t>₹51.5</t>
+  </si>
+  <si>
+    <t>₹240.17</t>
+  </si>
+  <si>
+    <t>₹43.07</t>
+  </si>
+  <si>
+    <t>₹155.49</t>
+  </si>
+  <si>
+    <t>₹188.34</t>
+  </si>
+  <si>
+    <t>₹142</t>
+  </si>
+  <si>
+    <t>₹144</t>
+  </si>
+  <si>
+    <t>₹56.21</t>
+  </si>
+  <si>
+    <t>₹181.04</t>
+  </si>
+  <si>
+    <t>₹85.5</t>
+  </si>
+  <si>
+    <t>₹40.15</t>
+  </si>
+  <si>
+    <t>₹34</t>
+  </si>
+  <si>
+    <t>₹416</t>
+  </si>
+  <si>
+    <t>₹268.64</t>
+  </si>
+  <si>
+    <t>₹126.29</t>
+  </si>
+  <si>
+    <t>₹258.42</t>
+  </si>
+  <si>
+    <t>₹110.96</t>
+  </si>
+  <si>
+    <t>₹193.45</t>
+  </si>
+  <si>
+    <t>₹353.32</t>
+  </si>
+  <si>
+    <t>₹43.8</t>
+  </si>
+  <si>
+    <t>₹153.69</t>
+  </si>
+  <si>
+    <t>₹74.46</t>
+  </si>
+  <si>
+    <t>₹92.71</t>
+  </si>
+  <si>
+    <t>₹32.12</t>
+  </si>
+  <si>
+    <t>₹180.31</t>
+  </si>
+  <si>
+    <t>₹350</t>
   </si>
   <si>
     <t>₹109.5</t>
   </si>
   <si>
-    <t>₹11.5</t>
-  </si>
-  <si>
-    <t>₹30.66</t>
-  </si>
-  <si>
-    <t>₹16.24</t>
-  </si>
-  <si>
-    <t>₹10.22</t>
-  </si>
-  <si>
-    <t>₹35.04</t>
-  </si>
-  <si>
-    <t>₹9</t>
-  </si>
-  <si>
-    <t>₹46.72</t>
-  </si>
-  <si>
-    <t>₹19</t>
-  </si>
-  <si>
-    <t>₹101.47</t>
-  </si>
-  <si>
-    <t>₹26.28</t>
-  </si>
-  <si>
-    <t>₹45.26</t>
-  </si>
-  <si>
-    <t>₹9.35</t>
-  </si>
-  <si>
-    <t>₹36.5</t>
-  </si>
-  <si>
-    <t>₹24.09</t>
-  </si>
-  <si>
-    <t>₹49.5</t>
-  </si>
-  <si>
-    <t>₹13.14</t>
-  </si>
-  <si>
-    <t>₹21.17</t>
-  </si>
-  <si>
-    <t>₹16.06</t>
-  </si>
-  <si>
-    <t>₹85.41</t>
-  </si>
-  <si>
-    <t>₹29.2</t>
-  </si>
-  <si>
-    <t>₹37.23</t>
-  </si>
-  <si>
-    <t>₹17.52</t>
-  </si>
-  <si>
-    <t>₹69.35</t>
-  </si>
-  <si>
-    <t>₹12.41</t>
-  </si>
-  <si>
-    <t>₹27.01</t>
-  </si>
-  <si>
-    <t>₹20.44</t>
-  </si>
-  <si>
-    <t>₹8.88</t>
-  </si>
-  <si>
-    <t>₹53.29</t>
-  </si>
-  <si>
-    <t>₹89.06</t>
-  </si>
-  <si>
-    <t>₹47.45</t>
-  </si>
-  <si>
-    <t>₹38.69</t>
-  </si>
-  <si>
-    <t>₹50.37</t>
-  </si>
-  <si>
-    <t>₹230.68</t>
-  </si>
-  <si>
-    <t>₹25.55</t>
-  </si>
-  <si>
-    <t>₹42.34</t>
-  </si>
-  <si>
-    <t>₹44.53</t>
-  </si>
-  <si>
-    <t>₹33.58</t>
-  </si>
-  <si>
-    <t>₹23</t>
-  </si>
-  <si>
-    <t>₹8.03</t>
-  </si>
-  <si>
-    <t>₹86.14</t>
-  </si>
-  <si>
-    <t>₹32.12</t>
-  </si>
-  <si>
-    <t>₹97.09</t>
-  </si>
-  <si>
-    <t>₹49.64</t>
-  </si>
-  <si>
-    <t>₹237.25</t>
-  </si>
-  <si>
-    <t>₹55</t>
-  </si>
-  <si>
-    <t>₹90.52</t>
-  </si>
-  <si>
-    <t>₹11.68</t>
-  </si>
-  <si>
-    <t>27% OFF</t>
-  </si>
-  <si>
-    <t>33% OFF</t>
-  </si>
-  <si>
-    <t>32% OFF</t>
-  </si>
-  <si>
-    <t>48% OFF</t>
-  </si>
-  <si>
-    <t>65% OFF</t>
-  </si>
-  <si>
-    <t>59% OFF</t>
-  </si>
-  <si>
-    <t>30% OFF</t>
-  </si>
-  <si>
-    <t>57% OFF</t>
-  </si>
-  <si>
-    <t>45% OFF</t>
-  </si>
-  <si>
-    <t>41% OFF</t>
-  </si>
-  <si>
-    <t>28% OFF</t>
-  </si>
-  <si>
-    <t>63% OFF</t>
-  </si>
-  <si>
-    <t>40% OFF</t>
-  </si>
-  <si>
-    <t>35% OFF</t>
-  </si>
-  <si>
-    <t>Fresh Vegetables</t>
-  </si>
-  <si>
-    <t>2 kg</t>
-  </si>
-  <si>
-    <t>250 g</t>
-  </si>
-  <si>
-    <t>500 g</t>
-  </si>
-  <si>
-    <t>1 kg</t>
-  </si>
-  <si>
-    <t>2 kg - Multipack</t>
-  </si>
-  <si>
-    <t>1 pc - (approx. 400 to 600 g)</t>
-  </si>
-  <si>
-    <t>100 g</t>
-  </si>
-  <si>
-    <t>1 pc - (approx. 500 g to 800 g)</t>
-  </si>
-  <si>
-    <t>1 pack - (Approx .180g - 200 g)</t>
-  </si>
-  <si>
-    <t>2 pcs</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx. 500 g - 800 g)</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx. 100 g)</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx. 250g-500g)</t>
-  </si>
-  <si>
-    <t>350 g (2 pieces)</t>
-  </si>
-  <si>
-    <t>70 to 100 g (Bunch)</t>
-  </si>
-  <si>
-    <t>1 pc - Approx. 400 to 600 g</t>
-  </si>
-  <si>
-    <t>1 pc (Approx 500-1000 g)</t>
-  </si>
-  <si>
-    <t>1 pc</t>
-  </si>
-  <si>
-    <t>1 pc (approx. 300-1.3 Kg)</t>
-  </si>
-  <si>
-    <t>10 g</t>
-  </si>
-  <si>
-    <t>1 pc - Approx. 2.5 to 4 Kg</t>
-  </si>
-  <si>
-    <t>2023-09-20 11:18:38</t>
-  </si>
-  <si>
-    <t>2023-09-20 11:27:29</t>
-  </si>
-  <si>
-    <t>2023-09-21 06:07:38</t>
-  </si>
-  <si>
-    <t>2023-09-21 07:41:35</t>
-  </si>
-  <si>
-    <t>Grapes - Bangalore Blue</t>
-  </si>
-  <si>
-    <t>Avocado</t>
-  </si>
-  <si>
-    <t>Apple - Red Delicious, Regular</t>
-  </si>
-  <si>
-    <t>Watermelon -  Medium</t>
-  </si>
-  <si>
-    <t>Banana - Robusta, Organically Grown</t>
-  </si>
-  <si>
-    <t>Banana - Robusta</t>
-  </si>
-  <si>
-    <t>Apple - Shimla</t>
-  </si>
-  <si>
-    <t>Pomegranate - Regular (Loose)</t>
-  </si>
-  <si>
-    <t>Banana - Yelakki</t>
-  </si>
-  <si>
-    <t>Baby Apple</t>
-  </si>
-  <si>
-    <t>Apple - Shimla, Regular</t>
-  </si>
-  <si>
-    <t>Coconut - Medium</t>
-  </si>
-  <si>
-    <t>Tender Coconut</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala Economy</t>
-  </si>
-  <si>
-    <t>Papaya</t>
-  </si>
-  <si>
-    <t>Mini Orange Imported (Loose)</t>
-  </si>
-  <si>
-    <t>Pomegranate (Loose)</t>
-  </si>
-  <si>
-    <t>Kiwi - Green</t>
-  </si>
-  <si>
-    <t>Mosambi - Economy (Loose)</t>
-  </si>
-  <si>
-    <t>Guava - Thai (Loose)</t>
-  </si>
-  <si>
-    <t>Watermelon  - Small</t>
-  </si>
-  <si>
-    <t>Banana - Nendran</t>
-  </si>
-  <si>
-    <t>Pear - Naspathi, Indian</t>
-  </si>
-  <si>
-    <t>Dragon Fruit (Loose)</t>
-  </si>
-  <si>
-    <t>Papaya - Small</t>
-  </si>
-  <si>
-    <t>Guava (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala, Regular</t>
-  </si>
-  <si>
-    <t>Blueberry</t>
-  </si>
-  <si>
-    <t>Muskmelon -  Netted Medium</t>
-  </si>
-  <si>
-    <t>Grapes - Bangalore Blue with Seed</t>
-  </si>
-  <si>
-    <t>Avocado - Imported, Medium (Loose)</t>
-  </si>
-  <si>
-    <t>Pear - Green, Imported</t>
-  </si>
-  <si>
-    <t>Avocado (Loose)</t>
-  </si>
-  <si>
-    <t>Banana - Yelakki, Organically Grown</t>
-  </si>
-  <si>
-    <t>Banana - Raw Green (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala, Premium</t>
-  </si>
-  <si>
-    <t>Mosambi - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Fresh Figs</t>
-  </si>
-  <si>
-    <t>Pineapple</t>
-  </si>
-  <si>
-    <t>Mango - Neelam</t>
-  </si>
-  <si>
-    <t>Coconut - Large</t>
-  </si>
-  <si>
-    <t>Langra Mango</t>
-  </si>
-  <si>
-    <t>Apple - Green, Regular</t>
-  </si>
-  <si>
-    <t>Apple - Pink Lady</t>
-  </si>
-  <si>
-    <t>Mallika Mango</t>
-  </si>
-  <si>
-    <t>Banana - Red</t>
-  </si>
-  <si>
-    <t>Pear Beauty</t>
-  </si>
-  <si>
-    <t>Pomegranate - Peeled</t>
-  </si>
-  <si>
-    <t>Raw Mango - Rich in Vitamin C (Loose)</t>
-  </si>
-  <si>
-    <t>Orange - Imported (Loose)</t>
-  </si>
-  <si>
-    <t>Mango - Banganpalli</t>
-  </si>
-  <si>
-    <t>Dates - Kimia, with Seed</t>
-  </si>
-  <si>
-    <t>Guava - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Longan</t>
-  </si>
-  <si>
-    <t>Sapota</t>
-  </si>
-  <si>
-    <t>Baby Banana - Robusta</t>
-  </si>
-  <si>
-    <t>Coconut with Husk - Pooja Coconut</t>
-  </si>
-  <si>
-    <t>Grapes - Red Globe</t>
-  </si>
-  <si>
-    <t>Banana - Poovan</t>
-  </si>
-  <si>
-    <t>Zespri Kiwi - Sun Gold</t>
-  </si>
-  <si>
-    <t>Banana - Karpooravalli</t>
-  </si>
-  <si>
-    <t>Banana - Nendran, Organically Grown</t>
-  </si>
-  <si>
-    <t>Apple - Red Delicious, Economy</t>
-  </si>
-  <si>
-    <t>Coconut - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Sugarcane</t>
-  </si>
-  <si>
-    <t>Pear - Beauty, Rich In Fiber, Vitamin C, Great For Gut Health</t>
-  </si>
-  <si>
-    <t>Soursop</t>
-  </si>
-  <si>
-    <t>Cherry - Kashmir</t>
-  </si>
-  <si>
-    <t>Plum - Indian</t>
-  </si>
-  <si>
-    <t>Ber - Apple (Loose)</t>
-  </si>
-  <si>
-    <t>Coconut - Diced</t>
-  </si>
-  <si>
-    <t>Apple - Fuji, Economy</t>
-  </si>
-  <si>
-    <t>Pineapple - Slices</t>
-  </si>
-  <si>
-    <t>Apricot - Dried</t>
-  </si>
-  <si>
-    <t>Rambutan</t>
-  </si>
-  <si>
-    <t>Papaya- Diced</t>
-  </si>
-  <si>
-    <t>Watermelon - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Mosambi - Premium (Loose)</t>
-  </si>
-  <si>
-    <t>Mango - Raw, Totapuri</t>
-  </si>
-  <si>
-    <t>Pomegranate - Single Serve, Peeled</t>
-  </si>
-  <si>
-    <t>Kesar Mango</t>
-  </si>
-  <si>
-    <t>Apple - Ambri</t>
-  </si>
-  <si>
-    <t>Pineapple - Chunks, Single Serve</t>
-  </si>
-  <si>
-    <t>Cherry</t>
-  </si>
-  <si>
-    <t>Grape fruit - Imported (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Washington, Regular</t>
-  </si>
-  <si>
-    <t>Apple - Red Delicious / Washington, Regular</t>
-  </si>
-  <si>
-    <t>Mosambi (Loose)</t>
-  </si>
-  <si>
-    <t>Ber (Loose)</t>
-  </si>
-  <si>
-    <t>Grapes - Red Globeâ€š  Indian</t>
-  </si>
-  <si>
-    <t>Tamarind - Sweet</t>
-  </si>
-  <si>
-    <t>Mangosteen</t>
-  </si>
-  <si>
-    <t>Sapota - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Pomelo - Peeled</t>
-  </si>
-  <si>
-    <t>Guava - Thai Organic, White</t>
-  </si>
-  <si>
-    <t>Apple - Fuji, Regular</t>
-  </si>
-  <si>
-    <t>Plum - Imported</t>
-  </si>
-  <si>
-    <t>Himayath Mango</t>
-  </si>
-  <si>
-    <t>Raspuri/Gola Mango</t>
-  </si>
-  <si>
-    <t>₹146</t>
-  </si>
-  <si>
-    <t>₹202</t>
-  </si>
-  <si>
-    <t>₹170</t>
-  </si>
-  <si>
-    <t>₹288</t>
-  </si>
-  <si>
-    <t>₹229</t>
-  </si>
-  <si>
-    <t>₹121</t>
-  </si>
-  <si>
-    <t>₹164</t>
-  </si>
-  <si>
-    <t>₹90</t>
-  </si>
-  <si>
-    <t>₹329</t>
-  </si>
-  <si>
-    <t>₹59</t>
-  </si>
-  <si>
-    <t>₹213</t>
-  </si>
-  <si>
-    <t>₹258</t>
-  </si>
-  <si>
-    <t>₹195</t>
-  </si>
-  <si>
-    <t>₹216</t>
-  </si>
-  <si>
-    <t>₹72</t>
-  </si>
-  <si>
-    <t>₹77</t>
-  </si>
-  <si>
-    <t>₹125</t>
-  </si>
-  <si>
-    <t>₹120</t>
-  </si>
-  <si>
-    <t>₹570</t>
-  </si>
-  <si>
-    <t>₹368</t>
-  </si>
-  <si>
-    <t>₹173</t>
-  </si>
-  <si>
-    <t>₹354</t>
-  </si>
-  <si>
-    <t>₹135</t>
-  </si>
-  <si>
-    <t>₹484</t>
-  </si>
-  <si>
-    <t>₹60</t>
-  </si>
-  <si>
-    <t>₹210.53</t>
-  </si>
-  <si>
-    <t>₹102</t>
-  </si>
-  <si>
-    <t>₹127</t>
-  </si>
-  <si>
-    <t>₹247</t>
-  </si>
-  <si>
-    <t>₹535</t>
-  </si>
-  <si>
-    <t>₹199</t>
-  </si>
-  <si>
-    <t>₹176</t>
-  </si>
-  <si>
-    <t>₹318</t>
-  </si>
-  <si>
-    <t>₹411</t>
-  </si>
-  <si>
-    <t>₹129</t>
-  </si>
-  <si>
-    <t>₹111</t>
-  </si>
-  <si>
-    <t>₹391</t>
-  </si>
-  <si>
-    <t>₹98</t>
-  </si>
-  <si>
-    <t>₹313</t>
-  </si>
-  <si>
-    <t>₹424</t>
-  </si>
-  <si>
-    <t>₹162</t>
-  </si>
-  <si>
-    <t>₹554</t>
-  </si>
-  <si>
-    <t>₹147</t>
-  </si>
-  <si>
-    <t>₹114</t>
-  </si>
-  <si>
-    <t>₹196</t>
-  </si>
-  <si>
-    <t>₹377</t>
-  </si>
-  <si>
-    <t>₹462</t>
-  </si>
-  <si>
-    <t>₹105</t>
-  </si>
-  <si>
-    <t>₹82.19</t>
-  </si>
-  <si>
-    <t>₹187</t>
-  </si>
-  <si>
-    <t>₹290</t>
-  </si>
-  <si>
-    <t>₹76</t>
-  </si>
-  <si>
-    <t>₹158</t>
-  </si>
-  <si>
-    <t>₹410</t>
-  </si>
-  <si>
-    <t>₹161</t>
-  </si>
-  <si>
-    <t>₹100</t>
-  </si>
-  <si>
-    <t>₹320</t>
-  </si>
-  <si>
-    <t>₹179</t>
-  </si>
-  <si>
-    <t>₹211.25</t>
-  </si>
-  <si>
-    <t>₹78.75</t>
-  </si>
-  <si>
-    <t>₹106.58</t>
-  </si>
-  <si>
-    <t>₹147.46</t>
-  </si>
-  <si>
-    <t>₹60.59</t>
-  </si>
-  <si>
-    <t>₹124.1</t>
-  </si>
-  <si>
-    <t>₹210.24</t>
-  </si>
-  <si>
-    <t>₹88.33</t>
-  </si>
-  <si>
-    <t>₹119.72</t>
-  </si>
-  <si>
-    <t>₹51.5</t>
-  </si>
-  <si>
-    <t>₹240.17</t>
-  </si>
-  <si>
-    <t>₹43.07</t>
-  </si>
-  <si>
-    <t>₹155.49</t>
-  </si>
-  <si>
-    <t>₹188.34</t>
-  </si>
-  <si>
-    <t>₹142</t>
-  </si>
-  <si>
-    <t>₹144</t>
-  </si>
-  <si>
-    <t>₹56.21</t>
-  </si>
-  <si>
-    <t>₹91.25</t>
-  </si>
-  <si>
-    <t>₹85.5</t>
-  </si>
-  <si>
-    <t>₹40.15</t>
-  </si>
-  <si>
-    <t>₹34</t>
-  </si>
-  <si>
-    <t>₹416</t>
-  </si>
-  <si>
-    <t>₹268.64</t>
-  </si>
-  <si>
-    <t>₹126.29</t>
-  </si>
-  <si>
-    <t>₹258.42</t>
-  </si>
-  <si>
-    <t>₹98.55</t>
-  </si>
-  <si>
-    <t>₹353.32</t>
-  </si>
-  <si>
-    <t>₹43.8</t>
-  </si>
-  <si>
-    <t>₹153.69</t>
-  </si>
-  <si>
-    <t>₹74.46</t>
-  </si>
-  <si>
-    <t>₹92.71</t>
-  </si>
-  <si>
-    <t>₹180.31</t>
-  </si>
-  <si>
-    <t>₹350</t>
-  </si>
-  <si>
     <t>₹145.27</t>
   </si>
   <si>
@@ -1376,9 +1391,6 @@
     <t>₹94.17</t>
   </si>
   <si>
-    <t>₹81.03</t>
-  </si>
-  <si>
     <t>₹285.43</t>
   </si>
   <si>
@@ -1388,7 +1400,7 @@
     <t>₹228.49</t>
   </si>
   <si>
-    <t>₹309.52</t>
+    <t>₹310.25</t>
   </si>
   <si>
     <t>₹118.26</t>
@@ -1412,45 +1424,33 @@
     <t>₹337.26</t>
   </si>
   <si>
+    <t>₹136.51</t>
+  </si>
+  <si>
+    <t>₹211.7</t>
+  </si>
+  <si>
+    <t>₹115.34</t>
+  </si>
+  <si>
+    <t>₹299.3</t>
+  </si>
+  <si>
     <t>₹76.65</t>
   </si>
   <si>
-    <t>₹136.51</t>
-  </si>
-  <si>
-    <t>₹211.7</t>
-  </si>
-  <si>
-    <t>₹55.48</t>
-  </si>
-  <si>
-    <t>₹115.34</t>
-  </si>
-  <si>
-    <t>₹299.3</t>
-  </si>
-  <si>
     <t>₹117.53</t>
   </si>
   <si>
-    <t>₹61.32</t>
-  </si>
-  <si>
     <t>₹233.6</t>
   </si>
   <si>
     <t>₹130.67</t>
   </si>
   <si>
-    <t>42% OFF</t>
-  </si>
-  <si>
     <t>39% OFF</t>
   </si>
   <si>
-    <t>34% OFF</t>
-  </si>
-  <si>
     <t>43% OFF</t>
   </si>
   <si>
@@ -1601,10 +1601,7 @@
     <t>2023-09-21 06:08:19</t>
   </si>
   <si>
-    <t>2023-09-21 07:42:13</t>
-  </si>
-  <si>
-    <t>2023-09-21 07:42:14</t>
+    <t>2023-09-21 11:00:37</t>
   </si>
 </sst>
 </file>
@@ -2002,16 +1999,16 @@
         <v>159</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>219</v>
       </c>
       <c r="E2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2025,16 +2022,16 @@
         <v>160</v>
       </c>
       <c r="D3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2048,16 +2045,16 @@
         <v>161</v>
       </c>
       <c r="D4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2068,19 +2065,19 @@
         <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D5" t="s">
-        <v>219</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G5" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2091,19 +2088,19 @@
         <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G6" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2114,19 +2111,19 @@
         <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2137,19 +2134,19 @@
         <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G8" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2160,19 +2157,19 @@
         <v>111</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E9" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2183,19 +2180,19 @@
         <v>112</v>
       </c>
       <c r="C10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E10" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F10" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G10" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2206,19 +2203,19 @@
         <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E11" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G11" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2229,19 +2226,19 @@
         <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E12" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G12" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2255,16 +2252,16 @@
         <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E13" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G13" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2275,19 +2272,19 @@
         <v>115</v>
       </c>
       <c r="C14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E14" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F14" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G14" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2298,19 +2295,19 @@
         <v>116</v>
       </c>
       <c r="C15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D15" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E15" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G15" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2321,19 +2318,19 @@
         <v>117</v>
       </c>
       <c r="C16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D16" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E16" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F16" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G16" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2344,19 +2341,19 @@
         <v>118</v>
       </c>
       <c r="C17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E17" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G17" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2367,19 +2364,19 @@
         <v>119</v>
       </c>
       <c r="C18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E18" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F18" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G18" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2390,19 +2387,19 @@
         <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E19" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F19" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G19" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2413,19 +2410,19 @@
         <v>121</v>
       </c>
       <c r="C20" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D20" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E20" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F20" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G20" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2433,22 +2430,22 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s">
         <v>111</v>
       </c>
       <c r="D21" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E21" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F21" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G21" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2456,22 +2453,22 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E22" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F22" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G22" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2482,19 +2479,19 @@
         <v>122</v>
       </c>
       <c r="C23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D23" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E23" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F23" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G23" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2505,19 +2502,19 @@
         <v>123</v>
       </c>
       <c r="C24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D24" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E24" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F24" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G24" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2528,19 +2525,19 @@
         <v>124</v>
       </c>
       <c r="C25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D25" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E25" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F25" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G25" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2551,19 +2548,19 @@
         <v>125</v>
       </c>
       <c r="C26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D26" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E26" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F26" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G26" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2574,19 +2571,19 @@
         <v>126</v>
       </c>
       <c r="C27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D27" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E27" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F27" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G27" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2597,19 +2594,19 @@
         <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E28" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F28" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G28" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2620,19 +2617,19 @@
         <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D29" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E29" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F29" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G29" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2640,22 +2637,22 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C30" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D30" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="E30" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F30" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G30" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2663,22 +2660,22 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C31" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D31" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E31" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G31" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2686,22 +2683,22 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C32" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D32" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E32" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F32" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G32" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2712,19 +2709,19 @@
         <v>126</v>
       </c>
       <c r="C33" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D33" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E33" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F33" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G33" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2732,22 +2729,22 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C34" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D34" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E34" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G34" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2755,22 +2752,22 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D35" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E35" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F35" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G35" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2778,22 +2775,22 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="C36" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D36" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E36" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F36" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G36" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2804,19 +2801,19 @@
         <v>121</v>
       </c>
       <c r="C37" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D37" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E37" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F37" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G37" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2827,19 +2824,19 @@
         <v>122</v>
       </c>
       <c r="C38" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D38" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E38" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F38" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G38" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2847,22 +2844,22 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C39" t="s">
         <v>123</v>
       </c>
       <c r="D39" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E39" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F39" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G39" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2870,22 +2867,22 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C40" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D40" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E40" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F40" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G40" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2893,22 +2890,22 @@
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C41" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D41" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E41" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F41" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G41" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2916,22 +2913,22 @@
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C42" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D42" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E42" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F42" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G42" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2942,19 +2939,19 @@
         <v>123</v>
       </c>
       <c r="C43" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D43" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E43" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F43" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G43" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2962,22 +2959,22 @@
         <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C44" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D44" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E44" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F44" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G44" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2988,19 +2985,19 @@
         <v>111</v>
       </c>
       <c r="C45" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D45" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E45" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F45" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G45" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3008,22 +3005,22 @@
         <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C46" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D46" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E46" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F46" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G46" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3034,19 +3031,19 @@
         <v>109</v>
       </c>
       <c r="C47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D47" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E47" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F47" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G47" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3054,22 +3051,22 @@
         <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C48" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D48" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E48" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F48" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G48" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3080,19 +3077,19 @@
         <v>125</v>
       </c>
       <c r="C49" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D49" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E49" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F49" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G49" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3100,22 +3097,22 @@
         <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C50" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D50" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E50" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F50" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G50" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3123,22 +3120,22 @@
         <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D51" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E51" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F51" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G51" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3149,19 +3146,19 @@
         <v>118</v>
       </c>
       <c r="C52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D52" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E52" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F52" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G52" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3169,22 +3166,22 @@
         <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C53" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D53" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E53" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F53" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G53" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3192,22 +3189,22 @@
         <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C54" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D54" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E54" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F54" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G54" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3215,22 +3212,22 @@
         <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C55" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D55" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E55" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F55" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G55" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3241,19 +3238,19 @@
         <v>121</v>
       </c>
       <c r="C56" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D56" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E56" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F56" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G56" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3264,19 +3261,19 @@
         <v>122</v>
       </c>
       <c r="C57" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D57" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E57" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F57" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G57" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3284,22 +3281,22 @@
         <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C58" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D58" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E58" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F58" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G58" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3307,22 +3304,22 @@
         <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C59" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D59" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E59" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F59" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G59" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3330,22 +3327,22 @@
         <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C60" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D60" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E60" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F60" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G60" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3356,19 +3353,19 @@
         <v>121</v>
       </c>
       <c r="C61" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D61" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E61" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F61" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G61" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3376,22 +3373,22 @@
         <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C62" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D62" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E62" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F62" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G62" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3399,22 +3396,22 @@
         <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C63" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D63" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E63" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F63" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G63" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3422,22 +3419,22 @@
         <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="C64" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E64" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F64" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G64" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3445,22 +3442,22 @@
         <v>70</v>
       </c>
       <c r="B65" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C65" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D65" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E65" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F65" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G65" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3471,19 +3468,19 @@
         <v>115</v>
       </c>
       <c r="C66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D66" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E66" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F66" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G66" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3491,22 +3488,22 @@
         <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C67" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D67" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E67" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F67" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G67" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3514,22 +3511,22 @@
         <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C68" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D68" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E68" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F68" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G68" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3537,22 +3534,22 @@
         <v>74</v>
       </c>
       <c r="B69" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C69" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D69" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E69" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F69" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G69" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3563,19 +3560,19 @@
         <v>122</v>
       </c>
       <c r="C70" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D70" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E70" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F70" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G70" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3583,22 +3580,22 @@
         <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C71" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D71" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E71" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F71" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G71" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3606,22 +3603,22 @@
         <v>77</v>
       </c>
       <c r="B72" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C72" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="D72" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E72" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F72" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G72" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3632,19 +3629,19 @@
         <v>111</v>
       </c>
       <c r="C73" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D73" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E73" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F73" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G73" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3652,22 +3649,22 @@
         <v>79</v>
       </c>
       <c r="B74" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C74" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D74" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E74" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F74" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G74" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3675,22 +3672,22 @@
         <v>80</v>
       </c>
       <c r="B75" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C75" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D75" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E75" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F75" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G75" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3698,22 +3695,22 @@
         <v>81</v>
       </c>
       <c r="B76" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="C76" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D76" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E76" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F76" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G76" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3724,19 +3721,19 @@
         <v>111</v>
       </c>
       <c r="C77" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D77" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E77" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F77" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G77" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3744,22 +3741,22 @@
         <v>83</v>
       </c>
       <c r="B78" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C78" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D78" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E78" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F78" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G78" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3767,22 +3764,22 @@
         <v>84</v>
       </c>
       <c r="B79" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="C79" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D79" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E79" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F79" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G79" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3793,19 +3790,19 @@
         <v>120</v>
       </c>
       <c r="C80" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D80" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E80" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F80" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G80" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3816,19 +3813,19 @@
         <v>113</v>
       </c>
       <c r="C81" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D81" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E81" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F81" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G81" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3836,22 +3833,22 @@
         <v>87</v>
       </c>
       <c r="B82" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C82" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D82" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E82" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F82" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G82" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3859,22 +3856,22 @@
         <v>88</v>
       </c>
       <c r="B83" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C83" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D83" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E83" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F83" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G83" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3885,19 +3882,19 @@
         <v>115</v>
       </c>
       <c r="C84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D84" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E84" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F84" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G84" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3905,22 +3902,22 @@
         <v>90</v>
       </c>
       <c r="B85" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="C85" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="D85" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E85" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F85" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G85" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3934,16 +3931,16 @@
         <v>212</v>
       </c>
       <c r="D86" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E86" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F86" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G86" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3957,16 +3954,16 @@
         <v>213</v>
       </c>
       <c r="D87" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E87" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F87" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G87" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3974,22 +3971,22 @@
         <v>93</v>
       </c>
       <c r="B88" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C88" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D88" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E88" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F88" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G88" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3997,22 +3994,22 @@
         <v>94</v>
       </c>
       <c r="B89" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C89" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D89" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E89" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F89" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G89" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4023,19 +4020,19 @@
         <v>122</v>
       </c>
       <c r="C90" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D90" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E90" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F90" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G90" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4046,19 +4043,19 @@
         <v>127</v>
       </c>
       <c r="C91" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D91" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E91" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F91" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G91" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4072,16 +4069,16 @@
         <v>214</v>
       </c>
       <c r="D92" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E92" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F92" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G92" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4092,19 +4089,19 @@
         <v>118</v>
       </c>
       <c r="C93" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D93" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E93" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F93" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G93" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4112,22 +4109,22 @@
         <v>99</v>
       </c>
       <c r="B94" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="C94" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D94" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E94" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F94" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G94" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4141,16 +4138,16 @@
         <v>215</v>
       </c>
       <c r="D95" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E95" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F95" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G95" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4164,16 +4161,16 @@
         <v>216</v>
       </c>
       <c r="D96" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E96" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F96" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G96" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4181,22 +4178,22 @@
         <v>102</v>
       </c>
       <c r="B97" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="C97" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="D97" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E97" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F97" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G97" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -4204,22 +4201,22 @@
         <v>103</v>
       </c>
       <c r="B98" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="C98" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D98" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E98" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F98" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G98" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -4260,22 +4257,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E2" t="s">
         <v>481</v>
       </c>
       <c r="F2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G2" t="s">
         <v>526</v>
@@ -4283,22 +4280,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
         <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>475</v>
+        <v>232</v>
       </c>
       <c r="E3" t="s">
         <v>481</v>
       </c>
       <c r="F3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G3" t="s">
         <v>526</v>
@@ -4306,16 +4303,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C4" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E4" t="s">
         <v>481</v>
@@ -4329,16 +4326,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E5" t="s">
         <v>481</v>
@@ -4352,22 +4349,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E6" t="s">
         <v>481</v>
       </c>
       <c r="F6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G6" t="s">
         <v>528</v>
@@ -4375,7 +4372,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B7" t="s">
         <v>127</v>
@@ -4384,13 +4381,13 @@
         <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E7" t="s">
         <v>481</v>
       </c>
       <c r="F7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G7" t="s">
         <v>528</v>
@@ -4398,16 +4395,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B8" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C8" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E8" t="s">
         <v>481</v>
@@ -4421,16 +4418,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C9" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E9" t="s">
         <v>481</v>
@@ -4444,22 +4441,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C10" t="s">
         <v>154</v>
       </c>
       <c r="D10" t="s">
-        <v>475</v>
+        <v>232</v>
       </c>
       <c r="E10" t="s">
         <v>481</v>
       </c>
       <c r="F10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G10" t="s">
         <v>528</v>
@@ -4467,22 +4464,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B11" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C11" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E11" t="s">
         <v>481</v>
       </c>
       <c r="F11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G11" t="s">
         <v>528</v>
@@ -4490,16 +4487,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B12" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C12" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E12" t="s">
         <v>481</v>
@@ -4513,16 +4510,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D13" t="s">
-        <v>477</v>
+        <v>226</v>
       </c>
       <c r="E13" t="s">
         <v>481</v>
@@ -4536,13 +4533,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B14" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C14" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D14" t="s">
         <v>478</v>
@@ -4551,7 +4548,7 @@
         <v>481</v>
       </c>
       <c r="F14" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G14" t="s">
         <v>528</v>
@@ -4559,16 +4556,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B15" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C15" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E15" t="s">
         <v>481</v>
@@ -4582,22 +4579,22 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B16" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C16" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E16" t="s">
         <v>481</v>
       </c>
       <c r="F16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G16" t="s">
         <v>528</v>
@@ -4605,22 +4602,22 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B17" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C17" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E17" t="s">
         <v>481</v>
       </c>
       <c r="F17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G17" t="s">
         <v>528</v>
@@ -4628,16 +4625,16 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B18" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C18" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E18" t="s">
         <v>481</v>
@@ -4651,16 +4648,16 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B19" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C19" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E19" t="s">
         <v>481</v>
@@ -4674,16 +4671,16 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B20" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C20" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E20" t="s">
         <v>481</v>
@@ -4697,10 +4694,10 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B21" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C21" t="s">
         <v>127</v>
@@ -4712,7 +4709,7 @@
         <v>481</v>
       </c>
       <c r="F21" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G21" t="s">
         <v>528</v>
@@ -4720,16 +4717,16 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B22" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C22" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D22" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E22" t="s">
         <v>481</v>
@@ -4743,22 +4740,22 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B23" t="s">
         <v>113</v>
       </c>
       <c r="C23" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D23" t="s">
-        <v>475</v>
+        <v>232</v>
       </c>
       <c r="E23" t="s">
         <v>481</v>
       </c>
       <c r="F23" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G23" t="s">
         <v>528</v>
@@ -4766,22 +4763,22 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B24" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C24" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E24" t="s">
         <v>481</v>
       </c>
       <c r="F24" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G24" t="s">
         <v>528</v>
@@ -4789,13 +4786,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B25" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C25" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D25" t="s">
         <v>480</v>
@@ -4812,16 +4809,16 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B26" t="s">
         <v>215</v>
       </c>
       <c r="C26" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D26" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E26" t="s">
         <v>481</v>
@@ -4835,13 +4832,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B27" t="s">
         <v>122</v>
       </c>
       <c r="C27" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D27" t="s">
         <v>480</v>
@@ -4850,7 +4847,7 @@
         <v>481</v>
       </c>
       <c r="F27" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G27" t="s">
         <v>528</v>
@@ -4858,16 +4855,16 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B28" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C28" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E28" t="s">
         <v>481</v>
@@ -4881,16 +4878,16 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B29" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C29" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D29" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E29" t="s">
         <v>481</v>
@@ -4904,16 +4901,16 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C30" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D30" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E30" t="s">
         <v>481</v>
@@ -4922,67 +4919,67 @@
         <v>497</v>
       </c>
       <c r="G30" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C31" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D31" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E31" t="s">
         <v>481</v>
       </c>
       <c r="F31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G31" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B32" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C32" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D32" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E32" t="s">
         <v>481</v>
       </c>
       <c r="F32" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G32" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B33" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C33" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D33" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E33" t="s">
         <v>481</v>
@@ -4991,90 +4988,90 @@
         <v>495</v>
       </c>
       <c r="G33" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C34" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D34" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E34" t="s">
         <v>481</v>
       </c>
       <c r="F34" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G34" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B35" t="s">
-        <v>154</v>
+        <v>382</v>
       </c>
       <c r="C35" t="s">
-        <v>212</v>
+        <v>443</v>
       </c>
       <c r="D35" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E35" t="s">
         <v>481</v>
       </c>
       <c r="F35" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G35" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C36" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D36" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E36" t="s">
         <v>481</v>
       </c>
       <c r="F36" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G36" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B37" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C37" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D37" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E37" t="s">
         <v>481</v>
@@ -5083,67 +5080,67 @@
         <v>498</v>
       </c>
       <c r="G37" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B38" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C38" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D38" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E38" t="s">
         <v>481</v>
       </c>
       <c r="F38" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G38" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B39" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C39" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D39" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E39" t="s">
         <v>481</v>
       </c>
       <c r="F39" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G39" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B40" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C40" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D40" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E40" t="s">
         <v>481</v>
@@ -5152,44 +5149,44 @@
         <v>499</v>
       </c>
       <c r="G40" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B41" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C41" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D41" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E41" t="s">
         <v>481</v>
       </c>
       <c r="F41" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G41" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B42" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="C42" t="s">
-        <v>211</v>
+        <v>449</v>
       </c>
       <c r="D42" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E42" t="s">
         <v>481</v>
@@ -5198,44 +5195,44 @@
         <v>500</v>
       </c>
       <c r="G42" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B43" t="s">
-        <v>373</v>
+        <v>146</v>
       </c>
       <c r="C43" t="s">
-        <v>432</v>
+        <v>203</v>
       </c>
       <c r="D43" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E43" t="s">
         <v>481</v>
       </c>
       <c r="F43" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G43" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B44" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C44" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D44" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E44" t="s">
         <v>481</v>
@@ -5244,21 +5241,21 @@
         <v>501</v>
       </c>
       <c r="G44" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B45" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C45" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="D45" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E45" t="s">
         <v>481</v>
@@ -5267,90 +5264,90 @@
         <v>502</v>
       </c>
       <c r="G45" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B46" t="s">
-        <v>116</v>
+        <v>390</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>452</v>
       </c>
       <c r="D46" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E46" t="s">
         <v>481</v>
       </c>
       <c r="F46" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G46" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B47" t="s">
         <v>115</v>
       </c>
       <c r="C47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D47" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E47" t="s">
         <v>481</v>
       </c>
       <c r="F47" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G47" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B48" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C48" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="D48" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E48" t="s">
         <v>481</v>
       </c>
       <c r="F48" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G48" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B49" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C49" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="D49" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E49" t="s">
         <v>481</v>
@@ -5359,44 +5356,44 @@
         <v>503</v>
       </c>
       <c r="G49" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B50" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="C50" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="D50" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E50" t="s">
         <v>481</v>
       </c>
       <c r="F50" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G50" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B51" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C51" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D51" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E51" t="s">
         <v>481</v>
@@ -5405,21 +5402,21 @@
         <v>504</v>
       </c>
       <c r="G51" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B52" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C52" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="D52" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E52" t="s">
         <v>481</v>
@@ -5428,21 +5425,21 @@
         <v>505</v>
       </c>
       <c r="G52" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B53" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C53" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D53" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E53" t="s">
         <v>481</v>
@@ -5451,113 +5448,113 @@
         <v>506</v>
       </c>
       <c r="G53" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B54" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C54" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D54" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E54" t="s">
         <v>481</v>
       </c>
       <c r="F54" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G54" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B55" t="s">
-        <v>392</v>
+        <v>135</v>
       </c>
       <c r="C55" t="s">
-        <v>453</v>
+        <v>190</v>
       </c>
       <c r="D55" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E55" t="s">
         <v>481</v>
       </c>
       <c r="F55" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G55" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B56" t="s">
         <v>215</v>
       </c>
       <c r="C56" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D56" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E56" t="s">
         <v>481</v>
       </c>
       <c r="F56" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G56" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B57" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="C57" t="s">
         <v>125</v>
       </c>
       <c r="D57" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E57" t="s">
         <v>481</v>
       </c>
       <c r="F57" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G57" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B58" t="s">
         <v>127</v>
       </c>
       <c r="C58" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D58" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E58" t="s">
         <v>481</v>
@@ -5566,67 +5563,67 @@
         <v>507</v>
       </c>
       <c r="G58" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B59" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C59" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D59" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E59" t="s">
         <v>481</v>
       </c>
       <c r="F59" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G59" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B60" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C60" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D60" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E60" t="s">
         <v>481</v>
       </c>
       <c r="F60" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G60" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B61" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C61" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D61" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E61" t="s">
         <v>481</v>
@@ -5635,44 +5632,44 @@
         <v>490</v>
       </c>
       <c r="G61" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B62" t="s">
-        <v>105</v>
+        <v>215</v>
       </c>
       <c r="C62" t="s">
-        <v>160</v>
+        <v>436</v>
       </c>
       <c r="D62" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E62" t="s">
         <v>481</v>
       </c>
       <c r="F62" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G62" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B63" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C63" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D63" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E63" t="s">
         <v>481</v>
@@ -5681,21 +5678,21 @@
         <v>508</v>
       </c>
       <c r="G63" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B64" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C64" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D64" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E64" t="s">
         <v>481</v>
@@ -5704,21 +5701,21 @@
         <v>509</v>
       </c>
       <c r="G64" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B65" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C65" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D65" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E65" t="s">
         <v>481</v>
@@ -5727,44 +5724,44 @@
         <v>510</v>
       </c>
       <c r="G65" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B66" t="s">
         <v>120</v>
       </c>
       <c r="C66" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D66" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E66" t="s">
         <v>481</v>
       </c>
       <c r="F66" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G66" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B67" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C67" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D67" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E67" t="s">
         <v>481</v>
@@ -5773,21 +5770,21 @@
         <v>511</v>
       </c>
       <c r="G67" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B68" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C68" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D68" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E68" t="s">
         <v>481</v>
@@ -5796,21 +5793,21 @@
         <v>512</v>
       </c>
       <c r="G68" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B69" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C69" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D69" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E69" t="s">
         <v>481</v>
@@ -5819,21 +5816,21 @@
         <v>513</v>
       </c>
       <c r="G69" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B70" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C70" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D70" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E70" t="s">
         <v>481</v>
@@ -5842,44 +5839,44 @@
         <v>513</v>
       </c>
       <c r="G70" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B71" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C71" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D71" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E71" t="s">
         <v>481</v>
       </c>
       <c r="F71" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G71" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B72" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C72" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D72" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E72" t="s">
         <v>481</v>
@@ -5888,21 +5885,21 @@
         <v>514</v>
       </c>
       <c r="G72" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B73" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C73" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D73" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E73" t="s">
         <v>481</v>
@@ -5911,21 +5908,21 @@
         <v>502</v>
       </c>
       <c r="G73" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B74" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C74" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D74" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E74" t="s">
         <v>481</v>
@@ -5934,21 +5931,21 @@
         <v>503</v>
       </c>
       <c r="G74" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B75" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C75" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="D75" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E75" t="s">
         <v>481</v>
@@ -5957,44 +5954,44 @@
         <v>503</v>
       </c>
       <c r="G75" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B76" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C76" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D76" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E76" t="s">
         <v>481</v>
       </c>
       <c r="F76" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G76" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B77" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C77" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D77" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E77" t="s">
         <v>481</v>
@@ -6003,21 +6000,21 @@
         <v>503</v>
       </c>
       <c r="G77" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B78" t="s">
         <v>113</v>
       </c>
       <c r="C78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D78" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E78" t="s">
         <v>481</v>
@@ -6026,21 +6023,21 @@
         <v>515</v>
       </c>
       <c r="G78" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B79" t="s">
-        <v>404</v>
+        <v>113</v>
       </c>
       <c r="C79" t="s">
-        <v>465</v>
+        <v>167</v>
       </c>
       <c r="D79" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E79" t="s">
         <v>481</v>
@@ -6049,44 +6046,44 @@
         <v>516</v>
       </c>
       <c r="G79" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B80" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="C80" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D80" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E80" t="s">
         <v>481</v>
       </c>
       <c r="F80" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G80" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B81" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C81" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D81" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E81" t="s">
         <v>481</v>
@@ -6095,67 +6092,67 @@
         <v>517</v>
       </c>
       <c r="G81" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B82" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C82" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="D82" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E82" t="s">
         <v>481</v>
       </c>
       <c r="F82" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G82" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B83" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C83" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D83" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E83" t="s">
         <v>481</v>
       </c>
       <c r="F83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G83" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B84" t="s">
-        <v>408</v>
+        <v>374</v>
       </c>
       <c r="C84" t="s">
-        <v>468</v>
+        <v>433</v>
       </c>
       <c r="D84" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E84" t="s">
         <v>481</v>
@@ -6164,44 +6161,44 @@
         <v>517</v>
       </c>
       <c r="G84" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B85" t="s">
-        <v>373</v>
+        <v>146</v>
       </c>
       <c r="C85" t="s">
-        <v>432</v>
+        <v>203</v>
       </c>
       <c r="D85" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E85" t="s">
         <v>481</v>
       </c>
       <c r="F85" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G85" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B86" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C86" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D86" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E86" t="s">
         <v>481</v>
@@ -6210,21 +6207,21 @@
         <v>518</v>
       </c>
       <c r="G86" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B87" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C87" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D87" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E87" t="s">
         <v>481</v>
@@ -6233,21 +6230,21 @@
         <v>519</v>
       </c>
       <c r="G87" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B88" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C88" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D88" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E88" t="s">
         <v>481</v>
@@ -6256,21 +6253,21 @@
         <v>520</v>
       </c>
       <c r="G88" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B89" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C89" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D89" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E89" t="s">
         <v>481</v>
@@ -6279,67 +6276,67 @@
         <v>521</v>
       </c>
       <c r="G89" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B90" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="C90" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D90" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E90" t="s">
         <v>481</v>
       </c>
       <c r="F90" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G90" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B91" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C91" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D91" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E91" t="s">
         <v>481</v>
       </c>
       <c r="F91" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G91" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B92" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="C92" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="D92" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E92" t="s">
         <v>481</v>
@@ -6348,67 +6345,67 @@
         <v>522</v>
       </c>
       <c r="G92" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B93" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C93" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D93" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E93" t="s">
         <v>481</v>
       </c>
       <c r="F93" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G93" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B94" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C94" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D94" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E94" t="s">
         <v>481</v>
       </c>
       <c r="F94" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G94" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B95" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C95" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D95" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E95" t="s">
         <v>481</v>
@@ -6417,21 +6414,21 @@
         <v>503</v>
       </c>
       <c r="G95" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B96" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C96" t="s">
-        <v>472</v>
+        <v>217</v>
       </c>
       <c r="D96" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E96" t="s">
         <v>481</v>
@@ -6440,21 +6437,21 @@
         <v>523</v>
       </c>
       <c r="G96" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B97" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C97" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D97" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E97" t="s">
         <v>481</v>
@@ -6463,21 +6460,21 @@
         <v>524</v>
       </c>
       <c r="G97" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B98" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C98" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D98" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E98" t="s">
         <v>481</v>
@@ -6486,53 +6483,53 @@
         <v>525</v>
       </c>
       <c r="G98" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B99" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C99" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D99" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E99" t="s">
         <v>481</v>
       </c>
       <c r="F99" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G99" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B100" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C100" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D100" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E100" t="s">
         <v>481</v>
       </c>
       <c r="F100" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G100" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>

--- a/BigBasket/BigBasket_products.xlsx
+++ b/BigBasket/BigBasket_products.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="528">
   <si>
     <t>product_name</t>
   </si>
@@ -692,9 +692,6 @@
     <t>40% OFF</t>
   </si>
   <si>
-    <t>30% OFF</t>
-  </si>
-  <si>
     <t>34% OFF</t>
   </si>
   <si>
@@ -794,7 +791,7 @@
     <t>2023-09-21 10:15:49</t>
   </si>
   <si>
-    <t>2023-09-21 10:59:58</t>
+    <t>2023-09-21 12:36:30</t>
   </si>
   <si>
     <t>Grapes - Bangalore Blue</t>
@@ -1601,7 +1598,7 @@
     <t>2023-09-21 06:08:19</t>
   </si>
   <si>
-    <t>2023-09-21 11:00:37</t>
+    <t>2023-09-21 12:37:09</t>
   </si>
 </sst>
 </file>
@@ -2002,13 +1999,13 @@
         <v>219</v>
       </c>
       <c r="E2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2" t="s">
         <v>234</v>
       </c>
-      <c r="F2" t="s">
-        <v>235</v>
-      </c>
       <c r="G2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2025,13 +2022,13 @@
         <v>219</v>
       </c>
       <c r="E3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2048,13 +2045,13 @@
         <v>220</v>
       </c>
       <c r="E4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2071,13 +2068,13 @@
         <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2094,13 +2091,13 @@
         <v>221</v>
       </c>
       <c r="E6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2117,13 +2114,13 @@
         <v>222</v>
       </c>
       <c r="E7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F7" t="s">
         <v>234</v>
       </c>
-      <c r="F7" t="s">
-        <v>235</v>
-      </c>
       <c r="G7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2140,13 +2137,13 @@
         <v>219</v>
       </c>
       <c r="E8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F8" t="s">
         <v>234</v>
       </c>
-      <c r="F8" t="s">
-        <v>235</v>
-      </c>
       <c r="G8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2163,13 +2160,13 @@
         <v>223</v>
       </c>
       <c r="E9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2186,13 +2183,13 @@
         <v>224</v>
       </c>
       <c r="E10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2209,13 +2206,13 @@
         <v>219</v>
       </c>
       <c r="E11" t="s">
+        <v>233</v>
+      </c>
+      <c r="F11" t="s">
         <v>234</v>
       </c>
-      <c r="F11" t="s">
-        <v>235</v>
-      </c>
       <c r="G11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2232,13 +2229,13 @@
         <v>219</v>
       </c>
       <c r="E12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2249,19 +2246,19 @@
         <v>114</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="D13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2278,13 +2275,13 @@
         <v>219</v>
       </c>
       <c r="E14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2298,16 +2295,16 @@
         <v>169</v>
       </c>
       <c r="D15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E15" t="s">
+        <v>233</v>
+      </c>
+      <c r="F15" t="s">
         <v>234</v>
       </c>
-      <c r="F15" t="s">
-        <v>235</v>
-      </c>
       <c r="G15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2321,16 +2318,16 @@
         <v>170</v>
       </c>
       <c r="D16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2347,13 +2344,13 @@
         <v>219</v>
       </c>
       <c r="E17" t="s">
+        <v>233</v>
+      </c>
+      <c r="F17" t="s">
         <v>234</v>
       </c>
-      <c r="F17" t="s">
-        <v>235</v>
-      </c>
       <c r="G17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2370,13 +2367,13 @@
         <v>219</v>
       </c>
       <c r="E18" t="s">
+        <v>233</v>
+      </c>
+      <c r="F18" t="s">
         <v>234</v>
       </c>
-      <c r="F18" t="s">
-        <v>235</v>
-      </c>
       <c r="G18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2393,13 +2390,13 @@
         <v>219</v>
       </c>
       <c r="E19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2413,16 +2410,16 @@
         <v>174</v>
       </c>
       <c r="D20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E20" t="s">
+        <v>233</v>
+      </c>
+      <c r="F20" t="s">
         <v>234</v>
       </c>
-      <c r="F20" t="s">
-        <v>235</v>
-      </c>
       <c r="G20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2436,16 +2433,16 @@
         <v>111</v>
       </c>
       <c r="D21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2459,16 +2456,16 @@
         <v>175</v>
       </c>
       <c r="D22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2485,13 +2482,13 @@
         <v>219</v>
       </c>
       <c r="E23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2505,16 +2502,16 @@
         <v>177</v>
       </c>
       <c r="D24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E24" t="s">
+        <v>233</v>
+      </c>
+      <c r="F24" t="s">
         <v>234</v>
       </c>
-      <c r="F24" t="s">
-        <v>235</v>
-      </c>
       <c r="G24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2531,13 +2528,13 @@
         <v>219</v>
       </c>
       <c r="E25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2554,13 +2551,13 @@
         <v>221</v>
       </c>
       <c r="E26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2577,13 +2574,13 @@
         <v>219</v>
       </c>
       <c r="E27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2600,13 +2597,13 @@
         <v>219</v>
       </c>
       <c r="E28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2623,13 +2620,13 @@
         <v>219</v>
       </c>
       <c r="E29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2643,16 +2640,16 @@
         <v>183</v>
       </c>
       <c r="D30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2669,13 +2666,13 @@
         <v>219</v>
       </c>
       <c r="E31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G31" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2692,13 +2689,13 @@
         <v>219</v>
       </c>
       <c r="E32" t="s">
+        <v>233</v>
+      </c>
+      <c r="F32" t="s">
         <v>234</v>
       </c>
-      <c r="F32" t="s">
-        <v>235</v>
-      </c>
       <c r="G32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2715,13 +2712,13 @@
         <v>219</v>
       </c>
       <c r="E33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2738,13 +2735,13 @@
         <v>224</v>
       </c>
       <c r="E34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2761,13 +2758,13 @@
         <v>219</v>
       </c>
       <c r="E35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G35" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2784,13 +2781,13 @@
         <v>219</v>
       </c>
       <c r="E36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2807,13 +2804,13 @@
         <v>219</v>
       </c>
       <c r="E37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2830,13 +2827,13 @@
         <v>219</v>
       </c>
       <c r="E38" t="s">
+        <v>233</v>
+      </c>
+      <c r="F38" t="s">
         <v>234</v>
       </c>
-      <c r="F38" t="s">
-        <v>235</v>
-      </c>
       <c r="G38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2850,16 +2847,16 @@
         <v>123</v>
       </c>
       <c r="D39" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E39" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F39" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G39" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2876,13 +2873,13 @@
         <v>219</v>
       </c>
       <c r="E40" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2899,13 +2896,13 @@
         <v>219</v>
       </c>
       <c r="E41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G41" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2922,13 +2919,13 @@
         <v>219</v>
       </c>
       <c r="E42" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G42" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2945,13 +2942,13 @@
         <v>219</v>
       </c>
       <c r="E43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G43" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2968,13 +2965,13 @@
         <v>219</v>
       </c>
       <c r="E44" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F44" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G44" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2991,13 +2988,13 @@
         <v>219</v>
       </c>
       <c r="E45" t="s">
+        <v>233</v>
+      </c>
+      <c r="F45" t="s">
         <v>234</v>
       </c>
-      <c r="F45" t="s">
-        <v>235</v>
-      </c>
       <c r="G45" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3014,13 +3011,13 @@
         <v>219</v>
       </c>
       <c r="E46" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G46" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3037,13 +3034,13 @@
         <v>219</v>
       </c>
       <c r="E47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G47" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3060,13 +3057,13 @@
         <v>219</v>
       </c>
       <c r="E48" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F48" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G48" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3083,13 +3080,13 @@
         <v>219</v>
       </c>
       <c r="E49" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G49" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3106,13 +3103,13 @@
         <v>219</v>
       </c>
       <c r="E50" t="s">
+        <v>233</v>
+      </c>
+      <c r="F50" t="s">
         <v>234</v>
       </c>
-      <c r="F50" t="s">
-        <v>235</v>
-      </c>
       <c r="G50" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3129,13 +3126,13 @@
         <v>219</v>
       </c>
       <c r="E51" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G51" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3152,13 +3149,13 @@
         <v>219</v>
       </c>
       <c r="E52" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F52" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G52" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3175,13 +3172,13 @@
         <v>219</v>
       </c>
       <c r="E53" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F53" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G53" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3198,13 +3195,13 @@
         <v>219</v>
       </c>
       <c r="E54" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F54" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G54" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3221,13 +3218,13 @@
         <v>219</v>
       </c>
       <c r="E55" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F55" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G55" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3244,13 +3241,13 @@
         <v>219</v>
       </c>
       <c r="E56" t="s">
+        <v>233</v>
+      </c>
+      <c r="F56" t="s">
         <v>234</v>
       </c>
-      <c r="F56" t="s">
-        <v>235</v>
-      </c>
       <c r="G56" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3267,13 +3264,13 @@
         <v>219</v>
       </c>
       <c r="E57" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F57" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3290,13 +3287,13 @@
         <v>219</v>
       </c>
       <c r="E58" t="s">
+        <v>233</v>
+      </c>
+      <c r="F58" t="s">
         <v>234</v>
       </c>
-      <c r="F58" t="s">
-        <v>235</v>
-      </c>
       <c r="G58" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3313,13 +3310,13 @@
         <v>219</v>
       </c>
       <c r="E59" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F59" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G59" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3336,13 +3333,13 @@
         <v>219</v>
       </c>
       <c r="E60" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F60" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G60" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3359,13 +3356,13 @@
         <v>219</v>
       </c>
       <c r="E61" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F61" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G61" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3382,13 +3379,13 @@
         <v>219</v>
       </c>
       <c r="E62" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G62" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3405,13 +3402,13 @@
         <v>219</v>
       </c>
       <c r="E63" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F63" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G63" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3428,13 +3425,13 @@
         <v>219</v>
       </c>
       <c r="E64" t="s">
+        <v>233</v>
+      </c>
+      <c r="F64" t="s">
         <v>234</v>
       </c>
-      <c r="F64" t="s">
-        <v>235</v>
-      </c>
       <c r="G64" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3451,13 +3448,13 @@
         <v>219</v>
       </c>
       <c r="E65" t="s">
+        <v>233</v>
+      </c>
+      <c r="F65" t="s">
         <v>234</v>
       </c>
-      <c r="F65" t="s">
-        <v>235</v>
-      </c>
       <c r="G65" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3474,13 +3471,13 @@
         <v>219</v>
       </c>
       <c r="E66" t="s">
+        <v>233</v>
+      </c>
+      <c r="F66" t="s">
         <v>234</v>
       </c>
-      <c r="F66" t="s">
-        <v>235</v>
-      </c>
       <c r="G66" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3497,13 +3494,13 @@
         <v>219</v>
       </c>
       <c r="E67" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F67" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G67" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3520,13 +3517,13 @@
         <v>219</v>
       </c>
       <c r="E68" t="s">
+        <v>233</v>
+      </c>
+      <c r="F68" t="s">
         <v>234</v>
       </c>
-      <c r="F68" t="s">
-        <v>235</v>
-      </c>
       <c r="G68" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3543,13 +3540,13 @@
         <v>219</v>
       </c>
       <c r="E69" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F69" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G69" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3566,13 +3563,13 @@
         <v>219</v>
       </c>
       <c r="E70" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F70" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G70" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3589,13 +3586,13 @@
         <v>219</v>
       </c>
       <c r="E71" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F71" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G71" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3612,13 +3609,13 @@
         <v>219</v>
       </c>
       <c r="E72" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F72" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G72" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3635,13 +3632,13 @@
         <v>219</v>
       </c>
       <c r="E73" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F73" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G73" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3658,13 +3655,13 @@
         <v>219</v>
       </c>
       <c r="E74" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F74" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G74" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3681,13 +3678,13 @@
         <v>219</v>
       </c>
       <c r="E75" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F75" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G75" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3704,13 +3701,13 @@
         <v>219</v>
       </c>
       <c r="E76" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F76" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G76" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3727,13 +3724,13 @@
         <v>219</v>
       </c>
       <c r="E77" t="s">
+        <v>233</v>
+      </c>
+      <c r="F77" t="s">
         <v>234</v>
       </c>
-      <c r="F77" t="s">
-        <v>235</v>
-      </c>
       <c r="G77" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3750,13 +3747,13 @@
         <v>219</v>
       </c>
       <c r="E78" t="s">
+        <v>233</v>
+      </c>
+      <c r="F78" t="s">
         <v>234</v>
       </c>
-      <c r="F78" t="s">
-        <v>235</v>
-      </c>
       <c r="G78" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3773,13 +3770,13 @@
         <v>219</v>
       </c>
       <c r="E79" t="s">
+        <v>233</v>
+      </c>
+      <c r="F79" t="s">
         <v>234</v>
       </c>
-      <c r="F79" t="s">
-        <v>235</v>
-      </c>
       <c r="G79" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3796,13 +3793,13 @@
         <v>219</v>
       </c>
       <c r="E80" t="s">
+        <v>233</v>
+      </c>
+      <c r="F80" t="s">
         <v>234</v>
       </c>
-      <c r="F80" t="s">
-        <v>235</v>
-      </c>
       <c r="G80" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3819,13 +3816,13 @@
         <v>219</v>
       </c>
       <c r="E81" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F81" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G81" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3842,13 +3839,13 @@
         <v>219</v>
       </c>
       <c r="E82" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F82" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G82" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3865,13 +3862,13 @@
         <v>219</v>
       </c>
       <c r="E83" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F83" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G83" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3888,13 +3885,13 @@
         <v>219</v>
       </c>
       <c r="E84" t="s">
+        <v>233</v>
+      </c>
+      <c r="F84" t="s">
         <v>234</v>
       </c>
-      <c r="F84" t="s">
-        <v>235</v>
-      </c>
       <c r="G84" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3911,13 +3908,13 @@
         <v>219</v>
       </c>
       <c r="E85" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F85" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G85" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3934,13 +3931,13 @@
         <v>219</v>
       </c>
       <c r="E86" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F86" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G86" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3957,13 +3954,13 @@
         <v>219</v>
       </c>
       <c r="E87" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F87" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G87" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3980,13 +3977,13 @@
         <v>219</v>
       </c>
       <c r="E88" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F88" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G88" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -4003,13 +4000,13 @@
         <v>219</v>
       </c>
       <c r="E89" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F89" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G89" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4026,13 +4023,13 @@
         <v>219</v>
       </c>
       <c r="E90" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F90" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G90" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4049,13 +4046,13 @@
         <v>219</v>
       </c>
       <c r="E91" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F91" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G91" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4072,13 +4069,13 @@
         <v>219</v>
       </c>
       <c r="E92" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F92" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G92" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4095,13 +4092,13 @@
         <v>219</v>
       </c>
       <c r="E93" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F93" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G93" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4118,13 +4115,13 @@
         <v>219</v>
       </c>
       <c r="E94" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G94" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4141,13 +4138,13 @@
         <v>219</v>
       </c>
       <c r="E95" t="s">
+        <v>233</v>
+      </c>
+      <c r="F95" t="s">
         <v>234</v>
       </c>
-      <c r="F95" t="s">
-        <v>235</v>
-      </c>
       <c r="G95" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4164,13 +4161,13 @@
         <v>219</v>
       </c>
       <c r="E96" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F96" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G96" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4187,13 +4184,13 @@
         <v>219</v>
       </c>
       <c r="E97" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -4210,13 +4207,13 @@
         <v>219</v>
       </c>
       <c r="E98" t="s">
+        <v>233</v>
+      </c>
+      <c r="F98" t="s">
         <v>234</v>
       </c>
-      <c r="F98" t="s">
-        <v>235</v>
-      </c>
       <c r="G98" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -4257,30 +4254,30 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D2" t="s">
         <v>219</v>
       </c>
       <c r="E2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B3" t="s">
         <v>132</v>
@@ -4289,67 +4286,67 @@
         <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D4" t="s">
         <v>219</v>
       </c>
       <c r="E4" t="s">
+        <v>480</v>
+      </c>
+      <c r="F4" t="s">
         <v>481</v>
       </c>
-      <c r="F4" t="s">
-        <v>482</v>
-      </c>
       <c r="G4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B5" t="s">
         <v>132</v>
       </c>
       <c r="C5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D5" t="s">
         <v>219</v>
       </c>
       <c r="E5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B6" t="s">
         <v>138</v>
@@ -4361,18 +4358,18 @@
         <v>219</v>
       </c>
       <c r="E6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B7" t="s">
         <v>127</v>
@@ -4381,136 +4378,136 @@
         <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D8" t="s">
         <v>219</v>
       </c>
       <c r="E8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D9" t="s">
         <v>219</v>
       </c>
       <c r="E9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C10" t="s">
         <v>154</v>
       </c>
       <c r="D10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D11" t="s">
         <v>219</v>
       </c>
       <c r="E11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D12" t="s">
         <v>219</v>
       </c>
       <c r="E12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F12" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G12" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B13" t="s">
         <v>149</v>
@@ -4519,389 +4516,389 @@
         <v>209</v>
       </c>
       <c r="D13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E13" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G13" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D15" t="s">
         <v>219</v>
       </c>
       <c r="E15" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G15" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D16" t="s">
         <v>219</v>
       </c>
       <c r="E16" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D17" t="s">
         <v>219</v>
       </c>
       <c r="E17" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D18" t="s">
         <v>219</v>
       </c>
       <c r="E18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F18" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G18" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C19" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D19" t="s">
         <v>219</v>
       </c>
       <c r="E19" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F19" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G19" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C20" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D20" t="s">
         <v>220</v>
       </c>
       <c r="E20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F20" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G20" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C21" t="s">
         <v>127</v>
       </c>
       <c r="D21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E21" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G21" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C22" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D22" t="s">
         <v>219</v>
       </c>
       <c r="E22" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F22" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G22" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B23" t="s">
         <v>113</v>
       </c>
       <c r="C23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E23" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G23" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B24" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C24" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D24" t="s">
         <v>219</v>
       </c>
       <c r="E24" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G24" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B25" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C25" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D25" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E25" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F25" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B26" t="s">
         <v>215</v>
       </c>
       <c r="C26" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D26" t="s">
         <v>219</v>
       </c>
       <c r="E26" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F26" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G26" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B27" t="s">
         <v>122</v>
       </c>
       <c r="C27" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D27" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E27" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G27" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B28" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C28" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D28" t="s">
         <v>219</v>
       </c>
       <c r="E28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F28" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G28" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C29" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D29" t="s">
         <v>219</v>
       </c>
       <c r="E29" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F29" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G29" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B30" t="s">
         <v>137</v>
@@ -4913,18 +4910,18 @@
         <v>219</v>
       </c>
       <c r="E30" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F30" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G30" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B31" t="s">
         <v>145</v>
@@ -4936,110 +4933,110 @@
         <v>219</v>
       </c>
       <c r="E31" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G31" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B32" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C32" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D32" t="s">
         <v>219</v>
       </c>
       <c r="E32" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G32" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C33" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D33" t="s">
         <v>219</v>
       </c>
       <c r="E33" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F33" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G33" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B34" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C34" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D34" t="s">
         <v>219</v>
       </c>
       <c r="E34" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G34" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C35" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D35" t="s">
         <v>219</v>
       </c>
       <c r="E35" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B36" t="s">
         <v>138</v>
@@ -5051,156 +5048,156 @@
         <v>219</v>
       </c>
       <c r="E36" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G36" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B37" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C37" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D37" t="s">
         <v>219</v>
       </c>
       <c r="E37" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F37" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G37" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B38" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C38" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D38" t="s">
         <v>219</v>
       </c>
       <c r="E38" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F38" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G38" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B39" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C39" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D39" t="s">
         <v>219</v>
       </c>
       <c r="E39" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F39" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G39" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C40" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D40" t="s">
         <v>219</v>
       </c>
       <c r="E40" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F40" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G40" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B41" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C41" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D41" t="s">
         <v>219</v>
       </c>
       <c r="E41" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G41" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B42" t="s">
         <v>175</v>
       </c>
       <c r="C42" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D42" t="s">
         <v>219</v>
       </c>
       <c r="E42" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F42" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G42" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B43" t="s">
         <v>146</v>
@@ -5212,87 +5209,87 @@
         <v>219</v>
       </c>
       <c r="E43" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B44" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C44" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D44" t="s">
         <v>219</v>
       </c>
       <c r="E44" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F44" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G44" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B45" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C45" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D45" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E45" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F45" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G45" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B46" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C46" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D46" t="s">
         <v>219</v>
       </c>
       <c r="E46" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F46" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G46" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B47" t="s">
         <v>115</v>
@@ -5304,64 +5301,64 @@
         <v>219</v>
       </c>
       <c r="E47" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G47" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B48" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C48" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D48" t="s">
         <v>219</v>
       </c>
       <c r="E48" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F48" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G48" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B49" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C49" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D49" t="s">
         <v>219</v>
       </c>
       <c r="E49" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F49" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G49" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B50" t="s">
         <v>112</v>
@@ -5373,110 +5370,110 @@
         <v>219</v>
       </c>
       <c r="E50" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F50" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G50" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B51" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C51" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D51" t="s">
         <v>219</v>
       </c>
       <c r="E51" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F51" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G51" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B52" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C52" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D52" t="s">
         <v>219</v>
       </c>
       <c r="E52" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F52" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G52" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B53" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C53" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D53" t="s">
         <v>219</v>
       </c>
       <c r="E53" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F53" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G53" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B54" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C54" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D54" t="s">
         <v>219</v>
       </c>
       <c r="E54" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F54" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G54" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B55" t="s">
         <v>135</v>
@@ -5488,41 +5485,41 @@
         <v>219</v>
       </c>
       <c r="E55" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F55" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G55" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B56" t="s">
         <v>215</v>
       </c>
       <c r="C56" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D56" t="s">
         <v>219</v>
       </c>
       <c r="E56" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F56" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G56" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B57" t="s">
         <v>112</v>
@@ -5531,21 +5528,21 @@
         <v>125</v>
       </c>
       <c r="D57" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E57" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F57" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G57" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B58" t="s">
         <v>127</v>
@@ -5557,41 +5554,41 @@
         <v>219</v>
       </c>
       <c r="E58" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F58" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G58" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C59" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D59" t="s">
         <v>219</v>
       </c>
       <c r="E59" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F59" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G59" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B60" t="s">
         <v>145</v>
@@ -5603,110 +5600,110 @@
         <v>219</v>
       </c>
       <c r="E60" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F60" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G60" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B61" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C61" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D61" t="s">
         <v>219</v>
       </c>
       <c r="E61" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F61" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G61" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B62" t="s">
         <v>215</v>
       </c>
       <c r="C62" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D62" t="s">
         <v>219</v>
       </c>
       <c r="E62" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G62" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B63" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C63" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D63" t="s">
         <v>219</v>
       </c>
       <c r="E63" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F63" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G63" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B64" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C64" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D64" t="s">
         <v>219</v>
       </c>
       <c r="E64" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F64" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G64" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B65" t="s">
         <v>130</v>
@@ -5718,18 +5715,18 @@
         <v>219</v>
       </c>
       <c r="E65" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F65" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G65" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B66" t="s">
         <v>120</v>
@@ -5741,248 +5738,248 @@
         <v>219</v>
       </c>
       <c r="E66" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F66" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G66" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B67" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C67" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D67" t="s">
         <v>219</v>
       </c>
       <c r="E67" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F67" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G67" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B68" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C68" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D68" t="s">
         <v>219</v>
       </c>
       <c r="E68" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F68" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G68" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B69" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C69" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D69" t="s">
         <v>219</v>
       </c>
       <c r="E69" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F69" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G69" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B70" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C70" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D70" t="s">
         <v>219</v>
       </c>
       <c r="E70" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F70" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G70" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B71" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C71" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D71" t="s">
         <v>219</v>
       </c>
       <c r="E71" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F71" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G71" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B72" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C72" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D72" t="s">
         <v>219</v>
       </c>
       <c r="E72" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F72" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G72" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B73" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C73" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D73" t="s">
         <v>219</v>
       </c>
       <c r="E73" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F73" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G73" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B74" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C74" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D74" t="s">
         <v>219</v>
       </c>
       <c r="E74" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F74" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G74" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B75" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C75" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D75" t="s">
         <v>219</v>
       </c>
       <c r="E75" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F75" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G75" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B76" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C76" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D76" t="s">
         <v>219</v>
       </c>
       <c r="E76" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G76" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B77" t="s">
         <v>142</v>
@@ -5994,18 +5991,18 @@
         <v>219</v>
       </c>
       <c r="E77" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F77" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G77" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B78" t="s">
         <v>113</v>
@@ -6017,18 +6014,18 @@
         <v>219</v>
       </c>
       <c r="E78" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F78" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G78" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B79" t="s">
         <v>113</v>
@@ -6040,18 +6037,18 @@
         <v>219</v>
       </c>
       <c r="E79" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F79" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G79" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B80" t="s">
         <v>129</v>
@@ -6063,110 +6060,110 @@
         <v>219</v>
       </c>
       <c r="E80" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F80" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G80" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B81" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C81" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D81" t="s">
         <v>219</v>
       </c>
       <c r="E81" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F81" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G81" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B82" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C82" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D82" t="s">
         <v>219</v>
       </c>
       <c r="E82" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F82" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G82" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B83" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C83" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D83" t="s">
         <v>219</v>
       </c>
       <c r="E83" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F83" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G83" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B84" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C84" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D84" t="s">
         <v>219</v>
       </c>
       <c r="E84" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F84" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G84" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B85" t="s">
         <v>146</v>
@@ -6178,110 +6175,110 @@
         <v>219</v>
       </c>
       <c r="E85" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F85" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G85" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B86" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C86" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D86" t="s">
         <v>219</v>
       </c>
       <c r="E86" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F86" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G86" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B87" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C87" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D87" t="s">
         <v>219</v>
       </c>
       <c r="E87" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F87" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G87" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B88" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C88" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D88" t="s">
         <v>219</v>
       </c>
       <c r="E88" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F88" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G88" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B89" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C89" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D89" t="s">
         <v>219</v>
       </c>
       <c r="E89" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F89" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G89" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B90" t="s">
         <v>112</v>
@@ -6293,87 +6290,87 @@
         <v>219</v>
       </c>
       <c r="E90" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F90" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G90" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B91" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C91" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D91" t="s">
         <v>219</v>
       </c>
       <c r="E91" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F91" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G91" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B92" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C92" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D92" t="s">
         <v>219</v>
       </c>
       <c r="E92" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F92" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G92" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B93" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C93" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D93" t="s">
         <v>219</v>
       </c>
       <c r="E93" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F93" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G93" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B94" t="s">
         <v>142</v>
@@ -6385,21 +6382,21 @@
         <v>219</v>
       </c>
       <c r="E94" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G94" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B95" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C95" t="s">
         <v>142</v>
@@ -6408,18 +6405,18 @@
         <v>219</v>
       </c>
       <c r="E95" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F95" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G95" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B96" t="s">
         <v>158</v>
@@ -6431,67 +6428,67 @@
         <v>219</v>
       </c>
       <c r="E96" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F96" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G96" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B97" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C97" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D97" t="s">
         <v>219</v>
       </c>
       <c r="E97" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F97" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G97" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B98" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C98" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D98" t="s">
         <v>219</v>
       </c>
       <c r="E98" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F98" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G98" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B99" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C99" t="s">
         <v>107</v>
@@ -6500,21 +6497,21 @@
         <v>219</v>
       </c>
       <c r="E99" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F99" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G99" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B100" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -6523,13 +6520,13 @@
         <v>219</v>
       </c>
       <c r="E100" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F100" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G100" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>

--- a/BigBasket/BigBasket_products.xlsx
+++ b/BigBasket/BigBasket_products.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="528">
   <si>
     <t>product_name</t>
   </si>
@@ -44,6 +44,12 @@
     <t>Onion (Loose)</t>
   </si>
   <si>
+    <t>Cucumber - Mangalore</t>
+  </si>
+  <si>
+    <t>Onion</t>
+  </si>
+  <si>
     <t>Carrot - Orange (Loose)</t>
   </si>
   <si>
@@ -239,7 +245,7 @@
     <t>Tomato - Hybrid, Organically Grown (Loose)</t>
   </si>
   <si>
-    <t>Cucumber - Mangalore</t>
+    <t>Cucumber - Mangalore, Organically Grown</t>
   </si>
   <si>
     <t>Drumstick Leaves</t>
@@ -323,1170 +329,1164 @@
     <t>₹92</t>
   </si>
   <si>
+    <t>₹32</t>
+  </si>
+  <si>
+    <t>₹290</t>
+  </si>
+  <si>
     <t>₹36</t>
   </si>
   <si>
-    <t>₹65</t>
-  </si>
-  <si>
-    <t>₹13</t>
+    <t>₹68</t>
+  </si>
+  <si>
+    <t>₹14</t>
   </si>
   <si>
     <t>₹9</t>
   </si>
   <si>
+    <t>₹70</t>
+  </si>
+  <si>
+    <t>₹235</t>
+  </si>
+  <si>
+    <t>₹12</t>
+  </si>
+  <si>
+    <t>₹33</t>
+  </si>
+  <si>
     <t>₹47</t>
   </si>
   <si>
-    <t>₹70</t>
-  </si>
-  <si>
-    <t>₹248</t>
-  </si>
-  <si>
-    <t>₹11</t>
+    <t>₹19</t>
+  </si>
+  <si>
+    <t>₹77</t>
+  </si>
+  <si>
+    <t>₹144</t>
+  </si>
+  <si>
+    <t>₹62</t>
+  </si>
+  <si>
+    <t>₹27</t>
+  </si>
+  <si>
+    <t>₹139</t>
+  </si>
+  <si>
+    <t>₹48</t>
+  </si>
+  <si>
+    <t>₹51</t>
+  </si>
+  <si>
+    <t>₹29</t>
+  </si>
+  <si>
+    <t>₹42</t>
+  </si>
+  <si>
+    <t>₹128</t>
+  </si>
+  <si>
+    <t>₹210.53</t>
+  </si>
+  <si>
+    <t>₹16</t>
+  </si>
+  <si>
+    <t>₹166</t>
+  </si>
+  <si>
+    <t>₹331</t>
+  </si>
+  <si>
+    <t>₹72</t>
+  </si>
+  <si>
+    <t>₹133</t>
+  </si>
+  <si>
+    <t>₹46</t>
+  </si>
+  <si>
+    <t>₹180</t>
+  </si>
+  <si>
+    <t>₹18</t>
+  </si>
+  <si>
+    <t>₹59</t>
+  </si>
+  <si>
+    <t>₹84</t>
+  </si>
+  <si>
+    <t>₹103</t>
+  </si>
+  <si>
+    <t>₹37</t>
+  </si>
+  <si>
+    <t>₹111</t>
+  </si>
+  <si>
+    <t>₹254</t>
+  </si>
+  <si>
+    <t>₹79</t>
+  </si>
+  <si>
+    <t>₹202</t>
+  </si>
+  <si>
+    <t>₹57</t>
+  </si>
+  <si>
+    <t>₹49.32</t>
+  </si>
+  <si>
+    <t>₹13.16</t>
+  </si>
+  <si>
+    <t>₹155</t>
+  </si>
+  <si>
+    <t>₹151</t>
+  </si>
+  <si>
+    <t>₹73</t>
+  </si>
+  <si>
+    <t>₹106</t>
+  </si>
+  <si>
+    <t>₹125</t>
+  </si>
+  <si>
+    <t>₹98</t>
+  </si>
+  <si>
+    <t>₹54</t>
+  </si>
+  <si>
+    <t>₹87</t>
+  </si>
+  <si>
+    <t>₹122</t>
+  </si>
+  <si>
+    <t>₹39</t>
+  </si>
+  <si>
+    <t>₹58</t>
+  </si>
+  <si>
+    <t>₹24</t>
+  </si>
+  <si>
+    <t>₹64</t>
+  </si>
+  <si>
+    <t>₹173</t>
+  </si>
+  <si>
+    <t>₹90</t>
+  </si>
+  <si>
+    <t>₹121</t>
+  </si>
+  <si>
+    <t>₹136</t>
+  </si>
+  <si>
+    <t>₹56</t>
+  </si>
+  <si>
+    <t>₹23.36</t>
+  </si>
+  <si>
+    <t>₹7</t>
+  </si>
+  <si>
+    <t>₹6</t>
+  </si>
+  <si>
+    <t>₹14.5</t>
   </si>
   <si>
     <t>₹40</t>
   </si>
   <si>
-    <t>₹51</t>
-  </si>
-  <si>
-    <t>₹18</t>
-  </si>
-  <si>
-    <t>₹77</t>
-  </si>
-  <si>
-    <t>₹150</t>
-  </si>
-  <si>
-    <t>₹62</t>
-  </si>
-  <si>
-    <t>₹27</t>
-  </si>
-  <si>
-    <t>₹139</t>
-  </si>
-  <si>
-    <t>₹32</t>
+    <t>₹140</t>
+  </si>
+  <si>
+    <t>₹5</t>
+  </si>
+  <si>
+    <t>₹19.5</t>
+  </si>
+  <si>
+    <t>₹34.31</t>
+  </si>
+  <si>
+    <t>₹56.21</t>
+  </si>
+  <si>
+    <t>₹105.12</t>
+  </si>
+  <si>
+    <t>₹43</t>
+  </si>
+  <si>
+    <t>₹17</t>
+  </si>
+  <si>
+    <t>₹101.47</t>
+  </si>
+  <si>
+    <t>₹25</t>
+  </si>
+  <si>
+    <t>₹22</t>
+  </si>
+  <si>
+    <t>₹26.28</t>
+  </si>
+  <si>
+    <t>₹93.44</t>
+  </si>
+  <si>
+    <t>₹153.69</t>
+  </si>
+  <si>
+    <t>₹10</t>
+  </si>
+  <si>
+    <t>₹49.64</t>
+  </si>
+  <si>
+    <t>₹121.18</t>
+  </si>
+  <si>
+    <t>₹241.63</t>
+  </si>
+  <si>
+    <t>₹47.3</t>
+  </si>
+  <si>
+    <t>₹97.09</t>
+  </si>
+  <si>
+    <t>₹33.58</t>
+  </si>
+  <si>
+    <t>₹131.4</t>
+  </si>
+  <si>
+    <t>₹13.14</t>
+  </si>
+  <si>
+    <t>₹43.07</t>
+  </si>
+  <si>
+    <t>₹61.32</t>
+  </si>
+  <si>
+    <t>₹75.19</t>
+  </si>
+  <si>
+    <t>₹27.01</t>
+  </si>
+  <si>
+    <t>₹81.03</t>
+  </si>
+  <si>
+    <t>₹185.42</t>
+  </si>
+  <si>
+    <t>₹57.67</t>
+  </si>
+  <si>
+    <t>₹147.46</t>
+  </si>
+  <si>
+    <t>₹41.61</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>₹51.1</t>
+  </si>
+  <si>
+    <t>₹35</t>
+  </si>
+  <si>
+    <t>₹110.23</t>
+  </si>
+  <si>
+    <t>₹37.23</t>
+  </si>
+  <si>
+    <t>₹53.29</t>
+  </si>
+  <si>
+    <t>₹77.38</t>
+  </si>
+  <si>
+    <t>₹91.25</t>
+  </si>
+  <si>
+    <t>₹211.7</t>
+  </si>
+  <si>
+    <t>₹71.54</t>
+  </si>
+  <si>
+    <t>₹39.42</t>
+  </si>
+  <si>
+    <t>₹21.17</t>
+  </si>
+  <si>
+    <t>₹63.51</t>
+  </si>
+  <si>
+    <t>₹89.06</t>
+  </si>
+  <si>
+    <t>₹13.75</t>
+  </si>
+  <si>
+    <t>₹28.47</t>
+  </si>
+  <si>
+    <t>₹42.34</t>
+  </si>
+  <si>
+    <t>₹45.26</t>
+  </si>
+  <si>
+    <t>₹17.52</t>
+  </si>
+  <si>
+    <t>₹10.22</t>
+  </si>
+  <si>
+    <t>₹46.72</t>
+  </si>
+  <si>
+    <t>₹126.29</t>
+  </si>
+  <si>
+    <t>₹65.7</t>
+  </si>
+  <si>
+    <t>₹88.33</t>
+  </si>
+  <si>
+    <t>₹99.28</t>
+  </si>
+  <si>
+    <t>₹24.09</t>
+  </si>
+  <si>
+    <t>39% OFF</t>
+  </si>
+  <si>
+    <t>27% OFF</t>
+  </si>
+  <si>
+    <t>38% OFF</t>
+  </si>
+  <si>
+    <t>33% OFF</t>
+  </si>
+  <si>
+    <t>29% OFF</t>
+  </si>
+  <si>
+    <t>50% OFF</t>
+  </si>
+  <si>
+    <t>55% OFF</t>
+  </si>
+  <si>
+    <t>43% OFF</t>
+  </si>
+  <si>
+    <t>40% OFF</t>
+  </si>
+  <si>
+    <t>58% OFF</t>
+  </si>
+  <si>
+    <t>41% OFF</t>
+  </si>
+  <si>
+    <t>53% OFF</t>
+  </si>
+  <si>
+    <t>31% OFF</t>
+  </si>
+  <si>
+    <t>37% OFF</t>
+  </si>
+  <si>
+    <t>48% OFF</t>
+  </si>
+  <si>
+    <t>57% OFF</t>
+  </si>
+  <si>
+    <t>34% OFF</t>
+  </si>
+  <si>
+    <t>28% OFF</t>
+  </si>
+  <si>
+    <t>Fresh Vegetables</t>
+  </si>
+  <si>
+    <t>2 kg</t>
+  </si>
+  <si>
+    <t>1 pc (Approx 500-1000 g)</t>
+  </si>
+  <si>
+    <t>5 kg - Multipack</t>
+  </si>
+  <si>
+    <t>500 g</t>
+  </si>
+  <si>
+    <t>250 g</t>
+  </si>
+  <si>
+    <t>1 kg</t>
+  </si>
+  <si>
+    <t>1 pc - (approx. 400 to 600 g)</t>
+  </si>
+  <si>
+    <t>1 pack - (Approx. 180g - 200 g)</t>
+  </si>
+  <si>
+    <t>1 pc - (approx. 500 g to 800 g)</t>
+  </si>
+  <si>
+    <t>2 pcs</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 500 g - 800 g)</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 100 g)</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 250g-500g)</t>
+  </si>
+  <si>
+    <t>100 g</t>
+  </si>
+  <si>
+    <t>350 g (2 pieces)</t>
+  </si>
+  <si>
+    <t>1 pc - Approx. 400 to 600 g</t>
+  </si>
+  <si>
+    <t>1 Kg</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx 500-1kg)</t>
+  </si>
+  <si>
+    <t>1 pc</t>
+  </si>
+  <si>
+    <t>1 pc (approx. 300-1.3 Kg)</t>
+  </si>
+  <si>
+    <t>2023-09-28 10:02:18</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:23:50</t>
+  </si>
+  <si>
+    <t>Banana - Robusta</t>
+  </si>
+  <si>
+    <t>Apple - Shimla, Regular</t>
+  </si>
+  <si>
+    <t>Pomegranate - Regular (Loose)</t>
+  </si>
+  <si>
+    <t>Banana - Yelakki</t>
+  </si>
+  <si>
+    <t>Baby Apple Shimla</t>
+  </si>
+  <si>
+    <t>Coconut - Medium</t>
+  </si>
+  <si>
+    <t>Mini Orange Imported (Loose)</t>
+  </si>
+  <si>
+    <t>Papaya</t>
+  </si>
+  <si>
+    <t>Pomegranate (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala Economy</t>
+  </si>
+  <si>
+    <t>Guava - Thai (Loose)</t>
+  </si>
+  <si>
+    <t>Tender Coconut</t>
+  </si>
+  <si>
+    <t>Mosambi - Economy (Loose)</t>
+  </si>
+  <si>
+    <t>Watermelon -  Medium</t>
+  </si>
+  <si>
+    <t>Kiwi - Green</t>
+  </si>
+  <si>
+    <t>Banana - Nendran</t>
+  </si>
+  <si>
+    <t>Guava (Loose)</t>
+  </si>
+  <si>
+    <t>Blueberry</t>
+  </si>
+  <si>
+    <t>Dragon Fruit (Loose)</t>
+  </si>
+  <si>
+    <t>Muskmelon -  Netted Medium</t>
+  </si>
+  <si>
+    <t>Pear - Green, Imported</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala, Regular</t>
+  </si>
+  <si>
+    <t>Papaya - Small</t>
+  </si>
+  <si>
+    <t>Grapes - Bangalore Blue</t>
+  </si>
+  <si>
+    <t>Avocado (Loose)</t>
+  </si>
+  <si>
+    <t>Pear - Naspathi, Indian</t>
+  </si>
+  <si>
+    <t>Avocado - Imported, Medium (Loose)</t>
+  </si>
+  <si>
+    <t>Banana - Yelakki, Organically Grown</t>
+  </si>
+  <si>
+    <t>Mosambi - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala, Premium</t>
+  </si>
+  <si>
+    <t>Banana - Raw Green (Loose)</t>
+  </si>
+  <si>
+    <t>Pineapple</t>
+  </si>
+  <si>
+    <t>Coconut - Large</t>
+  </si>
+  <si>
+    <t>Fresh Figs</t>
+  </si>
+  <si>
+    <t>Mango - Neelam</t>
+  </si>
+  <si>
+    <t>Raw Mango (Loose)</t>
+  </si>
+  <si>
+    <t>Langra Mango</t>
+  </si>
+  <si>
+    <t>Apple - Green, Premium</t>
+  </si>
+  <si>
+    <t>Pear Beauty</t>
+  </si>
+  <si>
+    <t>Sapota</t>
+  </si>
+  <si>
+    <t>Mallika Mango</t>
+  </si>
+  <si>
+    <t>Apple - Pink Lady</t>
+  </si>
+  <si>
+    <t>Pomegranate - Peeled</t>
+  </si>
+  <si>
+    <t>Coconut with Husk - Pooja Coconut</t>
+  </si>
+  <si>
+    <t>Baby Banana - Robusta</t>
+  </si>
+  <si>
+    <t>Banana - Red</t>
+  </si>
+  <si>
+    <t>Orange - Imported (Loose)</t>
+  </si>
+  <si>
+    <t>Dates - Kimia, with Seed</t>
+  </si>
+  <si>
+    <t>Guava - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Longan</t>
+  </si>
+  <si>
+    <t>Zespri Kiwi - Sun Gold</t>
+  </si>
+  <si>
+    <t>Banana - Karpooravalli</t>
+  </si>
+  <si>
+    <t>Banana - Nendran, Organically Grown</t>
+  </si>
+  <si>
+    <t>Ber - Apple (Loose)</t>
+  </si>
+  <si>
+    <t>Pear - Beauty, Rich In Fiber, Vitamin C, Great For Gut Health</t>
+  </si>
+  <si>
+    <t>Coconut - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Grapes - Red Globe</t>
+  </si>
+  <si>
+    <t>Banana - Poovan</t>
+  </si>
+  <si>
+    <t>Mosambi - Premium (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Ambri</t>
+  </si>
+  <si>
+    <t>Soursop</t>
+  </si>
+  <si>
+    <t>Coconut - Diced</t>
+  </si>
+  <si>
+    <t>Cherry - Kashmir</t>
+  </si>
+  <si>
+    <t>Apple - Red Delicious, Economy</t>
+  </si>
+  <si>
+    <t>Apricot - Dried</t>
+  </si>
+  <si>
+    <t>Plum - Indian</t>
+  </si>
+  <si>
+    <t>Pineapple - Slices</t>
+  </si>
+  <si>
+    <t>Papaya- Diced</t>
+  </si>
+  <si>
+    <t>Pomegranate - Single Serve, Peeled</t>
+  </si>
+  <si>
+    <t>Mosambi (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Washington, Regular</t>
+  </si>
+  <si>
+    <t>Apple - Fuji, Economy</t>
+  </si>
+  <si>
+    <t>Mango - Raw Totapuri</t>
+  </si>
+  <si>
+    <t>Pineapple - Chunks, Single Serve</t>
+  </si>
+  <si>
+    <t>Kesar Mango</t>
+  </si>
+  <si>
+    <t>Passion Fruit</t>
+  </si>
+  <si>
+    <t>Cherry</t>
+  </si>
+  <si>
+    <t>Orange - Nagpur, Small (Loose)</t>
+  </si>
+  <si>
+    <t>Grape fruit - Imported (Loose)</t>
+  </si>
+  <si>
+    <t>Rambutan</t>
+  </si>
+  <si>
+    <t>Ber (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Shimla, Premium</t>
+  </si>
+  <si>
+    <t>Watermelon - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Tamarind - Sweet</t>
+  </si>
+  <si>
+    <t>Plum - Imported</t>
+  </si>
+  <si>
+    <t>Pomelo - Peeled</t>
+  </si>
+  <si>
+    <t>Sapota - Organically Grown</t>
+  </si>
+  <si>
+    <t>Guava - Thai Organic, White</t>
+  </si>
+  <si>
+    <t>Mangosteen</t>
+  </si>
+  <si>
+    <t>Cherry - Imported</t>
+  </si>
+  <si>
+    <t>Apple - Red Delicious / Washington, Regular</t>
+  </si>
+  <si>
+    <t>Apple - Red Delicious / Washington, Premium</t>
+  </si>
+  <si>
+    <t>Himayath Mango</t>
+  </si>
+  <si>
+    <t>₹328</t>
+  </si>
+  <si>
+    <t>₹298</t>
+  </si>
+  <si>
+    <t>₹224</t>
+  </si>
+  <si>
+    <t>₹207</t>
+  </si>
+  <si>
+    <t>₹451</t>
+  </si>
+  <si>
+    <t>₹258</t>
+  </si>
+  <si>
+    <t>₹329</t>
+  </si>
+  <si>
+    <t>₹93.15</t>
+  </si>
+  <si>
+    <t>₹236</t>
+  </si>
+  <si>
+    <t>₹85</t>
+  </si>
+  <si>
+    <t>₹184</t>
+  </si>
+  <si>
+    <t>₹109</t>
+  </si>
+  <si>
+    <t>₹392</t>
+  </si>
+  <si>
+    <t>₹568</t>
+  </si>
+  <si>
+    <t>₹552</t>
+  </si>
+  <si>
+    <t>₹55</t>
+  </si>
+  <si>
+    <t>₹146</t>
+  </si>
+  <si>
+    <t>₹325</t>
+  </si>
+  <si>
+    <t>₹300</t>
+  </si>
+  <si>
+    <t>₹114</t>
+  </si>
+  <si>
+    <t>₹259</t>
+  </si>
+  <si>
+    <t>₹604</t>
+  </si>
+  <si>
+    <t>₹95</t>
+  </si>
+  <si>
+    <t>₹44</t>
+  </si>
+  <si>
+    <t>₹127</t>
+  </si>
+  <si>
+    <t>₹168</t>
+  </si>
+  <si>
+    <t>₹129</t>
+  </si>
+  <si>
+    <t>₹500</t>
+  </si>
+  <si>
+    <t>₹185</t>
+  </si>
+  <si>
+    <t>₹153</t>
+  </si>
+  <si>
+    <t>₹453</t>
+  </si>
+  <si>
+    <t>₹375.34</t>
+  </si>
+  <si>
+    <t>₹161</t>
+  </si>
+  <si>
+    <t>₹272</t>
+  </si>
+  <si>
+    <t>₹302</t>
+  </si>
+  <si>
+    <t>₹137</t>
+  </si>
+  <si>
+    <t>₹385</t>
+  </si>
+  <si>
+    <t>₹381</t>
+  </si>
+  <si>
+    <t>₹131</t>
+  </si>
+  <si>
+    <t>₹361</t>
+  </si>
+  <si>
+    <t>₹50</t>
+  </si>
+  <si>
+    <t>₹794</t>
+  </si>
+  <si>
+    <t>₹105</t>
+  </si>
+  <si>
+    <t>₹162</t>
+  </si>
+  <si>
+    <t>₹554</t>
+  </si>
+  <si>
+    <t>₹240</t>
+  </si>
+  <si>
+    <t>₹377</t>
+  </si>
+  <si>
+    <t>₹177</t>
+  </si>
+  <si>
+    <t>₹117</t>
+  </si>
+  <si>
+    <t>₹462</t>
+  </si>
+  <si>
+    <t>₹199</t>
+  </si>
+  <si>
+    <t>₹190</t>
+  </si>
+  <si>
+    <t>₹544</t>
+  </si>
+  <si>
+    <t>₹209</t>
+  </si>
+  <si>
+    <t>₹1895</t>
+  </si>
+  <si>
+    <t>₹442</t>
+  </si>
+  <si>
+    <t>₹324.34</t>
+  </si>
+  <si>
+    <t>₹110.96</t>
+  </si>
+  <si>
+    <t>₹76</t>
+  </si>
+  <si>
+    <t>₹403</t>
+  </si>
+  <si>
+    <t>₹380</t>
+  </si>
+  <si>
+    <t>₹702</t>
+  </si>
+  <si>
+    <t>₹211.25</t>
+  </si>
+  <si>
+    <t>₹239.44</t>
+  </si>
+  <si>
+    <t>₹217.54</t>
+  </si>
+  <si>
+    <t>₹25.55</t>
+  </si>
+  <si>
+    <t>₹278</t>
+  </si>
+  <si>
+    <t>₹185.5</t>
+  </si>
+  <si>
+    <t>₹240.17</t>
+  </si>
+  <si>
+    <t>₹52.56</t>
+  </si>
+  <si>
+    <t>₹172.28</t>
+  </si>
+  <si>
+    <t>₹62.05</t>
+  </si>
+  <si>
+    <t>₹134.32</t>
   </si>
   <si>
     <t>₹28</t>
   </si>
   <si>
-    <t>₹61</t>
-  </si>
-  <si>
-    <t>₹125</t>
-  </si>
-  <si>
-    <t>₹210.53</t>
-  </si>
-  <si>
-    <t>₹16</t>
-  </si>
-  <si>
-    <t>₹166</t>
-  </si>
-  <si>
-    <t>₹344</t>
-  </si>
-  <si>
-    <t>₹133</t>
-  </si>
-  <si>
-    <t>₹48</t>
-  </si>
-  <si>
-    <t>₹180</t>
-  </si>
-  <si>
-    <t>₹57</t>
-  </si>
-  <si>
-    <t>₹79</t>
-  </si>
-  <si>
-    <t>₹100</t>
-  </si>
-  <si>
-    <t>₹46</t>
-  </si>
-  <si>
-    <t>₹111</t>
-  </si>
-  <si>
-    <t>₹120</t>
-  </si>
-  <si>
-    <t>₹254</t>
-  </si>
-  <si>
-    <t>₹200</t>
-  </si>
-  <si>
-    <t>₹49.32</t>
-  </si>
-  <si>
-    <t>₹13.16</t>
-  </si>
-  <si>
-    <t>₹50</t>
-  </si>
-  <si>
-    <t>₹76</t>
-  </si>
-  <si>
-    <t>₹144</t>
-  </si>
-  <si>
-    <t>₹205</t>
-  </si>
-  <si>
-    <t>₹73</t>
-  </si>
-  <si>
-    <t>₹68</t>
-  </si>
-  <si>
-    <t>₹106</t>
-  </si>
-  <si>
-    <t>₹53</t>
-  </si>
-  <si>
-    <t>₹317</t>
-  </si>
-  <si>
-    <t>₹98</t>
-  </si>
-  <si>
-    <t>₹59</t>
-  </si>
-  <si>
-    <t>₹31</t>
-  </si>
-  <si>
-    <t>₹128</t>
+    <t>₹286.16</t>
+  </si>
+  <si>
+    <t>₹414.64</t>
+  </si>
+  <si>
+    <t>₹402</t>
+  </si>
+  <si>
+    <t>₹40.15</t>
+  </si>
+  <si>
+    <t>₹106.58</t>
+  </si>
+  <si>
+    <t>₹237.25</t>
+  </si>
+  <si>
+    <t>₹219</t>
+  </si>
+  <si>
+    <t>₹83.22</t>
+  </si>
+  <si>
+    <t>₹189.07</t>
+  </si>
+  <si>
+    <t>₹79.57</t>
+  </si>
+  <si>
+    <t>₹440.92</t>
+  </si>
+  <si>
+    <t>₹69.35</t>
+  </si>
+  <si>
+    <t>₹32.12</t>
+  </si>
+  <si>
+    <t>₹92.71</t>
+  </si>
+  <si>
+    <t>₹122.64</t>
+  </si>
+  <si>
+    <t>₹94.17</t>
+  </si>
+  <si>
+    <t>₹365</t>
+  </si>
+  <si>
+    <t>₹135.05</t>
+  </si>
+  <si>
+    <t>₹111.69</t>
+  </si>
+  <si>
+    <t>₹330.69</t>
+  </si>
+  <si>
+    <t>₹274</t>
+  </si>
+  <si>
+    <t>₹117.53</t>
+  </si>
+  <si>
+    <t>₹198.56</t>
+  </si>
+  <si>
+    <t>₹220.46</t>
+  </si>
+  <si>
+    <t>₹100.01</t>
+  </si>
+  <si>
+    <t>₹281.05</t>
+  </si>
+  <si>
+    <t>₹278.13</t>
+  </si>
+  <si>
+    <t>₹95.63</t>
+  </si>
+  <si>
+    <t>₹263.53</t>
+  </si>
+  <si>
+    <t>₹36.5</t>
+  </si>
+  <si>
+    <t>₹579.62</t>
+  </si>
+  <si>
+    <t>₹76.65</t>
+  </si>
+  <si>
+    <t>₹118.26</t>
+  </si>
+  <si>
+    <t>₹38</t>
+  </si>
+  <si>
+    <t>₹404.42</t>
+  </si>
+  <si>
+    <t>₹175.2</t>
+  </si>
+  <si>
+    <t>₹275.21</t>
+  </si>
+  <si>
+    <t>₹129.21</t>
+  </si>
+  <si>
+    <t>₹85.41</t>
+  </si>
+  <si>
+    <t>₹337.26</t>
+  </si>
+  <si>
+    <t>₹145.27</t>
+  </si>
+  <si>
+    <t>₹138.7</t>
+  </si>
+  <si>
+    <t>₹397.12</t>
+  </si>
+  <si>
+    <t>₹152.57</t>
+  </si>
+  <si>
+    <t>₹1383.35</t>
+  </si>
+  <si>
+    <t>₹322.66</t>
+  </si>
+  <si>
+    <t>₹236.77</t>
   </si>
   <si>
     <t>₹81</t>
   </si>
   <si>
-    <t>₹29</t>
-  </si>
-  <si>
-    <t>₹54</t>
-  </si>
-  <si>
-    <t>₹58</t>
-  </si>
-  <si>
-    <t>₹114</t>
-  </si>
-  <si>
-    <t>₹42</t>
-  </si>
-  <si>
-    <t>₹46.58</t>
-  </si>
-  <si>
-    <t>₹24</t>
-  </si>
-  <si>
-    <t>₹107</t>
-  </si>
-  <si>
-    <t>₹43</t>
-  </si>
-  <si>
-    <t>₹64</t>
-  </si>
-  <si>
-    <t>₹172</t>
-  </si>
-  <si>
-    <t>₹131</t>
-  </si>
-  <si>
-    <t>₹33</t>
-  </si>
-  <si>
-    <t>₹56</t>
-  </si>
-  <si>
-    <t>₹47.45</t>
-  </si>
-  <si>
-    <t>₹7</t>
-  </si>
-  <si>
-    <t>₹3</t>
-  </si>
-  <si>
-    <t>₹20</t>
-  </si>
-  <si>
-    <t>₹140</t>
-  </si>
-  <si>
-    <t>₹6</t>
-  </si>
-  <si>
-    <t>₹19.5</t>
-  </si>
-  <si>
-    <t>₹37</t>
-  </si>
-  <si>
-    <t>₹56.21</t>
-  </si>
-  <si>
-    <t>₹109.5</t>
-  </si>
-  <si>
-    <t>₹39</t>
-  </si>
-  <si>
-    <t>₹17</t>
-  </si>
-  <si>
-    <t>₹101.47</t>
-  </si>
-  <si>
-    <t>₹25</t>
-  </si>
-  <si>
-    <t>₹21</t>
-  </si>
-  <si>
-    <t>₹44.53</t>
-  </si>
-  <si>
-    <t>₹91.25</t>
-  </si>
-  <si>
-    <t>₹153.69</t>
-  </si>
-  <si>
-    <t>₹9.5</t>
-  </si>
-  <si>
-    <t>₹45.26</t>
-  </si>
-  <si>
-    <t>₹121.18</t>
-  </si>
-  <si>
-    <t>₹251.12</t>
-  </si>
-  <si>
-    <t>₹47.3</t>
-  </si>
-  <si>
-    <t>₹97.09</t>
-  </si>
-  <si>
-    <t>₹35.04</t>
-  </si>
-  <si>
-    <t>₹131.4</t>
-  </si>
-  <si>
-    <t>₹13.14</t>
-  </si>
-  <si>
-    <t>₹41.61</t>
-  </si>
-  <si>
-    <t>₹57.67</t>
-  </si>
-  <si>
-    <t>₹33.58</t>
-  </si>
-  <si>
-    <t>₹81.03</t>
-  </si>
-  <si>
-    <t>₹87.6</t>
-  </si>
-  <si>
-    <t>₹185.42</t>
-  </si>
-  <si>
-    <t>₹146</t>
-  </si>
-  <si>
-    <t>₹26.28</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>₹51.1</t>
-  </si>
-  <si>
-    <t>₹36.5</t>
-  </si>
-  <si>
     <t>₹55.48</t>
   </si>
   <si>
-    <t>₹149.65</t>
-  </si>
-  <si>
-    <t>₹53.29</t>
-  </si>
-  <si>
-    <t>₹49.64</t>
-  </si>
-  <si>
-    <t>₹77.38</t>
-  </si>
-  <si>
-    <t>₹38.69</t>
-  </si>
-  <si>
-    <t>₹231.41</t>
-  </si>
-  <si>
-    <t>₹71.54</t>
-  </si>
-  <si>
-    <t>₹43.07</t>
-  </si>
-  <si>
-    <t>₹22.63</t>
-  </si>
-  <si>
-    <t>₹93.44</t>
-  </si>
-  <si>
-    <t>₹105.12</t>
-  </si>
-  <si>
-    <t>₹59.13</t>
-  </si>
-  <si>
-    <t>₹21.17</t>
-  </si>
-  <si>
-    <t>₹23.36</t>
-  </si>
-  <si>
-    <t>₹39.42</t>
-  </si>
-  <si>
-    <t>₹42.34</t>
-  </si>
-  <si>
-    <t>₹83.22</t>
-  </si>
-  <si>
-    <t>₹34.31</t>
-  </si>
-  <si>
-    <t>₹30.66</t>
-  </si>
-  <si>
-    <t>₹34</t>
-  </si>
-  <si>
-    <t>₹17.52</t>
-  </si>
-  <si>
-    <t>₹78.11</t>
-  </si>
-  <si>
-    <t>₹9.49</t>
-  </si>
-  <si>
-    <t>₹31.39</t>
-  </si>
-  <si>
-    <t>₹46.72</t>
-  </si>
-  <si>
-    <t>₹125.56</t>
-  </si>
-  <si>
-    <t>₹95.63</t>
-  </si>
-  <si>
-    <t>₹24.09</t>
-  </si>
-  <si>
-    <t>39% OFF</t>
-  </si>
-  <si>
-    <t>33% OFF</t>
-  </si>
-  <si>
-    <t>27% OFF</t>
-  </si>
-  <si>
-    <t>46% OFF</t>
-  </si>
-  <si>
-    <t>67% OFF</t>
-  </si>
-  <si>
-    <t>57% OFF</t>
-  </si>
-  <si>
-    <t>43% OFF</t>
-  </si>
-  <si>
-    <t>44% OFF</t>
-  </si>
-  <si>
-    <t>45% OFF</t>
-  </si>
-  <si>
-    <t>51% OFF</t>
-  </si>
-  <si>
-    <t>50% OFF</t>
-  </si>
-  <si>
-    <t>37% OFF</t>
-  </si>
-  <si>
-    <t>47% OFF</t>
-  </si>
-  <si>
-    <t>34% OFF</t>
-  </si>
-  <si>
-    <t>38% OFF</t>
-  </si>
-  <si>
-    <t>41% OFF</t>
-  </si>
-  <si>
-    <t>32% OFF</t>
+    <t>₹294.19</t>
+  </si>
+  <si>
+    <t>₹277.4</t>
+  </si>
+  <si>
+    <t>₹512.46</t>
+  </si>
+  <si>
+    <t>49% OFF</t>
+  </si>
+  <si>
+    <t>35% OFF</t>
   </si>
   <si>
     <t>36% OFF</t>
   </si>
   <si>
-    <t>40% OFF</t>
-  </si>
-  <si>
-    <t>Fresh Vegetables</t>
-  </si>
-  <si>
-    <t>2 kg</t>
-  </si>
-  <si>
-    <t>500 g</t>
-  </si>
-  <si>
-    <t>250 g</t>
-  </si>
-  <si>
-    <t>1 kg</t>
-  </si>
-  <si>
-    <t>1 pc - (approx. 400 to 600 g)</t>
-  </si>
-  <si>
-    <t>1 pack - (Approx. 180g - 200 g)</t>
-  </si>
-  <si>
-    <t>1 pc - (approx. 500 g to 800 g)</t>
-  </si>
-  <si>
-    <t>2 pcs</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx. 500 g - 800 g)</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx. 100 g)</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx. 250g-500g)</t>
-  </si>
-  <si>
-    <t>100 g</t>
-  </si>
-  <si>
-    <t>350 g (2 pieces)</t>
-  </si>
-  <si>
-    <t>1 pc - Approx. 400 to 600 g</t>
-  </si>
-  <si>
-    <t>1 Kg</t>
-  </si>
-  <si>
-    <t>1 pc (Approx 500-1000 g)</t>
-  </si>
-  <si>
-    <t>1 pc</t>
-  </si>
-  <si>
-    <t>1 pc (approx. 300-1.3 Kg)</t>
-  </si>
-  <si>
-    <t>2023-09-28 10:02:18</t>
-  </si>
-  <si>
-    <t>Banana - Robusta</t>
-  </si>
-  <si>
-    <t>Apple - Shimla, Regular</t>
-  </si>
-  <si>
-    <t>Pomegranate - Regular (Loose)</t>
-  </si>
-  <si>
-    <t>Banana - Yelakki</t>
-  </si>
-  <si>
-    <t>Baby Apple Shimla</t>
-  </si>
-  <si>
-    <t>Coconut - Medium</t>
-  </si>
-  <si>
-    <t>Mini Orange Imported (Loose)</t>
-  </si>
-  <si>
-    <t>Papaya</t>
-  </si>
-  <si>
-    <t>Pomegranate (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala Economy</t>
-  </si>
-  <si>
-    <t>Guava - Thai (Loose)</t>
-  </si>
-  <si>
-    <t>Tender Coconut</t>
-  </si>
-  <si>
-    <t>Mosambi - Economy (Loose)</t>
-  </si>
-  <si>
-    <t>Watermelon -  Medium</t>
-  </si>
-  <si>
-    <t>Kiwi - Green</t>
-  </si>
-  <si>
-    <t>Banana - Nendran</t>
-  </si>
-  <si>
-    <t>Guava (Loose)</t>
-  </si>
-  <si>
-    <t>Blueberry</t>
-  </si>
-  <si>
-    <t>Dragon Fruit (Loose)</t>
-  </si>
-  <si>
-    <t>Muskmelon -  Netted Medium</t>
-  </si>
-  <si>
-    <t>Pear - Green, Imported</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala, Regular</t>
-  </si>
-  <si>
-    <t>Papaya - Small</t>
-  </si>
-  <si>
-    <t>Grapes - Bangalore Blue</t>
-  </si>
-  <si>
-    <t>Avocado (Loose)</t>
-  </si>
-  <si>
-    <t>Pear - Naspathi, Indian</t>
-  </si>
-  <si>
-    <t>Avocado - Imported, Medium (Loose)</t>
-  </si>
-  <si>
-    <t>Banana - Yelakki, Organically Grown</t>
-  </si>
-  <si>
-    <t>Mosambi - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala, Premium</t>
-  </si>
-  <si>
-    <t>Banana - Raw Green (Loose)</t>
-  </si>
-  <si>
-    <t>Pineapple</t>
-  </si>
-  <si>
-    <t>Coconut - Large</t>
-  </si>
-  <si>
-    <t>Fresh Figs</t>
-  </si>
-  <si>
-    <t>Mango - Neelam</t>
-  </si>
-  <si>
-    <t>Raw Mango (Loose)</t>
-  </si>
-  <si>
-    <t>Langra Mango</t>
-  </si>
-  <si>
-    <t>Apple - Green, Premium</t>
-  </si>
-  <si>
-    <t>Pear Beauty</t>
-  </si>
-  <si>
-    <t>Sapota</t>
-  </si>
-  <si>
-    <t>Mallika Mango</t>
-  </si>
-  <si>
-    <t>Apple - Pink Lady</t>
-  </si>
-  <si>
-    <t>Pomegranate - Peeled</t>
-  </si>
-  <si>
-    <t>Coconut with Husk - Pooja Coconut</t>
-  </si>
-  <si>
-    <t>Baby Banana - Robusta</t>
-  </si>
-  <si>
-    <t>Banana - Red</t>
-  </si>
-  <si>
-    <t>Orange - Imported (Loose)</t>
-  </si>
-  <si>
-    <t>Dates - Kimia, with Seed</t>
-  </si>
-  <si>
-    <t>Guava - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Longan</t>
-  </si>
-  <si>
-    <t>Zespri Kiwi - Sun Gold</t>
-  </si>
-  <si>
-    <t>Banana - Karpooravalli</t>
-  </si>
-  <si>
-    <t>Banana - Nendran, Organically Grown</t>
-  </si>
-  <si>
-    <t>Ber - Apple (Loose)</t>
-  </si>
-  <si>
-    <t>Pear - Beauty, Rich In Fiber, Vitamin C, Great For Gut Health</t>
-  </si>
-  <si>
-    <t>Coconut - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Grapes - Red Globe</t>
-  </si>
-  <si>
-    <t>Banana - Poovan</t>
-  </si>
-  <si>
-    <t>Mosambi - Premium (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Ambri</t>
-  </si>
-  <si>
-    <t>Soursop</t>
-  </si>
-  <si>
-    <t>Coconut - Diced</t>
-  </si>
-  <si>
-    <t>Cherry - Kashmir</t>
-  </si>
-  <si>
-    <t>Apple - Red Delicious, Economy</t>
-  </si>
-  <si>
-    <t>Apricot - Dried</t>
-  </si>
-  <si>
-    <t>Plum - Indian</t>
-  </si>
-  <si>
-    <t>Pineapple - Slices</t>
-  </si>
-  <si>
-    <t>Papaya- Diced</t>
-  </si>
-  <si>
-    <t>Pomegranate - Single Serve, Peeled</t>
-  </si>
-  <si>
-    <t>Mosambi (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Washington, Regular</t>
-  </si>
-  <si>
-    <t>Apple - Fuji, Economy</t>
-  </si>
-  <si>
-    <t>Mango - Raw Totapuri</t>
-  </si>
-  <si>
-    <t>Pineapple - Chunks, Single Serve</t>
-  </si>
-  <si>
-    <t>Kesar Mango</t>
-  </si>
-  <si>
-    <t>Passion Fruit</t>
-  </si>
-  <si>
-    <t>Cherry</t>
-  </si>
-  <si>
-    <t>Orange - Nagpur, Small (Loose)</t>
-  </si>
-  <si>
-    <t>Grape fruit - Imported (Loose)</t>
-  </si>
-  <si>
-    <t>Rambutan</t>
-  </si>
-  <si>
-    <t>Ber (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Shimla, Premium</t>
-  </si>
-  <si>
-    <t>Watermelon - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Tamarind - Sweet</t>
-  </si>
-  <si>
-    <t>Plum - Imported</t>
-  </si>
-  <si>
-    <t>Pomelo - Peeled</t>
-  </si>
-  <si>
-    <t>Sapota - Organically Grown</t>
-  </si>
-  <si>
-    <t>Guava - Thai Organic, White</t>
-  </si>
-  <si>
-    <t>Mangosteen</t>
-  </si>
-  <si>
-    <t>Cherry - Imported</t>
-  </si>
-  <si>
-    <t>Apple - Red Delicious / Washington, Regular</t>
-  </si>
-  <si>
-    <t>Apple - Red Delicious / Washington, Premium</t>
-  </si>
-  <si>
-    <t>Himayath Mango</t>
-  </si>
-  <si>
-    <t>₹328</t>
-  </si>
-  <si>
-    <t>₹298</t>
-  </si>
-  <si>
-    <t>₹224</t>
-  </si>
-  <si>
-    <t>₹207</t>
-  </si>
-  <si>
-    <t>₹35</t>
-  </si>
-  <si>
-    <t>₹479</t>
-  </si>
-  <si>
-    <t>₹258</t>
-  </si>
-  <si>
-    <t>₹329</t>
-  </si>
-  <si>
-    <t>₹72</t>
-  </si>
-  <si>
-    <t>₹90</t>
-  </si>
-  <si>
-    <t>₹84</t>
-  </si>
-  <si>
-    <t>₹196</t>
-  </si>
-  <si>
-    <t>₹109</t>
-  </si>
-  <si>
-    <t>₹368</t>
-  </si>
-  <si>
-    <t>₹544</t>
-  </si>
-  <si>
-    <t>₹552</t>
-  </si>
-  <si>
-    <t>₹55</t>
-  </si>
-  <si>
-    <t>₹350</t>
-  </si>
-  <si>
-    <t>₹300</t>
-  </si>
-  <si>
-    <t>₹259</t>
-  </si>
-  <si>
-    <t>₹864</t>
-  </si>
-  <si>
-    <t>₹87</t>
-  </si>
-  <si>
-    <t>₹44</t>
-  </si>
-  <si>
-    <t>₹127</t>
-  </si>
-  <si>
-    <t>₹168</t>
-  </si>
-  <si>
-    <t>₹496</t>
-  </si>
-  <si>
-    <t>₹185</t>
-  </si>
-  <si>
-    <t>₹151</t>
-  </si>
-  <si>
-    <t>₹453</t>
-  </si>
-  <si>
-    <t>₹336.99</t>
-  </si>
-  <si>
-    <t>₹161</t>
-  </si>
-  <si>
-    <t>₹272</t>
-  </si>
-  <si>
-    <t>₹302</t>
-  </si>
-  <si>
-    <t>₹137</t>
-  </si>
-  <si>
-    <t>₹385</t>
-  </si>
-  <si>
-    <t>₹391</t>
-  </si>
-  <si>
-    <t>₹361</t>
-  </si>
-  <si>
-    <t>₹791</t>
-  </si>
-  <si>
-    <t>₹105</t>
-  </si>
-  <si>
-    <t>₹290</t>
-  </si>
-  <si>
-    <t>₹162</t>
-  </si>
-  <si>
-    <t>₹554</t>
-  </si>
-  <si>
-    <t>₹239</t>
-  </si>
-  <si>
-    <t>₹377</t>
-  </si>
-  <si>
-    <t>₹176</t>
-  </si>
-  <si>
-    <t>₹117</t>
-  </si>
-  <si>
-    <t>₹462</t>
-  </si>
-  <si>
-    <t>₹198</t>
-  </si>
-  <si>
-    <t>₹240</t>
-  </si>
-  <si>
-    <t>₹187</t>
-  </si>
-  <si>
-    <t>₹158</t>
-  </si>
-  <si>
-    <t>₹206</t>
-  </si>
-  <si>
-    <t>₹1892</t>
-  </si>
-  <si>
-    <t>₹442</t>
-  </si>
-  <si>
-    <t>₹324.34</t>
-  </si>
-  <si>
-    <t>₹109.59</t>
-  </si>
-  <si>
-    <t>₹403</t>
-  </si>
-  <si>
-    <t>₹362</t>
-  </si>
-  <si>
-    <t>₹702</t>
-  </si>
-  <si>
-    <t>₹211.25</t>
-  </si>
-  <si>
-    <t>₹239.44</t>
-  </si>
-  <si>
-    <t>₹217.54</t>
-  </si>
-  <si>
-    <t>₹163.52</t>
-  </si>
-  <si>
-    <t>₹25.55</t>
-  </si>
-  <si>
-    <t>₹278</t>
-  </si>
-  <si>
-    <t>₹188.34</t>
-  </si>
-  <si>
-    <t>₹240.17</t>
-  </si>
-  <si>
-    <t>₹52.56</t>
-  </si>
-  <si>
-    <t>₹151.11</t>
-  </si>
-  <si>
-    <t>₹61.32</t>
-  </si>
-  <si>
-    <t>₹268.64</t>
-  </si>
-  <si>
-    <t>₹37.23</t>
-  </si>
-  <si>
-    <t>₹397.12</t>
-  </si>
-  <si>
-    <t>₹402.96</t>
-  </si>
-  <si>
-    <t>₹40.15</t>
-  </si>
-  <si>
-    <t>₹106.58</t>
-  </si>
-  <si>
-    <t>₹255.5</t>
-  </si>
-  <si>
-    <t>₹219</t>
-  </si>
-  <si>
-    <t>₹189.07</t>
-  </si>
-  <si>
-    <t>₹79.57</t>
-  </si>
-  <si>
-    <t>₹630.72</t>
-  </si>
-  <si>
-    <t>₹67.16</t>
-  </si>
-  <si>
-    <t>₹63.51</t>
-  </si>
-  <si>
-    <t>₹32.12</t>
-  </si>
-  <si>
-    <t>₹92.71</t>
-  </si>
-  <si>
-    <t>₹122.64</t>
-  </si>
-  <si>
-    <t>₹362.08</t>
-  </si>
-  <si>
-    <t>₹135.05</t>
-  </si>
-  <si>
-    <t>₹110.23</t>
-  </si>
-  <si>
-    <t>₹330.69</t>
-  </si>
-  <si>
-    <t>₹246</t>
-  </si>
-  <si>
-    <t>₹117.53</t>
-  </si>
-  <si>
-    <t>₹198.56</t>
-  </si>
-  <si>
-    <t>₹220.46</t>
-  </si>
-  <si>
-    <t>₹100.01</t>
-  </si>
-  <si>
-    <t>₹281.05</t>
-  </si>
-  <si>
-    <t>₹285.43</t>
-  </si>
-  <si>
-    <t>₹65.7</t>
-  </si>
-  <si>
-    <t>₹263.53</t>
-  </si>
-  <si>
-    <t>₹577.43</t>
-  </si>
-  <si>
-    <t>₹76.65</t>
-  </si>
-  <si>
-    <t>₹211.7</t>
-  </si>
-  <si>
-    <t>₹118.26</t>
-  </si>
-  <si>
-    <t>₹38</t>
-  </si>
-  <si>
-    <t>₹404.42</t>
-  </si>
-  <si>
-    <t>₹174.47</t>
-  </si>
-  <si>
-    <t>₹275.21</t>
-  </si>
-  <si>
-    <t>₹128.48</t>
-  </si>
-  <si>
-    <t>₹85.41</t>
-  </si>
-  <si>
-    <t>₹337.26</t>
-  </si>
-  <si>
-    <t>₹144.54</t>
-  </si>
-  <si>
-    <t>₹175.2</t>
-  </si>
-  <si>
-    <t>₹136.51</t>
-  </si>
-  <si>
-    <t>₹115.34</t>
-  </si>
-  <si>
-    <t>₹150.38</t>
-  </si>
-  <si>
-    <t>₹1381.16</t>
-  </si>
-  <si>
-    <t>₹322.66</t>
-  </si>
-  <si>
-    <t>₹236.77</t>
-  </si>
-  <si>
-    <t>₹80</t>
-  </si>
-  <si>
-    <t>₹294.19</t>
-  </si>
-  <si>
-    <t>₹264.26</t>
-  </si>
-  <si>
-    <t>₹512.46</t>
-  </si>
-  <si>
-    <t>42% OFF</t>
-  </si>
-  <si>
-    <t>29% OFF</t>
-  </si>
-  <si>
     <t>Fresh Fruits</t>
   </si>
   <si>
@@ -1598,7 +1598,7 @@
     <t>2x4 pcs</t>
   </si>
   <si>
-    <t>2023-09-28 10:02:57</t>
+    <t>2023-09-29 12:24:29</t>
   </si>
 </sst>
 </file>
@@ -1956,7 +1956,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1993,25 +1993,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F2" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G2" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="H2" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2019,25 +2019,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F3" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G3" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="H3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2045,25 +2045,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E4" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="F4" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="H4" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2071,25 +2071,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D5" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E5" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="F5" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G5" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H5" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2097,25 +2097,25 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="F6" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G6" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H6" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2123,25 +2123,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2149,25 +2149,25 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="D8" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="E8" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="F8" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G8" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="H8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2175,25 +2175,25 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D9" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F9" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G9" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="H9" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2201,25 +2201,25 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D10" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F10" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G10" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H10" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2227,25 +2227,25 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D11" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E11" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F11" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G11" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H11" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2253,25 +2253,25 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D12" t="s">
         <v>236</v>
       </c>
       <c r="E12" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F12" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G12" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="H12" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2279,25 +2279,25 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="D13" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="F13" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G13" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H13" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2305,25 +2305,25 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D14" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F14" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G14" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H14" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2331,25 +2331,25 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="D15" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E15" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="F15" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G15" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="H15" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2357,25 +2357,25 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D16" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="E16" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F16" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G16" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="H16" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2383,25 +2383,25 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D17" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="E17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F17" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G17" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="H17" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2409,25 +2409,25 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D18" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E18" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F18" t="s">
+        <v>245</v>
+      </c>
+      <c r="G18" t="s">
         <v>253</v>
       </c>
-      <c r="G18" t="s">
-        <v>257</v>
-      </c>
       <c r="H18" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2435,25 +2435,25 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D19" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E19" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F19" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H19" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2461,25 +2461,25 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D20" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="E20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F20" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G20" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H20" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2487,25 +2487,25 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
         <v>178</v>
       </c>
       <c r="D21" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="E21" t="s">
         <v>178</v>
       </c>
       <c r="F21" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G21" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H21" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2513,25 +2513,25 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C22" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D22" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E22" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F22" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G22" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="H22" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2539,25 +2539,25 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D23" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="E23" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F23" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G23" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="H23" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2565,25 +2565,25 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D24" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E24" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F24" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G24" t="s">
         <v>255</v>
       </c>
       <c r="H24" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2591,25 +2591,25 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C25" t="s">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c r="D25" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E25" t="s">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c r="F25" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H25" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2617,25 +2617,25 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C26" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D26" t="s">
+        <v>228</v>
+      </c>
+      <c r="E26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" t="s">
+        <v>245</v>
+      </c>
+      <c r="G26" t="s">
         <v>249</v>
       </c>
-      <c r="E26" t="s">
-        <v>185</v>
-      </c>
-      <c r="F26" t="s">
-        <v>253</v>
-      </c>
-      <c r="G26" t="s">
-        <v>255</v>
-      </c>
       <c r="H26" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2643,25 +2643,25 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C27" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D27" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E27" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F27" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G27" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H27" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2669,25 +2669,25 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D28" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E28" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F28" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G28" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="H28" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2695,25 +2695,25 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D29" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E29" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F29" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G29" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H29" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2721,25 +2721,25 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C30" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D30" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="E30" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F30" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G30" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H30" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2747,25 +2747,25 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C31" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D31" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E31" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F31" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G31" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H31" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2773,25 +2773,25 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C32" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D32" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="E32" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F32" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G32" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H32" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2799,25 +2799,25 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C33" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D33" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E33" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F33" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G33" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H33" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2825,25 +2825,25 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="C34" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D34" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E34" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F34" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G34" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H34" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2851,25 +2851,25 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C35" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D35" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E35" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F35" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G35" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H35" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2877,25 +2877,25 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C36" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D36" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E36" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F36" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G36" t="s">
         <v>257</v>
       </c>
       <c r="H36" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2903,25 +2903,25 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C37" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="D37" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E37" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="F37" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G37" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H37" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2929,25 +2929,25 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C38" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D38" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E38" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F38" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G38" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H38" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2955,25 +2955,25 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C39" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D39" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E39" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F39" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G39" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H39" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2981,25 +2981,25 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C40" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D40" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E40" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F40" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G40" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H40" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3007,25 +3007,25 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C41" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D41" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E41" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F41" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G41" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H41" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3033,25 +3033,25 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D42" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F42" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G42" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H42" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3059,25 +3059,25 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C43" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D43" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E43" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F43" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G43" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H43" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3085,25 +3085,25 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="C44" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D44" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E44" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F44" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G44" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="H44" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3111,25 +3111,25 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C45" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D45" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E45" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F45" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G45" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="H45" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3137,25 +3137,25 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C46" t="s">
-        <v>102</v>
+        <v>195</v>
       </c>
       <c r="D46" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E46" t="s">
-        <v>102</v>
+        <v>195</v>
       </c>
       <c r="F46" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G46" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H46" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3163,25 +3163,25 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C47" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D47" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E47" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F47" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G47" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="H47" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3189,25 +3189,25 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="C48" t="s">
-        <v>203</v>
+        <v>106</v>
       </c>
       <c r="D48" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E48" t="s">
-        <v>203</v>
+        <v>106</v>
       </c>
       <c r="F48" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G48" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="H48" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3215,25 +3215,25 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C49" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D49" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E49" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F49" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G49" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H49" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3241,25 +3241,25 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="C50" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D50" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E50" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F50" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G50" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H50" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3267,25 +3267,25 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
+        <v>203</v>
       </c>
       <c r="D51" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>203</v>
       </c>
       <c r="F51" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G51" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H51" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3293,25 +3293,25 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C52" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="D52" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E52" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="F52" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G52" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H52" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3319,25 +3319,25 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="C53" t="s">
-        <v>194</v>
+        <v>103</v>
       </c>
       <c r="D53" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E53" t="s">
-        <v>194</v>
+        <v>103</v>
       </c>
       <c r="F53" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G53" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H53" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3345,25 +3345,25 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C54" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D54" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E54" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F54" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G54" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H54" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3371,25 +3371,25 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="C55" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D55" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E55" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F55" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G55" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H55" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3397,25 +3397,25 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C56" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D56" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E56" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F56" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G56" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H56" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3423,25 +3423,25 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C57" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D57" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E57" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F57" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G57" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="H57" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3449,25 +3449,25 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C58" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D58" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E58" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F58" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G58" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H58" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3475,25 +3475,25 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C59" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D59" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E59" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F59" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G59" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="H59" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3501,25 +3501,25 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C60" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="D60" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E60" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="F60" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G60" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H60" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3527,25 +3527,25 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C61" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D61" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E61" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F61" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G61" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="H61" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3553,25 +3553,25 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C62" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="D62" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E62" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="F62" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G62" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H62" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3579,25 +3579,25 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C63" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D63" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E63" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F63" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G63" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H63" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3605,25 +3605,25 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="C64" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D64" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E64" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F64" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G64" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="H64" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3631,25 +3631,25 @@
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="C65" t="s">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c r="D65" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E65" t="s">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c r="F65" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G65" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H65" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3657,25 +3657,25 @@
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C66" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D66" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E66" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F66" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G66" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="H66" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3686,22 +3686,22 @@
         <v>153</v>
       </c>
       <c r="C67" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D67" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E67" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F67" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G67" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H67" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3709,25 +3709,25 @@
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="C68" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D68" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E68" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F68" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G68" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="H68" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3735,25 +3735,25 @@
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="C69" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D69" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="E69" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F69" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G69" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="H69" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3761,25 +3761,25 @@
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="C70" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="D70" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E70" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="F70" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G70" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="H70" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3787,25 +3787,25 @@
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C71" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D71" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E71" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="F71" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G71" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="H71" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3813,25 +3813,25 @@
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="C72" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="D72" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E72" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="F72" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G72" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H72" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3839,25 +3839,25 @@
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="C73" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D73" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E73" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F73" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G73" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H73" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3865,25 +3865,25 @@
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C74" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="D74" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E74" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="F74" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G74" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="H74" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3891,25 +3891,25 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="C75" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
       <c r="D75" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E75" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
       <c r="F75" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G75" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H75" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3917,25 +3917,25 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C76" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="D76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E76" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="F76" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G76" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="H76" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3943,25 +3943,25 @@
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="C77" t="s">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="D77" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E77" t="s">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="F77" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G77" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="H77" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3969,25 +3969,25 @@
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="C78" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D78" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E78" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F78" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G78" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H78" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3995,25 +3995,25 @@
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C79" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D79" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E79" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F79" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G79" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="H79" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4021,25 +4021,25 @@
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C80" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D80" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E80" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F80" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G80" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H80" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4047,25 +4047,25 @@
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="C81" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="D81" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E81" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="F81" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G81" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H81" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4073,25 +4073,25 @@
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="C82" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D82" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E82" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="F82" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G82" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H82" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4099,25 +4099,25 @@
         <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="C83" t="s">
         <v>220</v>
       </c>
       <c r="D83" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E83" t="s">
         <v>220</v>
       </c>
       <c r="F83" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G83" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H83" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4125,25 +4125,25 @@
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>161</v>
+        <v>110</v>
       </c>
       <c r="C84" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="D84" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E84" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="F84" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G84" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="H84" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4151,25 +4151,25 @@
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C85" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="D85" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E85" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="F85" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G85" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="H85" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4177,25 +4177,25 @@
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C86" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="D86" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E86" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="F86" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G86" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="H86" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4203,25 +4203,25 @@
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C87" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D87" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E87" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="F87" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G87" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="H87" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4229,25 +4229,25 @@
         <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C88" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="D88" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E88" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="F88" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G88" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H88" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4255,25 +4255,25 @@
         <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C89" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D89" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E89" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="F89" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G89" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H89" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4281,25 +4281,25 @@
         <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="C90" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="D90" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E90" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="F90" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G90" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="H90" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4307,25 +4307,25 @@
         <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C91" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D91" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E91" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F91" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G91" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="H91" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4333,25 +4333,25 @@
         <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C92" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="D92" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="E92" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="F92" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G92" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="H92" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4359,25 +4359,25 @@
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C93" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D93" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E93" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F93" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G93" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="H93" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4385,25 +4385,77 @@
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C94" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
       <c r="D94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E94" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
       <c r="F94" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G94" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="H94" t="s">
-        <v>272</v>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95" t="s">
+        <v>113</v>
+      </c>
+      <c r="C95" t="s">
+        <v>226</v>
+      </c>
+      <c r="D95" t="s">
+        <v>228</v>
+      </c>
+      <c r="E95" t="s">
+        <v>226</v>
+      </c>
+      <c r="F95" t="s">
+        <v>245</v>
+      </c>
+      <c r="G95" t="s">
+        <v>264</v>
+      </c>
+      <c r="H95" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96" t="s">
+        <v>107</v>
+      </c>
+      <c r="C96" t="s">
+        <v>184</v>
+      </c>
+      <c r="D96" t="s">
+        <v>228</v>
+      </c>
+      <c r="E96" t="s">
+        <v>184</v>
+      </c>
+      <c r="F96" t="s">
+        <v>245</v>
+      </c>
+      <c r="G96" t="s">
+        <v>251</v>
+      </c>
+      <c r="H96" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -4447,25 +4499,25 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
-        <v>240</v>
+        <v>487</v>
       </c>
       <c r="E2" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="F2" t="s">
         <v>490</v>
       </c>
       <c r="G2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H2" t="s">
         <v>527</v>
@@ -4473,19 +4525,19 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D3" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F3" t="s">
         <v>490</v>
@@ -4499,19 +4551,19 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D4" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F4" t="s">
         <v>490</v>
@@ -4525,25 +4577,25 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B5" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C5" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="D5" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="E5" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="F5" t="s">
         <v>490</v>
       </c>
       <c r="G5" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H5" t="s">
         <v>527</v>
@@ -4551,19 +4603,19 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B6" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F6" t="s">
         <v>490</v>
@@ -4577,19 +4629,19 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B7" t="s">
-        <v>370</v>
+        <v>203</v>
       </c>
       <c r="C7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F7" t="s">
         <v>490</v>
@@ -4603,25 +4655,25 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B8" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C8" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D8" t="s">
-        <v>488</v>
+        <v>229</v>
       </c>
       <c r="E8" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F8" t="s">
         <v>490</v>
       </c>
       <c r="G8" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H8" t="s">
         <v>527</v>
@@ -4629,25 +4681,25 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="D9" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E9" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="F9" t="s">
         <v>490</v>
       </c>
       <c r="G9" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H9" t="s">
         <v>527</v>
@@ -4655,19 +4707,19 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B10" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C10" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D10" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="E10" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F10" t="s">
         <v>490</v>
@@ -4681,19 +4733,19 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B11" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C11" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D11" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E11" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F11" t="s">
         <v>490</v>
@@ -4707,25 +4759,25 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B12" t="s">
-        <v>374</v>
+        <v>130</v>
       </c>
       <c r="C12" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D12" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E12" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F12" t="s">
         <v>490</v>
       </c>
       <c r="G12" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H12" t="s">
         <v>527</v>
@@ -4733,25 +4785,25 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B13" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C13" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D13" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E13" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F13" t="s">
         <v>490</v>
       </c>
       <c r="G13" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H13" t="s">
         <v>527</v>
@@ -4759,19 +4811,19 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B14" t="s">
         <v>369</v>
       </c>
       <c r="C14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D14" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F14" t="s">
         <v>490</v>
@@ -4785,19 +4837,19 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B15" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C15" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D15" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E15" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F15" t="s">
         <v>490</v>
@@ -4811,19 +4863,19 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B16" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>433</v>
       </c>
       <c r="D16" t="s">
-        <v>489</v>
+        <v>228</v>
       </c>
       <c r="E16" t="s">
-        <v>117</v>
+        <v>433</v>
       </c>
       <c r="F16" t="s">
         <v>490</v>
@@ -4837,25 +4889,25 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="C17" t="s">
-        <v>119</v>
+        <v>434</v>
       </c>
       <c r="D17" t="s">
-        <v>246</v>
+        <v>488</v>
       </c>
       <c r="E17" t="s">
-        <v>119</v>
+        <v>434</v>
       </c>
       <c r="F17" t="s">
         <v>490</v>
       </c>
       <c r="G17" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H17" t="s">
         <v>527</v>
@@ -4863,25 +4915,25 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B18" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
-        <v>251</v>
+        <v>489</v>
       </c>
       <c r="E18" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F18" t="s">
         <v>490</v>
       </c>
       <c r="G18" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H18" t="s">
         <v>527</v>
@@ -4889,19 +4941,19 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B19" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C19" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D19" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E19" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F19" t="s">
         <v>490</v>
@@ -4915,19 +4967,19 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B20" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="D20" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E20" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="F20" t="s">
         <v>490</v>
@@ -4941,19 +4993,19 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C21" t="s">
-        <v>437</v>
+        <v>205</v>
       </c>
       <c r="D21" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E21" t="s">
-        <v>437</v>
+        <v>205</v>
       </c>
       <c r="F21" t="s">
         <v>490</v>
@@ -4967,19 +5019,19 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B22" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C22" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D22" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E22" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F22" t="s">
         <v>490</v>
@@ -4993,19 +5045,19 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B23" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C23" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D23" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E23" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F23" t="s">
         <v>490</v>
@@ -5019,19 +5071,19 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B24" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C24" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D24" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E24" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F24" t="s">
         <v>490</v>
@@ -5045,25 +5097,25 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B25" t="s">
-        <v>200</v>
+        <v>377</v>
       </c>
       <c r="C25" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D25" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E25" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F25" t="s">
         <v>490</v>
       </c>
       <c r="G25" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H25" t="s">
         <v>527</v>
@@ -5071,25 +5123,25 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B26" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C26" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D26" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E26" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F26" t="s">
         <v>490</v>
       </c>
       <c r="G26" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H26" t="s">
         <v>527</v>
@@ -5097,25 +5149,25 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B27" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C27" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D27" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E27" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F27" t="s">
         <v>490</v>
       </c>
       <c r="G27" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H27" t="s">
         <v>527</v>
@@ -5123,25 +5175,25 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B28" t="s">
-        <v>156</v>
+        <v>380</v>
       </c>
       <c r="C28" t="s">
-        <v>222</v>
+        <v>442</v>
       </c>
       <c r="D28" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E28" t="s">
-        <v>222</v>
+        <v>442</v>
       </c>
       <c r="F28" t="s">
         <v>490</v>
       </c>
       <c r="G28" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H28" t="s">
         <v>527</v>
@@ -5149,25 +5201,25 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B29" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C29" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D29" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E29" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F29" t="s">
         <v>490</v>
       </c>
       <c r="G29" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H29" t="s">
         <v>527</v>
@@ -5175,25 +5227,25 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B30" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C30" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D30" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E30" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F30" t="s">
         <v>490</v>
       </c>
       <c r="G30" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H30" t="s">
         <v>527</v>
@@ -5201,19 +5253,19 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B31" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C31" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D31" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E31" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F31" t="s">
         <v>490</v>
@@ -5227,25 +5279,25 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>383</v>
       </c>
       <c r="C32" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D32" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E32" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F32" t="s">
         <v>490</v>
       </c>
       <c r="G32" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H32" t="s">
         <v>527</v>
@@ -5253,19 +5305,19 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B33" t="s">
-        <v>387</v>
+        <v>149</v>
       </c>
       <c r="C33" t="s">
-        <v>448</v>
+        <v>207</v>
       </c>
       <c r="D33" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E33" t="s">
-        <v>448</v>
+        <v>207</v>
       </c>
       <c r="F33" t="s">
         <v>490</v>
@@ -5279,19 +5331,19 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B34" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C34" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D34" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E34" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F34" t="s">
         <v>490</v>
@@ -5305,25 +5357,25 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D35" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F35" t="s">
         <v>490</v>
       </c>
       <c r="G35" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H35" t="s">
         <v>527</v>
@@ -5331,25 +5383,25 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B36" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C36" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D36" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E36" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F36" t="s">
         <v>490</v>
       </c>
       <c r="G36" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H36" t="s">
         <v>527</v>
@@ -5357,25 +5409,25 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C37" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D37" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E37" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F37" t="s">
         <v>490</v>
       </c>
       <c r="G37" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H37" t="s">
         <v>527</v>
@@ -5383,16 +5435,16 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C38" t="s">
         <v>450</v>
       </c>
       <c r="D38" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E38" t="s">
         <v>450</v>
@@ -5401,7 +5453,7 @@
         <v>490</v>
       </c>
       <c r="G38" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H38" t="s">
         <v>527</v>
@@ -5409,19 +5461,19 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B39" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C39" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D39" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E39" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F39" t="s">
         <v>490</v>
@@ -5435,25 +5487,25 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B40" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C40" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D40" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E40" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F40" t="s">
         <v>490</v>
       </c>
       <c r="G40" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H40" t="s">
         <v>527</v>
@@ -5461,25 +5513,25 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B41" t="s">
-        <v>156</v>
+        <v>380</v>
       </c>
       <c r="C41" t="s">
-        <v>222</v>
+        <v>442</v>
       </c>
       <c r="D41" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E41" t="s">
-        <v>222</v>
+        <v>442</v>
       </c>
       <c r="F41" t="s">
         <v>490</v>
       </c>
       <c r="G41" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H41" t="s">
         <v>527</v>
@@ -5487,25 +5539,25 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B42" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C42" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D42" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E42" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F42" t="s">
         <v>490</v>
       </c>
       <c r="G42" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H42" t="s">
         <v>527</v>
@@ -5513,19 +5565,19 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B43" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C43" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D43" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E43" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F43" t="s">
         <v>490</v>
@@ -5539,25 +5591,25 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B44" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C44" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D44" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E44" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F44" t="s">
         <v>490</v>
       </c>
       <c r="G44" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H44" t="s">
         <v>527</v>
@@ -5565,19 +5617,19 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B45" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C45" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="D45" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E45" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="F45" t="s">
         <v>490</v>
@@ -5591,25 +5643,25 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B46" t="s">
         <v>132</v>
       </c>
       <c r="C46" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D46" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E46" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F46" t="s">
         <v>490</v>
       </c>
       <c r="G46" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H46" t="s">
         <v>527</v>
@@ -5617,25 +5669,25 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B47" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C47" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D47" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E47" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F47" t="s">
         <v>490</v>
       </c>
       <c r="G47" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H47" t="s">
         <v>527</v>
@@ -5643,19 +5695,19 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B48" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C48" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D48" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E48" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F48" t="s">
         <v>490</v>
@@ -5669,19 +5721,19 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B49" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C49" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D49" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E49" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F49" t="s">
         <v>490</v>
@@ -5695,25 +5747,25 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B50" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C50" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D50" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E50" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F50" t="s">
         <v>490</v>
       </c>
       <c r="G50" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H50" t="s">
         <v>527</v>
@@ -5721,25 +5773,25 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B51" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C51" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D51" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E51" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F51" t="s">
         <v>490</v>
       </c>
       <c r="G51" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H51" t="s">
         <v>527</v>
@@ -5747,19 +5799,19 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B52" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C52" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D52" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E52" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F52" t="s">
         <v>490</v>
@@ -5773,25 +5825,25 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B53" t="s">
-        <v>375</v>
+        <v>160</v>
       </c>
       <c r="C53" t="s">
-        <v>463</v>
+        <v>223</v>
       </c>
       <c r="D53" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E53" t="s">
-        <v>463</v>
+        <v>223</v>
       </c>
       <c r="F53" t="s">
         <v>490</v>
       </c>
       <c r="G53" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H53" t="s">
         <v>527</v>
@@ -5799,25 +5851,25 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B54" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C54" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D54" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E54" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F54" t="s">
         <v>490</v>
       </c>
       <c r="G54" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H54" t="s">
         <v>527</v>
@@ -5825,25 +5877,25 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B55" t="s">
-        <v>164</v>
+        <v>399</v>
       </c>
       <c r="C55" t="s">
-        <v>232</v>
+        <v>462</v>
       </c>
       <c r="D55" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E55" t="s">
-        <v>232</v>
+        <v>462</v>
       </c>
       <c r="F55" t="s">
         <v>490</v>
       </c>
       <c r="G55" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H55" t="s">
         <v>527</v>
@@ -5851,19 +5903,19 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B56" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C56" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D56" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E56" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F56" t="s">
         <v>490</v>
@@ -5877,19 +5929,19 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B57" t="s">
-        <v>139</v>
+        <v>401</v>
       </c>
       <c r="C57" t="s">
-        <v>204</v>
+        <v>464</v>
       </c>
       <c r="D57" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E57" t="s">
-        <v>204</v>
+        <v>464</v>
       </c>
       <c r="F57" t="s">
         <v>490</v>
@@ -5903,16 +5955,16 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B58" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C58" t="s">
         <v>465</v>
       </c>
       <c r="D58" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E58" t="s">
         <v>465</v>
@@ -5921,7 +5973,7 @@
         <v>490</v>
       </c>
       <c r="G58" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H58" t="s">
         <v>527</v>
@@ -5929,25 +5981,25 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B59" t="s">
-        <v>148</v>
+        <v>383</v>
       </c>
       <c r="C59" t="s">
-        <v>212</v>
+        <v>446</v>
       </c>
       <c r="D59" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E59" t="s">
-        <v>212</v>
+        <v>446</v>
       </c>
       <c r="F59" t="s">
         <v>490</v>
       </c>
       <c r="G59" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H59" t="s">
         <v>527</v>
@@ -5955,16 +6007,16 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B60" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C60" t="s">
         <v>466</v>
       </c>
       <c r="D60" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E60" t="s">
         <v>466</v>
@@ -5981,25 +6033,25 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B61" t="s">
-        <v>405</v>
+        <v>361</v>
       </c>
       <c r="C61" t="s">
-        <v>467</v>
+        <v>424</v>
       </c>
       <c r="D61" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E61" t="s">
-        <v>467</v>
+        <v>424</v>
       </c>
       <c r="F61" t="s">
         <v>490</v>
       </c>
       <c r="G61" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H61" t="s">
         <v>527</v>
@@ -6007,19 +6059,19 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B62" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C62" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D62" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E62" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F62" t="s">
         <v>490</v>
@@ -6033,19 +6085,19 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B63" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C63" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D63" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E63" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F63" t="s">
         <v>490</v>
@@ -6059,19 +6111,19 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B64" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C64" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D64" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E64" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F64" t="s">
         <v>490</v>
@@ -6085,19 +6137,19 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B65" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C65" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D65" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E65" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F65" t="s">
         <v>490</v>
@@ -6111,19 +6163,19 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B66" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C66" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D66" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E66" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F66" t="s">
         <v>490</v>
@@ -6137,19 +6189,19 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B67" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C67" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D67" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E67" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F67" t="s">
         <v>490</v>
@@ -6163,19 +6215,19 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B68" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C68" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D68" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E68" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F68" t="s">
         <v>490</v>
@@ -6189,19 +6241,19 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B69" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="C69" t="s">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="D69" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E69" t="s">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="F69" t="s">
         <v>490</v>
@@ -6215,19 +6267,19 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B70" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C70" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="D70" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E70" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="F70" t="s">
         <v>490</v>
@@ -6241,19 +6293,19 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B71" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C71" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D71" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E71" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F71" t="s">
         <v>490</v>
@@ -6267,19 +6319,19 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B72" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C72" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D72" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E72" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F72" t="s">
         <v>490</v>
@@ -6293,19 +6345,19 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B73" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C73" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D73" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E73" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F73" t="s">
         <v>490</v>
@@ -6319,25 +6371,25 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B74" t="s">
-        <v>414</v>
+        <v>142</v>
       </c>
       <c r="C74" t="s">
-        <v>477</v>
+        <v>199</v>
       </c>
       <c r="D74" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E74" t="s">
-        <v>477</v>
+        <v>199</v>
       </c>
       <c r="F74" t="s">
         <v>490</v>
       </c>
       <c r="G74" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H74" t="s">
         <v>527</v>
@@ -6345,19 +6397,19 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B75" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C75" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D75" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E75" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F75" t="s">
         <v>490</v>
@@ -6371,25 +6423,25 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B76" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C76" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E76" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F76" t="s">
         <v>490</v>
       </c>
       <c r="G76" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H76" t="s">
         <v>527</v>
@@ -6397,25 +6449,25 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B77" t="s">
-        <v>380</v>
+        <v>413</v>
       </c>
       <c r="C77" t="s">
-        <v>438</v>
+        <v>477</v>
       </c>
       <c r="D77" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E77" t="s">
-        <v>438</v>
+        <v>477</v>
       </c>
       <c r="F77" t="s">
         <v>490</v>
       </c>
       <c r="G77" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H77" t="s">
         <v>527</v>
@@ -6423,25 +6475,25 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B78" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C78" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D78" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E78" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F78" t="s">
         <v>490</v>
       </c>
       <c r="G78" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H78" t="s">
         <v>527</v>
@@ -6449,25 +6501,25 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B79" t="s">
-        <v>416</v>
+        <v>162</v>
       </c>
       <c r="C79" t="s">
-        <v>479</v>
+        <v>225</v>
       </c>
       <c r="D79" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E79" t="s">
-        <v>479</v>
+        <v>225</v>
       </c>
       <c r="F79" t="s">
         <v>490</v>
       </c>
       <c r="G79" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="H79" t="s">
         <v>527</v>
@@ -6475,19 +6527,19 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B80" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C80" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D80" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E80" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F80" t="s">
         <v>490</v>
@@ -6501,25 +6553,25 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B81" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C81" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D81" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E81" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F81" t="s">
         <v>490</v>
       </c>
       <c r="G81" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H81" t="s">
         <v>527</v>
@@ -6527,25 +6579,25 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B82" t="s">
         <v>132</v>
       </c>
       <c r="C82" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D82" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E82" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F82" t="s">
         <v>490</v>
       </c>
       <c r="G82" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H82" t="s">
         <v>527</v>
@@ -6553,19 +6605,19 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B83" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C83" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D83" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E83" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F83" t="s">
         <v>490</v>
@@ -6579,19 +6631,19 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B84" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C84" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="D84" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E84" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="F84" t="s">
         <v>490</v>
@@ -6605,19 +6657,19 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B85" t="s">
-        <v>133</v>
+        <v>380</v>
       </c>
       <c r="C85" t="s">
-        <v>197</v>
+        <v>442</v>
       </c>
       <c r="D85" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E85" t="s">
-        <v>197</v>
+        <v>442</v>
       </c>
       <c r="F85" t="s">
         <v>490</v>
@@ -6631,25 +6683,25 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B86" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C86" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D86" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E86" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F86" t="s">
         <v>490</v>
       </c>
       <c r="G86" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H86" t="s">
         <v>527</v>
@@ -6657,19 +6709,19 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B87" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C87" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D87" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E87" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F87" t="s">
         <v>490</v>
@@ -6683,25 +6735,25 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B88" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="C88" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="D88" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E88" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="F88" t="s">
         <v>490</v>
       </c>
       <c r="G88" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H88" t="s">
         <v>527</v>
@@ -6709,19 +6761,19 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B89" t="s">
-        <v>140</v>
+        <v>419</v>
       </c>
       <c r="C89" t="s">
-        <v>205</v>
+        <v>483</v>
       </c>
       <c r="D89" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E89" t="s">
-        <v>205</v>
+        <v>483</v>
       </c>
       <c r="F89" t="s">
         <v>490</v>
@@ -6735,19 +6787,19 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B90" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C90" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D90" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E90" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F90" t="s">
         <v>490</v>
@@ -6761,25 +6813,25 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B91" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C91" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D91" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E91" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F91" t="s">
         <v>490</v>
       </c>
       <c r="G91" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H91" t="s">
         <v>527</v>
@@ -6787,19 +6839,19 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B92" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C92" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D92" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E92" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F92" t="s">
         <v>490</v>
@@ -6813,19 +6865,19 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B93" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C93" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D93" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E93" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F93" t="s">
         <v>490</v>
@@ -6839,25 +6891,25 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B94" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C94" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D94" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E94" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F94" t="s">
         <v>490</v>
       </c>
       <c r="G94" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H94" t="s">
         <v>527</v>

--- a/BigBasket/BigBasket_products.xlsx
+++ b/BigBasket/BigBasket_products.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="564">
   <si>
     <t>product_name</t>
   </si>
@@ -44,667 +44,1537 @@
     <t>Onion (Loose)</t>
   </si>
   <si>
+    <t>Cucumber - Mangalore, Organically Grown</t>
+  </si>
+  <si>
+    <t>Onion</t>
+  </si>
+  <si>
+    <t>Carrot - Orange (Loose)</t>
+  </si>
+  <si>
+    <t>Potato</t>
+  </si>
+  <si>
+    <t>Tomato - Local (Loose)</t>
+  </si>
+  <si>
+    <t>Ladies' Fingers (Loose)</t>
+  </si>
+  <si>
+    <t>Capsicum - Green (Loose)</t>
+  </si>
+  <si>
+    <t>Cucumber (Loose)</t>
+  </si>
+  <si>
+    <t>Coriander Leaves</t>
+  </si>
+  <si>
+    <t>Tomato - Hybrid (Loose)</t>
+  </si>
+  <si>
+    <t>Beans - Haricot (Loose)</t>
+  </si>
+  <si>
+    <t>Cauliflower</t>
+  </si>
+  <si>
+    <t>Beetroot (Loose)</t>
+  </si>
+  <si>
+    <t>Palak - Cleaned, without roots</t>
+  </si>
+  <si>
+    <t>Chilli - Green, Organically Grown</t>
+  </si>
+  <si>
+    <t>Mushrooms - Button</t>
+  </si>
+  <si>
+    <t>Cabbage (Loose)</t>
+  </si>
+  <si>
+    <t>Cucumber - English (Loose)</t>
+  </si>
+  <si>
+    <t>Curry Leaves</t>
+  </si>
+  <si>
+    <t>Ridge Gourd</t>
+  </si>
+  <si>
+    <t>Bottle Gourd (Loose)</t>
+  </si>
+  <si>
+    <t>Drumstick/Moringa</t>
+  </si>
+  <si>
+    <t>Coccinia (Loose)</t>
+  </si>
+  <si>
+    <t>Sweet Corn (Loose)</t>
+  </si>
+  <si>
+    <t>Ginger - Organically Grown</t>
+  </si>
+  <si>
+    <t>Tomato - Local, Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Mint Leaves - Cleaned, without roots</t>
+  </si>
+  <si>
+    <t>Brinjal - Varikatri (Loose)</t>
+  </si>
+  <si>
+    <t>Onion - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Methi/Venthaya Keerai - Cleaned, without roots</t>
+  </si>
+  <si>
+    <t>Beans - Broad (Loose)</t>
+  </si>
+  <si>
+    <t>Chow Chow (Loose)</t>
+  </si>
+  <si>
+    <t>Brinjal - Bottle Shape (Loose)</t>
+  </si>
+  <si>
+    <t>Bitter Gourd (Loose)</t>
+  </si>
+  <si>
+    <t>Amla (Loose)</t>
+  </si>
+  <si>
+    <t>Spring Onion - With roots</t>
+  </si>
+  <si>
+    <t>Parwal (Loose)</t>
+  </si>
+  <si>
+    <t>Sweet Potato - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Cucumber - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Corriander  - Organically Grown</t>
+  </si>
+  <si>
+    <t>Beans - Cowpea (Loose)</t>
+  </si>
+  <si>
+    <t>Garlic - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Lettuce - Iceberg</t>
+  </si>
+  <si>
+    <t>Beans - Cluster (Loose)</t>
+  </si>
+  <si>
+    <t>Knol Khol (Loose)</t>
+  </si>
+  <si>
+    <t>Pumpkin Green - Cut</t>
+  </si>
+  <si>
+    <t>Broccoli</t>
+  </si>
+  <si>
+    <t>Baby Potato (Loose)</t>
+  </si>
+  <si>
+    <t>Onion - Sambhar (Loose)</t>
+  </si>
+  <si>
+    <t>Palak - Organically Grown</t>
+  </si>
+  <si>
+    <t>Potato - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Colocasia (Loose)</t>
+  </si>
+  <si>
+    <t>Coloured Capsicum Mix</t>
+  </si>
+  <si>
+    <t>Ladies' Fingers - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Snake Gourd</t>
+  </si>
+  <si>
+    <t>Beetroot - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Dill Leaves</t>
+  </si>
+  <si>
+    <t>Lettuce - Green</t>
+  </si>
+  <si>
+    <t>Amaranthus - Red Cleaned, without roots</t>
+  </si>
+  <si>
+    <t>Beans - French, Ring (Loose)</t>
+  </si>
+  <si>
+    <t>Cauliflower - Organically Grown</t>
+  </si>
+  <si>
+    <t>Brinjal - Green, Long (Loose)</t>
+  </si>
+  <si>
+    <t>Amaranthus - Green Cleaned, without roots</t>
+  </si>
+  <si>
+    <t>Basale Leaf</t>
+  </si>
+  <si>
+    <t>Capsicum - Green, Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Beans - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Mint - Organically Grown</t>
+  </si>
+  <si>
+    <t>Ash Gourd - Cut</t>
+  </si>
+  <si>
+    <t>Drumstick Leaves</t>
+  </si>
+  <si>
+    <t>Papaya - Raw</t>
+  </si>
+  <si>
+    <t>Tomato - Hybrid, Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Bottle Gourd - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Tomato - Cherry</t>
+  </si>
+  <si>
+    <t>Potato - Red (Loose)</t>
+  </si>
+  <si>
+    <t>Tomato - Green (Loose)</t>
+  </si>
+  <si>
+    <t>Lemon Grass</t>
+  </si>
+  <si>
+    <t>English Cucumber - Organically grown (Loose)</t>
+  </si>
+  <si>
+    <t>Pumpkin - Organically Grown (Loose)</t>
+  </si>
+  <si>
     <t>Cucumber - Mangalore</t>
   </si>
   <si>
-    <t>Onion</t>
-  </si>
-  <si>
-    <t>Carrot - Orange (Loose)</t>
-  </si>
-  <si>
-    <t>Potato</t>
-  </si>
-  <si>
-    <t>Tomato - Local (Loose)</t>
-  </si>
-  <si>
-    <t>Ladies' Fingers (Loose)</t>
-  </si>
-  <si>
-    <t>Capsicum - Green (Loose)</t>
-  </si>
-  <si>
-    <t>Cucumber (Loose)</t>
-  </si>
-  <si>
-    <t>Coriander Leaves</t>
-  </si>
-  <si>
-    <t>Tomato - Hybrid (Loose)</t>
-  </si>
-  <si>
-    <t>Beans - Haricot (Loose)</t>
-  </si>
-  <si>
-    <t>Cauliflower</t>
-  </si>
-  <si>
-    <t>Beetroot (Loose)</t>
-  </si>
-  <si>
-    <t>Chilli - Green, Organically Grown</t>
-  </si>
-  <si>
-    <t>Palak - Cleaned, without roots</t>
-  </si>
-  <si>
-    <t>Mushrooms - Button</t>
-  </si>
-  <si>
-    <t>Cabbage (Loose)</t>
-  </si>
-  <si>
-    <t>Curry Leaves</t>
-  </si>
-  <si>
-    <t>Cucumber - English (Loose)</t>
-  </si>
-  <si>
-    <t>Ridge Gourd</t>
-  </si>
-  <si>
-    <t>Coccinia (Loose)</t>
-  </si>
-  <si>
-    <t>Sweet Corn (Loose)</t>
-  </si>
-  <si>
-    <t>Bottle Gourd (Loose)</t>
-  </si>
-  <si>
-    <t>Ginger - Organically Grown</t>
-  </si>
-  <si>
-    <t>Drumstick/Moringa</t>
-  </si>
-  <si>
-    <t>Tomato - Local, Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Brinjal - Varikatri (Loose)</t>
-  </si>
-  <si>
-    <t>Mint Leaves - Cleaned, without roots</t>
-  </si>
-  <si>
-    <t>Methi/Venthaya Keerai - Cleaned, without roots</t>
-  </si>
-  <si>
-    <t>Onion - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Beans - Broad (Loose)</t>
-  </si>
-  <si>
-    <t>Chow Chow (Loose)</t>
-  </si>
-  <si>
-    <t>Amla (Loose)</t>
-  </si>
-  <si>
-    <t>Spring Onion - With roots</t>
-  </si>
-  <si>
-    <t>Bitter Gourd (Loose)</t>
-  </si>
-  <si>
-    <t>Brinjal - Bottle Shape (Loose)</t>
-  </si>
-  <si>
-    <t>Parwal (Loose)</t>
-  </si>
-  <si>
-    <t>Cucumber - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Beans - Cowpea (Loose)</t>
-  </si>
-  <si>
-    <t>Sweet Potato - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Corriander  - Organically Grown</t>
-  </si>
-  <si>
-    <t>Knol Khol (Loose)</t>
-  </si>
-  <si>
-    <t>Garlic - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Lettuce - Iceberg</t>
-  </si>
-  <si>
-    <t>Beans - Cluster (Loose)</t>
-  </si>
-  <si>
-    <t>Pumpkin Green - Cut</t>
-  </si>
-  <si>
-    <t>Broccoli</t>
-  </si>
-  <si>
-    <t>Baby Potato (Loose)</t>
-  </si>
-  <si>
-    <t>Potato - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Colocasia (Loose)</t>
-  </si>
-  <si>
-    <t>Onion - Sambhar (Loose)</t>
-  </si>
-  <si>
-    <t>Palak - Organically Grown</t>
-  </si>
-  <si>
-    <t>Snake Gourd</t>
-  </si>
-  <si>
-    <t>Ladies' Fingers - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Beetroot - Organically Grown (Loose)</t>
+    <t>Baby Corn - Unpeeled (Loose)</t>
+  </si>
+  <si>
+    <t>Gongura Leaves/Pulicha - Cleaned, without roots</t>
   </si>
   <si>
     <t>Radish - White (Loose)</t>
   </si>
   <si>
-    <t>Coloured Capsicum Mix</t>
-  </si>
-  <si>
-    <t>Dill Leaves</t>
-  </si>
-  <si>
-    <t>Lettuce - Green</t>
-  </si>
-  <si>
-    <t>Amaranthus - Red Cleaned, without roots</t>
-  </si>
-  <si>
-    <t>Cauliflower - Organically Grown</t>
-  </si>
-  <si>
-    <t>Basale Leaf</t>
-  </si>
-  <si>
-    <t>Beans - French, Ring (Loose)</t>
-  </si>
-  <si>
-    <t>Amaranthus - Green Cleaned, without roots</t>
-  </si>
-  <si>
-    <t>Brinjal - Green, Long (Loose)</t>
-  </si>
-  <si>
-    <t>Beans - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Tomato - Hybrid, Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Cucumber - Mangalore, Organically Grown</t>
-  </si>
-  <si>
-    <t>Drumstick Leaves</t>
-  </si>
-  <si>
-    <t>Capsicum - Green, Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Papaya - Raw</t>
-  </si>
-  <si>
-    <t>Mint - Organically Grown</t>
-  </si>
-  <si>
-    <t>Potato - Red (Loose)</t>
-  </si>
-  <si>
-    <t>Bottle Gourd - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Ash Gourd - Cut</t>
-  </si>
-  <si>
-    <t>Baby Corn - Unpeeled (Loose)</t>
-  </si>
-  <si>
-    <t>Tomato - Cherry</t>
-  </si>
-  <si>
-    <t>Tomato - Green (Loose)</t>
-  </si>
-  <si>
-    <t>Pumpkin - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>English Cucumber - Organically grown (Loose)</t>
-  </si>
-  <si>
-    <t>Lemon Grass</t>
+    <t>Sweet Potato (Loose)</t>
+  </si>
+  <si>
+    <t>Celery</t>
+  </si>
+  <si>
+    <t>Capsicum - Red, Organically Grown (Loose)</t>
   </si>
   <si>
     <t>Ridge Gourd - Organically Grown (Loose)</t>
   </si>
   <si>
-    <t>Gongura Leaves/Pulicha - Cleaned, without roots</t>
-  </si>
-  <si>
     <t>Cabbage - Organically Grown (Loose)</t>
   </si>
   <si>
+    <t>Bitter Gourd - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Bitter Gourd - Forest (Loose)</t>
+  </si>
+  <si>
+    <t>Carrot - Ooty (Loose)</t>
+  </si>
+  <si>
     <t>Pumpkin - Disco</t>
   </si>
   <si>
-    <t>Celery</t>
+    <t>Yam - Cut</t>
   </si>
   <si>
     <t>Groundnut - Fresh (Loose)</t>
   </si>
   <si>
-    <t>Sweet Potato (Loose)</t>
-  </si>
-  <si>
-    <t>Yam - Cut</t>
-  </si>
-  <si>
-    <t>Capsicum - Red, Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Bitter Gourd - Forest (Loose)</t>
-  </si>
-  <si>
-    <t>Carrot - Ooty (Loose)</t>
-  </si>
-  <si>
     <t>Banana Stem - Organically Grown (Loose)</t>
   </si>
   <si>
-    <t>Bitter Gourd - Organically Grown (Loose)</t>
-  </si>
-  <si>
     <t>₹92</t>
   </si>
   <si>
+    <t>₹39</t>
+  </si>
+  <si>
+    <t>₹290</t>
+  </si>
+  <si>
+    <t>₹20</t>
+  </si>
+  <si>
+    <t>₹51</t>
+  </si>
+  <si>
+    <t>₹27</t>
+  </si>
+  <si>
+    <t>₹17</t>
+  </si>
+  <si>
     <t>₹32</t>
   </si>
   <si>
-    <t>₹290</t>
+    <t>₹70</t>
+  </si>
+  <si>
+    <t>₹248</t>
+  </si>
+  <si>
+    <t>₹24</t>
+  </si>
+  <si>
+    <t>₹33</t>
+  </si>
+  <si>
+    <t>₹43</t>
+  </si>
+  <si>
+    <t>₹144</t>
+  </si>
+  <si>
+    <t>₹77</t>
+  </si>
+  <si>
+    <t>₹62</t>
+  </si>
+  <si>
+    <t>₹29</t>
+  </si>
+  <si>
+    <t>₹48</t>
+  </si>
+  <si>
+    <t>₹139</t>
+  </si>
+  <si>
+    <t>₹37</t>
+  </si>
+  <si>
+    <t>₹47</t>
+  </si>
+  <si>
+    <t>₹125</t>
+  </si>
+  <si>
+    <t>₹57</t>
+  </si>
+  <si>
+    <t>₹66</t>
+  </si>
+  <si>
+    <t>₹121</t>
+  </si>
+  <si>
+    <t>₹16</t>
+  </si>
+  <si>
+    <t>₹166</t>
+  </si>
+  <si>
+    <t>₹68</t>
+  </si>
+  <si>
+    <t>₹331</t>
+  </si>
+  <si>
+    <t>₹133</t>
+  </si>
+  <si>
+    <t>₹46</t>
+  </si>
+  <si>
+    <t>₹81</t>
+  </si>
+  <si>
+    <t>₹59</t>
+  </si>
+  <si>
+    <t>₹180</t>
+  </si>
+  <si>
+    <t>₹18</t>
+  </si>
+  <si>
+    <t>₹161</t>
+  </si>
+  <si>
+    <t>₹103</t>
+  </si>
+  <si>
+    <t>₹40</t>
+  </si>
+  <si>
+    <t>₹107</t>
+  </si>
+  <si>
+    <t>₹111</t>
+  </si>
+  <si>
+    <t>₹202</t>
+  </si>
+  <si>
+    <t>₹79</t>
+  </si>
+  <si>
+    <t>₹13.16</t>
+  </si>
+  <si>
+    <t>₹155</t>
+  </si>
+  <si>
+    <t>₹151</t>
+  </si>
+  <si>
+    <t>₹114</t>
+  </si>
+  <si>
+    <t>₹76</t>
+  </si>
+  <si>
+    <t>₹73</t>
+  </si>
+  <si>
+    <t>₹13</t>
+  </si>
+  <si>
+    <t>₹98</t>
+  </si>
+  <si>
+    <t>₹44</t>
+  </si>
+  <si>
+    <t>₹87</t>
+  </si>
+  <si>
+    <t>₹31</t>
+  </si>
+  <si>
+    <t>₹100</t>
+  </si>
+  <si>
+    <t>₹117</t>
+  </si>
+  <si>
+    <t>₹148</t>
+  </si>
+  <si>
+    <t>₹49.32</t>
+  </si>
+  <si>
+    <t>₹54</t>
+  </si>
+  <si>
+    <t>₹58</t>
+  </si>
+  <si>
+    <t>₹53</t>
+  </si>
+  <si>
+    <t>₹14</t>
+  </si>
+  <si>
+    <t>₹90</t>
+  </si>
+  <si>
+    <t>₹35</t>
+  </si>
+  <si>
+    <t>₹106</t>
+  </si>
+  <si>
+    <t>₹128</t>
+  </si>
+  <si>
+    <t>₹42</t>
+  </si>
+  <si>
+    <t>₹131</t>
+  </si>
+  <si>
+    <t>₹55</t>
+  </si>
+  <si>
+    <t>₹173</t>
+  </si>
+  <si>
+    <t>₹56</t>
+  </si>
+  <si>
+    <t>₹28.47</t>
+  </si>
+  <si>
+    <t>₹12</t>
+  </si>
+  <si>
+    <t>₹7.5</t>
+  </si>
+  <si>
+    <t>₹14.5</t>
+  </si>
+  <si>
+    <t>₹181.04</t>
+  </si>
+  <si>
+    <t>₹19.5</t>
+  </si>
+  <si>
+    <t>₹27.95</t>
+  </si>
+  <si>
+    <t>₹33.15</t>
+  </si>
+  <si>
+    <t>₹93.6</t>
+  </si>
+  <si>
+    <t>₹56.21</t>
+  </si>
+  <si>
+    <t>₹45</t>
+  </si>
+  <si>
+    <t>₹15</t>
+  </si>
+  <si>
+    <t>₹25</t>
+  </si>
+  <si>
+    <t>₹101.47</t>
+  </si>
+  <si>
+    <t>₹22</t>
+  </si>
+  <si>
+    <t>₹91.25</t>
+  </si>
+  <si>
+    <t>₹42.9</t>
+  </si>
+  <si>
+    <t>₹88.33</t>
+  </si>
+  <si>
+    <t>₹10</t>
+  </si>
+  <si>
+    <t>₹121.18</t>
+  </si>
+  <si>
+    <t>₹49.64</t>
+  </si>
+  <si>
+    <t>₹47.3</t>
+  </si>
+  <si>
+    <t>₹241.63</t>
+  </si>
+  <si>
+    <t>₹97.09</t>
+  </si>
+  <si>
+    <t>₹33.58</t>
+  </si>
+  <si>
+    <t>₹59.13</t>
+  </si>
+  <si>
+    <t>₹43.07</t>
+  </si>
+  <si>
+    <t>₹131.4</t>
+  </si>
+  <si>
+    <t>₹13.14</t>
+  </si>
+  <si>
+    <t>₹117.53</t>
+  </si>
+  <si>
+    <t>₹75.19</t>
+  </si>
+  <si>
+    <t>₹29.2</t>
+  </si>
+  <si>
+    <t>₹78.11</t>
+  </si>
+  <si>
+    <t>₹81.03</t>
+  </si>
+  <si>
+    <t>₹147.46</t>
+  </si>
+  <si>
+    <t>₹45.26</t>
+  </si>
+  <si>
+    <t>₹57.67</t>
+  </si>
+  <si>
+    <t>₹31.39</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>₹51.1</t>
+  </si>
+  <si>
+    <t>₹85</t>
+  </si>
+  <si>
+    <t>₹110.23</t>
+  </si>
+  <si>
+    <t>₹37.23</t>
+  </si>
+  <si>
+    <t>₹83.22</t>
+  </si>
+  <si>
+    <t>₹55.48</t>
+  </si>
+  <si>
+    <t>₹53.29</t>
+  </si>
+  <si>
+    <t>₹8</t>
+  </si>
+  <si>
+    <t>₹211.7</t>
+  </si>
+  <si>
+    <t>₹71.54</t>
+  </si>
+  <si>
+    <t>₹22.5</t>
+  </si>
+  <si>
+    <t>₹96</t>
+  </si>
+  <si>
+    <t>₹32.12</t>
+  </si>
+  <si>
+    <t>₹63.51</t>
+  </si>
+  <si>
+    <t>₹105.12</t>
+  </si>
+  <si>
+    <t>₹22.63</t>
+  </si>
+  <si>
+    <t>₹85.41</t>
+  </si>
+  <si>
+    <t>₹108.04</t>
   </si>
   <si>
     <t>₹36</t>
   </si>
   <si>
-    <t>₹68</t>
-  </si>
-  <si>
-    <t>₹14</t>
-  </si>
-  <si>
-    <t>₹9</t>
-  </si>
-  <si>
-    <t>₹70</t>
-  </si>
-  <si>
-    <t>₹235</t>
-  </si>
-  <si>
-    <t>₹12</t>
-  </si>
-  <si>
-    <t>₹33</t>
-  </si>
-  <si>
-    <t>₹47</t>
-  </si>
-  <si>
-    <t>₹19</t>
-  </si>
-  <si>
-    <t>₹77</t>
-  </si>
-  <si>
-    <t>₹144</t>
-  </si>
-  <si>
-    <t>₹62</t>
-  </si>
-  <si>
-    <t>₹27</t>
-  </si>
-  <si>
-    <t>₹139</t>
-  </si>
-  <si>
-    <t>₹48</t>
-  </si>
-  <si>
-    <t>₹51</t>
-  </si>
-  <si>
-    <t>₹29</t>
-  </si>
-  <si>
-    <t>₹42</t>
-  </si>
-  <si>
-    <t>₹128</t>
+    <t>₹39.42</t>
+  </si>
+  <si>
+    <t>₹42.34</t>
+  </si>
+  <si>
+    <t>₹21.17</t>
+  </si>
+  <si>
+    <t>₹38.69</t>
+  </si>
+  <si>
+    <t>₹34.31</t>
+  </si>
+  <si>
+    <t>₹17.52</t>
+  </si>
+  <si>
+    <t>₹10.22</t>
+  </si>
+  <si>
+    <t>₹65.7</t>
+  </si>
+  <si>
+    <t>₹25.55</t>
+  </si>
+  <si>
+    <t>₹77.38</t>
+  </si>
+  <si>
+    <t>₹31.2</t>
+  </si>
+  <si>
+    <t>₹93.44</t>
+  </si>
+  <si>
+    <t>₹30.66</t>
+  </si>
+  <si>
+    <t>₹95.63</t>
+  </si>
+  <si>
+    <t>₹40.15</t>
+  </si>
+  <si>
+    <t>₹126.29</t>
+  </si>
+  <si>
+    <t>₹24.09</t>
+  </si>
+  <si>
+    <t>39% OFF</t>
+  </si>
+  <si>
+    <t>27% OFF</t>
+  </si>
+  <si>
+    <t>38% OFF</t>
+  </si>
+  <si>
+    <t>40% OFF</t>
+  </si>
+  <si>
+    <t>35% OFF</t>
+  </si>
+  <si>
+    <t>37% OFF</t>
+  </si>
+  <si>
+    <t>56% OFF</t>
+  </si>
+  <si>
+    <t>55% OFF</t>
+  </si>
+  <si>
+    <t>43% OFF</t>
+  </si>
+  <si>
+    <t>42% OFF</t>
+  </si>
+  <si>
+    <t>41% OFF</t>
+  </si>
+  <si>
+    <t>48% OFF</t>
+  </si>
+  <si>
+    <t>64% OFF</t>
+  </si>
+  <si>
+    <t>30% OFF</t>
+  </si>
+  <si>
+    <t>32% OFF</t>
+  </si>
+  <si>
+    <t>45% OFF</t>
+  </si>
+  <si>
+    <t>61% OFF</t>
+  </si>
+  <si>
+    <t>28% OFF</t>
+  </si>
+  <si>
+    <t>Fresh Vegetables</t>
+  </si>
+  <si>
+    <t>2 kg</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx 500-1kg)</t>
+  </si>
+  <si>
+    <t>5 kg - Multipack</t>
+  </si>
+  <si>
+    <t>250 g</t>
+  </si>
+  <si>
+    <t>1 kg</t>
+  </si>
+  <si>
+    <t>500 g</t>
+  </si>
+  <si>
+    <t>1 pc - (approx. 400 to 600 g)</t>
+  </si>
+  <si>
+    <t>1 pack - (Approx. 180g - 200 g)</t>
+  </si>
+  <si>
+    <t>1 pc - (approx. 500 g to 800 g)</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 500 g - 800 g)</t>
+  </si>
+  <si>
+    <t>2 pcs</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 100 g)</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 250g-500g)</t>
+  </si>
+  <si>
+    <t>100 g</t>
+  </si>
+  <si>
+    <t>350 g (2 pieces)</t>
+  </si>
+  <si>
+    <t>1 pc - Approx. 400 to 600 g</t>
+  </si>
+  <si>
+    <t>1 Kg</t>
+  </si>
+  <si>
+    <t>1 pc</t>
+  </si>
+  <si>
+    <t>1 pc (Approx 500-1000 g)</t>
+  </si>
+  <si>
+    <t>1 pc (approx. 300-1.3 Kg)</t>
+  </si>
+  <si>
+    <t>2023-09-28 10:02:18</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:23:50</t>
+  </si>
+  <si>
+    <t>2023-10-01 11:31:53</t>
+  </si>
+  <si>
+    <t>Kesar Mango</t>
+  </si>
+  <si>
+    <t>Apple - Red Delicious / Washington, Regular</t>
+  </si>
+  <si>
+    <t>Apple - Red Delicious / Washington, Premium</t>
+  </si>
+  <si>
+    <t>Himayath Mango</t>
+  </si>
+  <si>
+    <t>Muskmelon -  Netted Small</t>
+  </si>
+  <si>
+    <t>Banana - Robusta</t>
+  </si>
+  <si>
+    <t>Apple - Shimla, Regular</t>
+  </si>
+  <si>
+    <t>Pomegranate - Regular (Loose)</t>
+  </si>
+  <si>
+    <t>Baby Apple Shimla</t>
+  </si>
+  <si>
+    <t>Banana - Yelakki</t>
+  </si>
+  <si>
+    <t>Coconut - Medium</t>
+  </si>
+  <si>
+    <t>Papaya</t>
+  </si>
+  <si>
+    <t>Mini Orange Imported (Loose)</t>
+  </si>
+  <si>
+    <t>Pomegranate (Loose)</t>
+  </si>
+  <si>
+    <t>Tender Coconut</t>
+  </si>
+  <si>
+    <t>Guava - Thai (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala Economy</t>
+  </si>
+  <si>
+    <t>Watermelon -  Medium</t>
+  </si>
+  <si>
+    <t>Mosambi - Economy (Loose)</t>
+  </si>
+  <si>
+    <t>Kiwi - Green</t>
+  </si>
+  <si>
+    <t>Banana - Nendran</t>
+  </si>
+  <si>
+    <t>Guava (Loose)</t>
+  </si>
+  <si>
+    <t>Pear - Green, Imported</t>
+  </si>
+  <si>
+    <t>Blueberry</t>
+  </si>
+  <si>
+    <t>Muskmelon -  Netted Medium</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala, Regular</t>
+  </si>
+  <si>
+    <t>Papaya - Small</t>
+  </si>
+  <si>
+    <t>Dragon Fruit (Loose)</t>
+  </si>
+  <si>
+    <t>Grapes - Bangalore Blue</t>
+  </si>
+  <si>
+    <t>Avocado (Loose)</t>
+  </si>
+  <si>
+    <t>Orange - Nagpur, Regular (Loose)</t>
+  </si>
+  <si>
+    <t>Avocado - Imported, Medium (Loose)</t>
+  </si>
+  <si>
+    <t>Mosambi - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala, Premium</t>
+  </si>
+  <si>
+    <t>Banana - Yelakki, Organically Grown</t>
+  </si>
+  <si>
+    <t>Banana - Raw Green (Loose)</t>
+  </si>
+  <si>
+    <t>Coconut - Large</t>
+  </si>
+  <si>
+    <t>Raw Mango (Loose)</t>
+  </si>
+  <si>
+    <t>Pineapple</t>
+  </si>
+  <si>
+    <t>Sapota</t>
+  </si>
+  <si>
+    <t>Mango - Neelam</t>
+  </si>
+  <si>
+    <t>Fresh Figs</t>
+  </si>
+  <si>
+    <t>Langra Mango</t>
+  </si>
+  <si>
+    <t>Pear - Naspathi, Indian</t>
+  </si>
+  <si>
+    <t>Pear Beauty</t>
+  </si>
+  <si>
+    <t>Banana - Red</t>
+  </si>
+  <si>
+    <t>Pomegranate - Peeled</t>
+  </si>
+  <si>
+    <t>Mallika Mango</t>
+  </si>
+  <si>
+    <t>Apple - Green, Premium</t>
+  </si>
+  <si>
+    <t>Baby Banana - Robusta</t>
+  </si>
+  <si>
+    <t>Orange - Imported (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Pink Lady</t>
+  </si>
+  <si>
+    <t>Sugarcane - Diced</t>
+  </si>
+  <si>
+    <t>Coconut with Husk - Pooja Coconut</t>
+  </si>
+  <si>
+    <t>Dates - Kimia, with Seed</t>
+  </si>
+  <si>
+    <t>Wood Apple - Kothbel (Loose)</t>
+  </si>
+  <si>
+    <t>Zespri Kiwi - Sun Gold</t>
+  </si>
+  <si>
+    <t>Ber - Apple (Loose)</t>
+  </si>
+  <si>
+    <t>Banana - Karpooravalli</t>
+  </si>
+  <si>
+    <t>Orange - Nagpur, Small (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Ambri</t>
+  </si>
+  <si>
+    <t>Longan</t>
+  </si>
+  <si>
+    <t>Banana - Poovan</t>
+  </si>
+  <si>
+    <t>Banana - Nendran, Organically Grown</t>
+  </si>
+  <si>
+    <t>Apple - Shimla, Premium</t>
+  </si>
+  <si>
+    <t>Pear - Beauty, Rich In Fiber, Vitamin C, Great For Gut Health</t>
+  </si>
+  <si>
+    <t>Grapes - Red Globe</t>
+  </si>
+  <si>
+    <t>Mosambi - Premium (Loose)</t>
+  </si>
+  <si>
+    <t>Coconut - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Guava - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Soursop</t>
+  </si>
+  <si>
+    <t>Coconut - Diced</t>
+  </si>
+  <si>
+    <t>Cherry - Kashmir</t>
+  </si>
+  <si>
+    <t>Apple - Red Delicious, Economy</t>
+  </si>
+  <si>
+    <t>Apricot - Dried</t>
+  </si>
+  <si>
+    <t>Passion Fruit</t>
+  </si>
+  <si>
+    <t>Pineapple - Slices</t>
+  </si>
+  <si>
+    <t>Papaya- Diced</t>
+  </si>
+  <si>
+    <t>Plum - Indian</t>
+  </si>
+  <si>
+    <t>Pomegranate - Single Serve, Peeled</t>
+  </si>
+  <si>
+    <t>Mosambi (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Washington, Regular</t>
+  </si>
+  <si>
+    <t>Apple - Fuji, Economy</t>
+  </si>
+  <si>
+    <t>Cherry</t>
+  </si>
+  <si>
+    <t>Grape fruit - Imported (Loose)</t>
+  </si>
+  <si>
+    <t>Pineapple - Chunks, Single Serve</t>
+  </si>
+  <si>
+    <t>Watermelon - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Ber (Loose)</t>
+  </si>
+  <si>
+    <t>Rambutan</t>
+  </si>
+  <si>
+    <t>Plum - Imported</t>
+  </si>
+  <si>
+    <t>Tamarind - Sweet</t>
+  </si>
+  <si>
+    <t>Mango - Raw Totapuri</t>
+  </si>
+  <si>
+    <t>Pomelo - Peeled</t>
+  </si>
+  <si>
+    <t>Sapota - Organically Grown</t>
+  </si>
+  <si>
+    <t>Guava - Thai Organic, White</t>
+  </si>
+  <si>
+    <t>Mangosteen</t>
+  </si>
+  <si>
+    <t>Cherry - Imported</t>
+  </si>
+  <si>
+    <t>Apple - Queen, Rose</t>
+  </si>
+  <si>
+    <t>₹190</t>
+  </si>
+  <si>
+    <t>₹380</t>
+  </si>
+  <si>
+    <t>₹702</t>
+  </si>
+  <si>
+    <t>₹211.25</t>
+  </si>
+  <si>
+    <t>₹328</t>
+  </si>
+  <si>
+    <t>₹298</t>
+  </si>
+  <si>
+    <t>₹207</t>
+  </si>
+  <si>
+    <t>₹224</t>
+  </si>
+  <si>
+    <t>₹432</t>
+  </si>
+  <si>
+    <t>₹258</t>
+  </si>
+  <si>
+    <t>₹93.15</t>
+  </si>
+  <si>
+    <t>₹72</t>
+  </si>
+  <si>
+    <t>₹329</t>
+  </si>
+  <si>
+    <t>₹94</t>
+  </si>
+  <si>
+    <t>₹176</t>
+  </si>
+  <si>
+    <t>₹570</t>
+  </si>
+  <si>
+    <t>₹392</t>
+  </si>
+  <si>
+    <t>₹552</t>
+  </si>
+  <si>
+    <t>₹146</t>
+  </si>
+  <si>
+    <t>₹325</t>
+  </si>
+  <si>
+    <t>₹120</t>
+  </si>
+  <si>
+    <t>₹109</t>
+  </si>
+  <si>
+    <t>₹604</t>
+  </si>
+  <si>
+    <t>₹259</t>
+  </si>
+  <si>
+    <t>₹95</t>
+  </si>
+  <si>
+    <t>₹127</t>
   </si>
   <si>
     <t>₹210.53</t>
   </si>
   <si>
-    <t>₹16</t>
-  </si>
-  <si>
-    <t>₹166</t>
-  </si>
-  <si>
-    <t>₹331</t>
-  </si>
-  <si>
-    <t>₹72</t>
-  </si>
-  <si>
-    <t>₹133</t>
-  </si>
-  <si>
-    <t>₹46</t>
-  </si>
-  <si>
-    <t>₹180</t>
-  </si>
-  <si>
-    <t>₹18</t>
-  </si>
-  <si>
-    <t>₹59</t>
+    <t>₹129</t>
+  </si>
+  <si>
+    <t>₹274</t>
+  </si>
+  <si>
+    <t>₹185</t>
+  </si>
+  <si>
+    <t>₹143</t>
+  </si>
+  <si>
+    <t>₹153</t>
+  </si>
+  <si>
+    <t>₹500</t>
+  </si>
+  <si>
+    <t>₹255</t>
+  </si>
+  <si>
+    <t>₹453</t>
+  </si>
+  <si>
+    <t>₹32.88</t>
+  </si>
+  <si>
+    <t>₹302</t>
+  </si>
+  <si>
+    <t>₹421</t>
+  </si>
+  <si>
+    <t>₹385</t>
   </si>
   <si>
     <t>₹84</t>
   </si>
   <si>
-    <t>₹103</t>
-  </si>
-  <si>
-    <t>₹37</t>
-  </si>
-  <si>
-    <t>₹111</t>
-  </si>
-  <si>
-    <t>₹254</t>
-  </si>
-  <si>
-    <t>₹79</t>
-  </si>
-  <si>
-    <t>₹202</t>
-  </si>
-  <si>
-    <t>₹57</t>
-  </si>
-  <si>
-    <t>₹49.32</t>
-  </si>
-  <si>
-    <t>₹13.16</t>
-  </si>
-  <si>
-    <t>₹155</t>
-  </si>
-  <si>
-    <t>₹151</t>
-  </si>
-  <si>
-    <t>₹73</t>
-  </si>
-  <si>
-    <t>₹106</t>
-  </si>
-  <si>
-    <t>₹125</t>
-  </si>
-  <si>
-    <t>₹98</t>
-  </si>
-  <si>
-    <t>₹54</t>
-  </si>
-  <si>
-    <t>₹87</t>
-  </si>
-  <si>
-    <t>₹122</t>
-  </si>
-  <si>
-    <t>₹39</t>
-  </si>
-  <si>
-    <t>₹58</t>
-  </si>
-  <si>
-    <t>₹24</t>
+    <t>₹576</t>
+  </si>
+  <si>
+    <t>₹361</t>
+  </si>
+  <si>
+    <t>₹794</t>
+  </si>
+  <si>
+    <t>₹105</t>
+  </si>
+  <si>
+    <t>₹50</t>
+  </si>
+  <si>
+    <t>₹137</t>
+  </si>
+  <si>
+    <t>₹162</t>
   </si>
   <si>
     <t>₹64</t>
   </si>
   <si>
-    <t>₹173</t>
-  </si>
-  <si>
-    <t>₹90</t>
-  </si>
-  <si>
-    <t>₹121</t>
-  </si>
-  <si>
-    <t>₹136</t>
-  </si>
-  <si>
-    <t>₹56</t>
-  </si>
-  <si>
-    <t>₹23.36</t>
-  </si>
-  <si>
-    <t>₹7</t>
-  </si>
-  <si>
-    <t>₹6</t>
-  </si>
-  <si>
-    <t>₹14.5</t>
-  </si>
-  <si>
-    <t>₹40</t>
-  </si>
-  <si>
-    <t>₹140</t>
-  </si>
-  <si>
-    <t>₹5</t>
-  </si>
-  <si>
-    <t>₹19.5</t>
-  </si>
-  <si>
-    <t>₹34.31</t>
-  </si>
-  <si>
-    <t>₹56.21</t>
-  </si>
-  <si>
-    <t>₹105.12</t>
-  </si>
-  <si>
-    <t>₹43</t>
-  </si>
-  <si>
-    <t>₹17</t>
-  </si>
-  <si>
-    <t>₹101.47</t>
-  </si>
-  <si>
-    <t>₹25</t>
-  </si>
-  <si>
-    <t>₹22</t>
+    <t>₹554</t>
+  </si>
+  <si>
+    <t>₹313</t>
+  </si>
+  <si>
+    <t>₹377</t>
+  </si>
+  <si>
+    <t>₹544</t>
+  </si>
+  <si>
+    <t>₹177</t>
+  </si>
+  <si>
+    <t>₹91.78</t>
+  </si>
+  <si>
+    <t>₹462</t>
+  </si>
+  <si>
+    <t>₹269</t>
+  </si>
+  <si>
+    <t>₹209</t>
+  </si>
+  <si>
+    <t>₹1895</t>
+  </si>
+  <si>
+    <t>₹324.34</t>
+  </si>
+  <si>
+    <t>₹110.96</t>
+  </si>
+  <si>
+    <t>₹403</t>
+  </si>
+  <si>
+    <t>₹242</t>
+  </si>
+  <si>
+    <t>₹138.7</t>
+  </si>
+  <si>
+    <t>₹277.4</t>
+  </si>
+  <si>
+    <t>₹512.46</t>
+  </si>
+  <si>
+    <t>₹239.44</t>
+  </si>
+  <si>
+    <t>₹193.7</t>
+  </si>
+  <si>
+    <t>₹134.55</t>
+  </si>
+  <si>
+    <t>₹38.35</t>
+  </si>
+  <si>
+    <t>₹268</t>
+  </si>
+  <si>
+    <t>₹159</t>
+  </si>
+  <si>
+    <t>₹49</t>
+  </si>
+  <si>
+    <t>₹46.8</t>
+  </si>
+  <si>
+    <t>₹213.85</t>
+  </si>
+  <si>
+    <t>₹62.05</t>
+  </si>
+  <si>
+    <t>₹61.1</t>
+  </si>
+  <si>
+    <t>₹28</t>
+  </si>
+  <si>
+    <t>₹34</t>
+  </si>
+  <si>
+    <t>₹416.1</t>
+  </si>
+  <si>
+    <t>₹286.16</t>
+  </si>
+  <si>
+    <t>₹358</t>
+  </si>
+  <si>
+    <t>₹35.75</t>
+  </si>
+  <si>
+    <t>₹106.58</t>
+  </si>
+  <si>
+    <t>₹237.25</t>
+  </si>
+  <si>
+    <t>₹75</t>
+  </si>
+  <si>
+    <t>₹79.57</t>
+  </si>
+  <si>
+    <t>₹440.92</t>
+  </si>
+  <si>
+    <t>₹189.07</t>
+  </si>
+  <si>
+    <t>₹69.35</t>
+  </si>
+  <si>
+    <t>₹92.71</t>
+  </si>
+  <si>
+    <t>₹153.69</t>
+  </si>
+  <si>
+    <t>₹94.17</t>
+  </si>
+  <si>
+    <t>₹178.1</t>
+  </si>
+  <si>
+    <t>₹135.05</t>
+  </si>
+  <si>
+    <t>₹104.39</t>
+  </si>
+  <si>
+    <t>₹131.3</t>
+  </si>
+  <si>
+    <t>₹111.69</t>
+  </si>
+  <si>
+    <t>₹365</t>
+  </si>
+  <si>
+    <t>₹186.15</t>
+  </si>
+  <si>
+    <t>₹330.69</t>
   </si>
   <si>
     <t>₹26.28</t>
   </si>
   <si>
-    <t>₹93.44</t>
-  </si>
-  <si>
-    <t>₹153.69</t>
-  </si>
-  <si>
-    <t>₹10</t>
-  </si>
-  <si>
-    <t>₹49.64</t>
-  </si>
-  <si>
-    <t>₹121.18</t>
-  </si>
-  <si>
-    <t>₹241.63</t>
-  </si>
-  <si>
-    <t>₹47.3</t>
-  </si>
-  <si>
-    <t>₹97.09</t>
-  </si>
-  <si>
-    <t>₹33.58</t>
-  </si>
-  <si>
-    <t>₹131.4</t>
-  </si>
-  <si>
-    <t>₹13.14</t>
-  </si>
-  <si>
-    <t>₹43.07</t>
+    <t>₹220.46</t>
+  </si>
+  <si>
+    <t>₹12.41</t>
+  </si>
+  <si>
+    <t>₹273.65</t>
+  </si>
+  <si>
+    <t>₹281.05</t>
   </si>
   <si>
     <t>₹61.32</t>
   </si>
   <si>
-    <t>₹75.19</t>
-  </si>
-  <si>
-    <t>₹27.01</t>
-  </si>
-  <si>
-    <t>₹81.03</t>
-  </si>
-  <si>
-    <t>₹185.42</t>
-  </si>
-  <si>
-    <t>₹57.67</t>
-  </si>
-  <si>
-    <t>₹147.46</t>
-  </si>
-  <si>
-    <t>₹41.61</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>₹51.1</t>
-  </si>
-  <si>
-    <t>₹35</t>
-  </si>
-  <si>
-    <t>₹110.23</t>
-  </si>
-  <si>
-    <t>₹37.23</t>
-  </si>
-  <si>
-    <t>₹53.29</t>
-  </si>
-  <si>
-    <t>₹77.38</t>
-  </si>
-  <si>
-    <t>₹91.25</t>
-  </si>
-  <si>
-    <t>₹211.7</t>
-  </si>
-  <si>
-    <t>₹71.54</t>
-  </si>
-  <si>
-    <t>₹39.42</t>
-  </si>
-  <si>
-    <t>₹21.17</t>
-  </si>
-  <si>
-    <t>₹63.51</t>
-  </si>
-  <si>
-    <t>₹89.06</t>
-  </si>
-  <si>
-    <t>₹13.75</t>
-  </si>
-  <si>
-    <t>₹28.47</t>
-  </si>
-  <si>
-    <t>₹42.34</t>
-  </si>
-  <si>
-    <t>₹45.26</t>
-  </si>
-  <si>
-    <t>₹17.52</t>
-  </si>
-  <si>
-    <t>₹10.22</t>
+    <t>₹420.48</t>
+  </si>
+  <si>
+    <t>₹263.53</t>
+  </si>
+  <si>
+    <t>₹579.62</t>
+  </si>
+  <si>
+    <t>₹76.65</t>
+  </si>
+  <si>
+    <t>₹36.5</t>
+  </si>
+  <si>
+    <t>₹100.01</t>
+  </si>
+  <si>
+    <t>₹118.26</t>
   </si>
   <si>
     <t>₹46.72</t>
   </si>
   <si>
-    <t>₹126.29</t>
-  </si>
-  <si>
-    <t>₹65.7</t>
-  </si>
-  <si>
-    <t>₹88.33</t>
-  </si>
-  <si>
-    <t>₹99.28</t>
-  </si>
-  <si>
-    <t>₹24.09</t>
-  </si>
-  <si>
-    <t>39% OFF</t>
-  </si>
-  <si>
-    <t>27% OFF</t>
-  </si>
-  <si>
-    <t>38% OFF</t>
+    <t>₹404.42</t>
+  </si>
+  <si>
+    <t>₹203.45</t>
+  </si>
+  <si>
+    <t>₹275.21</t>
+  </si>
+  <si>
+    <t>₹397.12</t>
+  </si>
+  <si>
+    <t>₹87.6</t>
+  </si>
+  <si>
+    <t>₹129.21</t>
+  </si>
+  <si>
+    <t>₹67</t>
+  </si>
+  <si>
+    <t>₹337.26</t>
+  </si>
+  <si>
+    <t>₹196.37</t>
+  </si>
+  <si>
+    <t>₹152.57</t>
+  </si>
+  <si>
+    <t>₹52.56</t>
+  </si>
+  <si>
+    <t>₹29.9</t>
+  </si>
+  <si>
+    <t>₹1383.35</t>
+  </si>
+  <si>
+    <t>₹236.77</t>
+  </si>
+  <si>
+    <t>₹294.19</t>
+  </si>
+  <si>
+    <t>₹176.66</t>
+  </si>
+  <si>
+    <t>49% OFF</t>
+  </si>
+  <si>
+    <t>47% OFF</t>
   </si>
   <si>
     <t>33% OFF</t>
@@ -713,786 +1583,21 @@
     <t>29% OFF</t>
   </si>
   <si>
-    <t>50% OFF</t>
-  </si>
-  <si>
-    <t>55% OFF</t>
-  </si>
-  <si>
-    <t>43% OFF</t>
-  </si>
-  <si>
-    <t>40% OFF</t>
-  </si>
-  <si>
-    <t>58% OFF</t>
-  </si>
-  <si>
-    <t>41% OFF</t>
-  </si>
-  <si>
-    <t>53% OFF</t>
-  </si>
-  <si>
     <t>31% OFF</t>
   </si>
   <si>
-    <t>37% OFF</t>
-  </si>
-  <si>
-    <t>48% OFF</t>
-  </si>
-  <si>
-    <t>57% OFF</t>
-  </si>
-  <si>
-    <t>34% OFF</t>
-  </si>
-  <si>
-    <t>28% OFF</t>
-  </si>
-  <si>
-    <t>Fresh Vegetables</t>
-  </si>
-  <si>
-    <t>2 kg</t>
-  </si>
-  <si>
-    <t>1 pc (Approx 500-1000 g)</t>
-  </si>
-  <si>
-    <t>5 kg - Multipack</t>
-  </si>
-  <si>
-    <t>500 g</t>
-  </si>
-  <si>
-    <t>250 g</t>
-  </si>
-  <si>
-    <t>1 kg</t>
-  </si>
-  <si>
-    <t>1 pc - (approx. 400 to 600 g)</t>
-  </si>
-  <si>
-    <t>1 pack - (Approx. 180g - 200 g)</t>
-  </si>
-  <si>
-    <t>1 pc - (approx. 500 g to 800 g)</t>
-  </si>
-  <si>
-    <t>2 pcs</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx. 500 g - 800 g)</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx. 100 g)</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx. 250g-500g)</t>
-  </si>
-  <si>
-    <t>100 g</t>
-  </si>
-  <si>
-    <t>350 g (2 pieces)</t>
-  </si>
-  <si>
-    <t>1 pc - Approx. 400 to 600 g</t>
-  </si>
-  <si>
-    <t>1 Kg</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx 500-1kg)</t>
-  </si>
-  <si>
-    <t>1 pc</t>
-  </si>
-  <si>
-    <t>1 pc (approx. 300-1.3 Kg)</t>
-  </si>
-  <si>
-    <t>2023-09-28 10:02:18</t>
-  </si>
-  <si>
-    <t>2023-09-29 12:23:50</t>
-  </si>
-  <si>
-    <t>Banana - Robusta</t>
-  </si>
-  <si>
-    <t>Apple - Shimla, Regular</t>
-  </si>
-  <si>
-    <t>Pomegranate - Regular (Loose)</t>
-  </si>
-  <si>
-    <t>Banana - Yelakki</t>
-  </si>
-  <si>
-    <t>Baby Apple Shimla</t>
-  </si>
-  <si>
-    <t>Coconut - Medium</t>
-  </si>
-  <si>
-    <t>Mini Orange Imported (Loose)</t>
-  </si>
-  <si>
-    <t>Papaya</t>
-  </si>
-  <si>
-    <t>Pomegranate (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala Economy</t>
-  </si>
-  <si>
-    <t>Guava - Thai (Loose)</t>
-  </si>
-  <si>
-    <t>Tender Coconut</t>
-  </si>
-  <si>
-    <t>Mosambi - Economy (Loose)</t>
-  </si>
-  <si>
-    <t>Watermelon -  Medium</t>
-  </si>
-  <si>
-    <t>Kiwi - Green</t>
-  </si>
-  <si>
-    <t>Banana - Nendran</t>
-  </si>
-  <si>
-    <t>Guava (Loose)</t>
-  </si>
-  <si>
-    <t>Blueberry</t>
-  </si>
-  <si>
-    <t>Dragon Fruit (Loose)</t>
-  </si>
-  <si>
-    <t>Muskmelon -  Netted Medium</t>
-  </si>
-  <si>
-    <t>Pear - Green, Imported</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala, Regular</t>
-  </si>
-  <si>
-    <t>Papaya - Small</t>
-  </si>
-  <si>
-    <t>Grapes - Bangalore Blue</t>
-  </si>
-  <si>
-    <t>Avocado (Loose)</t>
-  </si>
-  <si>
-    <t>Pear - Naspathi, Indian</t>
-  </si>
-  <si>
-    <t>Avocado - Imported, Medium (Loose)</t>
-  </si>
-  <si>
-    <t>Banana - Yelakki, Organically Grown</t>
-  </si>
-  <si>
-    <t>Mosambi - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala, Premium</t>
-  </si>
-  <si>
-    <t>Banana - Raw Green (Loose)</t>
-  </si>
-  <si>
-    <t>Pineapple</t>
-  </si>
-  <si>
-    <t>Coconut - Large</t>
-  </si>
-  <si>
-    <t>Fresh Figs</t>
-  </si>
-  <si>
-    <t>Mango - Neelam</t>
-  </si>
-  <si>
-    <t>Raw Mango (Loose)</t>
-  </si>
-  <si>
-    <t>Langra Mango</t>
-  </si>
-  <si>
-    <t>Apple - Green, Premium</t>
-  </si>
-  <si>
-    <t>Pear Beauty</t>
-  </si>
-  <si>
-    <t>Sapota</t>
-  </si>
-  <si>
-    <t>Mallika Mango</t>
-  </si>
-  <si>
-    <t>Apple - Pink Lady</t>
-  </si>
-  <si>
-    <t>Pomegranate - Peeled</t>
-  </si>
-  <si>
-    <t>Coconut with Husk - Pooja Coconut</t>
-  </si>
-  <si>
-    <t>Baby Banana - Robusta</t>
-  </si>
-  <si>
-    <t>Banana - Red</t>
-  </si>
-  <si>
-    <t>Orange - Imported (Loose)</t>
-  </si>
-  <si>
-    <t>Dates - Kimia, with Seed</t>
-  </si>
-  <si>
-    <t>Guava - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Longan</t>
-  </si>
-  <si>
-    <t>Zespri Kiwi - Sun Gold</t>
-  </si>
-  <si>
-    <t>Banana - Karpooravalli</t>
-  </si>
-  <si>
-    <t>Banana - Nendran, Organically Grown</t>
-  </si>
-  <si>
-    <t>Ber - Apple (Loose)</t>
-  </si>
-  <si>
-    <t>Pear - Beauty, Rich In Fiber, Vitamin C, Great For Gut Health</t>
-  </si>
-  <si>
-    <t>Coconut - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Grapes - Red Globe</t>
-  </si>
-  <si>
-    <t>Banana - Poovan</t>
-  </si>
-  <si>
-    <t>Mosambi - Premium (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Ambri</t>
-  </si>
-  <si>
-    <t>Soursop</t>
-  </si>
-  <si>
-    <t>Coconut - Diced</t>
-  </si>
-  <si>
-    <t>Cherry - Kashmir</t>
-  </si>
-  <si>
-    <t>Apple - Red Delicious, Economy</t>
-  </si>
-  <si>
-    <t>Apricot - Dried</t>
-  </si>
-  <si>
-    <t>Plum - Indian</t>
-  </si>
-  <si>
-    <t>Pineapple - Slices</t>
-  </si>
-  <si>
-    <t>Papaya- Diced</t>
-  </si>
-  <si>
-    <t>Pomegranate - Single Serve, Peeled</t>
-  </si>
-  <si>
-    <t>Mosambi (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Washington, Regular</t>
-  </si>
-  <si>
-    <t>Apple - Fuji, Economy</t>
-  </si>
-  <si>
-    <t>Mango - Raw Totapuri</t>
-  </si>
-  <si>
-    <t>Pineapple - Chunks, Single Serve</t>
-  </si>
-  <si>
-    <t>Kesar Mango</t>
-  </si>
-  <si>
-    <t>Passion Fruit</t>
-  </si>
-  <si>
-    <t>Cherry</t>
-  </si>
-  <si>
-    <t>Orange - Nagpur, Small (Loose)</t>
-  </si>
-  <si>
-    <t>Grape fruit - Imported (Loose)</t>
-  </si>
-  <si>
-    <t>Rambutan</t>
-  </si>
-  <si>
-    <t>Ber (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Shimla, Premium</t>
-  </si>
-  <si>
-    <t>Watermelon - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Tamarind - Sweet</t>
-  </si>
-  <si>
-    <t>Plum - Imported</t>
-  </si>
-  <si>
-    <t>Pomelo - Peeled</t>
-  </si>
-  <si>
-    <t>Sapota - Organically Grown</t>
-  </si>
-  <si>
-    <t>Guava - Thai Organic, White</t>
-  </si>
-  <si>
-    <t>Mangosteen</t>
-  </si>
-  <si>
-    <t>Cherry - Imported</t>
-  </si>
-  <si>
-    <t>Apple - Red Delicious / Washington, Regular</t>
-  </si>
-  <si>
-    <t>Apple - Red Delicious / Washington, Premium</t>
-  </si>
-  <si>
-    <t>Himayath Mango</t>
-  </si>
-  <si>
-    <t>₹328</t>
-  </si>
-  <si>
-    <t>₹298</t>
-  </si>
-  <si>
-    <t>₹224</t>
-  </si>
-  <si>
-    <t>₹207</t>
-  </si>
-  <si>
-    <t>₹451</t>
-  </si>
-  <si>
-    <t>₹258</t>
-  </si>
-  <si>
-    <t>₹329</t>
-  </si>
-  <si>
-    <t>₹93.15</t>
-  </si>
-  <si>
-    <t>₹236</t>
-  </si>
-  <si>
-    <t>₹85</t>
-  </si>
-  <si>
-    <t>₹184</t>
-  </si>
-  <si>
-    <t>₹109</t>
-  </si>
-  <si>
-    <t>₹392</t>
-  </si>
-  <si>
-    <t>₹568</t>
-  </si>
-  <si>
-    <t>₹552</t>
-  </si>
-  <si>
-    <t>₹55</t>
-  </si>
-  <si>
-    <t>₹146</t>
-  </si>
-  <si>
-    <t>₹325</t>
-  </si>
-  <si>
-    <t>₹300</t>
-  </si>
-  <si>
-    <t>₹114</t>
-  </si>
-  <si>
-    <t>₹259</t>
-  </si>
-  <si>
-    <t>₹604</t>
-  </si>
-  <si>
-    <t>₹95</t>
-  </si>
-  <si>
-    <t>₹44</t>
-  </si>
-  <si>
-    <t>₹127</t>
-  </si>
-  <si>
-    <t>₹168</t>
-  </si>
-  <si>
-    <t>₹129</t>
-  </si>
-  <si>
-    <t>₹500</t>
-  </si>
-  <si>
-    <t>₹185</t>
-  </si>
-  <si>
-    <t>₹153</t>
-  </si>
-  <si>
-    <t>₹453</t>
-  </si>
-  <si>
-    <t>₹375.34</t>
-  </si>
-  <si>
-    <t>₹161</t>
-  </si>
-  <si>
-    <t>₹272</t>
-  </si>
-  <si>
-    <t>₹302</t>
-  </si>
-  <si>
-    <t>₹137</t>
-  </si>
-  <si>
-    <t>₹385</t>
-  </si>
-  <si>
-    <t>₹381</t>
-  </si>
-  <si>
-    <t>₹131</t>
-  </si>
-  <si>
-    <t>₹361</t>
-  </si>
-  <si>
-    <t>₹50</t>
-  </si>
-  <si>
-    <t>₹794</t>
-  </si>
-  <si>
-    <t>₹105</t>
-  </si>
-  <si>
-    <t>₹162</t>
-  </si>
-  <si>
-    <t>₹554</t>
-  </si>
-  <si>
-    <t>₹240</t>
-  </si>
-  <si>
-    <t>₹377</t>
-  </si>
-  <si>
-    <t>₹177</t>
-  </si>
-  <si>
-    <t>₹117</t>
-  </si>
-  <si>
-    <t>₹462</t>
-  </si>
-  <si>
-    <t>₹199</t>
-  </si>
-  <si>
-    <t>₹190</t>
-  </si>
-  <si>
-    <t>₹544</t>
-  </si>
-  <si>
-    <t>₹209</t>
-  </si>
-  <si>
-    <t>₹1895</t>
-  </si>
-  <si>
-    <t>₹442</t>
-  </si>
-  <si>
-    <t>₹324.34</t>
-  </si>
-  <si>
-    <t>₹110.96</t>
-  </si>
-  <si>
-    <t>₹76</t>
-  </si>
-  <si>
-    <t>₹403</t>
-  </si>
-  <si>
-    <t>₹380</t>
-  </si>
-  <si>
-    <t>₹702</t>
-  </si>
-  <si>
-    <t>₹211.25</t>
-  </si>
-  <si>
-    <t>₹239.44</t>
-  </si>
-  <si>
-    <t>₹217.54</t>
-  </si>
-  <si>
-    <t>₹25.55</t>
-  </si>
-  <si>
-    <t>₹278</t>
-  </si>
-  <si>
-    <t>₹185.5</t>
-  </si>
-  <si>
-    <t>₹240.17</t>
-  </si>
-  <si>
-    <t>₹52.56</t>
-  </si>
-  <si>
-    <t>₹172.28</t>
-  </si>
-  <si>
-    <t>₹62.05</t>
-  </si>
-  <si>
-    <t>₹134.32</t>
-  </si>
-  <si>
-    <t>₹28</t>
-  </si>
-  <si>
-    <t>₹286.16</t>
-  </si>
-  <si>
-    <t>₹414.64</t>
-  </si>
-  <si>
-    <t>₹402</t>
-  </si>
-  <si>
-    <t>₹40.15</t>
-  </si>
-  <si>
-    <t>₹106.58</t>
-  </si>
-  <si>
-    <t>₹237.25</t>
-  </si>
-  <si>
-    <t>₹219</t>
-  </si>
-  <si>
-    <t>₹83.22</t>
-  </si>
-  <si>
-    <t>₹189.07</t>
-  </si>
-  <si>
-    <t>₹79.57</t>
-  </si>
-  <si>
-    <t>₹440.92</t>
-  </si>
-  <si>
-    <t>₹69.35</t>
-  </si>
-  <si>
-    <t>₹32.12</t>
-  </si>
-  <si>
-    <t>₹92.71</t>
-  </si>
-  <si>
-    <t>₹122.64</t>
-  </si>
-  <si>
-    <t>₹94.17</t>
-  </si>
-  <si>
-    <t>₹365</t>
-  </si>
-  <si>
-    <t>₹135.05</t>
-  </si>
-  <si>
-    <t>₹111.69</t>
-  </si>
-  <si>
-    <t>₹330.69</t>
-  </si>
-  <si>
-    <t>₹274</t>
-  </si>
-  <si>
-    <t>₹117.53</t>
-  </si>
-  <si>
-    <t>₹198.56</t>
-  </si>
-  <si>
-    <t>₹220.46</t>
-  </si>
-  <si>
-    <t>₹100.01</t>
-  </si>
-  <si>
-    <t>₹281.05</t>
-  </si>
-  <si>
-    <t>₹278.13</t>
-  </si>
-  <si>
-    <t>₹95.63</t>
-  </si>
-  <si>
-    <t>₹263.53</t>
-  </si>
-  <si>
-    <t>₹36.5</t>
-  </si>
-  <si>
-    <t>₹579.62</t>
-  </si>
-  <si>
-    <t>₹76.65</t>
-  </si>
-  <si>
-    <t>₹118.26</t>
-  </si>
-  <si>
-    <t>₹38</t>
-  </si>
-  <si>
-    <t>₹404.42</t>
-  </si>
-  <si>
-    <t>₹175.2</t>
-  </si>
-  <si>
-    <t>₹275.21</t>
-  </si>
-  <si>
-    <t>₹129.21</t>
-  </si>
-  <si>
-    <t>₹85.41</t>
-  </si>
-  <si>
-    <t>₹337.26</t>
-  </si>
-  <si>
-    <t>₹145.27</t>
-  </si>
-  <si>
-    <t>₹138.7</t>
-  </si>
-  <si>
-    <t>₹397.12</t>
-  </si>
-  <si>
-    <t>₹152.57</t>
-  </si>
-  <si>
-    <t>₹1383.35</t>
-  </si>
-  <si>
-    <t>₹322.66</t>
-  </si>
-  <si>
-    <t>₹236.77</t>
-  </si>
-  <si>
-    <t>₹81</t>
-  </si>
-  <si>
-    <t>₹55.48</t>
-  </si>
-  <si>
-    <t>₹294.19</t>
-  </si>
-  <si>
-    <t>₹277.4</t>
-  </si>
-  <si>
-    <t>₹512.46</t>
-  </si>
-  <si>
-    <t>49% OFF</t>
-  </si>
-  <si>
-    <t>35% OFF</t>
-  </si>
-  <si>
-    <t>36% OFF</t>
-  </si>
-  <si>
     <t>Fresh Fruits</t>
   </si>
   <si>
+    <t>2x4 pcs</t>
+  </si>
+  <si>
     <t>2x4 pcs - Multipack</t>
   </si>
   <si>
+    <t>1 pc - 500g-900g</t>
+  </si>
+  <si>
     <t>1 kg - (5-6 pcs per kg)</t>
   </si>
   <si>
@@ -1508,9 +1613,6 @@
     <t>4 pcs - (Approx.450 g-500 g)</t>
   </si>
   <si>
-    <t>3 kg</t>
-  </si>
-  <si>
     <t>1 pc - 2.5 - 3.8 kg</t>
   </si>
   <si>
@@ -1520,22 +1622,31 @@
     <t>125 g</t>
   </si>
   <si>
+    <t>1 pc - 1.2 - 2 kg</t>
+  </si>
+  <si>
+    <t>1 pc - 500 g - 800 g</t>
+  </si>
+  <si>
     <t>1 pc - 250 to 350 g</t>
   </si>
   <si>
-    <t>1 pc - 1.2 - 2 kg</t>
-  </si>
-  <si>
-    <t>1 pc - 500 g - 800 g</t>
+    <t>1 kg - (Approx. 6 - 7 pcs)</t>
   </si>
   <si>
     <t>2x4 pcs - (Multipack)</t>
   </si>
   <si>
+    <t>1 pc - (approx. 550g to 650g)</t>
+  </si>
+  <si>
     <t>1 pc - 800 g -1000 g</t>
   </si>
   <si>
-    <t>1 pc - (approx. 550g to 650g)</t>
+    <t>200 g</t>
+  </si>
+  <si>
+    <t>6 pcs</t>
   </si>
   <si>
     <t>4 pcs</t>
@@ -1544,21 +1655,18 @@
     <t>1 pc - (approx. 250g to 300g)</t>
   </si>
   <si>
-    <t>6 pcs</t>
-  </si>
-  <si>
     <t>1 pc - (Approx. 400 to 500g)</t>
   </si>
   <si>
     <t>4 pcs - (500 - 600g)</t>
   </si>
   <si>
+    <t>4 pcs - 900-1 kg</t>
+  </si>
+  <si>
     <t>1 pc - (approx. 300g to 400g)</t>
   </si>
   <si>
-    <t>4 pcs - 900-1 kg</t>
-  </si>
-  <si>
     <t>1 pc - 400 - 800g</t>
   </si>
   <si>
@@ -1571,9 +1679,6 @@
     <t>4 pcs - (Approx. 450g - 500g)</t>
   </si>
   <si>
-    <t>200 g</t>
-  </si>
-  <si>
     <t>80 g</t>
   </si>
   <si>
@@ -1595,10 +1700,13 @@
     <t>1 pc - approx. 300 g to 500 g</t>
   </si>
   <si>
-    <t>2x4 pcs</t>
-  </si>
-  <si>
     <t>2023-09-29 12:24:29</t>
+  </si>
+  <si>
+    <t>2023-09-30 18:03:36</t>
+  </si>
+  <si>
+    <t>2023-10-01 11:32:32</t>
   </si>
 </sst>
 </file>
@@ -1996,22 +2104,22 @@
         <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="D2" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F2" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G2" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="H2" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2022,22 +2130,22 @@
         <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="F3" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G3" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="H3" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2048,22 +2156,22 @@
         <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F4" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G4" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="H4" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2074,22 +2182,22 @@
         <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="D5" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="E5" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="F5" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G5" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="H5" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2100,22 +2208,22 @@
         <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F6" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G6" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="H6" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2126,22 +2234,22 @@
         <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="E7" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="F7" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G7" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="H7" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2152,22 +2260,22 @@
         <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D8" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="E8" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="F8" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G8" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="H8" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2175,25 +2283,25 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D9" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="E9" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F9" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G9" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="H9" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2201,25 +2309,25 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="E10" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="F10" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G10" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H10" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2227,25 +2335,25 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="D11" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="E11" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F11" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G11" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H11" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2253,25 +2361,25 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D12" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="E12" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F12" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G12" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="H12" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2279,25 +2387,25 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D13" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="E13" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="F13" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G13" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="H13" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2305,25 +2413,25 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D14" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="E14" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F14" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G14" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="H14" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2331,25 +2439,25 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c r="D15" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="E15" t="s">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c r="F15" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G15" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="H15" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2360,22 +2468,22 @@
         <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="D16" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="E16" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="F16" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G16" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="H16" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2386,22 +2494,22 @@
         <v>117</v>
       </c>
       <c r="C17" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="D17" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E17" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F17" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G17" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="H17" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2412,22 +2520,22 @@
         <v>118</v>
       </c>
       <c r="C18" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="D18" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="E18" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F18" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G18" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="H18" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2438,22 +2546,22 @@
         <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D19" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="E19" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F19" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G19" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="H19" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2464,22 +2572,22 @@
         <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D20" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="E20" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F20" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G20" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="H20" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2490,22 +2598,22 @@
         <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D21" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="E21" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F21" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G21" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="H21" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2516,22 +2624,22 @@
         <v>122</v>
       </c>
       <c r="C22" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="D22" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="E22" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F22" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G22" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="H22" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2542,22 +2650,22 @@
         <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="D23" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="E23" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="F23" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G23" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="H23" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2565,25 +2673,25 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C24" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D24" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E24" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="F24" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G24" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="H24" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2591,25 +2699,25 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="D25" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="E25" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="F25" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G25" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="H25" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2617,25 +2725,25 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D26" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="E26" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="F26" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G26" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="H26" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2643,25 +2751,25 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="D27" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E27" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F27" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G27" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="H27" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2669,25 +2777,25 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C28" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D28" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="E28" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="F28" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G28" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="H28" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2695,25 +2803,25 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="C29" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D29" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E29" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="F29" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G29" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H29" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2721,25 +2829,25 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C30" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D30" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E30" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="F30" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G30" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H30" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2747,25 +2855,25 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C31" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D31" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="E31" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="F31" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G31" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H31" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2773,25 +2881,25 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C32" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="D32" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E32" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="F32" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G32" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H32" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2799,25 +2907,25 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C33" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D33" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E33" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F33" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G33" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H33" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2825,25 +2933,25 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C34" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D34" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E34" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="F34" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G34" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H34" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2851,25 +2959,25 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C35" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="D35" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E35" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F35" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G35" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H35" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2877,25 +2985,25 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C36" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="D36" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E36" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="F36" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G36" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="H36" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2903,25 +3011,25 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C37" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="D37" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E37" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="F37" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G37" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H37" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2929,25 +3037,25 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C38" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D38" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E38" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="F38" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G38" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="H38" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2955,25 +3063,25 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C39" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D39" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E39" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="F39" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G39" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H39" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2981,25 +3089,25 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C40" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="D40" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E40" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F40" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G40" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H40" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3007,25 +3115,25 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C41" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D41" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E41" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="F41" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G41" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H41" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3033,25 +3141,25 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C42" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="D42" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E42" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="F42" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G42" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H42" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3059,25 +3167,25 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C43" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="D43" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E43" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="F43" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G43" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H43" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3085,25 +3193,25 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C44" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="D44" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E44" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="F44" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G44" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="H44" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3111,25 +3219,25 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C45" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D45" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E45" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F45" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G45" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="H45" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3137,25 +3245,25 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="C46" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="D46" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E46" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="F46" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G46" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="H46" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3163,25 +3271,25 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C47" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D47" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E47" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="F47" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G47" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H47" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3189,25 +3297,25 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="C48" t="s">
-        <v>106</v>
+        <v>210</v>
       </c>
       <c r="D48" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E48" t="s">
-        <v>106</v>
+        <v>210</v>
       </c>
       <c r="F48" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G48" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="H48" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3218,22 +3326,22 @@
         <v>145</v>
       </c>
       <c r="C49" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="D49" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E49" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F49" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G49" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="H49" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3241,25 +3349,25 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C50" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="D50" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E50" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F50" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G50" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H50" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3267,25 +3375,25 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="C51" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D51" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="E51" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="F51" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G51" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H51" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3293,25 +3401,25 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C52" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="D52" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E52" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="F52" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G52" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H52" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3319,25 +3427,25 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="C53" t="s">
-        <v>103</v>
+        <v>215</v>
       </c>
       <c r="D53" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>215</v>
       </c>
       <c r="F53" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G53" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H53" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3345,25 +3453,25 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C54" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="D54" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E54" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="F54" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G54" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H54" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3371,25 +3479,25 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="C55" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="D55" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E55" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="F55" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G55" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="H55" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3397,25 +3505,25 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C56" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="D56" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E56" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="F56" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G56" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H56" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3423,25 +3531,25 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C57" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="D57" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="E57" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="F57" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G57" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="H57" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3449,25 +3557,25 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C58" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="D58" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E58" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="F58" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G58" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H58" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3475,25 +3583,25 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="C59" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="D59" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E59" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="F59" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G59" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="H59" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3501,25 +3609,25 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="C60" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="D60" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E60" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="F60" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G60" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="H60" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3527,25 +3635,25 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="C61" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="D61" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="E61" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="F61" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G61" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="H61" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3553,25 +3661,25 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C62" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="D62" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="E62" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="F62" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G62" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H62" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3579,25 +3687,25 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C63" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="D63" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E63" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="F63" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G63" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="H63" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3605,25 +3713,25 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C64" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="D64" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E64" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="F64" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G64" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="H64" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3631,25 +3739,25 @@
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C65" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="D65" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E65" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="F65" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G65" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="H65" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3657,25 +3765,25 @@
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="C66" t="s">
-        <v>174</v>
+        <v>227</v>
       </c>
       <c r="D66" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E66" t="s">
-        <v>174</v>
+        <v>227</v>
       </c>
       <c r="F66" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G66" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="H66" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3683,25 +3791,25 @@
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C67" t="s">
-        <v>213</v>
+        <v>150</v>
       </c>
       <c r="D67" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E67" t="s">
-        <v>213</v>
+        <v>150</v>
       </c>
       <c r="F67" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G67" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H67" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3709,25 +3817,25 @@
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C68" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="D68" t="s">
+        <v>249</v>
+      </c>
+      <c r="E68" t="s">
         <v>228</v>
       </c>
-      <c r="E68" t="s">
-        <v>214</v>
-      </c>
       <c r="F68" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G68" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H68" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3735,25 +3843,25 @@
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="C69" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="D69" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E69" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="F69" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G69" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="H69" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3761,25 +3869,25 @@
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C70" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="D70" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E70" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F70" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G70" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="H70" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3787,25 +3895,25 @@
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C71" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="D71" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E71" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="F71" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G71" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="H71" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3813,25 +3921,25 @@
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="C72" t="s">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="D72" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E72" t="s">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="F72" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G72" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H72" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3839,25 +3947,25 @@
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="C73" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="D73" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E73" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="F73" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G73" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H73" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3865,25 +3973,25 @@
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C74" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="D74" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E74" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="F74" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G74" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="H74" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3891,25 +3999,25 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="C75" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="D75" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E75" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="F75" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G75" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="H75" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3917,25 +4025,25 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="C76" t="s">
-        <v>164</v>
+        <v>235</v>
       </c>
       <c r="D76" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E76" t="s">
-        <v>164</v>
+        <v>235</v>
       </c>
       <c r="F76" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G76" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="H76" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3943,25 +4051,25 @@
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="C77" t="s">
-        <v>106</v>
+        <v>236</v>
       </c>
       <c r="D77" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E77" t="s">
-        <v>106</v>
+        <v>236</v>
       </c>
       <c r="F77" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G77" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="H77" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3969,25 +4077,25 @@
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="C78" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="D78" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E78" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="F78" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G78" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="H78" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3995,25 +4103,25 @@
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C79" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="D79" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E79" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="F79" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G79" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="H79" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4021,25 +4129,25 @@
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C80" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D80" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E80" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F80" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G80" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="H80" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4047,25 +4155,25 @@
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="C81" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="D81" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E81" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="F81" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G81" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="H81" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4073,25 +4181,25 @@
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C82" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="D82" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E82" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="F82" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G82" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H82" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4099,25 +4207,25 @@
         <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="C83" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="D83" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E83" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="F83" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G83" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="H83" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4125,25 +4233,25 @@
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="C84" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="D84" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E84" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="F84" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G84" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H84" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4151,25 +4259,25 @@
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="C85" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="D85" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="E85" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="F85" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G85" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="H85" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4177,25 +4285,25 @@
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="C86" t="s">
-        <v>189</v>
+        <v>242</v>
       </c>
       <c r="D86" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E86" t="s">
-        <v>189</v>
+        <v>242</v>
       </c>
       <c r="F86" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G86" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="H86" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4203,25 +4311,25 @@
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="C87" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="D87" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E87" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="F87" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G87" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="H87" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4229,25 +4337,25 @@
         <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="C88" t="s">
-        <v>181</v>
+        <v>225</v>
       </c>
       <c r="D88" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E88" t="s">
-        <v>181</v>
+        <v>225</v>
       </c>
       <c r="F88" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G88" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H88" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4255,25 +4363,25 @@
         <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C89" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="D89" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E89" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="F89" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G89" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="H89" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4281,25 +4389,25 @@
         <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="C90" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="D90" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E90" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="F90" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G90" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H90" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4307,25 +4415,25 @@
         <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C91" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D91" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E91" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="F91" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G91" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="H91" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4333,25 +4441,25 @@
         <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C92" t="s">
-        <v>189</v>
+        <v>119</v>
       </c>
       <c r="D92" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="E92" t="s">
-        <v>189</v>
+        <v>119</v>
       </c>
       <c r="F92" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G92" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H92" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4359,25 +4467,25 @@
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C93" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="D93" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E93" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="F93" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G93" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="H93" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4385,25 +4493,25 @@
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C94" t="s">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="D94" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="E94" t="s">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="F94" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G94" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="H94" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4411,25 +4519,25 @@
         <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="C95" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="D95" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E95" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="F95" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G95" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="H95" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4437,25 +4545,25 @@
         <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C96" t="s">
-        <v>184</v>
+        <v>247</v>
       </c>
       <c r="D96" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E96" t="s">
-        <v>184</v>
+        <v>247</v>
       </c>
       <c r="F96" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G96" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="H96" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -4465,7 +4573,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4499,2420 +4607,2550 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>388</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>450</v>
       </c>
       <c r="D2" t="s">
-        <v>487</v>
+        <v>249</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>450</v>
       </c>
       <c r="F2" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G2" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H2" t="s">
-        <v>527</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="B3" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="C3" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E3" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="F3" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G3" t="s">
-        <v>491</v>
+        <v>524</v>
       </c>
       <c r="H3" t="s">
-        <v>527</v>
+        <v>561</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="B4" t="s">
-        <v>362</v>
+        <v>390</v>
       </c>
       <c r="C4" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="D4" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E4" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="F4" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G4" t="s">
-        <v>492</v>
+        <v>525</v>
       </c>
       <c r="H4" t="s">
-        <v>527</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="B5" t="s">
-        <v>363</v>
+        <v>391</v>
       </c>
       <c r="C5" t="s">
-        <v>404</v>
+        <v>211</v>
       </c>
       <c r="D5" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E5" t="s">
-        <v>404</v>
+        <v>211</v>
       </c>
       <c r="F5" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G5" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H5" t="s">
-        <v>527</v>
+        <v>561</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="B6" t="s">
-        <v>364</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="D6" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="F6" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G6" t="s">
-        <v>493</v>
+        <v>526</v>
       </c>
       <c r="H6" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="B7" t="s">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
-        <v>426</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>228</v>
+        <v>518</v>
       </c>
       <c r="E7" t="s">
-        <v>426</v>
+        <v>104</v>
       </c>
       <c r="F7" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G7" t="s">
-        <v>494</v>
+        <v>271</v>
       </c>
       <c r="H7" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="B8" t="s">
-        <v>365</v>
+        <v>392</v>
       </c>
       <c r="C8" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="D8" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="E8" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="F8" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G8" t="s">
-        <v>251</v>
+        <v>525</v>
       </c>
       <c r="H8" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>393</v>
       </c>
       <c r="C9" t="s">
-        <v>192</v>
+        <v>454</v>
       </c>
       <c r="D9" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="E9" t="s">
-        <v>192</v>
+        <v>454</v>
       </c>
       <c r="F9" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G9" t="s">
-        <v>251</v>
+        <v>527</v>
       </c>
       <c r="H9" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="B10" t="s">
-        <v>366</v>
+        <v>394</v>
       </c>
       <c r="C10" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="D10" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="E10" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="F10" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G10" t="s">
-        <v>495</v>
+        <v>528</v>
       </c>
       <c r="H10" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="B11" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="C11" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="D11" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="E11" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="F11" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G11" t="s">
-        <v>496</v>
+        <v>271</v>
       </c>
       <c r="H11" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="C12" t="s">
-        <v>430</v>
+        <v>239</v>
       </c>
       <c r="D12" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E12" t="s">
-        <v>430</v>
+        <v>239</v>
       </c>
       <c r="F12" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G12" t="s">
-        <v>264</v>
+        <v>529</v>
       </c>
       <c r="H12" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="B13" t="s">
-        <v>368</v>
+        <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>376</v>
+        <v>456</v>
       </c>
       <c r="D13" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="E13" t="s">
-        <v>376</v>
+        <v>456</v>
       </c>
       <c r="F13" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G13" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="H13" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="B14" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="C14" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="D14" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="E14" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="F14" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G14" t="s">
-        <v>497</v>
+        <v>271</v>
       </c>
       <c r="H14" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="B15" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="C15" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="D15" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="E15" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="F15" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G15" t="s">
-        <v>498</v>
+        <v>530</v>
       </c>
       <c r="H15" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="B16" t="s">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="C16" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="D16" t="s">
-        <v>228</v>
+        <v>519</v>
       </c>
       <c r="E16" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="F16" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G16" t="s">
-        <v>499</v>
+        <v>284</v>
       </c>
       <c r="H16" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="B17" t="s">
-        <v>175</v>
+        <v>399</v>
       </c>
       <c r="C17" t="s">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="D17" t="s">
-        <v>488</v>
+        <v>252</v>
       </c>
       <c r="E17" t="s">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="F17" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G17" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="H17" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="B18" t="s">
-        <v>372</v>
+        <v>400</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>461</v>
       </c>
       <c r="D18" t="s">
-        <v>489</v>
+        <v>252</v>
       </c>
       <c r="E18" t="s">
-        <v>110</v>
+        <v>461</v>
       </c>
       <c r="F18" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G18" t="s">
-        <v>251</v>
+        <v>531</v>
       </c>
       <c r="H18" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="B19" t="s">
-        <v>373</v>
+        <v>213</v>
       </c>
       <c r="C19" t="s">
-        <v>435</v>
+        <v>462</v>
       </c>
       <c r="D19" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E19" t="s">
-        <v>435</v>
+        <v>462</v>
       </c>
       <c r="F19" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G19" t="s">
-        <v>500</v>
+        <v>532</v>
       </c>
       <c r="H19" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>401</v>
       </c>
       <c r="C20" t="s">
-        <v>194</v>
+        <v>463</v>
       </c>
       <c r="D20" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="E20" t="s">
-        <v>194</v>
+        <v>463</v>
       </c>
       <c r="F20" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G20" t="s">
-        <v>501</v>
+        <v>271</v>
       </c>
       <c r="H20" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>402</v>
       </c>
       <c r="C21" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="D21" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="E21" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="F21" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G21" t="s">
-        <v>502</v>
+        <v>533</v>
       </c>
       <c r="H21" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="B22" t="s">
-        <v>374</v>
+        <v>115</v>
       </c>
       <c r="C22" t="s">
-        <v>436</v>
+        <v>464</v>
       </c>
       <c r="D22" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="E22" t="s">
-        <v>436</v>
+        <v>464</v>
       </c>
       <c r="F22" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G22" t="s">
-        <v>491</v>
+        <v>272</v>
       </c>
       <c r="H22" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="B23" t="s">
-        <v>375</v>
+        <v>107</v>
       </c>
       <c r="C23" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="D23" t="s">
-        <v>228</v>
+        <v>520</v>
       </c>
       <c r="E23" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="F23" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G23" t="s">
-        <v>491</v>
+        <v>272</v>
       </c>
       <c r="H23" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="B24" t="s">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="C24" t="s">
-        <v>438</v>
+        <v>466</v>
       </c>
       <c r="D24" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E24" t="s">
-        <v>438</v>
+        <v>466</v>
       </c>
       <c r="F24" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G24" t="s">
-        <v>503</v>
+        <v>525</v>
       </c>
       <c r="H24" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="B25" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="C25" t="s">
-        <v>439</v>
+        <v>467</v>
       </c>
       <c r="D25" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E25" t="s">
-        <v>439</v>
+        <v>467</v>
       </c>
       <c r="F25" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G25" t="s">
-        <v>251</v>
+        <v>534</v>
       </c>
       <c r="H25" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="B26" t="s">
-        <v>378</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s">
-        <v>440</v>
+        <v>215</v>
       </c>
       <c r="D26" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E26" t="s">
-        <v>440</v>
+        <v>215</v>
       </c>
       <c r="F26" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G26" t="s">
-        <v>251</v>
+        <v>535</v>
       </c>
       <c r="H26" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="B27" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
       <c r="C27" t="s">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="D27" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="E27" t="s">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="F27" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G27" t="s">
-        <v>251</v>
+        <v>525</v>
       </c>
       <c r="H27" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="B28" t="s">
-        <v>380</v>
+        <v>170</v>
       </c>
       <c r="C28" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="D28" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="E28" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="F28" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G28" t="s">
-        <v>264</v>
+        <v>536</v>
       </c>
       <c r="H28" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="B29" t="s">
-        <v>381</v>
+        <v>139</v>
       </c>
       <c r="C29" t="s">
-        <v>443</v>
+        <v>150</v>
       </c>
       <c r="D29" t="s">
-        <v>228</v>
+        <v>521</v>
       </c>
       <c r="E29" t="s">
-        <v>443</v>
+        <v>150</v>
       </c>
       <c r="F29" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G29" t="s">
-        <v>251</v>
+        <v>537</v>
       </c>
       <c r="H29" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="B30" t="s">
-        <v>372</v>
+        <v>406</v>
       </c>
       <c r="C30" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="D30" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E30" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="F30" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G30" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H30" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="B31" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="C31" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="D31" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E31" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="F31" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G31" t="s">
-        <v>504</v>
+        <v>271</v>
       </c>
       <c r="H31" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="B32" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="C32" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="D32" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="E32" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="F32" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G32" t="s">
-        <v>251</v>
+        <v>538</v>
       </c>
       <c r="H32" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="B33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C33" t="s">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="D33" t="s">
-        <v>228</v>
+        <v>522</v>
       </c>
       <c r="E33" t="s">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="F33" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G33" t="s">
-        <v>505</v>
+        <v>284</v>
       </c>
       <c r="H33" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="B34" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="C34" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="D34" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E34" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="F34" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G34" t="s">
-        <v>506</v>
+        <v>271</v>
       </c>
       <c r="H34" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
+        <v>410</v>
       </c>
       <c r="C35" t="s">
-        <v>182</v>
+        <v>474</v>
       </c>
       <c r="D35" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E35" t="s">
-        <v>182</v>
+        <v>474</v>
       </c>
       <c r="F35" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G35" t="s">
-        <v>251</v>
+        <v>539</v>
       </c>
       <c r="H35" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="B36" t="s">
-        <v>385</v>
+        <v>411</v>
       </c>
       <c r="C36" t="s">
-        <v>448</v>
+        <v>475</v>
       </c>
       <c r="D36" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E36" t="s">
-        <v>448</v>
+        <v>475</v>
       </c>
       <c r="F36" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G36" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H36" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="B37" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="C37" t="s">
-        <v>449</v>
+        <v>476</v>
       </c>
       <c r="D37" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E37" t="s">
-        <v>449</v>
+        <v>476</v>
       </c>
       <c r="F37" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G37" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H37" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="B38" t="s">
-        <v>387</v>
+        <v>153</v>
       </c>
       <c r="C38" t="s">
-        <v>450</v>
+        <v>224</v>
       </c>
       <c r="D38" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E38" t="s">
-        <v>450</v>
+        <v>224</v>
       </c>
       <c r="F38" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G38" t="s">
-        <v>251</v>
+        <v>540</v>
       </c>
       <c r="H38" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="B39" t="s">
-        <v>388</v>
+        <v>121</v>
       </c>
       <c r="C39" t="s">
-        <v>451</v>
+        <v>186</v>
       </c>
       <c r="D39" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E39" t="s">
-        <v>451</v>
+        <v>186</v>
       </c>
       <c r="F39" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G39" t="s">
-        <v>491</v>
+        <v>271</v>
       </c>
       <c r="H39" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="B40" t="s">
-        <v>389</v>
+        <v>166</v>
       </c>
       <c r="C40" t="s">
-        <v>452</v>
+        <v>240</v>
       </c>
       <c r="D40" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E40" t="s">
-        <v>452</v>
+        <v>240</v>
       </c>
       <c r="F40" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G40" t="s">
-        <v>255</v>
+        <v>541</v>
       </c>
       <c r="H40" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="B41" t="s">
-        <v>380</v>
+        <v>148</v>
       </c>
       <c r="C41" t="s">
-        <v>442</v>
+        <v>216</v>
       </c>
       <c r="D41" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E41" t="s">
-        <v>442</v>
+        <v>216</v>
       </c>
       <c r="F41" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G41" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H41" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="B42" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
       <c r="C42" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="D42" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E42" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="F42" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G42" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H42" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="B43" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="C43" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="D43" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E43" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="F43" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G43" t="s">
-        <v>507</v>
+        <v>271</v>
       </c>
       <c r="H43" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="B44" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="C44" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="D44" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E44" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="F44" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G44" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="H44" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="B45" t="s">
-        <v>106</v>
+        <v>416</v>
       </c>
       <c r="C45" t="s">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D45" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="E45" t="s">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="F45" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G45" t="s">
-        <v>508</v>
+        <v>271</v>
       </c>
       <c r="H45" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>417</v>
       </c>
       <c r="C46" t="s">
-        <v>189</v>
+        <v>481</v>
       </c>
       <c r="D46" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E46" t="s">
-        <v>189</v>
+        <v>481</v>
       </c>
       <c r="F46" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G46" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="H46" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="B47" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="C47" t="s">
-        <v>456</v>
+        <v>482</v>
       </c>
       <c r="D47" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E47" t="s">
-        <v>456</v>
+        <v>482</v>
       </c>
       <c r="F47" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G47" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H47" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="B48" t="s">
-        <v>394</v>
+        <v>143</v>
       </c>
       <c r="C48" t="s">
-        <v>457</v>
+        <v>483</v>
       </c>
       <c r="D48" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="E48" t="s">
-        <v>457</v>
+        <v>483</v>
       </c>
       <c r="F48" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G48" t="s">
-        <v>509</v>
+        <v>542</v>
       </c>
       <c r="H48" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="B49" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="C49" t="s">
-        <v>458</v>
+        <v>484</v>
       </c>
       <c r="D49" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E49" t="s">
-        <v>458</v>
+        <v>484</v>
       </c>
       <c r="F49" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G49" t="s">
-        <v>510</v>
+        <v>271</v>
       </c>
       <c r="H49" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="B50" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="C50" t="s">
-        <v>459</v>
+        <v>485</v>
       </c>
       <c r="D50" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E50" t="s">
-        <v>459</v>
+        <v>485</v>
       </c>
       <c r="F50" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G50" t="s">
-        <v>251</v>
+        <v>525</v>
       </c>
       <c r="H50" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="B51" t="s">
-        <v>397</v>
+        <v>133</v>
       </c>
       <c r="C51" t="s">
-        <v>460</v>
+        <v>197</v>
       </c>
       <c r="D51" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E51" t="s">
-        <v>460</v>
+        <v>197</v>
       </c>
       <c r="F51" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G51" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="H51" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="B52" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="C52" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="D52" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E52" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="F52" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G52" t="s">
-        <v>499</v>
+        <v>543</v>
       </c>
       <c r="H52" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="B53" t="s">
-        <v>160</v>
+        <v>422</v>
       </c>
       <c r="C53" t="s">
-        <v>223</v>
+        <v>487</v>
       </c>
       <c r="D53" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E53" t="s">
-        <v>223</v>
+        <v>487</v>
       </c>
       <c r="F53" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G53" t="s">
-        <v>251</v>
+        <v>544</v>
       </c>
       <c r="H53" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="B54" t="s">
-        <v>385</v>
+        <v>423</v>
       </c>
       <c r="C54" t="s">
-        <v>448</v>
+        <v>113</v>
       </c>
       <c r="D54" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E54" t="s">
-        <v>448</v>
+        <v>113</v>
       </c>
       <c r="F54" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G54" t="s">
-        <v>262</v>
+        <v>542</v>
       </c>
       <c r="H54" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="B55" t="s">
-        <v>399</v>
+        <v>230</v>
       </c>
       <c r="C55" t="s">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="D55" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E55" t="s">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="F55" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G55" t="s">
-        <v>251</v>
+        <v>545</v>
       </c>
       <c r="H55" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="B56" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="C56" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="D56" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E56" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="F56" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G56" t="s">
-        <v>511</v>
+        <v>546</v>
       </c>
       <c r="H56" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="B57" t="s">
-        <v>401</v>
+        <v>109</v>
       </c>
       <c r="C57" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="D57" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E57" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="F57" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G57" t="s">
-        <v>512</v>
+        <v>284</v>
       </c>
       <c r="H57" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="B58" t="s">
-        <v>402</v>
+        <v>425</v>
       </c>
       <c r="C58" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="D58" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="E58" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="F58" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G58" t="s">
-        <v>251</v>
+        <v>533</v>
       </c>
       <c r="H58" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="B59" t="s">
-        <v>383</v>
+        <v>169</v>
       </c>
       <c r="C59" t="s">
-        <v>446</v>
+        <v>244</v>
       </c>
       <c r="D59" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E59" t="s">
-        <v>446</v>
+        <v>244</v>
       </c>
       <c r="F59" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G59" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H59" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="B60" t="s">
-        <v>403</v>
+        <v>154</v>
       </c>
       <c r="C60" t="s">
-        <v>466</v>
+        <v>225</v>
       </c>
       <c r="D60" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E60" t="s">
-        <v>466</v>
+        <v>225</v>
       </c>
       <c r="F60" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G60" t="s">
-        <v>513</v>
+        <v>271</v>
       </c>
       <c r="H60" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="B61" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="C61" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
       <c r="D61" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E61" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
       <c r="F61" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G61" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="H61" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="B62" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="C62" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="D62" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E62" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="F62" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G62" t="s">
-        <v>514</v>
+        <v>271</v>
       </c>
       <c r="H62" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="B63" t="s">
-        <v>158</v>
+        <v>426</v>
       </c>
       <c r="C63" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="D63" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="E63" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="F63" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G63" t="s">
-        <v>515</v>
+        <v>271</v>
       </c>
       <c r="H63" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="B64" t="s">
-        <v>405</v>
+        <v>427</v>
       </c>
       <c r="C64" t="s">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="D64" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E64" t="s">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="F64" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G64" t="s">
-        <v>516</v>
+        <v>271</v>
       </c>
       <c r="H64" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="B65" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="C65" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="D65" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E65" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="F65" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G65" t="s">
-        <v>517</v>
+        <v>283</v>
       </c>
       <c r="H65" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="B66" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="C66" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
       <c r="D66" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E66" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
       <c r="F66" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G66" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="H66" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="B67" t="s">
-        <v>408</v>
+        <v>429</v>
       </c>
       <c r="C67" t="s">
-        <v>472</v>
+        <v>495</v>
       </c>
       <c r="D67" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E67" t="s">
-        <v>472</v>
+        <v>495</v>
       </c>
       <c r="F67" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G67" t="s">
-        <v>516</v>
+        <v>547</v>
       </c>
       <c r="H67" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="B68" t="s">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="C68" t="s">
-        <v>473</v>
+        <v>496</v>
       </c>
       <c r="D68" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E68" t="s">
-        <v>473</v>
+        <v>496</v>
       </c>
       <c r="F68" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G68" t="s">
-        <v>518</v>
+        <v>271</v>
       </c>
       <c r="H68" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="B69" t="s">
-        <v>158</v>
+        <v>431</v>
       </c>
       <c r="C69" t="s">
-        <v>221</v>
+        <v>497</v>
       </c>
       <c r="D69" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E69" t="s">
-        <v>221</v>
+        <v>497</v>
       </c>
       <c r="F69" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G69" t="s">
-        <v>518</v>
+        <v>548</v>
       </c>
       <c r="H69" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>432</v>
       </c>
       <c r="C70" t="s">
-        <v>194</v>
+        <v>498</v>
       </c>
       <c r="D70" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E70" t="s">
-        <v>194</v>
+        <v>498</v>
       </c>
       <c r="F70" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G70" t="s">
-        <v>519</v>
+        <v>549</v>
       </c>
       <c r="H70" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="B71" t="s">
-        <v>116</v>
+        <v>433</v>
       </c>
       <c r="C71" t="s">
-        <v>173</v>
+        <v>499</v>
       </c>
       <c r="D71" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E71" t="s">
-        <v>173</v>
+        <v>499</v>
       </c>
       <c r="F71" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G71" t="s">
-        <v>520</v>
+        <v>271</v>
       </c>
       <c r="H71" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="B72" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="C72" t="s">
-        <v>474</v>
+        <v>500</v>
       </c>
       <c r="D72" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E72" t="s">
-        <v>474</v>
+        <v>500</v>
       </c>
       <c r="F72" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G72" t="s">
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="H72" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="B73" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="C73" t="s">
-        <v>475</v>
+        <v>501</v>
       </c>
       <c r="D73" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E73" t="s">
-        <v>475</v>
+        <v>501</v>
       </c>
       <c r="F73" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G73" t="s">
-        <v>507</v>
+        <v>551</v>
       </c>
       <c r="H73" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="B74" t="s">
-        <v>142</v>
+        <v>436</v>
       </c>
       <c r="C74" t="s">
-        <v>199</v>
+        <v>502</v>
       </c>
       <c r="D74" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E74" t="s">
-        <v>199</v>
+        <v>502</v>
       </c>
       <c r="F74" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G74" t="s">
-        <v>251</v>
+        <v>552</v>
       </c>
       <c r="H74" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="B75" t="s">
-        <v>110</v>
+        <v>437</v>
       </c>
       <c r="C75" t="s">
-        <v>202</v>
+        <v>503</v>
       </c>
       <c r="D75" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="E75" t="s">
-        <v>202</v>
+        <v>503</v>
       </c>
       <c r="F75" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G75" t="s">
-        <v>519</v>
+        <v>553</v>
       </c>
       <c r="H75" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="B76" t="s">
-        <v>412</v>
+        <v>438</v>
       </c>
       <c r="C76" t="s">
-        <v>476</v>
+        <v>504</v>
       </c>
       <c r="D76" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E76" t="s">
-        <v>476</v>
+        <v>504</v>
       </c>
       <c r="F76" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G76" t="s">
-        <v>251</v>
+        <v>542</v>
       </c>
       <c r="H76" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="B77" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="C77" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
       <c r="D77" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E77" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
       <c r="F77" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G77" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H77" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="B78" t="s">
-        <v>125</v>
+        <v>408</v>
       </c>
       <c r="C78" t="s">
-        <v>181</v>
+        <v>506</v>
       </c>
       <c r="D78" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E78" t="s">
-        <v>181</v>
+        <v>506</v>
       </c>
       <c r="F78" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G78" t="s">
-        <v>250</v>
+        <v>542</v>
       </c>
       <c r="H78" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="B79" t="s">
-        <v>162</v>
+        <v>435</v>
       </c>
       <c r="C79" t="s">
-        <v>225</v>
+        <v>501</v>
       </c>
       <c r="D79" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E79" t="s">
-        <v>225</v>
+        <v>501</v>
       </c>
       <c r="F79" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G79" t="s">
-        <v>246</v>
+        <v>542</v>
       </c>
       <c r="H79" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="B80" t="s">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="C80" t="s">
-        <v>478</v>
+        <v>507</v>
       </c>
       <c r="D80" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E80" t="s">
-        <v>478</v>
+        <v>507</v>
       </c>
       <c r="F80" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G80" t="s">
-        <v>522</v>
+        <v>552</v>
       </c>
       <c r="H80" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="B81" t="s">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="C81" t="s">
-        <v>479</v>
+        <v>508</v>
       </c>
       <c r="D81" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E81" t="s">
-        <v>479</v>
+        <v>508</v>
       </c>
       <c r="F81" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G81" t="s">
-        <v>251</v>
+        <v>554</v>
       </c>
       <c r="H81" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="B82" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C82" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D82" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E82" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F82" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G82" t="s">
-        <v>249</v>
+        <v>555</v>
       </c>
       <c r="H82" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="B83" t="s">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="C83" t="s">
-        <v>480</v>
+        <v>509</v>
       </c>
       <c r="D83" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E83" t="s">
-        <v>480</v>
+        <v>509</v>
       </c>
       <c r="F83" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G83" t="s">
-        <v>491</v>
+        <v>556</v>
       </c>
       <c r="H83" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="B84" t="s">
-        <v>137</v>
+        <v>443</v>
       </c>
       <c r="C84" t="s">
-        <v>194</v>
+        <v>510</v>
       </c>
       <c r="D84" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E84" t="s">
-        <v>194</v>
+        <v>510</v>
       </c>
       <c r="F84" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G84" t="s">
-        <v>523</v>
+        <v>544</v>
       </c>
       <c r="H84" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="B85" t="s">
-        <v>380</v>
+        <v>167</v>
       </c>
       <c r="C85" t="s">
-        <v>442</v>
+        <v>242</v>
       </c>
       <c r="D85" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E85" t="s">
-        <v>442</v>
+        <v>242</v>
       </c>
       <c r="F85" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G85" t="s">
-        <v>524</v>
+        <v>270</v>
       </c>
       <c r="H85" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="B86" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="C86" t="s">
-        <v>481</v>
+        <v>511</v>
       </c>
       <c r="D86" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E86" t="s">
-        <v>481</v>
+        <v>511</v>
       </c>
       <c r="F86" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G86" t="s">
-        <v>251</v>
+        <v>557</v>
       </c>
       <c r="H86" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="B87" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="C87" t="s">
-        <v>482</v>
+        <v>512</v>
       </c>
       <c r="D87" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E87" t="s">
-        <v>482</v>
+        <v>512</v>
       </c>
       <c r="F87" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G87" t="s">
-        <v>518</v>
+        <v>554</v>
       </c>
       <c r="H87" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="B88" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="C88" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="D88" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E88" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="F88" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G88" t="s">
-        <v>251</v>
+        <v>558</v>
       </c>
       <c r="H88" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="B89" t="s">
-        <v>419</v>
+        <v>133</v>
       </c>
       <c r="C89" t="s">
-        <v>483</v>
+        <v>513</v>
       </c>
       <c r="D89" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="E89" t="s">
-        <v>483</v>
+        <v>513</v>
       </c>
       <c r="F89" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G89" t="s">
-        <v>525</v>
+        <v>272</v>
       </c>
       <c r="H89" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="B90" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="C90" t="s">
-        <v>484</v>
+        <v>514</v>
       </c>
       <c r="D90" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E90" t="s">
-        <v>484</v>
+        <v>514</v>
       </c>
       <c r="F90" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G90" t="s">
-        <v>507</v>
+        <v>271</v>
       </c>
       <c r="H90" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="B91" t="s">
-        <v>406</v>
+        <v>446</v>
       </c>
       <c r="C91" t="s">
-        <v>470</v>
+        <v>515</v>
       </c>
       <c r="D91" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E91" t="s">
-        <v>470</v>
+        <v>515</v>
       </c>
       <c r="F91" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G91" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="H91" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="B92" t="s">
-        <v>421</v>
+        <v>148</v>
       </c>
       <c r="C92" t="s">
-        <v>485</v>
+        <v>216</v>
       </c>
       <c r="D92" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E92" t="s">
-        <v>485</v>
+        <v>216</v>
       </c>
       <c r="F92" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G92" t="s">
-        <v>526</v>
+        <v>559</v>
       </c>
       <c r="H92" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="B93" t="s">
-        <v>422</v>
+        <v>143</v>
       </c>
       <c r="C93" t="s">
-        <v>486</v>
+        <v>207</v>
       </c>
       <c r="D93" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E93" t="s">
-        <v>486</v>
+        <v>207</v>
       </c>
       <c r="F93" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G93" t="s">
-        <v>491</v>
+        <v>271</v>
       </c>
       <c r="H93" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="B94" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="C94" t="s">
-        <v>201</v>
+        <v>134</v>
       </c>
       <c r="D94" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E94" t="s">
-        <v>201</v>
+        <v>134</v>
       </c>
       <c r="F94" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="G94" t="s">
-        <v>251</v>
+        <v>542</v>
       </c>
       <c r="H94" t="s">
-        <v>527</v>
+        <v>563</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
+        <v>383</v>
+      </c>
+      <c r="B95" t="s">
+        <v>116</v>
+      </c>
+      <c r="C95" t="s">
+        <v>226</v>
+      </c>
+      <c r="D95" t="s">
+        <v>249</v>
+      </c>
+      <c r="E95" t="s">
+        <v>226</v>
+      </c>
+      <c r="F95" t="s">
+        <v>523</v>
+      </c>
+      <c r="G95" t="s">
+        <v>271</v>
+      </c>
+      <c r="H95" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>384</v>
+      </c>
+      <c r="B96" t="s">
+        <v>149</v>
+      </c>
+      <c r="C96" t="s">
+        <v>217</v>
+      </c>
+      <c r="D96" t="s">
+        <v>249</v>
+      </c>
+      <c r="E96" t="s">
+        <v>217</v>
+      </c>
+      <c r="F96" t="s">
+        <v>523</v>
+      </c>
+      <c r="G96" t="s">
+        <v>560</v>
+      </c>
+      <c r="H96" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
+        <v>385</v>
+      </c>
+      <c r="B97" t="s">
+        <v>448</v>
+      </c>
+      <c r="C97" t="s">
+        <v>516</v>
+      </c>
+      <c r="D97" t="s">
+        <v>249</v>
+      </c>
+      <c r="E97" t="s">
+        <v>516</v>
+      </c>
+      <c r="F97" t="s">
+        <v>523</v>
+      </c>
+      <c r="G97" t="s">
+        <v>544</v>
+      </c>
+      <c r="H97" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" t="s">
+        <v>386</v>
+      </c>
+      <c r="B98" t="s">
+        <v>449</v>
+      </c>
+      <c r="C98" t="s">
+        <v>517</v>
+      </c>
+      <c r="D98" t="s">
+        <v>249</v>
+      </c>
+      <c r="E98" t="s">
+        <v>517</v>
+      </c>
+      <c r="F98" t="s">
+        <v>523</v>
+      </c>
+      <c r="G98" t="s">
+        <v>280</v>
+      </c>
+      <c r="H98" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>387</v>
+      </c>
+      <c r="B99" t="s">
+        <v>392</v>
+      </c>
+      <c r="C99" t="s">
+        <v>211</v>
+      </c>
+      <c r="D99" t="s">
+        <v>249</v>
+      </c>
+      <c r="E99" t="s">
+        <v>211</v>
+      </c>
+      <c r="F99" t="s">
+        <v>523</v>
+      </c>
+      <c r="G99" t="s">
+        <v>544</v>
+      </c>
+      <c r="H99" t="s">
+        <v>563</v>
       </c>
     </row>
   </sheetData>

--- a/BigBasket/BigBasket_products.xlsx
+++ b/BigBasket/BigBasket_products.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="571">
   <si>
     <t>product_name</t>
   </si>
@@ -341,1249 +341,1264 @@
     <t>₹51</t>
   </si>
   <si>
+    <t>₹24</t>
+  </si>
+  <si>
+    <t>₹22</t>
+  </si>
+  <si>
+    <t>₹54</t>
+  </si>
+  <si>
+    <t>₹73</t>
+  </si>
+  <si>
+    <t>₹344</t>
+  </si>
+  <si>
+    <t>₹15</t>
+  </si>
+  <si>
+    <t>₹44</t>
+  </si>
+  <si>
+    <t>₹40</t>
+  </si>
+  <si>
+    <t>₹55</t>
+  </si>
+  <si>
+    <t>₹150</t>
+  </si>
+  <si>
+    <t>₹91</t>
+  </si>
+  <si>
+    <t>₹62</t>
+  </si>
+  <si>
     <t>₹27</t>
   </si>
   <si>
+    <t>₹48</t>
+  </si>
+  <si>
+    <t>₹139</t>
+  </si>
+  <si>
+    <t>₹46</t>
+  </si>
+  <si>
+    <t>₹58</t>
+  </si>
+  <si>
+    <t>₹68</t>
+  </si>
+  <si>
+    <t>₹74</t>
+  </si>
+  <si>
+    <t>₹142</t>
+  </si>
+  <si>
+    <t>₹25</t>
+  </si>
+  <si>
+    <t>₹166</t>
+  </si>
+  <si>
+    <t>₹269</t>
+  </si>
+  <si>
+    <t>₹317</t>
+  </si>
+  <si>
+    <t>₹133</t>
+  </si>
+  <si>
+    <t>₹81</t>
+  </si>
+  <si>
+    <t>₹180</t>
+  </si>
+  <si>
+    <t>₹18</t>
+  </si>
+  <si>
+    <t>₹172</t>
+  </si>
+  <si>
+    <t>₹103</t>
+  </si>
+  <si>
+    <t>₹153</t>
+  </si>
+  <si>
+    <t>₹100</t>
+  </si>
+  <si>
+    <t>₹202</t>
+  </si>
+  <si>
+    <t>₹69</t>
+  </si>
+  <si>
+    <t>₹13.16</t>
+  </si>
+  <si>
+    <t>₹70</t>
+  </si>
+  <si>
+    <t>₹144</t>
+  </si>
+  <si>
+    <t>₹165</t>
+  </si>
+  <si>
+    <t>₹53</t>
+  </si>
+  <si>
+    <t>₹120</t>
+  </si>
+  <si>
+    <t>₹47</t>
+  </si>
+  <si>
+    <t>₹106</t>
+  </si>
+  <si>
+    <t>₹318</t>
+  </si>
+  <si>
+    <t>₹87</t>
+  </si>
+  <si>
+    <t>₹31</t>
+  </si>
+  <si>
+    <t>₹128</t>
+  </si>
+  <si>
+    <t>₹49.32</t>
+  </si>
+  <si>
+    <t>₹29</t>
+  </si>
+  <si>
+    <t>₹64</t>
+  </si>
+  <si>
+    <t>₹50</t>
+  </si>
+  <si>
+    <t>₹21</t>
+  </si>
+  <si>
+    <t>₹14</t>
+  </si>
+  <si>
+    <t>₹90</t>
+  </si>
+  <si>
+    <t>₹107</t>
+  </si>
+  <si>
+    <t>₹32</t>
+  </si>
+  <si>
+    <t>₹57</t>
+  </si>
+  <si>
+    <t>₹98</t>
+  </si>
+  <si>
+    <t>₹131</t>
+  </si>
+  <si>
+    <t>₹173</t>
+  </si>
+  <si>
+    <t>₹33</t>
+  </si>
+  <si>
+    <t>₹56</t>
+  </si>
+  <si>
+    <t>₹28.47</t>
+  </si>
+  <si>
+    <t>₹12</t>
+  </si>
+  <si>
+    <t>₹15.6</t>
+  </si>
+  <si>
+    <t>₹8</t>
+  </si>
+  <si>
+    <t>₹89.5</t>
+  </si>
+  <si>
+    <t>₹6</t>
+  </si>
+  <si>
+    <t>₹19.5</t>
+  </si>
+  <si>
+    <t>₹26</t>
+  </si>
+  <si>
+    <t>₹97.5</t>
+  </si>
+  <si>
+    <t>₹66.43</t>
+  </si>
+  <si>
+    <t>₹42</t>
+  </si>
+  <si>
+    <t>₹101.47</t>
+  </si>
+  <si>
+    <t>₹37.7</t>
+  </si>
+  <si>
+    <t>₹48.1</t>
+  </si>
+  <si>
+    <t>₹103.66</t>
+  </si>
+  <si>
+    <t>₹18.25</t>
+  </si>
+  <si>
+    <t>₹121.18</t>
+  </si>
+  <si>
+    <t>₹49.64</t>
+  </si>
+  <si>
+    <t>₹196.37</t>
+  </si>
+  <si>
+    <t>₹231.41</t>
+  </si>
+  <si>
+    <t>₹97.09</t>
+  </si>
+  <si>
+    <t>₹33.58</t>
+  </si>
+  <si>
+    <t>₹59.13</t>
+  </si>
+  <si>
+    <t>₹39.42</t>
+  </si>
+  <si>
+    <t>₹131.4</t>
+  </si>
+  <si>
+    <t>₹13.14</t>
+  </si>
+  <si>
+    <t>₹125.56</t>
+  </si>
+  <si>
+    <t>₹75.19</t>
+  </si>
+  <si>
+    <t>₹37.23</t>
+  </si>
+  <si>
+    <t>₹111.69</t>
+  </si>
+  <si>
+    <t>₹147.46</t>
+  </si>
+  <si>
+    <t>₹45.26</t>
+  </si>
+  <si>
+    <t>₹50.37</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>₹51.1</t>
+  </si>
+  <si>
+    <t>₹89</t>
+  </si>
+  <si>
+    <t>₹120.45</t>
+  </si>
+  <si>
+    <t>₹38.69</t>
+  </si>
+  <si>
+    <t>₹87.6</t>
+  </si>
+  <si>
+    <t>₹34.31</t>
+  </si>
+  <si>
+    <t>₹77.38</t>
+  </si>
+  <si>
+    <t>₹53.29</t>
+  </si>
+  <si>
+    <t>₹232.14</t>
+  </si>
+  <si>
+    <t>₹96</t>
+  </si>
+  <si>
+    <t>₹35.04</t>
+  </si>
+  <si>
+    <t>₹63.51</t>
+  </si>
+  <si>
+    <t>₹105.12</t>
+  </si>
+  <si>
+    <t>₹22.63</t>
+  </si>
+  <si>
+    <t>₹93.44</t>
+  </si>
+  <si>
+    <t>₹36</t>
+  </si>
+  <si>
+    <t>₹42.34</t>
+  </si>
+  <si>
+    <t>₹21.17</t>
+  </si>
+  <si>
+    <t>₹46.72</t>
+  </si>
+  <si>
+    <t>₹29.2</t>
+  </si>
+  <si>
+    <t>₹36.5</t>
+  </si>
+  <si>
+    <t>₹15.33</t>
+  </si>
+  <si>
+    <t>₹10.22</t>
+  </si>
+  <si>
+    <t>₹65.7</t>
+  </si>
+  <si>
+    <t>₹78.11</t>
+  </si>
+  <si>
+    <t>₹23.36</t>
+  </si>
+  <si>
+    <t>₹41.61</t>
+  </si>
+  <si>
+    <t>₹30.55</t>
+  </si>
+  <si>
+    <t>₹71.54</t>
+  </si>
+  <si>
+    <t>₹95.63</t>
+  </si>
+  <si>
+    <t>₹40.15</t>
+  </si>
+  <si>
+    <t>₹126.29</t>
+  </si>
+  <si>
+    <t>₹24.09</t>
+  </si>
+  <si>
+    <t>39% OFF</t>
+  </si>
+  <si>
+    <t>27% OFF</t>
+  </si>
+  <si>
+    <t>38% OFF</t>
+  </si>
+  <si>
+    <t>40% OFF</t>
+  </si>
+  <si>
+    <t>35% OFF</t>
+  </si>
+  <si>
+    <t>64% OFF</t>
+  </si>
+  <si>
+    <t>59% OFF</t>
+  </si>
+  <si>
+    <t>45% OFF</t>
+  </si>
+  <si>
+    <t>74% OFF</t>
+  </si>
+  <si>
+    <t>60% OFF</t>
+  </si>
+  <si>
+    <t>56% OFF</t>
+  </si>
+  <si>
+    <t>62% OFF</t>
+  </si>
+  <si>
+    <t>32% OFF</t>
+  </si>
+  <si>
+    <t>44% OFF</t>
+  </si>
+  <si>
+    <t>48% OFF</t>
+  </si>
+  <si>
+    <t>57% OFF</t>
+  </si>
+  <si>
+    <t>41% OFF</t>
+  </si>
+  <si>
+    <t>67% OFF</t>
+  </si>
+  <si>
+    <t>31% OFF</t>
+  </si>
+  <si>
+    <t>Fresh Vegetables</t>
+  </si>
+  <si>
+    <t>2 kg</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx 500-1kg)</t>
+  </si>
+  <si>
+    <t>5 kg - Multipack</t>
+  </si>
+  <si>
+    <t>250 g</t>
+  </si>
+  <si>
+    <t>1 kg</t>
+  </si>
+  <si>
+    <t>500 g</t>
+  </si>
+  <si>
+    <t>1 pc - (approx. 400 to 600 g)</t>
+  </si>
+  <si>
+    <t>1 pack - (Approx. 180g - 200 g)</t>
+  </si>
+  <si>
+    <t>1 pc - (approx. 500 g to 800 g)</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 500 g - 800 g)</t>
+  </si>
+  <si>
+    <t>2 pcs</t>
+  </si>
+  <si>
+    <t>5 kg</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 100 g)</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 250g-500g)</t>
+  </si>
+  <si>
+    <t>100 g</t>
+  </si>
+  <si>
+    <t>350 g (2 pieces)</t>
+  </si>
+  <si>
+    <t>1 pc - Approx. 400 to 600 g</t>
+  </si>
+  <si>
+    <t>1 Kg</t>
+  </si>
+  <si>
+    <t>1 pc</t>
+  </si>
+  <si>
+    <t>1 pc (Approx 500-1000 g)</t>
+  </si>
+  <si>
+    <t>1 pc (approx. 300-1.3 Kg)</t>
+  </si>
+  <si>
+    <t>2023-09-28 10:02:18</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:23:50</t>
+  </si>
+  <si>
+    <t>2023-10-04 08:56:03</t>
+  </si>
+  <si>
+    <t>2023-10-04 08:56:04</t>
+  </si>
+  <si>
+    <t>Kesar Mango</t>
+  </si>
+  <si>
+    <t>Apple - Red Delicious / Washington, Regular</t>
+  </si>
+  <si>
+    <t>Apple - Red Delicious / Washington, Premium</t>
+  </si>
+  <si>
+    <t>Himayath Mango</t>
+  </si>
+  <si>
+    <t>Muskmelon -  Netted Medium</t>
+  </si>
+  <si>
+    <t>Raw Mango (Loose)</t>
+  </si>
+  <si>
+    <t>Banana - Robusta</t>
+  </si>
+  <si>
+    <t>Apple - Shimla, Regular</t>
+  </si>
+  <si>
+    <t>Pomegranate - Regular (Loose)</t>
+  </si>
+  <si>
+    <t>Baby Apple Shimla</t>
+  </si>
+  <si>
+    <t>Banana - Yelakki</t>
+  </si>
+  <si>
+    <t>Coconut - Medium</t>
+  </si>
+  <si>
+    <t>Papaya</t>
+  </si>
+  <si>
+    <t>Mini Orange Imported (Loose)</t>
+  </si>
+  <si>
+    <t>Pomegranate (Loose)</t>
+  </si>
+  <si>
+    <t>Tender Coconut</t>
+  </si>
+  <si>
+    <t>Guava - Thai (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala Economy</t>
+  </si>
+  <si>
+    <t>Watermelon -  Medium</t>
+  </si>
+  <si>
+    <t>Mosambi - Economy (Loose)</t>
+  </si>
+  <si>
+    <t>Kiwi - Green</t>
+  </si>
+  <si>
+    <t>Banana - Nendran</t>
+  </si>
+  <si>
+    <t>Guava (Loose)</t>
+  </si>
+  <si>
+    <t>Pear - Green, Imported</t>
+  </si>
+  <si>
+    <t>Blueberry</t>
+  </si>
+  <si>
+    <t>Muskmelon -  Netted Small</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala, Regular</t>
+  </si>
+  <si>
+    <t>Papaya - Small</t>
+  </si>
+  <si>
+    <t>Dragon Fruit (Loose)</t>
+  </si>
+  <si>
+    <t>Grapes - Bangalore Blue</t>
+  </si>
+  <si>
+    <t>Avocado (Loose)</t>
+  </si>
+  <si>
+    <t>Orange - Nagpur, Regular (Loose)</t>
+  </si>
+  <si>
+    <t>Avocado - Imported, Medium (Loose)</t>
+  </si>
+  <si>
+    <t>Mosambi - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala, Premium</t>
+  </si>
+  <si>
+    <t>Banana - Yelakki, Organically Grown</t>
+  </si>
+  <si>
+    <t>Banana - Raw Green (Loose)</t>
+  </si>
+  <si>
+    <t>Coconut - Large</t>
+  </si>
+  <si>
+    <t>Raw Mango - Rich in Vitamin C (Loose)</t>
+  </si>
+  <si>
+    <t>Pineapple</t>
+  </si>
+  <si>
+    <t>Sapota</t>
+  </si>
+  <si>
+    <t>Mango - Neelam</t>
+  </si>
+  <si>
+    <t>Fresh Figs</t>
+  </si>
+  <si>
+    <t>Langra Mango</t>
+  </si>
+  <si>
+    <t>Pear - Naspathi, Indian</t>
+  </si>
+  <si>
+    <t>Pear Beauty</t>
+  </si>
+  <si>
+    <t>Banana - Red</t>
+  </si>
+  <si>
+    <t>Pomegranate - Peeled</t>
+  </si>
+  <si>
+    <t>Mallika Mango</t>
+  </si>
+  <si>
+    <t>Apple - Green, Premium</t>
+  </si>
+  <si>
+    <t>Baby Banana - Robusta</t>
+  </si>
+  <si>
+    <t>Orange - Imported (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Pink Lady</t>
+  </si>
+  <si>
+    <t>Sugarcane - Diced</t>
+  </si>
+  <si>
+    <t>Coconut with Husk - Pooja Coconut</t>
+  </si>
+  <si>
+    <t>Dates - Kimia, with Seed</t>
+  </si>
+  <si>
+    <t>Wood Apple - Kothbel (Loose)</t>
+  </si>
+  <si>
+    <t>Zespri Kiwi - Sun Gold</t>
+  </si>
+  <si>
+    <t>Ber - Apple (Loose)</t>
+  </si>
+  <si>
+    <t>Banana - Karpooravalli</t>
+  </si>
+  <si>
+    <t>Orange - Nagpur, Small (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Ambri</t>
+  </si>
+  <si>
+    <t>Longan</t>
+  </si>
+  <si>
+    <t>Banana - Poovan</t>
+  </si>
+  <si>
+    <t>Banana - Nendran, Organically Grown</t>
+  </si>
+  <si>
+    <t>Apple - Shimla, Premium</t>
+  </si>
+  <si>
+    <t>Pear - Beauty, Rich In Fiber, Vitamin C, Great For Gut Health</t>
+  </si>
+  <si>
+    <t>Grapes - Red Globe</t>
+  </si>
+  <si>
+    <t>Mosambi - Premium (Loose)</t>
+  </si>
+  <si>
+    <t>Coconut - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Guava - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Soursop</t>
+  </si>
+  <si>
+    <t>Coconut - Diced</t>
+  </si>
+  <si>
+    <t>Cherry - Kashmir</t>
+  </si>
+  <si>
+    <t>Apple - Red Delicious, Economy</t>
+  </si>
+  <si>
+    <t>Apricot - Dried</t>
+  </si>
+  <si>
+    <t>Passion Fruit</t>
+  </si>
+  <si>
+    <t>Pineapple - Slices</t>
+  </si>
+  <si>
+    <t>Papaya- Diced</t>
+  </si>
+  <si>
+    <t>Plum - Indian</t>
+  </si>
+  <si>
+    <t>Pomegranate - Single Serve, Peeled</t>
+  </si>
+  <si>
+    <t>Mosambi (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Washington, Regular</t>
+  </si>
+  <si>
+    <t>Apple - Fuji, Economy</t>
+  </si>
+  <si>
+    <t>Cherry</t>
+  </si>
+  <si>
+    <t>Grape fruit - Imported (Loose)</t>
+  </si>
+  <si>
+    <t>Pineapple - Chunks, Single Serve</t>
+  </si>
+  <si>
+    <t>Watermelon - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Ber (Loose)</t>
+  </si>
+  <si>
+    <t>Rambutan</t>
+  </si>
+  <si>
+    <t>Plum - Imported</t>
+  </si>
+  <si>
+    <t>Tamarind - Sweet</t>
+  </si>
+  <si>
+    <t>Mango - Raw Totapuri</t>
+  </si>
+  <si>
+    <t>Pomelo - Peeled</t>
+  </si>
+  <si>
+    <t>Sapota - Organically Grown</t>
+  </si>
+  <si>
+    <t>Guava - Thai Organic, White</t>
+  </si>
+  <si>
+    <t>Mangosteen</t>
+  </si>
+  <si>
+    <t>Cherry - Imported</t>
+  </si>
+  <si>
+    <t>Apple - Queen, Rose</t>
+  </si>
+  <si>
+    <t>₹190</t>
+  </si>
+  <si>
+    <t>₹380</t>
+  </si>
+  <si>
+    <t>₹702</t>
+  </si>
+  <si>
+    <t>₹211.25</t>
+  </si>
+  <si>
+    <t>₹328</t>
+  </si>
+  <si>
+    <t>₹307</t>
+  </si>
+  <si>
+    <t>₹207</t>
+  </si>
+  <si>
+    <t>₹210</t>
+  </si>
+  <si>
+    <t>₹35</t>
+  </si>
+  <si>
+    <t>₹59</t>
+  </si>
+  <si>
+    <t>₹405</t>
+  </si>
+  <si>
+    <t>₹268</t>
+  </si>
+  <si>
+    <t>₹93.15</t>
+  </si>
+  <si>
+    <t>₹72</t>
+  </si>
+  <si>
+    <t>₹244</t>
+  </si>
+  <si>
+    <t>₹85</t>
+  </si>
+  <si>
+    <t>₹236</t>
+  </si>
+  <si>
+    <t>₹229</t>
+  </si>
+  <si>
+    <t>₹111</t>
+  </si>
+  <si>
+    <t>₹570</t>
+  </si>
+  <si>
+    <t>₹388</t>
+  </si>
+  <si>
+    <t>₹548</t>
+  </si>
+  <si>
+    <t>₹146</t>
+  </si>
+  <si>
+    <t>₹358</t>
+  </si>
+  <si>
+    <t>₹99</t>
+  </si>
+  <si>
+    <t>₹109</t>
+  </si>
+  <si>
+    <t>₹604</t>
+  </si>
+  <si>
+    <t>₹243</t>
+  </si>
+  <si>
+    <t>₹95</t>
+  </si>
+  <si>
+    <t>₹76</t>
+  </si>
+  <si>
+    <t>₹114</t>
+  </si>
+  <si>
+    <t>₹127</t>
+  </si>
+  <si>
+    <t>₹210.53</t>
+  </si>
+  <si>
+    <t>₹274</t>
+  </si>
+  <si>
+    <t>₹185</t>
+  </si>
+  <si>
+    <t>₹209</t>
+  </si>
+  <si>
+    <t>₹500</t>
+  </si>
+  <si>
+    <t>₹272</t>
+  </si>
+  <si>
+    <t>₹453</t>
+  </si>
+  <si>
+    <t>₹32.88</t>
+  </si>
+  <si>
+    <t>₹302</t>
+  </si>
+  <si>
     <t>₹17</t>
   </si>
   <si>
-    <t>₹32</t>
-  </si>
-  <si>
-    <t>₹70</t>
-  </si>
-  <si>
-    <t>₹248</t>
-  </si>
-  <si>
-    <t>₹24</t>
-  </si>
-  <si>
-    <t>₹33</t>
-  </si>
-  <si>
-    <t>₹43</t>
-  </si>
-  <si>
-    <t>₹144</t>
+    <t>₹381</t>
+  </si>
+  <si>
+    <t>₹84</t>
+  </si>
+  <si>
+    <t>₹136</t>
+  </si>
+  <si>
+    <t>₹424</t>
+  </si>
+  <si>
+    <t>₹122</t>
+  </si>
+  <si>
+    <t>₹442</t>
+  </si>
+  <si>
+    <t>₹361</t>
+  </si>
+  <si>
+    <t>₹722</t>
+  </si>
+  <si>
+    <t>₹137</t>
+  </si>
+  <si>
+    <t>₹162</t>
+  </si>
+  <si>
+    <t>₹554</t>
+  </si>
+  <si>
+    <t>₹313</t>
+  </si>
+  <si>
+    <t>₹377</t>
+  </si>
+  <si>
+    <t>₹544</t>
+  </si>
+  <si>
+    <t>₹124</t>
+  </si>
+  <si>
+    <t>₹177</t>
+  </si>
+  <si>
+    <t>₹91.78</t>
+  </si>
+  <si>
+    <t>₹462</t>
+  </si>
+  <si>
+    <t>₹206</t>
+  </si>
+  <si>
+    <t>₹45</t>
+  </si>
+  <si>
+    <t>₹1895</t>
+  </si>
+  <si>
+    <t>₹394</t>
+  </si>
+  <si>
+    <t>₹125</t>
+  </si>
+  <si>
+    <t>₹192</t>
+  </si>
+  <si>
+    <t>₹110.96</t>
   </si>
   <si>
     <t>₹77</t>
   </si>
   <si>
-    <t>₹62</t>
-  </si>
-  <si>
-    <t>₹29</t>
-  </si>
-  <si>
-    <t>₹48</t>
-  </si>
-  <si>
-    <t>₹139</t>
-  </si>
-  <si>
-    <t>₹37</t>
-  </si>
-  <si>
-    <t>₹47</t>
-  </si>
-  <si>
-    <t>₹125</t>
-  </si>
-  <si>
-    <t>₹57</t>
-  </si>
-  <si>
-    <t>₹66</t>
-  </si>
-  <si>
-    <t>₹121</t>
-  </si>
-  <si>
-    <t>₹16</t>
-  </si>
-  <si>
-    <t>₹166</t>
-  </si>
-  <si>
-    <t>₹68</t>
-  </si>
-  <si>
-    <t>₹331</t>
-  </si>
-  <si>
-    <t>₹133</t>
-  </si>
-  <si>
-    <t>₹46</t>
-  </si>
-  <si>
-    <t>₹81</t>
-  </si>
-  <si>
-    <t>₹59</t>
-  </si>
-  <si>
-    <t>₹180</t>
-  </si>
-  <si>
-    <t>₹18</t>
-  </si>
-  <si>
-    <t>₹161</t>
-  </si>
-  <si>
-    <t>₹103</t>
-  </si>
-  <si>
-    <t>₹40</t>
-  </si>
-  <si>
-    <t>₹107</t>
-  </si>
-  <si>
-    <t>₹111</t>
-  </si>
-  <si>
-    <t>₹202</t>
+    <t>₹403</t>
+  </si>
+  <si>
+    <t>₹242</t>
+  </si>
+  <si>
+    <t>₹138.7</t>
+  </si>
+  <si>
+    <t>₹277.4</t>
+  </si>
+  <si>
+    <t>₹512.46</t>
+  </si>
+  <si>
+    <t>₹199.55</t>
+  </si>
+  <si>
+    <t>₹134</t>
+  </si>
+  <si>
+    <t>₹153.3</t>
+  </si>
+  <si>
+    <t>₹25.55</t>
+  </si>
+  <si>
+    <t>₹38.35</t>
+  </si>
+  <si>
+    <t>₹246</t>
+  </si>
+  <si>
+    <t>₹174.2</t>
+  </si>
+  <si>
+    <t>₹49</t>
+  </si>
+  <si>
+    <t>₹46.8</t>
+  </si>
+  <si>
+    <t>₹158.6</t>
+  </si>
+  <si>
+    <t>₹62.05</t>
+  </si>
+  <si>
+    <t>₹147</t>
+  </si>
+  <si>
+    <t>₹132</t>
+  </si>
+  <si>
+    <t>₹28</t>
+  </si>
+  <si>
+    <t>₹80</t>
+  </si>
+  <si>
+    <t>₹416.1</t>
+  </si>
+  <si>
+    <t>₹283.24</t>
+  </si>
+  <si>
+    <t>₹340</t>
+  </si>
+  <si>
+    <t>₹35.75</t>
+  </si>
+  <si>
+    <t>₹106.58</t>
+  </si>
+  <si>
+    <t>₹261.34</t>
+  </si>
+  <si>
+    <t>₹72.27</t>
   </si>
   <si>
     <t>₹79</t>
   </si>
   <si>
-    <t>₹13.16</t>
-  </si>
-  <si>
-    <t>₹155</t>
-  </si>
-  <si>
-    <t>₹151</t>
-  </si>
-  <si>
-    <t>₹114</t>
-  </si>
-  <si>
-    <t>₹76</t>
-  </si>
-  <si>
-    <t>₹73</t>
-  </si>
-  <si>
-    <t>₹13</t>
-  </si>
-  <si>
-    <t>₹98</t>
-  </si>
-  <si>
-    <t>₹44</t>
-  </si>
-  <si>
-    <t>₹87</t>
-  </si>
-  <si>
-    <t>₹31</t>
-  </si>
-  <si>
-    <t>₹100</t>
-  </si>
-  <si>
-    <t>₹117</t>
-  </si>
-  <si>
-    <t>₹148</t>
-  </si>
-  <si>
-    <t>₹49.32</t>
-  </si>
-  <si>
-    <t>₹54</t>
-  </si>
-  <si>
-    <t>₹58</t>
-  </si>
-  <si>
-    <t>₹53</t>
-  </si>
-  <si>
-    <t>₹14</t>
-  </si>
-  <si>
-    <t>₹90</t>
-  </si>
-  <si>
-    <t>₹35</t>
-  </si>
-  <si>
-    <t>₹106</t>
-  </si>
-  <si>
-    <t>₹128</t>
-  </si>
-  <si>
-    <t>₹42</t>
-  </si>
-  <si>
-    <t>₹131</t>
-  </si>
-  <si>
-    <t>₹55</t>
-  </si>
-  <si>
-    <t>₹173</t>
-  </si>
-  <si>
-    <t>₹56</t>
-  </si>
-  <si>
-    <t>₹28.47</t>
-  </si>
-  <si>
-    <t>₹12</t>
-  </si>
-  <si>
-    <t>₹7.5</t>
-  </si>
-  <si>
-    <t>₹14.5</t>
-  </si>
-  <si>
-    <t>₹181.04</t>
-  </si>
-  <si>
-    <t>₹19.5</t>
-  </si>
-  <si>
-    <t>₹27.95</t>
-  </si>
-  <si>
-    <t>₹33.15</t>
-  </si>
-  <si>
-    <t>₹93.6</t>
+    <t>₹79.57</t>
+  </si>
+  <si>
+    <t>₹440.92</t>
+  </si>
+  <si>
+    <t>₹177.39</t>
+  </si>
+  <si>
+    <t>₹69.35</t>
+  </si>
+  <si>
+    <t>₹32.12</t>
+  </si>
+  <si>
+    <t>₹37.5</t>
+  </si>
+  <si>
+    <t>₹83.22</t>
+  </si>
+  <si>
+    <t>₹92.71</t>
+  </si>
+  <si>
+    <t>₹153.69</t>
+  </si>
+  <si>
+    <t>₹178.1</t>
+  </si>
+  <si>
+    <t>₹135.05</t>
+  </si>
+  <si>
+    <t>₹135.85</t>
+  </si>
+  <si>
+    <t>₹365</t>
+  </si>
+  <si>
+    <t>₹198.56</t>
+  </si>
+  <si>
+    <t>₹330.69</t>
+  </si>
+  <si>
+    <t>₹26.28</t>
+  </si>
+  <si>
+    <t>₹220.46</t>
+  </si>
+  <si>
+    <t>₹12.41</t>
+  </si>
+  <si>
+    <t>₹247.65</t>
+  </si>
+  <si>
+    <t>₹61.32</t>
+  </si>
+  <si>
+    <t>₹99.28</t>
+  </si>
+  <si>
+    <t>₹239.44</t>
+  </si>
+  <si>
+    <t>₹309.52</t>
+  </si>
+  <si>
+    <t>₹89.06</t>
+  </si>
+  <si>
+    <t>₹322.66</t>
+  </si>
+  <si>
+    <t>₹263.53</t>
+  </si>
+  <si>
+    <t>₹527.06</t>
+  </si>
+  <si>
+    <t>₹100.01</t>
+  </si>
+  <si>
+    <t>₹118.26</t>
+  </si>
+  <si>
+    <t>₹404.42</t>
+  </si>
+  <si>
+    <t>₹203.45</t>
+  </si>
+  <si>
+    <t>₹275.21</t>
+  </si>
+  <si>
+    <t>₹397.12</t>
+  </si>
+  <si>
+    <t>₹90.52</t>
+  </si>
+  <si>
+    <t>₹52.56</t>
+  </si>
+  <si>
+    <t>₹129.21</t>
+  </si>
+  <si>
+    <t>₹67</t>
+  </si>
+  <si>
+    <t>₹337.26</t>
+  </si>
+  <si>
+    <t>₹150.38</t>
+  </si>
+  <si>
+    <t>₹29.25</t>
+  </si>
+  <si>
+    <t>₹1383.35</t>
+  </si>
+  <si>
+    <t>₹287.62</t>
+  </si>
+  <si>
+    <t>₹91.25</t>
+  </si>
+  <si>
+    <t>₹140.16</t>
   </si>
   <si>
     <t>₹56.21</t>
   </si>
   <si>
-    <t>₹45</t>
-  </si>
-  <si>
-    <t>₹15</t>
-  </si>
-  <si>
-    <t>₹25</t>
-  </si>
-  <si>
-    <t>₹101.47</t>
-  </si>
-  <si>
-    <t>₹22</t>
-  </si>
-  <si>
-    <t>₹91.25</t>
-  </si>
-  <si>
-    <t>₹42.9</t>
-  </si>
-  <si>
-    <t>₹88.33</t>
-  </si>
-  <si>
-    <t>₹10</t>
-  </si>
-  <si>
-    <t>₹121.18</t>
-  </si>
-  <si>
-    <t>₹49.64</t>
-  </si>
-  <si>
-    <t>₹47.3</t>
-  </si>
-  <si>
-    <t>₹241.63</t>
-  </si>
-  <si>
-    <t>₹97.09</t>
-  </si>
-  <si>
-    <t>₹33.58</t>
-  </si>
-  <si>
-    <t>₹59.13</t>
-  </si>
-  <si>
-    <t>₹43.07</t>
-  </si>
-  <si>
-    <t>₹131.4</t>
-  </si>
-  <si>
-    <t>₹13.14</t>
-  </si>
-  <si>
-    <t>₹117.53</t>
-  </si>
-  <si>
-    <t>₹75.19</t>
-  </si>
-  <si>
-    <t>₹29.2</t>
-  </si>
-  <si>
-    <t>₹78.11</t>
-  </si>
-  <si>
-    <t>₹81.03</t>
-  </si>
-  <si>
-    <t>₹147.46</t>
-  </si>
-  <si>
-    <t>₹45.26</t>
-  </si>
-  <si>
-    <t>₹57.67</t>
-  </si>
-  <si>
-    <t>₹31.39</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>₹51.1</t>
-  </si>
-  <si>
-    <t>₹85</t>
-  </si>
-  <si>
-    <t>₹110.23</t>
-  </si>
-  <si>
-    <t>₹37.23</t>
-  </si>
-  <si>
-    <t>₹83.22</t>
-  </si>
-  <si>
-    <t>₹55.48</t>
-  </si>
-  <si>
-    <t>₹53.29</t>
-  </si>
-  <si>
-    <t>₹8</t>
-  </si>
-  <si>
-    <t>₹211.7</t>
-  </si>
-  <si>
-    <t>₹71.54</t>
-  </si>
-  <si>
-    <t>₹22.5</t>
-  </si>
-  <si>
-    <t>₹96</t>
-  </si>
-  <si>
-    <t>₹32.12</t>
-  </si>
-  <si>
-    <t>₹63.51</t>
-  </si>
-  <si>
-    <t>₹105.12</t>
-  </si>
-  <si>
-    <t>₹22.63</t>
-  </si>
-  <si>
-    <t>₹85.41</t>
-  </si>
-  <si>
-    <t>₹108.04</t>
-  </si>
-  <si>
-    <t>₹36</t>
-  </si>
-  <si>
-    <t>₹39.42</t>
-  </si>
-  <si>
-    <t>₹42.34</t>
-  </si>
-  <si>
-    <t>₹21.17</t>
-  </si>
-  <si>
-    <t>₹38.69</t>
-  </si>
-  <si>
-    <t>₹34.31</t>
-  </si>
-  <si>
-    <t>₹17.52</t>
-  </si>
-  <si>
-    <t>₹10.22</t>
-  </si>
-  <si>
-    <t>₹65.7</t>
-  </si>
-  <si>
-    <t>₹25.55</t>
-  </si>
-  <si>
-    <t>₹77.38</t>
-  </si>
-  <si>
-    <t>₹31.2</t>
-  </si>
-  <si>
-    <t>₹93.44</t>
-  </si>
-  <si>
-    <t>₹30.66</t>
-  </si>
-  <si>
-    <t>₹95.63</t>
-  </si>
-  <si>
-    <t>₹40.15</t>
-  </si>
-  <si>
-    <t>₹126.29</t>
-  </si>
-  <si>
-    <t>₹24.09</t>
-  </si>
-  <si>
-    <t>39% OFF</t>
-  </si>
-  <si>
-    <t>27% OFF</t>
-  </si>
-  <si>
-    <t>38% OFF</t>
-  </si>
-  <si>
-    <t>40% OFF</t>
-  </si>
-  <si>
-    <t>35% OFF</t>
-  </si>
-  <si>
-    <t>37% OFF</t>
-  </si>
-  <si>
-    <t>56% OFF</t>
-  </si>
-  <si>
-    <t>55% OFF</t>
+    <t>₹294.19</t>
+  </si>
+  <si>
+    <t>₹176.66</t>
+  </si>
+  <si>
+    <t>47% OFF</t>
+  </si>
+  <si>
+    <t>42% OFF</t>
+  </si>
+  <si>
+    <t>28% OFF</t>
   </si>
   <si>
     <t>43% OFF</t>
   </si>
   <si>
-    <t>42% OFF</t>
-  </si>
-  <si>
-    <t>41% OFF</t>
-  </si>
-  <si>
-    <t>48% OFF</t>
-  </si>
-  <si>
-    <t>64% OFF</t>
-  </si>
-  <si>
-    <t>30% OFF</t>
-  </si>
-  <si>
-    <t>32% OFF</t>
-  </si>
-  <si>
-    <t>45% OFF</t>
-  </si>
-  <si>
-    <t>61% OFF</t>
-  </si>
-  <si>
-    <t>28% OFF</t>
-  </si>
-  <si>
-    <t>Fresh Vegetables</t>
-  </si>
-  <si>
-    <t>2 kg</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx 500-1kg)</t>
-  </si>
-  <si>
-    <t>5 kg - Multipack</t>
-  </si>
-  <si>
-    <t>250 g</t>
-  </si>
-  <si>
-    <t>1 kg</t>
-  </si>
-  <si>
-    <t>500 g</t>
-  </si>
-  <si>
-    <t>1 pc - (approx. 400 to 600 g)</t>
-  </si>
-  <si>
-    <t>1 pack - (Approx. 180g - 200 g)</t>
-  </si>
-  <si>
-    <t>1 pc - (approx. 500 g to 800 g)</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx. 500 g - 800 g)</t>
-  </si>
-  <si>
-    <t>2 pcs</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx. 100 g)</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx. 250g-500g)</t>
-  </si>
-  <si>
-    <t>100 g</t>
-  </si>
-  <si>
-    <t>350 g (2 pieces)</t>
-  </si>
-  <si>
-    <t>1 pc - Approx. 400 to 600 g</t>
-  </si>
-  <si>
-    <t>1 Kg</t>
-  </si>
-  <si>
-    <t>1 pc</t>
-  </si>
-  <si>
-    <t>1 pc (Approx 500-1000 g)</t>
-  </si>
-  <si>
-    <t>1 pc (approx. 300-1.3 Kg)</t>
-  </si>
-  <si>
-    <t>2023-09-28 10:02:18</t>
-  </si>
-  <si>
-    <t>2023-09-29 12:23:50</t>
-  </si>
-  <si>
-    <t>2023-10-01 11:31:53</t>
-  </si>
-  <si>
-    <t>Kesar Mango</t>
-  </si>
-  <si>
-    <t>Apple - Red Delicious / Washington, Regular</t>
-  </si>
-  <si>
-    <t>Apple - Red Delicious / Washington, Premium</t>
-  </si>
-  <si>
-    <t>Himayath Mango</t>
-  </si>
-  <si>
-    <t>Muskmelon -  Netted Small</t>
-  </si>
-  <si>
-    <t>Banana - Robusta</t>
-  </si>
-  <si>
-    <t>Apple - Shimla, Regular</t>
-  </si>
-  <si>
-    <t>Pomegranate - Regular (Loose)</t>
-  </si>
-  <si>
-    <t>Baby Apple Shimla</t>
-  </si>
-  <si>
-    <t>Banana - Yelakki</t>
-  </si>
-  <si>
-    <t>Coconut - Medium</t>
-  </si>
-  <si>
-    <t>Papaya</t>
-  </si>
-  <si>
-    <t>Mini Orange Imported (Loose)</t>
-  </si>
-  <si>
-    <t>Pomegranate (Loose)</t>
-  </si>
-  <si>
-    <t>Tender Coconut</t>
-  </si>
-  <si>
-    <t>Guava - Thai (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala Economy</t>
-  </si>
-  <si>
-    <t>Watermelon -  Medium</t>
-  </si>
-  <si>
-    <t>Mosambi - Economy (Loose)</t>
-  </si>
-  <si>
-    <t>Kiwi - Green</t>
-  </si>
-  <si>
-    <t>Banana - Nendran</t>
-  </si>
-  <si>
-    <t>Guava (Loose)</t>
-  </si>
-  <si>
-    <t>Pear - Green, Imported</t>
-  </si>
-  <si>
-    <t>Blueberry</t>
-  </si>
-  <si>
-    <t>Muskmelon -  Netted Medium</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala, Regular</t>
-  </si>
-  <si>
-    <t>Papaya - Small</t>
-  </si>
-  <si>
-    <t>Dragon Fruit (Loose)</t>
-  </si>
-  <si>
-    <t>Grapes - Bangalore Blue</t>
-  </si>
-  <si>
-    <t>Avocado (Loose)</t>
-  </si>
-  <si>
-    <t>Orange - Nagpur, Regular (Loose)</t>
-  </si>
-  <si>
-    <t>Avocado - Imported, Medium (Loose)</t>
-  </si>
-  <si>
-    <t>Mosambi - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala, Premium</t>
-  </si>
-  <si>
-    <t>Banana - Yelakki, Organically Grown</t>
-  </si>
-  <si>
-    <t>Banana - Raw Green (Loose)</t>
-  </si>
-  <si>
-    <t>Coconut - Large</t>
-  </si>
-  <si>
-    <t>Raw Mango (Loose)</t>
-  </si>
-  <si>
-    <t>Pineapple</t>
-  </si>
-  <si>
-    <t>Sapota</t>
-  </si>
-  <si>
-    <t>Mango - Neelam</t>
-  </si>
-  <si>
-    <t>Fresh Figs</t>
-  </si>
-  <si>
-    <t>Langra Mango</t>
-  </si>
-  <si>
-    <t>Pear - Naspathi, Indian</t>
-  </si>
-  <si>
-    <t>Pear Beauty</t>
-  </si>
-  <si>
-    <t>Banana - Red</t>
-  </si>
-  <si>
-    <t>Pomegranate - Peeled</t>
-  </si>
-  <si>
-    <t>Mallika Mango</t>
-  </si>
-  <si>
-    <t>Apple - Green, Premium</t>
-  </si>
-  <si>
-    <t>Baby Banana - Robusta</t>
-  </si>
-  <si>
-    <t>Orange - Imported (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Pink Lady</t>
-  </si>
-  <si>
-    <t>Sugarcane - Diced</t>
-  </si>
-  <si>
-    <t>Coconut with Husk - Pooja Coconut</t>
-  </si>
-  <si>
-    <t>Dates - Kimia, with Seed</t>
-  </si>
-  <si>
-    <t>Wood Apple - Kothbel (Loose)</t>
-  </si>
-  <si>
-    <t>Zespri Kiwi - Sun Gold</t>
-  </si>
-  <si>
-    <t>Ber - Apple (Loose)</t>
-  </si>
-  <si>
-    <t>Banana - Karpooravalli</t>
-  </si>
-  <si>
-    <t>Orange - Nagpur, Small (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Ambri</t>
-  </si>
-  <si>
-    <t>Longan</t>
-  </si>
-  <si>
-    <t>Banana - Poovan</t>
-  </si>
-  <si>
-    <t>Banana - Nendran, Organically Grown</t>
-  </si>
-  <si>
-    <t>Apple - Shimla, Premium</t>
-  </si>
-  <si>
-    <t>Pear - Beauty, Rich In Fiber, Vitamin C, Great For Gut Health</t>
-  </si>
-  <si>
-    <t>Grapes - Red Globe</t>
-  </si>
-  <si>
-    <t>Mosambi - Premium (Loose)</t>
-  </si>
-  <si>
-    <t>Coconut - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Guava - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Soursop</t>
-  </si>
-  <si>
-    <t>Coconut - Diced</t>
-  </si>
-  <si>
-    <t>Cherry - Kashmir</t>
-  </si>
-  <si>
-    <t>Apple - Red Delicious, Economy</t>
-  </si>
-  <si>
-    <t>Apricot - Dried</t>
-  </si>
-  <si>
-    <t>Passion Fruit</t>
-  </si>
-  <si>
-    <t>Pineapple - Slices</t>
-  </si>
-  <si>
-    <t>Papaya- Diced</t>
-  </si>
-  <si>
-    <t>Plum - Indian</t>
-  </si>
-  <si>
-    <t>Pomegranate - Single Serve, Peeled</t>
-  </si>
-  <si>
-    <t>Mosambi (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Washington, Regular</t>
-  </si>
-  <si>
-    <t>Apple - Fuji, Economy</t>
-  </si>
-  <si>
-    <t>Cherry</t>
-  </si>
-  <si>
-    <t>Grape fruit - Imported (Loose)</t>
-  </si>
-  <si>
-    <t>Pineapple - Chunks, Single Serve</t>
-  </si>
-  <si>
-    <t>Watermelon - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Ber (Loose)</t>
-  </si>
-  <si>
-    <t>Rambutan</t>
-  </si>
-  <si>
-    <t>Plum - Imported</t>
-  </si>
-  <si>
-    <t>Tamarind - Sweet</t>
-  </si>
-  <si>
-    <t>Mango - Raw Totapuri</t>
-  </si>
-  <si>
-    <t>Pomelo - Peeled</t>
-  </si>
-  <si>
-    <t>Sapota - Organically Grown</t>
-  </si>
-  <si>
-    <t>Guava - Thai Organic, White</t>
-  </si>
-  <si>
-    <t>Mangosteen</t>
-  </si>
-  <si>
-    <t>Cherry - Imported</t>
-  </si>
-  <si>
-    <t>Apple - Queen, Rose</t>
-  </si>
-  <si>
-    <t>₹190</t>
-  </si>
-  <si>
-    <t>₹380</t>
-  </si>
-  <si>
-    <t>₹702</t>
-  </si>
-  <si>
-    <t>₹211.25</t>
-  </si>
-  <si>
-    <t>₹328</t>
-  </si>
-  <si>
-    <t>₹298</t>
-  </si>
-  <si>
-    <t>₹207</t>
-  </si>
-  <si>
-    <t>₹224</t>
-  </si>
-  <si>
-    <t>₹432</t>
-  </si>
-  <si>
-    <t>₹258</t>
-  </si>
-  <si>
-    <t>₹93.15</t>
-  </si>
-  <si>
-    <t>₹72</t>
-  </si>
-  <si>
-    <t>₹329</t>
-  </si>
-  <si>
-    <t>₹94</t>
-  </si>
-  <si>
-    <t>₹176</t>
-  </si>
-  <si>
-    <t>₹570</t>
-  </si>
-  <si>
-    <t>₹392</t>
-  </si>
-  <si>
-    <t>₹552</t>
-  </si>
-  <si>
-    <t>₹146</t>
-  </si>
-  <si>
-    <t>₹325</t>
-  </si>
-  <si>
-    <t>₹120</t>
-  </si>
-  <si>
-    <t>₹109</t>
-  </si>
-  <si>
-    <t>₹604</t>
-  </si>
-  <si>
-    <t>₹259</t>
-  </si>
-  <si>
-    <t>₹95</t>
-  </si>
-  <si>
-    <t>₹127</t>
-  </si>
-  <si>
-    <t>₹210.53</t>
-  </si>
-  <si>
-    <t>₹129</t>
-  </si>
-  <si>
-    <t>₹274</t>
-  </si>
-  <si>
-    <t>₹185</t>
-  </si>
-  <si>
-    <t>₹143</t>
-  </si>
-  <si>
-    <t>₹153</t>
-  </si>
-  <si>
-    <t>₹500</t>
-  </si>
-  <si>
-    <t>₹255</t>
-  </si>
-  <si>
-    <t>₹453</t>
-  </si>
-  <si>
-    <t>₹32.88</t>
-  </si>
-  <si>
-    <t>₹302</t>
-  </si>
-  <si>
-    <t>₹421</t>
-  </si>
-  <si>
-    <t>₹385</t>
-  </si>
-  <si>
-    <t>₹84</t>
-  </si>
-  <si>
-    <t>₹576</t>
-  </si>
-  <si>
-    <t>₹361</t>
-  </si>
-  <si>
-    <t>₹794</t>
-  </si>
-  <si>
-    <t>₹105</t>
-  </si>
-  <si>
-    <t>₹50</t>
-  </si>
-  <si>
-    <t>₹137</t>
-  </si>
-  <si>
-    <t>₹162</t>
-  </si>
-  <si>
-    <t>₹64</t>
-  </si>
-  <si>
-    <t>₹554</t>
-  </si>
-  <si>
-    <t>₹313</t>
-  </si>
-  <si>
-    <t>₹377</t>
-  </si>
-  <si>
-    <t>₹544</t>
-  </si>
-  <si>
-    <t>₹177</t>
-  </si>
-  <si>
-    <t>₹91.78</t>
-  </si>
-  <si>
-    <t>₹462</t>
-  </si>
-  <si>
-    <t>₹269</t>
-  </si>
-  <si>
-    <t>₹209</t>
-  </si>
-  <si>
-    <t>₹1895</t>
-  </si>
-  <si>
-    <t>₹324.34</t>
-  </si>
-  <si>
-    <t>₹110.96</t>
-  </si>
-  <si>
-    <t>₹403</t>
-  </si>
-  <si>
-    <t>₹242</t>
-  </si>
-  <si>
-    <t>₹138.7</t>
-  </si>
-  <si>
-    <t>₹277.4</t>
-  </si>
-  <si>
-    <t>₹512.46</t>
-  </si>
-  <si>
-    <t>₹239.44</t>
-  </si>
-  <si>
-    <t>₹193.7</t>
-  </si>
-  <si>
-    <t>₹134.55</t>
-  </si>
-  <si>
-    <t>₹38.35</t>
-  </si>
-  <si>
-    <t>₹268</t>
-  </si>
-  <si>
-    <t>₹159</t>
-  </si>
-  <si>
-    <t>₹49</t>
-  </si>
-  <si>
-    <t>₹46.8</t>
-  </si>
-  <si>
-    <t>₹213.85</t>
-  </si>
-  <si>
-    <t>₹62.05</t>
-  </si>
-  <si>
-    <t>₹61.1</t>
-  </si>
-  <si>
-    <t>₹28</t>
-  </si>
-  <si>
-    <t>₹34</t>
-  </si>
-  <si>
-    <t>₹416.1</t>
-  </si>
-  <si>
-    <t>₹286.16</t>
-  </si>
-  <si>
-    <t>₹358</t>
-  </si>
-  <si>
-    <t>₹35.75</t>
-  </si>
-  <si>
-    <t>₹106.58</t>
-  </si>
-  <si>
-    <t>₹237.25</t>
-  </si>
-  <si>
-    <t>₹75</t>
-  </si>
-  <si>
-    <t>₹79.57</t>
-  </si>
-  <si>
-    <t>₹440.92</t>
-  </si>
-  <si>
-    <t>₹189.07</t>
-  </si>
-  <si>
-    <t>₹69.35</t>
-  </si>
-  <si>
-    <t>₹92.71</t>
-  </si>
-  <si>
-    <t>₹153.69</t>
-  </si>
-  <si>
-    <t>₹94.17</t>
-  </si>
-  <si>
-    <t>₹178.1</t>
-  </si>
-  <si>
-    <t>₹135.05</t>
-  </si>
-  <si>
-    <t>₹104.39</t>
-  </si>
-  <si>
-    <t>₹131.3</t>
-  </si>
-  <si>
-    <t>₹111.69</t>
-  </si>
-  <si>
-    <t>₹365</t>
-  </si>
-  <si>
-    <t>₹186.15</t>
-  </si>
-  <si>
-    <t>₹330.69</t>
-  </si>
-  <si>
-    <t>₹26.28</t>
-  </si>
-  <si>
-    <t>₹220.46</t>
-  </si>
-  <si>
-    <t>₹12.41</t>
-  </si>
-  <si>
-    <t>₹273.65</t>
-  </si>
-  <si>
-    <t>₹281.05</t>
-  </si>
-  <si>
-    <t>₹61.32</t>
-  </si>
-  <si>
-    <t>₹420.48</t>
-  </si>
-  <si>
-    <t>₹263.53</t>
-  </si>
-  <si>
-    <t>₹579.62</t>
-  </si>
-  <si>
-    <t>₹76.65</t>
-  </si>
-  <si>
-    <t>₹36.5</t>
-  </si>
-  <si>
-    <t>₹100.01</t>
-  </si>
-  <si>
-    <t>₹118.26</t>
-  </si>
-  <si>
-    <t>₹46.72</t>
-  </si>
-  <si>
-    <t>₹404.42</t>
-  </si>
-  <si>
-    <t>₹203.45</t>
-  </si>
-  <si>
-    <t>₹275.21</t>
-  </si>
-  <si>
-    <t>₹397.12</t>
-  </si>
-  <si>
-    <t>₹87.6</t>
-  </si>
-  <si>
-    <t>₹129.21</t>
-  </si>
-  <si>
-    <t>₹67</t>
-  </si>
-  <si>
-    <t>₹337.26</t>
-  </si>
-  <si>
-    <t>₹196.37</t>
-  </si>
-  <si>
-    <t>₹152.57</t>
-  </si>
-  <si>
-    <t>₹52.56</t>
-  </si>
-  <si>
-    <t>₹29.9</t>
-  </si>
-  <si>
-    <t>₹1383.35</t>
-  </si>
-  <si>
-    <t>₹236.77</t>
-  </si>
-  <si>
-    <t>₹294.19</t>
-  </si>
-  <si>
-    <t>₹176.66</t>
-  </si>
-  <si>
-    <t>49% OFF</t>
-  </si>
-  <si>
-    <t>47% OFF</t>
-  </si>
-  <si>
-    <t>33% OFF</t>
-  </si>
-  <si>
-    <t>29% OFF</t>
-  </si>
-  <si>
-    <t>31% OFF</t>
+    <t>51% OFF</t>
   </si>
   <si>
     <t>Fresh Fruits</t>
@@ -1595,36 +1610,39 @@
     <t>2x4 pcs - Multipack</t>
   </si>
   <si>
+    <t>1 pc - 1.2 - 2 kg</t>
+  </si>
+  <si>
+    <t>1 kg - (5-6 pcs per kg)</t>
+  </si>
+  <si>
+    <t>1 kg - (Approx. 11-12 pcs)</t>
+  </si>
+  <si>
+    <t>1 pc - (approx. 450g to 500)</t>
+  </si>
+  <si>
+    <t>4 pcs - (Approx. 800 g - 880 g)</t>
+  </si>
+  <si>
+    <t>4 pcs - (Approx.450 g-500 g)</t>
+  </si>
+  <si>
+    <t>1 pc - 2.5 - 3.8 kg</t>
+  </si>
+  <si>
+    <t>3 kg</t>
+  </si>
+  <si>
+    <t>3 pcs</t>
+  </si>
+  <si>
+    <t>125 g</t>
+  </si>
+  <si>
     <t>1 pc - 500g-900g</t>
   </si>
   <si>
-    <t>1 kg - (5-6 pcs per kg)</t>
-  </si>
-  <si>
-    <t>1 kg - (Approx. 11-12 pcs)</t>
-  </si>
-  <si>
-    <t>1 pc - (approx. 450g to 500)</t>
-  </si>
-  <si>
-    <t>4 pcs - (Approx. 800 g - 880 g)</t>
-  </si>
-  <si>
-    <t>4 pcs - (Approx.450 g-500 g)</t>
-  </si>
-  <si>
-    <t>1 pc - 2.5 - 3.8 kg</t>
-  </si>
-  <si>
-    <t>3 pcs</t>
-  </si>
-  <si>
-    <t>125 g</t>
-  </si>
-  <si>
-    <t>1 pc - 1.2 - 2 kg</t>
-  </si>
-  <si>
     <t>1 pc - 500 g - 800 g</t>
   </si>
   <si>
@@ -1694,6 +1712,9 @@
     <t>1 pc (approx. 1 -3 kg)</t>
   </si>
   <si>
+    <t>6 pcs - (approx. 350 g - 400 g)</t>
+  </si>
+  <si>
     <t>225 g</t>
   </si>
   <si>
@@ -1703,10 +1724,10 @@
     <t>2023-09-29 12:24:29</t>
   </si>
   <si>
-    <t>2023-09-30 18:03:36</t>
-  </si>
-  <si>
     <t>2023-10-01 11:32:32</t>
+  </si>
+  <si>
+    <t>2023-10-04 08:56:41</t>
   </si>
 </sst>
 </file>
@@ -2104,22 +2125,22 @@
         <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D2" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F2" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G2" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="H2" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2130,22 +2151,22 @@
         <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D3" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F3" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="H3" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2156,22 +2177,22 @@
         <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F4" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="H4" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2182,22 +2203,22 @@
         <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D5" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="E5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F5" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G5" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="H5" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2208,22 +2229,22 @@
         <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="D6" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="E6" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="F6" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G6" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H6" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2234,22 +2255,22 @@
         <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D7" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="F7" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G7" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H7" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2260,22 +2281,22 @@
         <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D8" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="E8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F8" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G8" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="H8" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2286,22 +2307,22 @@
         <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="E9" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="F9" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G9" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="H9" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2312,22 +2333,22 @@
         <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="E10" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="F10" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G10" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H10" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2338,22 +2359,22 @@
         <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D11" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E11" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F11" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G11" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H11" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2364,22 +2385,22 @@
         <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="D12" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="E12" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="F12" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G12" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="H12" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2390,22 +2411,22 @@
         <v>114</v>
       </c>
       <c r="C13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D13" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="E13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F13" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G13" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="H13" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2416,22 +2437,22 @@
         <v>115</v>
       </c>
       <c r="C14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D14" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="E14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F14" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G14" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="H14" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2439,25 +2460,25 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="D15" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E15" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="F15" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G15" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H15" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2465,25 +2486,25 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C16" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D16" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="E16" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F16" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G16" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H16" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2491,25 +2512,25 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D17" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F17" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G17" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="H17" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2517,25 +2538,25 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C18" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E18" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F18" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G18" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="H18" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2543,25 +2564,25 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>184</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="E19" t="s">
-        <v>184</v>
+        <v>113</v>
       </c>
       <c r="F19" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G19" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="H19" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2569,25 +2590,25 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="D20" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E20" t="s">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="F20" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G20" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="H20" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2595,25 +2616,25 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C21" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D21" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E21" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F21" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G21" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H21" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2621,25 +2642,25 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
-        <v>187</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E22" t="s">
-        <v>187</v>
+        <v>106</v>
       </c>
       <c r="F22" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G22" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="H22" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2647,25 +2668,25 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="D23" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="E23" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="F23" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G23" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="H23" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2673,25 +2694,25 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C24" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D24" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E24" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F24" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G24" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H24" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2702,22 +2723,22 @@
         <v>125</v>
       </c>
       <c r="C25" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="D25" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="E25" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="F25" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G25" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H25" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2728,22 +2749,22 @@
         <v>126</v>
       </c>
       <c r="C26" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D26" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="E26" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F26" t="s">
+        <v>255</v>
+      </c>
+      <c r="G26" t="s">
         <v>266</v>
       </c>
-      <c r="G26" t="s">
-        <v>277</v>
-      </c>
       <c r="H26" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2754,22 +2775,22 @@
         <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D27" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E27" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F27" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G27" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="H27" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2780,22 +2801,22 @@
         <v>128</v>
       </c>
       <c r="C28" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D28" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="E28" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F28" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G28" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="H28" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2806,22 +2827,22 @@
         <v>129</v>
       </c>
       <c r="C29" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D29" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E29" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F29" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G29" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H29" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2829,25 +2850,25 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C30" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D30" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E30" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F30" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G30" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H30" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2855,25 +2876,25 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C31" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D31" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="E31" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F31" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G31" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H31" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2884,22 +2905,22 @@
         <v>131</v>
       </c>
       <c r="C32" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D32" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E32" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F32" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G32" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H32" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2910,22 +2931,22 @@
         <v>132</v>
       </c>
       <c r="C33" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D33" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E33" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F33" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G33" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H33" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2933,25 +2954,25 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C34" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D34" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E34" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F34" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G34" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H34" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2959,25 +2980,25 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C35" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D35" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E35" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F35" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G35" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H35" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2985,25 +3006,25 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="C36" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D36" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E36" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F36" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G36" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H36" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3011,25 +3032,25 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C37" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D37" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E37" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F37" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G37" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H37" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3037,25 +3058,25 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C38" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D38" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E38" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F38" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G38" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="H38" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3063,25 +3084,25 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C39" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D39" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E39" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F39" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G39" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H39" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3089,25 +3110,25 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C40" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D40" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E40" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F40" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G40" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H40" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3115,25 +3136,25 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="C41" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D41" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E41" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F41" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G41" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H41" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3141,25 +3162,25 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C42" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D42" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E42" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F42" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G42" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H42" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3167,25 +3188,25 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C43" t="s">
-        <v>206</v>
+        <v>111</v>
       </c>
       <c r="D43" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E43" t="s">
-        <v>206</v>
+        <v>111</v>
       </c>
       <c r="F43" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G43" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H43" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3193,25 +3214,25 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C44" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D44" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E44" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F44" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G44" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="H44" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3222,22 +3243,22 @@
         <v>133</v>
       </c>
       <c r="C45" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D45" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E45" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F45" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G45" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="H45" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3245,25 +3266,25 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D46" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E46" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F46" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G46" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H46" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3271,25 +3292,25 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C47" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="D47" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E47" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="F47" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G47" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H47" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3297,25 +3318,25 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="C48" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D48" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E48" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F48" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G48" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="H48" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3323,25 +3344,25 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C49" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D49" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E49" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F49" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G49" t="s">
+        <v>270</v>
+      </c>
+      <c r="H49" t="s">
         <v>280</v>
-      </c>
-      <c r="H49" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3349,25 +3370,25 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="C50" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D50" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E50" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="F50" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G50" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H50" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3375,25 +3396,25 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C51" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D51" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="E51" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="F51" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G51" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H51" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3401,25 +3422,25 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C52" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D52" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E52" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F52" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G52" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H52" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3427,25 +3448,25 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="C53" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D53" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E53" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="F53" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G53" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H53" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3453,25 +3474,25 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C54" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D54" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E54" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="F54" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G54" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H54" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3479,25 +3500,25 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C55" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D55" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E55" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="F55" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G55" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="H55" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3505,25 +3526,25 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C56" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D56" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E56" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="F56" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G56" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H56" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3531,25 +3552,25 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="C57" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="D57" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E57" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="F57" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G57" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="H57" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3557,25 +3578,25 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="C58" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D58" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E58" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F58" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G58" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H58" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3583,25 +3604,25 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="C59" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D59" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E59" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="F59" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G59" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="H59" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3609,25 +3630,25 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C60" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="D60" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E60" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="F60" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G60" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="H60" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3635,25 +3656,25 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C61" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="D61" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="E61" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="F61" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G61" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="H61" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3661,25 +3682,25 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C62" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D62" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="E62" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="F62" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G62" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H62" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3687,25 +3708,25 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="C63" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D63" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E63" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="F63" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G63" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="H63" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3713,25 +3734,25 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C64" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D64" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E64" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="F64" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G64" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H64" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3739,25 +3760,25 @@
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="C65" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D65" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E65" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="F65" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G65" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="H65" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3765,25 +3786,25 @@
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C66" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D66" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E66" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="F66" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G66" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="H66" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3791,25 +3812,25 @@
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C67" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
       <c r="D67" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E67" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
       <c r="F67" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G67" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H67" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3817,25 +3838,25 @@
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C68" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D68" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E68" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F68" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G68" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H68" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3843,25 +3864,25 @@
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="C69" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="D69" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E69" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="F69" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G69" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H69" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3869,25 +3890,25 @@
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C70" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="D70" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E70" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="F70" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G70" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="H70" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3895,25 +3916,25 @@
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="C71" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D71" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E71" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="F71" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G71" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="H71" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3921,25 +3942,25 @@
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="C72" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="D72" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E72" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="F72" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G72" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H72" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3947,25 +3968,25 @@
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="C73" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="D73" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E73" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="F73" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G73" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H73" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3973,25 +3994,25 @@
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C74" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="D74" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E74" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="F74" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G74" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="H74" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3999,25 +4020,25 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="C75" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D75" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E75" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="F75" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G75" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="H75" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4025,25 +4046,25 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="C76" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="D76" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E76" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="F76" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G76" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H76" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4051,25 +4072,25 @@
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="C77" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="D77" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E77" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="F77" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G77" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H77" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4077,25 +4098,25 @@
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C78" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D78" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E78" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F78" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G78" t="s">
+        <v>270</v>
+      </c>
+      <c r="H78" t="s">
         <v>280</v>
-      </c>
-      <c r="H78" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4103,25 +4124,25 @@
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C79" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="D79" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E79" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="F79" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G79" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H79" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4129,25 +4150,25 @@
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="C80" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D80" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E80" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F80" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G80" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="H80" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4155,25 +4176,25 @@
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C81" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D81" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E81" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="F81" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G81" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="H81" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4181,25 +4202,25 @@
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="C82" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="D82" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E82" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="F82" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G82" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H82" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4207,25 +4228,25 @@
         <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="C83" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D83" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E83" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="F83" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G83" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="H83" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4233,25 +4254,25 @@
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C84" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="D84" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E84" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="F84" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G84" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H84" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4259,25 +4280,25 @@
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="C85" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D85" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="E85" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="F85" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G85" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="H85" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4285,25 +4306,25 @@
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C86" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="D86" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E86" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="F86" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G86" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H86" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4311,25 +4332,25 @@
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C87" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D87" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E87" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F87" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G87" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="H87" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4337,25 +4358,25 @@
         <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C88" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D88" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E88" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F88" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G88" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H88" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4363,25 +4384,25 @@
         <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="C89" t="s">
-        <v>243</v>
+        <v>190</v>
       </c>
       <c r="D89" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E89" t="s">
-        <v>243</v>
+        <v>190</v>
       </c>
       <c r="F89" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G89" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="H89" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4389,25 +4410,25 @@
         <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="C90" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="D90" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E90" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="F90" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G90" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H90" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4415,25 +4436,25 @@
         <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C91" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D91" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E91" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="F91" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G91" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H91" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4441,25 +4462,25 @@
         <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C92" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="D92" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="E92" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="F92" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G92" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="H92" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4467,25 +4488,25 @@
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="C93" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D93" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E93" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="F93" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G93" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="H93" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4493,25 +4514,25 @@
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C94" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="D94" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E94" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="F94" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G94" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="H94" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4519,25 +4540,25 @@
         <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C95" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="D95" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E95" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F95" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G95" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H95" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4545,25 +4566,25 @@
         <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="C96" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D96" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E96" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="F96" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G96" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="H96" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -4573,7 +4594,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4607,2550 +4628,2576 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B2" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C2" t="s">
         <v>450</v>
       </c>
       <c r="D2" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E2" t="s">
         <v>450</v>
       </c>
       <c r="F2" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G2" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H2" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B3" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C3" t="s">
         <v>451</v>
       </c>
       <c r="D3" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E3" t="s">
         <v>451</v>
       </c>
       <c r="F3" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G3" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H3" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B4" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C4" t="s">
         <v>452</v>
       </c>
       <c r="D4" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E4" t="s">
         <v>452</v>
       </c>
       <c r="F4" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G4" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="H4" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B5" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C5" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D5" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E5" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F5" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G5" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H5" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B6" t="s">
         <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="D6" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E6" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="F6" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G6" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="H6" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="D7" t="s">
-        <v>518</v>
+        <v>237</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="F7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G7" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B8" t="s">
-        <v>392</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>453</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>249</v>
+        <v>523</v>
       </c>
       <c r="E8" t="s">
-        <v>453</v>
+        <v>104</v>
       </c>
       <c r="F8" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G8" t="s">
-        <v>525</v>
+        <v>260</v>
       </c>
       <c r="H8" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B9" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C9" t="s">
-        <v>454</v>
+        <v>134</v>
       </c>
       <c r="D9" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E9" t="s">
-        <v>454</v>
+        <v>134</v>
       </c>
       <c r="F9" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G9" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="H9" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B10" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D10" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="E10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F10" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G10" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="H10" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B11" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="C11" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="D11" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="E11" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="F11" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G11" t="s">
-        <v>271</v>
+        <v>533</v>
       </c>
       <c r="H11" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B12" t="s">
-        <v>165</v>
+        <v>387</v>
       </c>
       <c r="C12" t="s">
-        <v>239</v>
+        <v>455</v>
       </c>
       <c r="D12" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E12" t="s">
-        <v>239</v>
+        <v>455</v>
       </c>
       <c r="F12" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G12" t="s">
-        <v>529</v>
+        <v>260</v>
       </c>
       <c r="H12" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>388</v>
       </c>
       <c r="C13" t="s">
         <v>456</v>
       </c>
       <c r="D13" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="E13" t="s">
         <v>456</v>
       </c>
       <c r="F13" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G13" t="s">
-        <v>271</v>
+        <v>534</v>
       </c>
       <c r="H13" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B14" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C14" t="s">
         <v>457</v>
       </c>
       <c r="D14" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="E14" t="s">
         <v>457</v>
       </c>
       <c r="F14" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G14" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H14" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B15" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C15" t="s">
         <v>458</v>
       </c>
       <c r="D15" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="E15" t="s">
         <v>458</v>
       </c>
       <c r="F15" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G15" t="s">
-        <v>530</v>
+        <v>260</v>
       </c>
       <c r="H15" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B16" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C16" t="s">
         <v>459</v>
       </c>
       <c r="D16" t="s">
-        <v>519</v>
+        <v>240</v>
       </c>
       <c r="E16" t="s">
         <v>459</v>
       </c>
       <c r="F16" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G16" t="s">
-        <v>284</v>
+        <v>535</v>
       </c>
       <c r="H16" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B17" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C17" t="s">
         <v>460</v>
       </c>
       <c r="D17" t="s">
-        <v>252</v>
+        <v>523</v>
       </c>
       <c r="E17" t="s">
         <v>460</v>
       </c>
       <c r="F17" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G17" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="H17" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B18" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C18" t="s">
         <v>461</v>
       </c>
       <c r="D18" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="E18" t="s">
         <v>461</v>
       </c>
       <c r="F18" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G18" t="s">
-        <v>531</v>
+        <v>274</v>
       </c>
       <c r="H18" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B19" t="s">
-        <v>213</v>
+        <v>394</v>
       </c>
       <c r="C19" t="s">
         <v>462</v>
       </c>
       <c r="D19" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E19" t="s">
         <v>462</v>
       </c>
       <c r="F19" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G19" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="H19" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B20" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C20" t="s">
         <v>463</v>
       </c>
       <c r="D20" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="E20" t="s">
         <v>463</v>
       </c>
       <c r="F20" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G20" t="s">
-        <v>271</v>
+        <v>537</v>
       </c>
       <c r="H20" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B21" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C21" t="s">
-        <v>148</v>
+        <v>464</v>
       </c>
       <c r="D21" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="E21" t="s">
-        <v>148</v>
+        <v>464</v>
       </c>
       <c r="F21" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G21" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="H21" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>397</v>
       </c>
       <c r="C22" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D22" t="s">
-        <v>252</v>
+        <v>524</v>
       </c>
       <c r="E22" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F22" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G22" t="s">
-        <v>272</v>
+        <v>539</v>
       </c>
       <c r="H22" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C23" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D23" t="s">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="E23" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F23" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G23" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="H23" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B24" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C24" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D24" t="s">
-        <v>249</v>
+        <v>525</v>
       </c>
       <c r="E24" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F24" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G24" t="s">
-        <v>525</v>
+        <v>260</v>
       </c>
       <c r="H24" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B25" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C25" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D25" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E25" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F25" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G25" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="H25" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>400</v>
       </c>
       <c r="C26" t="s">
-        <v>215</v>
+        <v>469</v>
       </c>
       <c r="D26" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E26" t="s">
-        <v>215</v>
+        <v>469</v>
       </c>
       <c r="F26" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G26" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="H26" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B27" t="s">
-        <v>405</v>
+        <v>110</v>
       </c>
       <c r="C27" t="s">
-        <v>468</v>
+        <v>192</v>
       </c>
       <c r="D27" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="E27" t="s">
-        <v>468</v>
+        <v>192</v>
       </c>
       <c r="F27" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G27" t="s">
-        <v>525</v>
+        <v>541</v>
       </c>
       <c r="H27" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B28" t="s">
-        <v>170</v>
+        <v>401</v>
       </c>
       <c r="C28" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D28" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="E28" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F28" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G28" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="H28" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B29" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>150</v>
+        <v>471</v>
       </c>
       <c r="D29" t="s">
-        <v>521</v>
+        <v>240</v>
       </c>
       <c r="E29" t="s">
-        <v>150</v>
+        <v>471</v>
       </c>
       <c r="F29" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G29" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="H29" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B30" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="C30" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="D30" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E30" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="F30" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G30" t="s">
-        <v>271</v>
+        <v>543</v>
       </c>
       <c r="H30" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B31" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C31" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D31" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E31" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F31" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G31" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H31" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B32" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C32" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D32" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="E32" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F32" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G32" t="s">
-        <v>538</v>
+        <v>260</v>
       </c>
       <c r="H32" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B33" t="s">
-        <v>148</v>
+        <v>404</v>
       </c>
       <c r="C33" t="s">
-        <v>144</v>
+        <v>474</v>
       </c>
       <c r="D33" t="s">
-        <v>522</v>
+        <v>237</v>
       </c>
       <c r="E33" t="s">
-        <v>144</v>
+        <v>474</v>
       </c>
       <c r="F33" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G33" t="s">
-        <v>284</v>
+        <v>544</v>
       </c>
       <c r="H33" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B34" t="s">
-        <v>409</v>
+        <v>122</v>
       </c>
       <c r="C34" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D34" t="s">
-        <v>249</v>
+        <v>526</v>
       </c>
       <c r="E34" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F34" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G34" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H34" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B35" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C35" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D35" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E35" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F35" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G35" t="s">
-        <v>539</v>
+        <v>260</v>
       </c>
       <c r="H35" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B36" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C36" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D36" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E36" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F36" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G36" t="s">
-        <v>271</v>
+        <v>545</v>
       </c>
       <c r="H36" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B37" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C37" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D37" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E37" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F37" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G37" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H37" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B38" t="s">
-        <v>153</v>
+        <v>408</v>
       </c>
       <c r="C38" t="s">
-        <v>224</v>
+        <v>479</v>
       </c>
       <c r="D38" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E38" t="s">
-        <v>224</v>
+        <v>479</v>
       </c>
       <c r="F38" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G38" t="s">
-        <v>540</v>
+        <v>260</v>
       </c>
       <c r="H38" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C39" t="s">
-        <v>186</v>
+        <v>480</v>
       </c>
       <c r="D39" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E39" t="s">
-        <v>186</v>
+        <v>480</v>
       </c>
       <c r="F39" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G39" t="s">
-        <v>271</v>
+        <v>546</v>
       </c>
       <c r="H39" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B40" t="s">
-        <v>166</v>
+        <v>409</v>
       </c>
       <c r="C40" t="s">
-        <v>240</v>
+        <v>481</v>
       </c>
       <c r="D40" t="s">
-        <v>249</v>
+        <v>527</v>
       </c>
       <c r="E40" t="s">
-        <v>240</v>
+        <v>481</v>
       </c>
       <c r="F40" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G40" t="s">
-        <v>541</v>
+        <v>261</v>
       </c>
       <c r="H40" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B41" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C41" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D41" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E41" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F41" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G41" t="s">
-        <v>271</v>
+        <v>547</v>
       </c>
       <c r="H41" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B42" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C42" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="D42" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E42" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="F42" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G42" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H42" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B43" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C43" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="D43" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E43" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="F43" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G43" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H43" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B44" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C44" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="D44" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E44" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="F44" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G44" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H44" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B45" t="s">
-        <v>416</v>
+        <v>153</v>
       </c>
       <c r="C45" t="s">
-        <v>480</v>
+        <v>217</v>
       </c>
       <c r="D45" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="E45" t="s">
-        <v>480</v>
+        <v>217</v>
       </c>
       <c r="F45" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G45" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H45" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B46" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C46" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D46" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E46" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="F46" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G46" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="H46" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B47" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C47" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D47" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E47" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="F47" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G47" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H47" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B48" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C48" t="s">
-        <v>483</v>
+        <v>189</v>
       </c>
       <c r="D48" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="E48" t="s">
-        <v>483</v>
+        <v>189</v>
       </c>
       <c r="F48" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G48" t="s">
-        <v>542</v>
+        <v>260</v>
       </c>
       <c r="H48" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B49" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C49" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D49" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E49" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="F49" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G49" t="s">
-        <v>271</v>
+        <v>548</v>
       </c>
       <c r="H49" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B50" t="s">
-        <v>420</v>
+        <v>138</v>
       </c>
       <c r="C50" t="s">
-        <v>485</v>
+        <v>198</v>
       </c>
       <c r="D50" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E50" t="s">
-        <v>485</v>
+        <v>198</v>
       </c>
       <c r="F50" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G50" t="s">
-        <v>525</v>
+        <v>260</v>
       </c>
       <c r="H50" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B51" t="s">
-        <v>133</v>
+        <v>416</v>
       </c>
       <c r="C51" t="s">
-        <v>197</v>
+        <v>488</v>
       </c>
       <c r="D51" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E51" t="s">
-        <v>197</v>
+        <v>488</v>
       </c>
       <c r="F51" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G51" t="s">
-        <v>272</v>
+        <v>530</v>
       </c>
       <c r="H51" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B52" t="s">
-        <v>421</v>
+        <v>123</v>
       </c>
       <c r="C52" t="s">
-        <v>486</v>
+        <v>190</v>
       </c>
       <c r="D52" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E52" t="s">
-        <v>486</v>
+        <v>190</v>
       </c>
       <c r="F52" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G52" t="s">
-        <v>543</v>
+        <v>261</v>
       </c>
       <c r="H52" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B53" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C53" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D53" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E53" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F53" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G53" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="H53" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B54" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C54" t="s">
-        <v>113</v>
+        <v>490</v>
       </c>
       <c r="D54" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E54" t="s">
-        <v>113</v>
+        <v>490</v>
       </c>
       <c r="F54" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G54" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="H54" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B55" t="s">
-        <v>230</v>
+        <v>419</v>
       </c>
       <c r="C55" t="s">
-        <v>488</v>
+        <v>108</v>
       </c>
       <c r="D55" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E55" t="s">
-        <v>488</v>
+        <v>108</v>
       </c>
       <c r="F55" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G55" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="H55" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B56" t="s">
-        <v>424</v>
+        <v>218</v>
       </c>
       <c r="C56" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D56" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E56" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F56" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G56" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="H56" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B57" t="s">
-        <v>109</v>
+        <v>420</v>
       </c>
       <c r="C57" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D57" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E57" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F57" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G57" t="s">
-        <v>284</v>
+        <v>552</v>
       </c>
       <c r="H57" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B58" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C58" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D58" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="E58" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F58" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G58" t="s">
-        <v>533</v>
+        <v>274</v>
       </c>
       <c r="H58" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B59" t="s">
-        <v>169</v>
+        <v>422</v>
       </c>
       <c r="C59" t="s">
-        <v>244</v>
+        <v>494</v>
       </c>
       <c r="D59" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E59" t="s">
-        <v>244</v>
+        <v>494</v>
       </c>
       <c r="F59" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G59" t="s">
-        <v>271</v>
+        <v>539</v>
       </c>
       <c r="H59" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B60" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C60" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D60" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E60" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F60" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G60" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H60" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="B61" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="C61" t="s">
-        <v>470</v>
+        <v>495</v>
       </c>
       <c r="D61" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E61" t="s">
-        <v>470</v>
+        <v>495</v>
       </c>
       <c r="F61" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G61" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="H61" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="B62" t="s">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="C62" t="s">
-        <v>453</v>
+        <v>496</v>
       </c>
       <c r="D62" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E62" t="s">
-        <v>453</v>
+        <v>496</v>
       </c>
       <c r="F62" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G62" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="H62" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B63" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="C63" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="D63" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E63" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="F63" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G63" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H63" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B64" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C64" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="D64" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E64" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="F64" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G64" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H64" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="B65" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="C65" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="D65" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E65" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="F65" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G65" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="H65" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="B66" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C66" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="D66" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E66" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="F66" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G66" t="s">
-        <v>525</v>
+        <v>273</v>
       </c>
       <c r="H66" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B67" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C67" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="D67" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E67" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="F67" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G67" t="s">
-        <v>547</v>
+        <v>530</v>
       </c>
       <c r="H67" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B68" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C68" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="D68" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E68" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="F68" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G68" t="s">
-        <v>271</v>
+        <v>553</v>
       </c>
       <c r="H68" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B69" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C69" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="D69" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E69" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F69" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G69" t="s">
-        <v>548</v>
+        <v>260</v>
       </c>
       <c r="H69" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B70" t="s">
-        <v>432</v>
+        <v>149</v>
       </c>
       <c r="C70" t="s">
-        <v>498</v>
+        <v>209</v>
       </c>
       <c r="D70" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E70" t="s">
-        <v>498</v>
+        <v>209</v>
       </c>
       <c r="F70" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G70" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="H70" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="B71" t="s">
-        <v>433</v>
+        <v>157</v>
       </c>
       <c r="C71" t="s">
-        <v>499</v>
+        <v>223</v>
       </c>
       <c r="D71" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E71" t="s">
-        <v>499</v>
+        <v>223</v>
       </c>
       <c r="F71" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G71" t="s">
-        <v>271</v>
+        <v>555</v>
       </c>
       <c r="H71" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B72" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C72" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="D72" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E72" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="F72" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G72" t="s">
-        <v>550</v>
+        <v>260</v>
       </c>
       <c r="H72" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="B73" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C73" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D73" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E73" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="F73" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G73" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="H73" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B74" t="s">
-        <v>436</v>
+        <v>156</v>
       </c>
       <c r="C74" t="s">
-        <v>502</v>
+        <v>221</v>
       </c>
       <c r="D74" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E74" t="s">
-        <v>502</v>
+        <v>221</v>
       </c>
       <c r="F74" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G74" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="H74" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="B75" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C75" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D75" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="E75" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F75" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G75" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="H75" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B76" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C76" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D76" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E76" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F76" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G76" t="s">
-        <v>542</v>
+        <v>559</v>
       </c>
       <c r="H76" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B77" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C77" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D77" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E77" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F77" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G77" t="s">
-        <v>271</v>
+        <v>548</v>
       </c>
       <c r="H77" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B78" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="C78" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D78" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E78" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F78" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G78" t="s">
-        <v>542</v>
+        <v>260</v>
       </c>
       <c r="H78" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="B79" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C79" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="D79" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E79" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="F79" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G79" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="H79" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B80" t="s">
-        <v>440</v>
+        <v>393</v>
       </c>
       <c r="C80" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="D80" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E80" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="F80" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G80" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="H80" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="B81" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C81" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D81" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E81" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="F81" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G81" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="H81" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="B82" t="s">
-        <v>117</v>
+        <v>438</v>
       </c>
       <c r="C82" t="s">
-        <v>182</v>
+        <v>512</v>
       </c>
       <c r="D82" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E82" t="s">
-        <v>182</v>
+        <v>512</v>
       </c>
       <c r="F82" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G82" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="H82" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B83" t="s">
-        <v>442</v>
+        <v>133</v>
       </c>
       <c r="C83" t="s">
-        <v>509</v>
+        <v>191</v>
       </c>
       <c r="D83" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E83" t="s">
-        <v>509</v>
+        <v>191</v>
       </c>
       <c r="F83" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G83" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="H83" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B84" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C84" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D84" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E84" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="F84" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G84" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
       <c r="H84" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B85" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="C85" t="s">
-        <v>242</v>
+        <v>187</v>
       </c>
       <c r="D85" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E85" t="s">
-        <v>242</v>
+        <v>187</v>
       </c>
       <c r="F85" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G85" t="s">
-        <v>270</v>
+        <v>550</v>
       </c>
       <c r="H85" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B86" t="s">
-        <v>444</v>
+        <v>411</v>
       </c>
       <c r="C86" t="s">
-        <v>511</v>
+        <v>483</v>
       </c>
       <c r="D86" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E86" t="s">
-        <v>511</v>
+        <v>483</v>
       </c>
       <c r="F86" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G86" t="s">
-        <v>557</v>
+        <v>259</v>
       </c>
       <c r="H86" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B87" t="s">
-        <v>399</v>
+        <v>440</v>
       </c>
       <c r="C87" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D87" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E87" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="F87" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G87" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="H87" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="B88" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="C88" t="s">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D88" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E88" t="s">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="F88" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G88" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="H88" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B89" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C89" t="s">
-        <v>513</v>
+        <v>111</v>
       </c>
       <c r="D89" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="E89" t="s">
-        <v>513</v>
+        <v>111</v>
       </c>
       <c r="F89" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G89" t="s">
-        <v>272</v>
+        <v>564</v>
       </c>
       <c r="H89" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B90" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C90" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D90" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E90" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F90" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G90" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="H90" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B91" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C91" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D91" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E91" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F91" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G91" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H91" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B92" t="s">
-        <v>148</v>
+        <v>443</v>
       </c>
       <c r="C92" t="s">
-        <v>216</v>
+        <v>517</v>
       </c>
       <c r="D92" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E92" t="s">
-        <v>216</v>
+        <v>517</v>
       </c>
       <c r="F92" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G92" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="H92" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="B93" t="s">
-        <v>143</v>
+        <v>444</v>
       </c>
       <c r="C93" t="s">
-        <v>207</v>
+        <v>518</v>
       </c>
       <c r="D93" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E93" t="s">
-        <v>207</v>
+        <v>518</v>
       </c>
       <c r="F93" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G93" t="s">
-        <v>271</v>
+        <v>566</v>
       </c>
       <c r="H93" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="B94" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C94" t="s">
-        <v>134</v>
+        <v>519</v>
       </c>
       <c r="D94" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E94" t="s">
-        <v>134</v>
+        <v>519</v>
       </c>
       <c r="F94" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G94" t="s">
-        <v>542</v>
+        <v>260</v>
       </c>
       <c r="H94" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="B95" t="s">
-        <v>116</v>
+        <v>446</v>
       </c>
       <c r="C95" t="s">
-        <v>226</v>
+        <v>133</v>
       </c>
       <c r="D95" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E95" t="s">
-        <v>226</v>
+        <v>133</v>
       </c>
       <c r="F95" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G95" t="s">
-        <v>271</v>
+        <v>548</v>
       </c>
       <c r="H95" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="B96" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C96" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D96" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E96" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F96" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G96" t="s">
-        <v>560</v>
+        <v>260</v>
       </c>
       <c r="H96" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="B97" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C97" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D97" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E97" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="F97" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G97" t="s">
-        <v>544</v>
+        <v>567</v>
       </c>
       <c r="H97" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="B98" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C98" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="D98" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E98" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="F98" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G98" t="s">
-        <v>280</v>
+        <v>550</v>
       </c>
       <c r="H98" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="B99" t="s">
-        <v>392</v>
+        <v>449</v>
       </c>
       <c r="C99" t="s">
-        <v>211</v>
+        <v>522</v>
       </c>
       <c r="D99" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E99" t="s">
-        <v>211</v>
+        <v>522</v>
       </c>
       <c r="F99" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G99" t="s">
-        <v>544</v>
+        <v>270</v>
       </c>
       <c r="H99" t="s">
-        <v>563</v>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
+        <v>379</v>
+      </c>
+      <c r="B100" t="s">
+        <v>384</v>
+      </c>
+      <c r="C100" t="s">
+        <v>202</v>
+      </c>
+      <c r="D100" t="s">
+        <v>237</v>
+      </c>
+      <c r="E100" t="s">
+        <v>202</v>
+      </c>
+      <c r="F100" t="s">
+        <v>528</v>
+      </c>
+      <c r="G100" t="s">
+        <v>550</v>
+      </c>
+      <c r="H100" t="s">
+        <v>570</v>
       </c>
     </row>
   </sheetData>

--- a/BigBasket/BigBasket_products.xlsx
+++ b/BigBasket/BigBasket_products.xlsx
@@ -332,1275 +332,1275 @@
     <t>₹39</t>
   </si>
   <si>
-    <t>₹290</t>
+    <t>₹310</t>
+  </si>
+  <si>
+    <t>₹21</t>
+  </si>
+  <si>
+    <t>₹53</t>
+  </si>
+  <si>
+    <t>₹28</t>
   </si>
   <si>
     <t>₹20</t>
   </si>
   <si>
+    <t>₹32</t>
+  </si>
+  <si>
+    <t>₹79</t>
+  </si>
+  <si>
+    <t>₹344</t>
+  </si>
+  <si>
+    <t>₹27</t>
+  </si>
+  <si>
+    <t>₹44</t>
+  </si>
+  <si>
+    <t>₹43</t>
+  </si>
+  <si>
+    <t>₹161</t>
+  </si>
+  <si>
+    <t>₹91</t>
+  </si>
+  <si>
+    <t>₹62</t>
+  </si>
+  <si>
+    <t>₹29</t>
+  </si>
+  <si>
+    <t>₹48</t>
+  </si>
+  <si>
+    <t>₹139</t>
+  </si>
+  <si>
+    <t>₹46</t>
+  </si>
+  <si>
+    <t>₹67</t>
+  </si>
+  <si>
+    <t>₹153</t>
+  </si>
+  <si>
+    <t>₹68</t>
+  </si>
+  <si>
+    <t>₹74</t>
+  </si>
+  <si>
+    <t>₹142</t>
+  </si>
+  <si>
+    <t>₹166</t>
+  </si>
+  <si>
+    <t>₹73</t>
+  </si>
+  <si>
+    <t>₹269</t>
+  </si>
+  <si>
+    <t>₹317</t>
+  </si>
+  <si>
+    <t>₹90</t>
+  </si>
+  <si>
+    <t>₹180</t>
+  </si>
+  <si>
+    <t>₹18</t>
+  </si>
+  <si>
+    <t>₹172</t>
+  </si>
+  <si>
+    <t>₹103</t>
+  </si>
+  <si>
+    <t>₹106</t>
+  </si>
+  <si>
+    <t>₹202</t>
+  </si>
+  <si>
+    <t>₹77</t>
+  </si>
+  <si>
+    <t>₹69</t>
+  </si>
+  <si>
+    <t>₹13.16</t>
+  </si>
+  <si>
+    <t>₹70</t>
+  </si>
+  <si>
+    <t>₹155</t>
+  </si>
+  <si>
+    <t>₹165</t>
+  </si>
+  <si>
+    <t>₹120</t>
+  </si>
+  <si>
+    <t>₹15</t>
+  </si>
+  <si>
+    <t>₹318</t>
+  </si>
+  <si>
+    <t>₹87</t>
+  </si>
+  <si>
+    <t>₹144</t>
+  </si>
+  <si>
+    <t>₹31</t>
+  </si>
+  <si>
+    <t>₹128</t>
+  </si>
+  <si>
+    <t>₹148</t>
+  </si>
+  <si>
+    <t>₹46.58</t>
+  </si>
+  <si>
+    <t>₹54</t>
+  </si>
+  <si>
+    <t>₹58</t>
+  </si>
+  <si>
+    <t>₹40</t>
+  </si>
+  <si>
+    <t>₹24</t>
+  </si>
+  <si>
+    <t>₹14</t>
+  </si>
+  <si>
+    <t>₹117</t>
+  </si>
+  <si>
+    <t>₹57</t>
+  </si>
+  <si>
+    <t>₹47</t>
+  </si>
+  <si>
+    <t>₹131</t>
+  </si>
+  <si>
+    <t>₹52</t>
+  </si>
+  <si>
+    <t>₹55</t>
+  </si>
+  <si>
+    <t>₹118</t>
+  </si>
+  <si>
+    <t>₹173</t>
+  </si>
+  <si>
+    <t>₹33</t>
+  </si>
+  <si>
+    <t>₹56</t>
+  </si>
+  <si>
+    <t>₹28.47</t>
+  </si>
+  <si>
+    <t>₹12</t>
+  </si>
+  <si>
+    <t>₹17</t>
+  </si>
+  <si>
+    <t>₹4</t>
+  </si>
+  <si>
+    <t>₹89.5</t>
+  </si>
+  <si>
+    <t>₹19.5</t>
+  </si>
+  <si>
+    <t>₹27.95</t>
+  </si>
+  <si>
+    <t>₹10.5</t>
+  </si>
+  <si>
+    <t>₹104.65</t>
+  </si>
+  <si>
+    <t>₹66.43</t>
+  </si>
+  <si>
+    <t>₹42</t>
+  </si>
+  <si>
+    <t>₹22.11</t>
+  </si>
+  <si>
+    <t>₹101.47</t>
+  </si>
+  <si>
+    <t>₹43.55</t>
+  </si>
+  <si>
+    <t>₹111.69</t>
+  </si>
+  <si>
+    <t>₹48.1</t>
+  </si>
+  <si>
+    <t>₹103.66</t>
+  </si>
+  <si>
+    <t>₹21.17</t>
+  </si>
+  <si>
+    <t>₹121.18</t>
+  </si>
+  <si>
+    <t>₹50</t>
+  </si>
+  <si>
+    <t>₹196.37</t>
+  </si>
+  <si>
+    <t>₹231.41</t>
+  </si>
+  <si>
+    <t>₹33.58</t>
+  </si>
+  <si>
+    <t>₹60</t>
+  </si>
+  <si>
+    <t>₹49.64</t>
+  </si>
+  <si>
+    <t>₹131.4</t>
+  </si>
+  <si>
+    <t>₹13.14</t>
+  </si>
+  <si>
+    <t>₹125.56</t>
+  </si>
+  <si>
+    <t>₹75.19</t>
+  </si>
+  <si>
+    <t>₹23.36</t>
+  </si>
+  <si>
+    <t>₹77.38</t>
+  </si>
+  <si>
+    <t>₹147.46</t>
+  </si>
+  <si>
+    <t>₹56.21</t>
+  </si>
+  <si>
+    <t>₹45.26</t>
+  </si>
+  <si>
+    <t>₹50.37</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>₹51.1</t>
+  </si>
+  <si>
+    <t>₹89</t>
+  </si>
+  <si>
+    <t>₹120.45</t>
+  </si>
+  <si>
+    <t>₹38.69</t>
+  </si>
+  <si>
+    <t>₹87.6</t>
+  </si>
+  <si>
+    <t>₹35.04</t>
+  </si>
+  <si>
+    <t>₹8</t>
+  </si>
+  <si>
+    <t>₹57.67</t>
+  </si>
+  <si>
+    <t>₹232.14</t>
+  </si>
+  <si>
+    <t>₹96</t>
+  </si>
+  <si>
+    <t>₹63.51</t>
+  </si>
+  <si>
+    <t>₹105.12</t>
+  </si>
+  <si>
+    <t>₹22.63</t>
+  </si>
+  <si>
+    <t>₹93.44</t>
+  </si>
+  <si>
+    <t>₹108.04</t>
+  </si>
+  <si>
+    <t>₹34</t>
+  </si>
+  <si>
+    <t>₹39.42</t>
+  </si>
+  <si>
+    <t>₹42.34</t>
+  </si>
+  <si>
+    <t>₹20.44</t>
+  </si>
+  <si>
+    <t>₹29.2</t>
+  </si>
+  <si>
+    <t>₹17.52</t>
+  </si>
+  <si>
+    <t>₹10.22</t>
+  </si>
+  <si>
+    <t>₹65.7</t>
+  </si>
+  <si>
+    <t>₹85.41</t>
+  </si>
+  <si>
+    <t>₹41.61</t>
+  </si>
+  <si>
+    <t>₹30.55</t>
+  </si>
+  <si>
+    <t>₹53.29</t>
+  </si>
+  <si>
+    <t>₹95.63</t>
+  </si>
+  <si>
+    <t>₹40.15</t>
+  </si>
+  <si>
+    <t>₹86.14</t>
+  </si>
+  <si>
+    <t>₹126.29</t>
+  </si>
+  <si>
+    <t>₹24.09</t>
+  </si>
+  <si>
+    <t>39% OFF</t>
+  </si>
+  <si>
+    <t>27% OFF</t>
+  </si>
+  <si>
+    <t>42% OFF</t>
+  </si>
+  <si>
+    <t>43% OFF</t>
+  </si>
+  <si>
+    <t>38% OFF</t>
+  </si>
+  <si>
+    <t>80% OFF</t>
+  </si>
+  <si>
+    <t>53% OFF</t>
+  </si>
+  <si>
+    <t>49% OFF</t>
+  </si>
+  <si>
+    <t>74% OFF</t>
+  </si>
+  <si>
+    <t>48% OFF</t>
+  </si>
+  <si>
+    <t>56% OFF</t>
+  </si>
+  <si>
+    <t>35% OFF</t>
+  </si>
+  <si>
+    <t>63% OFF</t>
+  </si>
+  <si>
+    <t>32% OFF</t>
+  </si>
+  <si>
+    <t>54% OFF</t>
+  </si>
+  <si>
+    <t>57% OFF</t>
+  </si>
+  <si>
+    <t>41% OFF</t>
+  </si>
+  <si>
+    <t>33% OFF</t>
+  </si>
+  <si>
+    <t>47% OFF</t>
+  </si>
+  <si>
+    <t>31% OFF</t>
+  </si>
+  <si>
+    <t>44% OFF</t>
+  </si>
+  <si>
+    <t>Fresh Vegetables</t>
+  </si>
+  <si>
+    <t>2 kg</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx 500-1kg)</t>
+  </si>
+  <si>
+    <t>5 kg - Multipack</t>
+  </si>
+  <si>
+    <t>250 g</t>
+  </si>
+  <si>
+    <t>1 kg</t>
+  </si>
+  <si>
+    <t>1 pc - (approx. 400 to 600 g)</t>
+  </si>
+  <si>
+    <t>500 g</t>
+  </si>
+  <si>
+    <t>1 pack - (Approx. 180g - 200 g)</t>
+  </si>
+  <si>
+    <t>1 pc - (approx. 500 g to 800 g)</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 500 g - 800 g)</t>
+  </si>
+  <si>
+    <t>2 pcs</t>
+  </si>
+  <si>
+    <t>5 kg</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 100 g)</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 250g-500g)</t>
+  </si>
+  <si>
+    <t>100 g</t>
+  </si>
+  <si>
+    <t>350 g (2 pieces)</t>
+  </si>
+  <si>
+    <t>1 pc - Approx. 400 to 600 g</t>
+  </si>
+  <si>
+    <t>1 Kg</t>
+  </si>
+  <si>
+    <t>1 pc</t>
+  </si>
+  <si>
+    <t>1 pc (Approx 500-1000 g)</t>
+  </si>
+  <si>
+    <t>1 pc (approx. 300-1.3 Kg)</t>
+  </si>
+  <si>
+    <t>2023-09-28 10:02:18</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:23:50</t>
+  </si>
+  <si>
+    <t>2023-10-05 05:13:58</t>
+  </si>
+  <si>
+    <t>Kesar Mango</t>
+  </si>
+  <si>
+    <t>Apple - Red Delicious / Washington, Regular</t>
+  </si>
+  <si>
+    <t>Apple - Red Delicious / Washington, Premium</t>
+  </si>
+  <si>
+    <t>Himayath Mango</t>
+  </si>
+  <si>
+    <t>Muskmelon -  Netted Medium</t>
+  </si>
+  <si>
+    <t>Raw Mango (Loose)</t>
+  </si>
+  <si>
+    <t>Banana - Robusta</t>
+  </si>
+  <si>
+    <t>Apple - Shimla, Regular</t>
+  </si>
+  <si>
+    <t>Pomegranate - Regular (Loose)</t>
+  </si>
+  <si>
+    <t>Baby Apple Shimla</t>
+  </si>
+  <si>
+    <t>Banana - Yelakki</t>
+  </si>
+  <si>
+    <t>Coconut - Medium</t>
+  </si>
+  <si>
+    <t>Papaya</t>
+  </si>
+  <si>
+    <t>Mini Orange Imported (Loose)</t>
+  </si>
+  <si>
+    <t>Pomegranate (Loose)</t>
+  </si>
+  <si>
+    <t>Tender Coconut</t>
+  </si>
+  <si>
+    <t>Guava - Thai (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala Economy</t>
+  </si>
+  <si>
+    <t>Watermelon -  Medium</t>
+  </si>
+  <si>
+    <t>Mosambi - Economy (Loose)</t>
+  </si>
+  <si>
+    <t>Kiwi - Green</t>
+  </si>
+  <si>
+    <t>Banana - Nendran</t>
+  </si>
+  <si>
+    <t>Guava (Loose)</t>
+  </si>
+  <si>
+    <t>Pear - Green, Imported</t>
+  </si>
+  <si>
+    <t>Blueberry</t>
+  </si>
+  <si>
+    <t>Muskmelon -  Netted Small</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala, Regular</t>
+  </si>
+  <si>
+    <t>Papaya - Small</t>
+  </si>
+  <si>
+    <t>Dragon Fruit (Loose)</t>
+  </si>
+  <si>
+    <t>Grapes - Bangalore Blue</t>
+  </si>
+  <si>
+    <t>Avocado (Loose)</t>
+  </si>
+  <si>
+    <t>Orange - Nagpur, Regular (Loose)</t>
+  </si>
+  <si>
+    <t>Avocado - Imported, Medium (Loose)</t>
+  </si>
+  <si>
+    <t>Mosambi - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala, Premium</t>
+  </si>
+  <si>
+    <t>Banana - Yelakki, Organically Grown</t>
+  </si>
+  <si>
+    <t>Banana - Raw Green (Loose)</t>
+  </si>
+  <si>
+    <t>Coconut - Large</t>
+  </si>
+  <si>
+    <t>Raw Mango - Rich in Vitamin C (Loose)</t>
+  </si>
+  <si>
+    <t>Pineapple</t>
+  </si>
+  <si>
+    <t>Sapota</t>
+  </si>
+  <si>
+    <t>Mango - Neelam</t>
+  </si>
+  <si>
+    <t>Fresh Figs</t>
+  </si>
+  <si>
+    <t>Langra Mango</t>
+  </si>
+  <si>
+    <t>Pear - Naspathi, Indian</t>
+  </si>
+  <si>
+    <t>Pear Beauty</t>
+  </si>
+  <si>
+    <t>Banana - Red</t>
+  </si>
+  <si>
+    <t>Pomegranate - Peeled</t>
+  </si>
+  <si>
+    <t>Mallika Mango</t>
+  </si>
+  <si>
+    <t>Apple - Green, Premium</t>
+  </si>
+  <si>
+    <t>Baby Banana - Robusta</t>
+  </si>
+  <si>
+    <t>Orange - Imported (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Pink Lady</t>
+  </si>
+  <si>
+    <t>Sugarcane - Diced</t>
+  </si>
+  <si>
+    <t>Coconut with Husk - Pooja Coconut</t>
+  </si>
+  <si>
+    <t>Dates - Kimia, with Seed</t>
+  </si>
+  <si>
+    <t>Wood Apple - Kothbel (Loose)</t>
+  </si>
+  <si>
+    <t>Zespri Kiwi - Sun Gold</t>
+  </si>
+  <si>
+    <t>Ber - Apple (Loose)</t>
+  </si>
+  <si>
+    <t>Banana - Karpooravalli</t>
+  </si>
+  <si>
+    <t>Orange - Nagpur, Small (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Ambri</t>
+  </si>
+  <si>
+    <t>Longan</t>
+  </si>
+  <si>
+    <t>Banana - Poovan</t>
+  </si>
+  <si>
+    <t>Banana - Nendran, Organically Grown</t>
+  </si>
+  <si>
+    <t>Apple - Shimla, Premium</t>
+  </si>
+  <si>
+    <t>Pear - Beauty, Rich In Fiber, Vitamin C, Great For Gut Health</t>
+  </si>
+  <si>
+    <t>Grapes - Red Globe</t>
+  </si>
+  <si>
+    <t>Mosambi - Premium (Loose)</t>
+  </si>
+  <si>
+    <t>Coconut - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Guava - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Soursop</t>
+  </si>
+  <si>
+    <t>Coconut - Diced</t>
+  </si>
+  <si>
+    <t>Cherry - Kashmir</t>
+  </si>
+  <si>
+    <t>Apple - Red Delicious, Economy</t>
+  </si>
+  <si>
+    <t>Apricot - Dried</t>
+  </si>
+  <si>
+    <t>Passion Fruit</t>
+  </si>
+  <si>
+    <t>Pineapple - Slices</t>
+  </si>
+  <si>
+    <t>Papaya- Diced</t>
+  </si>
+  <si>
+    <t>Plum - Indian</t>
+  </si>
+  <si>
+    <t>Pomegranate - Single Serve, Peeled</t>
+  </si>
+  <si>
+    <t>Mosambi (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Washington, Regular</t>
+  </si>
+  <si>
+    <t>Apple - Fuji, Economy</t>
+  </si>
+  <si>
+    <t>Cherry</t>
+  </si>
+  <si>
+    <t>Grape fruit - Imported (Loose)</t>
+  </si>
+  <si>
+    <t>Pineapple - Chunks, Single Serve</t>
+  </si>
+  <si>
+    <t>Watermelon - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Ber (Loose)</t>
+  </si>
+  <si>
+    <t>Rambutan</t>
+  </si>
+  <si>
+    <t>Plum - Imported</t>
+  </si>
+  <si>
+    <t>Tamarind - Sweet</t>
+  </si>
+  <si>
+    <t>Mango - Raw Totapuri</t>
+  </si>
+  <si>
+    <t>Pomelo - Peeled</t>
+  </si>
+  <si>
+    <t>Sapota - Organically Grown</t>
+  </si>
+  <si>
+    <t>Guava - Thai Organic, White</t>
+  </si>
+  <si>
+    <t>Mangosteen</t>
+  </si>
+  <si>
+    <t>Cherry - Imported</t>
+  </si>
+  <si>
+    <t>Apple - Queen, Rose</t>
+  </si>
+  <si>
+    <t>₹190</t>
+  </si>
+  <si>
+    <t>₹380</t>
+  </si>
+  <si>
+    <t>₹702</t>
+  </si>
+  <si>
+    <t>₹211.25</t>
+  </si>
+  <si>
     <t>₹51</t>
   </si>
   <si>
-    <t>₹24</t>
-  </si>
-  <si>
-    <t>₹22</t>
-  </si>
-  <si>
-    <t>₹54</t>
-  </si>
-  <si>
-    <t>₹73</t>
-  </si>
-  <si>
-    <t>₹344</t>
-  </si>
-  <si>
-    <t>₹15</t>
-  </si>
-  <si>
-    <t>₹44</t>
-  </si>
-  <si>
-    <t>₹40</t>
-  </si>
-  <si>
-    <t>₹55</t>
-  </si>
-  <si>
-    <t>₹150</t>
-  </si>
-  <si>
-    <t>₹91</t>
-  </si>
-  <si>
-    <t>₹62</t>
-  </si>
-  <si>
-    <t>₹27</t>
-  </si>
-  <si>
-    <t>₹48</t>
-  </si>
-  <si>
-    <t>₹139</t>
-  </si>
-  <si>
-    <t>₹46</t>
-  </si>
-  <si>
-    <t>₹58</t>
-  </si>
-  <si>
-    <t>₹68</t>
-  </si>
-  <si>
-    <t>₹74</t>
-  </si>
-  <si>
-    <t>₹142</t>
-  </si>
-  <si>
-    <t>₹25</t>
-  </si>
-  <si>
-    <t>₹166</t>
-  </si>
-  <si>
-    <t>₹269</t>
-  </si>
-  <si>
-    <t>₹317</t>
+    <t>₹76</t>
+  </si>
+  <si>
+    <t>₹328</t>
+  </si>
+  <si>
+    <t>₹330</t>
+  </si>
+  <si>
+    <t>₹223</t>
+  </si>
+  <si>
+    <t>₹210</t>
+  </si>
+  <si>
+    <t>₹35</t>
+  </si>
+  <si>
+    <t>₹405</t>
+  </si>
+  <si>
+    <t>₹287</t>
+  </si>
+  <si>
+    <t>₹93.15</t>
+  </si>
+  <si>
+    <t>₹253</t>
+  </si>
+  <si>
+    <t>₹85</t>
+  </si>
+  <si>
+    <t>₹236</t>
+  </si>
+  <si>
+    <t>₹246</t>
+  </si>
+  <si>
+    <t>₹111</t>
+  </si>
+  <si>
+    <t>₹570</t>
+  </si>
+  <si>
+    <t>₹388</t>
+  </si>
+  <si>
+    <t>₹590</t>
+  </si>
+  <si>
+    <t>₹59</t>
+  </si>
+  <si>
+    <t>₹146</t>
+  </si>
+  <si>
+    <t>₹374</t>
+  </si>
+  <si>
+    <t>₹99</t>
+  </si>
+  <si>
+    <t>₹109</t>
+  </si>
+  <si>
+    <t>₹604</t>
+  </si>
+  <si>
+    <t>₹243</t>
+  </si>
+  <si>
+    <t>₹95</t>
+  </si>
+  <si>
+    <t>₹114</t>
+  </si>
+  <si>
+    <t>₹127</t>
+  </si>
+  <si>
+    <t>₹210.53</t>
+  </si>
+  <si>
+    <t>₹274</t>
+  </si>
+  <si>
+    <t>₹185</t>
   </si>
   <si>
     <t>₹133</t>
   </si>
   <si>
+    <t>₹228</t>
+  </si>
+  <si>
+    <t>₹500</t>
+  </si>
+  <si>
+    <t>₹255</t>
+  </si>
+  <si>
+    <t>₹453</t>
+  </si>
+  <si>
+    <t>₹41.1</t>
+  </si>
+  <si>
+    <t>₹36</t>
+  </si>
+  <si>
+    <t>₹302</t>
+  </si>
+  <si>
+    <t>₹409</t>
+  </si>
+  <si>
+    <t>₹84</t>
+  </si>
+  <si>
+    <t>₹125</t>
+  </si>
+  <si>
+    <t>₹424</t>
+  </si>
+  <si>
+    <t>₹122</t>
+  </si>
+  <si>
+    <t>₹442</t>
+  </si>
+  <si>
+    <t>₹381</t>
+  </si>
+  <si>
+    <t>₹722</t>
+  </si>
+  <si>
+    <t>₹137</t>
+  </si>
+  <si>
+    <t>₹162</t>
+  </si>
+  <si>
+    <t>₹64</t>
+  </si>
+  <si>
+    <t>₹554</t>
+  </si>
+  <si>
+    <t>₹336</t>
+  </si>
+  <si>
+    <t>₹377</t>
+  </si>
+  <si>
+    <t>₹429</t>
+  </si>
+  <si>
+    <t>₹177</t>
+  </si>
+  <si>
+    <t>₹104.11</t>
+  </si>
+  <si>
+    <t>₹462</t>
+  </si>
+  <si>
+    <t>₹206</t>
+  </si>
+  <si>
+    <t>₹100</t>
+  </si>
+  <si>
+    <t>₹1895</t>
+  </si>
+  <si>
+    <t>₹394</t>
+  </si>
+  <si>
+    <t>₹192</t>
+  </si>
+  <si>
+    <t>₹110.96</t>
+  </si>
+  <si>
+    <t>₹403</t>
+  </si>
+  <si>
+    <t>₹242</t>
+  </si>
+  <si>
+    <t>₹138.7</t>
+  </si>
+  <si>
+    <t>₹277.4</t>
+  </si>
+  <si>
+    <t>₹512.46</t>
+  </si>
+  <si>
+    <t>₹37.23</t>
+  </si>
+  <si>
+    <t>₹214.5</t>
+  </si>
+  <si>
+    <t>₹134</t>
+  </si>
+  <si>
+    <t>₹153.3</t>
+  </si>
+  <si>
+    <t>₹25.55</t>
+  </si>
+  <si>
+    <t>₹44.2</t>
+  </si>
+  <si>
+    <t>₹186.55</t>
+  </si>
+  <si>
+    <t>₹49</t>
+  </si>
+  <si>
+    <t>₹50.05</t>
+  </si>
+  <si>
+    <t>₹164.45</t>
+  </si>
+  <si>
+    <t>₹62.05</t>
+  </si>
+  <si>
+    <t>₹147</t>
+  </si>
+  <si>
+    <t>₹132</t>
+  </si>
+  <si>
+    <t>₹80</t>
+  </si>
+  <si>
+    <t>₹416.1</t>
+  </si>
+  <si>
+    <t>₹283.24</t>
+  </si>
+  <si>
+    <t>₹340</t>
+  </si>
+  <si>
+    <t>₹38.35</t>
+  </si>
+  <si>
+    <t>₹106.58</t>
+  </si>
+  <si>
+    <t>₹273.02</t>
+  </si>
+  <si>
+    <t>₹72.27</t>
+  </si>
+  <si>
+    <t>₹79.57</t>
+  </si>
+  <si>
+    <t>₹440.92</t>
+  </si>
+  <si>
+    <t>₹177.39</t>
+  </si>
+  <si>
+    <t>₹69.35</t>
+  </si>
+  <si>
+    <t>₹32.12</t>
+  </si>
+  <si>
+    <t>₹37.5</t>
+  </si>
+  <si>
+    <t>₹83.22</t>
+  </si>
+  <si>
+    <t>₹92.71</t>
+  </si>
+  <si>
+    <t>₹153.69</t>
+  </si>
+  <si>
+    <t>₹178.1</t>
+  </si>
+  <si>
+    <t>₹135.05</t>
+  </si>
+  <si>
+    <t>₹97.09</t>
+  </si>
+  <si>
+    <t>₹148.2</t>
+  </si>
+  <si>
+    <t>₹365</t>
+  </si>
+  <si>
+    <t>₹34.31</t>
+  </si>
+  <si>
+    <t>₹186.15</t>
+  </si>
+  <si>
+    <t>₹330.69</t>
+  </si>
+  <si>
+    <t>₹30</t>
+  </si>
+  <si>
+    <t>₹26.28</t>
+  </si>
+  <si>
+    <t>₹220.46</t>
+  </si>
+  <si>
+    <t>₹12.41</t>
+  </si>
+  <si>
+    <t>₹265.85</t>
+  </si>
+  <si>
+    <t>₹61.32</t>
+  </si>
+  <si>
+    <t>₹91.25</t>
+  </si>
+  <si>
+    <t>₹239.44</t>
+  </si>
+  <si>
+    <t>₹309.52</t>
+  </si>
+  <si>
+    <t>₹89.06</t>
+  </si>
+  <si>
+    <t>₹322.66</t>
+  </si>
+  <si>
+    <t>₹278.13</t>
+  </si>
+  <si>
+    <t>₹527.06</t>
+  </si>
+  <si>
+    <t>₹36.5</t>
+  </si>
+  <si>
+    <t>₹100.01</t>
+  </si>
+  <si>
+    <t>₹118.26</t>
+  </si>
+  <si>
+    <t>₹46.72</t>
+  </si>
+  <si>
+    <t>₹404.42</t>
+  </si>
+  <si>
+    <t>₹218.4</t>
+  </si>
+  <si>
+    <t>₹275.21</t>
+  </si>
+  <si>
+    <t>₹313.17</t>
+  </si>
+  <si>
+    <t>₹54.02</t>
+  </si>
+  <si>
+    <t>₹129.21</t>
+  </si>
+  <si>
+    <t>₹337.26</t>
+  </si>
+  <si>
+    <t>₹150.38</t>
+  </si>
+  <si>
+    <t>₹31.2</t>
+  </si>
+  <si>
+    <t>₹1383.35</t>
+  </si>
+  <si>
+    <t>₹287.62</t>
+  </si>
+  <si>
+    <t>₹115</t>
+  </si>
+  <si>
     <t>₹81</t>
   </si>
   <si>
-    <t>₹180</t>
-  </si>
-  <si>
-    <t>₹18</t>
-  </si>
-  <si>
-    <t>₹172</t>
-  </si>
-  <si>
-    <t>₹103</t>
-  </si>
-  <si>
-    <t>₹153</t>
-  </si>
-  <si>
-    <t>₹100</t>
-  </si>
-  <si>
-    <t>₹202</t>
-  </si>
-  <si>
-    <t>₹69</t>
-  </si>
-  <si>
-    <t>₹13.16</t>
-  </si>
-  <si>
-    <t>₹70</t>
-  </si>
-  <si>
-    <t>₹144</t>
-  </si>
-  <si>
-    <t>₹165</t>
-  </si>
-  <si>
-    <t>₹53</t>
-  </si>
-  <si>
-    <t>₹120</t>
-  </si>
-  <si>
-    <t>₹47</t>
-  </si>
-  <si>
-    <t>₹106</t>
-  </si>
-  <si>
-    <t>₹318</t>
-  </si>
-  <si>
-    <t>₹87</t>
-  </si>
-  <si>
-    <t>₹31</t>
-  </si>
-  <si>
-    <t>₹128</t>
-  </si>
-  <si>
-    <t>₹49.32</t>
-  </si>
-  <si>
-    <t>₹29</t>
-  </si>
-  <si>
-    <t>₹64</t>
-  </si>
-  <si>
-    <t>₹50</t>
-  </si>
-  <si>
-    <t>₹21</t>
-  </si>
-  <si>
-    <t>₹14</t>
-  </si>
-  <si>
-    <t>₹90</t>
-  </si>
-  <si>
-    <t>₹107</t>
-  </si>
-  <si>
-    <t>₹32</t>
-  </si>
-  <si>
-    <t>₹57</t>
-  </si>
-  <si>
-    <t>₹98</t>
-  </si>
-  <si>
-    <t>₹131</t>
-  </si>
-  <si>
-    <t>₹173</t>
-  </si>
-  <si>
-    <t>₹33</t>
-  </si>
-  <si>
-    <t>₹56</t>
-  </si>
-  <si>
-    <t>₹28.47</t>
-  </si>
-  <si>
-    <t>₹12</t>
-  </si>
-  <si>
-    <t>₹15.6</t>
-  </si>
-  <si>
-    <t>₹8</t>
-  </si>
-  <si>
-    <t>₹89.5</t>
-  </si>
-  <si>
-    <t>₹6</t>
-  </si>
-  <si>
-    <t>₹19.5</t>
-  </si>
-  <si>
-    <t>₹26</t>
-  </si>
-  <si>
-    <t>₹97.5</t>
-  </si>
-  <si>
-    <t>₹66.43</t>
-  </si>
-  <si>
-    <t>₹42</t>
-  </si>
-  <si>
-    <t>₹101.47</t>
-  </si>
-  <si>
-    <t>₹37.7</t>
-  </si>
-  <si>
-    <t>₹48.1</t>
-  </si>
-  <si>
-    <t>₹103.66</t>
-  </si>
-  <si>
-    <t>₹18.25</t>
-  </si>
-  <si>
-    <t>₹121.18</t>
-  </si>
-  <si>
-    <t>₹49.64</t>
-  </si>
-  <si>
-    <t>₹196.37</t>
-  </si>
-  <si>
-    <t>₹231.41</t>
-  </si>
-  <si>
-    <t>₹97.09</t>
-  </si>
-  <si>
-    <t>₹33.58</t>
-  </si>
-  <si>
-    <t>₹59.13</t>
-  </si>
-  <si>
-    <t>₹39.42</t>
-  </si>
-  <si>
-    <t>₹131.4</t>
-  </si>
-  <si>
-    <t>₹13.14</t>
-  </si>
-  <si>
-    <t>₹125.56</t>
-  </si>
-  <si>
-    <t>₹75.19</t>
-  </si>
-  <si>
-    <t>₹37.23</t>
-  </si>
-  <si>
-    <t>₹111.69</t>
-  </si>
-  <si>
-    <t>₹147.46</t>
-  </si>
-  <si>
-    <t>₹45.26</t>
-  </si>
-  <si>
-    <t>₹50.37</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>₹51.1</t>
-  </si>
-  <si>
-    <t>₹89</t>
-  </si>
-  <si>
-    <t>₹120.45</t>
-  </si>
-  <si>
-    <t>₹38.69</t>
-  </si>
-  <si>
-    <t>₹87.6</t>
-  </si>
-  <si>
-    <t>₹34.31</t>
-  </si>
-  <si>
-    <t>₹77.38</t>
-  </si>
-  <si>
-    <t>₹53.29</t>
-  </si>
-  <si>
-    <t>₹232.14</t>
-  </si>
-  <si>
-    <t>₹96</t>
-  </si>
-  <si>
-    <t>₹35.04</t>
-  </si>
-  <si>
-    <t>₹63.51</t>
-  </si>
-  <si>
-    <t>₹105.12</t>
-  </si>
-  <si>
-    <t>₹22.63</t>
-  </si>
-  <si>
-    <t>₹93.44</t>
-  </si>
-  <si>
-    <t>₹36</t>
-  </si>
-  <si>
-    <t>₹42.34</t>
-  </si>
-  <si>
-    <t>₹21.17</t>
-  </si>
-  <si>
-    <t>₹46.72</t>
-  </si>
-  <si>
-    <t>₹29.2</t>
-  </si>
-  <si>
-    <t>₹36.5</t>
-  </si>
-  <si>
-    <t>₹15.33</t>
-  </si>
-  <si>
-    <t>₹10.22</t>
-  </si>
-  <si>
-    <t>₹65.7</t>
-  </si>
-  <si>
-    <t>₹78.11</t>
-  </si>
-  <si>
-    <t>₹23.36</t>
-  </si>
-  <si>
-    <t>₹41.61</t>
-  </si>
-  <si>
-    <t>₹30.55</t>
-  </si>
-  <si>
-    <t>₹71.54</t>
-  </si>
-  <si>
-    <t>₹95.63</t>
-  </si>
-  <si>
-    <t>₹40.15</t>
-  </si>
-  <si>
-    <t>₹126.29</t>
-  </si>
-  <si>
-    <t>₹24.09</t>
-  </si>
-  <si>
-    <t>39% OFF</t>
-  </si>
-  <si>
-    <t>27% OFF</t>
-  </si>
-  <si>
-    <t>38% OFF</t>
+    <t>₹294.19</t>
+  </si>
+  <si>
+    <t>₹176.66</t>
+  </si>
+  <si>
+    <t>45% OFF</t>
   </si>
   <si>
     <t>40% OFF</t>
   </si>
   <si>
-    <t>35% OFF</t>
-  </si>
-  <si>
-    <t>64% OFF</t>
-  </si>
-  <si>
-    <t>59% OFF</t>
-  </si>
-  <si>
-    <t>45% OFF</t>
-  </si>
-  <si>
-    <t>74% OFF</t>
-  </si>
-  <si>
-    <t>60% OFF</t>
-  </si>
-  <si>
-    <t>56% OFF</t>
-  </si>
-  <si>
-    <t>62% OFF</t>
-  </si>
-  <si>
-    <t>32% OFF</t>
-  </si>
-  <si>
-    <t>44% OFF</t>
-  </si>
-  <si>
-    <t>48% OFF</t>
-  </si>
-  <si>
-    <t>57% OFF</t>
-  </si>
-  <si>
-    <t>41% OFF</t>
-  </si>
-  <si>
-    <t>67% OFF</t>
-  </si>
-  <si>
-    <t>31% OFF</t>
-  </si>
-  <si>
-    <t>Fresh Vegetables</t>
-  </si>
-  <si>
-    <t>2 kg</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx 500-1kg)</t>
-  </si>
-  <si>
-    <t>5 kg - Multipack</t>
-  </si>
-  <si>
-    <t>250 g</t>
-  </si>
-  <si>
-    <t>1 kg</t>
-  </si>
-  <si>
-    <t>500 g</t>
-  </si>
-  <si>
-    <t>1 pc - (approx. 400 to 600 g)</t>
-  </si>
-  <si>
-    <t>1 pack - (Approx. 180g - 200 g)</t>
-  </si>
-  <si>
-    <t>1 pc - (approx. 500 g to 800 g)</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx. 500 g - 800 g)</t>
-  </si>
-  <si>
-    <t>2 pcs</t>
-  </si>
-  <si>
-    <t>5 kg</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx. 100 g)</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx. 250g-500g)</t>
-  </si>
-  <si>
-    <t>100 g</t>
-  </si>
-  <si>
-    <t>350 g (2 pieces)</t>
-  </si>
-  <si>
-    <t>1 pc - Approx. 400 to 600 g</t>
-  </si>
-  <si>
-    <t>1 Kg</t>
-  </si>
-  <si>
-    <t>1 pc</t>
-  </si>
-  <si>
-    <t>1 pc (Approx 500-1000 g)</t>
-  </si>
-  <si>
-    <t>1 pc (approx. 300-1.3 Kg)</t>
-  </si>
-  <si>
-    <t>2023-09-28 10:02:18</t>
-  </si>
-  <si>
-    <t>2023-09-29 12:23:50</t>
-  </si>
-  <si>
-    <t>2023-10-04 08:56:03</t>
-  </si>
-  <si>
-    <t>2023-10-04 08:56:04</t>
-  </si>
-  <si>
-    <t>Kesar Mango</t>
-  </si>
-  <si>
-    <t>Apple - Red Delicious / Washington, Regular</t>
-  </si>
-  <si>
-    <t>Apple - Red Delicious / Washington, Premium</t>
-  </si>
-  <si>
-    <t>Himayath Mango</t>
-  </si>
-  <si>
-    <t>Muskmelon -  Netted Medium</t>
-  </si>
-  <si>
-    <t>Raw Mango (Loose)</t>
-  </si>
-  <si>
-    <t>Banana - Robusta</t>
-  </si>
-  <si>
-    <t>Apple - Shimla, Regular</t>
-  </si>
-  <si>
-    <t>Pomegranate - Regular (Loose)</t>
-  </si>
-  <si>
-    <t>Baby Apple Shimla</t>
-  </si>
-  <si>
-    <t>Banana - Yelakki</t>
-  </si>
-  <si>
-    <t>Coconut - Medium</t>
-  </si>
-  <si>
-    <t>Papaya</t>
-  </si>
-  <si>
-    <t>Mini Orange Imported (Loose)</t>
-  </si>
-  <si>
-    <t>Pomegranate (Loose)</t>
-  </si>
-  <si>
-    <t>Tender Coconut</t>
-  </si>
-  <si>
-    <t>Guava - Thai (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala Economy</t>
-  </si>
-  <si>
-    <t>Watermelon -  Medium</t>
-  </si>
-  <si>
-    <t>Mosambi - Economy (Loose)</t>
-  </si>
-  <si>
-    <t>Kiwi - Green</t>
-  </si>
-  <si>
-    <t>Banana - Nendran</t>
-  </si>
-  <si>
-    <t>Guava (Loose)</t>
-  </si>
-  <si>
-    <t>Pear - Green, Imported</t>
-  </si>
-  <si>
-    <t>Blueberry</t>
-  </si>
-  <si>
-    <t>Muskmelon -  Netted Small</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala, Regular</t>
-  </si>
-  <si>
-    <t>Papaya - Small</t>
-  </si>
-  <si>
-    <t>Dragon Fruit (Loose)</t>
-  </si>
-  <si>
-    <t>Grapes - Bangalore Blue</t>
-  </si>
-  <si>
-    <t>Avocado (Loose)</t>
-  </si>
-  <si>
-    <t>Orange - Nagpur, Regular (Loose)</t>
-  </si>
-  <si>
-    <t>Avocado - Imported, Medium (Loose)</t>
-  </si>
-  <si>
-    <t>Mosambi - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala, Premium</t>
-  </si>
-  <si>
-    <t>Banana - Yelakki, Organically Grown</t>
-  </si>
-  <si>
-    <t>Banana - Raw Green (Loose)</t>
-  </si>
-  <si>
-    <t>Coconut - Large</t>
-  </si>
-  <si>
-    <t>Raw Mango - Rich in Vitamin C (Loose)</t>
-  </si>
-  <si>
-    <t>Pineapple</t>
-  </si>
-  <si>
-    <t>Sapota</t>
-  </si>
-  <si>
-    <t>Mango - Neelam</t>
-  </si>
-  <si>
-    <t>Fresh Figs</t>
-  </si>
-  <si>
-    <t>Langra Mango</t>
-  </si>
-  <si>
-    <t>Pear - Naspathi, Indian</t>
-  </si>
-  <si>
-    <t>Pear Beauty</t>
-  </si>
-  <si>
-    <t>Banana - Red</t>
-  </si>
-  <si>
-    <t>Pomegranate - Peeled</t>
-  </si>
-  <si>
-    <t>Mallika Mango</t>
-  </si>
-  <si>
-    <t>Apple - Green, Premium</t>
-  </si>
-  <si>
-    <t>Baby Banana - Robusta</t>
-  </si>
-  <si>
-    <t>Orange - Imported (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Pink Lady</t>
-  </si>
-  <si>
-    <t>Sugarcane - Diced</t>
-  </si>
-  <si>
-    <t>Coconut with Husk - Pooja Coconut</t>
-  </si>
-  <si>
-    <t>Dates - Kimia, with Seed</t>
-  </si>
-  <si>
-    <t>Wood Apple - Kothbel (Loose)</t>
-  </si>
-  <si>
-    <t>Zespri Kiwi - Sun Gold</t>
-  </si>
-  <si>
-    <t>Ber - Apple (Loose)</t>
-  </si>
-  <si>
-    <t>Banana - Karpooravalli</t>
-  </si>
-  <si>
-    <t>Orange - Nagpur, Small (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Ambri</t>
-  </si>
-  <si>
-    <t>Longan</t>
-  </si>
-  <si>
-    <t>Banana - Poovan</t>
-  </si>
-  <si>
-    <t>Banana - Nendran, Organically Grown</t>
-  </si>
-  <si>
-    <t>Apple - Shimla, Premium</t>
-  </si>
-  <si>
-    <t>Pear - Beauty, Rich In Fiber, Vitamin C, Great For Gut Health</t>
-  </si>
-  <si>
-    <t>Grapes - Red Globe</t>
-  </si>
-  <si>
-    <t>Mosambi - Premium (Loose)</t>
-  </si>
-  <si>
-    <t>Coconut - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Guava - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Soursop</t>
-  </si>
-  <si>
-    <t>Coconut - Diced</t>
-  </si>
-  <si>
-    <t>Cherry - Kashmir</t>
-  </si>
-  <si>
-    <t>Apple - Red Delicious, Economy</t>
-  </si>
-  <si>
-    <t>Apricot - Dried</t>
-  </si>
-  <si>
-    <t>Passion Fruit</t>
-  </si>
-  <si>
-    <t>Pineapple - Slices</t>
-  </si>
-  <si>
-    <t>Papaya- Diced</t>
-  </si>
-  <si>
-    <t>Plum - Indian</t>
-  </si>
-  <si>
-    <t>Pomegranate - Single Serve, Peeled</t>
-  </si>
-  <si>
-    <t>Mosambi (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Washington, Regular</t>
-  </si>
-  <si>
-    <t>Apple - Fuji, Economy</t>
-  </si>
-  <si>
-    <t>Cherry</t>
-  </si>
-  <si>
-    <t>Grape fruit - Imported (Loose)</t>
-  </si>
-  <si>
-    <t>Pineapple - Chunks, Single Serve</t>
-  </si>
-  <si>
-    <t>Watermelon - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Ber (Loose)</t>
-  </si>
-  <si>
-    <t>Rambutan</t>
-  </si>
-  <si>
-    <t>Plum - Imported</t>
-  </si>
-  <si>
-    <t>Tamarind - Sweet</t>
-  </si>
-  <si>
-    <t>Mango - Raw Totapuri</t>
-  </si>
-  <si>
-    <t>Pomelo - Peeled</t>
-  </si>
-  <si>
-    <t>Sapota - Organically Grown</t>
-  </si>
-  <si>
-    <t>Guava - Thai Organic, White</t>
-  </si>
-  <si>
-    <t>Mangosteen</t>
-  </si>
-  <si>
-    <t>Cherry - Imported</t>
-  </si>
-  <si>
-    <t>Apple - Queen, Rose</t>
-  </si>
-  <si>
-    <t>₹190</t>
-  </si>
-  <si>
-    <t>₹380</t>
-  </si>
-  <si>
-    <t>₹702</t>
-  </si>
-  <si>
-    <t>₹211.25</t>
-  </si>
-  <si>
-    <t>₹328</t>
-  </si>
-  <si>
-    <t>₹307</t>
-  </si>
-  <si>
-    <t>₹207</t>
-  </si>
-  <si>
-    <t>₹210</t>
-  </si>
-  <si>
-    <t>₹35</t>
-  </si>
-  <si>
-    <t>₹59</t>
-  </si>
-  <si>
-    <t>₹405</t>
-  </si>
-  <si>
-    <t>₹268</t>
-  </si>
-  <si>
-    <t>₹93.15</t>
-  </si>
-  <si>
-    <t>₹72</t>
-  </si>
-  <si>
-    <t>₹244</t>
-  </si>
-  <si>
-    <t>₹85</t>
-  </si>
-  <si>
-    <t>₹236</t>
-  </si>
-  <si>
-    <t>₹229</t>
-  </si>
-  <si>
-    <t>₹111</t>
-  </si>
-  <si>
-    <t>₹570</t>
-  </si>
-  <si>
-    <t>₹388</t>
-  </si>
-  <si>
-    <t>₹548</t>
-  </si>
-  <si>
-    <t>₹146</t>
-  </si>
-  <si>
-    <t>₹358</t>
-  </si>
-  <si>
-    <t>₹99</t>
-  </si>
-  <si>
-    <t>₹109</t>
-  </si>
-  <si>
-    <t>₹604</t>
-  </si>
-  <si>
-    <t>₹243</t>
-  </si>
-  <si>
-    <t>₹95</t>
-  </si>
-  <si>
-    <t>₹76</t>
-  </si>
-  <si>
-    <t>₹114</t>
-  </si>
-  <si>
-    <t>₹127</t>
-  </si>
-  <si>
-    <t>₹210.53</t>
-  </si>
-  <si>
-    <t>₹274</t>
-  </si>
-  <si>
-    <t>₹185</t>
-  </si>
-  <si>
-    <t>₹209</t>
-  </si>
-  <si>
-    <t>₹500</t>
-  </si>
-  <si>
-    <t>₹272</t>
-  </si>
-  <si>
-    <t>₹453</t>
-  </si>
-  <si>
-    <t>₹32.88</t>
-  </si>
-  <si>
-    <t>₹302</t>
-  </si>
-  <si>
-    <t>₹17</t>
-  </si>
-  <si>
-    <t>₹381</t>
-  </si>
-  <si>
-    <t>₹84</t>
-  </si>
-  <si>
-    <t>₹136</t>
-  </si>
-  <si>
-    <t>₹424</t>
-  </si>
-  <si>
-    <t>₹122</t>
-  </si>
-  <si>
-    <t>₹442</t>
-  </si>
-  <si>
-    <t>₹361</t>
-  </si>
-  <si>
-    <t>₹722</t>
-  </si>
-  <si>
-    <t>₹137</t>
-  </si>
-  <si>
-    <t>₹162</t>
-  </si>
-  <si>
-    <t>₹554</t>
-  </si>
-  <si>
-    <t>₹313</t>
-  </si>
-  <si>
-    <t>₹377</t>
-  </si>
-  <si>
-    <t>₹544</t>
-  </si>
-  <si>
-    <t>₹124</t>
-  </si>
-  <si>
-    <t>₹177</t>
-  </si>
-  <si>
-    <t>₹91.78</t>
-  </si>
-  <si>
-    <t>₹462</t>
-  </si>
-  <si>
-    <t>₹206</t>
-  </si>
-  <si>
-    <t>₹45</t>
-  </si>
-  <si>
-    <t>₹1895</t>
-  </si>
-  <si>
-    <t>₹394</t>
-  </si>
-  <si>
-    <t>₹125</t>
-  </si>
-  <si>
-    <t>₹192</t>
-  </si>
-  <si>
-    <t>₹110.96</t>
-  </si>
-  <si>
-    <t>₹77</t>
-  </si>
-  <si>
-    <t>₹403</t>
-  </si>
-  <si>
-    <t>₹242</t>
-  </si>
-  <si>
-    <t>₹138.7</t>
-  </si>
-  <si>
-    <t>₹277.4</t>
-  </si>
-  <si>
-    <t>₹512.46</t>
-  </si>
-  <si>
-    <t>₹199.55</t>
-  </si>
-  <si>
-    <t>₹134</t>
-  </si>
-  <si>
-    <t>₹153.3</t>
-  </si>
-  <si>
-    <t>₹25.55</t>
-  </si>
-  <si>
-    <t>₹38.35</t>
-  </si>
-  <si>
-    <t>₹246</t>
-  </si>
-  <si>
-    <t>₹174.2</t>
-  </si>
-  <si>
-    <t>₹49</t>
-  </si>
-  <si>
-    <t>₹46.8</t>
-  </si>
-  <si>
-    <t>₹158.6</t>
-  </si>
-  <si>
-    <t>₹62.05</t>
-  </si>
-  <si>
-    <t>₹147</t>
-  </si>
-  <si>
-    <t>₹132</t>
-  </si>
-  <si>
-    <t>₹28</t>
-  </si>
-  <si>
-    <t>₹80</t>
-  </si>
-  <si>
-    <t>₹416.1</t>
-  </si>
-  <si>
-    <t>₹283.24</t>
-  </si>
-  <si>
-    <t>₹340</t>
-  </si>
-  <si>
-    <t>₹35.75</t>
-  </si>
-  <si>
-    <t>₹106.58</t>
-  </si>
-  <si>
-    <t>₹261.34</t>
-  </si>
-  <si>
-    <t>₹72.27</t>
-  </si>
-  <si>
-    <t>₹79</t>
-  </si>
-  <si>
-    <t>₹79.57</t>
-  </si>
-  <si>
-    <t>₹440.92</t>
-  </si>
-  <si>
-    <t>₹177.39</t>
-  </si>
-  <si>
-    <t>₹69.35</t>
-  </si>
-  <si>
-    <t>₹32.12</t>
-  </si>
-  <si>
-    <t>₹37.5</t>
-  </si>
-  <si>
-    <t>₹83.22</t>
-  </si>
-  <si>
-    <t>₹92.71</t>
-  </si>
-  <si>
-    <t>₹153.69</t>
-  </si>
-  <si>
-    <t>₹178.1</t>
-  </si>
-  <si>
-    <t>₹135.05</t>
-  </si>
-  <si>
-    <t>₹135.85</t>
-  </si>
-  <si>
-    <t>₹365</t>
-  </si>
-  <si>
-    <t>₹198.56</t>
-  </si>
-  <si>
-    <t>₹330.69</t>
-  </si>
-  <si>
-    <t>₹26.28</t>
-  </si>
-  <si>
-    <t>₹220.46</t>
-  </si>
-  <si>
-    <t>₹12.41</t>
-  </si>
-  <si>
-    <t>₹247.65</t>
-  </si>
-  <si>
-    <t>₹61.32</t>
-  </si>
-  <si>
-    <t>₹99.28</t>
-  </si>
-  <si>
-    <t>₹239.44</t>
-  </si>
-  <si>
-    <t>₹309.52</t>
-  </si>
-  <si>
-    <t>₹89.06</t>
-  </si>
-  <si>
-    <t>₹322.66</t>
-  </si>
-  <si>
-    <t>₹263.53</t>
-  </si>
-  <si>
-    <t>₹527.06</t>
-  </si>
-  <si>
-    <t>₹100.01</t>
-  </si>
-  <si>
-    <t>₹118.26</t>
-  </si>
-  <si>
-    <t>₹404.42</t>
-  </si>
-  <si>
-    <t>₹203.45</t>
-  </si>
-  <si>
-    <t>₹275.21</t>
-  </si>
-  <si>
-    <t>₹397.12</t>
-  </si>
-  <si>
-    <t>₹90.52</t>
-  </si>
-  <si>
-    <t>₹52.56</t>
-  </si>
-  <si>
-    <t>₹129.21</t>
-  </si>
-  <si>
-    <t>₹67</t>
-  </si>
-  <si>
-    <t>₹337.26</t>
-  </si>
-  <si>
-    <t>₹150.38</t>
-  </si>
-  <si>
-    <t>₹29.25</t>
-  </si>
-  <si>
-    <t>₹1383.35</t>
-  </si>
-  <si>
-    <t>₹287.62</t>
-  </si>
-  <si>
-    <t>₹91.25</t>
-  </si>
-  <si>
-    <t>₹140.16</t>
-  </si>
-  <si>
-    <t>₹56.21</t>
-  </si>
-  <si>
-    <t>₹294.19</t>
-  </si>
-  <si>
-    <t>₹176.66</t>
-  </si>
-  <si>
-    <t>47% OFF</t>
-  </si>
-  <si>
-    <t>42% OFF</t>
+    <t>46% OFF</t>
   </si>
   <si>
     <t>28% OFF</t>
   </si>
   <si>
-    <t>43% OFF</t>
-  </si>
-  <si>
-    <t>51% OFF</t>
-  </si>
-  <si>
     <t>Fresh Fruits</t>
   </si>
   <si>
@@ -1727,7 +1727,7 @@
     <t>2023-10-01 11:32:32</t>
   </si>
   <si>
-    <t>2023-10-04 08:56:41</t>
+    <t>2023-10-05 05:14:36</t>
   </si>
 </sst>
 </file>
@@ -2128,19 +2128,19 @@
         <v>168</v>
       </c>
       <c r="D2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E2" t="s">
         <v>168</v>
       </c>
       <c r="F2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2154,19 +2154,19 @@
         <v>169</v>
       </c>
       <c r="D3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E3" t="s">
         <v>169</v>
       </c>
       <c r="F3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G3" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2177,22 +2177,22 @@
         <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F4" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H4" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2206,19 +2206,19 @@
         <v>170</v>
       </c>
       <c r="D5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E5" t="s">
         <v>170</v>
       </c>
       <c r="F5" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G5" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H5" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2232,19 +2232,19 @@
         <v>167</v>
       </c>
       <c r="D6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E6" t="s">
         <v>167</v>
       </c>
       <c r="F6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G6" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H6" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2258,19 +2258,19 @@
         <v>171</v>
       </c>
       <c r="D7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E7" t="s">
         <v>171</v>
       </c>
       <c r="F7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2284,19 +2284,19 @@
         <v>172</v>
       </c>
       <c r="D8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E8" t="s">
         <v>172</v>
       </c>
       <c r="F8" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H8" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2307,22 +2307,22 @@
         <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="D9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E9" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="F9" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H9" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2333,22 +2333,22 @@
         <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="F10" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G10" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H10" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2362,19 +2362,19 @@
         <v>173</v>
       </c>
       <c r="D11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E11" t="s">
         <v>173</v>
       </c>
       <c r="F11" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G11" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H11" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2385,22 +2385,22 @@
         <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="D12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E12" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="F12" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G12" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H12" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2411,22 +2411,22 @@
         <v>114</v>
       </c>
       <c r="C13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F13" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G13" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H13" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2437,22 +2437,22 @@
         <v>115</v>
       </c>
       <c r="C14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D14" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F14" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G14" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H14" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2460,25 +2460,25 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="D15" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E15" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="F15" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G15" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="H15" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2486,25 +2486,25 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
         <v>177</v>
       </c>
       <c r="D16" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E16" t="s">
         <v>177</v>
       </c>
       <c r="F16" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G16" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H16" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2512,25 +2512,25 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" t="s">
         <v>178</v>
       </c>
       <c r="D17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E17" t="s">
         <v>178</v>
       </c>
       <c r="F17" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G17" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H17" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2538,25 +2538,25 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s">
         <v>179</v>
       </c>
       <c r="D18" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E18" t="s">
         <v>179</v>
       </c>
       <c r="F18" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G18" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H18" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2564,25 +2564,25 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="D19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="F19" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G19" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H19" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2590,25 +2590,25 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="D20" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E20" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="F20" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G20" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H20" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2616,25 +2616,25 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D21" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F21" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G21" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H21" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2642,25 +2642,25 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F22" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G22" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H22" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2668,25 +2668,25 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D23" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F23" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G23" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H23" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2694,25 +2694,25 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C24" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D24" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E24" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F24" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G24" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H24" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2723,22 +2723,22 @@
         <v>125</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="D25" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E25" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="F25" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G25" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H25" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2749,22 +2749,22 @@
         <v>126</v>
       </c>
       <c r="C26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D26" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F26" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G26" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="H26" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2775,22 +2775,22 @@
         <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D27" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E27" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F27" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G27" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H27" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2798,25 +2798,25 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C28" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D28" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E28" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F28" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G28" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H28" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2824,25 +2824,25 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D29" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E29" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F29" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G29" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H29" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2850,25 +2850,25 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C30" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D30" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="E30" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F30" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G30" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H30" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2879,22 +2879,22 @@
         <v>130</v>
       </c>
       <c r="C31" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D31" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E31" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F31" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G31" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H31" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2905,22 +2905,22 @@
         <v>131</v>
       </c>
       <c r="C32" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E32" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F32" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G32" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H32" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2928,25 +2928,25 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C33" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D33" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E33" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F33" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G33" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H33" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2954,25 +2954,25 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C34" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D34" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E34" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F34" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G34" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H34" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2980,25 +2980,25 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C35" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D35" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="E35" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F35" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G35" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H35" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3006,25 +3006,25 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="C36" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D36" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E36" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F36" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G36" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H36" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3032,25 +3032,25 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C37" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D37" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E37" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F37" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G37" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H37" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3058,25 +3058,25 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C38" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D38" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E38" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F38" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G38" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H38" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3084,25 +3084,25 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D39" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E39" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F39" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G39" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H39" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3110,25 +3110,25 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C40" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D40" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E40" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F40" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G40" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H40" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3136,25 +3136,25 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C41" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D41" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E41" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F41" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G41" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H41" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3162,25 +3162,25 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="C42" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="D42" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E42" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="F42" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G42" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H42" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3188,25 +3188,25 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C43" t="s">
-        <v>111</v>
+        <v>199</v>
       </c>
       <c r="D43" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E43" t="s">
-        <v>111</v>
+        <v>199</v>
       </c>
       <c r="F43" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G43" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H43" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3214,25 +3214,25 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C44" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D44" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E44" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F44" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G44" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H44" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3240,25 +3240,25 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C45" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="D45" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E45" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F45" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G45" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H45" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3266,25 +3266,25 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D46" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E46" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F46" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G46" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H46" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3295,22 +3295,22 @@
         <v>125</v>
       </c>
       <c r="C47" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D47" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E47" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F47" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G47" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H47" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3318,25 +3318,25 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C48" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D48" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E48" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F48" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G48" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H48" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3344,25 +3344,25 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C49" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D49" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E49" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F49" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G49" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H49" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3370,25 +3370,25 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C50" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D50" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E50" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F50" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G50" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H50" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3396,25 +3396,25 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C51" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D51" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E51" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F51" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G51" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H51" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3422,25 +3422,25 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C52" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D52" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E52" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F52" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G52" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H52" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3448,25 +3448,25 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="C53" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D53" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E53" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F53" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G53" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H53" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3474,25 +3474,25 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C54" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D54" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E54" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F54" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G54" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H54" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3500,25 +3500,25 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="C55" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D55" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E55" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F55" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G55" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H55" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3526,25 +3526,25 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C56" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D56" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E56" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="F56" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G56" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H56" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3552,25 +3552,25 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="C57" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="D57" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E57" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="F57" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G57" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H57" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3581,22 +3581,22 @@
         <v>111</v>
       </c>
       <c r="C58" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D58" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E58" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F58" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G58" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H58" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3604,25 +3604,25 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C59" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D59" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E59" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F59" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G59" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H59" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3630,25 +3630,25 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C60" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D60" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E60" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F60" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G60" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H60" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3656,25 +3656,25 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C61" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E61" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F61" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G61" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H61" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3682,25 +3682,25 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C62" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D62" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E62" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F62" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G62" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H62" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3708,25 +3708,25 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C63" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D63" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E63" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F63" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G63" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H63" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3734,25 +3734,25 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C64" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D64" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E64" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F64" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G64" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H64" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3760,25 +3760,25 @@
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C65" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D65" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E65" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F65" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G65" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H65" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3786,25 +3786,25 @@
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C66" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D66" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E66" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F66" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G66" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H66" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3812,25 +3812,25 @@
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C67" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D67" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E67" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="F67" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G67" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H67" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3838,25 +3838,25 @@
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C68" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D68" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E68" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F68" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G68" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H68" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3864,25 +3864,25 @@
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="C69" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="D69" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E69" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="F69" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G69" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H69" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3890,25 +3890,25 @@
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C70" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D70" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E70" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F70" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G70" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H70" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3916,25 +3916,25 @@
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="C71" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="D71" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E71" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="F71" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G71" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H71" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3942,25 +3942,25 @@
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C72" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D72" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E72" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F72" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G72" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H72" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3968,25 +3968,25 @@
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="C73" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D73" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E73" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F73" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G73" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H73" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3994,25 +3994,25 @@
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C74" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="D74" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E74" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="F74" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G74" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H74" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4020,25 +4020,25 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="C75" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D75" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E75" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F75" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G75" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H75" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4046,25 +4046,25 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="C76" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="D76" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E76" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="F76" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G76" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H76" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4072,25 +4072,25 @@
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C77" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E77" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F77" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G77" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H77" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4098,25 +4098,25 @@
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C78" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D78" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E78" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F78" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G78" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H78" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4124,25 +4124,25 @@
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="C79" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D79" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E79" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F79" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G79" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H79" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4150,25 +4150,25 @@
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C80" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D80" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E80" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F80" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G80" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H80" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4176,25 +4176,25 @@
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="C81" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="D81" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E81" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="F81" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G81" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H81" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4202,25 +4202,25 @@
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C82" t="s">
         <v>229</v>
       </c>
       <c r="D82" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E82" t="s">
         <v>229</v>
       </c>
       <c r="F82" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G82" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H82" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4228,25 +4228,25 @@
         <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="C83" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="D83" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E83" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="F83" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G83" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H83" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4254,25 +4254,25 @@
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C84" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D84" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E84" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="F84" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G84" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H84" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4280,25 +4280,25 @@
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="C85" t="s">
         <v>230</v>
       </c>
       <c r="D85" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E85" t="s">
         <v>230</v>
       </c>
       <c r="F85" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G85" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H85" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4306,25 +4306,25 @@
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C86" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D86" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E86" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F86" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G86" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H86" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4332,25 +4332,25 @@
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C87" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D87" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E87" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F87" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G87" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H87" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4358,25 +4358,25 @@
         <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="C88" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="D88" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E88" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="F88" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G88" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H88" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4384,25 +4384,25 @@
         <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D89" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E89" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F89" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G89" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H89" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4410,25 +4410,25 @@
         <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="C90" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D90" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E90" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F90" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G90" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H90" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4436,25 +4436,25 @@
         <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C91" t="s">
         <v>232</v>
       </c>
       <c r="D91" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E91" t="s">
         <v>232</v>
       </c>
       <c r="F91" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G91" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H91" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4462,25 +4462,25 @@
         <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="C92" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="D92" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="E92" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="F92" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G92" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H92" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4488,25 +4488,25 @@
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="C93" t="s">
         <v>233</v>
       </c>
       <c r="D93" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E93" t="s">
         <v>233</v>
       </c>
       <c r="F93" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G93" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H93" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4514,25 +4514,25 @@
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="C94" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="D94" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E94" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="F94" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G94" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H94" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4543,22 +4543,22 @@
         <v>166</v>
       </c>
       <c r="C95" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D95" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E95" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F95" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G95" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H95" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4569,22 +4569,22 @@
         <v>167</v>
       </c>
       <c r="C96" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D96" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E96" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F96" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G96" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H96" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -4628,25 +4628,25 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F2" t="s">
         <v>528</v>
       </c>
       <c r="G2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H2" t="s">
         <v>568</v>
@@ -4654,19 +4654,19 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B3" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F3" t="s">
         <v>528</v>
@@ -4680,19 +4680,19 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F4" t="s">
         <v>528</v>
@@ -4706,25 +4706,25 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B5" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F5" t="s">
         <v>528</v>
       </c>
       <c r="G5" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H5" t="s">
         <v>568</v>
@@ -4732,19 +4732,19 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>386</v>
       </c>
       <c r="C6" t="s">
-        <v>197</v>
+        <v>454</v>
       </c>
       <c r="D6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E6" t="s">
-        <v>197</v>
+        <v>454</v>
       </c>
       <c r="F6" t="s">
         <v>528</v>
@@ -4758,25 +4758,25 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F7" t="s">
         <v>528</v>
       </c>
       <c r="G7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H7" t="s">
         <v>569</v>
@@ -4784,16 +4784,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>387</v>
       </c>
       <c r="C8" t="s">
         <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>523</v>
+        <v>244</v>
       </c>
       <c r="E8" t="s">
         <v>104</v>
@@ -4802,7 +4802,7 @@
         <v>528</v>
       </c>
       <c r="G8" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H8" t="s">
         <v>570</v>
@@ -4810,19 +4810,19 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B9" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" t="s">
-        <v>243</v>
+        <v>524</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F9" t="s">
         <v>528</v>
@@ -4836,19 +4836,19 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B10" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C10" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D10" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E10" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F10" t="s">
         <v>528</v>
@@ -4862,19 +4862,19 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B11" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C11" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D11" t="s">
-        <v>240</v>
+        <v>525</v>
       </c>
       <c r="E11" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F11" t="s">
         <v>528</v>
@@ -4888,25 +4888,25 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B12" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C12" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E12" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F12" t="s">
         <v>528</v>
       </c>
       <c r="G12" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H12" t="s">
         <v>570</v>
@@ -4914,19 +4914,19 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B13" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C13" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E13" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F13" t="s">
         <v>528</v>
@@ -4940,25 +4940,25 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B14" t="s">
-        <v>389</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D14" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E14" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F14" t="s">
         <v>528</v>
       </c>
       <c r="G14" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H14" t="s">
         <v>570</v>
@@ -4966,25 +4966,25 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B15" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C15" t="s">
-        <v>458</v>
+        <v>399</v>
       </c>
       <c r="D15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E15" t="s">
-        <v>458</v>
+        <v>399</v>
       </c>
       <c r="F15" t="s">
         <v>528</v>
       </c>
       <c r="G15" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H15" t="s">
         <v>570</v>
@@ -4992,19 +4992,19 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B16" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C16" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D16" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E16" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F16" t="s">
         <v>528</v>
@@ -5018,25 +5018,25 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B17" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C17" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D17" t="s">
-        <v>523</v>
+        <v>255</v>
       </c>
       <c r="E17" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F17" t="s">
         <v>528</v>
       </c>
       <c r="G17" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H17" t="s">
         <v>570</v>
@@ -5044,25 +5044,25 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B18" t="s">
-        <v>393</v>
+        <v>139</v>
       </c>
       <c r="C18" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D18" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E18" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F18" t="s">
         <v>528</v>
       </c>
       <c r="G18" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H18" t="s">
         <v>570</v>
@@ -5070,19 +5070,19 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B19" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C19" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D19" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E19" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F19" t="s">
         <v>528</v>
@@ -5096,19 +5096,19 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B20" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C20" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E20" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F20" t="s">
         <v>528</v>
@@ -5122,19 +5122,19 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B21" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C21" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D21" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E21" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F21" t="s">
         <v>528</v>
@@ -5148,19 +5148,19 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B22" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C22" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D22" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E22" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F22" t="s">
         <v>528</v>
@@ -5174,25 +5174,25 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C23" t="s">
-        <v>466</v>
+        <v>108</v>
       </c>
       <c r="D23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E23" t="s">
-        <v>466</v>
+        <v>108</v>
       </c>
       <c r="F23" t="s">
         <v>528</v>
       </c>
       <c r="G23" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H23" t="s">
         <v>570</v>
@@ -5200,16 +5200,16 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B24" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C24" t="s">
         <v>467</v>
       </c>
       <c r="D24" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="E24" t="s">
         <v>467</v>
@@ -5218,7 +5218,7 @@
         <v>528</v>
       </c>
       <c r="G24" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H24" t="s">
         <v>570</v>
@@ -5226,16 +5226,16 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B25" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C25" t="s">
         <v>468</v>
       </c>
       <c r="D25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E25" t="s">
         <v>468</v>
@@ -5252,16 +5252,16 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B26" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C26" t="s">
         <v>469</v>
       </c>
       <c r="D26" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E26" t="s">
         <v>469</v>
@@ -5278,19 +5278,19 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="C27" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="D27" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E27" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="F27" t="s">
         <v>528</v>
@@ -5304,16 +5304,16 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B28" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C28" t="s">
         <v>470</v>
       </c>
       <c r="D28" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E28" t="s">
         <v>470</v>
@@ -5330,16 +5330,16 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>404</v>
       </c>
       <c r="C29" t="s">
         <v>471</v>
       </c>
       <c r="D29" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E29" t="s">
         <v>471</v>
@@ -5356,19 +5356,19 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B30" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C30" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D30" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E30" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F30" t="s">
         <v>528</v>
@@ -5382,16 +5382,16 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B31" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C31" t="s">
         <v>472</v>
       </c>
       <c r="D31" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E31" t="s">
         <v>472</v>
@@ -5400,7 +5400,7 @@
         <v>528</v>
       </c>
       <c r="G31" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H31" t="s">
         <v>570</v>
@@ -5408,16 +5408,16 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B32" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C32" t="s">
         <v>473</v>
       </c>
       <c r="D32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E32" t="s">
         <v>473</v>
@@ -5426,7 +5426,7 @@
         <v>528</v>
       </c>
       <c r="G32" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H32" t="s">
         <v>570</v>
@@ -5434,16 +5434,16 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B33" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C33" t="s">
         <v>474</v>
       </c>
       <c r="D33" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E33" t="s">
         <v>474</v>
@@ -5460,25 +5460,25 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C34" t="s">
-        <v>475</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>526</v>
+        <v>240</v>
       </c>
       <c r="E34" t="s">
-        <v>475</v>
+        <v>111</v>
       </c>
       <c r="F34" t="s">
         <v>528</v>
       </c>
       <c r="G34" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H34" t="s">
         <v>570</v>
@@ -5486,25 +5486,25 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B35" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C35" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D35" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E35" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F35" t="s">
         <v>528</v>
       </c>
       <c r="G35" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H35" t="s">
         <v>570</v>
@@ -5512,19 +5512,19 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B36" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C36" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D36" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E36" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F36" t="s">
         <v>528</v>
@@ -5538,25 +5538,25 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B37" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C37" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D37" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E37" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F37" t="s">
         <v>528</v>
       </c>
       <c r="G37" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H37" t="s">
         <v>570</v>
@@ -5564,25 +5564,25 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B38" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C38" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D38" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E38" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F38" t="s">
         <v>528</v>
       </c>
       <c r="G38" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H38" t="s">
         <v>570</v>
@@ -5590,19 +5590,19 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B39" t="s">
         <v>114</v>
       </c>
       <c r="C39" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D39" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E39" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F39" t="s">
         <v>528</v>
@@ -5616,25 +5616,25 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B40" t="s">
-        <v>409</v>
+        <v>140</v>
       </c>
       <c r="C40" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D40" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E40" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F40" t="s">
         <v>528</v>
       </c>
       <c r="G40" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H40" t="s">
         <v>570</v>
@@ -5642,19 +5642,19 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B41" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C41" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D41" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E41" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="F41" t="s">
         <v>528</v>
@@ -5668,25 +5668,25 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B42" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C42" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D42" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E42" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F42" t="s">
         <v>528</v>
       </c>
       <c r="G42" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H42" t="s">
         <v>570</v>
@@ -5694,25 +5694,25 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B43" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C43" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D43" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E43" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F43" t="s">
         <v>528</v>
       </c>
       <c r="G43" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H43" t="s">
         <v>570</v>
@@ -5720,25 +5720,25 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B44" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C44" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D44" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E44" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F44" t="s">
         <v>528</v>
       </c>
       <c r="G44" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H44" t="s">
         <v>570</v>
@@ -5746,25 +5746,25 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C45" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D45" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E45" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F45" t="s">
         <v>528</v>
       </c>
       <c r="G45" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H45" t="s">
         <v>570</v>
@@ -5772,25 +5772,25 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B46" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C46" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D46" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E46" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F46" t="s">
         <v>528</v>
       </c>
       <c r="G46" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H46" t="s">
         <v>570</v>
@@ -5798,25 +5798,25 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B47" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C47" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D47" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E47" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F47" t="s">
         <v>528</v>
       </c>
       <c r="G47" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="H47" t="s">
         <v>570</v>
@@ -5824,25 +5824,25 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>417</v>
       </c>
       <c r="C48" t="s">
-        <v>189</v>
+        <v>486</v>
       </c>
       <c r="D48" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E48" t="s">
-        <v>189</v>
+        <v>486</v>
       </c>
       <c r="F48" t="s">
         <v>528</v>
       </c>
       <c r="G48" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H48" t="s">
         <v>570</v>
@@ -5850,16 +5850,16 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B49" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C49" t="s">
         <v>487</v>
       </c>
       <c r="D49" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E49" t="s">
         <v>487</v>
@@ -5876,25 +5876,25 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B50" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="C50" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="D50" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E50" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="F50" t="s">
         <v>528</v>
       </c>
       <c r="G50" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H50" t="s">
         <v>570</v>
@@ -5902,16 +5902,16 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B51" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C51" t="s">
         <v>488</v>
       </c>
       <c r="D51" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E51" t="s">
         <v>488</v>
@@ -5928,25 +5928,25 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="C52" t="s">
-        <v>190</v>
+        <v>489</v>
       </c>
       <c r="D52" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E52" t="s">
-        <v>190</v>
+        <v>489</v>
       </c>
       <c r="F52" t="s">
         <v>528</v>
       </c>
       <c r="G52" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H52" t="s">
         <v>570</v>
@@ -5954,19 +5954,19 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B53" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C53" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D53" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E53" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F53" t="s">
         <v>528</v>
@@ -5980,19 +5980,19 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B54" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C54" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D54" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E54" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F54" t="s">
         <v>528</v>
@@ -6006,19 +6006,19 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B55" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C55" t="s">
-        <v>108</v>
+        <v>492</v>
       </c>
       <c r="D55" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E55" t="s">
-        <v>108</v>
+        <v>492</v>
       </c>
       <c r="F55" t="s">
         <v>528</v>
@@ -6032,19 +6032,19 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B56" t="s">
-        <v>218</v>
+        <v>423</v>
       </c>
       <c r="C56" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D56" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E56" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F56" t="s">
         <v>528</v>
@@ -6058,19 +6058,19 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B57" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C57" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D57" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E57" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F57" t="s">
         <v>528</v>
@@ -6084,25 +6084,25 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B58" t="s">
-        <v>421</v>
+        <v>171</v>
       </c>
       <c r="C58" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D58" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E58" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F58" t="s">
         <v>528</v>
       </c>
       <c r="G58" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H58" t="s">
         <v>570</v>
@@ -6110,19 +6110,19 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B59" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C59" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D59" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E59" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F59" t="s">
         <v>528</v>
@@ -6136,16 +6136,16 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B60" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C60" t="s">
         <v>232</v>
       </c>
       <c r="D60" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E60" t="s">
         <v>232</v>
@@ -6154,7 +6154,7 @@
         <v>528</v>
       </c>
       <c r="G60" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H60" t="s">
         <v>570</v>
@@ -6162,25 +6162,25 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B61" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C61" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D61" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E61" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F61" t="s">
         <v>528</v>
       </c>
       <c r="G61" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H61" t="s">
         <v>570</v>
@@ -6188,25 +6188,25 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B62" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C62" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D62" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E62" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F62" t="s">
         <v>528</v>
       </c>
       <c r="G62" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H62" t="s">
         <v>570</v>
@@ -6214,25 +6214,25 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B63" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C63" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D63" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E63" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F63" t="s">
         <v>528</v>
       </c>
       <c r="G63" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H63" t="s">
         <v>570</v>
@@ -6240,25 +6240,25 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B64" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C64" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D64" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E64" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F64" t="s">
         <v>528</v>
       </c>
       <c r="G64" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H64" t="s">
         <v>570</v>
@@ -6266,25 +6266,25 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B65" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C65" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D65" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E65" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F65" t="s">
         <v>528</v>
       </c>
       <c r="G65" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H65" t="s">
         <v>570</v>
@@ -6292,25 +6292,25 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B66" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C66" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D66" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E66" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F66" t="s">
         <v>528</v>
       </c>
       <c r="G66" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H66" t="s">
         <v>570</v>
@@ -6318,19 +6318,19 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B67" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C67" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D67" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E67" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F67" t="s">
         <v>528</v>
@@ -6344,19 +6344,19 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B68" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C68" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D68" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E68" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F68" t="s">
         <v>528</v>
@@ -6370,25 +6370,25 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B69" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C69" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D69" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E69" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F69" t="s">
         <v>528</v>
       </c>
       <c r="G69" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H69" t="s">
         <v>570</v>
@@ -6396,19 +6396,19 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B70" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C70" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D70" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E70" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="F70" t="s">
         <v>528</v>
@@ -6422,19 +6422,19 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B71" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="C71" t="s">
-        <v>223</v>
+        <v>505</v>
       </c>
       <c r="D71" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E71" t="s">
-        <v>223</v>
+        <v>505</v>
       </c>
       <c r="F71" t="s">
         <v>528</v>
@@ -6448,25 +6448,25 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B72" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C72" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D72" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E72" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="F72" t="s">
         <v>528</v>
       </c>
       <c r="G72" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H72" t="s">
         <v>570</v>
@@ -6474,19 +6474,19 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B73" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C73" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D73" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E73" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="F73" t="s">
         <v>528</v>
@@ -6500,19 +6500,19 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B74" t="s">
-        <v>156</v>
+        <v>435</v>
       </c>
       <c r="C74" t="s">
-        <v>221</v>
+        <v>508</v>
       </c>
       <c r="D74" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E74" t="s">
-        <v>221</v>
+        <v>508</v>
       </c>
       <c r="F74" t="s">
         <v>528</v>
@@ -6526,19 +6526,19 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B75" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C75" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="D75" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E75" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="F75" t="s">
         <v>528</v>
@@ -6552,19 +6552,19 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B76" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C76" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="D76" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E76" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="F76" t="s">
         <v>528</v>
@@ -6578,19 +6578,19 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B77" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C77" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D77" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E77" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="F77" t="s">
         <v>528</v>
@@ -6604,25 +6604,25 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B78" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C78" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="D78" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E78" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F78" t="s">
         <v>528</v>
       </c>
       <c r="G78" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H78" t="s">
         <v>570</v>
@@ -6630,19 +6630,19 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B79" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C79" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="D79" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E79" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="F79" t="s">
         <v>528</v>
@@ -6656,19 +6656,19 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B80" t="s">
-        <v>393</v>
+        <v>126</v>
       </c>
       <c r="C80" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D80" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E80" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="F80" t="s">
         <v>528</v>
@@ -6682,19 +6682,19 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B81" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C81" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="D81" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E81" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="F81" t="s">
         <v>528</v>
@@ -6708,19 +6708,19 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B82" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C82" t="s">
-        <v>512</v>
+        <v>387</v>
       </c>
       <c r="D82" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E82" t="s">
-        <v>512</v>
+        <v>387</v>
       </c>
       <c r="F82" t="s">
         <v>528</v>
@@ -6734,19 +6734,19 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B83" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C83" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="D83" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E83" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F83" t="s">
         <v>528</v>
@@ -6760,19 +6760,19 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B84" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C84" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D84" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E84" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F84" t="s">
         <v>528</v>
@@ -6786,19 +6786,19 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B85" t="s">
         <v>130</v>
       </c>
       <c r="C85" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D85" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E85" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F85" t="s">
         <v>528</v>
@@ -6812,25 +6812,25 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B86" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C86" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D86" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E86" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F86" t="s">
         <v>528</v>
       </c>
       <c r="G86" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H86" t="s">
         <v>570</v>
@@ -6838,19 +6838,19 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B87" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C87" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D87" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E87" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F87" t="s">
         <v>528</v>
@@ -6864,19 +6864,19 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B88" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="C88" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="D88" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E88" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="F88" t="s">
         <v>528</v>
@@ -6890,19 +6890,19 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B89" t="s">
-        <v>139</v>
+        <v>444</v>
       </c>
       <c r="C89" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="D89" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E89" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="F89" t="s">
         <v>528</v>
@@ -6916,25 +6916,25 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B90" t="s">
-        <v>441</v>
+        <v>120</v>
       </c>
       <c r="C90" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D90" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E90" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F90" t="s">
         <v>528</v>
       </c>
       <c r="G90" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H90" t="s">
         <v>570</v>
@@ -6942,25 +6942,25 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B91" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C91" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D91" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E91" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="F91" t="s">
         <v>528</v>
       </c>
       <c r="G91" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H91" t="s">
         <v>570</v>
@@ -6968,19 +6968,19 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B92" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C92" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D92" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E92" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F92" t="s">
         <v>528</v>
@@ -6994,19 +6994,19 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B93" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="C93" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="D93" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E93" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="F93" t="s">
         <v>528</v>
@@ -7020,25 +7020,25 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B94" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C94" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D94" t="s">
-        <v>237</v>
+        <v>525</v>
       </c>
       <c r="E94" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F94" t="s">
         <v>528</v>
       </c>
       <c r="G94" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H94" t="s">
         <v>570</v>
@@ -7046,19 +7046,19 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B95" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C95" t="s">
-        <v>133</v>
+        <v>521</v>
       </c>
       <c r="D95" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E95" t="s">
-        <v>133</v>
+        <v>521</v>
       </c>
       <c r="F95" t="s">
         <v>528</v>
@@ -7072,25 +7072,25 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B96" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C96" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D96" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E96" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F96" t="s">
         <v>528</v>
       </c>
       <c r="G96" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H96" t="s">
         <v>570</v>
@@ -7098,19 +7098,19 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B97" t="s">
-        <v>447</v>
+        <v>139</v>
       </c>
       <c r="C97" t="s">
-        <v>520</v>
+        <v>201</v>
       </c>
       <c r="D97" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E97" t="s">
-        <v>520</v>
+        <v>201</v>
       </c>
       <c r="F97" t="s">
         <v>528</v>
@@ -7124,19 +7124,19 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B98" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C98" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D98" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E98" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F98" t="s">
         <v>528</v>
@@ -7150,25 +7150,25 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B99" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C99" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D99" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E99" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F99" t="s">
         <v>528</v>
       </c>
       <c r="G99" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H99" t="s">
         <v>570</v>
@@ -7176,19 +7176,19 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B100" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C100" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D100" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E100" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F100" t="s">
         <v>528</v>

--- a/BigBasket/BigBasket_products.xlsx
+++ b/BigBasket/BigBasket_products.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="556">
   <si>
     <t>product_name</t>
   </si>
@@ -41,15 +41,18 @@
     <t>timestamp</t>
   </si>
   <si>
+    <t>Cucumber - Mangalore, Organically Grown</t>
+  </si>
+  <si>
+    <t>Onion</t>
+  </si>
+  <si>
+    <t>Cucumber (Loose)</t>
+  </si>
+  <si>
     <t>Onion (Loose)</t>
   </si>
   <si>
-    <t>Cucumber - Mangalore, Organically Grown</t>
-  </si>
-  <si>
-    <t>Onion</t>
-  </si>
-  <si>
     <t>Carrot - Orange (Loose)</t>
   </si>
   <si>
@@ -62,12 +65,12 @@
     <t>Ladies' Fingers (Loose)</t>
   </si>
   <si>
+    <t>Cucumber</t>
+  </si>
+  <si>
     <t>Capsicum - Green (Loose)</t>
   </si>
   <si>
-    <t>Cucumber (Loose)</t>
-  </si>
-  <si>
     <t>Coriander Leaves</t>
   </si>
   <si>
@@ -89,1518 +92,1470 @@
     <t>Chilli - Green, Organically Grown</t>
   </si>
   <si>
+    <t>Cabbage (Loose)</t>
+  </si>
+  <si>
     <t>Mushrooms - Button</t>
   </si>
   <si>
-    <t>Cabbage (Loose)</t>
-  </si>
-  <si>
     <t>Cucumber - English (Loose)</t>
   </si>
   <si>
     <t>Curry Leaves</t>
   </si>
   <si>
+    <t>Coccinia (Loose)</t>
+  </si>
+  <si>
+    <t>Sweet Corn (Loose)</t>
+  </si>
+  <si>
+    <t>Drumstick/Moringa</t>
+  </si>
+  <si>
+    <t>Bottle Gourd (Loose)</t>
+  </si>
+  <si>
+    <t>Ginger - Organically Grown</t>
+  </si>
+  <si>
     <t>Ridge Gourd</t>
   </si>
   <si>
-    <t>Bottle Gourd (Loose)</t>
-  </si>
-  <si>
-    <t>Drumstick/Moringa</t>
-  </si>
-  <si>
-    <t>Coccinia (Loose)</t>
-  </si>
-  <si>
-    <t>Sweet Corn (Loose)</t>
-  </si>
-  <si>
-    <t>Ginger - Organically Grown</t>
-  </si>
-  <si>
     <t>Tomato - Local, Organically Grown (Loose)</t>
   </si>
   <si>
     <t>Mint Leaves - Cleaned, without roots</t>
   </si>
   <si>
+    <t>Onion - Organically Grown (Loose)</t>
+  </si>
+  <si>
     <t>Brinjal - Varikatri (Loose)</t>
   </si>
   <si>
-    <t>Onion - Organically Grown (Loose)</t>
+    <t>Brinjal - Bottle Shape (Loose)</t>
   </si>
   <si>
     <t>Methi/Venthaya Keerai - Cleaned, without roots</t>
   </si>
   <si>
+    <t>Amla (Loose)</t>
+  </si>
+  <si>
+    <t>Bitter Gourd (Loose)</t>
+  </si>
+  <si>
+    <t>Chow Chow (Loose)</t>
+  </si>
+  <si>
     <t>Beans - Broad (Loose)</t>
   </si>
   <si>
-    <t>Chow Chow (Loose)</t>
-  </si>
-  <si>
-    <t>Brinjal - Bottle Shape (Loose)</t>
-  </si>
-  <si>
-    <t>Bitter Gourd (Loose)</t>
-  </si>
-  <si>
-    <t>Amla (Loose)</t>
-  </si>
-  <si>
     <t>Spring Onion - With roots</t>
   </si>
   <si>
     <t>Parwal (Loose)</t>
   </si>
   <si>
+    <t>Garlic - Organically Grown (Loose)</t>
+  </si>
+  <si>
     <t>Sweet Potato - Organically Grown (Loose)</t>
   </si>
   <si>
+    <t>Lettuce - Iceberg</t>
+  </si>
+  <si>
     <t>Cucumber - Organically Grown (Loose)</t>
   </si>
   <si>
     <t>Corriander  - Organically Grown</t>
   </si>
   <si>
+    <t>Pumpkin Green - Cut</t>
+  </si>
+  <si>
+    <t>Beans - Cluster (Loose)</t>
+  </si>
+  <si>
     <t>Beans - Cowpea (Loose)</t>
   </si>
   <si>
-    <t>Garlic - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Lettuce - Iceberg</t>
-  </si>
-  <si>
-    <t>Beans - Cluster (Loose)</t>
-  </si>
-  <si>
     <t>Knol Khol (Loose)</t>
   </si>
   <si>
-    <t>Pumpkin Green - Cut</t>
+    <t>Onion - Sambhar (Loose)</t>
   </si>
   <si>
     <t>Broccoli</t>
   </si>
   <si>
+    <t>Palak - Organically Grown</t>
+  </si>
+  <si>
+    <t>Coloured Capsicum Mix</t>
+  </si>
+  <si>
+    <t>Colocasia (Loose)</t>
+  </si>
+  <si>
+    <t>Potato - Organically Grown (Loose)</t>
+  </si>
+  <si>
     <t>Baby Potato (Loose)</t>
   </si>
   <si>
-    <t>Onion - Sambhar (Loose)</t>
-  </si>
-  <si>
-    <t>Palak - Organically Grown</t>
-  </si>
-  <si>
-    <t>Potato - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Colocasia (Loose)</t>
-  </si>
-  <si>
-    <t>Coloured Capsicum Mix</t>
-  </si>
-  <si>
     <t>Ladies' Fingers - Organically Grown (Loose)</t>
   </si>
   <si>
     <t>Snake Gourd</t>
   </si>
   <si>
+    <t>Amaranthus - Red Cleaned, without roots</t>
+  </si>
+  <si>
     <t>Beetroot - Organically Grown (Loose)</t>
   </si>
   <si>
+    <t>Beans - French, Ring (Loose)</t>
+  </si>
+  <si>
     <t>Dill Leaves</t>
   </si>
   <si>
     <t>Lettuce - Green</t>
   </si>
   <si>
-    <t>Amaranthus - Red Cleaned, without roots</t>
-  </si>
-  <si>
-    <t>Beans - French, Ring (Loose)</t>
+    <t>Brinjal - Green, Long (Loose)</t>
+  </si>
+  <si>
+    <t>Basale Leaf</t>
+  </si>
+  <si>
+    <t>Beans - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Capsicum - Green, Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Amaranthus - Green Cleaned, without roots</t>
   </si>
   <si>
     <t>Cauliflower - Organically Grown</t>
   </si>
   <si>
-    <t>Brinjal - Green, Long (Loose)</t>
-  </si>
-  <si>
-    <t>Amaranthus - Green Cleaned, without roots</t>
-  </si>
-  <si>
-    <t>Basale Leaf</t>
-  </si>
-  <si>
-    <t>Capsicum - Green, Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Beans - Organically Grown (Loose)</t>
-  </si>
-  <si>
     <t>Mint - Organically Grown</t>
   </si>
   <si>
+    <t>Sweet Potato (Loose)</t>
+  </si>
+  <si>
+    <t>Tomato - Cherry</t>
+  </si>
+  <si>
     <t>Ash Gourd - Cut</t>
   </si>
   <si>
+    <t>Papaya - Raw</t>
+  </si>
+  <si>
+    <t>Bottle Gourd - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Potato - Red (Loose)</t>
+  </si>
+  <si>
     <t>Drumstick Leaves</t>
   </si>
   <si>
-    <t>Papaya - Raw</t>
+    <t>Tomato - Green (Loose)</t>
+  </si>
+  <si>
+    <t>Cucumber - Mangalore</t>
+  </si>
+  <si>
+    <t>Gongura Leaves/Pulicha - Cleaned, without roots</t>
+  </si>
+  <si>
+    <t>Bitter Gourd - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Pumpkin - Organically Grown (Loose)</t>
   </si>
   <si>
     <t>Tomato - Hybrid, Organically Grown (Loose)</t>
   </si>
   <si>
-    <t>Bottle Gourd - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Tomato - Cherry</t>
-  </si>
-  <si>
-    <t>Potato - Red (Loose)</t>
-  </si>
-  <si>
-    <t>Tomato - Green (Loose)</t>
+    <t>Baby Corn - Unpeeled (Loose)</t>
+  </si>
+  <si>
+    <t>English Cucumber - Organically grown (Loose)</t>
+  </si>
+  <si>
+    <t>Capsicum - Red, Organically Grown (Loose)</t>
   </si>
   <si>
     <t>Lemon Grass</t>
   </si>
   <si>
-    <t>English Cucumber - Organically grown (Loose)</t>
-  </si>
-  <si>
-    <t>Pumpkin - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Cucumber - Mangalore</t>
-  </si>
-  <si>
-    <t>Baby Corn - Unpeeled (Loose)</t>
-  </si>
-  <si>
-    <t>Gongura Leaves/Pulicha - Cleaned, without roots</t>
+    <t>Celery</t>
+  </si>
+  <si>
+    <t>Pumpkin - Disco</t>
+  </si>
+  <si>
+    <t>Cabbage - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Bitter Gourd - Forest (Loose)</t>
+  </si>
+  <si>
+    <t>Banana Stem - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Carrot - Ooty (Loose)</t>
+  </si>
+  <si>
+    <t>Yam - Cut</t>
+  </si>
+  <si>
+    <t>Groundnut - Fresh (Loose)</t>
+  </si>
+  <si>
+    <t>Ridge Gourd - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Banana Flower - Organically Grown (Loose)</t>
   </si>
   <si>
     <t>Radish - White (Loose)</t>
   </si>
   <si>
-    <t>Sweet Potato (Loose)</t>
-  </si>
-  <si>
-    <t>Celery</t>
-  </si>
-  <si>
-    <t>Capsicum - Red, Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Ridge Gourd - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Cabbage - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Bitter Gourd - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Bitter Gourd - Forest (Loose)</t>
-  </si>
-  <si>
-    <t>Carrot - Ooty (Loose)</t>
-  </si>
-  <si>
-    <t>Pumpkin - Disco</t>
-  </si>
-  <si>
-    <t>Yam - Cut</t>
-  </si>
-  <si>
-    <t>Groundnut - Fresh (Loose)</t>
-  </si>
-  <si>
-    <t>Banana Stem - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>₹92</t>
-  </si>
-  <si>
     <t>₹39</t>
   </si>
   <si>
     <t>₹310</t>
   </si>
   <si>
+    <t>₹79</t>
+  </si>
+  <si>
+    <t>₹100</t>
+  </si>
+  <si>
+    <t>₹27</t>
+  </si>
+  <si>
+    <t>₹53</t>
+  </si>
+  <si>
+    <t>₹29</t>
+  </si>
+  <si>
+    <t>₹42</t>
+  </si>
+  <si>
+    <t>₹33</t>
+  </si>
+  <si>
+    <t>₹68</t>
+  </si>
+  <si>
+    <t>₹331</t>
+  </si>
+  <si>
+    <t>₹14</t>
+  </si>
+  <si>
+    <t>₹57</t>
+  </si>
+  <si>
+    <t>₹40</t>
+  </si>
+  <si>
+    <t>₹35</t>
+  </si>
+  <si>
+    <t>₹158</t>
+  </si>
+  <si>
+    <t>₹70</t>
+  </si>
+  <si>
+    <t>₹62</t>
+  </si>
+  <si>
+    <t>₹153</t>
+  </si>
+  <si>
+    <t>₹76</t>
+  </si>
+  <si>
+    <t>₹235</t>
+  </si>
+  <si>
+    <t>₹133</t>
+  </si>
+  <si>
+    <t>₹58</t>
+  </si>
+  <si>
+    <t>₹28</t>
+  </si>
+  <si>
+    <t>₹269</t>
+  </si>
+  <si>
+    <t>₹73</t>
+  </si>
+  <si>
+    <t>₹50</t>
+  </si>
+  <si>
+    <t>₹317</t>
+  </si>
+  <si>
+    <t>₹180</t>
+  </si>
+  <si>
+    <t>₹46</t>
+  </si>
+  <si>
+    <t>₹150</t>
+  </si>
+  <si>
+    <t>₹18</t>
+  </si>
+  <si>
+    <t>₹205</t>
+  </si>
+  <si>
+    <t>₹191</t>
+  </si>
+  <si>
+    <t>₹103</t>
+  </si>
+  <si>
+    <t>₹88</t>
+  </si>
+  <si>
+    <t>₹488</t>
+  </si>
+  <si>
+    <t>₹164</t>
+  </si>
+  <si>
+    <t>₹13.16</t>
+  </si>
+  <si>
+    <t>₹148</t>
+  </si>
+  <si>
+    <t>₹48</t>
+  </si>
+  <si>
+    <t>₹95</t>
+  </si>
+  <si>
+    <t>₹55</t>
+  </si>
+  <si>
+    <t>₹111</t>
+  </si>
+  <si>
+    <t>₹25</t>
+  </si>
+  <si>
+    <t>₹139</t>
+  </si>
+  <si>
+    <t>₹155</t>
+  </si>
+  <si>
+    <t>₹320</t>
+  </si>
+  <si>
+    <t>₹107</t>
+  </si>
+  <si>
+    <t>₹31</t>
+  </si>
+  <si>
+    <t>₹237</t>
+  </si>
+  <si>
+    <t>₹144</t>
+  </si>
+  <si>
+    <t>₹90</t>
+  </si>
+  <si>
+    <t>₹43</t>
+  </si>
+  <si>
+    <t>₹50.68</t>
+  </si>
+  <si>
+    <t>₹44</t>
+  </si>
+  <si>
+    <t>₹54</t>
+  </si>
+  <si>
+    <t>₹37</t>
+  </si>
+  <si>
+    <t>₹118</t>
+  </si>
+  <si>
+    <t>₹16</t>
+  </si>
+  <si>
+    <t>₹131</t>
+  </si>
+  <si>
+    <t>₹120</t>
+  </si>
+  <si>
+    <t>₹36</t>
+  </si>
+  <si>
+    <t>₹28.47</t>
+  </si>
+  <si>
+    <t>₹60</t>
+  </si>
+  <si>
+    <t>₹9</t>
+  </si>
+  <si>
+    <t>₹13</t>
+  </si>
+  <si>
+    <t>₹241.63</t>
+  </si>
+  <si>
+    <t>₹5.5</t>
+  </si>
+  <si>
+    <t>₹27.5</t>
+  </si>
+  <si>
+    <t>₹29.2</t>
+  </si>
+  <si>
+    <t>₹115.34</t>
+  </si>
+  <si>
+    <t>₹51.1</t>
+  </si>
+  <si>
+    <t>₹15</t>
+  </si>
+  <si>
+    <t>₹111.69</t>
+  </si>
+  <si>
+    <t>₹55.48</t>
+  </si>
+  <si>
+    <t>₹171.55</t>
+  </si>
+  <si>
+    <t>₹26</t>
+  </si>
+  <si>
+    <t>₹97.09</t>
+  </si>
+  <si>
+    <t>₹20.44</t>
+  </si>
+  <si>
+    <t>₹196.37</t>
+  </si>
+  <si>
+    <t>₹22</t>
+  </si>
+  <si>
+    <t>₹231.41</t>
+  </si>
+  <si>
+    <t>₹131.4</t>
+  </si>
+  <si>
+    <t>₹33.58</t>
+  </si>
+  <si>
+    <t>₹109.5</t>
+  </si>
+  <si>
+    <t>₹13.14</t>
+  </si>
+  <si>
+    <t>₹149.65</t>
+  </si>
+  <si>
+    <t>₹139.43</t>
+  </si>
+  <si>
+    <t>₹75.19</t>
+  </si>
+  <si>
+    <t>₹64.24</t>
+  </si>
+  <si>
+    <t>₹41.61</t>
+  </si>
+  <si>
+    <t>₹356.24</t>
+  </si>
+  <si>
+    <t>₹34</t>
+  </si>
+  <si>
+    <t>₹49.64</t>
+  </si>
+  <si>
+    <t>₹97</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>₹108.04</t>
+  </si>
+  <si>
+    <t>₹35.04</t>
+  </si>
+  <si>
+    <t>₹69.35</t>
+  </si>
+  <si>
+    <t>₹40.15</t>
+  </si>
+  <si>
+    <t>₹81.03</t>
+  </si>
+  <si>
+    <t>₹10</t>
+  </si>
+  <si>
+    <t>₹101.47</t>
+  </si>
+  <si>
+    <t>₹96</t>
+  </si>
+  <si>
+    <t>₹233.6</t>
+  </si>
+  <si>
+    <t>₹78.11</t>
+  </si>
+  <si>
+    <t>₹22.63</t>
+  </si>
+  <si>
+    <t>₹173.01</t>
+  </si>
+  <si>
+    <t>₹105.12</t>
+  </si>
+  <si>
+    <t>₹65.7</t>
+  </si>
+  <si>
+    <t>₹31.39</t>
+  </si>
+  <si>
+    <t>₹42.34</t>
+  </si>
+  <si>
+    <t>₹32.12</t>
+  </si>
+  <si>
+    <t>₹39.42</t>
+  </si>
+  <si>
+    <t>₹19.71</t>
+  </si>
+  <si>
+    <t>₹27.01</t>
+  </si>
+  <si>
+    <t>₹86.14</t>
+  </si>
+  <si>
+    <t>₹11.68</t>
+  </si>
+  <si>
+    <t>₹95.63</t>
+  </si>
+  <si>
+    <t>₹24.09</t>
+  </si>
+  <si>
     <t>₹21</t>
   </si>
   <si>
-    <t>₹53</t>
-  </si>
-  <si>
-    <t>₹28</t>
-  </si>
-  <si>
-    <t>₹20</t>
-  </si>
-  <si>
-    <t>₹32</t>
-  </si>
-  <si>
-    <t>₹79</t>
-  </si>
-  <si>
-    <t>₹344</t>
-  </si>
-  <si>
-    <t>₹27</t>
-  </si>
-  <si>
-    <t>₹44</t>
-  </si>
-  <si>
-    <t>₹43</t>
-  </si>
-  <si>
-    <t>₹161</t>
-  </si>
-  <si>
-    <t>₹91</t>
-  </si>
-  <si>
-    <t>₹62</t>
-  </si>
-  <si>
-    <t>₹29</t>
-  </si>
-  <si>
-    <t>₹48</t>
-  </si>
-  <si>
-    <t>₹139</t>
-  </si>
-  <si>
-    <t>₹46</t>
-  </si>
-  <si>
-    <t>₹67</t>
-  </si>
-  <si>
-    <t>₹153</t>
-  </si>
-  <si>
-    <t>₹68</t>
+    <t>₹87.6</t>
+  </si>
+  <si>
+    <t>₹26.28</t>
+  </si>
+  <si>
+    <t>27% OFF</t>
+  </si>
+  <si>
+    <t>42% OFF</t>
+  </si>
+  <si>
+    <t>49% OFF</t>
+  </si>
+  <si>
+    <t>40% OFF</t>
+  </si>
+  <si>
+    <t>67% OFF</t>
+  </si>
+  <si>
+    <t>38% OFF</t>
+  </si>
+  <si>
+    <t>45% OFF</t>
+  </si>
+  <si>
+    <t>61% OFF</t>
+  </si>
+  <si>
+    <t>63% OFF</t>
+  </si>
+  <si>
+    <t>52% OFF</t>
+  </si>
+  <si>
+    <t>54% OFF</t>
+  </si>
+  <si>
+    <t>55% OFF</t>
+  </si>
+  <si>
+    <t>31% OFF</t>
+  </si>
+  <si>
+    <t>47% OFF</t>
+  </si>
+  <si>
+    <t>32% OFF</t>
+  </si>
+  <si>
+    <t>56% OFF</t>
+  </si>
+  <si>
+    <t>50% OFF</t>
+  </si>
+  <si>
+    <t>41% OFF</t>
+  </si>
+  <si>
+    <t>60% OFF</t>
+  </si>
+  <si>
+    <t>Fresh Vegetables</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx 500-1kg)</t>
+  </si>
+  <si>
+    <t>5 kg - Multipack</t>
+  </si>
+  <si>
+    <t>1 kg</t>
+  </si>
+  <si>
+    <t>2 kg</t>
+  </si>
+  <si>
+    <t>250 g</t>
+  </si>
+  <si>
+    <t>500 g</t>
+  </si>
+  <si>
+    <t>1 pc - (approx. 400 to 600 g)</t>
+  </si>
+  <si>
+    <t>1 pc - (approx. 500 g to 800 g)</t>
+  </si>
+  <si>
+    <t>1 pack - (Approx. 180g - 200 g)</t>
+  </si>
+  <si>
+    <t>2 pcs</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 500 g - 800 g)</t>
+  </si>
+  <si>
+    <t>5 kg</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 100 g)</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 250g-500g)</t>
+  </si>
+  <si>
+    <t>100 g</t>
+  </si>
+  <si>
+    <t>350 g (2 pieces)</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 100g-250g)</t>
+  </si>
+  <si>
+    <t>1 Kg</t>
+  </si>
+  <si>
+    <t>1 pc - Approx. 400 to 600 g</t>
+  </si>
+  <si>
+    <t>1 pc</t>
+  </si>
+  <si>
+    <t>1 pc (Approx 500-1000 g)</t>
+  </si>
+  <si>
+    <t>1 pc (approx. 300-1.3 Kg)</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:23:50</t>
+  </si>
+  <si>
+    <t>2023-10-05 05:13:58</t>
+  </si>
+  <si>
+    <t>2023-10-11 11:25:39</t>
+  </si>
+  <si>
+    <t>2023-10-11 11:25:40</t>
+  </si>
+  <si>
+    <t>Kesar Mango</t>
+  </si>
+  <si>
+    <t>Apple - Red Delicious / Washington, Regular</t>
+  </si>
+  <si>
+    <t>Apple - Red Delicious / Washington, Premium</t>
+  </si>
+  <si>
+    <t>Himayath Mango</t>
+  </si>
+  <si>
+    <t>Muskmelon -  Netted Medium</t>
+  </si>
+  <si>
+    <t>Raw Mango - Rich in Vitamin C (Loose)</t>
+  </si>
+  <si>
+    <t>Sapota - Organically Grown</t>
+  </si>
+  <si>
+    <t>Mangosteen</t>
+  </si>
+  <si>
+    <t>Banana - Robusta</t>
+  </si>
+  <si>
+    <t>Apple - Shimla, Regular</t>
+  </si>
+  <si>
+    <t>Pomegranate - Regular (Loose)</t>
+  </si>
+  <si>
+    <t>Baby Apple Shimla</t>
+  </si>
+  <si>
+    <t>Banana - Yelakki</t>
+  </si>
+  <si>
+    <t>Coconut - Medium</t>
+  </si>
+  <si>
+    <t>Papaya</t>
+  </si>
+  <si>
+    <t>Mini Orange Imported (Loose)</t>
+  </si>
+  <si>
+    <t>Pomegranate (Loose)</t>
+  </si>
+  <si>
+    <t>Watermelon -  Medium</t>
+  </si>
+  <si>
+    <t>Tender Coconut</t>
+  </si>
+  <si>
+    <t>Guava - Thai (Loose)</t>
+  </si>
+  <si>
+    <t>Banana - Nendran</t>
+  </si>
+  <si>
+    <t>Kiwi - Green</t>
+  </si>
+  <si>
+    <t>Mosambi - Economy (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala Economy</t>
+  </si>
+  <si>
+    <t>Orange - Nagpur, Regular (Loose)</t>
+  </si>
+  <si>
+    <t>Guava (Loose)</t>
+  </si>
+  <si>
+    <t>Pear - Green, Imported</t>
+  </si>
+  <si>
+    <t>Avocado - Imported, Medium (Loose)</t>
+  </si>
+  <si>
+    <t>Dragon Fruit (Loose)</t>
+  </si>
+  <si>
+    <t>Muskmelon -  Netted Small</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala, Regular</t>
+  </si>
+  <si>
+    <t>Papaya - Small</t>
+  </si>
+  <si>
+    <t>Avocado (Loose)</t>
+  </si>
+  <si>
+    <t>Grapes - Bangalore Blue</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala, Premium</t>
+  </si>
+  <si>
+    <t>Banana - Yelakki, Organically Grown</t>
+  </si>
+  <si>
+    <t>Mosambi - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Blueberry</t>
+  </si>
+  <si>
+    <t>Banana - Raw Green (Loose)</t>
+  </si>
+  <si>
+    <t>Sapota</t>
+  </si>
+  <si>
+    <t>Mango - Neelam</t>
+  </si>
+  <si>
+    <t>Raw Mango (Loose)</t>
+  </si>
+  <si>
+    <t>Pineapple</t>
+  </si>
+  <si>
+    <t>Fresh Figs</t>
+  </si>
+  <si>
+    <t>Coconut - Large</t>
+  </si>
+  <si>
+    <t>Pear Beauty</t>
+  </si>
+  <si>
+    <t>Pomegranate - Peeled</t>
+  </si>
+  <si>
+    <t>Banana - Red</t>
+  </si>
+  <si>
+    <t>Apple - Green, Premium</t>
+  </si>
+  <si>
+    <t>Orange - Nagpur, Small (Loose)</t>
+  </si>
+  <si>
+    <t>Orange - Imported (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Shimla, Premium</t>
+  </si>
+  <si>
+    <t>Pear - Naspathi, Indian</t>
+  </si>
+  <si>
+    <t>Banana - Poovan</t>
+  </si>
+  <si>
+    <t>Apple - Pink Lady</t>
+  </si>
+  <si>
+    <t>Apple - Ambri</t>
+  </si>
+  <si>
+    <t>Ber - Apple (Loose)</t>
+  </si>
+  <si>
+    <t>Zespri Kiwi - Sun Gold</t>
+  </si>
+  <si>
+    <t>Dates - Kimia, with Seed</t>
+  </si>
+  <si>
+    <t>Baby Banana - Robusta</t>
+  </si>
+  <si>
+    <t>Banana - Karpooravalli</t>
+  </si>
+  <si>
+    <t>Wood Apple - Kothbel (Loose)</t>
+  </si>
+  <si>
+    <t>Sugarcane - Diced</t>
+  </si>
+  <si>
+    <t>Longan</t>
+  </si>
+  <si>
+    <t>Banana - Nendran, Organically Grown</t>
+  </si>
+  <si>
+    <t>Coconut with Husk - Pooja Coconut</t>
+  </si>
+  <si>
+    <t>Pear - Beauty, Rich In Fiber, Vitamin C, Great For Gut Health</t>
+  </si>
+  <si>
+    <t>Langra Mango</t>
+  </si>
+  <si>
+    <t>Passion Fruit</t>
+  </si>
+  <si>
+    <t>Guava - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Mallika Mango</t>
+  </si>
+  <si>
+    <t>Cherry - Kashmir</t>
+  </si>
+  <si>
+    <t>Grapes - Red Globe</t>
+  </si>
+  <si>
+    <t>Mango - Raw Totapuri</t>
+  </si>
+  <si>
+    <t>Apple - Red Delicious, Economy</t>
+  </si>
+  <si>
+    <t>Soursop</t>
+  </si>
+  <si>
+    <t>Coconut - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Apricot - Dried</t>
+  </si>
+  <si>
+    <t>Pineapple - Slices</t>
+  </si>
+  <si>
+    <t>Mosambi - Premium (Loose)</t>
+  </si>
+  <si>
+    <t>Coconut - Diced</t>
+  </si>
+  <si>
+    <t>Plum - Indian</t>
+  </si>
+  <si>
+    <t>Papaya- Diced</t>
+  </si>
+  <si>
+    <t>Pomegranate - Single Serve, Peeled</t>
+  </si>
+  <si>
+    <t>Grape fruit - Imported (Loose)</t>
+  </si>
+  <si>
+    <t>Cherry</t>
+  </si>
+  <si>
+    <t>Mosambi (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Washington, Regular</t>
+  </si>
+  <si>
+    <t>Pineapple - Chunks, Single Serve</t>
+  </si>
+  <si>
+    <t>Apple - Fuji, Economy</t>
+  </si>
+  <si>
+    <t>Tamarind - Sweet</t>
+  </si>
+  <si>
+    <t>Rambutan</t>
+  </si>
+  <si>
+    <t>Apple - Fuji Premium</t>
+  </si>
+  <si>
+    <t>Watermelon - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Ber (Loose)</t>
+  </si>
+  <si>
+    <t>Plum - Imported</t>
+  </si>
+  <si>
+    <t>Lalbagh Mango - Sindhura</t>
+  </si>
+  <si>
+    <t>Guava - Thai Organic, White</t>
+  </si>
+  <si>
+    <t>Pomelo - Peeled</t>
+  </si>
+  <si>
+    <t>Cherry - Imported</t>
+  </si>
+  <si>
+    <t>Apple - Queen, Rose</t>
+  </si>
+  <si>
+    <t>₹190</t>
+  </si>
+  <si>
+    <t>₹380</t>
+  </si>
+  <si>
+    <t>₹702</t>
+  </si>
+  <si>
+    <t>₹211.25</t>
+  </si>
+  <si>
+    <t>₹51</t>
+  </si>
+  <si>
+    <t>₹69</t>
+  </si>
+  <si>
+    <t>₹403</t>
+  </si>
+  <si>
+    <t>₹328</t>
+  </si>
+  <si>
+    <t>₹307</t>
+  </si>
+  <si>
+    <t>₹216</t>
+  </si>
+  <si>
+    <t>₹185</t>
   </si>
   <si>
     <t>₹74</t>
   </si>
   <si>
+    <t>₹405</t>
+  </si>
+  <si>
+    <t>₹268</t>
+  </si>
+  <si>
+    <t>₹87</t>
+  </si>
+  <si>
+    <t>₹80</t>
+  </si>
+  <si>
+    <t>₹72</t>
+  </si>
+  <si>
+    <t>₹214</t>
+  </si>
+  <si>
+    <t>₹257</t>
+  </si>
+  <si>
+    <t>₹106</t>
+  </si>
+  <si>
+    <t>₹518</t>
+  </si>
+  <si>
     <t>₹142</t>
   </si>
   <si>
-    <t>₹166</t>
-  </si>
-  <si>
-    <t>₹73</t>
-  </si>
-  <si>
-    <t>₹269</t>
-  </si>
-  <si>
-    <t>₹317</t>
-  </si>
-  <si>
-    <t>₹90</t>
-  </si>
-  <si>
-    <t>₹180</t>
-  </si>
-  <si>
-    <t>₹18</t>
-  </si>
-  <si>
-    <t>₹172</t>
-  </si>
-  <si>
-    <t>₹103</t>
-  </si>
-  <si>
-    <t>₹106</t>
-  </si>
-  <si>
-    <t>₹202</t>
-  </si>
-  <si>
-    <t>₹77</t>
-  </si>
-  <si>
-    <t>₹69</t>
-  </si>
-  <si>
-    <t>₹13.16</t>
-  </si>
-  <si>
-    <t>₹70</t>
-  </si>
-  <si>
-    <t>₹155</t>
-  </si>
-  <si>
-    <t>₹165</t>
-  </si>
-  <si>
-    <t>₹120</t>
-  </si>
-  <si>
-    <t>₹15</t>
-  </si>
-  <si>
-    <t>₹318</t>
-  </si>
-  <si>
-    <t>₹87</t>
-  </si>
-  <si>
-    <t>₹144</t>
-  </si>
-  <si>
-    <t>₹31</t>
+    <t>₹98</t>
+  </si>
+  <si>
+    <t>₹456</t>
+  </si>
+  <si>
+    <t>₹435</t>
+  </si>
+  <si>
+    <t>₹136</t>
+  </si>
+  <si>
+    <t>₹654</t>
+  </si>
+  <si>
+    <t>₹109</t>
+  </si>
+  <si>
+    <t>₹468</t>
+  </si>
+  <si>
+    <t>₹127</t>
+  </si>
+  <si>
+    <t>₹210.53</t>
+  </si>
+  <si>
+    <t>₹176</t>
+  </si>
+  <si>
+    <t>₹346.58</t>
+  </si>
+  <si>
+    <t>₹125</t>
+  </si>
+  <si>
+    <t>₹502</t>
+  </si>
+  <si>
+    <t>₹442</t>
+  </si>
+  <si>
+    <t>₹273</t>
+  </si>
+  <si>
+    <t>₹81</t>
+  </si>
+  <si>
+    <t>₹453</t>
   </si>
   <si>
     <t>₹128</t>
   </si>
   <si>
-    <t>₹148</t>
-  </si>
-  <si>
-    <t>₹46.58</t>
-  </si>
-  <si>
-    <t>₹54</t>
-  </si>
-  <si>
-    <t>₹58</t>
-  </si>
-  <si>
-    <t>₹40</t>
-  </si>
-  <si>
-    <t>₹24</t>
-  </si>
-  <si>
-    <t>₹14</t>
-  </si>
-  <si>
-    <t>₹117</t>
-  </si>
-  <si>
-    <t>₹57</t>
+    <t>₹381</t>
+  </si>
+  <si>
+    <t>₹305</t>
   </si>
   <si>
     <t>₹47</t>
   </si>
   <si>
-    <t>₹131</t>
-  </si>
-  <si>
-    <t>₹52</t>
-  </si>
-  <si>
-    <t>₹55</t>
-  </si>
-  <si>
-    <t>₹118</t>
-  </si>
-  <si>
-    <t>₹173</t>
-  </si>
-  <si>
-    <t>₹33</t>
+    <t>₹17</t>
+  </si>
+  <si>
+    <t>₹39.73</t>
+  </si>
+  <si>
+    <t>₹588</t>
+  </si>
+  <si>
+    <t>₹329</t>
+  </si>
+  <si>
+    <t>₹429</t>
+  </si>
+  <si>
+    <t>₹137</t>
+  </si>
+  <si>
+    <t>₹154</t>
+  </si>
+  <si>
+    <t>₹557</t>
+  </si>
+  <si>
+    <t>₹536</t>
+  </si>
+  <si>
+    <t>₹162</t>
+  </si>
+  <si>
+    <t>₹179</t>
+  </si>
+  <si>
+    <t>₹93.15</t>
+  </si>
+  <si>
+    <t>₹206</t>
+  </si>
+  <si>
+    <t>₹462</t>
+  </si>
+  <si>
+    <t>₹1284</t>
+  </si>
+  <si>
+    <t>₹1146</t>
+  </si>
+  <si>
+    <t>₹105</t>
+  </si>
+  <si>
+    <t>₹324.34</t>
+  </si>
+  <si>
+    <t>₹94.52</t>
+  </si>
+  <si>
+    <t>₹248</t>
+  </si>
+  <si>
+    <t>₹138.7</t>
+  </si>
+  <si>
+    <t>₹277.4</t>
+  </si>
+  <si>
+    <t>₹512.46</t>
+  </si>
+  <si>
+    <t>₹37.23</t>
+  </si>
+  <si>
+    <t>₹37.5</t>
+  </si>
+  <si>
+    <t>₹294.19</t>
+  </si>
+  <si>
+    <t>₹239.44</t>
+  </si>
+  <si>
+    <t>₹224.11</t>
+  </si>
+  <si>
+    <t>₹135.05</t>
+  </si>
+  <si>
+    <t>₹54.02</t>
+  </si>
+  <si>
+    <t>₹295.65</t>
+  </si>
+  <si>
+    <t>₹195.64</t>
+  </si>
+  <si>
+    <t>₹63.51</t>
+  </si>
+  <si>
+    <t>₹45</t>
+  </si>
+  <si>
+    <t>₹52.56</t>
+  </si>
+  <si>
+    <t>₹135</t>
   </si>
   <si>
     <t>₹56</t>
   </si>
   <si>
-    <t>₹28.47</t>
-  </si>
-  <si>
-    <t>₹12</t>
-  </si>
-  <si>
-    <t>₹17</t>
-  </si>
-  <si>
-    <t>₹4</t>
-  </si>
-  <si>
-    <t>₹89.5</t>
-  </si>
-  <si>
-    <t>₹19.5</t>
-  </si>
-  <si>
-    <t>₹27.95</t>
-  </si>
-  <si>
-    <t>₹10.5</t>
-  </si>
-  <si>
-    <t>₹104.65</t>
-  </si>
-  <si>
-    <t>₹66.43</t>
-  </si>
-  <si>
-    <t>₹42</t>
-  </si>
-  <si>
-    <t>₹22.11</t>
-  </si>
-  <si>
-    <t>₹101.47</t>
-  </si>
-  <si>
-    <t>₹43.55</t>
-  </si>
-  <si>
-    <t>₹111.69</t>
-  </si>
-  <si>
-    <t>₹48.1</t>
+    <t>₹187.61</t>
+  </si>
+  <si>
+    <t>₹65</t>
+  </si>
+  <si>
+    <t>₹77.38</t>
+  </si>
+  <si>
+    <t>₹378.14</t>
   </si>
   <si>
     <t>₹103.66</t>
   </si>
   <si>
-    <t>₹21.17</t>
-  </si>
-  <si>
-    <t>₹121.18</t>
-  </si>
-  <si>
-    <t>₹50</t>
-  </si>
-  <si>
-    <t>₹196.37</t>
-  </si>
-  <si>
-    <t>₹231.41</t>
-  </si>
-  <si>
-    <t>₹33.58</t>
-  </si>
-  <si>
-    <t>₹60</t>
-  </si>
-  <si>
-    <t>₹49.64</t>
-  </si>
-  <si>
-    <t>₹131.4</t>
-  </si>
-  <si>
-    <t>₹13.14</t>
-  </si>
-  <si>
-    <t>₹125.56</t>
-  </si>
-  <si>
-    <t>₹75.19</t>
-  </si>
-  <si>
-    <t>₹23.36</t>
-  </si>
-  <si>
-    <t>₹77.38</t>
-  </si>
-  <si>
-    <t>₹147.46</t>
-  </si>
-  <si>
-    <t>₹56.21</t>
-  </si>
-  <si>
-    <t>₹45.26</t>
-  </si>
-  <si>
-    <t>₹50.37</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>₹51.1</t>
-  </si>
-  <si>
-    <t>₹89</t>
-  </si>
-  <si>
-    <t>₹120.45</t>
-  </si>
-  <si>
-    <t>₹38.69</t>
-  </si>
-  <si>
-    <t>₹87.6</t>
-  </si>
-  <si>
-    <t>₹35.04</t>
-  </si>
-  <si>
-    <t>₹8</t>
-  </si>
-  <si>
-    <t>₹57.67</t>
-  </si>
-  <si>
-    <t>₹232.14</t>
-  </si>
-  <si>
-    <t>₹96</t>
-  </si>
-  <si>
-    <t>₹63.51</t>
-  </si>
-  <si>
-    <t>₹105.12</t>
-  </si>
-  <si>
-    <t>₹22.63</t>
+    <t>₹59</t>
+  </si>
+  <si>
+    <t>₹326</t>
+  </si>
+  <si>
+    <t>₹317.55</t>
+  </si>
+  <si>
+    <t>₹99.28</t>
+  </si>
+  <si>
+    <t>₹477.42</t>
+  </si>
+  <si>
+    <t>₹156.22</t>
+  </si>
+  <si>
+    <t>₹79.57</t>
+  </si>
+  <si>
+    <t>₹341.64</t>
+  </si>
+  <si>
+    <t>₹92.71</t>
+  </si>
+  <si>
+    <t>₹70.08</t>
+  </si>
+  <si>
+    <t>₹153.69</t>
+  </si>
+  <si>
+    <t>₹30.66</t>
+  </si>
+  <si>
+    <t>₹128.48</t>
+  </si>
+  <si>
+    <t>₹253</t>
+  </si>
+  <si>
+    <t>₹91.25</t>
+  </si>
+  <si>
+    <t>₹366.46</t>
+  </si>
+  <si>
+    <t>₹322.66</t>
+  </si>
+  <si>
+    <t>₹199.29</t>
+  </si>
+  <si>
+    <t>₹59.13</t>
+  </si>
+  <si>
+    <t>₹330.69</t>
   </si>
   <si>
     <t>₹93.44</t>
   </si>
   <si>
-    <t>₹108.04</t>
-  </si>
-  <si>
-    <t>₹34</t>
-  </si>
-  <si>
-    <t>₹39.42</t>
-  </si>
-  <si>
-    <t>₹42.34</t>
-  </si>
-  <si>
-    <t>₹20.44</t>
-  </si>
-  <si>
-    <t>₹29.2</t>
-  </si>
-  <si>
-    <t>₹17.52</t>
-  </si>
-  <si>
-    <t>₹10.22</t>
-  </si>
-  <si>
-    <t>₹65.7</t>
-  </si>
-  <si>
-    <t>₹85.41</t>
-  </si>
-  <si>
-    <t>₹41.61</t>
-  </si>
-  <si>
-    <t>₹30.55</t>
-  </si>
-  <si>
-    <t>₹53.29</t>
-  </si>
-  <si>
-    <t>₹95.63</t>
-  </si>
-  <si>
-    <t>₹40.15</t>
-  </si>
-  <si>
-    <t>₹86.14</t>
-  </si>
-  <si>
-    <t>₹126.29</t>
-  </si>
-  <si>
-    <t>₹24.09</t>
-  </si>
-  <si>
-    <t>39% OFF</t>
-  </si>
-  <si>
-    <t>27% OFF</t>
-  </si>
-  <si>
-    <t>42% OFF</t>
-  </si>
-  <si>
-    <t>43% OFF</t>
-  </si>
-  <si>
-    <t>38% OFF</t>
-  </si>
-  <si>
-    <t>80% OFF</t>
-  </si>
-  <si>
-    <t>53% OFF</t>
-  </si>
-  <si>
-    <t>49% OFF</t>
-  </si>
-  <si>
-    <t>74% OFF</t>
+    <t>₹278.13</t>
+  </si>
+  <si>
+    <t>₹222.65</t>
+  </si>
+  <si>
+    <t>₹34.31</t>
+  </si>
+  <si>
+    <t>₹12.41</t>
+  </si>
+  <si>
+    <t>₹429.24</t>
+  </si>
+  <si>
+    <t>₹240.17</t>
+  </si>
+  <si>
+    <t>₹313.17</t>
+  </si>
+  <si>
+    <t>₹100.01</t>
+  </si>
+  <si>
+    <t>₹112.42</t>
+  </si>
+  <si>
+    <t>₹406.61</t>
+  </si>
+  <si>
+    <t>₹391.28</t>
+  </si>
+  <si>
+    <t>₹157.68</t>
+  </si>
+  <si>
+    <t>₹118.26</t>
+  </si>
+  <si>
+    <t>₹130.67</t>
+  </si>
+  <si>
+    <t>₹150.38</t>
+  </si>
+  <si>
+    <t>₹58.4</t>
+  </si>
+  <si>
+    <t>₹337.26</t>
+  </si>
+  <si>
+    <t>₹937.32</t>
+  </si>
+  <si>
+    <t>₹836.58</t>
+  </si>
+  <si>
+    <t>₹76.65</t>
+  </si>
+  <si>
+    <t>₹236.77</t>
+  </si>
+  <si>
+    <t>₹181.04</t>
+  </si>
+  <si>
+    <t>46% OFF</t>
+  </si>
+  <si>
+    <t>36% OFF</t>
+  </si>
+  <si>
+    <t>28% OFF</t>
+  </si>
+  <si>
+    <t>44% OFF</t>
+  </si>
+  <si>
+    <t>37% OFF</t>
+  </si>
+  <si>
+    <t>30% OFF</t>
+  </si>
+  <si>
+    <t>29% OFF</t>
   </si>
   <si>
     <t>48% OFF</t>
   </si>
   <si>
-    <t>56% OFF</t>
-  </si>
-  <si>
-    <t>35% OFF</t>
-  </si>
-  <si>
-    <t>63% OFF</t>
-  </si>
-  <si>
-    <t>32% OFF</t>
-  </si>
-  <si>
-    <t>54% OFF</t>
-  </si>
-  <si>
-    <t>57% OFF</t>
-  </si>
-  <si>
-    <t>41% OFF</t>
-  </si>
-  <si>
     <t>33% OFF</t>
   </si>
   <si>
-    <t>47% OFF</t>
-  </si>
-  <si>
-    <t>31% OFF</t>
-  </si>
-  <si>
-    <t>44% OFF</t>
-  </si>
-  <si>
-    <t>Fresh Vegetables</t>
-  </si>
-  <si>
-    <t>2 kg</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx 500-1kg)</t>
-  </si>
-  <si>
-    <t>5 kg - Multipack</t>
-  </si>
-  <si>
-    <t>250 g</t>
-  </si>
-  <si>
-    <t>1 kg</t>
-  </si>
-  <si>
-    <t>1 pc - (approx. 400 to 600 g)</t>
-  </si>
-  <si>
-    <t>500 g</t>
-  </si>
-  <si>
-    <t>1 pack - (Approx. 180g - 200 g)</t>
-  </si>
-  <si>
-    <t>1 pc - (approx. 500 g to 800 g)</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx. 500 g - 800 g)</t>
-  </si>
-  <si>
-    <t>2 pcs</t>
-  </si>
-  <si>
-    <t>5 kg</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx. 100 g)</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx. 250g-500g)</t>
-  </si>
-  <si>
-    <t>100 g</t>
-  </si>
-  <si>
-    <t>350 g (2 pieces)</t>
-  </si>
-  <si>
-    <t>1 pc - Approx. 400 to 600 g</t>
-  </si>
-  <si>
-    <t>1 Kg</t>
-  </si>
-  <si>
-    <t>1 pc</t>
-  </si>
-  <si>
-    <t>1 pc (Approx 500-1000 g)</t>
-  </si>
-  <si>
-    <t>1 pc (approx. 300-1.3 Kg)</t>
-  </si>
-  <si>
-    <t>2023-09-28 10:02:18</t>
-  </si>
-  <si>
-    <t>2023-09-29 12:23:50</t>
-  </si>
-  <si>
-    <t>2023-10-05 05:13:58</t>
-  </si>
-  <si>
-    <t>Kesar Mango</t>
-  </si>
-  <si>
-    <t>Apple - Red Delicious / Washington, Regular</t>
-  </si>
-  <si>
-    <t>Apple - Red Delicious / Washington, Premium</t>
-  </si>
-  <si>
-    <t>Himayath Mango</t>
-  </si>
-  <si>
-    <t>Muskmelon -  Netted Medium</t>
-  </si>
-  <si>
-    <t>Raw Mango (Loose)</t>
-  </si>
-  <si>
-    <t>Banana - Robusta</t>
-  </si>
-  <si>
-    <t>Apple - Shimla, Regular</t>
-  </si>
-  <si>
-    <t>Pomegranate - Regular (Loose)</t>
-  </si>
-  <si>
-    <t>Baby Apple Shimla</t>
-  </si>
-  <si>
-    <t>Banana - Yelakki</t>
-  </si>
-  <si>
-    <t>Coconut - Medium</t>
-  </si>
-  <si>
-    <t>Papaya</t>
-  </si>
-  <si>
-    <t>Mini Orange Imported (Loose)</t>
-  </si>
-  <si>
-    <t>Pomegranate (Loose)</t>
-  </si>
-  <si>
-    <t>Tender Coconut</t>
-  </si>
-  <si>
-    <t>Guava - Thai (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala Economy</t>
-  </si>
-  <si>
-    <t>Watermelon -  Medium</t>
-  </si>
-  <si>
-    <t>Mosambi - Economy (Loose)</t>
-  </si>
-  <si>
-    <t>Kiwi - Green</t>
-  </si>
-  <si>
-    <t>Banana - Nendran</t>
-  </si>
-  <si>
-    <t>Guava (Loose)</t>
-  </si>
-  <si>
-    <t>Pear - Green, Imported</t>
-  </si>
-  <si>
-    <t>Blueberry</t>
-  </si>
-  <si>
-    <t>Muskmelon -  Netted Small</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala, Regular</t>
-  </si>
-  <si>
-    <t>Papaya - Small</t>
-  </si>
-  <si>
-    <t>Dragon Fruit (Loose)</t>
-  </si>
-  <si>
-    <t>Grapes - Bangalore Blue</t>
-  </si>
-  <si>
-    <t>Avocado (Loose)</t>
-  </si>
-  <si>
-    <t>Orange - Nagpur, Regular (Loose)</t>
-  </si>
-  <si>
-    <t>Avocado - Imported, Medium (Loose)</t>
-  </si>
-  <si>
-    <t>Mosambi - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala, Premium</t>
-  </si>
-  <si>
-    <t>Banana - Yelakki, Organically Grown</t>
-  </si>
-  <si>
-    <t>Banana - Raw Green (Loose)</t>
-  </si>
-  <si>
-    <t>Coconut - Large</t>
-  </si>
-  <si>
-    <t>Raw Mango - Rich in Vitamin C (Loose)</t>
-  </si>
-  <si>
-    <t>Pineapple</t>
-  </si>
-  <si>
-    <t>Sapota</t>
-  </si>
-  <si>
-    <t>Mango - Neelam</t>
-  </si>
-  <si>
-    <t>Fresh Figs</t>
-  </si>
-  <si>
-    <t>Langra Mango</t>
-  </si>
-  <si>
-    <t>Pear - Naspathi, Indian</t>
-  </si>
-  <si>
-    <t>Pear Beauty</t>
-  </si>
-  <si>
-    <t>Banana - Red</t>
-  </si>
-  <si>
-    <t>Pomegranate - Peeled</t>
-  </si>
-  <si>
-    <t>Mallika Mango</t>
-  </si>
-  <si>
-    <t>Apple - Green, Premium</t>
-  </si>
-  <si>
-    <t>Baby Banana - Robusta</t>
-  </si>
-  <si>
-    <t>Orange - Imported (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Pink Lady</t>
-  </si>
-  <si>
-    <t>Sugarcane - Diced</t>
-  </si>
-  <si>
-    <t>Coconut with Husk - Pooja Coconut</t>
-  </si>
-  <si>
-    <t>Dates - Kimia, with Seed</t>
-  </si>
-  <si>
-    <t>Wood Apple - Kothbel (Loose)</t>
-  </si>
-  <si>
-    <t>Zespri Kiwi - Sun Gold</t>
-  </si>
-  <si>
-    <t>Ber - Apple (Loose)</t>
-  </si>
-  <si>
-    <t>Banana - Karpooravalli</t>
-  </si>
-  <si>
-    <t>Orange - Nagpur, Small (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Ambri</t>
-  </si>
-  <si>
-    <t>Longan</t>
-  </si>
-  <si>
-    <t>Banana - Poovan</t>
-  </si>
-  <si>
-    <t>Banana - Nendran, Organically Grown</t>
-  </si>
-  <si>
-    <t>Apple - Shimla, Premium</t>
-  </si>
-  <si>
-    <t>Pear - Beauty, Rich In Fiber, Vitamin C, Great For Gut Health</t>
-  </si>
-  <si>
-    <t>Grapes - Red Globe</t>
-  </si>
-  <si>
-    <t>Mosambi - Premium (Loose)</t>
-  </si>
-  <si>
-    <t>Coconut - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Guava - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Soursop</t>
-  </si>
-  <si>
-    <t>Coconut - Diced</t>
-  </si>
-  <si>
-    <t>Cherry - Kashmir</t>
-  </si>
-  <si>
-    <t>Apple - Red Delicious, Economy</t>
-  </si>
-  <si>
-    <t>Apricot - Dried</t>
-  </si>
-  <si>
-    <t>Passion Fruit</t>
-  </si>
-  <si>
-    <t>Pineapple - Slices</t>
-  </si>
-  <si>
-    <t>Papaya- Diced</t>
-  </si>
-  <si>
-    <t>Plum - Indian</t>
-  </si>
-  <si>
-    <t>Pomegranate - Single Serve, Peeled</t>
-  </si>
-  <si>
-    <t>Mosambi (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Washington, Regular</t>
-  </si>
-  <si>
-    <t>Apple - Fuji, Economy</t>
-  </si>
-  <si>
-    <t>Cherry</t>
-  </si>
-  <si>
-    <t>Grape fruit - Imported (Loose)</t>
-  </si>
-  <si>
-    <t>Pineapple - Chunks, Single Serve</t>
-  </si>
-  <si>
-    <t>Watermelon - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Ber (Loose)</t>
-  </si>
-  <si>
-    <t>Rambutan</t>
-  </si>
-  <si>
-    <t>Plum - Imported</t>
-  </si>
-  <si>
-    <t>Tamarind - Sweet</t>
-  </si>
-  <si>
-    <t>Mango - Raw Totapuri</t>
-  </si>
-  <si>
-    <t>Pomelo - Peeled</t>
-  </si>
-  <si>
-    <t>Sapota - Organically Grown</t>
-  </si>
-  <si>
-    <t>Guava - Thai Organic, White</t>
-  </si>
-  <si>
-    <t>Mangosteen</t>
-  </si>
-  <si>
-    <t>Cherry - Imported</t>
-  </si>
-  <si>
-    <t>Apple - Queen, Rose</t>
-  </si>
-  <si>
-    <t>₹190</t>
-  </si>
-  <si>
-    <t>₹380</t>
-  </si>
-  <si>
-    <t>₹702</t>
-  </si>
-  <si>
-    <t>₹211.25</t>
-  </si>
-  <si>
-    <t>₹51</t>
-  </si>
-  <si>
-    <t>₹76</t>
-  </si>
-  <si>
-    <t>₹328</t>
-  </si>
-  <si>
-    <t>₹330</t>
-  </si>
-  <si>
-    <t>₹223</t>
-  </si>
-  <si>
-    <t>₹210</t>
-  </si>
-  <si>
-    <t>₹35</t>
-  </si>
-  <si>
-    <t>₹405</t>
-  </si>
-  <si>
-    <t>₹287</t>
-  </si>
-  <si>
-    <t>₹93.15</t>
-  </si>
-  <si>
-    <t>₹253</t>
-  </si>
-  <si>
-    <t>₹85</t>
-  </si>
-  <si>
-    <t>₹236</t>
-  </si>
-  <si>
-    <t>₹246</t>
-  </si>
-  <si>
-    <t>₹111</t>
-  </si>
-  <si>
-    <t>₹570</t>
-  </si>
-  <si>
-    <t>₹388</t>
-  </si>
-  <si>
-    <t>₹590</t>
-  </si>
-  <si>
-    <t>₹59</t>
-  </si>
-  <si>
-    <t>₹146</t>
-  </si>
-  <si>
-    <t>₹374</t>
-  </si>
-  <si>
-    <t>₹99</t>
-  </si>
-  <si>
-    <t>₹109</t>
-  </si>
-  <si>
-    <t>₹604</t>
-  </si>
-  <si>
-    <t>₹243</t>
-  </si>
-  <si>
-    <t>₹95</t>
-  </si>
-  <si>
-    <t>₹114</t>
-  </si>
-  <si>
-    <t>₹127</t>
-  </si>
-  <si>
-    <t>₹210.53</t>
-  </si>
-  <si>
-    <t>₹274</t>
-  </si>
-  <si>
-    <t>₹185</t>
-  </si>
-  <si>
-    <t>₹133</t>
-  </si>
-  <si>
-    <t>₹228</t>
-  </si>
-  <si>
-    <t>₹500</t>
-  </si>
-  <si>
-    <t>₹255</t>
-  </si>
-  <si>
-    <t>₹453</t>
-  </si>
-  <si>
-    <t>₹41.1</t>
-  </si>
-  <si>
-    <t>₹36</t>
-  </si>
-  <si>
-    <t>₹302</t>
-  </si>
-  <si>
-    <t>₹409</t>
-  </si>
-  <si>
-    <t>₹84</t>
-  </si>
-  <si>
-    <t>₹125</t>
-  </si>
-  <si>
-    <t>₹424</t>
-  </si>
-  <si>
-    <t>₹122</t>
-  </si>
-  <si>
-    <t>₹442</t>
-  </si>
-  <si>
-    <t>₹381</t>
-  </si>
-  <si>
-    <t>₹722</t>
-  </si>
-  <si>
-    <t>₹137</t>
-  </si>
-  <si>
-    <t>₹162</t>
-  </si>
-  <si>
-    <t>₹64</t>
-  </si>
-  <si>
-    <t>₹554</t>
-  </si>
-  <si>
-    <t>₹336</t>
-  </si>
-  <si>
-    <t>₹377</t>
-  </si>
-  <si>
-    <t>₹429</t>
-  </si>
-  <si>
-    <t>₹177</t>
-  </si>
-  <si>
-    <t>₹104.11</t>
-  </si>
-  <si>
-    <t>₹462</t>
-  </si>
-  <si>
-    <t>₹206</t>
-  </si>
-  <si>
-    <t>₹100</t>
-  </si>
-  <si>
-    <t>₹1895</t>
-  </si>
-  <si>
-    <t>₹394</t>
-  </si>
-  <si>
-    <t>₹192</t>
-  </si>
-  <si>
-    <t>₹110.96</t>
-  </si>
-  <si>
-    <t>₹403</t>
-  </si>
-  <si>
-    <t>₹242</t>
-  </si>
-  <si>
-    <t>₹138.7</t>
-  </si>
-  <si>
-    <t>₹277.4</t>
-  </si>
-  <si>
-    <t>₹512.46</t>
-  </si>
-  <si>
-    <t>₹37.23</t>
-  </si>
-  <si>
-    <t>₹214.5</t>
-  </si>
-  <si>
-    <t>₹134</t>
-  </si>
-  <si>
-    <t>₹153.3</t>
-  </si>
-  <si>
-    <t>₹25.55</t>
-  </si>
-  <si>
-    <t>₹44.2</t>
-  </si>
-  <si>
-    <t>₹186.55</t>
-  </si>
-  <si>
-    <t>₹49</t>
-  </si>
-  <si>
-    <t>₹50.05</t>
-  </si>
-  <si>
-    <t>₹164.45</t>
-  </si>
-  <si>
-    <t>₹62.05</t>
-  </si>
-  <si>
-    <t>₹147</t>
-  </si>
-  <si>
-    <t>₹132</t>
-  </si>
-  <si>
-    <t>₹80</t>
-  </si>
-  <si>
-    <t>₹416.1</t>
-  </si>
-  <si>
-    <t>₹283.24</t>
-  </si>
-  <si>
-    <t>₹340</t>
-  </si>
-  <si>
-    <t>₹38.35</t>
-  </si>
-  <si>
-    <t>₹106.58</t>
-  </si>
-  <si>
-    <t>₹273.02</t>
-  </si>
-  <si>
-    <t>₹72.27</t>
-  </si>
-  <si>
-    <t>₹79.57</t>
-  </si>
-  <si>
-    <t>₹440.92</t>
-  </si>
-  <si>
-    <t>₹177.39</t>
-  </si>
-  <si>
-    <t>₹69.35</t>
-  </si>
-  <si>
-    <t>₹32.12</t>
-  </si>
-  <si>
-    <t>₹37.5</t>
-  </si>
-  <si>
-    <t>₹83.22</t>
-  </si>
-  <si>
-    <t>₹92.71</t>
-  </si>
-  <si>
-    <t>₹153.69</t>
-  </si>
-  <si>
-    <t>₹178.1</t>
-  </si>
-  <si>
-    <t>₹135.05</t>
-  </si>
-  <si>
-    <t>₹97.09</t>
-  </si>
-  <si>
-    <t>₹148.2</t>
-  </si>
-  <si>
-    <t>₹365</t>
-  </si>
-  <si>
-    <t>₹34.31</t>
-  </si>
-  <si>
-    <t>₹186.15</t>
-  </si>
-  <si>
-    <t>₹330.69</t>
-  </si>
-  <si>
-    <t>₹30</t>
-  </si>
-  <si>
-    <t>₹26.28</t>
-  </si>
-  <si>
-    <t>₹220.46</t>
-  </si>
-  <si>
-    <t>₹12.41</t>
-  </si>
-  <si>
-    <t>₹265.85</t>
-  </si>
-  <si>
-    <t>₹61.32</t>
-  </si>
-  <si>
-    <t>₹91.25</t>
-  </si>
-  <si>
-    <t>₹239.44</t>
-  </si>
-  <si>
-    <t>₹309.52</t>
-  </si>
-  <si>
-    <t>₹89.06</t>
-  </si>
-  <si>
-    <t>₹322.66</t>
-  </si>
-  <si>
-    <t>₹278.13</t>
-  </si>
-  <si>
-    <t>₹527.06</t>
-  </si>
-  <si>
-    <t>₹36.5</t>
-  </si>
-  <si>
-    <t>₹100.01</t>
-  </si>
-  <si>
-    <t>₹118.26</t>
-  </si>
-  <si>
-    <t>₹46.72</t>
-  </si>
-  <si>
-    <t>₹404.42</t>
-  </si>
-  <si>
-    <t>₹218.4</t>
-  </si>
-  <si>
-    <t>₹275.21</t>
-  </si>
-  <si>
-    <t>₹313.17</t>
-  </si>
-  <si>
-    <t>₹54.02</t>
-  </si>
-  <si>
-    <t>₹129.21</t>
-  </si>
-  <si>
-    <t>₹337.26</t>
-  </si>
-  <si>
-    <t>₹150.38</t>
-  </si>
-  <si>
-    <t>₹31.2</t>
-  </si>
-  <si>
-    <t>₹1383.35</t>
-  </si>
-  <si>
-    <t>₹287.62</t>
-  </si>
-  <si>
-    <t>₹115</t>
-  </si>
-  <si>
-    <t>₹81</t>
-  </si>
-  <si>
-    <t>₹294.19</t>
-  </si>
-  <si>
-    <t>₹176.66</t>
-  </si>
-  <si>
-    <t>45% OFF</t>
-  </si>
-  <si>
-    <t>40% OFF</t>
-  </si>
-  <si>
-    <t>46% OFF</t>
-  </si>
-  <si>
-    <t>28% OFF</t>
-  </si>
-  <si>
     <t>Fresh Fruits</t>
   </si>
   <si>
@@ -1613,6 +1568,9 @@
     <t>1 pc - 1.2 - 2 kg</t>
   </si>
   <si>
+    <t>4 pcs</t>
+  </si>
+  <si>
     <t>1 kg - (5-6 pcs per kg)</t>
   </si>
   <si>
@@ -1625,99 +1583,90 @@
     <t>4 pcs - (Approx. 800 g - 880 g)</t>
   </si>
   <si>
+    <t>1 pc - 2.5 - 3.8 kg</t>
+  </si>
+  <si>
+    <t>3 pcs</t>
+  </si>
+  <si>
     <t>4 pcs - (Approx.450 g-500 g)</t>
   </si>
   <si>
-    <t>1 pc - 2.5 - 3.8 kg</t>
-  </si>
-  <si>
-    <t>3 kg</t>
-  </si>
-  <si>
-    <t>3 pcs</t>
+    <t>1 kg - (Approx. 6 - 7 pcs)</t>
+  </si>
+  <si>
+    <t>1 pc - 250 to 350 g</t>
+  </si>
+  <si>
+    <t>1 pc - 500g-900g</t>
+  </si>
+  <si>
+    <t>1 pc - 500 g - 800 g</t>
+  </si>
+  <si>
+    <t>2x4 pcs - (Multipack)</t>
   </si>
   <si>
     <t>125 g</t>
   </si>
   <si>
-    <t>1 pc - 500g-900g</t>
-  </si>
-  <si>
-    <t>1 pc - 500 g - 800 g</t>
-  </si>
-  <si>
-    <t>1 pc - 250 to 350 g</t>
-  </si>
-  <si>
-    <t>1 kg - (Approx. 6 - 7 pcs)</t>
-  </si>
-  <si>
-    <t>2x4 pcs - (Multipack)</t>
+    <t>1 pc - 800 g -1000 g</t>
   </si>
   <si>
     <t>1 pc - (approx. 550g to 650g)</t>
   </si>
   <si>
-    <t>1 pc - 800 g -1000 g</t>
+    <t>6 pcs</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 400 to 500g)</t>
   </si>
   <si>
     <t>200 g</t>
   </si>
   <si>
-    <t>6 pcs</t>
-  </si>
-  <si>
-    <t>4 pcs</t>
-  </si>
-  <si>
     <t>1 pc - (approx. 250g to 300g)</t>
   </si>
   <si>
-    <t>1 pc - (Approx. 400 to 500g)</t>
-  </si>
-  <si>
     <t>4 pcs - (500 - 600g)</t>
   </si>
   <si>
+    <t>Approx 500 g - 1 Pack</t>
+  </si>
+  <si>
+    <t>4 pcs - (Approx. 450g - 500g)</t>
+  </si>
+  <si>
+    <t>1 pc - 400 - 800g</t>
+  </si>
+  <si>
+    <t>1 pc - (approx. 300g to 400g)</t>
+  </si>
+  <si>
     <t>4 pcs - 900-1 kg</t>
   </si>
   <si>
-    <t>1 pc - (approx. 300g to 400g)</t>
-  </si>
-  <si>
-    <t>1 pc - 400 - 800g</t>
-  </si>
-  <si>
     <t>150 g</t>
   </si>
   <si>
-    <t>Approx 500 g - 1 Pack</t>
-  </si>
-  <si>
-    <t>4 pcs - (Approx. 450g - 500g)</t>
-  </si>
-  <si>
     <t>80 g</t>
   </si>
   <si>
+    <t>1 pc - (Approx. 200 g -  300 g)</t>
+  </si>
+  <si>
     <t>4 pcs - 700-900g</t>
   </si>
   <si>
     <t>4 pcs - 530g - 640g</t>
   </si>
   <si>
-    <t>1 pc - (Approx. 200 g -  300 g)</t>
+    <t>225 g</t>
   </si>
   <si>
     <t>1 pc (approx. 1 -3 kg)</t>
   </si>
   <si>
-    <t>6 pcs - (approx. 350 g - 400 g)</t>
-  </si>
-  <si>
-    <t>225 g</t>
-  </si>
-  <si>
     <t>1 pc - approx. 300 g to 500 g</t>
   </si>
   <si>
@@ -1728,6 +1677,12 @@
   </si>
   <si>
     <t>2023-10-05 05:14:36</t>
+  </si>
+  <si>
+    <t>2023-10-11 11:26:18</t>
+  </si>
+  <si>
+    <t>2023-10-11 11:26:19</t>
   </si>
 </sst>
 </file>
@@ -2085,7 +2040,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2122,25 +2077,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
         <v>168</v>
       </c>
       <c r="D2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E2" t="s">
         <v>168</v>
       </c>
       <c r="F2" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G2" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="H2" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2148,25 +2103,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E3" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="F3" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G3" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="H3" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2174,25 +2129,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="F4" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G4" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="H4" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2200,25 +2155,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D5" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F5" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G5" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="H5" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2226,25 +2181,25 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D6" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F6" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G6" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="H6" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2252,25 +2207,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E7" t="s">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="F7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G7" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2278,25 +2233,25 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D8" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E8" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F8" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G8" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="H8" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2304,25 +2259,25 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="D9" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E9" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="F9" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G9" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="H9" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2330,25 +2285,25 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="D10" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E10" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="F10" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G10" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="H10" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2356,25 +2311,25 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C11" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E11" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="F11" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="H11" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2382,25 +2337,25 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C12" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="D12" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="E12" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="F12" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G12" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H12" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2408,25 +2363,25 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D13" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="E13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F13" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G13" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="H13" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2434,25 +2389,25 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F14" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G14" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="H14" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2460,25 +2415,25 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D15" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="E15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F15" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G15" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="H15" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2486,25 +2441,25 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="D16" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="E16" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F16" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G16" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="H16" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2512,25 +2467,25 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D17" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F17" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G17" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H17" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2538,25 +2493,25 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D18" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="E18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F18" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G18" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="H18" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2564,25 +2519,25 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C19" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="D19" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E19" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="F19" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G19" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="H19" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2590,25 +2545,25 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C20" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="D20" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="E20" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="F20" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G20" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H20" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2616,25 +2571,25 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s">
-        <v>181</v>
+        <v>111</v>
       </c>
       <c r="D21" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E21" t="s">
-        <v>181</v>
+        <v>111</v>
       </c>
       <c r="F21" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G21" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="H21" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2642,25 +2597,25 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c r="D22" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="E22" t="s">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c r="F22" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G22" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="H22" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2668,25 +2623,25 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C23" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="D23" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E23" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="F23" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G23" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="H23" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2697,22 +2652,22 @@
         <v>124</v>
       </c>
       <c r="C24" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D24" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E24" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F24" t="s">
+        <v>248</v>
+      </c>
+      <c r="G24" t="s">
         <v>258</v>
       </c>
-      <c r="G24" t="s">
-        <v>263</v>
-      </c>
       <c r="H24" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2723,22 +2678,22 @@
         <v>125</v>
       </c>
       <c r="C25" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="D25" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="E25" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="F25" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G25" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H25" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2746,25 +2701,25 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D26" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="E26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F26" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G26" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="H26" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2772,25 +2727,25 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D27" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F27" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G27" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H27" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2798,25 +2753,25 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D28" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E28" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F28" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G28" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="H28" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2827,22 +2782,22 @@
         <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D29" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E29" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F29" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G29" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H29" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2850,25 +2805,25 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C30" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D30" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="E30" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F30" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G30" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H30" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2876,25 +2831,25 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D31" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F31" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G31" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="H31" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2902,25 +2857,25 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" t="s">
         <v>131</v>
       </c>
-      <c r="C32" t="s">
-        <v>190</v>
-      </c>
       <c r="D32" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E32" t="s">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="F32" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G32" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H32" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2928,25 +2883,25 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C33" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D33" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="E33" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F33" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G33" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="H33" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2954,25 +2909,25 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C34" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D34" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E34" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F34" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G34" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H34" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2980,25 +2935,25 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C35" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D35" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="E35" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F35" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G35" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H35" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3006,25 +2961,25 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C36" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="D36" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E36" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="F36" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G36" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H36" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3032,25 +2987,25 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C37" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D37" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E37" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F37" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G37" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H37" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3058,25 +3013,25 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C38" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D38" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E38" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F38" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G38" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="H38" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3084,25 +3039,25 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C39" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D39" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E39" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F39" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G39" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H39" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3110,25 +3065,25 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C40" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D40" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E40" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F40" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G40" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H40" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3136,25 +3091,25 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="C41" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D41" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E41" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F41" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G41" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="H41" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3162,25 +3117,25 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="C42" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="D42" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E42" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="F42" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G42" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H42" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3188,25 +3143,25 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C43" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D43" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E43" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F43" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G43" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H43" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3214,25 +3169,25 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C44" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D44" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E44" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F44" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G44" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="H44" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3240,25 +3195,25 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C45" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D45" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E45" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F45" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G45" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="H45" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3266,25 +3221,25 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C46" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="D46" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E46" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="F46" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G46" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="H46" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3292,25 +3247,25 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C47" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="D47" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E47" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="F47" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G47" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H47" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3318,25 +3273,25 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="C48" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D48" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E48" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F48" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G48" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H48" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3344,25 +3299,25 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="C49" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D49" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E49" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F49" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G49" t="s">
+        <v>251</v>
+      </c>
+      <c r="H49" t="s">
         <v>273</v>
-      </c>
-      <c r="H49" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3373,22 +3328,22 @@
         <v>142</v>
       </c>
       <c r="C50" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D50" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E50" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F50" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G50" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H50" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3399,22 +3354,22 @@
         <v>143</v>
       </c>
       <c r="C51" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D51" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="E51" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F51" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G51" t="s">
         <v>263</v>
       </c>
       <c r="H51" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3425,22 +3380,22 @@
         <v>144</v>
       </c>
       <c r="C52" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D52" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E52" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F52" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G52" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H52" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3448,25 +3403,25 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="C53" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D53" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E53" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F53" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G53" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H53" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3474,25 +3429,25 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C54" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D54" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E54" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F54" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G54" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H54" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3500,25 +3455,25 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="C55" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D55" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E55" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F55" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G55" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="H55" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3526,25 +3481,25 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C56" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="D56" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E56" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="F56" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G56" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H56" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3552,25 +3507,25 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C57" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D57" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="E57" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F57" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G57" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="H57" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3578,25 +3533,25 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="C58" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D58" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E58" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F58" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G58" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="H58" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3604,25 +3559,25 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C59" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D59" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E59" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F59" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G59" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="H59" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3630,25 +3585,25 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C60" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D60" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E60" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F60" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G60" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="H60" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3656,25 +3611,25 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="C61" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="D61" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E61" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="F61" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G61" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H61" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3682,25 +3637,25 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C62" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D62" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="E62" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F62" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G62" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="H62" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3708,25 +3663,25 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="C63" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D63" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E63" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F63" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G63" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="H63" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3734,25 +3689,25 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C64" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="D64" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E64" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="F64" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G64" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H64" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3760,25 +3715,25 @@
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C65" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D65" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E65" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F65" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G65" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="H65" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3786,25 +3741,25 @@
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C66" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D66" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E66" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F66" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G66" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="H66" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3812,25 +3767,25 @@
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="C67" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="D67" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E67" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="F67" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G67" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H67" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3838,25 +3793,25 @@
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C68" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D68" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E68" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F68" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G68" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H68" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3864,25 +3819,25 @@
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C69" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="D69" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E69" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="F69" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G69" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H69" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3890,25 +3845,25 @@
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C70" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="D70" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E70" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="F70" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G70" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="H70" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3916,25 +3871,25 @@
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C71" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D71" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E71" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F71" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G71" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="H71" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3942,25 +3897,25 @@
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C72" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D72" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E72" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F72" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G72" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="H72" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3968,25 +3923,25 @@
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="C73" t="s">
-        <v>223</v>
+        <v>162</v>
       </c>
       <c r="D73" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E73" t="s">
-        <v>223</v>
+        <v>162</v>
       </c>
       <c r="F73" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G73" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="H73" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3994,25 +3949,25 @@
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C74" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="D74" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E74" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F74" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G74" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="H74" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4020,25 +3975,25 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C75" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D75" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E75" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F75" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G75" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="H75" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4046,25 +4001,25 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="C76" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D76" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E76" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F76" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G76" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H76" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4072,25 +4027,25 @@
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C77" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D77" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E77" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F77" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G77" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="H77" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4098,25 +4053,25 @@
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="C78" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D78" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E78" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F78" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G78" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="H78" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4124,25 +4079,25 @@
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="C79" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D79" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E79" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F79" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G79" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H79" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4150,25 +4105,25 @@
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="C80" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="D80" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E80" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="F80" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G80" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="H80" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4176,25 +4131,25 @@
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="C81" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="D81" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E81" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="F81" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G81" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="H81" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4202,25 +4157,25 @@
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C82" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D82" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E82" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F82" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G82" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="H82" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4231,22 +4186,22 @@
         <v>154</v>
       </c>
       <c r="C83" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D83" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E83" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F83" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G83" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="H83" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4254,25 +4209,25 @@
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="C84" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D84" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E84" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F84" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G84" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H84" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4280,25 +4235,25 @@
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C85" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="D85" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="E85" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="F85" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G85" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="H85" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4306,25 +4261,25 @@
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C86" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="D86" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E86" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="F86" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G86" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="H86" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4332,25 +4287,25 @@
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="C87" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="D87" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E87" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="F87" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G87" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="H87" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4358,25 +4313,25 @@
         <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="C88" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="D88" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E88" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="F88" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G88" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H88" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4384,25 +4339,25 @@
         <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="C89" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="D89" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E89" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="F89" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G89" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="H89" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4410,25 +4365,25 @@
         <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C90" t="s">
-        <v>231</v>
+        <v>168</v>
       </c>
       <c r="D90" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E90" t="s">
-        <v>231</v>
+        <v>168</v>
       </c>
       <c r="F90" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G90" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H90" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4436,25 +4391,25 @@
         <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C91" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D91" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E91" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F91" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G91" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H91" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4462,25 +4417,25 @@
         <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="C92" t="s">
-        <v>119</v>
+        <v>225</v>
       </c>
       <c r="D92" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="E92" t="s">
-        <v>119</v>
+        <v>225</v>
       </c>
       <c r="F92" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G92" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H92" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4488,25 +4443,25 @@
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C93" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D93" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="E93" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F93" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G93" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="H93" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4514,25 +4469,25 @@
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C94" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="D94" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E94" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="F94" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G94" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H94" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4540,25 +4495,25 @@
         <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="C95" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="D95" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E95" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="F95" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G95" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H95" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4566,25 +4521,77 @@
         <v>102</v>
       </c>
       <c r="B96" t="s">
+        <v>166</v>
+      </c>
+      <c r="C96" t="s">
+        <v>227</v>
+      </c>
+      <c r="D96" t="s">
+        <v>229</v>
+      </c>
+      <c r="E96" t="s">
+        <v>227</v>
+      </c>
+      <c r="F96" t="s">
+        <v>248</v>
+      </c>
+      <c r="G96" t="s">
+        <v>251</v>
+      </c>
+      <c r="H96" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97" t="s">
         <v>167</v>
       </c>
-      <c r="C96" t="s">
-        <v>236</v>
-      </c>
-      <c r="D96" t="s">
-        <v>238</v>
-      </c>
-      <c r="E96" t="s">
-        <v>236</v>
-      </c>
-      <c r="F96" t="s">
-        <v>258</v>
-      </c>
-      <c r="G96" t="s">
-        <v>277</v>
-      </c>
-      <c r="H96" t="s">
-        <v>282</v>
+      <c r="C97" t="s">
+        <v>228</v>
+      </c>
+      <c r="D97" t="s">
+        <v>229</v>
+      </c>
+      <c r="E97" t="s">
+        <v>228</v>
+      </c>
+      <c r="F97" t="s">
+        <v>248</v>
+      </c>
+      <c r="G97" t="s">
+        <v>268</v>
+      </c>
+      <c r="H97" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98" t="s">
+        <v>139</v>
+      </c>
+      <c r="C98" t="s">
+        <v>194</v>
+      </c>
+      <c r="D98" t="s">
+        <v>229</v>
+      </c>
+      <c r="E98" t="s">
+        <v>194</v>
+      </c>
+      <c r="F98" t="s">
+        <v>248</v>
+      </c>
+      <c r="G98" t="s">
+        <v>251</v>
+      </c>
+      <c r="H98" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -4594,7 +4601,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4628,2576 +4635,2628 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B2" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C2" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="D2" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E2" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="F2" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G2" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H2" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C3" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="D3" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E3" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="F3" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G3" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="H3" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B4" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C4" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="D4" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E4" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="F4" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G4" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="H4" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B5" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D5" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F5" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G5" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H5" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C6" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D6" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E6" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="F6" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G6" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="H6" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>381</v>
       </c>
       <c r="C7" t="s">
-        <v>181</v>
+        <v>443</v>
       </c>
       <c r="D7" t="s">
-        <v>238</v>
+        <v>504</v>
       </c>
       <c r="E7" t="s">
-        <v>181</v>
+        <v>443</v>
       </c>
       <c r="F7" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="H7" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B8" t="s">
-        <v>387</v>
+        <v>156</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>214</v>
       </c>
       <c r="D8" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>214</v>
       </c>
       <c r="F8" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G8" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H8" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B9" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>444</v>
       </c>
       <c r="D9" t="s">
-        <v>524</v>
+        <v>229</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>444</v>
       </c>
       <c r="F9" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G9" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="H9" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B10" t="s">
-        <v>389</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s">
-        <v>455</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E10" t="s">
-        <v>455</v>
+        <v>105</v>
       </c>
       <c r="F10" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G10" t="s">
-        <v>532</v>
+        <v>251</v>
       </c>
       <c r="H10" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B11" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C11" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="D11" t="s">
-        <v>525</v>
+        <v>229</v>
       </c>
       <c r="E11" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="F11" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G11" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="H11" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B12" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C12" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="D12" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E12" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="F12" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G12" t="s">
-        <v>263</v>
+        <v>518</v>
       </c>
       <c r="H12" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B13" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C13" t="s">
-        <v>458</v>
+        <v>150</v>
       </c>
       <c r="D13" t="s">
-        <v>238</v>
+        <v>505</v>
       </c>
       <c r="E13" t="s">
-        <v>458</v>
+        <v>150</v>
       </c>
       <c r="F13" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G13" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="H13" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>386</v>
       </c>
       <c r="C14" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="D14" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="E14" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="F14" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G14" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H14" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B15" t="s">
-        <v>393</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>399</v>
+        <v>128</v>
       </c>
       <c r="D15" t="s">
-        <v>237</v>
+        <v>506</v>
       </c>
       <c r="E15" t="s">
-        <v>399</v>
+        <v>128</v>
       </c>
       <c r="F15" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G15" t="s">
-        <v>263</v>
+        <v>520</v>
       </c>
       <c r="H15" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B16" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C16" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="D16" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="E16" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="F16" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G16" t="s">
-        <v>535</v>
+        <v>251</v>
       </c>
       <c r="H16" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B17" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C17" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D17" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="E17" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="F17" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G17" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="H17" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>389</v>
       </c>
       <c r="C18" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="D18" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="E18" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="F18" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G18" t="s">
-        <v>277</v>
+        <v>521</v>
       </c>
       <c r="H18" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B19" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C19" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="D19" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="E19" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="F19" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G19" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="H19" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B20" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C20" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="D20" t="s">
-        <v>238</v>
+        <v>507</v>
       </c>
       <c r="E20" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="F20" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G20" t="s">
-        <v>537</v>
+        <v>268</v>
       </c>
       <c r="H20" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B21" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C21" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D21" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="E21" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="F21" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G21" t="s">
-        <v>538</v>
+        <v>268</v>
       </c>
       <c r="H21" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B22" t="s">
-        <v>399</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
-        <v>466</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
-        <v>526</v>
+        <v>241</v>
       </c>
       <c r="E22" t="s">
-        <v>466</v>
+        <v>111</v>
       </c>
       <c r="F22" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G22" t="s">
-        <v>539</v>
+        <v>254</v>
       </c>
       <c r="H22" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>393</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>454</v>
       </c>
       <c r="D23" t="s">
-        <v>248</v>
+        <v>508</v>
       </c>
       <c r="E23" t="s">
-        <v>108</v>
+        <v>454</v>
       </c>
       <c r="F23" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G23" t="s">
-        <v>265</v>
+        <v>523</v>
       </c>
       <c r="H23" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B24" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="C24" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="D24" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="E24" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="F24" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G24" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H24" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B25" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C25" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="D25" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E25" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="F25" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G25" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="H25" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B26" t="s">
-        <v>402</v>
+        <v>146</v>
       </c>
       <c r="C26" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="D26" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E26" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="F26" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G26" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="H26" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B27" t="s">
-        <v>154</v>
+        <v>395</v>
       </c>
       <c r="C27" t="s">
-        <v>221</v>
+        <v>458</v>
       </c>
       <c r="D27" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E27" t="s">
-        <v>221</v>
+        <v>458</v>
       </c>
       <c r="F27" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G27" t="s">
-        <v>541</v>
+        <v>251</v>
       </c>
       <c r="H27" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B28" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C28" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="D28" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="E28" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="F28" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G28" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="H28" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B29" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C29" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="D29" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="E29" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="F29" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G29" t="s">
-        <v>542</v>
+        <v>268</v>
       </c>
       <c r="H29" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B30" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C30" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D30" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E30" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F30" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G30" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="H30" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B31" t="s">
-        <v>405</v>
+        <v>161</v>
       </c>
       <c r="C31" t="s">
-        <v>472</v>
+        <v>219</v>
       </c>
       <c r="D31" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E31" t="s">
-        <v>472</v>
+        <v>219</v>
       </c>
       <c r="F31" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G31" t="s">
-        <v>263</v>
+        <v>527</v>
       </c>
       <c r="H31" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B32" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C32" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="D32" t="s">
-        <v>238</v>
+        <v>510</v>
       </c>
       <c r="E32" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="F32" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G32" t="s">
-        <v>263</v>
+        <v>515</v>
       </c>
       <c r="H32" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B33" t="s">
-        <v>407</v>
+        <v>117</v>
       </c>
       <c r="C33" t="s">
-        <v>474</v>
+        <v>196</v>
       </c>
       <c r="D33" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E33" t="s">
-        <v>474</v>
+        <v>196</v>
       </c>
       <c r="F33" t="s">
+        <v>513</v>
+      </c>
+      <c r="G33" t="s">
         <v>528</v>
       </c>
-      <c r="G33" t="s">
-        <v>544</v>
-      </c>
       <c r="H33" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>463</v>
       </c>
       <c r="D34" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="E34" t="s">
-        <v>111</v>
+        <v>463</v>
       </c>
       <c r="F34" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G34" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="H34" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B35" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C35" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="D35" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E35" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="F35" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G35" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H35" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B36" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C36" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="D36" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E36" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="F36" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G36" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="H36" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B37" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="C37" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="D37" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E37" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="F37" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G37" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H37" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B38" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C38" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="D38" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E38" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="F38" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G38" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H38" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>404</v>
       </c>
       <c r="C39" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="D39" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E39" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="F39" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G39" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="H39" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B40" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C40" t="s">
-        <v>480</v>
+        <v>204</v>
       </c>
       <c r="D40" t="s">
-        <v>526</v>
+        <v>229</v>
       </c>
       <c r="E40" t="s">
-        <v>480</v>
+        <v>204</v>
       </c>
       <c r="F40" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G40" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="H40" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B41" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="C41" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="D41" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E41" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="F41" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G41" t="s">
-        <v>547</v>
+        <v>251</v>
       </c>
       <c r="H41" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B42" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C42" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="D42" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E42" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="F42" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G42" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H42" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B43" t="s">
-        <v>413</v>
+        <v>145</v>
       </c>
       <c r="C43" t="s">
-        <v>482</v>
+        <v>149</v>
       </c>
       <c r="D43" t="s">
-        <v>238</v>
+        <v>511</v>
       </c>
       <c r="E43" t="s">
-        <v>482</v>
+        <v>149</v>
       </c>
       <c r="F43" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G43" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="H43" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B44" t="s">
-        <v>414</v>
+        <v>209</v>
       </c>
       <c r="C44" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="D44" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E44" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="F44" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G44" t="s">
-        <v>263</v>
+        <v>531</v>
       </c>
       <c r="H44" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B45" t="s">
-        <v>151</v>
+        <v>406</v>
       </c>
       <c r="C45" t="s">
-        <v>218</v>
+        <v>471</v>
       </c>
       <c r="D45" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E45" t="s">
-        <v>218</v>
+        <v>471</v>
       </c>
       <c r="F45" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G45" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H45" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B46" t="s">
-        <v>415</v>
+        <v>112</v>
       </c>
       <c r="C46" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="D46" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="E46" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="F46" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G46" t="s">
-        <v>263</v>
+        <v>532</v>
       </c>
       <c r="H46" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B47" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="C47" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="D47" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E47" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="F47" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G47" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="H47" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B48" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C48" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="D48" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E48" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="F48" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G48" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="H48" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B49" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="C49" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="D49" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="E49" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="F49" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G49" t="s">
-        <v>548</v>
+        <v>251</v>
       </c>
       <c r="H49" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B50" t="s">
-        <v>124</v>
+        <v>410</v>
       </c>
       <c r="C50" t="s">
-        <v>183</v>
+        <v>476</v>
       </c>
       <c r="D50" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E50" t="s">
-        <v>183</v>
+        <v>476</v>
       </c>
       <c r="F50" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G50" t="s">
-        <v>263</v>
+        <v>515</v>
       </c>
       <c r="H50" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B51" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="C51" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="D51" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E51" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="F51" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G51" t="s">
-        <v>530</v>
+        <v>252</v>
       </c>
       <c r="H51" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B52" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="C52" t="s">
-        <v>489</v>
+        <v>181</v>
       </c>
       <c r="D52" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E52" t="s">
-        <v>489</v>
+        <v>181</v>
       </c>
       <c r="F52" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G52" t="s">
-        <v>265</v>
+        <v>533</v>
       </c>
       <c r="H52" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B53" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C53" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="D53" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E53" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="F53" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G53" t="s">
-        <v>549</v>
+        <v>515</v>
       </c>
       <c r="H53" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B54" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="C54" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="D54" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E54" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="F54" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G54" t="s">
-        <v>550</v>
+        <v>251</v>
       </c>
       <c r="H54" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B55" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C55" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="D55" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E55" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="F55" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G55" t="s">
-        <v>548</v>
+        <v>251</v>
       </c>
       <c r="H55" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B56" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C56" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="D56" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E56" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="F56" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G56" t="s">
-        <v>551</v>
+        <v>517</v>
       </c>
       <c r="H56" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B57" t="s">
-        <v>424</v>
+        <v>383</v>
       </c>
       <c r="C57" t="s">
-        <v>494</v>
+        <v>445</v>
       </c>
       <c r="D57" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E57" t="s">
-        <v>494</v>
+        <v>445</v>
       </c>
       <c r="F57" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G57" t="s">
-        <v>552</v>
+        <v>251</v>
       </c>
       <c r="H57" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B58" t="s">
-        <v>171</v>
+        <v>415</v>
       </c>
       <c r="C58" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="D58" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E58" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="F58" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G58" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="H58" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B59" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C59" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="D59" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="E59" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="F59" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G59" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="H59" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B60" t="s">
-        <v>162</v>
+        <v>417</v>
       </c>
       <c r="C60" t="s">
-        <v>232</v>
+        <v>483</v>
       </c>
       <c r="D60" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E60" t="s">
-        <v>232</v>
+        <v>483</v>
       </c>
       <c r="F60" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G60" t="s">
-        <v>263</v>
+        <v>534</v>
       </c>
       <c r="H60" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B61" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C61" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="D61" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E61" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="F61" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G61" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="H61" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B62" t="s">
-        <v>427</v>
+        <v>390</v>
       </c>
       <c r="C62" t="s">
-        <v>498</v>
+        <v>451</v>
       </c>
       <c r="D62" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E62" t="s">
-        <v>498</v>
+        <v>451</v>
       </c>
       <c r="F62" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G62" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H62" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B63" t="s">
-        <v>388</v>
+        <v>419</v>
       </c>
       <c r="C63" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="D63" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E63" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="F63" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G63" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="H63" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B64" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C64" t="s">
-        <v>500</v>
+        <v>111</v>
       </c>
       <c r="D64" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E64" t="s">
-        <v>500</v>
+        <v>111</v>
       </c>
       <c r="F64" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G64" t="s">
-        <v>263</v>
+        <v>535</v>
       </c>
       <c r="H64" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B65" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C65" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="D65" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E65" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="F65" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G65" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H65" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B66" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="C66" t="s">
-        <v>501</v>
+        <v>458</v>
       </c>
       <c r="D66" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E66" t="s">
-        <v>501</v>
+        <v>458</v>
       </c>
       <c r="F66" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G66" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="H66" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B67" t="s">
-        <v>430</v>
+        <v>154</v>
       </c>
       <c r="C67" t="s">
-        <v>502</v>
+        <v>212</v>
       </c>
       <c r="D67" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E67" t="s">
-        <v>502</v>
+        <v>212</v>
       </c>
       <c r="F67" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G67" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="H67" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B68" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="C68" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="D68" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E68" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="F68" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G68" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="H68" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B69" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="C69" t="s">
-        <v>504</v>
+        <v>481</v>
       </c>
       <c r="D69" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E69" t="s">
-        <v>504</v>
+        <v>481</v>
       </c>
       <c r="F69" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G69" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H69" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>423</v>
       </c>
       <c r="C70" t="s">
-        <v>199</v>
+        <v>488</v>
       </c>
       <c r="D70" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E70" t="s">
-        <v>199</v>
+        <v>488</v>
       </c>
       <c r="F70" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G70" t="s">
-        <v>554</v>
+        <v>251</v>
       </c>
       <c r="H70" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B71" t="s">
-        <v>188</v>
+        <v>424</v>
       </c>
       <c r="C71" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="D71" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E71" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="F71" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G71" t="s">
+        <v>251</v>
+      </c>
+      <c r="H71" t="s">
         <v>555</v>
-      </c>
-      <c r="H71" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B72" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C72" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="D72" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E72" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="F72" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G72" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H72" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B73" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C73" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="D73" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E73" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="F73" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G73" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="H73" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B74" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C74" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="D74" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E74" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="F74" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G74" t="s">
-        <v>557</v>
+        <v>251</v>
       </c>
       <c r="H74" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B75" t="s">
-        <v>436</v>
+        <v>138</v>
       </c>
       <c r="C75" t="s">
-        <v>509</v>
+        <v>193</v>
       </c>
       <c r="D75" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E75" t="s">
-        <v>509</v>
+        <v>193</v>
       </c>
       <c r="F75" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G75" t="s">
-        <v>558</v>
+        <v>251</v>
       </c>
       <c r="H75" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B76" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="C76" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="D76" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="E76" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="F76" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G76" t="s">
-        <v>559</v>
+        <v>539</v>
       </c>
       <c r="H76" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B77" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="C77" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="D77" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E77" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="F77" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G77" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="H77" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B78" t="s">
-        <v>439</v>
+        <v>380</v>
       </c>
       <c r="C78" t="s">
-        <v>512</v>
+        <v>442</v>
       </c>
       <c r="D78" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E78" t="s">
-        <v>512</v>
+        <v>442</v>
       </c>
       <c r="F78" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G78" t="s">
-        <v>263</v>
+        <v>541</v>
       </c>
       <c r="H78" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B79" t="s">
-        <v>427</v>
+        <v>377</v>
       </c>
       <c r="C79" t="s">
-        <v>498</v>
+        <v>440</v>
       </c>
       <c r="D79" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E79" t="s">
-        <v>498</v>
+        <v>440</v>
       </c>
       <c r="F79" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G79" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="H79" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B80" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="C80" t="s">
-        <v>513</v>
+        <v>222</v>
       </c>
       <c r="D80" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E80" t="s">
-        <v>513</v>
+        <v>222</v>
       </c>
       <c r="F80" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G80" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="H80" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B81" t="s">
-        <v>440</v>
+        <v>395</v>
       </c>
       <c r="C81" t="s">
-        <v>514</v>
+        <v>458</v>
       </c>
       <c r="D81" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E81" t="s">
-        <v>514</v>
+        <v>458</v>
       </c>
       <c r="F81" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G81" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="H81" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B82" t="s">
-        <v>441</v>
+        <v>122</v>
       </c>
       <c r="C82" t="s">
-        <v>387</v>
+        <v>119</v>
       </c>
       <c r="D82" t="s">
-        <v>238</v>
+        <v>507</v>
       </c>
       <c r="E82" t="s">
-        <v>387</v>
+        <v>119</v>
       </c>
       <c r="F82" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G82" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="H82" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B83" t="s">
-        <v>139</v>
+        <v>429</v>
       </c>
       <c r="C83" t="s">
-        <v>201</v>
+        <v>495</v>
       </c>
       <c r="D83" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E83" t="s">
-        <v>201</v>
+        <v>495</v>
       </c>
       <c r="F83" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G83" t="s">
-        <v>561</v>
+        <v>538</v>
       </c>
       <c r="H83" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B84" t="s">
-        <v>442</v>
+        <v>392</v>
       </c>
       <c r="C84" t="s">
-        <v>515</v>
+        <v>145</v>
       </c>
       <c r="D84" t="s">
-        <v>238</v>
+        <v>512</v>
       </c>
       <c r="E84" t="s">
-        <v>515</v>
+        <v>145</v>
       </c>
       <c r="F84" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G84" t="s">
-        <v>562</v>
+        <v>535</v>
       </c>
       <c r="H84" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B85" t="s">
-        <v>130</v>
+        <v>430</v>
       </c>
       <c r="C85" t="s">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="D85" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E85" t="s">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="F85" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G85" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="H85" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B86" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="C86" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="D86" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E86" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="F86" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G86" t="s">
-        <v>262</v>
+        <v>545</v>
       </c>
       <c r="H86" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B87" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="C87" t="s">
-        <v>516</v>
+        <v>469</v>
       </c>
       <c r="D87" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E87" t="s">
-        <v>516</v>
+        <v>469</v>
       </c>
       <c r="F87" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G87" t="s">
-        <v>563</v>
+        <v>253</v>
       </c>
       <c r="H87" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B88" t="s">
-        <v>129</v>
+        <v>391</v>
       </c>
       <c r="C88" t="s">
-        <v>231</v>
+        <v>497</v>
       </c>
       <c r="D88" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E88" t="s">
-        <v>231</v>
+        <v>497</v>
       </c>
       <c r="F88" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G88" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="H88" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B89" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="C89" t="s">
-        <v>129</v>
+        <v>498</v>
       </c>
       <c r="D89" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E89" t="s">
-        <v>129</v>
+        <v>498</v>
       </c>
       <c r="F89" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G89" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="H89" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B90" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C90" t="s">
-        <v>517</v>
+        <v>177</v>
       </c>
       <c r="D90" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="E90" t="s">
-        <v>517</v>
+        <v>177</v>
       </c>
       <c r="F90" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G90" t="s">
-        <v>265</v>
+        <v>544</v>
       </c>
       <c r="H90" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B91" t="s">
-        <v>445</v>
+        <v>129</v>
       </c>
       <c r="C91" t="s">
-        <v>518</v>
+        <v>185</v>
       </c>
       <c r="D91" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E91" t="s">
-        <v>518</v>
+        <v>185</v>
       </c>
       <c r="F91" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G91" t="s">
-        <v>263</v>
+        <v>517</v>
       </c>
       <c r="H91" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B92" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="C92" t="s">
-        <v>519</v>
+        <v>460</v>
       </c>
       <c r="D92" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E92" t="s">
-        <v>519</v>
+        <v>460</v>
       </c>
       <c r="F92" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G92" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="H92" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B93" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="C93" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D93" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E93" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F93" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G93" t="s">
-        <v>566</v>
+        <v>251</v>
       </c>
       <c r="H93" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B94" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="C94" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="D94" t="s">
-        <v>525</v>
+        <v>229</v>
       </c>
       <c r="E94" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="F94" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G94" t="s">
-        <v>263</v>
+        <v>515</v>
       </c>
       <c r="H94" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B95" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="C95" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="D95" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E95" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="F95" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G95" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H95" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B96" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C96" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="D96" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E96" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="F96" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G96" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="H96" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B97" t="s">
-        <v>139</v>
+        <v>436</v>
       </c>
       <c r="C97" t="s">
-        <v>201</v>
+        <v>502</v>
       </c>
       <c r="D97" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E97" t="s">
-        <v>201</v>
+        <v>502</v>
       </c>
       <c r="F97" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G97" t="s">
-        <v>567</v>
+        <v>251</v>
       </c>
       <c r="H97" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B98" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="C98" t="s">
-        <v>522</v>
+        <v>481</v>
       </c>
       <c r="D98" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E98" t="s">
-        <v>522</v>
+        <v>481</v>
       </c>
       <c r="F98" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G98" t="s">
-        <v>550</v>
+        <v>251</v>
       </c>
       <c r="H98" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B99" t="s">
-        <v>450</v>
+        <v>391</v>
       </c>
       <c r="C99" t="s">
-        <v>523</v>
+        <v>497</v>
       </c>
       <c r="D99" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E99" t="s">
-        <v>523</v>
+        <v>497</v>
       </c>
       <c r="F99" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G99" t="s">
-        <v>273</v>
+        <v>550</v>
       </c>
       <c r="H99" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
+        <v>373</v>
+      </c>
+      <c r="B100" t="s">
+        <v>437</v>
+      </c>
+      <c r="C100" t="s">
         <v>381</v>
       </c>
-      <c r="B100" t="s">
-        <v>388</v>
-      </c>
-      <c r="C100" t="s">
-        <v>204</v>
-      </c>
       <c r="D100" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E100" t="s">
-        <v>204</v>
+        <v>381</v>
       </c>
       <c r="F100" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G100" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="H100" t="s">
-        <v>570</v>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" t="s">
+        <v>374</v>
+      </c>
+      <c r="B101" t="s">
+        <v>438</v>
+      </c>
+      <c r="C101" t="s">
+        <v>503</v>
+      </c>
+      <c r="D101" t="s">
+        <v>229</v>
+      </c>
+      <c r="E101" t="s">
+        <v>503</v>
+      </c>
+      <c r="F101" t="s">
+        <v>513</v>
+      </c>
+      <c r="G101" t="s">
+        <v>263</v>
+      </c>
+      <c r="H101" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>375</v>
+      </c>
+      <c r="B102" t="s">
+        <v>383</v>
+      </c>
+      <c r="C102" t="s">
+        <v>201</v>
+      </c>
+      <c r="D102" t="s">
+        <v>229</v>
+      </c>
+      <c r="E102" t="s">
+        <v>201</v>
+      </c>
+      <c r="F102" t="s">
+        <v>513</v>
+      </c>
+      <c r="G102" t="s">
+        <v>517</v>
+      </c>
+      <c r="H102" t="s">
+        <v>555</v>
       </c>
     </row>
   </sheetData>

--- a/BigBasket/BigBasket_products.xlsx
+++ b/BigBasket/BigBasket_products.xlsx
@@ -422,7 +422,7 @@
     <t>₹109</t>
   </si>
   <si>
-    <t>₹516</t>
+    <t>₹518</t>
   </si>
   <si>
     <t>₹98</t>
@@ -659,7 +659,7 @@
     <t>₹78</t>
   </si>
   <si>
-    <t>₹376.68</t>
+    <t>₹378.14</t>
   </si>
   <si>
     <t>₹59</t>
@@ -1025,7 +1025,7 @@
     <t>2023-10-12 06:31:52</t>
   </si>
   <si>
-    <t>2023-10-12 07:01:34</t>
+    <t>2023-10-12 09:04:29</t>
   </si>
 </sst>
 </file>
@@ -3435,10 +3435,10 @@
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C87" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="D87" t="s">
         <v>273</v>

--- a/BigBasket/BigBasket_products.xlsx
+++ b/BigBasket/BigBasket_products.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="563">
   <si>
     <t>product_name</t>
   </si>
@@ -41,6 +41,843 @@
     <t>timestamp</t>
   </si>
   <si>
+    <t>Cucumber - Mangalore, Organically Grown</t>
+  </si>
+  <si>
+    <t>Onion</t>
+  </si>
+  <si>
+    <t>Cucumber (Loose)</t>
+  </si>
+  <si>
+    <t>Radish - White (Loose)</t>
+  </si>
+  <si>
+    <t>Onion (Loose)</t>
+  </si>
+  <si>
+    <t>Carrot - Orange (Loose)</t>
+  </si>
+  <si>
+    <t>Potato</t>
+  </si>
+  <si>
+    <t>Tomato - Local (Loose)</t>
+  </si>
+  <si>
+    <t>Ladies' Fingers (Loose)</t>
+  </si>
+  <si>
+    <t>Cucumber</t>
+  </si>
+  <si>
+    <t>Capsicum - Green (Loose)</t>
+  </si>
+  <si>
+    <t>Coriander Leaves</t>
+  </si>
+  <si>
+    <t>Tomato - Hybrid (Loose)</t>
+  </si>
+  <si>
+    <t>Beans - Haricot (Loose)</t>
+  </si>
+  <si>
+    <t>Cauliflower</t>
+  </si>
+  <si>
+    <t>Beetroot (Loose)</t>
+  </si>
+  <si>
+    <t>Palak - Cleaned, without roots</t>
+  </si>
+  <si>
+    <t>Chilli - Green, Organically Grown</t>
+  </si>
+  <si>
+    <t>Cabbage (Loose)</t>
+  </si>
+  <si>
+    <t>Mushrooms - Button</t>
+  </si>
+  <si>
+    <t>Cucumber - English (Loose)</t>
+  </si>
+  <si>
+    <t>Curry Leaves</t>
+  </si>
+  <si>
+    <t>Coccinia (Loose)</t>
+  </si>
+  <si>
+    <t>Sweet Corn (Loose)</t>
+  </si>
+  <si>
+    <t>Drumstick/Moringa</t>
+  </si>
+  <si>
+    <t>Bottle Gourd (Loose)</t>
+  </si>
+  <si>
+    <t>Ginger - Organically Grown</t>
+  </si>
+  <si>
+    <t>Ridge Gourd</t>
+  </si>
+  <si>
+    <t>Tomato - Local, Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Mint Leaves - Cleaned, without roots</t>
+  </si>
+  <si>
+    <t>Onion - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Brinjal - Varikatri (Loose)</t>
+  </si>
+  <si>
+    <t>Brinjal - Bottle Shape (Loose)</t>
+  </si>
+  <si>
+    <t>Methi/Venthaya Keerai - Cleaned, without roots</t>
+  </si>
+  <si>
+    <t>Amla (Loose)</t>
+  </si>
+  <si>
+    <t>Bitter Gourd (Loose)</t>
+  </si>
+  <si>
+    <t>Chow Chow (Loose)</t>
+  </si>
+  <si>
+    <t>Beans - Broad (Loose)</t>
+  </si>
+  <si>
+    <t>Spring Onion - With roots</t>
+  </si>
+  <si>
+    <t>Parwal (Loose)</t>
+  </si>
+  <si>
+    <t>Garlic - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Sweet Potato - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Lettuce - Iceberg</t>
+  </si>
+  <si>
+    <t>Betel Leaf</t>
+  </si>
+  <si>
+    <t>Cucumber - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Corriander  - Organically Grown</t>
+  </si>
+  <si>
+    <t>Pumpkin Green - Cut</t>
+  </si>
+  <si>
+    <t>Beans - Cluster (Loose)</t>
+  </si>
+  <si>
+    <t>Beans - Cowpea (Loose)</t>
+  </si>
+  <si>
+    <t>Knol Khol (Loose)</t>
+  </si>
+  <si>
+    <t>Broccoli</t>
+  </si>
+  <si>
+    <t>Onion - Sambhar (Loose)</t>
+  </si>
+  <si>
+    <t>Palak - Organically Grown</t>
+  </si>
+  <si>
+    <t>Coloured Capsicum Mix</t>
+  </si>
+  <si>
+    <t>Colocasia (Loose)</t>
+  </si>
+  <si>
+    <t>Potato - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Baby Potato (Loose)</t>
+  </si>
+  <si>
+    <t>Ladies' Fingers - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Snake Gourd</t>
+  </si>
+  <si>
+    <t>Amaranthus - Red Cleaned, without roots</t>
+  </si>
+  <si>
+    <t>Beetroot - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Beans - French, Ring (Loose)</t>
+  </si>
+  <si>
+    <t>Dill Leaves</t>
+  </si>
+  <si>
+    <t>Lettuce - Green</t>
+  </si>
+  <si>
+    <t>Brinjal - Green, Long (Loose)</t>
+  </si>
+  <si>
+    <t>Basale Leaf</t>
+  </si>
+  <si>
+    <t>Beans - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Capsicum - Green, Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Amaranthus - Green Cleaned, without roots</t>
+  </si>
+  <si>
+    <t>Cauliflower - Organically Grown</t>
+  </si>
+  <si>
+    <t>Mint - Organically Grown</t>
+  </si>
+  <si>
+    <t>Sweet Potato (Loose)</t>
+  </si>
+  <si>
+    <t>Tomato - Cherry</t>
+  </si>
+  <si>
+    <t>Ash Gourd - Cut</t>
+  </si>
+  <si>
+    <t>Papaya - Raw</t>
+  </si>
+  <si>
+    <t>Bottle Gourd - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Potato - Red (Loose)</t>
+  </si>
+  <si>
+    <t>Drumstick Leaves</t>
+  </si>
+  <si>
+    <t>Tomato - Green (Loose)</t>
+  </si>
+  <si>
+    <t>Cucumber - Mangalore</t>
+  </si>
+  <si>
+    <t>Gongura Leaves/Pulicha - Cleaned, without roots</t>
+  </si>
+  <si>
+    <t>Bitter Gourd - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Pumpkin - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Tomato - Hybrid, Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Baby Corn - Unpeeled (Loose)</t>
+  </si>
+  <si>
+    <t>English Cucumber - Organically grown (Loose)</t>
+  </si>
+  <si>
+    <t>Capsicum - Red, Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Lemon Grass</t>
+  </si>
+  <si>
+    <t>Celery</t>
+  </si>
+  <si>
+    <t>Pumpkin - Disco</t>
+  </si>
+  <si>
+    <t>Cabbage - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Bitter Gourd - Forest (Loose)</t>
+  </si>
+  <si>
+    <t>Banana Stem - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Carrot - Ooty (Loose)</t>
+  </si>
+  <si>
+    <t>Yam - Cut</t>
+  </si>
+  <si>
+    <t>Groundnut - Fresh (Loose)</t>
+  </si>
+  <si>
+    <t>Ridge Gourd - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Banana Flower - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>₹39</t>
+  </si>
+  <si>
+    <t>₹310</t>
+  </si>
+  <si>
+    <t>₹73</t>
+  </si>
+  <si>
+    <t>₹103</t>
+  </si>
+  <si>
+    <t>₹98</t>
+  </si>
+  <si>
+    <t>₹27</t>
+  </si>
+  <si>
+    <t>₹50</t>
+  </si>
+  <si>
+    <t>₹28</t>
+  </si>
+  <si>
+    <t>₹25</t>
+  </si>
+  <si>
+    <t>₹68</t>
+  </si>
+  <si>
+    <t>₹331</t>
+  </si>
+  <si>
+    <t>₹14</t>
+  </si>
+  <si>
+    <t>₹57</t>
+  </si>
+  <si>
+    <t>₹37</t>
+  </si>
+  <si>
+    <t>₹51</t>
+  </si>
+  <si>
+    <t>₹158</t>
+  </si>
+  <si>
+    <t>₹77</t>
+  </si>
+  <si>
+    <t>₹33</t>
+  </si>
+  <si>
+    <t>₹62</t>
+  </si>
+  <si>
+    <t>₹53</t>
+  </si>
+  <si>
+    <t>₹166</t>
+  </si>
+  <si>
+    <t>₹81</t>
+  </si>
+  <si>
+    <t>₹76</t>
+  </si>
+  <si>
+    <t>₹235</t>
+  </si>
+  <si>
+    <t>₹40</t>
+  </si>
+  <si>
+    <t>₹139</t>
+  </si>
+  <si>
+    <t>₹58</t>
+  </si>
+  <si>
+    <t>₹29</t>
+  </si>
+  <si>
+    <t>₹269</t>
+  </si>
+  <si>
+    <t>₹317</t>
+  </si>
+  <si>
+    <t>₹180</t>
+  </si>
+  <si>
+    <t>₹46</t>
+  </si>
+  <si>
+    <t>₹144</t>
+  </si>
+  <si>
+    <t>₹18</t>
+  </si>
+  <si>
+    <t>₹205</t>
+  </si>
+  <si>
+    <t>₹190</t>
+  </si>
+  <si>
+    <t>₹88</t>
+  </si>
+  <si>
+    <t>₹151</t>
+  </si>
+  <si>
+    <t>₹70</t>
+  </si>
+  <si>
+    <t>₹65</t>
+  </si>
+  <si>
+    <t>₹13.16</t>
+  </si>
+  <si>
+    <t>₹172</t>
+  </si>
+  <si>
+    <t>₹148</t>
+  </si>
+  <si>
+    <t>₹99</t>
+  </si>
+  <si>
+    <t>₹95</t>
+  </si>
+  <si>
+    <t>₹55</t>
+  </si>
+  <si>
+    <t>₹122</t>
+  </si>
+  <si>
+    <t>₹150</t>
+  </si>
+  <si>
+    <t>₹320</t>
+  </si>
+  <si>
+    <t>₹107</t>
+  </si>
+  <si>
+    <t>₹31</t>
+  </si>
+  <si>
+    <t>₹111</t>
+  </si>
+  <si>
+    <t>₹133</t>
+  </si>
+  <si>
+    <t>₹90</t>
+  </si>
+  <si>
+    <t>₹43</t>
+  </si>
+  <si>
+    <t>₹50.68</t>
+  </si>
+  <si>
+    <t>₹48</t>
+  </si>
+  <si>
+    <t>₹54</t>
+  </si>
+  <si>
+    <t>₹24</t>
+  </si>
+  <si>
+    <t>₹79</t>
+  </si>
+  <si>
+    <t>₹16</t>
+  </si>
+  <si>
+    <t>₹120</t>
+  </si>
+  <si>
+    <t>₹109</t>
+  </si>
+  <si>
+    <t>₹36</t>
+  </si>
+  <si>
+    <t>₹28.47</t>
+  </si>
+  <si>
+    <t>₹30</t>
+  </si>
+  <si>
+    <t>₹75.19</t>
+  </si>
+  <si>
+    <t>₹60</t>
+  </si>
+  <si>
+    <t>₹9</t>
+  </si>
+  <si>
+    <t>₹8.41</t>
+  </si>
+  <si>
+    <t>₹8.75</t>
+  </si>
+  <si>
+    <t>₹88.5</t>
+  </si>
+  <si>
+    <t>₹5</t>
+  </si>
+  <si>
+    <t>₹27.5</t>
+  </si>
+  <si>
+    <t>₹27.01</t>
+  </si>
+  <si>
+    <t>₹22</t>
+  </si>
+  <si>
+    <t>₹115.34</t>
+  </si>
+  <si>
+    <t>₹56.21</t>
+  </si>
+  <si>
+    <t>₹121.18</t>
+  </si>
+  <si>
+    <t>₹55.48</t>
+  </si>
+  <si>
+    <t>₹171.55</t>
+  </si>
+  <si>
+    <t>₹26</t>
+  </si>
+  <si>
+    <t>₹101.47</t>
+  </si>
+  <si>
+    <t>₹21.17</t>
+  </si>
+  <si>
+    <t>₹196.37</t>
+  </si>
+  <si>
+    <t>₹231.41</t>
+  </si>
+  <si>
+    <t>₹131.4</t>
+  </si>
+  <si>
+    <t>₹49.64</t>
+  </si>
+  <si>
+    <t>₹33.58</t>
+  </si>
+  <si>
+    <t>₹105.12</t>
+  </si>
+  <si>
+    <t>₹13.14</t>
+  </si>
+  <si>
+    <t>₹149.65</t>
+  </si>
+  <si>
+    <t>₹138.7</t>
+  </si>
+  <si>
+    <t>₹64.24</t>
+  </si>
+  <si>
+    <t>₹18.25</t>
+  </si>
+  <si>
+    <t>₹41.61</t>
+  </si>
+  <si>
+    <t>₹110.23</t>
+  </si>
+  <si>
+    <t>₹51.1</t>
+  </si>
+  <si>
+    <t>₹47.45</t>
+  </si>
+  <si>
+    <t>₹34</t>
+  </si>
+  <si>
+    <t>₹53.29</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>₹101</t>
+  </si>
+  <si>
+    <t>₹108.04</t>
+  </si>
+  <si>
+    <t>₹72.27</t>
+  </si>
+  <si>
+    <t>₹69.35</t>
+  </si>
+  <si>
+    <t>₹40.15</t>
+  </si>
+  <si>
+    <t>₹89.06</t>
+  </si>
+  <si>
+    <t>₹10</t>
+  </si>
+  <si>
+    <t>₹96</t>
+  </si>
+  <si>
+    <t>₹233.6</t>
+  </si>
+  <si>
+    <t>₹22.63</t>
+  </si>
+  <si>
+    <t>₹81.03</t>
+  </si>
+  <si>
+    <t>₹97.09</t>
+  </si>
+  <si>
+    <t>₹65.7</t>
+  </si>
+  <si>
+    <t>₹31.39</t>
+  </si>
+  <si>
+    <t>₹38.69</t>
+  </si>
+  <si>
+    <t>₹35.04</t>
+  </si>
+  <si>
+    <t>₹39.42</t>
+  </si>
+  <si>
+    <t>₹17.52</t>
+  </si>
+  <si>
+    <t>₹57.67</t>
+  </si>
+  <si>
+    <t>₹11.68</t>
+  </si>
+  <si>
+    <t>₹87.6</t>
+  </si>
+  <si>
+    <t>₹24.09</t>
+  </si>
+  <si>
+    <t>₹21</t>
+  </si>
+  <si>
+    <t>₹79.57</t>
+  </si>
+  <si>
+    <t>₹26.28</t>
+  </si>
+  <si>
+    <t>27% OFF</t>
+  </si>
+  <si>
+    <t>42% OFF</t>
+  </si>
+  <si>
+    <t>59% OFF</t>
+  </si>
+  <si>
+    <t>39% OFF</t>
+  </si>
+  <si>
+    <t>67% OFF</t>
+  </si>
+  <si>
+    <t>34% OFF</t>
+  </si>
+  <si>
+    <t>43% OFF</t>
+  </si>
+  <si>
+    <t>66% OFF</t>
+  </si>
+  <si>
+    <t>65% OFF</t>
+  </si>
+  <si>
+    <t>63% OFF</t>
+  </si>
+  <si>
+    <t>73% OFF</t>
+  </si>
+  <si>
+    <t>64% OFF</t>
+  </si>
+  <si>
+    <t>52% OFF</t>
+  </si>
+  <si>
+    <t>57% OFF</t>
+  </si>
+  <si>
+    <t>45% OFF</t>
+  </si>
+  <si>
+    <t>31% OFF</t>
+  </si>
+  <si>
+    <t>51% OFF</t>
+  </si>
+  <si>
+    <t>35% OFF</t>
+  </si>
+  <si>
+    <t>55% OFF</t>
+  </si>
+  <si>
+    <t>32% OFF</t>
+  </si>
+  <si>
+    <t>56% OFF</t>
+  </si>
+  <si>
+    <t>48% OFF</t>
+  </si>
+  <si>
+    <t>41% OFF</t>
+  </si>
+  <si>
+    <t>60% OFF</t>
+  </si>
+  <si>
+    <t>36% OFF</t>
+  </si>
+  <si>
+    <t>Fresh Vegetables</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx 500-1kg)</t>
+  </si>
+  <si>
+    <t>5 kg - Multipack</t>
+  </si>
+  <si>
+    <t>1 kg</t>
+  </si>
+  <si>
+    <t>2 kg</t>
+  </si>
+  <si>
+    <t>250 g</t>
+  </si>
+  <si>
+    <t>500 g</t>
+  </si>
+  <si>
+    <t>1 pc - (approx. 400 to 600 g)</t>
+  </si>
+  <si>
+    <t>1 pc - (approx. 500 g to 800 g)</t>
+  </si>
+  <si>
+    <t>1 pack - (Approx. 180g - 200 g)</t>
+  </si>
+  <si>
+    <t>2 pcs</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 500 g - 800 g)</t>
+  </si>
+  <si>
+    <t>5 kg</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 100 g)</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 250g-500g)</t>
+  </si>
+  <si>
+    <t>10 pcs</t>
+  </si>
+  <si>
+    <t>100 g</t>
+  </si>
+  <si>
+    <t>350 g (2 pieces)</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 100g-250g)</t>
+  </si>
+  <si>
+    <t>1 Kg</t>
+  </si>
+  <si>
+    <t>1 pc - Approx. 400 to 600 g</t>
+  </si>
+  <si>
+    <t>1 pc</t>
+  </si>
+  <si>
+    <t>1 pc (Approx 500-1000 g)</t>
+  </si>
+  <si>
+    <t>1 pc (approx. 300-1.3 Kg)</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:23:50</t>
+  </si>
+  <si>
+    <t>2023-10-05 05:13:58</t>
+  </si>
+  <si>
+    <t>2023-10-12 06:34:50</t>
+  </si>
+  <si>
+    <t>2023-10-12 09:03:41</t>
+  </si>
+  <si>
+    <t>2023-10-13 06:06:40</t>
+  </si>
+  <si>
     <t>Kesar Mango</t>
   </si>
   <si>
@@ -62,75 +899,75 @@
     <t>Mangosteen</t>
   </si>
   <si>
+    <t>Muskmelon -  Netted Small</t>
+  </si>
+  <si>
+    <t>Banana - Robusta</t>
+  </si>
+  <si>
+    <t>Apple - Shimla, Regular</t>
+  </si>
+  <si>
+    <t>Pomegranate - Regular (Loose)</t>
+  </si>
+  <si>
+    <t>Baby Apple Shimla</t>
+  </si>
+  <si>
+    <t>Banana - Yelakki</t>
+  </si>
+  <si>
+    <t>Coconut - Medium</t>
+  </si>
+  <si>
+    <t>Papaya</t>
+  </si>
+  <si>
+    <t>Mini Orange Imported (Loose)</t>
+  </si>
+  <si>
+    <t>Pomegranate (Loose)</t>
+  </si>
+  <si>
+    <t>Watermelon -  Medium</t>
+  </si>
+  <si>
+    <t>Tender Coconut</t>
+  </si>
+  <si>
+    <t>Guava - Thai (Loose)</t>
+  </si>
+  <si>
+    <t>Banana - Nendran</t>
+  </si>
+  <si>
+    <t>Kiwi - Green</t>
+  </si>
+  <si>
+    <t>Mosambi - Economy (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala Economy</t>
+  </si>
+  <si>
+    <t>Orange - Nagpur, Regular (Loose)</t>
+  </si>
+  <si>
+    <t>Guava (Loose)</t>
+  </si>
+  <si>
+    <t>Pear - Green, Imported</t>
+  </si>
+  <si>
+    <t>Avocado - Imported, Medium (Loose)</t>
+  </si>
+  <si>
+    <t>Dragon Fruit (Loose)</t>
+  </si>
+  <si>
     <t>Muskmelon -  Netted Medium</t>
   </si>
   <si>
-    <t>Banana - Robusta</t>
-  </si>
-  <si>
-    <t>Apple - Shimla, Regular</t>
-  </si>
-  <si>
-    <t>Pomegranate - Regular (Loose)</t>
-  </si>
-  <si>
-    <t>Baby Apple Shimla</t>
-  </si>
-  <si>
-    <t>Banana - Yelakki</t>
-  </si>
-  <si>
-    <t>Coconut - Medium</t>
-  </si>
-  <si>
-    <t>Papaya</t>
-  </si>
-  <si>
-    <t>Mini Orange Imported (Loose)</t>
-  </si>
-  <si>
-    <t>Pomegranate (Loose)</t>
-  </si>
-  <si>
-    <t>Watermelon -  Medium</t>
-  </si>
-  <si>
-    <t>Tender Coconut</t>
-  </si>
-  <si>
-    <t>Guava - Thai (Loose)</t>
-  </si>
-  <si>
-    <t>Banana - Nendran</t>
-  </si>
-  <si>
-    <t>Kiwi - Green</t>
-  </si>
-  <si>
-    <t>Mosambi - Economy (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala Economy</t>
-  </si>
-  <si>
-    <t>Orange - Nagpur, Regular (Loose)</t>
-  </si>
-  <si>
-    <t>Guava (Loose)</t>
-  </si>
-  <si>
-    <t>Pear - Green, Imported</t>
-  </si>
-  <si>
-    <t>Avocado - Imported, Medium (Loose)</t>
-  </si>
-  <si>
-    <t>Dragon Fruit (Loose)</t>
-  </si>
-  <si>
-    <t>Muskmelon -  Netted Small</t>
-  </si>
-  <si>
     <t>Apple - Royal Gala, Regular</t>
   </si>
   <si>
@@ -344,9 +1181,6 @@
     <t>Apple - Queen, Rose</t>
   </si>
   <si>
-    <t>₹190</t>
-  </si>
-  <si>
     <t>₹380</t>
   </si>
   <si>
@@ -359,189 +1193,159 @@
     <t>₹69</t>
   </si>
   <si>
-    <t>₹144</t>
-  </si>
-  <si>
     <t>₹403</t>
   </si>
   <si>
-    <t>₹54</t>
-  </si>
-  <si>
-    <t>₹43</t>
-  </si>
-  <si>
     <t>₹328</t>
   </si>
   <si>
     <t>₹307</t>
   </si>
   <si>
+    <t>₹207</t>
+  </si>
+  <si>
+    <t>₹74</t>
+  </si>
+  <si>
+    <t>₹421</t>
+  </si>
+  <si>
+    <t>₹268</t>
+  </si>
+  <si>
+    <t>₹87</t>
+  </si>
+  <si>
+    <t>₹80</t>
+  </si>
+  <si>
+    <t>₹42</t>
+  </si>
+  <si>
+    <t>₹214</t>
+  </si>
+  <si>
+    <t>₹236</t>
+  </si>
+  <si>
+    <t>₹257</t>
+  </si>
+  <si>
+    <t>₹518</t>
+  </si>
+  <si>
+    <t>₹428</t>
+  </si>
+  <si>
+    <t>₹435</t>
+  </si>
+  <si>
+    <t>₹136</t>
+  </si>
+  <si>
+    <t>₹530</t>
+  </si>
+  <si>
+    <t>₹198</t>
+  </si>
+  <si>
+    <t>₹439</t>
+  </si>
+  <si>
+    <t>₹100</t>
+  </si>
+  <si>
+    <t>₹127</t>
+  </si>
+  <si>
+    <t>₹210.53</t>
+  </si>
+  <si>
+    <t>₹44</t>
+  </si>
+  <si>
+    <t>₹128</t>
+  </si>
+  <si>
+    <t>₹346.58</t>
+  </si>
+  <si>
+    <t>₹125</t>
+  </si>
+  <si>
+    <t>₹502</t>
+  </si>
+  <si>
+    <t>₹254</t>
+  </si>
+  <si>
+    <t>₹442</t>
+  </si>
+  <si>
+    <t>₹273</t>
+  </si>
+  <si>
+    <t>₹453</t>
+  </si>
+  <si>
+    <t>₹381</t>
+  </si>
+  <si>
+    <t>₹305</t>
+  </si>
+  <si>
+    <t>₹47</t>
+  </si>
+  <si>
+    <t>₹84</t>
+  </si>
+  <si>
+    <t>₹17</t>
+  </si>
+  <si>
+    <t>₹39.73</t>
+  </si>
+  <si>
+    <t>₹588</t>
+  </si>
+  <si>
+    <t>₹105</t>
+  </si>
+  <si>
+    <t>₹329</t>
+  </si>
+  <si>
+    <t>₹462</t>
+  </si>
+  <si>
+    <t>₹137</t>
+  </si>
+  <si>
+    <t>₹154</t>
+  </si>
+  <si>
+    <t>₹557</t>
+  </si>
+  <si>
+    <t>₹525</t>
+  </si>
+  <si>
+    <t>₹191</t>
+  </si>
+  <si>
     <t>₹216</t>
   </si>
   <si>
-    <t>₹185</t>
-  </si>
-  <si>
-    <t>₹39</t>
-  </si>
-  <si>
-    <t>₹74</t>
-  </si>
-  <si>
-    <t>₹440</t>
-  </si>
-  <si>
-    <t>₹268</t>
-  </si>
-  <si>
-    <t>₹87</t>
-  </si>
-  <si>
-    <t>₹80</t>
-  </si>
-  <si>
-    <t>₹72</t>
-  </si>
-  <si>
-    <t>₹81</t>
-  </si>
-  <si>
-    <t>₹214</t>
-  </si>
-  <si>
-    <t>₹236</t>
-  </si>
-  <si>
-    <t>₹257</t>
-  </si>
-  <si>
-    <t>₹95</t>
-  </si>
-  <si>
-    <t>₹109</t>
-  </si>
-  <si>
-    <t>₹518</t>
-  </si>
-  <si>
-    <t>₹98</t>
-  </si>
-  <si>
-    <t>₹428</t>
-  </si>
-  <si>
-    <t>₹65</t>
-  </si>
-  <si>
-    <t>₹435</t>
-  </si>
-  <si>
-    <t>₹136</t>
-  </si>
-  <si>
-    <t>₹654</t>
-  </si>
-  <si>
-    <t>₹439</t>
+    <t>₹162</t>
+  </si>
+  <si>
+    <t>₹113</t>
   </si>
   <si>
     <t>₹106</t>
   </si>
   <si>
-    <t>₹127</t>
-  </si>
-  <si>
-    <t>₹48</t>
-  </si>
-  <si>
-    <t>₹96</t>
-  </si>
-  <si>
-    <t>₹210.53</t>
-  </si>
-  <si>
-    <t>₹42</t>
-  </si>
-  <si>
-    <t>₹176</t>
-  </si>
-  <si>
-    <t>₹346.58</t>
-  </si>
-  <si>
-    <t>₹125</t>
-  </si>
-  <si>
-    <t>₹502</t>
-  </si>
-  <si>
-    <t>₹224</t>
-  </si>
-  <si>
-    <t>₹442</t>
-  </si>
-  <si>
-    <t>₹273</t>
-  </si>
-  <si>
-    <t>₹453</t>
-  </si>
-  <si>
-    <t>₹128</t>
-  </si>
-  <si>
-    <t>₹381</t>
-  </si>
-  <si>
-    <t>₹305</t>
-  </si>
-  <si>
-    <t>₹47</t>
-  </si>
-  <si>
-    <t>₹17</t>
-  </si>
-  <si>
-    <t>₹39.73</t>
-  </si>
-  <si>
-    <t>₹588</t>
-  </si>
-  <si>
-    <t>₹31</t>
-  </si>
-  <si>
-    <t>₹329</t>
-  </si>
-  <si>
-    <t>₹429</t>
-  </si>
-  <si>
-    <t>₹137</t>
-  </si>
-  <si>
-    <t>₹154</t>
-  </si>
-  <si>
-    <t>₹557</t>
-  </si>
-  <si>
-    <t>₹536</t>
-  </si>
-  <si>
-    <t>₹191</t>
-  </si>
-  <si>
-    <t>₹162</t>
-  </si>
-  <si>
-    <t>₹51</t>
-  </si>
-  <si>
-    <t>₹120</t>
-  </si>
-  <si>
     <t>₹61</t>
   </si>
   <si>
@@ -551,21 +1355,6 @@
     <t>₹93.15</t>
   </si>
   <si>
-    <t>₹206</t>
-  </si>
-  <si>
-    <t>₹84</t>
-  </si>
-  <si>
-    <t>₹462</t>
-  </si>
-  <si>
-    <t>₹70</t>
-  </si>
-  <si>
-    <t>₹269</t>
-  </si>
-  <si>
     <t>₹142</t>
   </si>
   <si>
@@ -575,22 +1364,13 @@
     <t>₹1146</t>
   </si>
   <si>
-    <t>₹103</t>
-  </si>
-  <si>
-    <t>₹46</t>
-  </si>
-  <si>
     <t>₹324.34</t>
   </si>
   <si>
     <t>₹94.52</t>
   </si>
   <si>
-    <t>₹247</t>
-  </si>
-  <si>
-    <t>₹138.7</t>
+    <t>₹248</t>
   </si>
   <si>
     <t>₹277.4</t>
@@ -599,217 +1379,169 @@
     <t>₹512.46</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>₹37.5</t>
   </si>
   <si>
-    <t>₹105.12</t>
-  </si>
-  <si>
     <t>₹294.19</t>
   </si>
   <si>
-    <t>₹39.42</t>
-  </si>
-  <si>
-    <t>₹29</t>
-  </si>
-  <si>
-    <t>₹180</t>
-  </si>
-  <si>
     <t>₹224.11</t>
   </si>
   <si>
-    <t>₹139</t>
+    <t>₹54.02</t>
+  </si>
+  <si>
+    <t>₹246</t>
+  </si>
+  <si>
+    <t>₹195.64</t>
+  </si>
+  <si>
+    <t>₹63.51</t>
   </si>
   <si>
     <t>₹135</t>
   </si>
   <si>
-    <t>₹28.47</t>
-  </si>
-  <si>
-    <t>₹54.02</t>
-  </si>
-  <si>
-    <t>₹246</t>
-  </si>
-  <si>
-    <t>₹195.64</t>
-  </si>
-  <si>
-    <t>₹63.51</t>
-  </si>
-  <si>
-    <t>₹52.56</t>
+    <t>₹172.28</t>
+  </si>
+  <si>
+    <t>₹187.61</t>
+  </si>
+  <si>
+    <t>₹78</t>
+  </si>
+  <si>
+    <t>₹378.14</t>
+  </si>
+  <si>
+    <t>₹59</t>
+  </si>
+  <si>
+    <t>₹312.44</t>
+  </si>
+  <si>
+    <t>₹317.55</t>
+  </si>
+  <si>
+    <t>₹99.28</t>
+  </si>
+  <si>
+    <t>₹386.9</t>
+  </si>
+  <si>
+    <t>₹144.54</t>
+  </si>
+  <si>
+    <t>₹320.47</t>
+  </si>
+  <si>
+    <t>₹92.71</t>
+  </si>
+  <si>
+    <t>₹70.08</t>
+  </si>
+  <si>
+    <t>₹153.69</t>
+  </si>
+  <si>
+    <t>₹32.12</t>
+  </si>
+  <si>
+    <t>₹93.44</t>
+  </si>
+  <si>
+    <t>₹253</t>
+  </si>
+  <si>
+    <t>₹91.25</t>
+  </si>
+  <si>
+    <t>₹366.46</t>
+  </si>
+  <si>
+    <t>₹185.42</t>
+  </si>
+  <si>
+    <t>₹322.66</t>
+  </si>
+  <si>
+    <t>₹199.29</t>
   </si>
   <si>
     <t>₹59.13</t>
   </si>
   <si>
-    <t>₹172.28</t>
-  </si>
-  <si>
-    <t>₹187.61</t>
-  </si>
-  <si>
-    <t>₹78</t>
-  </si>
-  <si>
-    <t>₹378.14</t>
-  </si>
-  <si>
-    <t>₹59</t>
-  </si>
-  <si>
-    <t>₹312.44</t>
-  </si>
-  <si>
-    <t>₹47.45</t>
-  </si>
-  <si>
-    <t>₹317.55</t>
-  </si>
-  <si>
-    <t>₹99.28</t>
-  </si>
-  <si>
-    <t>₹477.42</t>
-  </si>
-  <si>
-    <t>₹156.22</t>
-  </si>
-  <si>
-    <t>₹79.57</t>
-  </si>
-  <si>
-    <t>₹320.47</t>
-  </si>
-  <si>
-    <t>₹69.35</t>
+    <t>₹224.5</t>
+  </si>
+  <si>
+    <t>₹239.44</t>
+  </si>
+  <si>
+    <t>₹278.13</t>
+  </si>
+  <si>
+    <t>₹222.65</t>
+  </si>
+  <si>
+    <t>₹34.31</t>
+  </si>
+  <si>
+    <t>₹61.32</t>
+  </si>
+  <si>
+    <t>₹12.41</t>
+  </si>
+  <si>
+    <t>₹429.24</t>
+  </si>
+  <si>
+    <t>₹76.65</t>
+  </si>
+  <si>
+    <t>₹240.17</t>
+  </si>
+  <si>
+    <t>₹337.26</t>
+  </si>
+  <si>
+    <t>₹100.01</t>
+  </si>
+  <si>
+    <t>₹112.42</t>
+  </si>
+  <si>
+    <t>₹406.61</t>
+  </si>
+  <si>
+    <t>₹383.25</t>
+  </si>
+  <si>
+    <t>₹139.43</t>
+  </si>
+  <si>
+    <t>₹157.68</t>
+  </si>
+  <si>
+    <t>₹118.26</t>
+  </si>
+  <si>
+    <t>₹36.5</t>
+  </si>
+  <si>
+    <t>₹82.49</t>
   </si>
   <si>
     <t>₹77.38</t>
   </si>
   <si>
-    <t>₹92.71</t>
-  </si>
-  <si>
-    <t>₹70.08</t>
-  </si>
-  <si>
-    <t>₹153.69</t>
-  </si>
-  <si>
-    <t>₹30.66</t>
-  </si>
-  <si>
-    <t>₹128.48</t>
-  </si>
-  <si>
-    <t>₹253</t>
-  </si>
-  <si>
-    <t>₹91.25</t>
-  </si>
-  <si>
-    <t>₹366.46</t>
-  </si>
-  <si>
-    <t>₹163.52</t>
-  </si>
-  <si>
-    <t>₹322.66</t>
-  </si>
-  <si>
-    <t>₹199.29</t>
-  </si>
-  <si>
-    <t>₹330.69</t>
-  </si>
-  <si>
-    <t>₹239.44</t>
-  </si>
-  <si>
-    <t>₹93.44</t>
-  </si>
-  <si>
-    <t>₹278.13</t>
-  </si>
-  <si>
-    <t>₹222.65</t>
-  </si>
-  <si>
-    <t>₹34.31</t>
-  </si>
-  <si>
-    <t>₹12.41</t>
-  </si>
-  <si>
-    <t>₹429.24</t>
-  </si>
-  <si>
-    <t>₹22.63</t>
-  </si>
-  <si>
-    <t>₹240.17</t>
-  </si>
-  <si>
-    <t>₹313.17</t>
-  </si>
-  <si>
-    <t>₹100.01</t>
-  </si>
-  <si>
-    <t>₹112.42</t>
-  </si>
-  <si>
-    <t>₹406.61</t>
-  </si>
-  <si>
-    <t>₹391.28</t>
-  </si>
-  <si>
-    <t>₹139.43</t>
-  </si>
-  <si>
-    <t>₹157.68</t>
-  </si>
-  <si>
-    <t>₹118.26</t>
-  </si>
-  <si>
-    <t>₹37.23</t>
-  </si>
-  <si>
-    <t>₹87.6</t>
-  </si>
-  <si>
     <t>₹35</t>
   </si>
   <si>
     <t>₹130.67</t>
   </si>
   <si>
-    <t>₹68</t>
-  </si>
-  <si>
-    <t>₹150.38</t>
-  </si>
-  <si>
-    <t>₹61.32</t>
-  </si>
-  <si>
-    <t>₹337.26</t>
-  </si>
-  <si>
-    <t>₹51.1</t>
-  </si>
-  <si>
-    <t>₹196.37</t>
+    <t>₹151.11</t>
   </si>
   <si>
     <t>₹103.66</t>
@@ -821,22 +1553,10 @@
     <t>₹836.58</t>
   </si>
   <si>
-    <t>₹75.19</t>
-  </si>
-  <si>
-    <t>₹33.58</t>
-  </si>
-  <si>
     <t>₹236.77</t>
   </si>
   <si>
-    <t>₹58.4</t>
-  </si>
-  <si>
-    <t>₹180.31</t>
-  </si>
-  <si>
-    <t>27% OFF</t>
+    <t>₹181.04</t>
   </si>
   <si>
     <t>46% OFF</t>
@@ -845,93 +1565,66 @@
     <t>33% OFF</t>
   </si>
   <si>
-    <t>45% OFF</t>
-  </si>
-  <si>
-    <t>36% OFF</t>
-  </si>
-  <si>
-    <t>44% OFF</t>
-  </si>
-  <si>
-    <t>41% OFF</t>
-  </si>
-  <si>
     <t>37% OFF</t>
   </si>
   <si>
-    <t>32% OFF</t>
-  </si>
-  <si>
     <t>28% OFF</t>
   </si>
   <si>
     <t>40% OFF</t>
   </si>
   <si>
-    <t>43% OFF</t>
-  </si>
-  <si>
-    <t>35% OFF</t>
+    <t>50% OFF</t>
   </si>
   <si>
     <t>Fresh Fruits</t>
   </si>
   <si>
-    <t>1 kg</t>
-  </si>
-  <si>
     <t>2x4 pcs</t>
   </si>
   <si>
     <t>2x4 pcs - Multipack</t>
   </si>
   <si>
-    <t>500 g</t>
-  </si>
-  <si>
     <t>4 pcs</t>
   </si>
   <si>
+    <t>1 pc - 500g-900g</t>
+  </si>
+  <si>
+    <t>1 kg - (5-6 pcs per kg)</t>
+  </si>
+  <si>
+    <t>1 kg - (Approx. 11-12 pcs)</t>
+  </si>
+  <si>
+    <t>1 pc - (approx. 450g to 500)</t>
+  </si>
+  <si>
+    <t>4 pcs - (Approx. 800 g - 880 g)</t>
+  </si>
+  <si>
+    <t>1 pc - 2.5 - 3.8 kg</t>
+  </si>
+  <si>
+    <t>3 pcs</t>
+  </si>
+  <si>
+    <t>3 kg</t>
+  </si>
+  <si>
+    <t>4 pcs - (Approx.450 g-500 g)</t>
+  </si>
+  <si>
+    <t>1 kg - (Approx. 6 - 7 pcs)</t>
+  </si>
+  <si>
+    <t>1 pc - 250 to 350 g</t>
+  </si>
+  <si>
     <t>1 pc - 1.2 - 2 kg</t>
   </si>
   <si>
-    <t>1 kg - (5-6 pcs per kg)</t>
-  </si>
-  <si>
-    <t>1 kg - (Approx. 11-12 pcs)</t>
-  </si>
-  <si>
-    <t>1 pc - (approx. 450g to 500)</t>
-  </si>
-  <si>
-    <t>4 pcs - (Approx. 800 g - 880 g)</t>
-  </si>
-  <si>
-    <t>1 pc - 2.5 - 3.8 kg</t>
-  </si>
-  <si>
-    <t>1 pc</t>
-  </si>
-  <si>
-    <t>3 pcs</t>
-  </si>
-  <si>
-    <t>3 kg</t>
-  </si>
-  <si>
-    <t>4 pcs - (Approx.450 g-500 g)</t>
-  </si>
-  <si>
-    <t>1 kg - (Approx. 6 - 7 pcs)</t>
-  </si>
-  <si>
-    <t>1 pc - 250 to 350 g</t>
-  </si>
-  <si>
-    <t>1 pc - 500g-900g</t>
-  </si>
-  <si>
     <t>1 pc - 500 g - 800 g</t>
   </si>
   <si>
@@ -941,21 +1634,12 @@
     <t>125 g</t>
   </si>
   <si>
-    <t>250 g</t>
-  </si>
-  <si>
     <t>1 pc - 800 g -1000 g</t>
   </si>
   <si>
     <t>1 pc - (approx. 550g to 650g)</t>
   </si>
   <si>
-    <t>2 pcs</t>
-  </si>
-  <si>
-    <t>2 kg</t>
-  </si>
-  <si>
     <t>6 pcs</t>
   </si>
   <si>
@@ -965,9 +1649,6 @@
     <t>200 g</t>
   </si>
   <si>
-    <t>1 Kg</t>
-  </si>
-  <si>
     <t>1 pc - (approx. 250g to 300g)</t>
   </si>
   <si>
@@ -1013,19 +1694,16 @@
     <t>1 pc - approx. 300 g to 500 g</t>
   </si>
   <si>
-    <t>100 g</t>
-  </si>
-  <si>
     <t>2023-09-29 12:24:29</t>
   </si>
   <si>
     <t>2023-10-05 05:14:36</t>
   </si>
   <si>
-    <t>2023-10-12 06:31:52</t>
-  </si>
-  <si>
-    <t>2023-10-12 09:04:29</t>
+    <t>2023-10-13 05:31:21</t>
+  </si>
+  <si>
+    <t>2023-10-13 06:07:19</t>
   </si>
 </sst>
 </file>
@@ -1383,7 +2061,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1413,6 +2091,2548 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F4" t="s">
+        <v>258</v>
+      </c>
+      <c r="G4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G6" t="s">
+        <v>262</v>
+      </c>
+      <c r="H6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" t="s">
+        <v>258</v>
+      </c>
+      <c r="G8" t="s">
+        <v>261</v>
+      </c>
+      <c r="H8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" t="s">
+        <v>258</v>
+      </c>
+      <c r="G9" t="s">
+        <v>261</v>
+      </c>
+      <c r="H9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" t="s">
+        <v>258</v>
+      </c>
+      <c r="G10" t="s">
+        <v>263</v>
+      </c>
+      <c r="H10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" t="s">
+        <v>241</v>
+      </c>
+      <c r="E11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G11" t="s">
+        <v>263</v>
+      </c>
+      <c r="H11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" t="s">
+        <v>258</v>
+      </c>
+      <c r="G12" t="s">
+        <v>264</v>
+      </c>
+      <c r="H12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" t="s">
+        <v>243</v>
+      </c>
+      <c r="E13" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" t="s">
+        <v>258</v>
+      </c>
+      <c r="G13" t="s">
+        <v>261</v>
+      </c>
+      <c r="H13" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" t="s">
+        <v>244</v>
+      </c>
+      <c r="E14" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" t="s">
+        <v>258</v>
+      </c>
+      <c r="G14" t="s">
+        <v>264</v>
+      </c>
+      <c r="H14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" t="s">
+        <v>245</v>
+      </c>
+      <c r="E15" t="s">
+        <v>179</v>
+      </c>
+      <c r="F15" t="s">
+        <v>258</v>
+      </c>
+      <c r="G15" t="s">
+        <v>263</v>
+      </c>
+      <c r="H15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" t="s">
+        <v>233</v>
+      </c>
+      <c r="E16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" t="s">
+        <v>258</v>
+      </c>
+      <c r="G16" t="s">
+        <v>265</v>
+      </c>
+      <c r="H16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" t="s">
+        <v>246</v>
+      </c>
+      <c r="E17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" t="s">
+        <v>258</v>
+      </c>
+      <c r="G17" t="s">
+        <v>261</v>
+      </c>
+      <c r="H17" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D18" t="s">
+        <v>233</v>
+      </c>
+      <c r="E18" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" t="s">
+        <v>258</v>
+      </c>
+      <c r="G18" t="s">
+        <v>264</v>
+      </c>
+      <c r="H18" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" t="s">
+        <v>233</v>
+      </c>
+      <c r="E19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F19" t="s">
+        <v>258</v>
+      </c>
+      <c r="G19" t="s">
+        <v>264</v>
+      </c>
+      <c r="H19" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" t="s">
+        <v>247</v>
+      </c>
+      <c r="E20" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" t="s">
+        <v>258</v>
+      </c>
+      <c r="G20" t="s">
+        <v>266</v>
+      </c>
+      <c r="H20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" t="s">
+        <v>248</v>
+      </c>
+      <c r="E21" t="s">
+        <v>160</v>
+      </c>
+      <c r="F21" t="s">
+        <v>258</v>
+      </c>
+      <c r="G21" t="s">
+        <v>267</v>
+      </c>
+      <c r="H21" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" t="s">
+        <v>247</v>
+      </c>
+      <c r="E22" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" t="s">
+        <v>258</v>
+      </c>
+      <c r="G22" t="s">
+        <v>264</v>
+      </c>
+      <c r="H22" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23" t="s">
+        <v>233</v>
+      </c>
+      <c r="E23" t="s">
+        <v>184</v>
+      </c>
+      <c r="F23" t="s">
+        <v>258</v>
+      </c>
+      <c r="G23" t="s">
+        <v>261</v>
+      </c>
+      <c r="H23" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" t="s">
+        <v>249</v>
+      </c>
+      <c r="E24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" t="s">
+        <v>258</v>
+      </c>
+      <c r="G24" t="s">
+        <v>261</v>
+      </c>
+      <c r="H24" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D25" t="s">
+        <v>233</v>
+      </c>
+      <c r="E25" t="s">
+        <v>185</v>
+      </c>
+      <c r="F25" t="s">
+        <v>258</v>
+      </c>
+      <c r="G25" t="s">
+        <v>268</v>
+      </c>
+      <c r="H25" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" t="s">
+        <v>233</v>
+      </c>
+      <c r="E26" t="s">
+        <v>186</v>
+      </c>
+      <c r="F26" t="s">
+        <v>258</v>
+      </c>
+      <c r="G26" t="s">
+        <v>261</v>
+      </c>
+      <c r="H26" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" t="s">
+        <v>250</v>
+      </c>
+      <c r="E27" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" t="s">
+        <v>258</v>
+      </c>
+      <c r="G27" t="s">
+        <v>269</v>
+      </c>
+      <c r="H27" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E28" t="s">
+        <v>188</v>
+      </c>
+      <c r="F28" t="s">
+        <v>258</v>
+      </c>
+      <c r="G28" t="s">
+        <v>264</v>
+      </c>
+      <c r="H28" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" t="s">
+        <v>251</v>
+      </c>
+      <c r="E29" t="s">
+        <v>187</v>
+      </c>
+      <c r="F29" t="s">
+        <v>258</v>
+      </c>
+      <c r="G29" t="s">
+        <v>264</v>
+      </c>
+      <c r="H29" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D30" t="s">
+        <v>233</v>
+      </c>
+      <c r="E30" t="s">
+        <v>189</v>
+      </c>
+      <c r="F30" t="s">
+        <v>258</v>
+      </c>
+      <c r="G30" t="s">
+        <v>261</v>
+      </c>
+      <c r="H30" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" t="s">
+        <v>184</v>
+      </c>
+      <c r="D31" t="s">
+        <v>233</v>
+      </c>
+      <c r="E31" t="s">
+        <v>184</v>
+      </c>
+      <c r="F31" t="s">
+        <v>258</v>
+      </c>
+      <c r="G31" t="s">
+        <v>261</v>
+      </c>
+      <c r="H31" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" t="s">
+        <v>190</v>
+      </c>
+      <c r="D32" t="s">
+        <v>233</v>
+      </c>
+      <c r="E32" t="s">
+        <v>190</v>
+      </c>
+      <c r="F32" t="s">
+        <v>258</v>
+      </c>
+      <c r="G32" t="s">
+        <v>270</v>
+      </c>
+      <c r="H32" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" t="s">
+        <v>252</v>
+      </c>
+      <c r="E33" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" t="s">
+        <v>258</v>
+      </c>
+      <c r="G33" t="s">
+        <v>261</v>
+      </c>
+      <c r="H33" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E34" t="s">
+        <v>181</v>
+      </c>
+      <c r="F34" t="s">
+        <v>258</v>
+      </c>
+      <c r="G34" t="s">
+        <v>264</v>
+      </c>
+      <c r="H34" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" t="s">
+        <v>191</v>
+      </c>
+      <c r="D35" t="s">
+        <v>233</v>
+      </c>
+      <c r="E35" t="s">
+        <v>191</v>
+      </c>
+      <c r="F35" t="s">
+        <v>258</v>
+      </c>
+      <c r="G35" t="s">
+        <v>261</v>
+      </c>
+      <c r="H35" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" t="s">
+        <v>192</v>
+      </c>
+      <c r="D36" t="s">
+        <v>233</v>
+      </c>
+      <c r="E36" t="s">
+        <v>192</v>
+      </c>
+      <c r="F36" t="s">
+        <v>258</v>
+      </c>
+      <c r="G36" t="s">
+        <v>261</v>
+      </c>
+      <c r="H36" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E37" t="s">
+        <v>193</v>
+      </c>
+      <c r="F37" t="s">
+        <v>258</v>
+      </c>
+      <c r="G37" t="s">
+        <v>261</v>
+      </c>
+      <c r="H37" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" t="s">
+        <v>194</v>
+      </c>
+      <c r="D38" t="s">
+        <v>233</v>
+      </c>
+      <c r="E38" t="s">
+        <v>194</v>
+      </c>
+      <c r="F38" t="s">
+        <v>258</v>
+      </c>
+      <c r="G38" t="s">
+        <v>261</v>
+      </c>
+      <c r="H38" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" t="s">
+        <v>195</v>
+      </c>
+      <c r="D39" t="s">
+        <v>233</v>
+      </c>
+      <c r="E39" t="s">
+        <v>195</v>
+      </c>
+      <c r="F39" t="s">
+        <v>258</v>
+      </c>
+      <c r="G39" t="s">
+        <v>261</v>
+      </c>
+      <c r="H39" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" t="s">
+        <v>196</v>
+      </c>
+      <c r="D40" t="s">
+        <v>233</v>
+      </c>
+      <c r="E40" t="s">
+        <v>196</v>
+      </c>
+      <c r="F40" t="s">
+        <v>258</v>
+      </c>
+      <c r="G40" t="s">
+        <v>271</v>
+      </c>
+      <c r="H40" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" t="s">
+        <v>197</v>
+      </c>
+      <c r="D41" t="s">
+        <v>233</v>
+      </c>
+      <c r="E41" t="s">
+        <v>197</v>
+      </c>
+      <c r="F41" t="s">
+        <v>258</v>
+      </c>
+      <c r="G41" t="s">
+        <v>261</v>
+      </c>
+      <c r="H41" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" t="s">
+        <v>233</v>
+      </c>
+      <c r="E42" t="s">
+        <v>198</v>
+      </c>
+      <c r="F42" t="s">
+        <v>258</v>
+      </c>
+      <c r="G42" t="s">
+        <v>264</v>
+      </c>
+      <c r="H42" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" t="s">
+        <v>172</v>
+      </c>
+      <c r="D43" t="s">
+        <v>233</v>
+      </c>
+      <c r="E43" t="s">
+        <v>172</v>
+      </c>
+      <c r="F43" t="s">
+        <v>258</v>
+      </c>
+      <c r="G43" t="s">
+        <v>261</v>
+      </c>
+      <c r="H43" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" t="s">
+        <v>199</v>
+      </c>
+      <c r="D44" t="s">
+        <v>233</v>
+      </c>
+      <c r="E44" t="s">
+        <v>199</v>
+      </c>
+      <c r="F44" t="s">
+        <v>258</v>
+      </c>
+      <c r="G44" t="s">
+        <v>272</v>
+      </c>
+      <c r="H44" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" t="s">
+        <v>200</v>
+      </c>
+      <c r="D45" t="s">
+        <v>233</v>
+      </c>
+      <c r="E45" t="s">
+        <v>200</v>
+      </c>
+      <c r="F45" t="s">
+        <v>258</v>
+      </c>
+      <c r="G45" t="s">
+        <v>273</v>
+      </c>
+      <c r="H45" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" t="s">
+        <v>201</v>
+      </c>
+      <c r="D46" t="s">
+        <v>233</v>
+      </c>
+      <c r="E46" t="s">
+        <v>201</v>
+      </c>
+      <c r="F46" t="s">
+        <v>258</v>
+      </c>
+      <c r="G46" t="s">
+        <v>261</v>
+      </c>
+      <c r="H46" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" t="s">
+        <v>202</v>
+      </c>
+      <c r="D47" t="s">
+        <v>233</v>
+      </c>
+      <c r="E47" t="s">
+        <v>202</v>
+      </c>
+      <c r="F47" t="s">
+        <v>258</v>
+      </c>
+      <c r="G47" t="s">
+        <v>261</v>
+      </c>
+      <c r="H47" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" t="s">
+        <v>203</v>
+      </c>
+      <c r="D48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E48" t="s">
+        <v>203</v>
+      </c>
+      <c r="F48" t="s">
+        <v>258</v>
+      </c>
+      <c r="G48" t="s">
+        <v>264</v>
+      </c>
+      <c r="H48" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" t="s">
+        <v>204</v>
+      </c>
+      <c r="D49" t="s">
+        <v>233</v>
+      </c>
+      <c r="E49" t="s">
+        <v>204</v>
+      </c>
+      <c r="F49" t="s">
+        <v>258</v>
+      </c>
+      <c r="G49" t="s">
+        <v>261</v>
+      </c>
+      <c r="H49" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" t="s">
+        <v>205</v>
+      </c>
+      <c r="D50" t="s">
+        <v>254</v>
+      </c>
+      <c r="E50" t="s">
+        <v>205</v>
+      </c>
+      <c r="F50" t="s">
+        <v>258</v>
+      </c>
+      <c r="G50" t="s">
+        <v>264</v>
+      </c>
+      <c r="H50" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" t="s">
+        <v>206</v>
+      </c>
+      <c r="D51" t="s">
+        <v>233</v>
+      </c>
+      <c r="E51" t="s">
+        <v>206</v>
+      </c>
+      <c r="F51" t="s">
+        <v>258</v>
+      </c>
+      <c r="G51" t="s">
+        <v>261</v>
+      </c>
+      <c r="H51" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" t="s">
+        <v>207</v>
+      </c>
+      <c r="D52" t="s">
+        <v>233</v>
+      </c>
+      <c r="E52" t="s">
+        <v>207</v>
+      </c>
+      <c r="F52" t="s">
+        <v>258</v>
+      </c>
+      <c r="G52" t="s">
+        <v>274</v>
+      </c>
+      <c r="H52" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" t="s">
+        <v>208</v>
+      </c>
+      <c r="D53" t="s">
+        <v>255</v>
+      </c>
+      <c r="E53" t="s">
+        <v>208</v>
+      </c>
+      <c r="F53" t="s">
+        <v>258</v>
+      </c>
+      <c r="G53" t="s">
+        <v>261</v>
+      </c>
+      <c r="H53" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54" t="s">
+        <v>209</v>
+      </c>
+      <c r="D54" t="s">
+        <v>233</v>
+      </c>
+      <c r="E54" t="s">
+        <v>209</v>
+      </c>
+      <c r="F54" t="s">
+        <v>258</v>
+      </c>
+      <c r="G54" t="s">
+        <v>261</v>
+      </c>
+      <c r="H54" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" t="s">
+        <v>149</v>
+      </c>
+      <c r="C55" t="s">
+        <v>210</v>
+      </c>
+      <c r="D55" t="s">
+        <v>233</v>
+      </c>
+      <c r="E55" t="s">
+        <v>210</v>
+      </c>
+      <c r="F55" t="s">
+        <v>258</v>
+      </c>
+      <c r="G55" t="s">
+        <v>275</v>
+      </c>
+      <c r="H55" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56" t="s">
+        <v>211</v>
+      </c>
+      <c r="D56" t="s">
+        <v>233</v>
+      </c>
+      <c r="E56" t="s">
+        <v>211</v>
+      </c>
+      <c r="F56" t="s">
+        <v>258</v>
+      </c>
+      <c r="G56" t="s">
+        <v>261</v>
+      </c>
+      <c r="H56" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" t="s">
+        <v>212</v>
+      </c>
+      <c r="D57" t="s">
+        <v>233</v>
+      </c>
+      <c r="E57" t="s">
+        <v>212</v>
+      </c>
+      <c r="F57" t="s">
+        <v>258</v>
+      </c>
+      <c r="G57" t="s">
+        <v>261</v>
+      </c>
+      <c r="H57" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" t="s">
+        <v>203</v>
+      </c>
+      <c r="D58" t="s">
+        <v>233</v>
+      </c>
+      <c r="E58" t="s">
+        <v>203</v>
+      </c>
+      <c r="F58" t="s">
+        <v>258</v>
+      </c>
+      <c r="G58" t="s">
+        <v>261</v>
+      </c>
+      <c r="H58" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" t="s">
+        <v>152</v>
+      </c>
+      <c r="C59" t="s">
+        <v>213</v>
+      </c>
+      <c r="D59" t="s">
+        <v>233</v>
+      </c>
+      <c r="E59" t="s">
+        <v>213</v>
+      </c>
+      <c r="F59" t="s">
+        <v>258</v>
+      </c>
+      <c r="G59" t="s">
+        <v>261</v>
+      </c>
+      <c r="H59" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" t="s">
+        <v>214</v>
+      </c>
+      <c r="D60" t="s">
+        <v>256</v>
+      </c>
+      <c r="E60" t="s">
+        <v>214</v>
+      </c>
+      <c r="F60" t="s">
+        <v>258</v>
+      </c>
+      <c r="G60" t="s">
+        <v>263</v>
+      </c>
+      <c r="H60" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" t="s">
+        <v>188</v>
+      </c>
+      <c r="D61" t="s">
+        <v>233</v>
+      </c>
+      <c r="E61" t="s">
+        <v>188</v>
+      </c>
+      <c r="F61" t="s">
+        <v>258</v>
+      </c>
+      <c r="G61" t="s">
+        <v>261</v>
+      </c>
+      <c r="H61" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" t="s">
+        <v>193</v>
+      </c>
+      <c r="D62" t="s">
+        <v>233</v>
+      </c>
+      <c r="E62" t="s">
+        <v>193</v>
+      </c>
+      <c r="F62" t="s">
+        <v>258</v>
+      </c>
+      <c r="G62" t="s">
+        <v>261</v>
+      </c>
+      <c r="H62" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63" t="s">
+        <v>215</v>
+      </c>
+      <c r="D63" t="s">
+        <v>257</v>
+      </c>
+      <c r="E63" t="s">
+        <v>215</v>
+      </c>
+      <c r="F63" t="s">
+        <v>258</v>
+      </c>
+      <c r="G63" t="s">
+        <v>261</v>
+      </c>
+      <c r="H63" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" t="s">
+        <v>216</v>
+      </c>
+      <c r="D64" t="s">
+        <v>233</v>
+      </c>
+      <c r="E64" t="s">
+        <v>216</v>
+      </c>
+      <c r="F64" t="s">
+        <v>258</v>
+      </c>
+      <c r="G64" t="s">
+        <v>264</v>
+      </c>
+      <c r="H64" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" t="s">
+        <v>124</v>
+      </c>
+      <c r="D65" t="s">
+        <v>234</v>
+      </c>
+      <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
+        <v>258</v>
+      </c>
+      <c r="G65" t="s">
+        <v>276</v>
+      </c>
+      <c r="H65" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" t="s">
+        <v>172</v>
+      </c>
+      <c r="D66" t="s">
+        <v>233</v>
+      </c>
+      <c r="E66" t="s">
+        <v>172</v>
+      </c>
+      <c r="F66" t="s">
+        <v>258</v>
+      </c>
+      <c r="G66" t="s">
+        <v>261</v>
+      </c>
+      <c r="H66" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67" t="s">
+        <v>217</v>
+      </c>
+      <c r="D67" t="s">
+        <v>233</v>
+      </c>
+      <c r="E67" t="s">
+        <v>217</v>
+      </c>
+      <c r="F67" t="s">
+        <v>258</v>
+      </c>
+      <c r="G67" t="s">
+        <v>263</v>
+      </c>
+      <c r="H67" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68" t="s">
+        <v>188</v>
+      </c>
+      <c r="D68" t="s">
+        <v>233</v>
+      </c>
+      <c r="E68" t="s">
+        <v>188</v>
+      </c>
+      <c r="F68" t="s">
+        <v>258</v>
+      </c>
+      <c r="G68" t="s">
+        <v>261</v>
+      </c>
+      <c r="H68" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" t="s">
+        <v>218</v>
+      </c>
+      <c r="D69" t="s">
+        <v>233</v>
+      </c>
+      <c r="E69" t="s">
+        <v>218</v>
+      </c>
+      <c r="F69" t="s">
+        <v>258</v>
+      </c>
+      <c r="G69" t="s">
+        <v>261</v>
+      </c>
+      <c r="H69" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" t="s">
+        <v>195</v>
+      </c>
+      <c r="D70" t="s">
+        <v>233</v>
+      </c>
+      <c r="E70" t="s">
+        <v>195</v>
+      </c>
+      <c r="F70" t="s">
+        <v>258</v>
+      </c>
+      <c r="G70" t="s">
+        <v>277</v>
+      </c>
+      <c r="H70" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" t="s">
+        <v>212</v>
+      </c>
+      <c r="D71" t="s">
+        <v>233</v>
+      </c>
+      <c r="E71" t="s">
+        <v>212</v>
+      </c>
+      <c r="F71" t="s">
+        <v>258</v>
+      </c>
+      <c r="G71" t="s">
+        <v>278</v>
+      </c>
+      <c r="H71" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" t="s">
+        <v>158</v>
+      </c>
+      <c r="C72" t="s">
+        <v>219</v>
+      </c>
+      <c r="D72" t="s">
+        <v>233</v>
+      </c>
+      <c r="E72" t="s">
+        <v>219</v>
+      </c>
+      <c r="F72" t="s">
+        <v>258</v>
+      </c>
+      <c r="G72" t="s">
+        <v>261</v>
+      </c>
+      <c r="H72" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" t="s">
+        <v>220</v>
+      </c>
+      <c r="D73" t="s">
+        <v>233</v>
+      </c>
+      <c r="E73" t="s">
+        <v>220</v>
+      </c>
+      <c r="F73" t="s">
+        <v>258</v>
+      </c>
+      <c r="G73" t="s">
+        <v>261</v>
+      </c>
+      <c r="H73" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" t="s">
+        <v>160</v>
+      </c>
+      <c r="C74" t="s">
+        <v>221</v>
+      </c>
+      <c r="D74" t="s">
+        <v>233</v>
+      </c>
+      <c r="E74" t="s">
+        <v>221</v>
+      </c>
+      <c r="F74" t="s">
+        <v>258</v>
+      </c>
+      <c r="G74" t="s">
+        <v>263</v>
+      </c>
+      <c r="H74" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" t="s">
+        <v>161</v>
+      </c>
+      <c r="C75" t="s">
+        <v>119</v>
+      </c>
+      <c r="D75" t="s">
+        <v>233</v>
+      </c>
+      <c r="E75" t="s">
+        <v>119</v>
+      </c>
+      <c r="F75" t="s">
+        <v>258</v>
+      </c>
+      <c r="G75" t="s">
+        <v>264</v>
+      </c>
+      <c r="H75" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" t="s">
+        <v>125</v>
+      </c>
+      <c r="C76" t="s">
+        <v>222</v>
+      </c>
+      <c r="D76" t="s">
+        <v>233</v>
+      </c>
+      <c r="E76" t="s">
+        <v>222</v>
+      </c>
+      <c r="F76" t="s">
+        <v>258</v>
+      </c>
+      <c r="G76" t="s">
+        <v>261</v>
+      </c>
+      <c r="H76" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" t="s">
+        <v>162</v>
+      </c>
+      <c r="C77" t="s">
+        <v>223</v>
+      </c>
+      <c r="D77" t="s">
+        <v>233</v>
+      </c>
+      <c r="E77" t="s">
+        <v>223</v>
+      </c>
+      <c r="F77" t="s">
+        <v>258</v>
+      </c>
+      <c r="G77" t="s">
+        <v>279</v>
+      </c>
+      <c r="H77" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78" t="s">
+        <v>125</v>
+      </c>
+      <c r="C78" t="s">
+        <v>222</v>
+      </c>
+      <c r="D78" t="s">
+        <v>233</v>
+      </c>
+      <c r="E78" t="s">
+        <v>222</v>
+      </c>
+      <c r="F78" t="s">
+        <v>258</v>
+      </c>
+      <c r="G78" t="s">
+        <v>261</v>
+      </c>
+      <c r="H78" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" t="s">
+        <v>163</v>
+      </c>
+      <c r="C79" t="s">
+        <v>224</v>
+      </c>
+      <c r="D79" t="s">
+        <v>233</v>
+      </c>
+      <c r="E79" t="s">
+        <v>224</v>
+      </c>
+      <c r="F79" t="s">
+        <v>258</v>
+      </c>
+      <c r="G79" t="s">
+        <v>263</v>
+      </c>
+      <c r="H79" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80" t="s">
+        <v>164</v>
+      </c>
+      <c r="C80" t="s">
+        <v>225</v>
+      </c>
+      <c r="D80" t="s">
+        <v>233</v>
+      </c>
+      <c r="E80" t="s">
+        <v>225</v>
+      </c>
+      <c r="F80" t="s">
+        <v>258</v>
+      </c>
+      <c r="G80" t="s">
+        <v>261</v>
+      </c>
+      <c r="H80" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" t="s">
+        <v>119</v>
+      </c>
+      <c r="C81" t="s">
+        <v>180</v>
+      </c>
+      <c r="D81" t="s">
+        <v>233</v>
+      </c>
+      <c r="E81" t="s">
+        <v>180</v>
+      </c>
+      <c r="F81" t="s">
+        <v>258</v>
+      </c>
+      <c r="G81" t="s">
+        <v>280</v>
+      </c>
+      <c r="H81" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82" t="s">
+        <v>118</v>
+      </c>
+      <c r="C82" t="s">
+        <v>201</v>
+      </c>
+      <c r="D82" t="s">
+        <v>233</v>
+      </c>
+      <c r="E82" t="s">
+        <v>201</v>
+      </c>
+      <c r="F82" t="s">
+        <v>258</v>
+      </c>
+      <c r="G82" t="s">
+        <v>263</v>
+      </c>
+      <c r="H82" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83" t="s">
+        <v>165</v>
+      </c>
+      <c r="C83" t="s">
+        <v>226</v>
+      </c>
+      <c r="D83" t="s">
+        <v>233</v>
+      </c>
+      <c r="E83" t="s">
+        <v>226</v>
+      </c>
+      <c r="F83" t="s">
+        <v>258</v>
+      </c>
+      <c r="G83" t="s">
+        <v>261</v>
+      </c>
+      <c r="H83" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84" t="s">
+        <v>149</v>
+      </c>
+      <c r="C84" t="s">
+        <v>210</v>
+      </c>
+      <c r="D84" t="s">
+        <v>233</v>
+      </c>
+      <c r="E84" t="s">
+        <v>210</v>
+      </c>
+      <c r="F84" t="s">
+        <v>258</v>
+      </c>
+      <c r="G84" t="s">
+        <v>279</v>
+      </c>
+      <c r="H84" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" t="s">
+        <v>133</v>
+      </c>
+      <c r="C85" t="s">
+        <v>189</v>
+      </c>
+      <c r="D85" t="s">
+        <v>233</v>
+      </c>
+      <c r="E85" t="s">
+        <v>189</v>
+      </c>
+      <c r="F85" t="s">
+        <v>258</v>
+      </c>
+      <c r="G85" t="s">
+        <v>261</v>
+      </c>
+      <c r="H85" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86" t="s">
+        <v>118</v>
+      </c>
+      <c r="C86" t="s">
+        <v>201</v>
+      </c>
+      <c r="D86" t="s">
+        <v>233</v>
+      </c>
+      <c r="E86" t="s">
+        <v>201</v>
+      </c>
+      <c r="F86" t="s">
+        <v>258</v>
+      </c>
+      <c r="G86" t="s">
+        <v>261</v>
+      </c>
+      <c r="H86" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" t="s">
+        <v>159</v>
+      </c>
+      <c r="C87" t="s">
+        <v>220</v>
+      </c>
+      <c r="D87" t="s">
+        <v>233</v>
+      </c>
+      <c r="E87" t="s">
+        <v>220</v>
+      </c>
+      <c r="F87" t="s">
+        <v>258</v>
+      </c>
+      <c r="G87" t="s">
+        <v>261</v>
+      </c>
+      <c r="H87" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C88" t="s">
+        <v>194</v>
+      </c>
+      <c r="D88" t="s">
+        <v>233</v>
+      </c>
+      <c r="E88" t="s">
+        <v>194</v>
+      </c>
+      <c r="F88" t="s">
+        <v>258</v>
+      </c>
+      <c r="G88" t="s">
+        <v>279</v>
+      </c>
+      <c r="H88" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89" t="s">
+        <v>166</v>
+      </c>
+      <c r="C89" t="s">
+        <v>227</v>
+      </c>
+      <c r="D89" t="s">
+        <v>233</v>
+      </c>
+      <c r="E89" t="s">
+        <v>227</v>
+      </c>
+      <c r="F89" t="s">
+        <v>258</v>
+      </c>
+      <c r="G89" t="s">
+        <v>274</v>
+      </c>
+      <c r="H89" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
+        <v>96</v>
+      </c>
+      <c r="B90" t="s">
+        <v>138</v>
+      </c>
+      <c r="C90" t="s">
+        <v>195</v>
+      </c>
+      <c r="D90" t="s">
+        <v>233</v>
+      </c>
+      <c r="E90" t="s">
+        <v>195</v>
+      </c>
+      <c r="F90" t="s">
+        <v>258</v>
+      </c>
+      <c r="G90" t="s">
+        <v>261</v>
+      </c>
+      <c r="H90" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
+        <v>97</v>
+      </c>
+      <c r="B91" t="s">
+        <v>151</v>
+      </c>
+      <c r="C91" t="s">
+        <v>212</v>
+      </c>
+      <c r="D91" t="s">
+        <v>233</v>
+      </c>
+      <c r="E91" t="s">
+        <v>212</v>
+      </c>
+      <c r="F91" t="s">
+        <v>258</v>
+      </c>
+      <c r="G91" t="s">
+        <v>279</v>
+      </c>
+      <c r="H91" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" t="s">
+        <v>125</v>
+      </c>
+      <c r="C92" t="s">
+        <v>222</v>
+      </c>
+      <c r="D92" t="s">
+        <v>233</v>
+      </c>
+      <c r="E92" t="s">
+        <v>222</v>
+      </c>
+      <c r="F92" t="s">
+        <v>258</v>
+      </c>
+      <c r="G92" t="s">
+        <v>281</v>
+      </c>
+      <c r="H92" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93" t="s">
+        <v>167</v>
+      </c>
+      <c r="C93" t="s">
+        <v>228</v>
+      </c>
+      <c r="D93" t="s">
+        <v>233</v>
+      </c>
+      <c r="E93" t="s">
+        <v>228</v>
+      </c>
+      <c r="F93" t="s">
+        <v>258</v>
+      </c>
+      <c r="G93" t="s">
+        <v>261</v>
+      </c>
+      <c r="H93" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" t="s">
+        <v>123</v>
+      </c>
+      <c r="C94" t="s">
+        <v>229</v>
+      </c>
+      <c r="D94" t="s">
+        <v>233</v>
+      </c>
+      <c r="E94" t="s">
+        <v>229</v>
+      </c>
+      <c r="F94" t="s">
+        <v>258</v>
+      </c>
+      <c r="G94" t="s">
+        <v>279</v>
+      </c>
+      <c r="H94" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95" t="s">
+        <v>162</v>
+      </c>
+      <c r="C95" t="s">
+        <v>230</v>
+      </c>
+      <c r="D95" t="s">
+        <v>253</v>
+      </c>
+      <c r="E95" t="s">
+        <v>230</v>
+      </c>
+      <c r="F95" t="s">
+        <v>258</v>
+      </c>
+      <c r="G95" t="s">
+        <v>264</v>
+      </c>
+      <c r="H95" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96" t="s">
+        <v>168</v>
+      </c>
+      <c r="C96" t="s">
+        <v>231</v>
+      </c>
+      <c r="D96" t="s">
+        <v>233</v>
+      </c>
+      <c r="E96" t="s">
+        <v>231</v>
+      </c>
+      <c r="F96" t="s">
+        <v>258</v>
+      </c>
+      <c r="G96" t="s">
+        <v>264</v>
+      </c>
+      <c r="H96" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97" t="s">
+        <v>109</v>
+      </c>
+      <c r="C97" t="s">
+        <v>172</v>
+      </c>
+      <c r="D97" t="s">
+        <v>233</v>
+      </c>
+      <c r="E97" t="s">
+        <v>172</v>
+      </c>
+      <c r="F97" t="s">
+        <v>258</v>
+      </c>
+      <c r="G97" t="s">
+        <v>261</v>
+      </c>
+      <c r="H97" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98" t="s">
+        <v>152</v>
+      </c>
+      <c r="C98" t="s">
+        <v>213</v>
+      </c>
+      <c r="D98" t="s">
+        <v>233</v>
+      </c>
+      <c r="E98" t="s">
+        <v>213</v>
+      </c>
+      <c r="F98" t="s">
+        <v>258</v>
+      </c>
+      <c r="G98" t="s">
+        <v>261</v>
+      </c>
+      <c r="H98" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99" t="s">
+        <v>169</v>
+      </c>
+      <c r="C99" t="s">
+        <v>232</v>
+      </c>
+      <c r="D99" t="s">
+        <v>233</v>
+      </c>
+      <c r="E99" t="s">
+        <v>232</v>
+      </c>
+      <c r="F99" t="s">
+        <v>258</v>
+      </c>
+      <c r="G99" t="s">
+        <v>279</v>
+      </c>
+      <c r="H99" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -1456,2346 +4676,2625 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>287</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="E2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F2" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G2" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="H2" t="s">
-        <v>333</v>
+        <v>559</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>288</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>388</v>
       </c>
       <c r="C3" t="s">
-        <v>192</v>
+        <v>452</v>
       </c>
       <c r="D3" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="E3" t="s">
-        <v>192</v>
+        <v>452</v>
       </c>
       <c r="F3" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G3" t="s">
-        <v>288</v>
+        <v>521</v>
       </c>
       <c r="H3" t="s">
-        <v>333</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>289</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>389</v>
       </c>
       <c r="C4" t="s">
-        <v>193</v>
+        <v>453</v>
       </c>
       <c r="D4" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="E4" t="s">
-        <v>193</v>
+        <v>453</v>
       </c>
       <c r="F4" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G4" t="s">
-        <v>289</v>
+        <v>522</v>
       </c>
       <c r="H4" t="s">
-        <v>333</v>
+        <v>559</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>290</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>390</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D5" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="E5" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="F5" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G5" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="H5" t="s">
-        <v>333</v>
+        <v>559</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>291</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>391</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>454</v>
       </c>
       <c r="D6" t="s">
-        <v>274</v>
+        <v>514</v>
       </c>
       <c r="E6" t="s">
-        <v>195</v>
+        <v>454</v>
       </c>
       <c r="F6" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G6" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="H6" t="s">
-        <v>334</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>292</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D7" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="E7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F7" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G7" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="H7" t="s">
-        <v>334</v>
+        <v>560</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>293</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>392</v>
       </c>
       <c r="C8" t="s">
-        <v>197</v>
+        <v>455</v>
       </c>
       <c r="D8" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="E8" t="s">
-        <v>197</v>
+        <v>455</v>
       </c>
       <c r="F8" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G8" t="s">
-        <v>291</v>
+        <v>523</v>
       </c>
       <c r="H8" t="s">
-        <v>334</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>294</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="C9" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D9" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="F9" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G9" t="s">
-        <v>292</v>
+        <v>524</v>
       </c>
       <c r="H9" t="s">
-        <v>335</v>
+        <v>561</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>295</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="C10" t="s">
-        <v>199</v>
+        <v>106</v>
       </c>
       <c r="D10" t="s">
-        <v>275</v>
+        <v>249</v>
+      </c>
+      <c r="E10" t="s">
+        <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G10" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="H10" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>296</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>393</v>
       </c>
       <c r="C11" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s">
-        <v>276</v>
+        <v>247</v>
+      </c>
+      <c r="E11" t="s">
+        <v>136</v>
       </c>
       <c r="F11" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G11" t="s">
-        <v>289</v>
+        <v>522</v>
       </c>
       <c r="H11" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>297</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>394</v>
       </c>
       <c r="C12" t="s">
-        <v>201</v>
+        <v>456</v>
       </c>
       <c r="D12" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E12" t="s">
+        <v>456</v>
       </c>
       <c r="F12" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G12" t="s">
-        <v>293</v>
+        <v>525</v>
       </c>
       <c r="H12" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>298</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>395</v>
       </c>
       <c r="C13" t="s">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="D13" t="s">
-        <v>277</v>
+        <v>515</v>
+      </c>
+      <c r="E13" t="s">
+        <v>131</v>
       </c>
       <c r="F13" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G13" t="s">
-        <v>294</v>
+        <v>526</v>
       </c>
       <c r="H13" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>299</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="C14" t="s">
-        <v>203</v>
+        <v>150</v>
       </c>
       <c r="D14" t="s">
-        <v>273</v>
+        <v>247</v>
+      </c>
+      <c r="E14" t="s">
+        <v>150</v>
       </c>
       <c r="F14" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G14" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="H14" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>300</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="D15" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E15" t="s">
+        <v>170</v>
       </c>
       <c r="F15" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G15" t="s">
-        <v>295</v>
+        <v>527</v>
       </c>
       <c r="H15" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>301</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>396</v>
       </c>
       <c r="C16" t="s">
-        <v>205</v>
+        <v>457</v>
       </c>
       <c r="D16" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E16" t="s">
+        <v>457</v>
       </c>
       <c r="F16" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G16" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="H16" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>302</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>397</v>
       </c>
       <c r="C17" t="s">
-        <v>206</v>
+        <v>458</v>
       </c>
       <c r="D17" t="s">
-        <v>278</v>
+        <v>234</v>
+      </c>
+      <c r="E17" t="s">
+        <v>458</v>
       </c>
       <c r="F17" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G17" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="H17" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>303</v>
       </c>
       <c r="B18" t="s">
-        <v>125</v>
+        <v>398</v>
       </c>
       <c r="C18" t="s">
-        <v>207</v>
+        <v>459</v>
       </c>
       <c r="D18" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E18" t="s">
+        <v>459</v>
       </c>
       <c r="F18" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G18" t="s">
-        <v>296</v>
+        <v>528</v>
       </c>
       <c r="H18" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>304</v>
       </c>
       <c r="B19" t="s">
-        <v>126</v>
+        <v>399</v>
       </c>
       <c r="C19" t="s">
-        <v>208</v>
+        <v>460</v>
       </c>
       <c r="D19" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E19" t="s">
+        <v>460</v>
       </c>
       <c r="F19" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G19" t="s">
-        <v>297</v>
+        <v>529</v>
       </c>
       <c r="H19" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>305</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
+        <v>400</v>
       </c>
       <c r="C20" t="s">
-        <v>160</v>
+        <v>426</v>
       </c>
       <c r="D20" t="s">
+        <v>255</v>
+      </c>
+      <c r="E20" t="s">
+        <v>426</v>
+      </c>
+      <c r="F20" t="s">
+        <v>520</v>
+      </c>
+      <c r="G20" t="s">
         <v>279</v>
       </c>
-      <c r="F20" t="s">
-        <v>286</v>
-      </c>
-      <c r="G20" t="s">
-        <v>298</v>
-      </c>
       <c r="H20" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>306</v>
       </c>
       <c r="B21" t="s">
         <v>128</v>
       </c>
       <c r="C21" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="D21" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E21" t="s">
+        <v>185</v>
       </c>
       <c r="F21" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G21" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="H21" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>307</v>
       </c>
       <c r="B22" t="s">
-        <v>129</v>
+        <v>401</v>
       </c>
       <c r="C22" t="s">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="D22" t="s">
-        <v>273</v>
+        <v>248</v>
+      </c>
+      <c r="E22" t="s">
+        <v>133</v>
       </c>
       <c r="F22" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G22" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="H22" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>308</v>
       </c>
       <c r="B23" t="s">
-        <v>130</v>
+        <v>402</v>
       </c>
       <c r="C23" t="s">
-        <v>203</v>
+        <v>461</v>
       </c>
       <c r="D23" t="s">
-        <v>280</v>
+        <v>516</v>
+      </c>
+      <c r="E23" t="s">
+        <v>461</v>
       </c>
       <c r="F23" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G23" t="s">
-        <v>299</v>
+        <v>530</v>
       </c>
       <c r="H23" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>309</v>
       </c>
       <c r="B24" t="s">
-        <v>131</v>
+        <v>403</v>
       </c>
       <c r="C24" t="s">
-        <v>211</v>
+        <v>462</v>
       </c>
       <c r="D24" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E24" t="s">
+        <v>462</v>
       </c>
       <c r="F24" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G24" t="s">
-        <v>300</v>
+        <v>531</v>
       </c>
       <c r="H24" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>310</v>
       </c>
       <c r="B25" t="s">
-        <v>132</v>
+        <v>404</v>
       </c>
       <c r="C25" t="s">
-        <v>212</v>
+        <v>463</v>
       </c>
       <c r="D25" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E25" t="s">
+        <v>463</v>
       </c>
       <c r="F25" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G25" t="s">
-        <v>301</v>
+        <v>532</v>
       </c>
       <c r="H25" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>311</v>
       </c>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="C26" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D26" t="s">
-        <v>281</v>
+        <v>252</v>
+      </c>
+      <c r="E26" t="s">
+        <v>145</v>
       </c>
       <c r="F26" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G26" t="s">
-        <v>302</v>
+        <v>533</v>
       </c>
       <c r="H26" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>312</v>
       </c>
       <c r="B27" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="C27" t="s">
-        <v>213</v>
+        <v>464</v>
       </c>
       <c r="D27" t="s">
-        <v>282</v>
+        <v>517</v>
+      </c>
+      <c r="E27" t="s">
+        <v>464</v>
       </c>
       <c r="F27" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G27" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="H27" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>313</v>
       </c>
       <c r="B28" t="s">
-        <v>135</v>
+        <v>405</v>
       </c>
       <c r="C28" t="s">
-        <v>214</v>
+        <v>465</v>
       </c>
       <c r="D28" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E28" t="s">
+        <v>465</v>
       </c>
       <c r="F28" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G28" t="s">
-        <v>289</v>
+        <v>522</v>
       </c>
       <c r="H28" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>314</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="C29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D29" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E29" t="s">
+        <v>195</v>
       </c>
       <c r="F29" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G29" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="H29" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>315</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="C30" t="s">
-        <v>215</v>
+        <v>466</v>
       </c>
       <c r="D30" t="s">
-        <v>283</v>
+        <v>518</v>
+      </c>
+      <c r="E30" t="s">
+        <v>466</v>
       </c>
       <c r="F30" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G30" t="s">
-        <v>303</v>
+        <v>534</v>
       </c>
       <c r="H30" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>316</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="C31" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D31" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E31" t="s">
+        <v>224</v>
       </c>
       <c r="F31" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G31" t="s">
-        <v>304</v>
+        <v>535</v>
       </c>
       <c r="H31" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>317</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
+        <v>406</v>
       </c>
       <c r="C32" t="s">
-        <v>216</v>
+        <v>467</v>
       </c>
       <c r="D32" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E32" t="s">
+        <v>467</v>
       </c>
       <c r="F32" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G32" t="s">
-        <v>289</v>
+        <v>522</v>
       </c>
       <c r="H32" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>318</v>
       </c>
       <c r="B33" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C33" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="D33" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E33" t="s">
+        <v>204</v>
       </c>
       <c r="F33" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G33" t="s">
-        <v>305</v>
+        <v>536</v>
       </c>
       <c r="H33" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>319</v>
       </c>
       <c r="B34" t="s">
-        <v>139</v>
+        <v>407</v>
       </c>
       <c r="C34" t="s">
-        <v>218</v>
+        <v>468</v>
       </c>
       <c r="D34" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E34" t="s">
+        <v>468</v>
       </c>
       <c r="F34" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G34" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="H34" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>320</v>
       </c>
       <c r="B35" t="s">
-        <v>140</v>
+        <v>408</v>
       </c>
       <c r="C35" t="s">
-        <v>219</v>
+        <v>469</v>
       </c>
       <c r="D35" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E35" t="s">
+        <v>469</v>
       </c>
       <c r="F35" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G35" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="H35" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>321</v>
       </c>
       <c r="B36" t="s">
-        <v>141</v>
+        <v>409</v>
       </c>
       <c r="C36" t="s">
-        <v>220</v>
+        <v>470</v>
       </c>
       <c r="D36" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E36" t="s">
+        <v>470</v>
       </c>
       <c r="F36" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G36" t="s">
-        <v>306</v>
+        <v>537</v>
       </c>
       <c r="H36" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>322</v>
       </c>
       <c r="B37" t="s">
-        <v>130</v>
+        <v>410</v>
       </c>
       <c r="C37" t="s">
-        <v>221</v>
+        <v>471</v>
       </c>
       <c r="D37" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E37" t="s">
+        <v>471</v>
       </c>
       <c r="F37" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G37" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="H37" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>323</v>
       </c>
       <c r="B38" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="C38" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D38" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E38" t="s">
+        <v>231</v>
       </c>
       <c r="F38" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G38" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="H38" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>324</v>
       </c>
       <c r="B39" t="s">
-        <v>142</v>
+        <v>411</v>
       </c>
       <c r="C39" t="s">
-        <v>223</v>
+        <v>472</v>
       </c>
       <c r="D39" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E39" t="s">
+        <v>472</v>
       </c>
       <c r="F39" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G39" t="s">
-        <v>307</v>
+        <v>538</v>
       </c>
       <c r="H39" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>325</v>
       </c>
       <c r="B40" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="C40" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="D40" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E40" t="s">
+        <v>211</v>
       </c>
       <c r="F40" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G40" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="H40" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>326</v>
       </c>
       <c r="B41" t="s">
-        <v>143</v>
+        <v>412</v>
       </c>
       <c r="C41" t="s">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="D41" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E41" t="s">
+        <v>108</v>
       </c>
       <c r="F41" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G41" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="H41" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>327</v>
       </c>
       <c r="B42" t="s">
-        <v>144</v>
+        <v>413</v>
       </c>
       <c r="C42" t="s">
-        <v>226</v>
+        <v>473</v>
       </c>
       <c r="D42" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E42" t="s">
+        <v>473</v>
       </c>
       <c r="F42" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G42" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="H42" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>328</v>
       </c>
       <c r="B43" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="C43" t="s">
-        <v>199</v>
+        <v>133</v>
       </c>
       <c r="D43" t="s">
-        <v>283</v>
+        <v>239</v>
+      </c>
+      <c r="E43" t="s">
+        <v>133</v>
       </c>
       <c r="F43" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G43" t="s">
-        <v>308</v>
+        <v>263</v>
       </c>
       <c r="H43" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>329</v>
       </c>
       <c r="B44" t="s">
-        <v>146</v>
+        <v>215</v>
       </c>
       <c r="C44" t="s">
-        <v>227</v>
+        <v>474</v>
       </c>
       <c r="D44" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E44" t="s">
+        <v>474</v>
       </c>
       <c r="F44" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G44" t="s">
-        <v>309</v>
+        <v>539</v>
       </c>
       <c r="H44" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>330</v>
       </c>
       <c r="B45" t="s">
-        <v>147</v>
+        <v>414</v>
       </c>
       <c r="C45" t="s">
-        <v>228</v>
+        <v>475</v>
       </c>
       <c r="D45" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E45" t="s">
+        <v>475</v>
       </c>
       <c r="F45" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G45" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="H45" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>331</v>
       </c>
       <c r="B46" t="s">
-        <v>148</v>
+        <v>415</v>
       </c>
       <c r="C46" t="s">
-        <v>229</v>
+        <v>476</v>
       </c>
       <c r="D46" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E46" t="s">
+        <v>476</v>
       </c>
       <c r="F46" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G46" t="s">
-        <v>310</v>
+        <v>540</v>
       </c>
       <c r="H46" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>332</v>
       </c>
       <c r="B47" t="s">
-        <v>149</v>
+        <v>416</v>
       </c>
       <c r="C47" t="s">
-        <v>230</v>
+        <v>477</v>
       </c>
       <c r="D47" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E47" t="s">
+        <v>477</v>
       </c>
       <c r="F47" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G47" t="s">
-        <v>311</v>
+        <v>268</v>
       </c>
       <c r="H47" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>333</v>
       </c>
       <c r="B48" t="s">
-        <v>150</v>
+        <v>417</v>
       </c>
       <c r="C48" t="s">
-        <v>231</v>
+        <v>478</v>
       </c>
       <c r="D48" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E48" t="s">
+        <v>478</v>
       </c>
       <c r="F48" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G48" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="H48" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>334</v>
       </c>
       <c r="B49" t="s">
-        <v>151</v>
+        <v>418</v>
       </c>
       <c r="C49" t="s">
-        <v>232</v>
+        <v>479</v>
       </c>
       <c r="D49" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E49" t="s">
+        <v>479</v>
       </c>
       <c r="F49" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G49" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="H49" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>335</v>
       </c>
       <c r="B50" t="s">
-        <v>152</v>
+        <v>419</v>
       </c>
       <c r="C50" t="s">
-        <v>233</v>
+        <v>480</v>
       </c>
       <c r="D50" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E50" t="s">
+        <v>480</v>
       </c>
       <c r="F50" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G50" t="s">
-        <v>289</v>
+        <v>522</v>
       </c>
       <c r="H50" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>336</v>
       </c>
       <c r="B51" t="s">
-        <v>151</v>
+        <v>418</v>
       </c>
       <c r="C51" t="s">
-        <v>232</v>
+        <v>479</v>
       </c>
       <c r="D51" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E51" t="s">
+        <v>479</v>
       </c>
       <c r="F51" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G51" t="s">
-        <v>312</v>
+        <v>262</v>
       </c>
       <c r="H51" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>337</v>
       </c>
       <c r="B52" t="s">
-        <v>153</v>
+        <v>420</v>
       </c>
       <c r="C52" t="s">
-        <v>234</v>
+        <v>481</v>
       </c>
       <c r="D52" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E52" t="s">
+        <v>481</v>
       </c>
       <c r="F52" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G52" t="s">
-        <v>313</v>
+        <v>541</v>
       </c>
       <c r="H52" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>338</v>
       </c>
       <c r="B53" t="s">
-        <v>154</v>
+        <v>421</v>
       </c>
       <c r="C53" t="s">
-        <v>235</v>
+        <v>482</v>
       </c>
       <c r="D53" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E53" t="s">
+        <v>482</v>
       </c>
       <c r="F53" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G53" t="s">
-        <v>289</v>
+        <v>522</v>
       </c>
       <c r="H53" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>339</v>
       </c>
       <c r="B54" t="s">
-        <v>155</v>
+        <v>422</v>
       </c>
       <c r="C54" t="s">
-        <v>236</v>
+        <v>483</v>
       </c>
       <c r="D54" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E54" t="s">
+        <v>483</v>
       </c>
       <c r="F54" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G54" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="H54" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>340</v>
       </c>
       <c r="B55" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C55" t="s">
-        <v>210</v>
+        <v>484</v>
       </c>
       <c r="D55" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E55" t="s">
+        <v>484</v>
       </c>
       <c r="F55" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G55" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="H55" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>341</v>
       </c>
       <c r="B56" t="s">
-        <v>156</v>
+        <v>423</v>
       </c>
       <c r="C56" t="s">
-        <v>237</v>
+        <v>485</v>
       </c>
       <c r="D56" t="s">
-        <v>273</v>
+        <v>519</v>
+      </c>
+      <c r="E56" t="s">
+        <v>485</v>
       </c>
       <c r="F56" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G56" t="s">
-        <v>291</v>
+        <v>523</v>
       </c>
       <c r="H56" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>342</v>
       </c>
       <c r="B57" t="s">
-        <v>118</v>
+        <v>393</v>
       </c>
       <c r="C57" t="s">
-        <v>238</v>
+        <v>486</v>
       </c>
       <c r="D57" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E57" t="s">
+        <v>486</v>
       </c>
       <c r="F57" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G57" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="H57" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>343</v>
       </c>
       <c r="B58" t="s">
-        <v>157</v>
+        <v>416</v>
       </c>
       <c r="C58" t="s">
-        <v>239</v>
+        <v>477</v>
       </c>
       <c r="D58" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E58" t="s">
+        <v>477</v>
       </c>
       <c r="F58" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G58" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="H58" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>344</v>
       </c>
       <c r="B59" t="s">
-        <v>158</v>
+        <v>424</v>
       </c>
       <c r="C59" t="s">
-        <v>240</v>
+        <v>487</v>
       </c>
       <c r="D59" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E59" t="s">
+        <v>487</v>
       </c>
       <c r="F59" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G59" t="s">
-        <v>299</v>
+        <v>530</v>
       </c>
       <c r="H59" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>345</v>
       </c>
       <c r="B60" t="s">
-        <v>159</v>
+        <v>425</v>
       </c>
       <c r="C60" t="s">
-        <v>241</v>
+        <v>488</v>
       </c>
       <c r="D60" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E60" t="s">
+        <v>488</v>
       </c>
       <c r="F60" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G60" t="s">
-        <v>314</v>
+        <v>542</v>
       </c>
       <c r="H60" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>346</v>
       </c>
       <c r="B61" t="s">
-        <v>160</v>
+        <v>426</v>
       </c>
       <c r="C61" t="s">
-        <v>242</v>
+        <v>489</v>
       </c>
       <c r="D61" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E61" t="s">
+        <v>489</v>
       </c>
       <c r="F61" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G61" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="H61" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>347</v>
       </c>
       <c r="B62" t="s">
-        <v>126</v>
+        <v>427</v>
       </c>
       <c r="C62" t="s">
-        <v>208</v>
+        <v>490</v>
       </c>
       <c r="D62" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E62" t="s">
+        <v>490</v>
       </c>
       <c r="F62" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G62" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="H62" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>348</v>
       </c>
       <c r="B63" t="s">
-        <v>161</v>
+        <v>428</v>
       </c>
       <c r="C63" t="s">
-        <v>243</v>
+        <v>491</v>
       </c>
       <c r="D63" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E63" t="s">
+        <v>491</v>
       </c>
       <c r="F63" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G63" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="H63" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>349</v>
       </c>
       <c r="B64" t="s">
-        <v>162</v>
+        <v>429</v>
       </c>
       <c r="C64" t="s">
-        <v>199</v>
+        <v>133</v>
       </c>
       <c r="D64" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E64" t="s">
+        <v>133</v>
       </c>
       <c r="F64" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G64" t="s">
-        <v>315</v>
+        <v>543</v>
       </c>
       <c r="H64" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>350</v>
       </c>
       <c r="B65" t="s">
-        <v>163</v>
+        <v>430</v>
       </c>
       <c r="C65" t="s">
-        <v>244</v>
+        <v>492</v>
       </c>
       <c r="D65" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E65" t="s">
+        <v>492</v>
       </c>
       <c r="F65" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G65" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="H65" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>351</v>
       </c>
       <c r="B66" t="s">
-        <v>143</v>
+        <v>431</v>
       </c>
       <c r="C66" t="s">
-        <v>225</v>
+        <v>493</v>
       </c>
       <c r="D66" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E66" t="s">
+        <v>493</v>
       </c>
       <c r="F66" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G66" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="H66" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>352</v>
       </c>
       <c r="B67" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C67" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="D67" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E67" t="s">
+        <v>217</v>
       </c>
       <c r="F67" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G67" t="s">
-        <v>317</v>
+        <v>544</v>
       </c>
       <c r="H67" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>353</v>
       </c>
       <c r="B68" t="s">
-        <v>165</v>
+        <v>432</v>
       </c>
       <c r="C68" t="s">
-        <v>246</v>
+        <v>494</v>
       </c>
       <c r="D68" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E68" t="s">
+        <v>494</v>
       </c>
       <c r="F68" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G68" t="s">
-        <v>318</v>
+        <v>545</v>
       </c>
       <c r="H68" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>354</v>
       </c>
       <c r="B69" t="s">
-        <v>157</v>
+        <v>416</v>
       </c>
       <c r="C69" t="s">
-        <v>239</v>
+        <v>477</v>
       </c>
       <c r="D69" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E69" t="s">
+        <v>477</v>
       </c>
       <c r="F69" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G69" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="H69" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>355</v>
       </c>
       <c r="B70" t="s">
-        <v>166</v>
+        <v>433</v>
       </c>
       <c r="C70" t="s">
-        <v>247</v>
+        <v>495</v>
       </c>
       <c r="D70" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E70" t="s">
+        <v>495</v>
       </c>
       <c r="F70" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G70" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="H70" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>356</v>
       </c>
       <c r="B71" t="s">
-        <v>167</v>
+        <v>434</v>
       </c>
       <c r="C71" t="s">
-        <v>248</v>
+        <v>496</v>
       </c>
       <c r="D71" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E71" t="s">
+        <v>496</v>
       </c>
       <c r="F71" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G71" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="H71" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>357</v>
       </c>
       <c r="B72" t="s">
-        <v>168</v>
+        <v>435</v>
       </c>
       <c r="C72" t="s">
-        <v>249</v>
+        <v>497</v>
       </c>
       <c r="D72" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E72" t="s">
+        <v>497</v>
       </c>
       <c r="F72" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G72" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="H72" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>358</v>
       </c>
       <c r="B73" t="s">
-        <v>169</v>
+        <v>436</v>
       </c>
       <c r="C73" t="s">
-        <v>250</v>
+        <v>498</v>
       </c>
       <c r="D73" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E73" t="s">
+        <v>498</v>
       </c>
       <c r="F73" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G73" t="s">
-        <v>319</v>
+        <v>546</v>
       </c>
       <c r="H73" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>359</v>
       </c>
       <c r="B74" t="s">
-        <v>170</v>
+        <v>437</v>
       </c>
       <c r="C74" t="s">
-        <v>251</v>
+        <v>499</v>
       </c>
       <c r="D74" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E74" t="s">
+        <v>499</v>
       </c>
       <c r="F74" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G74" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="H74" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>81</v>
+        <v>360</v>
       </c>
       <c r="B75" t="s">
-        <v>171</v>
+        <v>438</v>
       </c>
       <c r="C75" t="s">
-        <v>252</v>
+        <v>500</v>
       </c>
       <c r="D75" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E75" t="s">
+        <v>500</v>
       </c>
       <c r="F75" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G75" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="H75" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>82</v>
+        <v>361</v>
       </c>
       <c r="B76" t="s">
-        <v>120</v>
+        <v>439</v>
       </c>
       <c r="C76" t="s">
-        <v>253</v>
+        <v>501</v>
       </c>
       <c r="D76" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E76" t="s">
+        <v>501</v>
       </c>
       <c r="F76" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G76" t="s">
-        <v>320</v>
+        <v>547</v>
       </c>
       <c r="H76" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>83</v>
+        <v>362</v>
       </c>
       <c r="B77" t="s">
-        <v>172</v>
+        <v>440</v>
       </c>
       <c r="C77" t="s">
-        <v>254</v>
+        <v>502</v>
       </c>
       <c r="D77" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E77" t="s">
+        <v>502</v>
       </c>
       <c r="F77" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G77" t="s">
-        <v>321</v>
+        <v>548</v>
       </c>
       <c r="H77" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>84</v>
+        <v>363</v>
       </c>
       <c r="B78" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="C78" t="s">
-        <v>255</v>
+        <v>503</v>
       </c>
       <c r="D78" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E78" t="s">
+        <v>503</v>
       </c>
       <c r="F78" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G78" t="s">
-        <v>322</v>
+        <v>549</v>
       </c>
       <c r="H78" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>85</v>
+        <v>364</v>
       </c>
       <c r="B79" t="s">
-        <v>110</v>
+        <v>388</v>
       </c>
       <c r="C79" t="s">
-        <v>192</v>
+        <v>452</v>
       </c>
       <c r="D79" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E79" t="s">
+        <v>452</v>
       </c>
       <c r="F79" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G79" t="s">
-        <v>315</v>
+        <v>543</v>
       </c>
       <c r="H79" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>86</v>
+        <v>365</v>
       </c>
       <c r="B80" t="s">
-        <v>174</v>
+        <v>441</v>
       </c>
       <c r="C80" t="s">
-        <v>256</v>
+        <v>504</v>
       </c>
       <c r="D80" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E80" t="s">
+        <v>504</v>
       </c>
       <c r="F80" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G80" t="s">
-        <v>315</v>
+        <v>543</v>
       </c>
       <c r="H80" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>87</v>
+        <v>366</v>
       </c>
       <c r="B81" t="s">
-        <v>143</v>
+        <v>442</v>
       </c>
       <c r="C81" t="s">
-        <v>225</v>
+        <v>505</v>
       </c>
       <c r="D81" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E81" t="s">
+        <v>505</v>
       </c>
       <c r="F81" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G81" t="s">
-        <v>323</v>
+        <v>550</v>
       </c>
       <c r="H81" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>88</v>
+        <v>367</v>
       </c>
       <c r="B82" t="s">
-        <v>175</v>
+        <v>443</v>
       </c>
       <c r="C82" t="s">
-        <v>257</v>
+        <v>506</v>
       </c>
       <c r="D82" t="s">
-        <v>284</v>
+        <v>239</v>
+      </c>
+      <c r="E82" t="s">
+        <v>506</v>
       </c>
       <c r="F82" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G82" t="s">
-        <v>324</v>
+        <v>551</v>
       </c>
       <c r="H82" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>89</v>
+        <v>368</v>
       </c>
       <c r="B83" t="s">
-        <v>176</v>
+        <v>444</v>
       </c>
       <c r="C83" t="s">
-        <v>258</v>
+        <v>507</v>
       </c>
       <c r="D83" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E83" t="s">
+        <v>507</v>
       </c>
       <c r="F83" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G83" t="s">
-        <v>319</v>
+        <v>546</v>
       </c>
       <c r="H83" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>90</v>
+        <v>369</v>
       </c>
       <c r="B84" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C84" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="D84" t="s">
-        <v>285</v>
+        <v>238</v>
+      </c>
+      <c r="E84" t="s">
+        <v>162</v>
       </c>
       <c r="F84" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G84" t="s">
-        <v>315</v>
+        <v>543</v>
       </c>
       <c r="H84" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>91</v>
+        <v>370</v>
       </c>
       <c r="B85" t="s">
-        <v>177</v>
+        <v>445</v>
       </c>
       <c r="C85" t="s">
-        <v>259</v>
+        <v>115</v>
       </c>
       <c r="D85" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E85" t="s">
+        <v>115</v>
       </c>
       <c r="F85" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G85" t="s">
-        <v>325</v>
+        <v>552</v>
       </c>
       <c r="H85" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>92</v>
+        <v>371</v>
       </c>
       <c r="B86" t="s">
-        <v>178</v>
+        <v>395</v>
       </c>
       <c r="C86" t="s">
-        <v>260</v>
+        <v>508</v>
       </c>
       <c r="D86" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E86" t="s">
+        <v>508</v>
       </c>
       <c r="F86" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G86" t="s">
-        <v>326</v>
+        <v>553</v>
       </c>
       <c r="H86" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>93</v>
+        <v>372</v>
       </c>
       <c r="B87" t="s">
-        <v>157</v>
+        <v>416</v>
       </c>
       <c r="C87" t="s">
-        <v>239</v>
+        <v>477</v>
       </c>
       <c r="D87" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E87" t="s">
+        <v>477</v>
       </c>
       <c r="F87" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G87" t="s">
-        <v>308</v>
+        <v>263</v>
       </c>
       <c r="H87" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>94</v>
+        <v>373</v>
       </c>
       <c r="B88" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="C88" t="s">
-        <v>261</v>
+        <v>484</v>
       </c>
       <c r="D88" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E88" t="s">
+        <v>484</v>
       </c>
       <c r="F88" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G88" t="s">
-        <v>327</v>
+        <v>554</v>
       </c>
       <c r="H88" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>95</v>
+        <v>374</v>
       </c>
       <c r="B89" t="s">
-        <v>180</v>
+        <v>433</v>
       </c>
       <c r="C89" t="s">
-        <v>262</v>
+        <v>495</v>
       </c>
       <c r="D89" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E89" t="s">
+        <v>495</v>
       </c>
       <c r="F89" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G89" t="s">
-        <v>328</v>
+        <v>555</v>
       </c>
       <c r="H89" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>96</v>
+        <v>375</v>
       </c>
       <c r="B90" t="s">
-        <v>181</v>
+        <v>115</v>
       </c>
       <c r="C90" t="s">
-        <v>263</v>
+        <v>193</v>
       </c>
       <c r="D90" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E90" t="s">
+        <v>193</v>
       </c>
       <c r="F90" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G90" t="s">
-        <v>325</v>
+        <v>552</v>
       </c>
       <c r="H90" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>97</v>
+        <v>376</v>
       </c>
       <c r="B91" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="C91" t="s">
-        <v>264</v>
+        <v>190</v>
       </c>
       <c r="D91" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E91" t="s">
+        <v>190</v>
       </c>
       <c r="F91" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G91" t="s">
-        <v>291</v>
+        <v>523</v>
       </c>
       <c r="H91" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>98</v>
+        <v>377</v>
       </c>
       <c r="B92" t="s">
-        <v>183</v>
+        <v>446</v>
       </c>
       <c r="C92" t="s">
-        <v>265</v>
+        <v>509</v>
       </c>
       <c r="D92" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E92" t="s">
+        <v>509</v>
       </c>
       <c r="F92" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G92" t="s">
-        <v>329</v>
+        <v>556</v>
       </c>
       <c r="H92" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>99</v>
+        <v>378</v>
       </c>
       <c r="B93" t="s">
-        <v>184</v>
+        <v>447</v>
       </c>
       <c r="C93" t="s">
-        <v>266</v>
+        <v>510</v>
       </c>
       <c r="D93" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E93" t="s">
+        <v>510</v>
       </c>
       <c r="F93" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G93" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="H93" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>100</v>
+        <v>379</v>
       </c>
       <c r="B94" t="s">
-        <v>185</v>
+        <v>448</v>
       </c>
       <c r="C94" t="s">
-        <v>267</v>
+        <v>511</v>
       </c>
       <c r="D94" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E94" t="s">
+        <v>511</v>
       </c>
       <c r="F94" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G94" t="s">
-        <v>289</v>
+        <v>522</v>
       </c>
       <c r="H94" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>380</v>
       </c>
       <c r="B95" t="s">
-        <v>186</v>
+        <v>109</v>
       </c>
       <c r="C95" t="s">
-        <v>268</v>
+        <v>172</v>
       </c>
       <c r="D95" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E95" t="s">
+        <v>172</v>
       </c>
       <c r="F95" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G95" t="s">
-        <v>330</v>
+        <v>557</v>
       </c>
       <c r="H95" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>381</v>
       </c>
       <c r="B96" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="C96" t="s">
-        <v>269</v>
+        <v>194</v>
       </c>
       <c r="D96" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E96" t="s">
+        <v>194</v>
       </c>
       <c r="F96" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G96" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="H96" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>382</v>
       </c>
       <c r="B97" t="s">
-        <v>188</v>
+        <v>449</v>
       </c>
       <c r="C97" t="s">
-        <v>270</v>
+        <v>512</v>
       </c>
       <c r="D97" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E97" t="s">
+        <v>512</v>
       </c>
       <c r="F97" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G97" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="H97" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>104</v>
+        <v>383</v>
       </c>
       <c r="B98" t="s">
-        <v>157</v>
+        <v>416</v>
       </c>
       <c r="C98" t="s">
-        <v>239</v>
+        <v>477</v>
       </c>
       <c r="D98" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E98" t="s">
+        <v>477</v>
       </c>
       <c r="F98" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G98" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="H98" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>105</v>
+        <v>384</v>
       </c>
       <c r="B99" t="s">
         <v>127</v>
       </c>
       <c r="C99" t="s">
-        <v>271</v>
+        <v>484</v>
       </c>
       <c r="D99" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E99" t="s">
+        <v>484</v>
       </c>
       <c r="F99" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G99" t="s">
-        <v>331</v>
+        <v>558</v>
       </c>
       <c r="H99" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>106</v>
+        <v>385</v>
       </c>
       <c r="B100" t="s">
-        <v>189</v>
+        <v>450</v>
       </c>
       <c r="C100" t="s">
-        <v>113</v>
+        <v>391</v>
       </c>
       <c r="D100" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E100" t="s">
+        <v>391</v>
       </c>
       <c r="F100" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G100" t="s">
-        <v>315</v>
+        <v>543</v>
       </c>
       <c r="H100" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>107</v>
+        <v>386</v>
       </c>
       <c r="B101" t="s">
-        <v>190</v>
+        <v>451</v>
       </c>
       <c r="C101" t="s">
-        <v>272</v>
+        <v>513</v>
       </c>
       <c r="D101" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E101" t="s">
+        <v>513</v>
       </c>
       <c r="F101" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G101" t="s">
-        <v>332</v>
+        <v>274</v>
       </c>
       <c r="H101" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>108</v>
+        <v>387</v>
       </c>
       <c r="B102" t="s">
-        <v>118</v>
+        <v>393</v>
       </c>
       <c r="C102" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D102" t="s">
-        <v>273</v>
+        <v>233</v>
+      </c>
+      <c r="E102" t="s">
+        <v>207</v>
       </c>
       <c r="F102" t="s">
-        <v>286</v>
+        <v>520</v>
       </c>
       <c r="G102" t="s">
-        <v>291</v>
+        <v>523</v>
       </c>
       <c r="H102" t="s">
-        <v>336</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>

--- a/BigBasket/BigBasket_products.xlsx
+++ b/BigBasket/BigBasket_products.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="556">
   <si>
     <t>product_name</t>
   </si>
@@ -356,1215 +356,1197 @@
     <t>₹50</t>
   </si>
   <si>
-    <t>₹28</t>
-  </si>
-  <si>
     <t>₹25</t>
   </si>
   <si>
+    <t>₹59</t>
+  </si>
+  <si>
+    <t>₹331</t>
+  </si>
+  <si>
+    <t>₹14</t>
+  </si>
+  <si>
+    <t>₹57</t>
+  </si>
+  <si>
+    <t>₹37</t>
+  </si>
+  <si>
+    <t>₹35</t>
+  </si>
+  <si>
+    <t>₹158</t>
+  </si>
+  <si>
+    <t>₹91</t>
+  </si>
+  <si>
+    <t>₹33</t>
+  </si>
+  <si>
+    <t>₹62</t>
+  </si>
+  <si>
+    <t>₹53</t>
+  </si>
+  <si>
+    <t>₹166</t>
+  </si>
+  <si>
+    <t>₹81</t>
+  </si>
+  <si>
+    <t>₹76</t>
+  </si>
+  <si>
+    <t>₹235</t>
+  </si>
+  <si>
+    <t>₹42</t>
+  </si>
+  <si>
+    <t>₹128</t>
+  </si>
+  <si>
+    <t>₹58</t>
+  </si>
+  <si>
+    <t>₹269</t>
+  </si>
+  <si>
+    <t>₹317</t>
+  </si>
+  <si>
+    <t>₹180</t>
+  </si>
+  <si>
     <t>₹68</t>
   </si>
   <si>
-    <t>₹331</t>
-  </si>
-  <si>
-    <t>₹14</t>
-  </si>
-  <si>
-    <t>₹57</t>
-  </si>
-  <si>
-    <t>₹37</t>
-  </si>
-  <si>
-    <t>₹51</t>
-  </si>
-  <si>
-    <t>₹158</t>
-  </si>
-  <si>
-    <t>₹77</t>
-  </si>
-  <si>
-    <t>₹33</t>
-  </si>
-  <si>
-    <t>₹62</t>
-  </si>
-  <si>
-    <t>₹53</t>
-  </si>
-  <si>
-    <t>₹166</t>
-  </si>
-  <si>
-    <t>₹81</t>
-  </si>
-  <si>
-    <t>₹76</t>
-  </si>
-  <si>
-    <t>₹235</t>
+    <t>₹46</t>
+  </si>
+  <si>
+    <t>₹144</t>
+  </si>
+  <si>
+    <t>₹18</t>
+  </si>
+  <si>
+    <t>₹205</t>
+  </si>
+  <si>
+    <t>₹190</t>
+  </si>
+  <si>
+    <t>₹88</t>
+  </si>
+  <si>
+    <t>₹344</t>
+  </si>
+  <si>
+    <t>₹65</t>
+  </si>
+  <si>
+    <t>₹79</t>
+  </si>
+  <si>
+    <t>₹13.16</t>
+  </si>
+  <si>
+    <t>₹185</t>
+  </si>
+  <si>
+    <t>₹148</t>
+  </si>
+  <si>
+    <t>₹99</t>
+  </si>
+  <si>
+    <t>₹95</t>
+  </si>
+  <si>
+    <t>₹55</t>
+  </si>
+  <si>
+    <t>₹70</t>
+  </si>
+  <si>
+    <t>₹122</t>
+  </si>
+  <si>
+    <t>₹24</t>
+  </si>
+  <si>
+    <t>₹139</t>
+  </si>
+  <si>
+    <t>₹161</t>
+  </si>
+  <si>
+    <t>₹320</t>
+  </si>
+  <si>
+    <t>₹107</t>
+  </si>
+  <si>
+    <t>₹31</t>
+  </si>
+  <si>
+    <t>₹150</t>
+  </si>
+  <si>
+    <t>₹111</t>
+  </si>
+  <si>
+    <t>₹133</t>
+  </si>
+  <si>
+    <t>₹90</t>
+  </si>
+  <si>
+    <t>₹43</t>
+  </si>
+  <si>
+    <t>₹50.68</t>
+  </si>
+  <si>
+    <t>₹54</t>
+  </si>
+  <si>
+    <t>₹135</t>
+  </si>
+  <si>
+    <t>₹29</t>
+  </si>
+  <si>
+    <t>₹106</t>
+  </si>
+  <si>
+    <t>₹64</t>
+  </si>
+  <si>
+    <t>₹16</t>
+  </si>
+  <si>
+    <t>₹120</t>
+  </si>
+  <si>
+    <t>₹48</t>
+  </si>
+  <si>
+    <t>₹109</t>
+  </si>
+  <si>
+    <t>₹100</t>
+  </si>
+  <si>
+    <t>₹36</t>
+  </si>
+  <si>
+    <t>₹28.47</t>
+  </si>
+  <si>
+    <t>₹30</t>
+  </si>
+  <si>
+    <t>₹75.19</t>
+  </si>
+  <si>
+    <t>₹60</t>
+  </si>
+  <si>
+    <t>₹9</t>
+  </si>
+  <si>
+    <t>₹8.41</t>
+  </si>
+  <si>
+    <t>₹8.75</t>
+  </si>
+  <si>
+    <t>₹5</t>
+  </si>
+  <si>
+    <t>₹27.5</t>
+  </si>
+  <si>
+    <t>₹27.01</t>
+  </si>
+  <si>
+    <t>₹115.34</t>
+  </si>
+  <si>
+    <t>₹66.43</t>
+  </si>
+  <si>
+    <t>₹19.5</t>
+  </si>
+  <si>
+    <t>₹121.18</t>
   </si>
   <si>
     <t>₹40</t>
   </si>
   <si>
-    <t>₹139</t>
-  </si>
-  <si>
-    <t>₹58</t>
-  </si>
-  <si>
-    <t>₹29</t>
-  </si>
-  <si>
-    <t>₹269</t>
-  </si>
-  <si>
-    <t>₹317</t>
-  </si>
-  <si>
-    <t>₹180</t>
-  </si>
-  <si>
-    <t>₹46</t>
-  </si>
-  <si>
-    <t>₹144</t>
-  </si>
-  <si>
-    <t>₹18</t>
-  </si>
-  <si>
-    <t>₹205</t>
-  </si>
-  <si>
-    <t>₹190</t>
-  </si>
-  <si>
-    <t>₹88</t>
-  </si>
-  <si>
-    <t>₹151</t>
-  </si>
-  <si>
-    <t>₹70</t>
-  </si>
-  <si>
-    <t>₹65</t>
-  </si>
-  <si>
-    <t>₹13.16</t>
-  </si>
-  <si>
-    <t>₹172</t>
-  </si>
-  <si>
-    <t>₹148</t>
-  </si>
-  <si>
-    <t>₹99</t>
-  </si>
-  <si>
-    <t>₹95</t>
-  </si>
-  <si>
-    <t>₹55</t>
-  </si>
-  <si>
-    <t>₹122</t>
-  </si>
-  <si>
-    <t>₹150</t>
-  </si>
-  <si>
-    <t>₹320</t>
-  </si>
-  <si>
-    <t>₹107</t>
-  </si>
-  <si>
-    <t>₹31</t>
-  </si>
-  <si>
-    <t>₹111</t>
-  </si>
-  <si>
-    <t>₹133</t>
-  </si>
-  <si>
-    <t>₹90</t>
-  </si>
-  <si>
-    <t>₹43</t>
-  </si>
-  <si>
-    <t>₹50.68</t>
-  </si>
-  <si>
-    <t>₹48</t>
-  </si>
-  <si>
-    <t>₹54</t>
-  </si>
-  <si>
-    <t>₹24</t>
-  </si>
-  <si>
-    <t>₹79</t>
-  </si>
-  <si>
-    <t>₹16</t>
-  </si>
-  <si>
-    <t>₹120</t>
-  </si>
-  <si>
-    <t>₹109</t>
-  </si>
-  <si>
-    <t>₹36</t>
-  </si>
-  <si>
-    <t>₹28.47</t>
-  </si>
-  <si>
-    <t>₹30</t>
-  </si>
-  <si>
-    <t>₹75.19</t>
-  </si>
-  <si>
-    <t>₹60</t>
-  </si>
-  <si>
-    <t>₹9</t>
-  </si>
-  <si>
-    <t>₹8.41</t>
-  </si>
-  <si>
-    <t>₹8.75</t>
-  </si>
-  <si>
-    <t>₹88.5</t>
-  </si>
-  <si>
-    <t>₹5</t>
-  </si>
-  <si>
-    <t>₹27.5</t>
-  </si>
-  <si>
-    <t>₹27.01</t>
+    <t>₹55.48</t>
+  </si>
+  <si>
+    <t>₹171.55</t>
+  </si>
+  <si>
+    <t>₹26</t>
+  </si>
+  <si>
+    <t>₹93.44</t>
+  </si>
+  <si>
+    <t>₹24.09</t>
+  </si>
+  <si>
+    <t>₹196.37</t>
   </si>
   <si>
     <t>₹22</t>
   </si>
   <si>
-    <t>₹115.34</t>
-  </si>
-  <si>
-    <t>₹56.21</t>
-  </si>
-  <si>
-    <t>₹121.18</t>
-  </si>
-  <si>
-    <t>₹55.48</t>
-  </si>
-  <si>
-    <t>₹171.55</t>
-  </si>
-  <si>
-    <t>₹26</t>
+    <t>₹231.41</t>
+  </si>
+  <si>
+    <t>₹131.4</t>
+  </si>
+  <si>
+    <t>₹49.64</t>
+  </si>
+  <si>
+    <t>₹33.58</t>
+  </si>
+  <si>
+    <t>₹105.12</t>
+  </si>
+  <si>
+    <t>₹13.14</t>
+  </si>
+  <si>
+    <t>₹149.65</t>
+  </si>
+  <si>
+    <t>₹138.7</t>
+  </si>
+  <si>
+    <t>₹64.24</t>
+  </si>
+  <si>
+    <t>₹19.71</t>
+  </si>
+  <si>
+    <t>₹41.61</t>
+  </si>
+  <si>
+    <t>₹251.12</t>
+  </si>
+  <si>
+    <t>₹47.45</t>
+  </si>
+  <si>
+    <t>₹34</t>
+  </si>
+  <si>
+    <t>₹57.67</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>₹101</t>
+  </si>
+  <si>
+    <t>₹108.04</t>
+  </si>
+  <si>
+    <t>₹72.27</t>
+  </si>
+  <si>
+    <t>₹69.35</t>
+  </si>
+  <si>
+    <t>₹40.15</t>
+  </si>
+  <si>
+    <t>₹51.1</t>
+  </si>
+  <si>
+    <t>₹89.06</t>
+  </si>
+  <si>
+    <t>₹10</t>
   </si>
   <si>
     <t>₹101.47</t>
   </si>
   <si>
+    <t>₹117.53</t>
+  </si>
+  <si>
+    <t>₹233.6</t>
+  </si>
+  <si>
+    <t>₹22.63</t>
+  </si>
+  <si>
+    <t>₹109.5</t>
+  </si>
+  <si>
+    <t>₹81.03</t>
+  </si>
+  <si>
+    <t>₹53.29</t>
+  </si>
+  <si>
+    <t>₹97.09</t>
+  </si>
+  <si>
+    <t>₹65.7</t>
+  </si>
+  <si>
+    <t>₹31.39</t>
+  </si>
+  <si>
+    <t>₹38.69</t>
+  </si>
+  <si>
+    <t>₹39.42</t>
+  </si>
+  <si>
+    <t>₹98.55</t>
+  </si>
+  <si>
     <t>₹21.17</t>
   </si>
   <si>
-    <t>₹196.37</t>
-  </si>
-  <si>
-    <t>₹231.41</t>
-  </si>
-  <si>
-    <t>₹131.4</t>
-  </si>
-  <si>
-    <t>₹49.64</t>
-  </si>
-  <si>
-    <t>₹33.58</t>
-  </si>
-  <si>
-    <t>₹105.12</t>
-  </si>
-  <si>
-    <t>₹13.14</t>
-  </si>
-  <si>
-    <t>₹149.65</t>
-  </si>
-  <si>
-    <t>₹138.7</t>
-  </si>
-  <si>
-    <t>₹64.24</t>
-  </si>
-  <si>
-    <t>₹18.25</t>
-  </si>
-  <si>
-    <t>₹41.61</t>
-  </si>
-  <si>
-    <t>₹110.23</t>
-  </si>
-  <si>
-    <t>₹51.1</t>
-  </si>
-  <si>
-    <t>₹47.45</t>
-  </si>
-  <si>
-    <t>₹34</t>
-  </si>
-  <si>
-    <t>₹53.29</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>₹101</t>
-  </si>
-  <si>
-    <t>₹108.04</t>
-  </si>
-  <si>
-    <t>₹72.27</t>
-  </si>
-  <si>
-    <t>₹69.35</t>
-  </si>
-  <si>
-    <t>₹40.15</t>
-  </si>
-  <si>
-    <t>₹89.06</t>
-  </si>
-  <si>
-    <t>₹10</t>
+    <t>₹77.38</t>
+  </si>
+  <si>
+    <t>₹46.72</t>
+  </si>
+  <si>
+    <t>₹11.68</t>
+  </si>
+  <si>
+    <t>₹87.6</t>
+  </si>
+  <si>
+    <t>₹21</t>
+  </si>
+  <si>
+    <t>₹79.57</t>
+  </si>
+  <si>
+    <t>₹26.28</t>
+  </si>
+  <si>
+    <t>27% OFF</t>
+  </si>
+  <si>
+    <t>42% OFF</t>
+  </si>
+  <si>
+    <t>59% OFF</t>
+  </si>
+  <si>
+    <t>39% OFF</t>
+  </si>
+  <si>
+    <t>67% OFF</t>
+  </si>
+  <si>
+    <t>34% OFF</t>
+  </si>
+  <si>
+    <t>36% OFF</t>
+  </si>
+  <si>
+    <t>66% OFF</t>
+  </si>
+  <si>
+    <t>65% OFF</t>
+  </si>
+  <si>
+    <t>58% OFF</t>
+  </si>
+  <si>
+    <t>46% OFF</t>
+  </si>
+  <si>
+    <t>64% OFF</t>
+  </si>
+  <si>
+    <t>52% OFF</t>
+  </si>
+  <si>
+    <t>54% OFF</t>
+  </si>
+  <si>
+    <t>41% OFF</t>
+  </si>
+  <si>
+    <t>31% OFF</t>
+  </si>
+  <si>
+    <t>45% OFF</t>
+  </si>
+  <si>
+    <t>51% OFF</t>
+  </si>
+  <si>
+    <t>38% OFF</t>
+  </si>
+  <si>
+    <t>55% OFF</t>
+  </si>
+  <si>
+    <t>32% OFF</t>
+  </si>
+  <si>
+    <t>56% OFF</t>
+  </si>
+  <si>
+    <t>48% OFF</t>
+  </si>
+  <si>
+    <t>Fresh Vegetables</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx 500-1kg)</t>
+  </si>
+  <si>
+    <t>5 kg - Multipack</t>
+  </si>
+  <si>
+    <t>1 kg</t>
+  </si>
+  <si>
+    <t>2 kg</t>
+  </si>
+  <si>
+    <t>250 g</t>
+  </si>
+  <si>
+    <t>500 g</t>
+  </si>
+  <si>
+    <t>1 pc - (approx. 400 to 600 g)</t>
+  </si>
+  <si>
+    <t>1 pc - (approx. 500 g to 800 g)</t>
+  </si>
+  <si>
+    <t>1 pack - (Approx. 180g - 200 g)</t>
+  </si>
+  <si>
+    <t>2 pcs</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 500 g - 800 g)</t>
+  </si>
+  <si>
+    <t>5 kg</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 100 g)</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 250g-500g)</t>
+  </si>
+  <si>
+    <t>10 pcs</t>
+  </si>
+  <si>
+    <t>100 g</t>
+  </si>
+  <si>
+    <t>350 g (2 pieces)</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 100g-250g)</t>
+  </si>
+  <si>
+    <t>1 Kg</t>
+  </si>
+  <si>
+    <t>1 pc - Approx. 400 to 600 g</t>
+  </si>
+  <si>
+    <t>1 pc</t>
+  </si>
+  <si>
+    <t>1 pc (Approx 500-1000 g)</t>
+  </si>
+  <si>
+    <t>1 pc (approx. 300-1.3 Kg)</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:23:50</t>
+  </si>
+  <si>
+    <t>2023-10-05 05:13:58</t>
+  </si>
+  <si>
+    <t>2023-10-12 06:34:50</t>
+  </si>
+  <si>
+    <t>2023-10-12 09:03:41</t>
+  </si>
+  <si>
+    <t>2023-10-13 10:56:57</t>
+  </si>
+  <si>
+    <t>Kesar Mango</t>
+  </si>
+  <si>
+    <t>Apple - Red Delicious / Washington, Regular</t>
+  </si>
+  <si>
+    <t>Apple - Red Delicious / Washington, Premium</t>
+  </si>
+  <si>
+    <t>Himayath Mango</t>
+  </si>
+  <si>
+    <t>Raw Mango - Rich in Vitamin C (Loose)</t>
+  </si>
+  <si>
+    <t>Sapota - Organically Grown</t>
+  </si>
+  <si>
+    <t>Mangosteen</t>
+  </si>
+  <si>
+    <t>Muskmelon -  Netted Medium</t>
+  </si>
+  <si>
+    <t>Banana - Robusta</t>
+  </si>
+  <si>
+    <t>Apple - Shimla, Regular</t>
+  </si>
+  <si>
+    <t>Pomegranate - Regular (Loose)</t>
+  </si>
+  <si>
+    <t>Baby Apple Shimla</t>
+  </si>
+  <si>
+    <t>Banana - Yelakki</t>
+  </si>
+  <si>
+    <t>Coconut - Medium</t>
+  </si>
+  <si>
+    <t>Papaya</t>
+  </si>
+  <si>
+    <t>Mini Orange Imported (Loose)</t>
+  </si>
+  <si>
+    <t>Pomegranate (Loose)</t>
+  </si>
+  <si>
+    <t>Watermelon -  Medium</t>
+  </si>
+  <si>
+    <t>Tender Coconut</t>
+  </si>
+  <si>
+    <t>Guava - Thai (Loose)</t>
+  </si>
+  <si>
+    <t>Banana - Nendran</t>
+  </si>
+  <si>
+    <t>Kiwi - Green</t>
+  </si>
+  <si>
+    <t>Mosambi - Economy (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala Economy</t>
+  </si>
+  <si>
+    <t>Orange - Nagpur, Regular (Loose)</t>
+  </si>
+  <si>
+    <t>Guava (Loose)</t>
+  </si>
+  <si>
+    <t>Pear - Green, Imported</t>
+  </si>
+  <si>
+    <t>Avocado - Imported, Medium (Loose)</t>
+  </si>
+  <si>
+    <t>Dragon Fruit (Loose)</t>
+  </si>
+  <si>
+    <t>Muskmelon -  Netted Small</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala, Regular</t>
+  </si>
+  <si>
+    <t>Papaya - Small</t>
+  </si>
+  <si>
+    <t>Avocado (Loose)</t>
+  </si>
+  <si>
+    <t>Grapes - Bangalore Blue</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala, Premium</t>
+  </si>
+  <si>
+    <t>Banana - Yelakki, Organically Grown</t>
+  </si>
+  <si>
+    <t>Mosambi - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Blueberry</t>
+  </si>
+  <si>
+    <t>Banana - Raw Green (Loose)</t>
+  </si>
+  <si>
+    <t>Sapota</t>
+  </si>
+  <si>
+    <t>Mango - Neelam</t>
+  </si>
+  <si>
+    <t>Raw Mango (Loose)</t>
+  </si>
+  <si>
+    <t>Pineapple</t>
+  </si>
+  <si>
+    <t>Fresh Figs</t>
+  </si>
+  <si>
+    <t>Coconut - Large</t>
+  </si>
+  <si>
+    <t>Pear Beauty</t>
+  </si>
+  <si>
+    <t>Pomegranate - Peeled</t>
+  </si>
+  <si>
+    <t>Banana - Red</t>
+  </si>
+  <si>
+    <t>Apple - Green, Premium</t>
+  </si>
+  <si>
+    <t>Orange - Nagpur, Small (Loose)</t>
+  </si>
+  <si>
+    <t>Orange - Imported (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Shimla, Premium</t>
+  </si>
+  <si>
+    <t>Pear - Naspathi, Indian</t>
+  </si>
+  <si>
+    <t>Banana - Poovan</t>
+  </si>
+  <si>
+    <t>Apple - Pink Lady</t>
+  </si>
+  <si>
+    <t>Apple - Ambri</t>
+  </si>
+  <si>
+    <t>Ber - Apple (Loose)</t>
+  </si>
+  <si>
+    <t>Zespri Kiwi - Sun Gold</t>
+  </si>
+  <si>
+    <t>Dates - Kimia, with Seed</t>
+  </si>
+  <si>
+    <t>Baby Banana - Robusta</t>
+  </si>
+  <si>
+    <t>Banana - Karpooravalli</t>
+  </si>
+  <si>
+    <t>Wood Apple - Kothbel (Loose)</t>
+  </si>
+  <si>
+    <t>Sugarcane - Diced</t>
+  </si>
+  <si>
+    <t>Longan</t>
+  </si>
+  <si>
+    <t>Banana - Nendran, Organically Grown</t>
+  </si>
+  <si>
+    <t>Coconut with Husk - Pooja Coconut</t>
+  </si>
+  <si>
+    <t>Pear - Beauty, Rich In Fiber, Vitamin C, Great For Gut Health</t>
+  </si>
+  <si>
+    <t>Langra Mango</t>
+  </si>
+  <si>
+    <t>Passion Fruit</t>
+  </si>
+  <si>
+    <t>Guava - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Mallika Mango</t>
+  </si>
+  <si>
+    <t>Cherry - Kashmir</t>
+  </si>
+  <si>
+    <t>Grapes - Red Globe</t>
+  </si>
+  <si>
+    <t>Mango - Raw Totapuri</t>
+  </si>
+  <si>
+    <t>Apple - Red Delicious, Economy</t>
+  </si>
+  <si>
+    <t>Soursop</t>
+  </si>
+  <si>
+    <t>Coconut - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Apricot - Dried</t>
+  </si>
+  <si>
+    <t>Pineapple - Slices</t>
+  </si>
+  <si>
+    <t>Mosambi - Premium (Loose)</t>
+  </si>
+  <si>
+    <t>Coconut - Diced</t>
+  </si>
+  <si>
+    <t>Plum - Indian</t>
+  </si>
+  <si>
+    <t>Papaya- Diced</t>
+  </si>
+  <si>
+    <t>Pomegranate - Single Serve, Peeled</t>
+  </si>
+  <si>
+    <t>Grape fruit - Imported (Loose)</t>
+  </si>
+  <si>
+    <t>Cherry</t>
+  </si>
+  <si>
+    <t>Mosambi (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Washington, Regular</t>
+  </si>
+  <si>
+    <t>Pineapple - Chunks, Single Serve</t>
+  </si>
+  <si>
+    <t>Apple - Fuji, Economy</t>
+  </si>
+  <si>
+    <t>Tamarind - Sweet</t>
+  </si>
+  <si>
+    <t>Rambutan</t>
+  </si>
+  <si>
+    <t>Apple - Fuji Premium</t>
+  </si>
+  <si>
+    <t>Watermelon - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Ber (Loose)</t>
+  </si>
+  <si>
+    <t>Plum - Imported</t>
+  </si>
+  <si>
+    <t>Lalbagh Mango - Sindhura</t>
+  </si>
+  <si>
+    <t>Guava - Thai Organic, White</t>
+  </si>
+  <si>
+    <t>Pomelo - Peeled</t>
+  </si>
+  <si>
+    <t>Cherry - Imported</t>
+  </si>
+  <si>
+    <t>Apple - Queen, Rose</t>
+  </si>
+  <si>
+    <t>₹380</t>
+  </si>
+  <si>
+    <t>₹702</t>
+  </si>
+  <si>
+    <t>₹211.25</t>
+  </si>
+  <si>
+    <t>₹69</t>
+  </si>
+  <si>
+    <t>₹403</t>
+  </si>
+  <si>
+    <t>₹328</t>
+  </si>
+  <si>
+    <t>₹307</t>
+  </si>
+  <si>
+    <t>₹216</t>
+  </si>
+  <si>
+    <t>₹80</t>
+  </si>
+  <si>
+    <t>₹405</t>
+  </si>
+  <si>
+    <t>₹268</t>
+  </si>
+  <si>
+    <t>₹87</t>
+  </si>
+  <si>
+    <t>₹214</t>
+  </si>
+  <si>
+    <t>₹196</t>
+  </si>
+  <si>
+    <t>₹518</t>
+  </si>
+  <si>
+    <t>₹428</t>
+  </si>
+  <si>
+    <t>₹443</t>
+  </si>
+  <si>
+    <t>₹136</t>
+  </si>
+  <si>
+    <t>₹530</t>
+  </si>
+  <si>
+    <t>₹191</t>
+  </si>
+  <si>
+    <t>₹439</t>
+  </si>
+  <si>
+    <t>₹127</t>
   </si>
   <si>
     <t>₹96</t>
   </si>
   <si>
-    <t>₹233.6</t>
-  </si>
-  <si>
-    <t>₹22.63</t>
-  </si>
-  <si>
-    <t>₹81.03</t>
-  </si>
-  <si>
-    <t>₹97.09</t>
-  </si>
-  <si>
-    <t>₹65.7</t>
-  </si>
-  <si>
-    <t>₹31.39</t>
-  </si>
-  <si>
-    <t>₹38.69</t>
-  </si>
-  <si>
-    <t>₹35.04</t>
-  </si>
-  <si>
-    <t>₹39.42</t>
-  </si>
-  <si>
-    <t>₹17.52</t>
-  </si>
-  <si>
-    <t>₹57.67</t>
-  </si>
-  <si>
-    <t>₹11.68</t>
-  </si>
-  <si>
-    <t>₹87.6</t>
-  </si>
-  <si>
-    <t>₹24.09</t>
-  </si>
-  <si>
-    <t>₹21</t>
-  </si>
-  <si>
-    <t>₹79.57</t>
-  </si>
-  <si>
-    <t>₹26.28</t>
-  </si>
-  <si>
-    <t>27% OFF</t>
-  </si>
-  <si>
-    <t>42% OFF</t>
-  </si>
-  <si>
-    <t>59% OFF</t>
-  </si>
-  <si>
-    <t>39% OFF</t>
-  </si>
-  <si>
-    <t>67% OFF</t>
-  </si>
-  <si>
-    <t>34% OFF</t>
+    <t>₹210.53</t>
+  </si>
+  <si>
+    <t>₹44</t>
+  </si>
+  <si>
+    <t>₹346.58</t>
+  </si>
+  <si>
+    <t>₹125</t>
+  </si>
+  <si>
+    <t>₹502</t>
+  </si>
+  <si>
+    <t>₹254</t>
+  </si>
+  <si>
+    <t>₹442</t>
+  </si>
+  <si>
+    <t>₹276</t>
+  </si>
+  <si>
+    <t>₹453</t>
+  </si>
+  <si>
+    <t>₹473</t>
+  </si>
+  <si>
+    <t>₹305</t>
+  </si>
+  <si>
+    <t>₹84</t>
+  </si>
+  <si>
+    <t>₹17</t>
+  </si>
+  <si>
+    <t>₹39.73</t>
+  </si>
+  <si>
+    <t>₹336</t>
+  </si>
+  <si>
+    <t>₹329</t>
+  </si>
+  <si>
+    <t>₹462</t>
+  </si>
+  <si>
+    <t>₹137</t>
+  </si>
+  <si>
+    <t>₹154</t>
+  </si>
+  <si>
+    <t>₹557</t>
+  </si>
+  <si>
+    <t>₹525</t>
+  </si>
+  <si>
+    <t>₹183</t>
+  </si>
+  <si>
+    <t>₹162</t>
+  </si>
+  <si>
+    <t>₹113</t>
+  </si>
+  <si>
+    <t>₹61</t>
+  </si>
+  <si>
+    <t>₹179</t>
+  </si>
+  <si>
+    <t>₹93.15</t>
+  </si>
+  <si>
+    <t>₹114</t>
+  </si>
+  <si>
+    <t>₹142</t>
+  </si>
+  <si>
+    <t>₹1284</t>
+  </si>
+  <si>
+    <t>₹1146</t>
+  </si>
+  <si>
+    <t>₹324.34</t>
+  </si>
+  <si>
+    <t>₹94.52</t>
+  </si>
+  <si>
+    <t>₹248</t>
+  </si>
+  <si>
+    <t>₹277.4</t>
+  </si>
+  <si>
+    <t>₹512.46</t>
+  </si>
+  <si>
+    <t>₹37.5</t>
+  </si>
+  <si>
+    <t>₹294.19</t>
+  </si>
+  <si>
+    <t>₹239.44</t>
+  </si>
+  <si>
+    <t>₹224.11</t>
+  </si>
+  <si>
+    <t>₹25.55</t>
+  </si>
+  <si>
+    <t>₹58.4</t>
+  </si>
+  <si>
+    <t>₹295.65</t>
+  </si>
+  <si>
+    <t>₹195.64</t>
+  </si>
+  <si>
+    <t>₹63.51</t>
+  </si>
+  <si>
+    <t>₹47</t>
+  </si>
+  <si>
+    <t>₹143.08</t>
+  </si>
+  <si>
+    <t>₹378.14</t>
+  </si>
+  <si>
+    <t>₹312</t>
+  </si>
+  <si>
+    <t>₹323.39</t>
+  </si>
+  <si>
+    <t>₹99.28</t>
+  </si>
+  <si>
+    <t>₹386.9</t>
+  </si>
+  <si>
+    <t>₹139.43</t>
+  </si>
+  <si>
+    <t>₹320.47</t>
+  </si>
+  <si>
+    <t>₹92.71</t>
+  </si>
+  <si>
+    <t>₹70.08</t>
+  </si>
+  <si>
+    <t>₹153.69</t>
+  </si>
+  <si>
+    <t>₹32.12</t>
+  </si>
+  <si>
+    <t>₹253</t>
+  </si>
+  <si>
+    <t>₹91.25</t>
+  </si>
+  <si>
+    <t>₹366.46</t>
+  </si>
+  <si>
+    <t>₹185.42</t>
+  </si>
+  <si>
+    <t>₹322.66</t>
+  </si>
+  <si>
+    <t>₹201.48</t>
+  </si>
+  <si>
+    <t>₹59.13</t>
+  </si>
+  <si>
+    <t>₹224.5</t>
+  </si>
+  <si>
+    <t>₹345.29</t>
+  </si>
+  <si>
+    <t>₹222.65</t>
+  </si>
+  <si>
+    <t>₹29.2</t>
+  </si>
+  <si>
+    <t>₹61.32</t>
+  </si>
+  <si>
+    <t>₹12.41</t>
+  </si>
+  <si>
+    <t>₹245.28</t>
+  </si>
+  <si>
+    <t>₹240.17</t>
+  </si>
+  <si>
+    <t>₹337.26</t>
+  </si>
+  <si>
+    <t>₹100.01</t>
+  </si>
+  <si>
+    <t>₹112.42</t>
+  </si>
+  <si>
+    <t>₹406.61</t>
+  </si>
+  <si>
+    <t>₹383.25</t>
+  </si>
+  <si>
+    <t>₹133.59</t>
+  </si>
+  <si>
+    <t>₹157.68</t>
+  </si>
+  <si>
+    <t>₹118.26</t>
+  </si>
+  <si>
+    <t>₹36.5</t>
+  </si>
+  <si>
+    <t>₹82.49</t>
+  </si>
+  <si>
+    <t>₹130.67</t>
+  </si>
+  <si>
+    <t>₹83.22</t>
+  </si>
+  <si>
+    <t>₹103.66</t>
+  </si>
+  <si>
+    <t>₹937.32</t>
+  </si>
+  <si>
+    <t>₹836.58</t>
+  </si>
+  <si>
+    <t>₹236.77</t>
+  </si>
+  <si>
+    <t>₹181.04</t>
   </si>
   <si>
     <t>43% OFF</t>
   </si>
   <si>
-    <t>66% OFF</t>
-  </si>
-  <si>
-    <t>65% OFF</t>
-  </si>
-  <si>
-    <t>63% OFF</t>
-  </si>
-  <si>
-    <t>73% OFF</t>
-  </si>
-  <si>
-    <t>64% OFF</t>
-  </si>
-  <si>
-    <t>52% OFF</t>
-  </si>
-  <si>
-    <t>57% OFF</t>
-  </si>
-  <si>
-    <t>45% OFF</t>
-  </si>
-  <si>
-    <t>31% OFF</t>
-  </si>
-  <si>
-    <t>51% OFF</t>
-  </si>
-  <si>
-    <t>35% OFF</t>
-  </si>
-  <si>
-    <t>55% OFF</t>
-  </si>
-  <si>
-    <t>32% OFF</t>
-  </si>
-  <si>
-    <t>56% OFF</t>
-  </si>
-  <si>
-    <t>48% OFF</t>
-  </si>
-  <si>
-    <t>41% OFF</t>
-  </si>
-  <si>
-    <t>60% OFF</t>
-  </si>
-  <si>
-    <t>36% OFF</t>
-  </si>
-  <si>
-    <t>Fresh Vegetables</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx 500-1kg)</t>
-  </si>
-  <si>
-    <t>5 kg - Multipack</t>
-  </si>
-  <si>
-    <t>1 kg</t>
-  </si>
-  <si>
-    <t>2 kg</t>
-  </si>
-  <si>
-    <t>250 g</t>
-  </si>
-  <si>
-    <t>500 g</t>
-  </si>
-  <si>
-    <t>1 pc - (approx. 400 to 600 g)</t>
-  </si>
-  <si>
-    <t>1 pc - (approx. 500 g to 800 g)</t>
-  </si>
-  <si>
-    <t>1 pack - (Approx. 180g - 200 g)</t>
-  </si>
-  <si>
-    <t>2 pcs</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx. 500 g - 800 g)</t>
-  </si>
-  <si>
-    <t>5 kg</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx. 100 g)</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx. 250g-500g)</t>
-  </si>
-  <si>
-    <t>10 pcs</t>
-  </si>
-  <si>
-    <t>100 g</t>
-  </si>
-  <si>
-    <t>350 g (2 pieces)</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx. 100g-250g)</t>
-  </si>
-  <si>
-    <t>1 Kg</t>
-  </si>
-  <si>
-    <t>1 pc - Approx. 400 to 600 g</t>
-  </si>
-  <si>
-    <t>1 pc</t>
-  </si>
-  <si>
-    <t>1 pc (Approx 500-1000 g)</t>
-  </si>
-  <si>
-    <t>1 pc (approx. 300-1.3 Kg)</t>
-  </si>
-  <si>
-    <t>2023-09-29 12:23:50</t>
-  </si>
-  <si>
-    <t>2023-10-05 05:13:58</t>
-  </si>
-  <si>
-    <t>2023-10-12 06:34:50</t>
-  </si>
-  <si>
-    <t>2023-10-12 09:03:41</t>
-  </si>
-  <si>
-    <t>2023-10-13 06:06:40</t>
-  </si>
-  <si>
-    <t>Kesar Mango</t>
-  </si>
-  <si>
-    <t>Apple - Red Delicious / Washington, Regular</t>
-  </si>
-  <si>
-    <t>Apple - Red Delicious / Washington, Premium</t>
-  </si>
-  <si>
-    <t>Himayath Mango</t>
-  </si>
-  <si>
-    <t>Raw Mango - Rich in Vitamin C (Loose)</t>
-  </si>
-  <si>
-    <t>Sapota - Organically Grown</t>
-  </si>
-  <si>
-    <t>Mangosteen</t>
-  </si>
-  <si>
-    <t>Muskmelon -  Netted Small</t>
-  </si>
-  <si>
-    <t>Banana - Robusta</t>
-  </si>
-  <si>
-    <t>Apple - Shimla, Regular</t>
-  </si>
-  <si>
-    <t>Pomegranate - Regular (Loose)</t>
-  </si>
-  <si>
-    <t>Baby Apple Shimla</t>
-  </si>
-  <si>
-    <t>Banana - Yelakki</t>
-  </si>
-  <si>
-    <t>Coconut - Medium</t>
-  </si>
-  <si>
-    <t>Papaya</t>
-  </si>
-  <si>
-    <t>Mini Orange Imported (Loose)</t>
-  </si>
-  <si>
-    <t>Pomegranate (Loose)</t>
-  </si>
-  <si>
-    <t>Watermelon -  Medium</t>
-  </si>
-  <si>
-    <t>Tender Coconut</t>
-  </si>
-  <si>
-    <t>Guava - Thai (Loose)</t>
-  </si>
-  <si>
-    <t>Banana - Nendran</t>
-  </si>
-  <si>
-    <t>Kiwi - Green</t>
-  </si>
-  <si>
-    <t>Mosambi - Economy (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala Economy</t>
-  </si>
-  <si>
-    <t>Orange - Nagpur, Regular (Loose)</t>
-  </si>
-  <si>
-    <t>Guava (Loose)</t>
-  </si>
-  <si>
-    <t>Pear - Green, Imported</t>
-  </si>
-  <si>
-    <t>Avocado - Imported, Medium (Loose)</t>
-  </si>
-  <si>
-    <t>Dragon Fruit (Loose)</t>
-  </si>
-  <si>
-    <t>Muskmelon -  Netted Medium</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala, Regular</t>
-  </si>
-  <si>
-    <t>Papaya - Small</t>
-  </si>
-  <si>
-    <t>Avocado (Loose)</t>
-  </si>
-  <si>
-    <t>Grapes - Bangalore Blue</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala, Premium</t>
-  </si>
-  <si>
-    <t>Banana - Yelakki, Organically Grown</t>
-  </si>
-  <si>
-    <t>Mosambi - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Blueberry</t>
-  </si>
-  <si>
-    <t>Banana - Raw Green (Loose)</t>
-  </si>
-  <si>
-    <t>Sapota</t>
-  </si>
-  <si>
-    <t>Mango - Neelam</t>
-  </si>
-  <si>
-    <t>Raw Mango (Loose)</t>
-  </si>
-  <si>
-    <t>Pineapple</t>
-  </si>
-  <si>
-    <t>Fresh Figs</t>
-  </si>
-  <si>
-    <t>Coconut - Large</t>
-  </si>
-  <si>
-    <t>Pear Beauty</t>
-  </si>
-  <si>
-    <t>Pomegranate - Peeled</t>
-  </si>
-  <si>
-    <t>Banana - Red</t>
-  </si>
-  <si>
-    <t>Apple - Green, Premium</t>
-  </si>
-  <si>
-    <t>Orange - Nagpur, Small (Loose)</t>
-  </si>
-  <si>
-    <t>Orange - Imported (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Shimla, Premium</t>
-  </si>
-  <si>
-    <t>Pear - Naspathi, Indian</t>
-  </si>
-  <si>
-    <t>Banana - Poovan</t>
-  </si>
-  <si>
-    <t>Apple - Pink Lady</t>
-  </si>
-  <si>
-    <t>Apple - Ambri</t>
-  </si>
-  <si>
-    <t>Ber - Apple (Loose)</t>
-  </si>
-  <si>
-    <t>Zespri Kiwi - Sun Gold</t>
-  </si>
-  <si>
-    <t>Dates - Kimia, with Seed</t>
-  </si>
-  <si>
-    <t>Baby Banana - Robusta</t>
-  </si>
-  <si>
-    <t>Banana - Karpooravalli</t>
-  </si>
-  <si>
-    <t>Wood Apple - Kothbel (Loose)</t>
-  </si>
-  <si>
-    <t>Sugarcane - Diced</t>
-  </si>
-  <si>
-    <t>Longan</t>
-  </si>
-  <si>
-    <t>Banana - Nendran, Organically Grown</t>
-  </si>
-  <si>
-    <t>Coconut with Husk - Pooja Coconut</t>
-  </si>
-  <si>
-    <t>Pear - Beauty, Rich In Fiber, Vitamin C, Great For Gut Health</t>
-  </si>
-  <si>
-    <t>Langra Mango</t>
-  </si>
-  <si>
-    <t>Passion Fruit</t>
-  </si>
-  <si>
-    <t>Guava - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Mallika Mango</t>
-  </si>
-  <si>
-    <t>Cherry - Kashmir</t>
-  </si>
-  <si>
-    <t>Grapes - Red Globe</t>
-  </si>
-  <si>
-    <t>Mango - Raw Totapuri</t>
-  </si>
-  <si>
-    <t>Apple - Red Delicious, Economy</t>
-  </si>
-  <si>
-    <t>Soursop</t>
-  </si>
-  <si>
-    <t>Coconut - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Apricot - Dried</t>
-  </si>
-  <si>
-    <t>Pineapple - Slices</t>
-  </si>
-  <si>
-    <t>Mosambi - Premium (Loose)</t>
-  </si>
-  <si>
-    <t>Coconut - Diced</t>
-  </si>
-  <si>
-    <t>Plum - Indian</t>
-  </si>
-  <si>
-    <t>Papaya- Diced</t>
-  </si>
-  <si>
-    <t>Pomegranate - Single Serve, Peeled</t>
-  </si>
-  <si>
-    <t>Grape fruit - Imported (Loose)</t>
-  </si>
-  <si>
-    <t>Cherry</t>
-  </si>
-  <si>
-    <t>Mosambi (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Washington, Regular</t>
-  </si>
-  <si>
-    <t>Pineapple - Chunks, Single Serve</t>
-  </si>
-  <si>
-    <t>Apple - Fuji, Economy</t>
-  </si>
-  <si>
-    <t>Tamarind - Sweet</t>
-  </si>
-  <si>
-    <t>Rambutan</t>
-  </si>
-  <si>
-    <t>Apple - Fuji Premium</t>
-  </si>
-  <si>
-    <t>Watermelon - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Ber (Loose)</t>
-  </si>
-  <si>
-    <t>Plum - Imported</t>
-  </si>
-  <si>
-    <t>Lalbagh Mango - Sindhura</t>
-  </si>
-  <si>
-    <t>Guava - Thai Organic, White</t>
-  </si>
-  <si>
-    <t>Pomelo - Peeled</t>
-  </si>
-  <si>
-    <t>Cherry - Imported</t>
-  </si>
-  <si>
-    <t>Apple - Queen, Rose</t>
-  </si>
-  <si>
-    <t>₹380</t>
-  </si>
-  <si>
-    <t>₹702</t>
-  </si>
-  <si>
-    <t>₹211.25</t>
-  </si>
-  <si>
-    <t>₹69</t>
-  </si>
-  <si>
-    <t>₹403</t>
-  </si>
-  <si>
-    <t>₹328</t>
-  </si>
-  <si>
-    <t>₹307</t>
-  </si>
-  <si>
-    <t>₹207</t>
-  </si>
-  <si>
-    <t>₹74</t>
-  </si>
-  <si>
-    <t>₹421</t>
-  </si>
-  <si>
-    <t>₹268</t>
-  </si>
-  <si>
-    <t>₹87</t>
-  </si>
-  <si>
-    <t>₹80</t>
-  </si>
-  <si>
-    <t>₹42</t>
-  </si>
-  <si>
-    <t>₹214</t>
-  </si>
-  <si>
-    <t>₹236</t>
-  </si>
-  <si>
-    <t>₹257</t>
-  </si>
-  <si>
-    <t>₹518</t>
-  </si>
-  <si>
-    <t>₹428</t>
-  </si>
-  <si>
-    <t>₹435</t>
-  </si>
-  <si>
-    <t>₹136</t>
-  </si>
-  <si>
-    <t>₹530</t>
-  </si>
-  <si>
-    <t>₹198</t>
-  </si>
-  <si>
-    <t>₹439</t>
-  </si>
-  <si>
-    <t>₹100</t>
-  </si>
-  <si>
-    <t>₹127</t>
-  </si>
-  <si>
-    <t>₹210.53</t>
-  </si>
-  <si>
-    <t>₹44</t>
-  </si>
-  <si>
-    <t>₹128</t>
-  </si>
-  <si>
-    <t>₹346.58</t>
-  </si>
-  <si>
-    <t>₹125</t>
-  </si>
-  <si>
-    <t>₹502</t>
-  </si>
-  <si>
-    <t>₹254</t>
-  </si>
-  <si>
-    <t>₹442</t>
-  </si>
-  <si>
-    <t>₹273</t>
-  </si>
-  <si>
-    <t>₹453</t>
-  </si>
-  <si>
-    <t>₹381</t>
-  </si>
-  <si>
-    <t>₹305</t>
-  </si>
-  <si>
-    <t>₹47</t>
-  </si>
-  <si>
-    <t>₹84</t>
-  </si>
-  <si>
-    <t>₹17</t>
-  </si>
-  <si>
-    <t>₹39.73</t>
-  </si>
-  <si>
-    <t>₹588</t>
-  </si>
-  <si>
-    <t>₹105</t>
-  </si>
-  <si>
-    <t>₹329</t>
-  </si>
-  <si>
-    <t>₹462</t>
-  </si>
-  <si>
-    <t>₹137</t>
-  </si>
-  <si>
-    <t>₹154</t>
-  </si>
-  <si>
-    <t>₹557</t>
-  </si>
-  <si>
-    <t>₹525</t>
-  </si>
-  <si>
-    <t>₹191</t>
-  </si>
-  <si>
-    <t>₹216</t>
-  </si>
-  <si>
-    <t>₹162</t>
-  </si>
-  <si>
-    <t>₹113</t>
-  </si>
-  <si>
-    <t>₹106</t>
-  </si>
-  <si>
-    <t>₹61</t>
-  </si>
-  <si>
-    <t>₹179</t>
-  </si>
-  <si>
-    <t>₹93.15</t>
-  </si>
-  <si>
-    <t>₹142</t>
-  </si>
-  <si>
-    <t>₹1284</t>
-  </si>
-  <si>
-    <t>₹1146</t>
-  </si>
-  <si>
-    <t>₹324.34</t>
-  </si>
-  <si>
-    <t>₹94.52</t>
-  </si>
-  <si>
-    <t>₹248</t>
-  </si>
-  <si>
-    <t>₹277.4</t>
-  </si>
-  <si>
-    <t>₹512.46</t>
-  </si>
-  <si>
-    <t>₹37.5</t>
-  </si>
-  <si>
-    <t>₹294.19</t>
-  </si>
-  <si>
-    <t>₹224.11</t>
-  </si>
-  <si>
-    <t>₹54.02</t>
-  </si>
-  <si>
-    <t>₹246</t>
-  </si>
-  <si>
-    <t>₹195.64</t>
-  </si>
-  <si>
-    <t>₹63.51</t>
-  </si>
-  <si>
-    <t>₹135</t>
-  </si>
-  <si>
-    <t>₹172.28</t>
-  </si>
-  <si>
-    <t>₹187.61</t>
-  </si>
-  <si>
-    <t>₹78</t>
-  </si>
-  <si>
-    <t>₹378.14</t>
-  </si>
-  <si>
-    <t>₹59</t>
-  </si>
-  <si>
-    <t>₹312.44</t>
-  </si>
-  <si>
-    <t>₹317.55</t>
-  </si>
-  <si>
-    <t>₹99.28</t>
-  </si>
-  <si>
-    <t>₹386.9</t>
-  </si>
-  <si>
-    <t>₹144.54</t>
-  </si>
-  <si>
-    <t>₹320.47</t>
-  </si>
-  <si>
-    <t>₹92.71</t>
-  </si>
-  <si>
-    <t>₹70.08</t>
-  </si>
-  <si>
-    <t>₹153.69</t>
-  </si>
-  <si>
-    <t>₹32.12</t>
-  </si>
-  <si>
-    <t>₹93.44</t>
-  </si>
-  <si>
-    <t>₹253</t>
-  </si>
-  <si>
-    <t>₹91.25</t>
-  </si>
-  <si>
-    <t>₹366.46</t>
-  </si>
-  <si>
-    <t>₹185.42</t>
-  </si>
-  <si>
-    <t>₹322.66</t>
-  </si>
-  <si>
-    <t>₹199.29</t>
-  </si>
-  <si>
-    <t>₹59.13</t>
-  </si>
-  <si>
-    <t>₹224.5</t>
-  </si>
-  <si>
-    <t>₹239.44</t>
-  </si>
-  <si>
-    <t>₹278.13</t>
-  </si>
-  <si>
-    <t>₹222.65</t>
-  </si>
-  <si>
-    <t>₹34.31</t>
-  </si>
-  <si>
-    <t>₹61.32</t>
-  </si>
-  <si>
-    <t>₹12.41</t>
-  </si>
-  <si>
-    <t>₹429.24</t>
-  </si>
-  <si>
-    <t>₹76.65</t>
-  </si>
-  <si>
-    <t>₹240.17</t>
-  </si>
-  <si>
-    <t>₹337.26</t>
-  </si>
-  <si>
-    <t>₹100.01</t>
-  </si>
-  <si>
-    <t>₹112.42</t>
-  </si>
-  <si>
-    <t>₹406.61</t>
-  </si>
-  <si>
-    <t>₹383.25</t>
-  </si>
-  <si>
-    <t>₹139.43</t>
-  </si>
-  <si>
-    <t>₹157.68</t>
-  </si>
-  <si>
-    <t>₹118.26</t>
-  </si>
-  <si>
-    <t>₹36.5</t>
-  </si>
-  <si>
-    <t>₹82.49</t>
-  </si>
-  <si>
-    <t>₹77.38</t>
-  </si>
-  <si>
-    <t>₹35</t>
-  </si>
-  <si>
-    <t>₹130.67</t>
-  </si>
-  <si>
-    <t>₹151.11</t>
-  </si>
-  <si>
-    <t>₹103.66</t>
-  </si>
-  <si>
-    <t>₹937.32</t>
-  </si>
-  <si>
-    <t>₹836.58</t>
-  </si>
-  <si>
-    <t>₹236.77</t>
-  </si>
-  <si>
-    <t>₹181.04</t>
-  </si>
-  <si>
-    <t>46% OFF</t>
-  </si>
-  <si>
-    <t>33% OFF</t>
-  </si>
-  <si>
     <t>37% OFF</t>
   </si>
   <si>
@@ -1589,42 +1571,39 @@
     <t>4 pcs</t>
   </si>
   <si>
+    <t>1 pc - 1.2 - 2 kg</t>
+  </si>
+  <si>
+    <t>1 kg - (5-6 pcs per kg)</t>
+  </si>
+  <si>
+    <t>1 kg - (Approx. 11-12 pcs)</t>
+  </si>
+  <si>
+    <t>1 pc - (approx. 450g to 500)</t>
+  </si>
+  <si>
+    <t>4 pcs - (Approx. 800 g - 880 g)</t>
+  </si>
+  <si>
+    <t>1 pc - 2.5 - 3.8 kg</t>
+  </si>
+  <si>
+    <t>3 pcs</t>
+  </si>
+  <si>
+    <t>4 pcs - (Approx.450 g-500 g)</t>
+  </si>
+  <si>
+    <t>1 kg - (Approx. 6 - 7 pcs)</t>
+  </si>
+  <si>
+    <t>1 pc - 250 to 350 g</t>
+  </si>
+  <si>
     <t>1 pc - 500g-900g</t>
   </si>
   <si>
-    <t>1 kg - (5-6 pcs per kg)</t>
-  </si>
-  <si>
-    <t>1 kg - (Approx. 11-12 pcs)</t>
-  </si>
-  <si>
-    <t>1 pc - (approx. 450g to 500)</t>
-  </si>
-  <si>
-    <t>4 pcs - (Approx. 800 g - 880 g)</t>
-  </si>
-  <si>
-    <t>1 pc - 2.5 - 3.8 kg</t>
-  </si>
-  <si>
-    <t>3 pcs</t>
-  </si>
-  <si>
-    <t>3 kg</t>
-  </si>
-  <si>
-    <t>4 pcs - (Approx.450 g-500 g)</t>
-  </si>
-  <si>
-    <t>1 kg - (Approx. 6 - 7 pcs)</t>
-  </si>
-  <si>
-    <t>1 pc - 250 to 350 g</t>
-  </si>
-  <si>
-    <t>1 pc - 1.2 - 2 kg</t>
-  </si>
-  <si>
     <t>1 pc - 500 g - 800 g</t>
   </si>
   <si>
@@ -1700,10 +1679,10 @@
     <t>2023-10-05 05:14:36</t>
   </si>
   <si>
-    <t>2023-10-13 05:31:21</t>
-  </si>
-  <si>
     <t>2023-10-13 06:07:19</t>
+  </si>
+  <si>
+    <t>2023-10-13 10:57:38</t>
   </si>
 </sst>
 </file>
@@ -2101,22 +2080,22 @@
         <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D2" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="H2" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2127,22 +2106,22 @@
         <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="E3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F3" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G3" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="H3" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2153,19 +2132,19 @@
         <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D4" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="F4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G4" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H4" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2176,19 +2155,19 @@
         <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D5" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="F5" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G5" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H5" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2199,22 +2178,19 @@
         <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E6" t="s">
-        <v>173</v>
+        <v>246</v>
       </c>
       <c r="F6" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G6" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="H6" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2225,22 +2201,19 @@
         <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D7" t="s">
-        <v>237</v>
-      </c>
-      <c r="E7" t="s">
-        <v>174</v>
+        <v>247</v>
       </c>
       <c r="F7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="H7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2251,22 +2224,19 @@
         <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" t="s">
-        <v>238</v>
-      </c>
-      <c r="E8" t="s">
-        <v>123</v>
+        <v>248</v>
       </c>
       <c r="F8" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G8" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H8" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2277,22 +2247,19 @@
         <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D9" t="s">
-        <v>239</v>
-      </c>
-      <c r="E9" t="s">
-        <v>166</v>
+        <v>249</v>
       </c>
       <c r="F9" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G9" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H9" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2300,25 +2267,22 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D10" t="s">
-        <v>240</v>
-      </c>
-      <c r="E10" t="s">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="F10" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G10" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="H10" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2326,25 +2290,22 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D11" t="s">
-        <v>241</v>
-      </c>
-      <c r="E11" t="s">
-        <v>176</v>
+        <v>251</v>
       </c>
       <c r="F11" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G11" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="H11" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2352,25 +2313,22 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" t="s">
-        <v>242</v>
-      </c>
-      <c r="E12" t="s">
-        <v>114</v>
+        <v>252</v>
       </c>
       <c r="F12" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G12" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H12" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2378,25 +2336,22 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C13" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="D13" t="s">
-        <v>243</v>
-      </c>
-      <c r="E13" t="s">
-        <v>177</v>
+        <v>253</v>
       </c>
       <c r="F13" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G13" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H13" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2404,25 +2359,22 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C14" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D14" t="s">
-        <v>244</v>
-      </c>
-      <c r="E14" t="s">
-        <v>178</v>
+        <v>254</v>
       </c>
       <c r="F14" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G14" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H14" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2430,25 +2382,22 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D15" t="s">
-        <v>245</v>
-      </c>
-      <c r="E15" t="s">
-        <v>179</v>
+        <v>255</v>
       </c>
       <c r="F15" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G15" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="H15" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2456,25 +2405,22 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D16" t="s">
-        <v>233</v>
-      </c>
-      <c r="E16" t="s">
-        <v>180</v>
+        <v>243</v>
       </c>
       <c r="F16" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G16" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="H16" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2482,25 +2428,22 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C17" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D17" t="s">
-        <v>246</v>
-      </c>
-      <c r="E17" t="s">
-        <v>181</v>
+        <v>256</v>
       </c>
       <c r="F17" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G17" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="H17" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2508,25 +2451,22 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C18" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D18" t="s">
-        <v>233</v>
-      </c>
-      <c r="E18" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="F18" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G18" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H18" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2534,25 +2474,22 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D19" t="s">
-        <v>233</v>
-      </c>
-      <c r="E19" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
       <c r="F19" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G19" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H19" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2560,25 +2497,22 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C20" t="s">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="D20" t="s">
-        <v>247</v>
-      </c>
-      <c r="E20" t="s">
-        <v>139</v>
+        <v>257</v>
       </c>
       <c r="F20" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G20" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="H20" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2586,25 +2520,22 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C21" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D21" t="s">
-        <v>248</v>
-      </c>
-      <c r="E21" t="s">
-        <v>160</v>
+        <v>258</v>
       </c>
       <c r="F21" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G21" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="H21" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2612,25 +2543,22 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C22" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="D22" t="s">
-        <v>247</v>
-      </c>
-      <c r="E22" t="s">
-        <v>133</v>
+        <v>259</v>
       </c>
       <c r="F22" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G22" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H22" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2638,25 +2566,22 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C23" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D23" t="s">
-        <v>233</v>
-      </c>
-      <c r="E23" t="s">
-        <v>184</v>
+        <v>243</v>
       </c>
       <c r="F23" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G23" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H23" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2664,25 +2589,22 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C24" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="D24" t="s">
-        <v>249</v>
-      </c>
-      <c r="E24" t="s">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="F24" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G24" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H24" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2690,25 +2612,22 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D25" t="s">
-        <v>233</v>
-      </c>
-      <c r="E25" t="s">
-        <v>185</v>
+        <v>243</v>
       </c>
       <c r="F25" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G25" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="H25" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2716,25 +2635,22 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C26" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D26" t="s">
-        <v>233</v>
-      </c>
-      <c r="E26" t="s">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c r="F26" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G26" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H26" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2742,25 +2658,22 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C27" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D27" t="s">
-        <v>250</v>
-      </c>
-      <c r="E27" t="s">
-        <v>187</v>
+        <v>261</v>
       </c>
       <c r="F27" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G27" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="H27" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2768,25 +2681,22 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C28" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D28" t="s">
-        <v>233</v>
-      </c>
-      <c r="E28" t="s">
-        <v>188</v>
+        <v>243</v>
       </c>
       <c r="F28" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G28" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H28" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2794,25 +2704,22 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C29" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D29" t="s">
-        <v>251</v>
-      </c>
-      <c r="E29" t="s">
-        <v>187</v>
+        <v>262</v>
       </c>
       <c r="F29" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G29" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H29" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2820,25 +2727,22 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C30" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D30" t="s">
-        <v>233</v>
-      </c>
-      <c r="E30" t="s">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="F30" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G30" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H30" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2846,25 +2750,22 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C31" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D31" t="s">
-        <v>233</v>
-      </c>
-      <c r="E31" t="s">
-        <v>184</v>
+        <v>243</v>
       </c>
       <c r="F31" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G31" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H31" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2872,25 +2773,22 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C32" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D32" t="s">
-        <v>233</v>
-      </c>
-      <c r="E32" t="s">
-        <v>190</v>
+        <v>243</v>
       </c>
       <c r="F32" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G32" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="H32" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2904,19 +2802,16 @@
         <v>112</v>
       </c>
       <c r="D33" t="s">
-        <v>252</v>
-      </c>
-      <c r="E33" t="s">
-        <v>112</v>
+        <v>263</v>
       </c>
       <c r="F33" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G33" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H33" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2927,22 +2822,19 @@
         <v>112</v>
       </c>
       <c r="C34" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="D34" t="s">
-        <v>253</v>
-      </c>
-      <c r="E34" t="s">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="F34" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G34" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H34" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2950,25 +2842,22 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C35" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D35" t="s">
-        <v>233</v>
-      </c>
-      <c r="E35" t="s">
-        <v>191</v>
+        <v>243</v>
       </c>
       <c r="F35" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G35" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H35" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2976,25 +2865,22 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C36" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="D36" t="s">
-        <v>233</v>
-      </c>
-      <c r="E36" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="F36" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G36" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H36" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3002,25 +2888,22 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="C37" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D37" t="s">
-        <v>233</v>
-      </c>
-      <c r="E37" t="s">
-        <v>193</v>
+        <v>243</v>
       </c>
       <c r="F37" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G37" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H37" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3028,25 +2911,22 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D38" t="s">
-        <v>233</v>
-      </c>
-      <c r="E38" t="s">
-        <v>194</v>
+        <v>243</v>
       </c>
       <c r="F38" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G38" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H38" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3054,25 +2934,22 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C39" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D39" t="s">
-        <v>233</v>
-      </c>
-      <c r="E39" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="F39" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G39" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H39" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3080,25 +2957,22 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C40" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="D40" t="s">
-        <v>233</v>
-      </c>
-      <c r="E40" t="s">
-        <v>196</v>
+        <v>243</v>
       </c>
       <c r="F40" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G40" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="H40" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3106,25 +2980,22 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C41" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D41" t="s">
-        <v>233</v>
-      </c>
-      <c r="E41" t="s">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="F41" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G41" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H41" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3132,25 +3003,22 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C42" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D42" t="s">
-        <v>233</v>
-      </c>
-      <c r="E42" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="F42" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G42" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H42" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3161,22 +3029,19 @@
         <v>109</v>
       </c>
       <c r="C43" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D43" t="s">
-        <v>233</v>
-      </c>
-      <c r="E43" t="s">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c r="F43" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G43" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H43" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3184,25 +3049,22 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C44" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D44" t="s">
-        <v>233</v>
-      </c>
-      <c r="E44" t="s">
-        <v>199</v>
+        <v>243</v>
       </c>
       <c r="F44" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G44" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="H44" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3210,25 +3072,22 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C45" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="D45" t="s">
-        <v>233</v>
-      </c>
-      <c r="E45" t="s">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="F45" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G45" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="H45" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3236,25 +3095,22 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C46" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D46" t="s">
-        <v>233</v>
-      </c>
-      <c r="E46" t="s">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="F46" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G46" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H46" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3262,25 +3118,22 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C47" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D47" t="s">
-        <v>233</v>
-      </c>
-      <c r="E47" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="F47" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G47" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H47" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3288,25 +3141,22 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C48" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E48" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="F48" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G48" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H48" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3314,25 +3164,22 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C49" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D49" t="s">
-        <v>233</v>
-      </c>
-      <c r="E49" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="F49" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G49" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H49" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3340,25 +3187,22 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C50" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D50" t="s">
-        <v>254</v>
-      </c>
-      <c r="E50" t="s">
-        <v>205</v>
+        <v>265</v>
       </c>
       <c r="F50" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G50" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H50" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3366,25 +3210,22 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="C51" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D51" t="s">
-        <v>233</v>
-      </c>
-      <c r="E51" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="F51" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G51" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H51" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3392,25 +3233,22 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C52" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D52" t="s">
-        <v>233</v>
-      </c>
-      <c r="E52" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="F52" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G52" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="H52" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3418,25 +3256,22 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C53" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D53" t="s">
-        <v>255</v>
-      </c>
-      <c r="E53" t="s">
-        <v>208</v>
+        <v>259</v>
       </c>
       <c r="F53" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G53" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H53" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3444,25 +3279,22 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C54" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D54" t="s">
-        <v>233</v>
-      </c>
-      <c r="E54" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="F54" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G54" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H54" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3470,25 +3302,22 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C55" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D55" t="s">
-        <v>233</v>
-      </c>
-      <c r="E55" t="s">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="F55" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G55" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="H55" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3496,25 +3325,22 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C56" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D56" t="s">
-        <v>233</v>
-      </c>
-      <c r="E56" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="F56" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G56" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H56" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3522,25 +3348,22 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C57" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D57" t="s">
-        <v>233</v>
-      </c>
-      <c r="E57" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="F57" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G57" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H57" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3548,25 +3371,22 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C58" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="D58" t="s">
-        <v>233</v>
-      </c>
-      <c r="E58" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="F58" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G58" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H58" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3577,22 +3397,19 @@
         <v>152</v>
       </c>
       <c r="C59" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D59" t="s">
-        <v>233</v>
-      </c>
-      <c r="E59" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="F59" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G59" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H59" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3600,25 +3417,22 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="C60" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D60" t="s">
-        <v>256</v>
-      </c>
-      <c r="E60" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="F60" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G60" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="H60" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3626,25 +3440,22 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="C61" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="D61" t="s">
-        <v>233</v>
-      </c>
-      <c r="E61" t="s">
-        <v>188</v>
+        <v>243</v>
       </c>
       <c r="F61" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G61" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H61" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3652,25 +3463,22 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="C62" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D62" t="s">
-        <v>233</v>
-      </c>
-      <c r="E62" t="s">
-        <v>193</v>
+        <v>243</v>
       </c>
       <c r="F62" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G62" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H62" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3678,25 +3486,22 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C63" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D63" t="s">
-        <v>257</v>
-      </c>
-      <c r="E63" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="F63" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G63" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H63" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3704,25 +3509,22 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C64" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="D64" t="s">
-        <v>233</v>
-      </c>
-      <c r="E64" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="F64" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G64" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H64" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3730,25 +3532,22 @@
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D65" t="s">
-        <v>234</v>
-      </c>
-      <c r="E65" t="s">
-        <v>124</v>
+        <v>244</v>
       </c>
       <c r="F65" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G65" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="H65" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3759,22 +3558,19 @@
         <v>109</v>
       </c>
       <c r="C66" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D66" t="s">
-        <v>233</v>
-      </c>
-      <c r="E66" t="s">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c r="F66" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G66" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H66" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3782,25 +3578,22 @@
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C67" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="D67" t="s">
-        <v>233</v>
-      </c>
-      <c r="E67" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="F67" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G67" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="H67" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3808,25 +3601,22 @@
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="C68" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="D68" t="s">
-        <v>233</v>
-      </c>
-      <c r="E68" t="s">
-        <v>188</v>
+        <v>243</v>
       </c>
       <c r="F68" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G68" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H68" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3834,25 +3624,22 @@
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C69" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D69" t="s">
-        <v>233</v>
-      </c>
-      <c r="E69" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="F69" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G69" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H69" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3860,25 +3647,22 @@
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D70" t="s">
-        <v>233</v>
-      </c>
-      <c r="E70" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="F70" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G70" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="H70" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3886,25 +3670,22 @@
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="C71" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="D71" t="s">
-        <v>233</v>
-      </c>
-      <c r="E71" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="F71" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G71" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="H71" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3912,25 +3693,22 @@
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C72" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="D72" t="s">
-        <v>233</v>
-      </c>
-      <c r="E72" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="F72" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G72" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H72" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3938,25 +3716,22 @@
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C73" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="D73" t="s">
-        <v>233</v>
-      </c>
-      <c r="E73" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="F73" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G73" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H73" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3964,25 +3739,22 @@
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C74" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="D74" t="s">
-        <v>233</v>
-      </c>
-      <c r="E74" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="F74" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G74" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="H74" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3990,25 +3762,22 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C75" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D75" t="s">
-        <v>233</v>
-      </c>
-      <c r="E75" t="s">
-        <v>119</v>
+        <v>243</v>
       </c>
       <c r="F75" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G75" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H75" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4016,25 +3785,22 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C76" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="D76" t="s">
-        <v>233</v>
-      </c>
-      <c r="E76" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="F76" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G76" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H76" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4042,25 +3808,22 @@
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="C77" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="D77" t="s">
-        <v>233</v>
-      </c>
-      <c r="E77" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="F77" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G77" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="H77" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4068,25 +3831,22 @@
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C78" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="D78" t="s">
-        <v>233</v>
-      </c>
-      <c r="E78" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="F78" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G78" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H78" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4094,25 +3854,22 @@
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C79" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="D79" t="s">
-        <v>233</v>
-      </c>
-      <c r="E79" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="F79" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G79" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="H79" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4120,25 +3877,22 @@
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="C80" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="D80" t="s">
-        <v>233</v>
-      </c>
-      <c r="E80" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="F80" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G80" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H80" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4146,25 +3900,22 @@
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C81" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D81" t="s">
-        <v>233</v>
-      </c>
-      <c r="E81" t="s">
-        <v>180</v>
+        <v>243</v>
       </c>
       <c r="F81" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G81" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="H81" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4172,25 +3923,22 @@
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C82" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D82" t="s">
-        <v>233</v>
-      </c>
-      <c r="E82" t="s">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="F82" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G82" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="H82" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4198,25 +3946,22 @@
         <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="C83" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D83" t="s">
-        <v>233</v>
-      </c>
-      <c r="E83" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="F83" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G83" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H83" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4224,25 +3969,22 @@
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="C84" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="D84" t="s">
-        <v>233</v>
-      </c>
-      <c r="E84" t="s">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="F84" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G84" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="H84" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4250,25 +3992,22 @@
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="C85" t="s">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="D85" t="s">
-        <v>233</v>
-      </c>
-      <c r="E85" t="s">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="F85" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G85" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H85" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4276,25 +4015,22 @@
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C86" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D86" t="s">
-        <v>233</v>
-      </c>
-      <c r="E86" t="s">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="F86" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G86" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H86" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4302,25 +4038,22 @@
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C87" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="D87" t="s">
-        <v>233</v>
-      </c>
-      <c r="E87" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="F87" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G87" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H87" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4328,25 +4061,22 @@
         <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="C88" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="D88" t="s">
-        <v>233</v>
-      </c>
-      <c r="E88" t="s">
-        <v>194</v>
+        <v>243</v>
       </c>
       <c r="F88" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G88" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="H88" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4354,25 +4084,22 @@
         <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C89" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="D89" t="s">
-        <v>233</v>
-      </c>
-      <c r="E89" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="F89" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G89" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="H89" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4380,25 +4107,22 @@
         <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C90" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D90" t="s">
-        <v>233</v>
-      </c>
-      <c r="E90" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="F90" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G90" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H90" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4406,25 +4130,22 @@
         <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C91" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D91" t="s">
-        <v>233</v>
-      </c>
-      <c r="E91" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="F91" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G91" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="H91" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4432,25 +4153,22 @@
         <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C92" t="s">
-        <v>222</v>
+        <v>176</v>
       </c>
       <c r="D92" t="s">
-        <v>233</v>
-      </c>
-      <c r="E92" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="F92" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G92" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="H92" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4458,25 +4176,22 @@
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C93" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="D93" t="s">
-        <v>233</v>
-      </c>
-      <c r="E93" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="F93" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G93" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H93" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4484,25 +4199,22 @@
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C94" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="D94" t="s">
-        <v>233</v>
-      </c>
-      <c r="E94" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="F94" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G94" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="H94" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4510,25 +4222,22 @@
         <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C95" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="D95" t="s">
-        <v>253</v>
-      </c>
-      <c r="E95" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="F95" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G95" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H95" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4536,25 +4245,22 @@
         <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C96" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="D96" t="s">
-        <v>233</v>
-      </c>
-      <c r="E96" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="F96" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G96" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H96" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4565,22 +4271,19 @@
         <v>109</v>
       </c>
       <c r="C97" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D97" t="s">
-        <v>233</v>
-      </c>
-      <c r="E97" t="s">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c r="F97" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G97" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H97" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4588,25 +4291,22 @@
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="C98" t="s">
-        <v>213</v>
+        <v>108</v>
       </c>
       <c r="D98" t="s">
-        <v>233</v>
-      </c>
-      <c r="E98" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="F98" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G98" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H98" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4614,25 +4314,22 @@
         <v>105</v>
       </c>
       <c r="B99" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C99" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="D99" t="s">
-        <v>233</v>
-      </c>
-      <c r="E99" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="F99" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G99" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="H99" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -4676,2625 +4373,2349 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D2" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H2" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B3" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="C3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="E3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F3" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G3" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="H3" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B4" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D4" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="E4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F4" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G4" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="H4" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="B5" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="C5" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D5" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="E5" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F5" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G5" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H5" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B6" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="C6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D6" t="s">
-        <v>514</v>
+        <v>253</v>
       </c>
       <c r="E6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F6" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G6" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H6" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="E7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H7" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B8" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="C8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D8" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="E8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F8" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G8" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="H8" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C9" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="D9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E9" t="s">
         <v>233</v>
       </c>
       <c r="F9" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G9" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="H9" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B10" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
         <v>106</v>
       </c>
       <c r="D10" t="s">
-        <v>249</v>
-      </c>
-      <c r="E10" t="s">
-        <v>106</v>
+        <v>260</v>
       </c>
       <c r="F10" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G10" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H10" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B11" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>457</v>
       </c>
       <c r="D11" t="s">
-        <v>247</v>
-      </c>
-      <c r="E11" t="s">
-        <v>136</v>
+        <v>243</v>
       </c>
       <c r="F11" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G11" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="H11" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="B12" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="C12" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D12" t="s">
-        <v>233</v>
-      </c>
-      <c r="E12" t="s">
-        <v>456</v>
+        <v>243</v>
       </c>
       <c r="F12" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G12" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="H12" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B13" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="C13" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="D13" t="s">
-        <v>515</v>
-      </c>
-      <c r="E13" t="s">
-        <v>131</v>
+        <v>249</v>
       </c>
       <c r="F13" t="s">
+        <v>514</v>
+      </c>
+      <c r="G13" t="s">
         <v>520</v>
       </c>
-      <c r="G13" t="s">
-        <v>526</v>
-      </c>
       <c r="H13" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="B14" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D14" t="s">
-        <v>247</v>
-      </c>
-      <c r="E14" t="s">
-        <v>150</v>
+        <v>509</v>
       </c>
       <c r="F14" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G14" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H14" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C15" t="s">
-        <v>170</v>
+        <v>459</v>
       </c>
       <c r="D15" t="s">
-        <v>233</v>
-      </c>
-      <c r="E15" t="s">
-        <v>170</v>
+        <v>243</v>
       </c>
       <c r="F15" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G15" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H15" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B16" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="C16" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D16" t="s">
-        <v>233</v>
-      </c>
-      <c r="E16" t="s">
-        <v>457</v>
+        <v>243</v>
       </c>
       <c r="F16" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G16" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H16" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B17" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="C17" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D17" t="s">
-        <v>234</v>
-      </c>
-      <c r="E17" t="s">
-        <v>458</v>
+        <v>243</v>
       </c>
       <c r="F17" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G17" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H17" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B18" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="C18" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D18" t="s">
-        <v>233</v>
-      </c>
-      <c r="E18" t="s">
-        <v>459</v>
+        <v>243</v>
       </c>
       <c r="F18" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G18" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="H18" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B19" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="C19" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D19" t="s">
-        <v>233</v>
-      </c>
-      <c r="E19" t="s">
-        <v>460</v>
+        <v>243</v>
       </c>
       <c r="F19" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G19" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="H19" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B20" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C20" t="s">
-        <v>426</v>
+        <v>464</v>
       </c>
       <c r="D20" t="s">
-        <v>255</v>
-      </c>
-      <c r="E20" t="s">
-        <v>426</v>
+        <v>257</v>
       </c>
       <c r="F20" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G20" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="H20" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D21" t="s">
-        <v>233</v>
-      </c>
-      <c r="E21" t="s">
-        <v>185</v>
+        <v>243</v>
       </c>
       <c r="F21" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G21" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="H21" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B22" t="s">
-        <v>401</v>
+        <v>129</v>
       </c>
       <c r="C22" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="D22" t="s">
-        <v>248</v>
-      </c>
-      <c r="E22" t="s">
-        <v>133</v>
+        <v>258</v>
       </c>
       <c r="F22" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G22" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H22" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B23" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C23" t="s">
-        <v>461</v>
+        <v>166</v>
       </c>
       <c r="D23" t="s">
-        <v>516</v>
-      </c>
-      <c r="E23" t="s">
-        <v>461</v>
+        <v>510</v>
       </c>
       <c r="F23" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G23" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="H23" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B24" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C24" t="s">
-        <v>462</v>
+        <v>131</v>
       </c>
       <c r="D24" t="s">
-        <v>233</v>
-      </c>
-      <c r="E24" t="s">
-        <v>462</v>
+        <v>511</v>
       </c>
       <c r="F24" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G24" t="s">
-        <v>531</v>
+        <v>269</v>
       </c>
       <c r="H24" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B25" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C25" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D25" t="s">
-        <v>233</v>
-      </c>
-      <c r="E25" t="s">
-        <v>463</v>
+        <v>243</v>
       </c>
       <c r="F25" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G25" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="H25" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B26" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D26" t="s">
-        <v>252</v>
-      </c>
-      <c r="E26" t="s">
-        <v>145</v>
+        <v>511</v>
       </c>
       <c r="F26" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G26" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="H26" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B27" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C27" t="s">
-        <v>464</v>
+        <v>241</v>
       </c>
       <c r="D27" t="s">
-        <v>517</v>
-      </c>
-      <c r="E27" t="s">
-        <v>464</v>
+        <v>243</v>
       </c>
       <c r="F27" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G27" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H27" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B28" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C28" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D28" t="s">
-        <v>233</v>
-      </c>
-      <c r="E28" t="s">
-        <v>465</v>
+        <v>243</v>
       </c>
       <c r="F28" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G28" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="H28" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C29" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D29" t="s">
-        <v>233</v>
-      </c>
-      <c r="E29" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="F29" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G29" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="H29" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="B30" t="s">
         <v>110</v>
       </c>
       <c r="C30" t="s">
-        <v>466</v>
+        <v>114</v>
       </c>
       <c r="D30" t="s">
-        <v>518</v>
-      </c>
-      <c r="E30" t="s">
-        <v>466</v>
+        <v>512</v>
       </c>
       <c r="F30" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G30" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="H30" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C31" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="D31" t="s">
-        <v>233</v>
-      </c>
-      <c r="E31" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="F31" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G31" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="H31" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B32" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="C32" t="s">
         <v>467</v>
       </c>
       <c r="D32" t="s">
-        <v>233</v>
-      </c>
-      <c r="E32" t="s">
-        <v>467</v>
+        <v>243</v>
       </c>
       <c r="F32" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G32" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="H32" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C33" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D33" t="s">
-        <v>233</v>
-      </c>
-      <c r="E33" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="F33" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G33" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="H33" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B34" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C34" t="s">
         <v>468</v>
       </c>
       <c r="D34" t="s">
-        <v>233</v>
-      </c>
-      <c r="E34" t="s">
-        <v>468</v>
+        <v>243</v>
       </c>
       <c r="F34" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G34" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H34" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B35" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="C35" t="s">
         <v>469</v>
       </c>
       <c r="D35" t="s">
-        <v>233</v>
-      </c>
-      <c r="E35" t="s">
-        <v>469</v>
+        <v>243</v>
       </c>
       <c r="F35" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G35" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H35" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="B36" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="C36" t="s">
         <v>470</v>
       </c>
       <c r="D36" t="s">
-        <v>233</v>
-      </c>
-      <c r="E36" t="s">
-        <v>470</v>
+        <v>243</v>
       </c>
       <c r="F36" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G36" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="H36" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B37" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C37" t="s">
         <v>471</v>
       </c>
       <c r="D37" t="s">
-        <v>233</v>
-      </c>
-      <c r="E37" t="s">
-        <v>471</v>
+        <v>243</v>
       </c>
       <c r="F37" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G37" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H37" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B38" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C38" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="D38" t="s">
-        <v>233</v>
-      </c>
-      <c r="E38" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="F38" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G38" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H38" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B39" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="C39" t="s">
         <v>472</v>
       </c>
       <c r="D39" t="s">
-        <v>233</v>
-      </c>
-      <c r="E39" t="s">
-        <v>472</v>
+        <v>243</v>
       </c>
       <c r="F39" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G39" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="H39" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C40" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D40" t="s">
-        <v>233</v>
-      </c>
-      <c r="E40" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="F40" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G40" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H40" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B41" t="s">
-        <v>412</v>
+        <v>174</v>
       </c>
       <c r="C41" t="s">
         <v>108</v>
       </c>
       <c r="D41" t="s">
-        <v>233</v>
-      </c>
-      <c r="E41" t="s">
-        <v>108</v>
+        <v>243</v>
       </c>
       <c r="F41" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G41" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H41" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B42" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C42" t="s">
         <v>473</v>
       </c>
       <c r="D42" t="s">
-        <v>233</v>
-      </c>
-      <c r="E42" t="s">
-        <v>473</v>
+        <v>243</v>
       </c>
       <c r="F42" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G42" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H42" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C43" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="D43" t="s">
-        <v>239</v>
-      </c>
-      <c r="E43" t="s">
-        <v>133</v>
+        <v>244</v>
       </c>
       <c r="F43" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G43" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="H43" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="B44" t="s">
-        <v>215</v>
+        <v>418</v>
       </c>
       <c r="C44" t="s">
         <v>474</v>
       </c>
       <c r="D44" t="s">
-        <v>233</v>
-      </c>
-      <c r="E44" t="s">
-        <v>474</v>
+        <v>243</v>
       </c>
       <c r="F44" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G44" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="H44" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="B45" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="C45" t="s">
         <v>475</v>
       </c>
       <c r="D45" t="s">
-        <v>233</v>
-      </c>
-      <c r="E45" t="s">
-        <v>475</v>
+        <v>243</v>
       </c>
       <c r="F45" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G45" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H45" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B46" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="C46" t="s">
         <v>476</v>
       </c>
       <c r="D46" t="s">
-        <v>233</v>
-      </c>
-      <c r="E46" t="s">
-        <v>476</v>
+        <v>243</v>
       </c>
       <c r="F46" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G46" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="H46" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="B47" t="s">
-        <v>416</v>
+        <v>130</v>
       </c>
       <c r="C47" t="s">
-        <v>477</v>
+        <v>194</v>
       </c>
       <c r="D47" t="s">
-        <v>233</v>
-      </c>
-      <c r="E47" t="s">
-        <v>477</v>
+        <v>243</v>
       </c>
       <c r="F47" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G47" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="H47" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B48" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C48" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D48" t="s">
-        <v>233</v>
-      </c>
-      <c r="E48" t="s">
-        <v>478</v>
+        <v>243</v>
       </c>
       <c r="F48" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G48" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H48" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="B49" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C49" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D49" t="s">
-        <v>233</v>
-      </c>
-      <c r="E49" t="s">
-        <v>479</v>
+        <v>243</v>
       </c>
       <c r="F49" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G49" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H49" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="B50" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C50" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D50" t="s">
-        <v>233</v>
-      </c>
-      <c r="E50" t="s">
-        <v>480</v>
+        <v>243</v>
       </c>
       <c r="F50" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G50" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="H50" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="B51" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C51" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D51" t="s">
-        <v>233</v>
-      </c>
-      <c r="E51" t="s">
-        <v>479</v>
+        <v>243</v>
       </c>
       <c r="F51" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G51" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="H51" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="B52" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C52" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D52" t="s">
-        <v>233</v>
-      </c>
-      <c r="E52" t="s">
-        <v>481</v>
+        <v>243</v>
       </c>
       <c r="F52" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G52" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H52" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B53" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C53" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D53" t="s">
-        <v>233</v>
-      </c>
-      <c r="E53" t="s">
-        <v>482</v>
+        <v>243</v>
       </c>
       <c r="F53" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G53" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="H53" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B54" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C54" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D54" t="s">
-        <v>233</v>
-      </c>
-      <c r="E54" t="s">
-        <v>483</v>
+        <v>243</v>
       </c>
       <c r="F54" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G54" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H54" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="B55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C55" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D55" t="s">
-        <v>233</v>
-      </c>
-      <c r="E55" t="s">
-        <v>484</v>
+        <v>243</v>
       </c>
       <c r="F55" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G55" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H55" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="B56" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C56" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D56" t="s">
-        <v>519</v>
-      </c>
-      <c r="E56" t="s">
-        <v>485</v>
+        <v>513</v>
       </c>
       <c r="F56" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G56" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="H56" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="B57" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="C57" t="s">
-        <v>486</v>
+        <v>457</v>
       </c>
       <c r="D57" t="s">
-        <v>233</v>
-      </c>
-      <c r="E57" t="s">
-        <v>486</v>
+        <v>243</v>
       </c>
       <c r="F57" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G57" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H57" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B58" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="C58" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D58" t="s">
-        <v>233</v>
-      </c>
-      <c r="E58" t="s">
-        <v>477</v>
+        <v>243</v>
       </c>
       <c r="F58" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G58" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H58" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B59" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C59" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D59" t="s">
-        <v>233</v>
-      </c>
-      <c r="E59" t="s">
-        <v>487</v>
+        <v>243</v>
       </c>
       <c r="F59" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G59" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="H59" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B60" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C60" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D60" t="s">
-        <v>233</v>
-      </c>
-      <c r="E60" t="s">
-        <v>488</v>
+        <v>243</v>
       </c>
       <c r="F60" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G60" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H60" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B61" t="s">
-        <v>426</v>
+        <v>190</v>
       </c>
       <c r="C61" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D61" t="s">
-        <v>233</v>
-      </c>
-      <c r="E61" t="s">
-        <v>489</v>
+        <v>243</v>
       </c>
       <c r="F61" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G61" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H61" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B62" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C62" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D62" t="s">
-        <v>233</v>
-      </c>
-      <c r="E62" t="s">
-        <v>490</v>
+        <v>243</v>
       </c>
       <c r="F62" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G62" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H62" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="B63" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C63" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D63" t="s">
-        <v>233</v>
-      </c>
-      <c r="E63" t="s">
-        <v>491</v>
+        <v>243</v>
       </c>
       <c r="F63" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G63" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="H63" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B64" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C64" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="D64" t="s">
-        <v>233</v>
-      </c>
-      <c r="E64" t="s">
-        <v>133</v>
+        <v>243</v>
       </c>
       <c r="F64" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G64" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="H64" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B65" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C65" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D65" t="s">
-        <v>233</v>
-      </c>
-      <c r="E65" t="s">
-        <v>492</v>
+        <v>243</v>
       </c>
       <c r="F65" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G65" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H65" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B66" t="s">
-        <v>431</v>
+        <v>109</v>
       </c>
       <c r="C66" t="s">
-        <v>493</v>
+        <v>178</v>
       </c>
       <c r="D66" t="s">
-        <v>233</v>
-      </c>
-      <c r="E66" t="s">
-        <v>493</v>
+        <v>243</v>
       </c>
       <c r="F66" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G66" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="H66" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B67" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C67" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="D67" t="s">
-        <v>233</v>
-      </c>
-      <c r="E67" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="F67" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G67" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="H67" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B68" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C68" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D68" t="s">
-        <v>233</v>
-      </c>
-      <c r="E68" t="s">
-        <v>494</v>
+        <v>243</v>
       </c>
       <c r="F68" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G68" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="H68" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="B69" t="s">
-        <v>416</v>
+        <v>130</v>
       </c>
       <c r="C69" t="s">
-        <v>477</v>
+        <v>194</v>
       </c>
       <c r="D69" t="s">
-        <v>233</v>
-      </c>
-      <c r="E69" t="s">
-        <v>477</v>
+        <v>243</v>
       </c>
       <c r="F69" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G69" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H69" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B70" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C70" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D70" t="s">
-        <v>233</v>
-      </c>
-      <c r="E70" t="s">
-        <v>495</v>
+        <v>243</v>
       </c>
       <c r="F70" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G70" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H70" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B71" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C71" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D71" t="s">
-        <v>233</v>
-      </c>
-      <c r="E71" t="s">
-        <v>496</v>
+        <v>243</v>
       </c>
       <c r="F71" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G71" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H71" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B72" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C72" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D72" t="s">
-        <v>233</v>
-      </c>
-      <c r="E72" t="s">
-        <v>497</v>
+        <v>243</v>
       </c>
       <c r="F72" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G72" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H72" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B73" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C73" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D73" t="s">
-        <v>233</v>
-      </c>
-      <c r="E73" t="s">
-        <v>498</v>
+        <v>243</v>
       </c>
       <c r="F73" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G73" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="H73" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B74" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C74" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D74" t="s">
-        <v>233</v>
-      </c>
-      <c r="E74" t="s">
-        <v>499</v>
+        <v>243</v>
       </c>
       <c r="F74" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G74" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H74" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="B75" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C75" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D75" t="s">
-        <v>233</v>
-      </c>
-      <c r="E75" t="s">
-        <v>500</v>
+        <v>243</v>
       </c>
       <c r="F75" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G75" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H75" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B76" t="s">
-        <v>439</v>
+        <v>403</v>
       </c>
       <c r="C76" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D76" t="s">
-        <v>233</v>
-      </c>
-      <c r="E76" t="s">
-        <v>501</v>
+        <v>243</v>
       </c>
       <c r="F76" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G76" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="H76" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="B77" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C77" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D77" t="s">
-        <v>233</v>
-      </c>
-      <c r="E77" t="s">
-        <v>502</v>
+        <v>243</v>
       </c>
       <c r="F77" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G77" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="H77" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="B78" t="s">
         <v>112</v>
       </c>
       <c r="C78" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D78" t="s">
-        <v>233</v>
-      </c>
-      <c r="E78" t="s">
-        <v>503</v>
+        <v>243</v>
       </c>
       <c r="F78" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G78" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H78" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B79" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="C79" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D79" t="s">
-        <v>233</v>
-      </c>
-      <c r="E79" t="s">
-        <v>452</v>
+        <v>243</v>
       </c>
       <c r="F79" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G79" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="H79" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="B80" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C80" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D80" t="s">
-        <v>233</v>
-      </c>
-      <c r="E80" t="s">
-        <v>504</v>
+        <v>243</v>
       </c>
       <c r="F80" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G80" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="H80" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="B81" t="s">
-        <v>442</v>
+        <v>168</v>
       </c>
       <c r="C81" t="s">
-        <v>505</v>
+        <v>236</v>
       </c>
       <c r="D81" t="s">
-        <v>233</v>
-      </c>
-      <c r="E81" t="s">
-        <v>505</v>
+        <v>243</v>
       </c>
       <c r="F81" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G81" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="H81" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="B82" t="s">
         <v>443</v>
       </c>
       <c r="C82" t="s">
-        <v>506</v>
+        <v>119</v>
       </c>
       <c r="D82" t="s">
-        <v>239</v>
-      </c>
-      <c r="E82" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="F82" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G82" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="H82" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="B83" t="s">
         <v>444</v>
       </c>
       <c r="C83" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D83" t="s">
-        <v>233</v>
-      </c>
-      <c r="E83" t="s">
-        <v>507</v>
+        <v>243</v>
       </c>
       <c r="F83" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G83" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="H83" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B84" t="s">
         <v>108</v>
       </c>
       <c r="C84" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="D84" t="s">
-        <v>238</v>
-      </c>
-      <c r="E84" t="s">
-        <v>162</v>
+        <v>248</v>
       </c>
       <c r="F84" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G84" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="H84" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B85" t="s">
         <v>445</v>
       </c>
       <c r="C85" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="D85" t="s">
-        <v>233</v>
-      </c>
-      <c r="E85" t="s">
-        <v>115</v>
+        <v>243</v>
       </c>
       <c r="F85" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G85" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="H85" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="B86" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
       <c r="C86" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D86" t="s">
-        <v>233</v>
-      </c>
-      <c r="E86" t="s">
-        <v>508</v>
+        <v>243</v>
       </c>
       <c r="F86" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G86" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="H86" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="B87" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C87" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D87" t="s">
-        <v>233</v>
-      </c>
-      <c r="E87" t="s">
-        <v>477</v>
+        <v>243</v>
       </c>
       <c r="F87" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G87" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="H87" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="B88" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C88" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D88" t="s">
-        <v>233</v>
-      </c>
-      <c r="E88" t="s">
-        <v>484</v>
+        <v>243</v>
       </c>
       <c r="F88" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G88" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="H88" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="B89" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C89" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D89" t="s">
-        <v>233</v>
-      </c>
-      <c r="E89" t="s">
-        <v>495</v>
+        <v>243</v>
       </c>
       <c r="F89" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G89" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="H89" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B90" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="C90" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D90" t="s">
-        <v>233</v>
-      </c>
-      <c r="E90" t="s">
-        <v>193</v>
+        <v>243</v>
       </c>
       <c r="F90" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G90" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="H90" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B91" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C91" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D91" t="s">
-        <v>233</v>
-      </c>
-      <c r="E91" t="s">
-        <v>190</v>
+        <v>243</v>
       </c>
       <c r="F91" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G91" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="H91" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B92" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C92" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D92" t="s">
-        <v>233</v>
-      </c>
-      <c r="E92" t="s">
-        <v>509</v>
+        <v>243</v>
       </c>
       <c r="F92" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G92" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="H92" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B93" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C93" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D93" t="s">
-        <v>233</v>
-      </c>
-      <c r="E93" t="s">
-        <v>510</v>
+        <v>243</v>
       </c>
       <c r="F93" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G93" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H93" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B94" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C94" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D94" t="s">
-        <v>233</v>
-      </c>
-      <c r="E94" t="s">
-        <v>511</v>
+        <v>243</v>
       </c>
       <c r="F94" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G94" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="H94" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="B95" t="s">
         <v>109</v>
       </c>
       <c r="C95" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D95" t="s">
-        <v>233</v>
-      </c>
-      <c r="E95" t="s">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c r="F95" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G95" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="H95" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B96" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C96" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D96" t="s">
-        <v>233</v>
-      </c>
-      <c r="E96" t="s">
-        <v>194</v>
+        <v>243</v>
       </c>
       <c r="F96" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G96" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H96" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B97" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C97" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="D97" t="s">
-        <v>233</v>
-      </c>
-      <c r="E97" t="s">
-        <v>512</v>
+        <v>243</v>
       </c>
       <c r="F97" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G97" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H97" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="B98" t="s">
-        <v>416</v>
+        <v>130</v>
       </c>
       <c r="C98" t="s">
-        <v>477</v>
+        <v>194</v>
       </c>
       <c r="D98" t="s">
-        <v>233</v>
-      </c>
-      <c r="E98" t="s">
-        <v>477</v>
+        <v>243</v>
       </c>
       <c r="F98" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G98" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H98" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="B99" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C99" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D99" t="s">
-        <v>233</v>
-      </c>
-      <c r="E99" t="s">
-        <v>484</v>
+        <v>243</v>
       </c>
       <c r="F99" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G99" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="H99" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="B100" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C100" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="D100" t="s">
-        <v>233</v>
-      </c>
-      <c r="E100" t="s">
-        <v>391</v>
+        <v>243</v>
       </c>
       <c r="F100" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G100" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="H100" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="B101" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C101" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D101" t="s">
-        <v>233</v>
-      </c>
-      <c r="E101" t="s">
-        <v>513</v>
+        <v>243</v>
       </c>
       <c r="F101" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G101" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="H101" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="B102" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="C102" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D102" t="s">
-        <v>233</v>
-      </c>
-      <c r="E102" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="F102" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G102" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="H102" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>

--- a/BigBasket/BigBasket_products.xlsx
+++ b/BigBasket/BigBasket_products.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="578">
   <si>
     <t>product_name</t>
   </si>
@@ -47,6 +47,9 @@
     <t>Cucumber - Mangalore, Organically Grown</t>
   </si>
   <si>
+    <t>Cucumber (Loose)</t>
+  </si>
+  <si>
     <t>Onion</t>
   </si>
   <si>
@@ -65,7 +68,7 @@
     <t>Capsicum - Green (Loose)</t>
   </si>
   <si>
-    <t>Cucumber (Loose)</t>
+    <t>Cucumber</t>
   </si>
   <si>
     <t>Coriander Leaves</t>
@@ -332,1275 +335,1293 @@
     <t>₹39</t>
   </si>
   <si>
-    <t>₹310</t>
+    <t>₹79</t>
+  </si>
+  <si>
+    <t>₹320</t>
+  </si>
+  <si>
+    <t>₹22</t>
+  </si>
+  <si>
+    <t>₹57</t>
+  </si>
+  <si>
+    <t>₹37</t>
+  </si>
+  <si>
+    <t>₹78</t>
+  </si>
+  <si>
+    <t>₹65</t>
+  </si>
+  <si>
+    <t>₹344</t>
+  </si>
+  <si>
+    <t>₹15</t>
+  </si>
+  <si>
+    <t>₹46</t>
+  </si>
+  <si>
+    <t>₹40</t>
+  </si>
+  <si>
+    <t>₹166</t>
+  </si>
+  <si>
+    <t>₹118</t>
+  </si>
+  <si>
+    <t>₹62</t>
+  </si>
+  <si>
+    <t>₹29</t>
+  </si>
+  <si>
+    <t>₹64</t>
+  </si>
+  <si>
+    <t>₹139</t>
+  </si>
+  <si>
+    <t>₹72</t>
+  </si>
+  <si>
+    <t>₹248</t>
+  </si>
+  <si>
+    <t>₹74</t>
+  </si>
+  <si>
+    <t>₹142</t>
+  </si>
+  <si>
+    <t>₹73</t>
+  </si>
+  <si>
+    <t>₹70</t>
+  </si>
+  <si>
+    <t>₹317</t>
+  </si>
+  <si>
+    <t>₹144</t>
+  </si>
+  <si>
+    <t>₹96</t>
+  </si>
+  <si>
+    <t>₹68</t>
+  </si>
+  <si>
+    <t>₹180</t>
+  </si>
+  <si>
+    <t>₹18</t>
+  </si>
+  <si>
+    <t>₹172</t>
+  </si>
+  <si>
+    <t>₹103</t>
+  </si>
+  <si>
+    <t>₹59</t>
+  </si>
+  <si>
+    <t>₹254</t>
+  </si>
+  <si>
+    <t>₹111</t>
+  </si>
+  <si>
+    <t>₹188</t>
+  </si>
+  <si>
+    <t>₹44</t>
+  </si>
+  <si>
+    <t>₹13.16</t>
+  </si>
+  <si>
+    <t>₹155</t>
+  </si>
+  <si>
+    <t>₹148</t>
+  </si>
+  <si>
+    <t>₹61</t>
+  </si>
+  <si>
+    <t>₹48</t>
+  </si>
+  <si>
+    <t>₹27</t>
+  </si>
+  <si>
+    <t>₹318</t>
+  </si>
+  <si>
+    <t>₹87</t>
+  </si>
+  <si>
+    <t>₹31</t>
+  </si>
+  <si>
+    <t>₹106</t>
+  </si>
+  <si>
+    <t>₹133</t>
+  </si>
+  <si>
+    <t>₹46.58</t>
+  </si>
+  <si>
+    <t>₹54</t>
+  </si>
+  <si>
+    <t>₹58</t>
+  </si>
+  <si>
+    <t>₹28</t>
+  </si>
+  <si>
+    <t>₹42</t>
+  </si>
+  <si>
+    <t>₹14</t>
+  </si>
+  <si>
+    <t>₹90</t>
+  </si>
+  <si>
+    <t>₹127</t>
+  </si>
+  <si>
+    <t>₹32</t>
+  </si>
+  <si>
+    <t>₹95</t>
+  </si>
+  <si>
+    <t>₹43</t>
+  </si>
+  <si>
+    <t>₹128</t>
+  </si>
+  <si>
+    <t>₹117</t>
+  </si>
+  <si>
+    <t>₹47</t>
+  </si>
+  <si>
+    <t>₹131</t>
+  </si>
+  <si>
+    <t>₹55</t>
+  </si>
+  <si>
+    <t>₹121</t>
+  </si>
+  <si>
+    <t>₹173</t>
+  </si>
+  <si>
+    <t>₹33</t>
+  </si>
+  <si>
+    <t>₹56</t>
+  </si>
+  <si>
+    <t>₹28.47</t>
+  </si>
+  <si>
+    <t>₹175</t>
+  </si>
+  <si>
+    <t>₹12</t>
+  </si>
+  <si>
+    <t>₹16</t>
+  </si>
+  <si>
+    <t>₹24</t>
+  </si>
+  <si>
+    <t>₹8</t>
+  </si>
+  <si>
+    <t>₹140</t>
+  </si>
+  <si>
+    <t>₹5.5</t>
+  </si>
+  <si>
+    <t>₹22.5</t>
+  </si>
+  <si>
+    <t>₹26</t>
+  </si>
+  <si>
+    <t>₹37.05</t>
+  </si>
+  <si>
+    <t>₹107.9</t>
+  </si>
+  <si>
+    <t>₹86.14</t>
+  </si>
+  <si>
+    <t>₹45.26</t>
+  </si>
+  <si>
+    <t>₹21.17</t>
+  </si>
+  <si>
+    <t>₹27.5</t>
+  </si>
+  <si>
+    <t>₹101.47</t>
   </si>
   <si>
     <t>₹21</t>
   </si>
   <si>
-    <t>₹53</t>
-  </si>
-  <si>
-    <t>₹28</t>
-  </si>
-  <si>
-    <t>₹20</t>
-  </si>
-  <si>
-    <t>₹32</t>
-  </si>
-  <si>
-    <t>₹79</t>
-  </si>
-  <si>
-    <t>₹344</t>
-  </si>
-  <si>
-    <t>₹27</t>
-  </si>
-  <si>
-    <t>₹44</t>
-  </si>
-  <si>
-    <t>₹43</t>
-  </si>
-  <si>
-    <t>₹161</t>
-  </si>
-  <si>
-    <t>₹91</t>
-  </si>
-  <si>
-    <t>₹62</t>
-  </si>
-  <si>
-    <t>₹29</t>
-  </si>
-  <si>
-    <t>₹48</t>
-  </si>
-  <si>
-    <t>₹139</t>
-  </si>
-  <si>
-    <t>₹46</t>
-  </si>
-  <si>
-    <t>₹67</t>
+    <t>₹46.8</t>
+  </si>
+  <si>
+    <t>₹181.04</t>
+  </si>
+  <si>
+    <t>₹48.1</t>
+  </si>
+  <si>
+    <t>₹103.66</t>
+  </si>
+  <si>
+    <t>₹10</t>
+  </si>
+  <si>
+    <t>₹50</t>
+  </si>
+  <si>
+    <t>₹231.41</t>
+  </si>
+  <si>
+    <t>₹105.12</t>
+  </si>
+  <si>
+    <t>₹33.58</t>
+  </si>
+  <si>
+    <t>₹70.08</t>
+  </si>
+  <si>
+    <t>₹49.64</t>
+  </si>
+  <si>
+    <t>₹131.4</t>
+  </si>
+  <si>
+    <t>₹13.14</t>
+  </si>
+  <si>
+    <t>₹125.56</t>
+  </si>
+  <si>
+    <t>₹75.19</t>
+  </si>
+  <si>
+    <t>₹43.07</t>
+  </si>
+  <si>
+    <t>₹185.42</t>
+  </si>
+  <si>
+    <t>₹81.03</t>
+  </si>
+  <si>
+    <t>₹137.24</t>
+  </si>
+  <si>
+    <t>₹54.02</t>
+  </si>
+  <si>
+    <t>₹32.12</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>₹51.1</t>
+  </si>
+  <si>
+    <t>₹89</t>
+  </si>
+  <si>
+    <t>₹108.04</t>
+  </si>
+  <si>
+    <t>₹44.53</t>
+  </si>
+  <si>
+    <t>₹35.04</t>
+  </si>
+  <si>
+    <t>₹53.29</t>
+  </si>
+  <si>
+    <t>₹232.14</t>
+  </si>
+  <si>
+    <t>₹63.51</t>
+  </si>
+  <si>
+    <t>₹22.63</t>
+  </si>
+  <si>
+    <t>₹77.38</t>
+  </si>
+  <si>
+    <t>₹121.18</t>
+  </si>
+  <si>
+    <t>₹97.09</t>
+  </si>
+  <si>
+    <t>₹34</t>
+  </si>
+  <si>
+    <t>₹39.42</t>
+  </si>
+  <si>
+    <t>₹42.34</t>
+  </si>
+  <si>
+    <t>₹20.44</t>
+  </si>
+  <si>
+    <t>₹52.56</t>
+  </si>
+  <si>
+    <t>₹30.66</t>
+  </si>
+  <si>
+    <t>₹19.71</t>
+  </si>
+  <si>
+    <t>₹10.22</t>
+  </si>
+  <si>
+    <t>₹65.7</t>
+  </si>
+  <si>
+    <t>₹92.71</t>
+  </si>
+  <si>
+    <t>₹23.36</t>
+  </si>
+  <si>
+    <t>₹41.61</t>
+  </si>
+  <si>
+    <t>₹69.35</t>
+  </si>
+  <si>
+    <t>₹27.95</t>
+  </si>
+  <si>
+    <t>₹93.44</t>
+  </si>
+  <si>
+    <t>₹85.41</t>
+  </si>
+  <si>
+    <t>₹34.31</t>
+  </si>
+  <si>
+    <t>₹57.67</t>
+  </si>
+  <si>
+    <t>₹95.63</t>
+  </si>
+  <si>
+    <t>₹35.1</t>
+  </si>
+  <si>
+    <t>₹40.15</t>
+  </si>
+  <si>
+    <t>₹88.33</t>
+  </si>
+  <si>
+    <t>₹126.29</t>
+  </si>
+  <si>
+    <t>₹24.09</t>
+  </si>
+  <si>
+    <t>39% OFF</t>
+  </si>
+  <si>
+    <t>27% OFF</t>
+  </si>
+  <si>
+    <t>49% OFF</t>
+  </si>
+  <si>
+    <t>45% OFF</t>
+  </si>
+  <si>
+    <t>42% OFF</t>
+  </si>
+  <si>
+    <t>57% OFF</t>
+  </si>
+  <si>
+    <t>69% OFF</t>
+  </si>
+  <si>
+    <t>66% OFF</t>
+  </si>
+  <si>
+    <t>64% OFF</t>
+  </si>
+  <si>
+    <t>59% OFF</t>
+  </si>
+  <si>
+    <t>63% OFF</t>
+  </si>
+  <si>
+    <t>51% OFF</t>
+  </si>
+  <si>
+    <t>35% OFF</t>
+  </si>
+  <si>
+    <t>33% OFF</t>
+  </si>
+  <si>
+    <t>32% OFF</t>
+  </si>
+  <si>
+    <t>37% OFF</t>
+  </si>
+  <si>
+    <t>43% OFF</t>
+  </si>
+  <si>
+    <t>70% OFF</t>
+  </si>
+  <si>
+    <t>Fresh Vegetables</t>
+  </si>
+  <si>
+    <t>2 kg</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx 500-1kg)</t>
+  </si>
+  <si>
+    <t>1 kg</t>
+  </si>
+  <si>
+    <t>5 kg - Multipack</t>
+  </si>
+  <si>
+    <t>250 g</t>
+  </si>
+  <si>
+    <t>500 g</t>
+  </si>
+  <si>
+    <t>1 pc - (approx. 400 to 600 g)</t>
+  </si>
+  <si>
+    <t>1 pack - (Approx. 180g - 200 g)</t>
+  </si>
+  <si>
+    <t>1 pc - (approx. 500 g to 800 g)</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 500 g - 800 g)</t>
+  </si>
+  <si>
+    <t>2 pcs</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 100 g)</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 250g-500g)</t>
+  </si>
+  <si>
+    <t>100 g</t>
+  </si>
+  <si>
+    <t>350 g (2 pieces)</t>
+  </si>
+  <si>
+    <t>1 pc - Approx. 400 to 600 g</t>
+  </si>
+  <si>
+    <t>1 Kg</t>
+  </si>
+  <si>
+    <t>1 pc</t>
+  </si>
+  <si>
+    <t>1 pc (Approx 500-1000 g)</t>
+  </si>
+  <si>
+    <t>1 pc (approx. 300-1.3 Kg)</t>
+  </si>
+  <si>
+    <t>2023-09-28 10:02:18</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:23:50</t>
+  </si>
+  <si>
+    <t>2023-10-05 05:13:58</t>
+  </si>
+  <si>
+    <t>2023-10-06 13:00:13</t>
+  </si>
+  <si>
+    <t>Kesar Mango</t>
+  </si>
+  <si>
+    <t>Apple - Red Delicious / Washington, Regular</t>
+  </si>
+  <si>
+    <t>Apple - Red Delicious / Washington, Premium</t>
+  </si>
+  <si>
+    <t>Himayath Mango</t>
+  </si>
+  <si>
+    <t>Muskmelon -  Netted Medium</t>
+  </si>
+  <si>
+    <t>Raw Mango - Rich in Vitamin C (Loose)</t>
+  </si>
+  <si>
+    <t>Banana - Robusta</t>
+  </si>
+  <si>
+    <t>Apple - Shimla, Regular</t>
+  </si>
+  <si>
+    <t>Pomegranate - Regular (Loose)</t>
+  </si>
+  <si>
+    <t>Baby Apple Shimla</t>
+  </si>
+  <si>
+    <t>Banana - Yelakki</t>
+  </si>
+  <si>
+    <t>Coconut - Medium</t>
+  </si>
+  <si>
+    <t>Papaya</t>
+  </si>
+  <si>
+    <t>Mini Orange Imported (Loose)</t>
+  </si>
+  <si>
+    <t>Pomegranate (Loose)</t>
+  </si>
+  <si>
+    <t>Tender Coconut</t>
+  </si>
+  <si>
+    <t>Guava - Thai (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala Economy</t>
+  </si>
+  <si>
+    <t>Watermelon -  Medium</t>
+  </si>
+  <si>
+    <t>Mosambi - Economy (Loose)</t>
+  </si>
+  <si>
+    <t>Kiwi - Green</t>
+  </si>
+  <si>
+    <t>Banana - Nendran</t>
+  </si>
+  <si>
+    <t>Guava (Loose)</t>
+  </si>
+  <si>
+    <t>Pear - Green, Imported</t>
+  </si>
+  <si>
+    <t>Blueberry</t>
+  </si>
+  <si>
+    <t>Muskmelon -  Netted Small</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala, Regular</t>
+  </si>
+  <si>
+    <t>Papaya - Small</t>
+  </si>
+  <si>
+    <t>Dragon Fruit (Loose)</t>
+  </si>
+  <si>
+    <t>Grapes - Bangalore Blue</t>
+  </si>
+  <si>
+    <t>Avocado (Loose)</t>
+  </si>
+  <si>
+    <t>Orange - Nagpur, Regular (Loose)</t>
+  </si>
+  <si>
+    <t>Avocado - Imported, Medium (Loose)</t>
+  </si>
+  <si>
+    <t>Mosambi - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala, Premium</t>
+  </si>
+  <si>
+    <t>Banana - Yelakki, Organically Grown</t>
+  </si>
+  <si>
+    <t>Banana - Raw Green (Loose)</t>
+  </si>
+  <si>
+    <t>Coconut - Large</t>
+  </si>
+  <si>
+    <t>Raw Mango (Loose)</t>
+  </si>
+  <si>
+    <t>Pineapple</t>
+  </si>
+  <si>
+    <t>Sapota</t>
+  </si>
+  <si>
+    <t>Mango - Neelam</t>
+  </si>
+  <si>
+    <t>Fresh Figs</t>
+  </si>
+  <si>
+    <t>Langra Mango</t>
+  </si>
+  <si>
+    <t>Pear - Naspathi, Indian</t>
+  </si>
+  <si>
+    <t>Pear Beauty</t>
+  </si>
+  <si>
+    <t>Banana - Red</t>
+  </si>
+  <si>
+    <t>Pomegranate - Peeled</t>
+  </si>
+  <si>
+    <t>Mallika Mango</t>
+  </si>
+  <si>
+    <t>Apple - Green, Premium</t>
+  </si>
+  <si>
+    <t>Baby Banana - Robusta</t>
+  </si>
+  <si>
+    <t>Orange - Imported (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Pink Lady</t>
+  </si>
+  <si>
+    <t>Sugarcane - Diced</t>
+  </si>
+  <si>
+    <t>Coconut with Husk - Pooja Coconut</t>
+  </si>
+  <si>
+    <t>Dates - Kimia, with Seed</t>
+  </si>
+  <si>
+    <t>Wood Apple - Kothbel (Loose)</t>
+  </si>
+  <si>
+    <t>Zespri Kiwi - Sun Gold</t>
+  </si>
+  <si>
+    <t>Ber - Apple (Loose)</t>
+  </si>
+  <si>
+    <t>Banana - Karpooravalli</t>
+  </si>
+  <si>
+    <t>Orange - Nagpur, Small (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Ambri</t>
+  </si>
+  <si>
+    <t>Longan</t>
+  </si>
+  <si>
+    <t>Banana - Poovan</t>
+  </si>
+  <si>
+    <t>Banana - Nendran, Organically Grown</t>
+  </si>
+  <si>
+    <t>Apple - Shimla, Premium</t>
+  </si>
+  <si>
+    <t>Pear - Beauty, Rich In Fiber, Vitamin C, Great For Gut Health</t>
+  </si>
+  <si>
+    <t>Grapes - Red Globe</t>
+  </si>
+  <si>
+    <t>Mosambi - Premium (Loose)</t>
+  </si>
+  <si>
+    <t>Coconut - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Guava - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Soursop</t>
+  </si>
+  <si>
+    <t>Coconut - Diced</t>
+  </si>
+  <si>
+    <t>Cherry - Kashmir</t>
+  </si>
+  <si>
+    <t>Apple - Red Delicious, Economy</t>
+  </si>
+  <si>
+    <t>Apricot - Dried</t>
+  </si>
+  <si>
+    <t>Passion Fruit</t>
+  </si>
+  <si>
+    <t>Pineapple - Slices</t>
+  </si>
+  <si>
+    <t>Papaya- Diced</t>
+  </si>
+  <si>
+    <t>Plum - Indian</t>
+  </si>
+  <si>
+    <t>Pomegranate - Single Serve, Peeled</t>
+  </si>
+  <si>
+    <t>Mosambi (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Washington, Regular</t>
+  </si>
+  <si>
+    <t>Apple - Fuji, Economy</t>
+  </si>
+  <si>
+    <t>Cherry</t>
+  </si>
+  <si>
+    <t>Grape fruit - Imported (Loose)</t>
+  </si>
+  <si>
+    <t>Pineapple - Chunks, Single Serve</t>
+  </si>
+  <si>
+    <t>Watermelon - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Ber (Loose)</t>
+  </si>
+  <si>
+    <t>Rambutan</t>
+  </si>
+  <si>
+    <t>Plum - Imported</t>
+  </si>
+  <si>
+    <t>Tamarind - Sweet</t>
+  </si>
+  <si>
+    <t>Mango - Raw Totapuri</t>
+  </si>
+  <si>
+    <t>Pomelo - Peeled</t>
+  </si>
+  <si>
+    <t>Sapota - Organically Grown</t>
+  </si>
+  <si>
+    <t>Guava - Thai Organic, White</t>
+  </si>
+  <si>
+    <t>Mangosteen</t>
+  </si>
+  <si>
+    <t>Cherry - Imported</t>
+  </si>
+  <si>
+    <t>Apple - Queen, Rose</t>
+  </si>
+  <si>
+    <t>₹190</t>
+  </si>
+  <si>
+    <t>₹380</t>
+  </si>
+  <si>
+    <t>₹702</t>
+  </si>
+  <si>
+    <t>₹211.25</t>
+  </si>
+  <si>
+    <t>₹51</t>
+  </si>
+  <si>
+    <t>₹69</t>
+  </si>
+  <si>
+    <t>₹328</t>
+  </si>
+  <si>
+    <t>₹340</t>
+  </si>
+  <si>
+    <t>₹238</t>
+  </si>
+  <si>
+    <t>₹199</t>
+  </si>
+  <si>
+    <t>₹424</t>
+  </si>
+  <si>
+    <t>₹296</t>
+  </si>
+  <si>
+    <t>₹80</t>
+  </si>
+  <si>
+    <t>₹261</t>
+  </si>
+  <si>
+    <t>₹85</t>
+  </si>
+  <si>
+    <t>₹104</t>
+  </si>
+  <si>
+    <t>₹243</t>
+  </si>
+  <si>
+    <t>₹574</t>
+  </si>
+  <si>
+    <t>₹388</t>
+  </si>
+  <si>
+    <t>₹516</t>
+  </si>
+  <si>
+    <t>₹146</t>
+  </si>
+  <si>
+    <t>₹374</t>
+  </si>
+  <si>
+    <t>₹105</t>
+  </si>
+  <si>
+    <t>₹109</t>
+  </si>
+  <si>
+    <t>₹654</t>
+  </si>
+  <si>
+    <t>₹229</t>
+  </si>
+  <si>
+    <t>₹100</t>
+  </si>
+  <si>
+    <t>₹114</t>
+  </si>
+  <si>
+    <t>₹210.53</t>
+  </si>
+  <si>
+    <t>₹274</t>
+  </si>
+  <si>
+    <t>₹185</t>
   </si>
   <si>
     <t>₹153</t>
   </si>
   <si>
-    <t>₹68</t>
-  </si>
-  <si>
-    <t>₹74</t>
-  </si>
-  <si>
-    <t>₹142</t>
-  </si>
-  <si>
-    <t>₹166</t>
-  </si>
-  <si>
-    <t>₹73</t>
+    <t>₹500</t>
+  </si>
+  <si>
+    <t>₹266</t>
+  </si>
+  <si>
+    <t>₹453</t>
+  </si>
+  <si>
+    <t>₹41.1</t>
+  </si>
+  <si>
+    <t>₹36</t>
+  </si>
+  <si>
+    <t>₹302</t>
+  </si>
+  <si>
+    <t>₹17</t>
+  </si>
+  <si>
+    <t>₹422</t>
+  </si>
+  <si>
+    <t>₹84</t>
+  </si>
+  <si>
+    <t>₹129</t>
+  </si>
+  <si>
+    <t>₹588</t>
+  </si>
+  <si>
+    <t>₹81</t>
+  </si>
+  <si>
+    <t>₹442</t>
+  </si>
+  <si>
+    <t>₹381</t>
+  </si>
+  <si>
+    <t>₹722</t>
+  </si>
+  <si>
+    <t>₹137</t>
+  </si>
+  <si>
+    <t>₹162</t>
+  </si>
+  <si>
+    <t>₹554</t>
+  </si>
+  <si>
+    <t>₹346</t>
+  </si>
+  <si>
+    <t>₹377</t>
+  </si>
+  <si>
+    <t>₹429</t>
+  </si>
+  <si>
+    <t>₹76</t>
+  </si>
+  <si>
+    <t>₹177</t>
+  </si>
+  <si>
+    <t>₹94.52</t>
+  </si>
+  <si>
+    <t>₹77</t>
+  </si>
+  <si>
+    <t>₹462</t>
   </si>
   <si>
     <t>₹269</t>
   </si>
   <si>
-    <t>₹317</t>
-  </si>
-  <si>
-    <t>₹90</t>
-  </si>
-  <si>
-    <t>₹180</t>
-  </si>
-  <si>
-    <t>₹18</t>
-  </si>
-  <si>
-    <t>₹172</t>
-  </si>
-  <si>
-    <t>₹103</t>
-  </si>
-  <si>
-    <t>₹106</t>
-  </si>
-  <si>
-    <t>₹202</t>
-  </si>
-  <si>
-    <t>₹77</t>
-  </si>
-  <si>
-    <t>₹69</t>
-  </si>
-  <si>
-    <t>₹13.16</t>
-  </si>
-  <si>
-    <t>₹70</t>
-  </si>
-  <si>
-    <t>₹155</t>
-  </si>
-  <si>
-    <t>₹165</t>
-  </si>
-  <si>
-    <t>₹120</t>
-  </si>
-  <si>
-    <t>₹15</t>
-  </si>
-  <si>
-    <t>₹318</t>
-  </si>
-  <si>
-    <t>₹87</t>
-  </si>
-  <si>
-    <t>₹144</t>
-  </si>
-  <si>
-    <t>₹31</t>
-  </si>
-  <si>
-    <t>₹128</t>
-  </si>
-  <si>
-    <t>₹148</t>
-  </si>
-  <si>
-    <t>₹46.58</t>
-  </si>
-  <si>
-    <t>₹54</t>
-  </si>
-  <si>
-    <t>₹58</t>
-  </si>
-  <si>
-    <t>₹40</t>
-  </si>
-  <si>
-    <t>₹24</t>
-  </si>
-  <si>
-    <t>₹14</t>
-  </si>
-  <si>
-    <t>₹117</t>
-  </si>
-  <si>
-    <t>₹57</t>
-  </si>
-  <si>
-    <t>₹47</t>
-  </si>
-  <si>
-    <t>₹131</t>
-  </si>
-  <si>
-    <t>₹52</t>
-  </si>
-  <si>
-    <t>₹55</t>
-  </si>
-  <si>
-    <t>₹118</t>
-  </si>
-  <si>
-    <t>₹173</t>
-  </si>
-  <si>
-    <t>₹33</t>
-  </si>
-  <si>
-    <t>₹56</t>
-  </si>
-  <si>
-    <t>₹28.47</t>
-  </si>
-  <si>
-    <t>₹12</t>
-  </si>
-  <si>
-    <t>₹17</t>
-  </si>
-  <si>
-    <t>₹4</t>
-  </si>
-  <si>
-    <t>₹89.5</t>
+    <t>₹206</t>
+  </si>
+  <si>
+    <t>₹1895</t>
+  </si>
+  <si>
+    <t>₹395</t>
+  </si>
+  <si>
+    <t>₹125</t>
+  </si>
+  <si>
+    <t>₹191</t>
+  </si>
+  <si>
+    <t>₹97.26</t>
+  </si>
+  <si>
+    <t>₹403</t>
+  </si>
+  <si>
+    <t>₹138.7</t>
+  </si>
+  <si>
+    <t>₹277.4</t>
+  </si>
+  <si>
+    <t>₹512.46</t>
+  </si>
+  <si>
+    <t>₹37.23</t>
+  </si>
+  <si>
+    <t>₹37.5</t>
+  </si>
+  <si>
+    <t>₹239.44</t>
+  </si>
+  <si>
+    <t>₹221</t>
+  </si>
+  <si>
+    <t>₹149</t>
+  </si>
+  <si>
+    <t>₹45.5</t>
+  </si>
+  <si>
+    <t>₹309.52</t>
+  </si>
+  <si>
+    <t>₹192.4</t>
+  </si>
+  <si>
+    <t>₹49</t>
+  </si>
+  <si>
+    <t>₹51.35</t>
+  </si>
+  <si>
+    <t>₹169.65</t>
+  </si>
+  <si>
+    <t>₹62.05</t>
+  </si>
+  <si>
+    <t>₹67.6</t>
+  </si>
+  <si>
+    <t>₹419.02</t>
+  </si>
+  <si>
+    <t>₹283.24</t>
+  </si>
+  <si>
+    <t>₹335.4</t>
+  </si>
+  <si>
+    <t>₹39.65</t>
+  </si>
+  <si>
+    <t>₹106.58</t>
+  </si>
+  <si>
+    <t>₹273.02</t>
+  </si>
+  <si>
+    <t>₹75</t>
+  </si>
+  <si>
+    <t>₹79.57</t>
+  </si>
+  <si>
+    <t>₹477.42</t>
+  </si>
+  <si>
+    <t>₹167.17</t>
   </si>
   <si>
     <t>₹19.5</t>
   </si>
   <si>
-    <t>₹27.95</t>
-  </si>
-  <si>
-    <t>₹10.5</t>
-  </si>
-  <si>
-    <t>₹104.65</t>
-  </si>
-  <si>
-    <t>₹66.43</t>
-  </si>
-  <si>
-    <t>₹42</t>
-  </si>
-  <si>
-    <t>₹22.11</t>
-  </si>
-  <si>
-    <t>₹101.47</t>
-  </si>
-  <si>
-    <t>₹43.55</t>
+    <t>₹83.22</t>
+  </si>
+  <si>
+    <t>₹153.69</t>
+  </si>
+  <si>
+    <t>₹178.1</t>
+  </si>
+  <si>
+    <t>₹135.05</t>
+  </si>
+  <si>
+    <t>₹157.95</t>
   </si>
   <si>
     <t>₹111.69</t>
   </si>
   <si>
-    <t>₹48.1</t>
-  </si>
-  <si>
-    <t>₹103.66</t>
-  </si>
-  <si>
-    <t>₹21.17</t>
-  </si>
-  <si>
-    <t>₹121.18</t>
-  </si>
-  <si>
-    <t>₹50</t>
+    <t>₹365</t>
+  </si>
+  <si>
+    <t>₹194.18</t>
+  </si>
+  <si>
+    <t>₹330.69</t>
+  </si>
+  <si>
+    <t>₹30</t>
+  </si>
+  <si>
+    <t>₹26.28</t>
+  </si>
+  <si>
+    <t>₹220.46</t>
+  </si>
+  <si>
+    <t>₹12.41</t>
+  </si>
+  <si>
+    <t>₹274.3</t>
+  </si>
+  <si>
+    <t>₹61.32</t>
+  </si>
+  <si>
+    <t>₹94.17</t>
+  </si>
+  <si>
+    <t>₹429.24</t>
+  </si>
+  <si>
+    <t>₹59.13</t>
+  </si>
+  <si>
+    <t>₹322.66</t>
+  </si>
+  <si>
+    <t>₹278.13</t>
+  </si>
+  <si>
+    <t>₹527.06</t>
+  </si>
+  <si>
+    <t>₹100.01</t>
+  </si>
+  <si>
+    <t>₹118.26</t>
+  </si>
+  <si>
+    <t>₹35</t>
+  </si>
+  <si>
+    <t>₹404.42</t>
+  </si>
+  <si>
+    <t>₹224.9</t>
+  </si>
+  <si>
+    <t>₹275.21</t>
+  </si>
+  <si>
+    <t>₹313.17</t>
+  </si>
+  <si>
+    <t>₹45</t>
+  </si>
+  <si>
+    <t>₹129.21</t>
+  </si>
+  <si>
+    <t>₹56.21</t>
+  </si>
+  <si>
+    <t>₹337.26</t>
   </si>
   <si>
     <t>₹196.37</t>
   </si>
   <si>
-    <t>₹231.41</t>
-  </si>
-  <si>
-    <t>₹33.58</t>
-  </si>
-  <si>
-    <t>₹60</t>
-  </si>
-  <si>
-    <t>₹49.64</t>
-  </si>
-  <si>
-    <t>₹131.4</t>
-  </si>
-  <si>
-    <t>₹13.14</t>
-  </si>
-  <si>
-    <t>₹125.56</t>
-  </si>
-  <si>
-    <t>₹75.19</t>
-  </si>
-  <si>
-    <t>₹23.36</t>
-  </si>
-  <si>
-    <t>₹77.38</t>
-  </si>
-  <si>
-    <t>₹147.46</t>
-  </si>
-  <si>
-    <t>₹56.21</t>
-  </si>
-  <si>
-    <t>₹45.26</t>
-  </si>
-  <si>
-    <t>₹50.37</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>₹51.1</t>
-  </si>
-  <si>
-    <t>₹89</t>
-  </si>
-  <si>
-    <t>₹120.45</t>
-  </si>
-  <si>
-    <t>₹38.69</t>
-  </si>
-  <si>
-    <t>₹87.6</t>
-  </si>
-  <si>
-    <t>₹35.04</t>
-  </si>
-  <si>
-    <t>₹8</t>
-  </si>
-  <si>
-    <t>₹57.67</t>
-  </si>
-  <si>
-    <t>₹232.14</t>
-  </si>
-  <si>
-    <t>₹96</t>
-  </si>
-  <si>
-    <t>₹63.51</t>
-  </si>
-  <si>
-    <t>₹105.12</t>
-  </si>
-  <si>
-    <t>₹22.63</t>
-  </si>
-  <si>
-    <t>₹93.44</t>
-  </si>
-  <si>
-    <t>₹108.04</t>
-  </si>
-  <si>
-    <t>₹34</t>
-  </si>
-  <si>
-    <t>₹39.42</t>
-  </si>
-  <si>
-    <t>₹42.34</t>
-  </si>
-  <si>
-    <t>₹20.44</t>
-  </si>
-  <si>
-    <t>₹29.2</t>
-  </si>
-  <si>
-    <t>₹17.52</t>
-  </si>
-  <si>
-    <t>₹10.22</t>
-  </si>
-  <si>
-    <t>₹65.7</t>
-  </si>
-  <si>
-    <t>₹85.41</t>
-  </si>
-  <si>
-    <t>₹41.61</t>
-  </si>
-  <si>
-    <t>₹30.55</t>
-  </si>
-  <si>
-    <t>₹53.29</t>
-  </si>
-  <si>
-    <t>₹95.63</t>
-  </si>
-  <si>
-    <t>₹40.15</t>
-  </si>
-  <si>
-    <t>₹86.14</t>
-  </si>
-  <si>
-    <t>₹126.29</t>
-  </si>
-  <si>
-    <t>₹24.09</t>
-  </si>
-  <si>
-    <t>39% OFF</t>
-  </si>
-  <si>
-    <t>27% OFF</t>
-  </si>
-  <si>
-    <t>42% OFF</t>
-  </si>
-  <si>
-    <t>43% OFF</t>
-  </si>
-  <si>
-    <t>38% OFF</t>
-  </si>
-  <si>
-    <t>80% OFF</t>
-  </si>
-  <si>
-    <t>53% OFF</t>
-  </si>
-  <si>
-    <t>49% OFF</t>
-  </si>
-  <si>
-    <t>74% OFF</t>
+    <t>₹150.38</t>
+  </si>
+  <si>
+    <t>₹55.48</t>
+  </si>
+  <si>
+    <t>₹32.5</t>
+  </si>
+  <si>
+    <t>₹1383.35</t>
+  </si>
+  <si>
+    <t>₹288.35</t>
+  </si>
+  <si>
+    <t>₹91.25</t>
+  </si>
+  <si>
+    <t>₹115</t>
+  </si>
+  <si>
+    <t>₹71</t>
+  </si>
+  <si>
+    <t>₹294.19</t>
+  </si>
+  <si>
+    <t>₹177.39</t>
+  </si>
+  <si>
+    <t>46% OFF</t>
+  </si>
+  <si>
+    <t>28% OFF</t>
+  </si>
+  <si>
+    <t>31% OFF</t>
   </si>
   <si>
     <t>48% OFF</t>
   </si>
   <si>
-    <t>56% OFF</t>
-  </si>
-  <si>
-    <t>35% OFF</t>
-  </si>
-  <si>
-    <t>63% OFF</t>
-  </si>
-  <si>
-    <t>32% OFF</t>
-  </si>
-  <si>
-    <t>54% OFF</t>
-  </si>
-  <si>
-    <t>57% OFF</t>
+    <t>29% OFF</t>
+  </si>
+  <si>
+    <t>55% OFF</t>
   </si>
   <si>
     <t>41% OFF</t>
   </si>
   <si>
-    <t>33% OFF</t>
-  </si>
-  <si>
-    <t>47% OFF</t>
-  </si>
-  <si>
-    <t>31% OFF</t>
-  </si>
-  <si>
-    <t>44% OFF</t>
-  </si>
-  <si>
-    <t>Fresh Vegetables</t>
-  </si>
-  <si>
-    <t>2 kg</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx 500-1kg)</t>
-  </si>
-  <si>
-    <t>5 kg - Multipack</t>
-  </si>
-  <si>
-    <t>250 g</t>
-  </si>
-  <si>
-    <t>1 kg</t>
-  </si>
-  <si>
-    <t>1 pc - (approx. 400 to 600 g)</t>
-  </si>
-  <si>
-    <t>500 g</t>
-  </si>
-  <si>
-    <t>1 pack - (Approx. 180g - 200 g)</t>
-  </si>
-  <si>
-    <t>1 pc - (approx. 500 g to 800 g)</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx. 500 g - 800 g)</t>
-  </si>
-  <si>
-    <t>2 pcs</t>
-  </si>
-  <si>
-    <t>5 kg</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx. 100 g)</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx. 250g-500g)</t>
-  </si>
-  <si>
-    <t>100 g</t>
-  </si>
-  <si>
-    <t>350 g (2 pieces)</t>
-  </si>
-  <si>
-    <t>1 pc - Approx. 400 to 600 g</t>
-  </si>
-  <si>
-    <t>1 Kg</t>
-  </si>
-  <si>
-    <t>1 pc</t>
-  </si>
-  <si>
-    <t>1 pc (Approx 500-1000 g)</t>
-  </si>
-  <si>
-    <t>1 pc (approx. 300-1.3 Kg)</t>
-  </si>
-  <si>
-    <t>2023-09-28 10:02:18</t>
-  </si>
-  <si>
-    <t>2023-09-29 12:23:50</t>
-  </si>
-  <si>
-    <t>2023-10-05 05:13:58</t>
-  </si>
-  <si>
-    <t>Kesar Mango</t>
-  </si>
-  <si>
-    <t>Apple - Red Delicious / Washington, Regular</t>
-  </si>
-  <si>
-    <t>Apple - Red Delicious / Washington, Premium</t>
-  </si>
-  <si>
-    <t>Himayath Mango</t>
-  </si>
-  <si>
-    <t>Muskmelon -  Netted Medium</t>
-  </si>
-  <si>
-    <t>Raw Mango (Loose)</t>
-  </si>
-  <si>
-    <t>Banana - Robusta</t>
-  </si>
-  <si>
-    <t>Apple - Shimla, Regular</t>
-  </si>
-  <si>
-    <t>Pomegranate - Regular (Loose)</t>
-  </si>
-  <si>
-    <t>Baby Apple Shimla</t>
-  </si>
-  <si>
-    <t>Banana - Yelakki</t>
-  </si>
-  <si>
-    <t>Coconut - Medium</t>
-  </si>
-  <si>
-    <t>Papaya</t>
-  </si>
-  <si>
-    <t>Mini Orange Imported (Loose)</t>
-  </si>
-  <si>
-    <t>Pomegranate (Loose)</t>
-  </si>
-  <si>
-    <t>Tender Coconut</t>
-  </si>
-  <si>
-    <t>Guava - Thai (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala Economy</t>
-  </si>
-  <si>
-    <t>Watermelon -  Medium</t>
-  </si>
-  <si>
-    <t>Mosambi - Economy (Loose)</t>
-  </si>
-  <si>
-    <t>Kiwi - Green</t>
-  </si>
-  <si>
-    <t>Banana - Nendran</t>
-  </si>
-  <si>
-    <t>Guava (Loose)</t>
-  </si>
-  <si>
-    <t>Pear - Green, Imported</t>
-  </si>
-  <si>
-    <t>Blueberry</t>
-  </si>
-  <si>
-    <t>Muskmelon -  Netted Small</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala, Regular</t>
-  </si>
-  <si>
-    <t>Papaya - Small</t>
-  </si>
-  <si>
-    <t>Dragon Fruit (Loose)</t>
-  </si>
-  <si>
-    <t>Grapes - Bangalore Blue</t>
-  </si>
-  <si>
-    <t>Avocado (Loose)</t>
-  </si>
-  <si>
-    <t>Orange - Nagpur, Regular (Loose)</t>
-  </si>
-  <si>
-    <t>Avocado - Imported, Medium (Loose)</t>
-  </si>
-  <si>
-    <t>Mosambi - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala, Premium</t>
-  </si>
-  <si>
-    <t>Banana - Yelakki, Organically Grown</t>
-  </si>
-  <si>
-    <t>Banana - Raw Green (Loose)</t>
-  </si>
-  <si>
-    <t>Coconut - Large</t>
-  </si>
-  <si>
-    <t>Raw Mango - Rich in Vitamin C (Loose)</t>
-  </si>
-  <si>
-    <t>Pineapple</t>
-  </si>
-  <si>
-    <t>Sapota</t>
-  </si>
-  <si>
-    <t>Mango - Neelam</t>
-  </si>
-  <si>
-    <t>Fresh Figs</t>
-  </si>
-  <si>
-    <t>Langra Mango</t>
-  </si>
-  <si>
-    <t>Pear - Naspathi, Indian</t>
-  </si>
-  <si>
-    <t>Pear Beauty</t>
-  </si>
-  <si>
-    <t>Banana - Red</t>
-  </si>
-  <si>
-    <t>Pomegranate - Peeled</t>
-  </si>
-  <si>
-    <t>Mallika Mango</t>
-  </si>
-  <si>
-    <t>Apple - Green, Premium</t>
-  </si>
-  <si>
-    <t>Baby Banana - Robusta</t>
-  </si>
-  <si>
-    <t>Orange - Imported (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Pink Lady</t>
-  </si>
-  <si>
-    <t>Sugarcane - Diced</t>
-  </si>
-  <si>
-    <t>Coconut with Husk - Pooja Coconut</t>
-  </si>
-  <si>
-    <t>Dates - Kimia, with Seed</t>
-  </si>
-  <si>
-    <t>Wood Apple - Kothbel (Loose)</t>
-  </si>
-  <si>
-    <t>Zespri Kiwi - Sun Gold</t>
-  </si>
-  <si>
-    <t>Ber - Apple (Loose)</t>
-  </si>
-  <si>
-    <t>Banana - Karpooravalli</t>
-  </si>
-  <si>
-    <t>Orange - Nagpur, Small (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Ambri</t>
-  </si>
-  <si>
-    <t>Longan</t>
-  </si>
-  <si>
-    <t>Banana - Poovan</t>
-  </si>
-  <si>
-    <t>Banana - Nendran, Organically Grown</t>
-  </si>
-  <si>
-    <t>Apple - Shimla, Premium</t>
-  </si>
-  <si>
-    <t>Pear - Beauty, Rich In Fiber, Vitamin C, Great For Gut Health</t>
-  </si>
-  <si>
-    <t>Grapes - Red Globe</t>
-  </si>
-  <si>
-    <t>Mosambi - Premium (Loose)</t>
-  </si>
-  <si>
-    <t>Coconut - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Guava - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Soursop</t>
-  </si>
-  <si>
-    <t>Coconut - Diced</t>
-  </si>
-  <si>
-    <t>Cherry - Kashmir</t>
-  </si>
-  <si>
-    <t>Apple - Red Delicious, Economy</t>
-  </si>
-  <si>
-    <t>Apricot - Dried</t>
-  </si>
-  <si>
-    <t>Passion Fruit</t>
-  </si>
-  <si>
-    <t>Pineapple - Slices</t>
-  </si>
-  <si>
-    <t>Papaya- Diced</t>
-  </si>
-  <si>
-    <t>Plum - Indian</t>
-  </si>
-  <si>
-    <t>Pomegranate - Single Serve, Peeled</t>
-  </si>
-  <si>
-    <t>Mosambi (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Washington, Regular</t>
-  </si>
-  <si>
-    <t>Apple - Fuji, Economy</t>
-  </si>
-  <si>
-    <t>Cherry</t>
-  </si>
-  <si>
-    <t>Grape fruit - Imported (Loose)</t>
-  </si>
-  <si>
-    <t>Pineapple - Chunks, Single Serve</t>
-  </si>
-  <si>
-    <t>Watermelon - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Ber (Loose)</t>
-  </si>
-  <si>
-    <t>Rambutan</t>
-  </si>
-  <si>
-    <t>Plum - Imported</t>
-  </si>
-  <si>
-    <t>Tamarind - Sweet</t>
-  </si>
-  <si>
-    <t>Mango - Raw Totapuri</t>
-  </si>
-  <si>
-    <t>Pomelo - Peeled</t>
-  </si>
-  <si>
-    <t>Sapota - Organically Grown</t>
-  </si>
-  <si>
-    <t>Guava - Thai Organic, White</t>
-  </si>
-  <si>
-    <t>Mangosteen</t>
-  </si>
-  <si>
-    <t>Cherry - Imported</t>
-  </si>
-  <si>
-    <t>Apple - Queen, Rose</t>
-  </si>
-  <si>
-    <t>₹190</t>
-  </si>
-  <si>
-    <t>₹380</t>
-  </si>
-  <si>
-    <t>₹702</t>
-  </si>
-  <si>
-    <t>₹211.25</t>
-  </si>
-  <si>
-    <t>₹51</t>
-  </si>
-  <si>
-    <t>₹76</t>
-  </si>
-  <si>
-    <t>₹328</t>
-  </si>
-  <si>
-    <t>₹330</t>
-  </si>
-  <si>
-    <t>₹223</t>
-  </si>
-  <si>
-    <t>₹210</t>
-  </si>
-  <si>
-    <t>₹35</t>
-  </si>
-  <si>
-    <t>₹405</t>
-  </si>
-  <si>
-    <t>₹287</t>
-  </si>
-  <si>
-    <t>₹93.15</t>
-  </si>
-  <si>
-    <t>₹253</t>
-  </si>
-  <si>
-    <t>₹85</t>
-  </si>
-  <si>
-    <t>₹236</t>
-  </si>
-  <si>
-    <t>₹246</t>
-  </si>
-  <si>
-    <t>₹111</t>
-  </si>
-  <si>
-    <t>₹570</t>
-  </si>
-  <si>
-    <t>₹388</t>
-  </si>
-  <si>
-    <t>₹590</t>
-  </si>
-  <si>
-    <t>₹59</t>
-  </si>
-  <si>
-    <t>₹146</t>
-  </si>
-  <si>
-    <t>₹374</t>
-  </si>
-  <si>
-    <t>₹99</t>
-  </si>
-  <si>
-    <t>₹109</t>
-  </si>
-  <si>
-    <t>₹604</t>
-  </si>
-  <si>
-    <t>₹243</t>
-  </si>
-  <si>
-    <t>₹95</t>
-  </si>
-  <si>
-    <t>₹114</t>
-  </si>
-  <si>
-    <t>₹127</t>
-  </si>
-  <si>
-    <t>₹210.53</t>
-  </si>
-  <si>
-    <t>₹274</t>
-  </si>
-  <si>
-    <t>₹185</t>
-  </si>
-  <si>
-    <t>₹133</t>
-  </si>
-  <si>
-    <t>₹228</t>
-  </si>
-  <si>
-    <t>₹500</t>
-  </si>
-  <si>
-    <t>₹255</t>
-  </si>
-  <si>
-    <t>₹453</t>
-  </si>
-  <si>
-    <t>₹41.1</t>
-  </si>
-  <si>
-    <t>₹36</t>
-  </si>
-  <si>
-    <t>₹302</t>
-  </si>
-  <si>
-    <t>₹409</t>
-  </si>
-  <si>
-    <t>₹84</t>
-  </si>
-  <si>
-    <t>₹125</t>
-  </si>
-  <si>
-    <t>₹424</t>
-  </si>
-  <si>
-    <t>₹122</t>
-  </si>
-  <si>
-    <t>₹442</t>
-  </si>
-  <si>
-    <t>₹381</t>
-  </si>
-  <si>
-    <t>₹722</t>
-  </si>
-  <si>
-    <t>₹137</t>
-  </si>
-  <si>
-    <t>₹162</t>
-  </si>
-  <si>
-    <t>₹64</t>
-  </si>
-  <si>
-    <t>₹554</t>
-  </si>
-  <si>
-    <t>₹336</t>
-  </si>
-  <si>
-    <t>₹377</t>
-  </si>
-  <si>
-    <t>₹429</t>
-  </si>
-  <si>
-    <t>₹177</t>
-  </si>
-  <si>
-    <t>₹104.11</t>
-  </si>
-  <si>
-    <t>₹462</t>
-  </si>
-  <si>
-    <t>₹206</t>
-  </si>
-  <si>
-    <t>₹100</t>
-  </si>
-  <si>
-    <t>₹1895</t>
-  </si>
-  <si>
-    <t>₹394</t>
-  </si>
-  <si>
-    <t>₹192</t>
-  </si>
-  <si>
-    <t>₹110.96</t>
-  </si>
-  <si>
-    <t>₹403</t>
-  </si>
-  <si>
-    <t>₹242</t>
-  </si>
-  <si>
-    <t>₹138.7</t>
-  </si>
-  <si>
-    <t>₹277.4</t>
-  </si>
-  <si>
-    <t>₹512.46</t>
-  </si>
-  <si>
-    <t>₹37.23</t>
-  </si>
-  <si>
-    <t>₹214.5</t>
-  </si>
-  <si>
-    <t>₹134</t>
-  </si>
-  <si>
-    <t>₹153.3</t>
-  </si>
-  <si>
-    <t>₹25.55</t>
-  </si>
-  <si>
-    <t>₹44.2</t>
-  </si>
-  <si>
-    <t>₹186.55</t>
-  </si>
-  <si>
-    <t>₹49</t>
-  </si>
-  <si>
-    <t>₹50.05</t>
-  </si>
-  <si>
-    <t>₹164.45</t>
-  </si>
-  <si>
-    <t>₹62.05</t>
-  </si>
-  <si>
-    <t>₹147</t>
-  </si>
-  <si>
-    <t>₹132</t>
-  </si>
-  <si>
-    <t>₹80</t>
-  </si>
-  <si>
-    <t>₹416.1</t>
-  </si>
-  <si>
-    <t>₹283.24</t>
-  </si>
-  <si>
-    <t>₹340</t>
-  </si>
-  <si>
-    <t>₹38.35</t>
-  </si>
-  <si>
-    <t>₹106.58</t>
-  </si>
-  <si>
-    <t>₹273.02</t>
-  </si>
-  <si>
-    <t>₹72.27</t>
-  </si>
-  <si>
-    <t>₹79.57</t>
-  </si>
-  <si>
-    <t>₹440.92</t>
-  </si>
-  <si>
-    <t>₹177.39</t>
-  </si>
-  <si>
-    <t>₹69.35</t>
-  </si>
-  <si>
-    <t>₹32.12</t>
-  </si>
-  <si>
-    <t>₹37.5</t>
-  </si>
-  <si>
-    <t>₹83.22</t>
-  </si>
-  <si>
-    <t>₹92.71</t>
-  </si>
-  <si>
-    <t>₹153.69</t>
-  </si>
-  <si>
-    <t>₹178.1</t>
-  </si>
-  <si>
-    <t>₹135.05</t>
-  </si>
-  <si>
-    <t>₹97.09</t>
-  </si>
-  <si>
-    <t>₹148.2</t>
-  </si>
-  <si>
-    <t>₹365</t>
-  </si>
-  <si>
-    <t>₹34.31</t>
-  </si>
-  <si>
-    <t>₹186.15</t>
-  </si>
-  <si>
-    <t>₹330.69</t>
-  </si>
-  <si>
-    <t>₹30</t>
-  </si>
-  <si>
-    <t>₹26.28</t>
-  </si>
-  <si>
-    <t>₹220.46</t>
-  </si>
-  <si>
-    <t>₹12.41</t>
-  </si>
-  <si>
-    <t>₹265.85</t>
-  </si>
-  <si>
-    <t>₹61.32</t>
-  </si>
-  <si>
-    <t>₹91.25</t>
-  </si>
-  <si>
-    <t>₹239.44</t>
-  </si>
-  <si>
-    <t>₹309.52</t>
-  </si>
-  <si>
-    <t>₹89.06</t>
-  </si>
-  <si>
-    <t>₹322.66</t>
-  </si>
-  <si>
-    <t>₹278.13</t>
-  </si>
-  <si>
-    <t>₹527.06</t>
-  </si>
-  <si>
-    <t>₹36.5</t>
-  </si>
-  <si>
-    <t>₹100.01</t>
-  </si>
-  <si>
-    <t>₹118.26</t>
-  </si>
-  <si>
-    <t>₹46.72</t>
-  </si>
-  <si>
-    <t>₹404.42</t>
-  </si>
-  <si>
-    <t>₹218.4</t>
-  </si>
-  <si>
-    <t>₹275.21</t>
-  </si>
-  <si>
-    <t>₹313.17</t>
-  </si>
-  <si>
-    <t>₹54.02</t>
-  </si>
-  <si>
-    <t>₹129.21</t>
-  </si>
-  <si>
-    <t>₹337.26</t>
-  </si>
-  <si>
-    <t>₹150.38</t>
-  </si>
-  <si>
-    <t>₹31.2</t>
-  </si>
-  <si>
-    <t>₹1383.35</t>
-  </si>
-  <si>
-    <t>₹287.62</t>
-  </si>
-  <si>
-    <t>₹115</t>
-  </si>
-  <si>
-    <t>₹81</t>
-  </si>
-  <si>
-    <t>₹294.19</t>
-  </si>
-  <si>
-    <t>₹176.66</t>
-  </si>
-  <si>
-    <t>45% OFF</t>
-  </si>
-  <si>
     <t>40% OFF</t>
   </si>
   <si>
-    <t>46% OFF</t>
-  </si>
-  <si>
-    <t>28% OFF</t>
-  </si>
-  <si>
     <t>Fresh Fruits</t>
   </si>
   <si>
@@ -1631,9 +1652,6 @@
     <t>1 pc - 2.5 - 3.8 kg</t>
   </si>
   <si>
-    <t>3 kg</t>
-  </si>
-  <si>
     <t>3 pcs</t>
   </si>
   <si>
@@ -1728,6 +1746,9 @@
   </si>
   <si>
     <t>2023-10-05 05:14:36</t>
+  </si>
+  <si>
+    <t>2023-10-06 13:00:58</t>
   </si>
 </sst>
 </file>
@@ -2085,7 +2106,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2122,25 +2143,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D2" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F2" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G2" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="H2" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2148,25 +2169,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D3" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F3" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G3" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="H3" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2174,25 +2195,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="D4" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F4" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G4" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="H4" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2200,25 +2221,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D5" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F5" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G5" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="H5" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2226,25 +2247,25 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D6" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="E6" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="F6" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G6" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="H6" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2252,25 +2273,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
         <v>171</v>
       </c>
       <c r="D7" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="E7" t="s">
         <v>171</v>
       </c>
       <c r="F7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2278,25 +2299,25 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D8" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="E8" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F8" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G8" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="H8" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2304,25 +2325,25 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="D9" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="E9" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="F9" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G9" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="H9" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2330,25 +2351,25 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="E10" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="F10" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G10" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="H10" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2356,25 +2377,25 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D11" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="E11" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F11" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G11" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="H11" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2385,22 +2406,22 @@
         <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="D12" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="E12" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="F12" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G12" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H12" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2411,22 +2432,22 @@
         <v>114</v>
       </c>
       <c r="C13" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D13" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="E13" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F13" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G13" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="H13" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2437,22 +2458,22 @@
         <v>115</v>
       </c>
       <c r="C14" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D14" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="E14" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F14" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G14" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H14" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2460,25 +2481,25 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D15" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="E15" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F15" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G15" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="H15" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2486,25 +2507,25 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C16" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D16" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="E16" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="F16" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G16" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H16" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2515,22 +2536,22 @@
         <v>117</v>
       </c>
       <c r="C17" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D17" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="E17" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F17" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G17" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="H17" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2541,22 +2562,22 @@
         <v>118</v>
       </c>
       <c r="C18" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D18" t="s">
         <v>250</v>
       </c>
       <c r="E18" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F18" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G18" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="H18" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2567,22 +2588,22 @@
         <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="D19" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E19" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="F19" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G19" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="H19" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2593,22 +2614,22 @@
         <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E20" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F20" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G20" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="H20" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2619,22 +2640,22 @@
         <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="D21" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="E21" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F21" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G21" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="H21" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2645,22 +2666,22 @@
         <v>122</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="D22" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E22" t="s">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="F22" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G22" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="H22" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2668,25 +2689,25 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C23" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="D23" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="E23" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F23" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G23" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H23" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2694,25 +2715,25 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C24" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D24" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="E24" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="F24" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G24" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="H24" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2720,25 +2741,25 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="D25" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E25" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="F25" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G25" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H25" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2746,25 +2767,25 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C26" t="s">
-        <v>184</v>
+        <v>116</v>
       </c>
       <c r="D26" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="E26" t="s">
-        <v>184</v>
+        <v>116</v>
       </c>
       <c r="F26" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G26" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H26" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2772,25 +2793,25 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C27" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D27" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="E27" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="F27" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G27" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="H27" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2798,25 +2819,25 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C28" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D28" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E28" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="F28" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G28" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="H28" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2824,25 +2845,25 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C29" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="D29" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="E29" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="F29" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G29" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="H29" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2850,25 +2871,25 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C30" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D30" t="s">
         <v>250</v>
       </c>
       <c r="E30" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F30" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G30" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H30" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2876,25 +2897,25 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C31" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="D31" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="E31" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F31" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G31" t="s">
         <v>270</v>
       </c>
       <c r="H31" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2902,25 +2923,25 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C32" t="s">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="D32" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="E32" t="s">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="F32" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G32" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H32" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2928,25 +2949,25 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C33" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="D33" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E33" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="F33" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G33" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H33" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2954,25 +2975,25 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C34" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D34" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E34" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="F34" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G34" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H34" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2980,25 +3001,25 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C35" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="D35" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E35" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F35" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G35" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H35" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3006,25 +3027,25 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C36" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D36" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E36" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="F36" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G36" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="H36" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3032,25 +3053,25 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C37" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D37" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E37" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="F37" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G37" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H37" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3058,25 +3079,25 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C38" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D38" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E38" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F38" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G38" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H38" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3084,25 +3105,25 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C39" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="D39" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E39" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="F39" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G39" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="H39" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3110,25 +3131,25 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C40" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D40" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E40" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F40" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G40" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H40" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3136,25 +3157,25 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="C41" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D41" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E41" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F41" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G41" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H41" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3162,25 +3183,25 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C42" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="D42" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E42" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="F42" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G42" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H42" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3188,25 +3209,25 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C43" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="D43" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E43" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F43" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G43" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H43" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3214,25 +3235,25 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C44" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D44" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E44" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="F44" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G44" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="H44" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3240,25 +3261,25 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C45" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D45" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E45" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="F45" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G45" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H45" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3266,25 +3287,25 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C46" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D46" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E46" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F46" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G46" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="H46" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3292,25 +3313,25 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C47" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D47" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E47" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F47" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G47" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H47" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3318,25 +3339,25 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C48" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D48" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E48" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F48" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G48" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="H48" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3347,22 +3368,22 @@
         <v>141</v>
       </c>
       <c r="C49" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D49" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E49" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="F49" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G49" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H49" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3373,22 +3394,22 @@
         <v>142</v>
       </c>
       <c r="C50" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D50" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E50" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F50" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G50" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="H50" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3396,25 +3417,25 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C51" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D51" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="E51" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="F51" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G51" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H51" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3422,25 +3443,25 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C52" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D52" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="E52" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="F52" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G52" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H52" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3448,25 +3469,25 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="C53" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="D53" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E53" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F53" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G53" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H53" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3477,22 +3498,22 @@
         <v>145</v>
       </c>
       <c r="C54" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D54" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E54" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F54" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G54" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H54" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3500,25 +3521,25 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C55" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="D55" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E55" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="F55" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G55" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H55" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3526,25 +3547,25 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C56" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="D56" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E56" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="F56" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G56" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="H56" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3552,25 +3573,25 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C57" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D57" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E57" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F57" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G57" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="H57" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3578,25 +3599,25 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="C58" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="D58" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="E58" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="F58" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G58" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="H58" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3604,25 +3625,25 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="C59" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D59" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E59" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F59" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G59" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="H59" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3630,25 +3651,25 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C60" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="D60" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E60" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="F60" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G60" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="H60" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3656,25 +3677,25 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="C61" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="D61" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E61" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="F61" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G61" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="H61" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3682,25 +3703,25 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C62" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="D62" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E62" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="F62" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G62" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H62" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3708,25 +3729,25 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C63" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="D63" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E63" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="F63" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G63" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H63" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3734,25 +3755,25 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C64" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D64" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E64" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F64" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G64" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="H64" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3763,22 +3784,22 @@
         <v>149</v>
       </c>
       <c r="C65" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D65" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E65" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F65" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G65" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H65" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3786,25 +3807,25 @@
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="C66" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="D66" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E66" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="F66" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G66" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="H66" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3812,25 +3833,25 @@
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="C67" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="D67" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E67" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="F67" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G67" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="H67" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3841,22 +3862,22 @@
         <v>151</v>
       </c>
       <c r="C68" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D68" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E68" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F68" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G68" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H68" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3864,25 +3885,25 @@
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="C69" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D69" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E69" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F69" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G69" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H69" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3890,25 +3911,25 @@
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C70" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D70" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E70" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F70" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G70" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="H70" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3916,25 +3937,25 @@
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C71" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D71" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E71" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F71" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G71" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="H71" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3942,25 +3963,25 @@
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C72" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D72" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E72" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F72" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G72" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="H72" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3968,25 +3989,25 @@
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="C73" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D73" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E73" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F73" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G73" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H73" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3994,25 +4015,25 @@
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="C74" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="D74" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E74" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="F74" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G74" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="H74" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4020,25 +4041,25 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="C75" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D75" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E75" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F75" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G75" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="H75" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4046,25 +4067,25 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="C76" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="D76" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E76" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="F76" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G76" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="H76" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4072,25 +4093,25 @@
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C77" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D77" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E77" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F77" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G77" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H77" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4098,25 +4119,25 @@
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C78" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D78" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E78" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F78" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G78" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H78" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4124,25 +4145,25 @@
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="C79" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D79" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E79" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F79" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G79" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="H79" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4153,22 +4174,22 @@
         <v>159</v>
       </c>
       <c r="C80" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D80" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E80" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F80" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G80" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="H80" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4176,25 +4197,25 @@
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="C81" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="D81" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E81" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="F81" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G81" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="H81" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4202,25 +4223,25 @@
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C82" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D82" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E82" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F82" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G82" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="H82" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4228,25 +4249,25 @@
         <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="C83" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="D83" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E83" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="F83" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G83" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="H83" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4254,25 +4275,25 @@
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C84" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="D84" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E84" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="F84" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G84" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="H84" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4280,25 +4301,25 @@
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C85" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D85" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E85" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F85" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G85" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="H85" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4306,25 +4327,25 @@
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="C86" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="D86" t="s">
+        <v>261</v>
+      </c>
+      <c r="E86" t="s">
         <v>238</v>
       </c>
-      <c r="E86" t="s">
-        <v>218</v>
-      </c>
       <c r="F86" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G86" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="H86" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4332,25 +4353,25 @@
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="C87" t="s">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="D87" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E87" t="s">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="F87" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G87" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="H87" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4358,25 +4379,25 @@
         <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C88" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D88" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E88" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F88" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G88" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="H88" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4384,25 +4405,25 @@
         <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="C89" t="s">
-        <v>191</v>
+        <v>240</v>
       </c>
       <c r="D89" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E89" t="s">
-        <v>191</v>
+        <v>240</v>
       </c>
       <c r="F89" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G89" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="H89" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4410,25 +4431,25 @@
         <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="C90" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="D90" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E90" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="F90" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G90" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="H90" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4436,25 +4457,25 @@
         <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="C91" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="D91" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E91" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="F91" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G91" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H91" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4462,25 +4483,25 @@
         <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C92" t="s">
-        <v>119</v>
+        <v>243</v>
       </c>
       <c r="D92" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E92" t="s">
-        <v>119</v>
+        <v>243</v>
       </c>
       <c r="F92" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G92" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="H92" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4488,25 +4509,25 @@
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C93" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="D93" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="E93" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="F93" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G93" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H93" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4514,25 +4535,25 @@
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C94" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="D94" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E94" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="F94" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G94" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="H94" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4540,25 +4561,25 @@
         <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C95" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="D95" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E95" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="F95" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G95" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="H95" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4566,25 +4587,51 @@
         <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C96" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="D96" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E96" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="F96" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G96" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="H96" t="s">
-        <v>282</v>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97" t="s">
+        <v>171</v>
+      </c>
+      <c r="C97" t="s">
+        <v>248</v>
+      </c>
+      <c r="D97" t="s">
+        <v>250</v>
+      </c>
+      <c r="E97" t="s">
+        <v>248</v>
+      </c>
+      <c r="F97" t="s">
+        <v>267</v>
+      </c>
+      <c r="G97" t="s">
+        <v>285</v>
+      </c>
+      <c r="H97" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -4628,2576 +4675,2576 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="B2" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="C2" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="D2" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E2" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="F2" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G2" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H2" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B3" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="C3" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="D3" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E3" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="F3" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G3" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="H3" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="B4" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="C4" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="D4" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E4" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="F4" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G4" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="H4" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B5" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D5" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E5" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="F5" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G5" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H5" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="B6" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="C6" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="D6" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E6" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="F6" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G6" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="H6" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>396</v>
       </c>
       <c r="C7" t="s">
-        <v>181</v>
+        <v>461</v>
       </c>
       <c r="D7" t="s">
-        <v>238</v>
+        <v>527</v>
       </c>
       <c r="E7" t="s">
-        <v>181</v>
+        <v>461</v>
       </c>
       <c r="F7" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="H7" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="B8" t="s">
-        <v>387</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F8" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G8" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H8" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="B9" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>462</v>
       </c>
       <c r="D9" t="s">
-        <v>524</v>
+        <v>250</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>462</v>
       </c>
       <c r="F9" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G9" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="H9" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="B10" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="C10" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="D10" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="E10" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="F10" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G10" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="H10" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B11" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="C11" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="D11" t="s">
-        <v>525</v>
+        <v>264</v>
       </c>
       <c r="E11" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="F11" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G11" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="H11" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="B12" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="C12" t="s">
-        <v>457</v>
+        <v>130</v>
       </c>
       <c r="D12" t="s">
-        <v>238</v>
+        <v>528</v>
       </c>
       <c r="E12" t="s">
-        <v>457</v>
+        <v>130</v>
       </c>
       <c r="F12" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G12" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H12" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="B13" t="s">
-        <v>392</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>458</v>
+        <v>147</v>
       </c>
       <c r="D13" t="s">
-        <v>238</v>
+        <v>529</v>
       </c>
       <c r="E13" t="s">
-        <v>458</v>
+        <v>147</v>
       </c>
       <c r="F13" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G13" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="H13" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C14" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="D14" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="E14" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="F14" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G14" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H14" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B15" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="C15" t="s">
-        <v>399</v>
+        <v>466</v>
       </c>
       <c r="D15" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="E15" t="s">
-        <v>399</v>
+        <v>466</v>
       </c>
       <c r="F15" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G15" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H15" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="B16" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="C16" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="D16" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="E16" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="F16" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G16" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="H16" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="B17" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="C17" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="D17" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E17" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="F17" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G17" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="H17" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="D18" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="E18" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="F18" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G18" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="H18" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="B19" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="C19" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="D19" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="E19" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="F19" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G19" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="H19" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B20" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="C20" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="D20" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E20" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="F20" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G20" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="H20" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="B21" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="C21" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="D21" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="E21" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="F21" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G21" t="s">
-        <v>538</v>
+        <v>270</v>
       </c>
       <c r="H21" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B22" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="C22" t="s">
-        <v>466</v>
+        <v>160</v>
       </c>
       <c r="D22" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="E22" t="s">
-        <v>466</v>
+        <v>160</v>
       </c>
       <c r="F22" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G22" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="H22" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>395</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="D23" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E23" t="s">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="F23" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G23" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="H23" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="B24" t="s">
-        <v>400</v>
+        <v>139</v>
       </c>
       <c r="C24" t="s">
-        <v>467</v>
+        <v>208</v>
       </c>
       <c r="D24" t="s">
-        <v>527</v>
+        <v>250</v>
       </c>
       <c r="E24" t="s">
-        <v>467</v>
+        <v>208</v>
       </c>
       <c r="F24" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G24" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H24" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="B25" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="C25" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="D25" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E25" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="F25" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G25" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="H25" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="B26" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="C26" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D26" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E26" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="F26" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G26" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="H26" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="B27" t="s">
         <v>154</v>
       </c>
       <c r="C27" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D27" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E27" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F27" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G27" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="H27" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="B28" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C28" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D28" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="E28" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="F28" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G28" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="H28" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="B29" t="s">
-        <v>404</v>
+        <v>145</v>
       </c>
       <c r="C29" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D29" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="E29" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="F29" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G29" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="H29" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="B30" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="C30" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="D30" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E30" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="F30" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G30" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="H30" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="B31" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C31" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D31" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E31" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="F31" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G31" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H31" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="B32" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C32" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D32" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E32" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="F32" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G32" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H32" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B33" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C33" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="D33" t="s">
-        <v>238</v>
+        <v>531</v>
       </c>
       <c r="E33" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="F33" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G33" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="H33" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D34" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="E34" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F34" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G34" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="H34" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="B35" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C35" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D35" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E35" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="F35" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G35" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H35" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="B36" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="C36" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="D36" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E36" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="F36" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G36" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="H36" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="B37" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C37" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="D37" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E37" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="F37" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G37" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H37" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="B38" t="s">
-        <v>411</v>
+        <v>162</v>
       </c>
       <c r="C38" t="s">
-        <v>478</v>
+        <v>237</v>
       </c>
       <c r="D38" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E38" t="s">
-        <v>478</v>
+        <v>237</v>
       </c>
       <c r="F38" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G38" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H38" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="C39" t="s">
-        <v>479</v>
+        <v>211</v>
       </c>
       <c r="D39" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E39" t="s">
-        <v>479</v>
+        <v>211</v>
       </c>
       <c r="F39" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G39" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="H39" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="B40" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C40" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D40" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="E40" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="F40" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G40" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="H40" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B41" t="s">
-        <v>137</v>
+        <v>417</v>
       </c>
       <c r="C41" t="s">
-        <v>199</v>
+        <v>127</v>
       </c>
       <c r="D41" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E41" t="s">
-        <v>199</v>
+        <v>127</v>
       </c>
       <c r="F41" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G41" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="H41" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="B42" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C42" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D42" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E42" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="F42" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G42" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H42" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="B43" t="s">
-        <v>413</v>
+        <v>160</v>
       </c>
       <c r="C43" t="s">
-        <v>482</v>
+        <v>234</v>
       </c>
       <c r="D43" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E43" t="s">
-        <v>482</v>
+        <v>234</v>
       </c>
       <c r="F43" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G43" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H43" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="B44" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="C44" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D44" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E44" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F44" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G44" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H44" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="B45" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C45" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="D45" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E45" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="F45" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G45" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H45" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="B46" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="C46" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D46" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="E46" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F46" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G46" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H46" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="B47" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C47" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D47" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E47" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F47" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G47" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="H47" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="B48" t="s">
-        <v>417</v>
+        <v>164</v>
       </c>
       <c r="C48" t="s">
-        <v>486</v>
+        <v>239</v>
       </c>
       <c r="D48" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E48" t="s">
-        <v>486</v>
+        <v>239</v>
       </c>
       <c r="F48" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G48" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H48" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="B49" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="C49" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D49" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="E49" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F49" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G49" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="H49" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B50" t="s">
-        <v>124</v>
+        <v>422</v>
       </c>
       <c r="C50" t="s">
-        <v>183</v>
+        <v>489</v>
       </c>
       <c r="D50" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E50" t="s">
-        <v>183</v>
+        <v>489</v>
       </c>
       <c r="F50" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G50" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H50" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="B51" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C51" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D51" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E51" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F51" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G51" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="H51" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="B52" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C52" t="s">
-        <v>489</v>
+        <v>241</v>
       </c>
       <c r="D52" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E52" t="s">
-        <v>489</v>
+        <v>241</v>
       </c>
       <c r="F52" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G52" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="H52" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="B53" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C53" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D53" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E53" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F53" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G53" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="H53" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="B54" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C54" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D54" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E54" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F54" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G54" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="H54" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="B55" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C55" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D55" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E55" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F55" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G55" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="H55" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="B56" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C56" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D56" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E56" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F56" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G56" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="H56" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B57" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C57" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D57" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E57" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F57" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G57" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="H57" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="B58" t="s">
-        <v>171</v>
+        <v>429</v>
       </c>
       <c r="C58" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D58" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E58" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F58" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G58" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="H58" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="B59" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C59" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D59" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="E59" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F59" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G59" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="H59" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="B60" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C60" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="D60" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E60" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F60" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G60" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H60" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="B61" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="C61" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D61" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E61" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F61" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G61" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H61" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="B62" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="C62" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D62" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E62" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F62" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G62" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="H62" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="B63" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="C63" t="s">
-        <v>499</v>
+        <v>462</v>
       </c>
       <c r="D63" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E63" t="s">
-        <v>499</v>
+        <v>462</v>
       </c>
       <c r="F63" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G63" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H63" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="B64" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C64" t="s">
         <v>500</v>
       </c>
       <c r="D64" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E64" t="s">
         <v>500</v>
       </c>
       <c r="F64" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G64" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H64" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="B65" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="C65" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D65" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E65" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="F65" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G65" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H65" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="B66" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="C66" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="D66" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E66" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="F66" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G66" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="H66" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="B67" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="C67" t="s">
         <v>502</v>
       </c>
       <c r="D67" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E67" t="s">
         <v>502</v>
       </c>
       <c r="F67" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G67" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="H67" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="B68" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C68" t="s">
         <v>503</v>
       </c>
       <c r="D68" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E68" t="s">
         <v>503</v>
       </c>
       <c r="F68" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G68" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="H68" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="B69" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C69" t="s">
         <v>504</v>
       </c>
       <c r="D69" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E69" t="s">
         <v>504</v>
       </c>
       <c r="F69" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G69" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H69" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C70" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="D70" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E70" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="F70" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G70" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="H70" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="B71" t="s">
-        <v>188</v>
+        <v>395</v>
       </c>
       <c r="C71" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="D71" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E71" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="F71" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G71" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="H71" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="B72" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C72" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D72" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E72" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F72" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G72" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H72" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="B73" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C73" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D73" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E73" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F73" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G73" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H73" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B74" t="s">
-        <v>435</v>
+        <v>121</v>
       </c>
       <c r="C74" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D74" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="E74" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F74" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G74" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="H74" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="B75" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C75" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D75" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E75" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F75" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G75" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="H75" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B76" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C76" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D76" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="E76" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F76" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G76" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="H76" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="B77" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C77" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D77" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E77" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F77" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G77" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="H77" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="B78" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C78" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D78" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E78" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F78" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G78" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H78" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="B79" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="C79" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D79" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E79" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F79" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G79" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="H79" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="B80" t="s">
-        <v>126</v>
+        <v>444</v>
       </c>
       <c r="C80" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D80" t="s">
-        <v>238</v>
+        <v>533</v>
       </c>
       <c r="E80" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F80" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G80" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="H80" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="B81" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="C81" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D81" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E81" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F81" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G81" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="H81" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B82" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="C82" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="D82" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E82" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="F82" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G82" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="H82" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="B83" t="s">
-        <v>139</v>
+        <v>447</v>
       </c>
       <c r="C83" t="s">
-        <v>201</v>
+        <v>514</v>
       </c>
       <c r="D83" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E83" t="s">
-        <v>201</v>
+        <v>514</v>
       </c>
       <c r="F83" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G83" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="H83" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="B84" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C84" t="s">
         <v>515</v>
       </c>
       <c r="D84" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E84" t="s">
         <v>515</v>
       </c>
       <c r="F84" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G84" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="H84" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="B85" t="s">
-        <v>130</v>
+        <v>449</v>
       </c>
       <c r="C85" t="s">
-        <v>189</v>
+        <v>516</v>
       </c>
       <c r="D85" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E85" t="s">
-        <v>189</v>
+        <v>516</v>
       </c>
       <c r="F85" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G85" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="H85" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="B86" t="s">
-        <v>413</v>
+        <v>160</v>
       </c>
       <c r="C86" t="s">
-        <v>482</v>
+        <v>234</v>
       </c>
       <c r="D86" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E86" t="s">
-        <v>482</v>
+        <v>234</v>
       </c>
       <c r="F86" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G86" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="H86" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="B87" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="C87" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D87" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E87" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F87" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G87" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="H87" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="B88" t="s">
-        <v>129</v>
+        <v>444</v>
       </c>
       <c r="C88" t="s">
-        <v>231</v>
+        <v>518</v>
       </c>
       <c r="D88" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E88" t="s">
-        <v>231</v>
+        <v>518</v>
       </c>
       <c r="F88" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G88" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="H88" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="B89" t="s">
-        <v>444</v>
+        <v>417</v>
       </c>
       <c r="C89" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D89" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E89" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F89" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G89" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="H89" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="B90" t="s">
-        <v>120</v>
+        <v>196</v>
       </c>
       <c r="C90" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D90" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="E90" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F90" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G90" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="H90" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="B91" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C91" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D91" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E91" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="F91" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G91" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H91" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="B92" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C92" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D92" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E92" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F92" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G92" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="H92" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="B93" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="C93" t="s">
-        <v>498</v>
+        <v>522</v>
       </c>
       <c r="D93" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E93" t="s">
-        <v>498</v>
+        <v>522</v>
       </c>
       <c r="F93" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G93" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="H93" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="B94" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="C94" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="D94" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="E94" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="F94" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G94" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H94" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="B95" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="C95" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D95" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E95" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F95" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G95" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="H95" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="B96" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="C96" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="D96" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E96" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="F96" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G96" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H96" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="B97" t="s">
-        <v>139</v>
+        <v>447</v>
       </c>
       <c r="C97" t="s">
-        <v>201</v>
+        <v>514</v>
       </c>
       <c r="D97" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E97" t="s">
-        <v>201</v>
+        <v>514</v>
       </c>
       <c r="F97" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G97" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="H97" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="B98" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="C98" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D98" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E98" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="F98" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G98" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="H98" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="B99" t="s">
-        <v>450</v>
+        <v>407</v>
       </c>
       <c r="C99" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D99" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E99" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="F99" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G99" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="H99" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="B100" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="C100" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D100" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E100" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="F100" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G100" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="H100" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>

--- a/BigBasket/BigBasket_products.xlsx
+++ b/BigBasket/BigBasket_products.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="559">
   <si>
     <t>product_name</t>
   </si>
@@ -506,660 +506,690 @@
     <t>₹12.75</t>
   </si>
   <si>
+    <t>₹83.5</t>
+  </si>
+  <si>
+    <t>₹52</t>
+  </si>
+  <si>
+    <t>₹26</t>
+  </si>
+  <si>
+    <t>₹20</t>
+  </si>
+  <si>
+    <t>₹5.5</t>
+  </si>
+  <si>
+    <t>₹26.28</t>
+  </si>
+  <si>
+    <t>₹115.34</t>
+  </si>
+  <si>
+    <t>₹66.43</t>
+  </si>
+  <si>
+    <t>₹17.5</t>
+  </si>
+  <si>
+    <t>₹121.18</t>
+  </si>
+  <si>
+    <t>₹55.48</t>
+  </si>
+  <si>
+    <t>₹93.44</t>
+  </si>
+  <si>
+    <t>₹161.33</t>
+  </si>
+  <si>
+    <t>₹23</t>
+  </si>
+  <si>
+    <t>₹24.09</t>
+  </si>
+  <si>
+    <t>₹211.7</t>
+  </si>
+  <si>
+    <t>₹231.41</t>
+  </si>
+  <si>
+    <t>₹37.23</t>
+  </si>
+  <si>
+    <t>₹49.64</t>
+  </si>
+  <si>
+    <t>₹131.4</t>
+  </si>
+  <si>
+    <t>₹105.12</t>
+  </si>
+  <si>
+    <t>₹13.14</t>
+  </si>
+  <si>
+    <t>₹149.65</t>
+  </si>
+  <si>
+    <t>₹138.7</t>
+  </si>
+  <si>
+    <t>₹18.25</t>
+  </si>
+  <si>
+    <t>₹39.42</t>
+  </si>
+  <si>
+    <t>₹75.19</t>
+  </si>
+  <si>
+    <t>₹41.61</t>
+  </si>
+  <si>
+    <t>₹72.27</t>
+  </si>
+  <si>
+    <t>₹59.13</t>
+  </si>
+  <si>
+    <t>₹38</t>
+  </si>
+  <si>
+    <t>₹77.38</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>₹105</t>
+  </si>
+  <si>
+    <t>₹189.07</t>
+  </si>
+  <si>
+    <t>₹110.23</t>
+  </si>
+  <si>
+    <t>₹81.03</t>
+  </si>
+  <si>
+    <t>₹69.35</t>
+  </si>
+  <si>
+    <t>₹40.15</t>
+  </si>
+  <si>
+    <t>₹51.1</t>
+  </si>
+  <si>
+    <t>₹101.47</t>
+  </si>
+  <si>
+    <t>₹65.7</t>
+  </si>
+  <si>
+    <t>₹22.63</t>
+  </si>
+  <si>
+    <t>₹78.11</t>
+  </si>
+  <si>
+    <t>₹109.5</t>
+  </si>
+  <si>
+    <t>₹31.39</t>
+  </si>
+  <si>
+    <t>₹88</t>
+  </si>
+  <si>
+    <t>₹108.04</t>
+  </si>
+  <si>
+    <t>₹53.29</t>
+  </si>
+  <si>
+    <t>₹42.34</t>
+  </si>
+  <si>
+    <t>₹17.52</t>
+  </si>
+  <si>
+    <t>₹29.2</t>
+  </si>
+  <si>
+    <t>₹38.69</t>
+  </si>
+  <si>
+    <t>₹11.68</t>
+  </si>
+  <si>
+    <t>₹21.17</t>
+  </si>
+  <si>
+    <t>₹45.26</t>
+  </si>
+  <si>
+    <t>₹87.6</t>
+  </si>
+  <si>
+    <t>₹28.47</t>
+  </si>
+  <si>
+    <t>43% OFF</t>
+  </si>
+  <si>
+    <t>39% OFF</t>
+  </si>
+  <si>
+    <t>60% OFF</t>
+  </si>
+  <si>
+    <t>36% OFF</t>
+  </si>
+  <si>
+    <t>67% OFF</t>
+  </si>
+  <si>
+    <t>29% OFF</t>
+  </si>
+  <si>
+    <t>54% OFF</t>
+  </si>
+  <si>
+    <t>65% OFF</t>
+  </si>
+  <si>
+    <t>61% OFF</t>
+  </si>
+  <si>
+    <t>27% OFF</t>
+  </si>
+  <si>
+    <t>41% OFF</t>
+  </si>
+  <si>
+    <t>31% OFF</t>
+  </si>
+  <si>
+    <t>51% OFF</t>
+  </si>
+  <si>
+    <t>45% OFF</t>
+  </si>
+  <si>
+    <t>71% OFF</t>
+  </si>
+  <si>
+    <t>28% OFF</t>
+  </si>
+  <si>
+    <t>59% OFF</t>
+  </si>
+  <si>
+    <t>32% OFF</t>
+  </si>
+  <si>
+    <t>66% OFF</t>
+  </si>
+  <si>
+    <t>44% OFF</t>
+  </si>
+  <si>
+    <t>Fresh Vegetables</t>
+  </si>
+  <si>
+    <t>5 kg - Multipack</t>
+  </si>
+  <si>
+    <t>1 kg</t>
+  </si>
+  <si>
+    <t>250 g</t>
+  </si>
+  <si>
+    <t>500 g</t>
+  </si>
+  <si>
+    <t>1 pc - (approx. 400 to 600 g)</t>
+  </si>
+  <si>
+    <t>1 pack - (Approx. 180g - 200 g)</t>
+  </si>
+  <si>
+    <t>1 pc - (approx. 500 g to 800 g)</t>
+  </si>
+  <si>
+    <t>2 pcs</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 500 g - 800 g)</t>
+  </si>
+  <si>
+    <t>5 kg</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 100 g)</t>
+  </si>
+  <si>
+    <t>10 pcs</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 250g-500g)</t>
+  </si>
+  <si>
+    <t>350 g (2 pieces)</t>
+  </si>
+  <si>
+    <t>100 g</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 100g-250g)</t>
+  </si>
+  <si>
+    <t>1 Kg</t>
+  </si>
+  <si>
+    <t>1 pc - Approx. 400 to 600 g</t>
+  </si>
+  <si>
+    <t>1 pc</t>
+  </si>
+  <si>
+    <t>1 pc (approx. 300-1.3 Kg)</t>
+  </si>
+  <si>
+    <t>1 pc (Approx 500-1000 g)</t>
+  </si>
+  <si>
+    <t>300 g</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:09:18.304418+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:09:18.345747+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:09:18.361389+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:09:18.378134+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:09:18.384003+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:09:18.400051+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:09:18.401050+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:09:18.416724+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:09:18.421733+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:09:18.439526+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:09:18.456060+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:09:18.457964+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:09:18.458503+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:09:18.474869+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:09:18.486763+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:09:18.503620+05:30</t>
+  </si>
+  <si>
+    <t>Banana - Robusta</t>
+  </si>
+  <si>
+    <t>Apple - Shimla, Regular</t>
+  </si>
+  <si>
+    <t>Banana - Yelakki</t>
+  </si>
+  <si>
+    <t>Baby Apple Shimla</t>
+  </si>
+  <si>
+    <t>Pomegranate - Regular (Loose)</t>
+  </si>
+  <si>
+    <t>Coconut - Medium</t>
+  </si>
+  <si>
+    <t>Mini Orange Imported (Loose)</t>
+  </si>
+  <si>
+    <t>Papaya</t>
+  </si>
+  <si>
+    <t>Pomegranate (Loose)</t>
+  </si>
+  <si>
+    <t>Watermelon -  Medium</t>
+  </si>
+  <si>
+    <t>Tender Coconut</t>
+  </si>
+  <si>
+    <t>Orange - Nagpur, Regular (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala Economy</t>
+  </si>
+  <si>
+    <t>Kiwi - Green</t>
+  </si>
+  <si>
+    <t>Banana - Nendran</t>
+  </si>
+  <si>
+    <t>Guava - Thai (Loose)</t>
+  </si>
+  <si>
+    <t>Mosambi - Economy (Loose)</t>
+  </si>
+  <si>
+    <t>Pear - Green, Imported</t>
+  </si>
+  <si>
+    <t>Dragon Fruit (Loose)</t>
+  </si>
+  <si>
+    <t>Guava (Loose)</t>
+  </si>
+  <si>
+    <t>Avocado - Imported, Medium (Loose)</t>
+  </si>
+  <si>
+    <t>Papaya - Small</t>
+  </si>
+  <si>
+    <t>Muskmelon -  Netted Medium</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala, Regular</t>
+  </si>
+  <si>
+    <t>Avocado (Loose)</t>
+  </si>
+  <si>
+    <t>Grapes - Bangalore Blue</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala, Premium</t>
+  </si>
+  <si>
+    <t>Sapota</t>
+  </si>
+  <si>
+    <t>Banana - Yelakki, Organically Grown</t>
+  </si>
+  <si>
+    <t>Mosambi - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Banana - Raw Green (Loose)</t>
+  </si>
+  <si>
+    <t>Mango - Neelam</t>
+  </si>
+  <si>
+    <t>Blueberry</t>
+  </si>
+  <si>
+    <t>Raw Mango (Loose)</t>
+  </si>
+  <si>
+    <t>Orange - Nagpur, Small (Loose)</t>
+  </si>
+  <si>
+    <t>Pineapple</t>
+  </si>
+  <si>
+    <t>Coconut - Large</t>
+  </si>
+  <si>
+    <t>Pear Beauty</t>
+  </si>
+  <si>
+    <t>Pomegranate - Peeled</t>
+  </si>
+  <si>
+    <t>Banana - Red</t>
+  </si>
+  <si>
+    <t>Apple - Green, Premium</t>
+  </si>
+  <si>
+    <t>Fresh Figs</t>
+  </si>
+  <si>
+    <t>Apple - Shimla, Premium</t>
+  </si>
+  <si>
+    <t>Wood Apple - Kothbel (Loose)</t>
+  </si>
+  <si>
+    <t>Ber - Apple (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Ambri</t>
+  </si>
+  <si>
+    <t>Banana - Poovan</t>
+  </si>
+  <si>
+    <t>Orange - Imported (Loose)</t>
+  </si>
+  <si>
+    <t>Dates - Kimia, with Seed</t>
+  </si>
+  <si>
+    <t>Baby Banana - Robusta</t>
+  </si>
+  <si>
+    <t>Banana - Karpooravalli</t>
+  </si>
+  <si>
+    <t>Zespri Kiwi - Sun Gold</t>
+  </si>
+  <si>
+    <t>Longan</t>
+  </si>
+  <si>
+    <t>Apple - Pink Lady</t>
+  </si>
+  <si>
+    <t>Banana - Nendran, Organically Grown</t>
+  </si>
+  <si>
+    <t>Passion Fruit</t>
+  </si>
+  <si>
+    <t>Sugarcane - Diced</t>
+  </si>
+  <si>
+    <t>Pear - Beauty, Rich In Fiber, Vitamin C, Great For Gut Health</t>
+  </si>
+  <si>
+    <t>Mango - Raw Totapuri</t>
+  </si>
+  <si>
+    <t>Coconut with Husk - Pooja Coconut</t>
+  </si>
+  <si>
+    <t>Cherry - Kashmir</t>
+  </si>
+  <si>
+    <t>Apple - Red Delicious, Economy</t>
+  </si>
+  <si>
+    <t>Mosambi - Premium (Loose)</t>
+  </si>
+  <si>
+    <t>Pear - Naspathi, Indian</t>
+  </si>
+  <si>
+    <t>Pineapple - Slices</t>
+  </si>
+  <si>
+    <t>Grapes - Red Globe</t>
+  </si>
+  <si>
+    <t>Soursop</t>
+  </si>
+  <si>
+    <t>Apricot - Dried</t>
+  </si>
+  <si>
+    <t>Plum - Indian</t>
+  </si>
+  <si>
+    <t>Coconut - Diced</t>
+  </si>
+  <si>
+    <t>Papaya- Diced</t>
+  </si>
+  <si>
+    <t>Guava - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Coconut - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Pomegranate - Single Serve, Peeled</t>
+  </si>
+  <si>
+    <t>Apple - Red Delicious, Organically Grown</t>
+  </si>
+  <si>
+    <t>Grape fruit - Imported (Loose)</t>
+  </si>
+  <si>
+    <t>Pineapple - Chunks, Single Serve</t>
+  </si>
+  <si>
+    <t>Apple - Fuji Premium</t>
+  </si>
+  <si>
+    <t>Mosambi (Loose)</t>
+  </si>
+  <si>
+    <t>Orange - Nagpur Premium</t>
+  </si>
+  <si>
+    <t>Apple - Washington, Regular</t>
+  </si>
+  <si>
+    <t>Apple - Fuji, Economy</t>
+  </si>
+  <si>
+    <t>Rambutan</t>
+  </si>
+  <si>
+    <t>Tamarind - Sweet</t>
+  </si>
+  <si>
+    <t>Watermelon - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Kiwi - Dried</t>
+  </si>
+  <si>
+    <t>Plum - Imported</t>
+  </si>
+  <si>
+    <t>Ber (Loose)</t>
+  </si>
+  <si>
+    <t>Guava - Thai Organic, White</t>
+  </si>
+  <si>
+    <t>Pomelo - Peeled</t>
+  </si>
+  <si>
+    <t>Cherry</t>
+  </si>
+  <si>
+    <t>Cherry - Imported</t>
+  </si>
+  <si>
+    <t>Apple - Queen, Rose</t>
+  </si>
+  <si>
+    <t>₹328</t>
+  </si>
+  <si>
+    <t>₹216</t>
+  </si>
+  <si>
+    <t>₹307</t>
+  </si>
+  <si>
+    <t>₹405</t>
+  </si>
+  <si>
+    <t>₹80</t>
+  </si>
+  <si>
+    <t>₹268</t>
+  </si>
+  <si>
+    <t>₹87</t>
+  </si>
+  <si>
+    <t>₹196</t>
+  </si>
+  <si>
+    <t>₹41</t>
+  </si>
+  <si>
+    <t>₹72</t>
+  </si>
+  <si>
+    <t>₹428</t>
+  </si>
+  <si>
+    <t>₹98</t>
+  </si>
+  <si>
+    <t>₹109</t>
+  </si>
+  <si>
+    <t>₹65</t>
+  </si>
+  <si>
+    <t>₹443</t>
+  </si>
+  <si>
+    <t>₹136</t>
+  </si>
+  <si>
+    <t>₹530</t>
+  </si>
+  <si>
     <t>₹100</t>
   </si>
   <si>
-    <t>₹52</t>
-  </si>
-  <si>
-    <t>₹26</t>
-  </si>
-  <si>
-    <t>₹20</t>
-  </si>
-  <si>
-    <t>₹5.5</t>
-  </si>
-  <si>
-    <t>₹26.28</t>
-  </si>
-  <si>
-    <t>₹115.34</t>
-  </si>
-  <si>
-    <t>₹66.43</t>
-  </si>
-  <si>
-    <t>₹19</t>
-  </si>
-  <si>
-    <t>₹30</t>
-  </si>
-  <si>
-    <t>₹121.18</t>
-  </si>
-  <si>
-    <t>₹55.48</t>
-  </si>
-  <si>
-    <t>₹93.44</t>
-  </si>
-  <si>
-    <t>₹161.33</t>
-  </si>
-  <si>
-    <t>₹23</t>
-  </si>
-  <si>
-    <t>₹24.09</t>
-  </si>
-  <si>
-    <t>₹211.7</t>
-  </si>
-  <si>
-    <t>₹57.67</t>
-  </si>
-  <si>
-    <t>₹231.41</t>
-  </si>
-  <si>
-    <t>₹17.5</t>
-  </si>
-  <si>
-    <t>₹37.23</t>
-  </si>
-  <si>
-    <t>₹49.64</t>
-  </si>
-  <si>
-    <t>₹131.4</t>
-  </si>
-  <si>
-    <t>₹105.12</t>
-  </si>
-  <si>
-    <t>₹13.14</t>
-  </si>
-  <si>
-    <t>₹149.65</t>
-  </si>
-  <si>
-    <t>₹138.7</t>
-  </si>
-  <si>
-    <t>₹18.25</t>
-  </si>
-  <si>
-    <t>₹39.42</t>
-  </si>
-  <si>
-    <t>₹75.19</t>
-  </si>
-  <si>
-    <t>₹41.61</t>
-  </si>
-  <si>
-    <t>₹72.27</t>
-  </si>
-  <si>
-    <t>₹59.13</t>
-  </si>
-  <si>
-    <t>₹38</t>
-  </si>
-  <si>
-    <t>₹77.38</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>₹109</t>
-  </si>
-  <si>
-    <t>₹189.07</t>
-  </si>
-  <si>
-    <t>₹110.23</t>
-  </si>
-  <si>
-    <t>₹81.03</t>
-  </si>
-  <si>
-    <t>₹69.35</t>
-  </si>
-  <si>
-    <t>₹40.15</t>
-  </si>
-  <si>
-    <t>₹51.1</t>
-  </si>
-  <si>
-    <t>₹101.47</t>
-  </si>
-  <si>
-    <t>₹65.7</t>
-  </si>
-  <si>
-    <t>₹22.63</t>
-  </si>
-  <si>
-    <t>₹78.11</t>
-  </si>
-  <si>
-    <t>₹109.5</t>
-  </si>
-  <si>
-    <t>₹31.39</t>
-  </si>
-  <si>
-    <t>₹88</t>
-  </si>
-  <si>
-    <t>₹108.04</t>
-  </si>
-  <si>
-    <t>₹53.29</t>
-  </si>
-  <si>
-    <t>₹42.34</t>
-  </si>
-  <si>
-    <t>₹17.52</t>
-  </si>
-  <si>
-    <t>₹29.2</t>
-  </si>
-  <si>
-    <t>₹38.69</t>
-  </si>
-  <si>
-    <t>₹11.68</t>
-  </si>
-  <si>
-    <t>₹21.17</t>
-  </si>
-  <si>
-    <t>₹45.26</t>
-  </si>
-  <si>
-    <t>₹87.6</t>
-  </si>
-  <si>
-    <t>₹28.47</t>
-  </si>
-  <si>
-    <t>43% OFF</t>
-  </si>
-  <si>
-    <t>39% OFF</t>
-  </si>
-  <si>
-    <t>60% OFF</t>
-  </si>
-  <si>
-    <t>36% OFF</t>
-  </si>
-  <si>
-    <t>67% OFF</t>
-  </si>
-  <si>
-    <t>52% OFF</t>
-  </si>
-  <si>
-    <t>29% OFF</t>
-  </si>
-  <si>
-    <t>54% OFF</t>
-  </si>
-  <si>
-    <t>65% OFF</t>
-  </si>
-  <si>
-    <t>61% OFF</t>
-  </si>
-  <si>
-    <t>27% OFF</t>
-  </si>
-  <si>
-    <t>41% OFF</t>
-  </si>
-  <si>
-    <t>31% OFF</t>
-  </si>
-  <si>
-    <t>47% OFF</t>
-  </si>
-  <si>
-    <t>71% OFF</t>
-  </si>
-  <si>
-    <t>28% OFF</t>
-  </si>
-  <si>
-    <t>59% OFF</t>
-  </si>
-  <si>
-    <t>66% OFF</t>
-  </si>
-  <si>
-    <t>44% OFF</t>
-  </si>
-  <si>
-    <t>Fresh Vegetables</t>
-  </si>
-  <si>
-    <t>5 kg - Multipack</t>
-  </si>
-  <si>
-    <t>1 kg</t>
-  </si>
-  <si>
-    <t>250 g</t>
-  </si>
-  <si>
-    <t>500 g</t>
-  </si>
-  <si>
-    <t>1 pc - (approx. 400 to 600 g)</t>
-  </si>
-  <si>
-    <t>1 pack - (Approx. 180g - 200 g)</t>
-  </si>
-  <si>
-    <t>1 pc - (approx. 500 g to 800 g)</t>
-  </si>
-  <si>
-    <t>2 pcs</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx. 500 g - 800 g)</t>
-  </si>
-  <si>
-    <t>5 kg</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx. 100 g)</t>
-  </si>
-  <si>
-    <t>10 pcs</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx. 250g-500g)</t>
-  </si>
-  <si>
-    <t>350 g (2 pieces)</t>
-  </si>
-  <si>
-    <t>100 g</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx. 100g-250g)</t>
-  </si>
-  <si>
-    <t>1 Kg</t>
-  </si>
-  <si>
-    <t>1 pc - Approx. 400 to 600 g</t>
-  </si>
-  <si>
-    <t>1 pc</t>
-  </si>
-  <si>
-    <t>1 pc (approx. 300-1.3 Kg)</t>
-  </si>
-  <si>
-    <t>1 pc (Approx 500-1000 g)</t>
-  </si>
-  <si>
-    <t>300 g</t>
-  </si>
-  <si>
-    <t>2023-10-17 01:44:25.769975+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 01:44:25.785614+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 01:44:25.801224+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 01:44:25.816863+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 01:44:25.832486+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 01:44:25.848110+05:30</t>
-  </si>
-  <si>
-    <t>Banana - Robusta</t>
-  </si>
-  <si>
-    <t>Apple - Shimla, Regular</t>
-  </si>
-  <si>
-    <t>Banana - Yelakki</t>
-  </si>
-  <si>
-    <t>Baby Apple Shimla</t>
-  </si>
-  <si>
-    <t>Pomegranate - Regular (Loose)</t>
-  </si>
-  <si>
-    <t>Coconut - Medium</t>
-  </si>
-  <si>
-    <t>Mini Orange Imported (Loose)</t>
-  </si>
-  <si>
-    <t>Papaya</t>
-  </si>
-  <si>
-    <t>Pomegranate (Loose)</t>
-  </si>
-  <si>
-    <t>Watermelon -  Medium</t>
-  </si>
-  <si>
-    <t>Tender Coconut</t>
-  </si>
-  <si>
-    <t>Orange - Nagpur, Regular (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala Economy</t>
-  </si>
-  <si>
-    <t>Kiwi - Green</t>
-  </si>
-  <si>
-    <t>Banana - Nendran</t>
-  </si>
-  <si>
-    <t>Guava - Thai (Loose)</t>
-  </si>
-  <si>
-    <t>Mosambi - Economy (Loose)</t>
-  </si>
-  <si>
-    <t>Pear - Green, Imported</t>
-  </si>
-  <si>
-    <t>Dragon Fruit (Loose)</t>
-  </si>
-  <si>
-    <t>Guava (Loose)</t>
-  </si>
-  <si>
-    <t>Avocado - Imported, Medium (Loose)</t>
-  </si>
-  <si>
-    <t>Papaya - Small</t>
-  </si>
-  <si>
-    <t>Muskmelon -  Netted Medium</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala, Regular</t>
-  </si>
-  <si>
-    <t>Avocado (Loose)</t>
-  </si>
-  <si>
-    <t>Grapes - Bangalore Blue</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala, Premium</t>
-  </si>
-  <si>
-    <t>Sapota</t>
-  </si>
-  <si>
-    <t>Banana - Yelakki, Organically Grown</t>
-  </si>
-  <si>
-    <t>Mosambi - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Banana - Raw Green (Loose)</t>
-  </si>
-  <si>
-    <t>Mango - Neelam</t>
-  </si>
-  <si>
-    <t>Blueberry</t>
-  </si>
-  <si>
-    <t>Raw Mango (Loose)</t>
-  </si>
-  <si>
-    <t>Orange - Nagpur, Small (Loose)</t>
-  </si>
-  <si>
-    <t>Pineapple</t>
-  </si>
-  <si>
-    <t>Coconut - Large</t>
-  </si>
-  <si>
-    <t>Pear Beauty</t>
-  </si>
-  <si>
-    <t>Pomegranate - Peeled</t>
-  </si>
-  <si>
-    <t>Banana - Red</t>
-  </si>
-  <si>
-    <t>Apple - Green, Premium</t>
-  </si>
-  <si>
-    <t>Fresh Figs</t>
-  </si>
-  <si>
-    <t>Apple - Shimla, Premium</t>
-  </si>
-  <si>
-    <t>Wood Apple - Kothbel (Loose)</t>
-  </si>
-  <si>
-    <t>Ber - Apple (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Ambri</t>
-  </si>
-  <si>
-    <t>Banana - Poovan</t>
-  </si>
-  <si>
-    <t>Orange - Imported (Loose)</t>
-  </si>
-  <si>
-    <t>Dates - Kimia, with Seed</t>
-  </si>
-  <si>
-    <t>Baby Banana - Robusta</t>
-  </si>
-  <si>
-    <t>Banana - Karpooravalli</t>
-  </si>
-  <si>
-    <t>Zespri Kiwi - Sun Gold</t>
-  </si>
-  <si>
-    <t>Longan</t>
-  </si>
-  <si>
-    <t>Apple - Pink Lady</t>
-  </si>
-  <si>
-    <t>Banana - Nendran, Organically Grown</t>
-  </si>
-  <si>
-    <t>Passion Fruit</t>
-  </si>
-  <si>
-    <t>Sugarcane - Diced</t>
-  </si>
-  <si>
-    <t>Pear - Beauty, Rich In Fiber, Vitamin C, Great For Gut Health</t>
-  </si>
-  <si>
-    <t>Mango - Raw Totapuri</t>
-  </si>
-  <si>
-    <t>Coconut with Husk - Pooja Coconut</t>
-  </si>
-  <si>
-    <t>Cherry - Kashmir</t>
-  </si>
-  <si>
-    <t>Apple - Red Delicious, Economy</t>
-  </si>
-  <si>
-    <t>Mosambi - Premium (Loose)</t>
-  </si>
-  <si>
-    <t>Pear - Naspathi, Indian</t>
-  </si>
-  <si>
-    <t>Pineapple - Slices</t>
-  </si>
-  <si>
-    <t>Grapes - Red Globe</t>
-  </si>
-  <si>
-    <t>Soursop</t>
-  </si>
-  <si>
-    <t>Apricot - Dried</t>
-  </si>
-  <si>
-    <t>Plum - Indian</t>
-  </si>
-  <si>
-    <t>Coconut - Diced</t>
-  </si>
-  <si>
-    <t>Papaya- Diced</t>
-  </si>
-  <si>
-    <t>Guava - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Coconut - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Pomegranate - Single Serve, Peeled</t>
-  </si>
-  <si>
-    <t>Apple - Red Delicious, Organically Grown</t>
-  </si>
-  <si>
-    <t>Grape fruit - Imported (Loose)</t>
-  </si>
-  <si>
-    <t>Pineapple - Chunks, Single Serve</t>
-  </si>
-  <si>
-    <t>Apple - Fuji Premium</t>
-  </si>
-  <si>
-    <t>Mosambi (Loose)</t>
-  </si>
-  <si>
-    <t>Orange - Nagpur Premium</t>
-  </si>
-  <si>
-    <t>Apple - Washington, Regular</t>
-  </si>
-  <si>
-    <t>Apple - Fuji, Economy</t>
-  </si>
-  <si>
-    <t>Rambutan</t>
-  </si>
-  <si>
-    <t>Tamarind - Sweet</t>
-  </si>
-  <si>
-    <t>Watermelon - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Kiwi - Dried</t>
-  </si>
-  <si>
-    <t>Plum - Imported</t>
-  </si>
-  <si>
-    <t>Ber (Loose)</t>
-  </si>
-  <si>
-    <t>Guava - Thai Organic, White</t>
-  </si>
-  <si>
-    <t>Pomelo - Peeled</t>
-  </si>
-  <si>
-    <t>Cherry</t>
-  </si>
-  <si>
-    <t>Cherry - Imported</t>
-  </si>
-  <si>
-    <t>Apple - Queen, Rose</t>
-  </si>
-  <si>
-    <t>₹328</t>
-  </si>
-  <si>
-    <t>₹216</t>
-  </si>
-  <si>
-    <t>₹307</t>
-  </si>
-  <si>
-    <t>₹405</t>
-  </si>
-  <si>
-    <t>₹80</t>
-  </si>
-  <si>
-    <t>₹268</t>
-  </si>
-  <si>
-    <t>₹87</t>
-  </si>
-  <si>
-    <t>₹196</t>
-  </si>
-  <si>
-    <t>₹41</t>
-  </si>
-  <si>
-    <t>₹72</t>
-  </si>
-  <si>
-    <t>₹428</t>
-  </si>
-  <si>
-    <t>₹98</t>
-  </si>
-  <si>
-    <t>₹65</t>
-  </si>
-  <si>
-    <t>₹443</t>
-  </si>
-  <si>
-    <t>₹136</t>
-  </si>
-  <si>
-    <t>₹530</t>
-  </si>
-  <si>
     <t>₹147</t>
   </si>
   <si>
@@ -1217,9 +1247,6 @@
     <t>₹240</t>
   </si>
   <si>
-    <t>₹105</t>
-  </si>
-  <si>
     <t>₹462</t>
   </si>
   <si>
@@ -1319,15 +1346,15 @@
     <t>₹63.51</t>
   </si>
   <si>
-    <t>₹45</t>
-  </si>
-  <si>
     <t>₹143.08</t>
   </si>
   <si>
     <t>₹157</t>
   </si>
   <si>
+    <t>₹28</t>
+  </si>
+  <si>
     <t>₹52.56</t>
   </si>
   <si>
@@ -1343,6 +1370,9 @@
     <t>₹47.45</t>
   </si>
   <si>
+    <t>₹312</t>
+  </si>
+  <si>
     <t>₹323.39</t>
   </si>
   <si>
@@ -1493,7 +1523,7 @@
     <t>49% OFF</t>
   </si>
   <si>
-    <t>45% OFF</t>
+    <t>40% OFF</t>
   </si>
   <si>
     <t>42% OFF</t>
@@ -1616,31 +1646,52 @@
     <t>1 pc - approx. 300 g to 500 g</t>
   </si>
   <si>
-    <t>2023-10-17 01:45:10.028491+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 01:45:10.044125+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 01:45:10.059747+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 01:45:10.075370+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 01:45:10.091007+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 01:45:10.106632+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 01:45:10.122244+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 01:45:10.128752+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 01:45:10.144382+05:30</t>
+    <t>2023-10-17 15:10:00.220478+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:10:00.264864+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:10:00.281201+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:10:00.297893+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:10:00.313729+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:10:00.329480+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:10:00.330477+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:10:00.348781+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:10:00.359242+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:10:00.368023+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:10:00.369471+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:10:00.370471+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:10:00.386176+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:10:00.398787+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:10:00.414540+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:10:00.416718+05:30</t>
   </si>
 </sst>
 </file>
@@ -2038,16 +2089,16 @@
         <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2061,16 +2112,16 @@
         <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2084,16 +2135,16 @@
         <v>161</v>
       </c>
       <c r="D4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2107,16 +2158,16 @@
         <v>156</v>
       </c>
       <c r="D5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2130,16 +2181,16 @@
         <v>162</v>
       </c>
       <c r="D6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2153,16 +2204,16 @@
         <v>163</v>
       </c>
       <c r="D7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2176,16 +2227,16 @@
         <v>164</v>
       </c>
       <c r="D8" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2199,16 +2250,16 @@
         <v>165</v>
       </c>
       <c r="D9" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2222,16 +2273,16 @@
         <v>166</v>
       </c>
       <c r="D10" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2245,16 +2296,16 @@
         <v>167</v>
       </c>
       <c r="D11" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2268,16 +2319,16 @@
         <v>168</v>
       </c>
       <c r="D12" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2291,16 +2342,16 @@
         <v>156</v>
       </c>
       <c r="D13" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2314,16 +2365,16 @@
         <v>169</v>
       </c>
       <c r="D14" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2337,13 +2388,13 @@
         <v>151</v>
       </c>
       <c r="D15" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G15" t="s">
         <v>267</v>
@@ -2360,13 +2411,13 @@
         <v>170</v>
       </c>
       <c r="D16" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G16" t="s">
         <v>267</v>
@@ -2383,16 +2434,16 @@
         <v>171</v>
       </c>
       <c r="D17" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F17" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G17" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2403,19 +2454,19 @@
         <v>114</v>
       </c>
       <c r="C18" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="D18" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="E18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G18" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2426,19 +2477,19 @@
         <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D19" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G19" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2452,16 +2503,16 @@
         <v>161</v>
       </c>
       <c r="D20" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F20" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G20" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2472,19 +2523,19 @@
         <v>117</v>
       </c>
       <c r="C21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D21" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G21" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2495,19 +2546,19 @@
         <v>118</v>
       </c>
       <c r="C22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D22" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G22" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2518,19 +2569,19 @@
         <v>119</v>
       </c>
       <c r="C23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D23" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E23" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F23" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G23" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2541,16 +2592,16 @@
         <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D24" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E24" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F24" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G24" t="s">
         <v>268</v>
@@ -2567,13 +2618,13 @@
         <v>154</v>
       </c>
       <c r="D25" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F25" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G25" t="s">
         <v>268</v>
@@ -2587,19 +2638,19 @@
         <v>122</v>
       </c>
       <c r="C26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D26" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E26" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F26" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G26" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2610,19 +2661,19 @@
         <v>115</v>
       </c>
       <c r="C27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D27" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E27" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G27" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2633,19 +2684,19 @@
         <v>123</v>
       </c>
       <c r="C28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D28" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E28" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F28" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G28" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2656,19 +2707,19 @@
         <v>124</v>
       </c>
       <c r="C29" t="s">
-        <v>180</v>
+        <v>102</v>
       </c>
       <c r="D29" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E29" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F29" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G29" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2679,19 +2730,19 @@
         <v>125</v>
       </c>
       <c r="C30" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D30" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E30" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F30" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G30" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2702,19 +2753,19 @@
         <v>126</v>
       </c>
       <c r="C31" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D31" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E31" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F31" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G31" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2725,19 +2776,19 @@
         <v>126</v>
       </c>
       <c r="C32" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D32" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F32" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G32" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2748,19 +2799,19 @@
         <v>127</v>
       </c>
       <c r="C33" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D33" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E33" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F33" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G33" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2771,19 +2822,19 @@
         <v>128</v>
       </c>
       <c r="C34" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D34" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E34" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F34" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G34" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2794,19 +2845,19 @@
         <v>129</v>
       </c>
       <c r="C35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D35" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E35" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F35" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G35" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2817,19 +2868,19 @@
         <v>130</v>
       </c>
       <c r="C36" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D36" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E36" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F36" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G36" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2840,19 +2891,19 @@
         <v>131</v>
       </c>
       <c r="C37" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D37" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E37" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F37" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G37" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2863,19 +2914,19 @@
         <v>132</v>
       </c>
       <c r="C38" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D38" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E38" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F38" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G38" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2886,19 +2937,19 @@
         <v>103</v>
       </c>
       <c r="C39" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D39" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E39" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F39" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G39" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2909,19 +2960,19 @@
         <v>102</v>
       </c>
       <c r="C40" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D40" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E40" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F40" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G40" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2932,19 +2983,19 @@
         <v>133</v>
       </c>
       <c r="C41" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D41" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E41" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F41" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G41" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2955,19 +3006,19 @@
         <v>107</v>
       </c>
       <c r="C42" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D42" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E42" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F42" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G42" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2978,19 +3029,19 @@
         <v>134</v>
       </c>
       <c r="C43" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D43" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E43" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F43" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G43" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3004,16 +3055,16 @@
         <v>109</v>
       </c>
       <c r="D44" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E44" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F44" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G44" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3024,19 +3075,19 @@
         <v>136</v>
       </c>
       <c r="C45" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D45" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F45" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G45" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3047,19 +3098,19 @@
         <v>127</v>
       </c>
       <c r="C46" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D46" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E46" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F46" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G46" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3070,19 +3121,19 @@
         <v>137</v>
       </c>
       <c r="C47" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D47" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E47" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F47" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G47" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3093,19 +3144,19 @@
         <v>138</v>
       </c>
       <c r="C48" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D48" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E48" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F48" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G48" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3116,19 +3167,19 @@
         <v>139</v>
       </c>
       <c r="C49" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D49" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E49" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F49" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G49" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3139,19 +3190,19 @@
         <v>140</v>
       </c>
       <c r="C50" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D50" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E50" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F50" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G50" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3162,19 +3213,19 @@
         <v>141</v>
       </c>
       <c r="C51" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D51" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E51" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F51" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G51" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3185,19 +3236,19 @@
         <v>142</v>
       </c>
       <c r="C52" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D52" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E52" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F52" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G52" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3208,19 +3259,19 @@
         <v>143</v>
       </c>
       <c r="C53" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D53" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E53" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F53" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G53" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3231,19 +3282,19 @@
         <v>144</v>
       </c>
       <c r="C54" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D54" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E54" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F54" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G54" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3254,19 +3305,19 @@
         <v>145</v>
       </c>
       <c r="C55" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D55" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E55" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F55" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G55" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3277,19 +3328,19 @@
         <v>126</v>
       </c>
       <c r="C56" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D56" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E56" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F56" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G56" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3300,19 +3351,19 @@
         <v>146</v>
       </c>
       <c r="C57" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D57" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E57" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F57" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G57" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3323,19 +3374,19 @@
         <v>127</v>
       </c>
       <c r="C58" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D58" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E58" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F58" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G58" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3346,19 +3397,19 @@
         <v>147</v>
       </c>
       <c r="C59" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D59" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E59" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F59" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G59" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3369,19 +3420,19 @@
         <v>142</v>
       </c>
       <c r="C60" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D60" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E60" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F60" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G60" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3392,19 +3443,19 @@
         <v>148</v>
       </c>
       <c r="C61" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D61" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E61" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F61" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G61" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3415,19 +3466,19 @@
         <v>123</v>
       </c>
       <c r="C62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D62" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E62" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F62" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G62" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3438,19 +3489,19 @@
         <v>149</v>
       </c>
       <c r="C63" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D63" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E63" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F63" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G63" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3461,19 +3512,19 @@
         <v>150</v>
       </c>
       <c r="C64" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D64" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E64" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F64" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G64" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3484,19 +3535,19 @@
         <v>151</v>
       </c>
       <c r="C65" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D65" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E65" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F65" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G65" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3507,19 +3558,19 @@
         <v>150</v>
       </c>
       <c r="C66" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D66" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E66" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F66" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G66" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3530,19 +3581,19 @@
         <v>142</v>
       </c>
       <c r="C67" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D67" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E67" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F67" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G67" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3553,19 +3604,19 @@
         <v>152</v>
       </c>
       <c r="C68" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D68" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E68" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F68" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G68" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3576,19 +3627,19 @@
         <v>129</v>
       </c>
       <c r="C69" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D69" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E69" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F69" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G69" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3599,19 +3650,19 @@
         <v>153</v>
       </c>
       <c r="C70" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D70" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E70" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F70" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G70" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3622,19 +3673,19 @@
         <v>106</v>
       </c>
       <c r="C71" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D71" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E71" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F71" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G71" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3645,19 +3696,19 @@
         <v>121</v>
       </c>
       <c r="C72" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D72" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E72" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F72" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G72" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3668,19 +3719,19 @@
         <v>154</v>
       </c>
       <c r="C73" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D73" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E73" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F73" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G73" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3691,19 +3742,19 @@
         <v>102</v>
       </c>
       <c r="C74" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D74" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E74" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F74" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G74" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3714,19 +3765,19 @@
         <v>106</v>
       </c>
       <c r="C75" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D75" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E75" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F75" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G75" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3737,19 +3788,19 @@
         <v>155</v>
       </c>
       <c r="C76" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D76" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E76" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F76" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G76" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3760,19 +3811,19 @@
         <v>114</v>
       </c>
       <c r="C77" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D77" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E77" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F77" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G77" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3783,19 +3834,19 @@
         <v>133</v>
       </c>
       <c r="C78" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D78" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E78" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F78" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G78" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3806,19 +3857,19 @@
         <v>107</v>
       </c>
       <c r="C79" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D79" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E79" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F79" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G79" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3829,19 +3880,19 @@
         <v>156</v>
       </c>
       <c r="C80" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D80" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E80" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F80" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G80" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3852,19 +3903,19 @@
         <v>137</v>
       </c>
       <c r="C81" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D81" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E81" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F81" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G81" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3875,19 +3926,19 @@
         <v>157</v>
       </c>
       <c r="C82" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D82" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E82" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F82" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G82" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3898,19 +3949,19 @@
         <v>129</v>
       </c>
       <c r="C83" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D83" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E83" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F83" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G83" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3921,19 +3972,19 @@
         <v>112</v>
       </c>
       <c r="C84" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D84" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E84" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F84" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G84" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3944,19 +3995,19 @@
         <v>144</v>
       </c>
       <c r="C85" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D85" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E85" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F85" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G85" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3970,16 +4021,16 @@
         <v>116</v>
       </c>
       <c r="D86" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E86" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F86" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G86" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3990,19 +4041,19 @@
         <v>122</v>
       </c>
       <c r="C87" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D87" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E87" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F87" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G87" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -4013,19 +4064,19 @@
         <v>107</v>
       </c>
       <c r="C88" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D88" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E88" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F88" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G88" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -4036,19 +4087,19 @@
         <v>133</v>
       </c>
       <c r="C89" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D89" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E89" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F89" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G89" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4059,19 +4110,19 @@
         <v>159</v>
       </c>
       <c r="C90" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D90" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E90" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F90" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G90" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4082,19 +4133,19 @@
         <v>122</v>
       </c>
       <c r="C91" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D91" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E91" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F91" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G91" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4105,19 +4156,19 @@
         <v>159</v>
       </c>
       <c r="C92" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D92" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E92" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F92" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G92" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4128,19 +4179,19 @@
         <v>104</v>
       </c>
       <c r="C93" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D93" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E93" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F93" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G93" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4154,16 +4205,16 @@
         <v>168</v>
       </c>
       <c r="D94" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E94" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F94" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G94" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4177,16 +4228,16 @@
         <v>155</v>
       </c>
       <c r="D95" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E95" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F95" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G95" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -4227,260 +4278,260 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s">
         <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="D2" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="E2" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G2" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="B3" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C3" t="s">
         <v>128</v>
       </c>
       <c r="D3" t="s">
-        <v>492</v>
+        <v>234</v>
       </c>
       <c r="E3" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F3" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="G3" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B4" t="s">
         <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="D4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E4" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G4" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B5" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="C5" t="s">
         <v>146</v>
       </c>
       <c r="D5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E5" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F5" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="G5" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B6" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C6" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="D6" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E6" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F6" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="G6" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B7" t="s">
         <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="D7" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="E7" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F7" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="G7" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B8" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="C8" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="D8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E8" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G8" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B9" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C9" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="D9" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E9" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G9" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B10" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C10" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="D10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E10" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F10" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="G10" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B11" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C11" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="D11" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E11" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F11" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="G11" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B12" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C12" t="s">
-        <v>434</v>
+        <v>158</v>
       </c>
       <c r="D12" t="s">
-        <v>242</v>
+        <v>502</v>
       </c>
       <c r="E12" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G12" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B13" t="s">
         <v>143</v>
@@ -4489,205 +4540,205 @@
         <v>144</v>
       </c>
       <c r="D13" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="E13" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F13" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="G13" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B14" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C14" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="D14" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E14" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F14" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="G14" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B15" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="C15" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="D15" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E15" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F15" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="G15" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B16" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C16" t="s">
-        <v>157</v>
+        <v>445</v>
       </c>
       <c r="D16" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="E16" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G16" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B17" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C17" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="D17" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E17" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G17" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B18" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C18" t="s">
         <v>121</v>
       </c>
       <c r="D18" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E18" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G18" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B19" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C19" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="D19" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E19" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F19" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="G19" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="B20" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="C20" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="D20" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E20" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F20" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="G20" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B21" t="s">
-        <v>199</v>
+        <v>385</v>
       </c>
       <c r="C21" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="D21" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E21" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G21" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B22" t="s">
         <v>129</v>
@@ -4696,1125 +4747,1125 @@
         <v>136</v>
       </c>
       <c r="D22" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E22" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F22" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G22" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B23" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="C23" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="D23" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E23" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F23" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="G23" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B24" t="s">
         <v>102</v>
       </c>
       <c r="C24" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D24" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E24" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F24" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="G24" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B25" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C25" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="D25" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E25" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F25" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="G25" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B26" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="C26" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="D26" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E26" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F26" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G26" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="B27" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="C27" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="D27" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E27" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G27" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B28" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="C28" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="D28" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E28" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F28" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="G28" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="B29" t="s">
-        <v>163</v>
+        <v>390</v>
       </c>
       <c r="C29" t="s">
         <v>106</v>
       </c>
       <c r="D29" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E29" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F29" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G29" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B30" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="C30" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="D30" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E30" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F30" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G30" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B31" t="s">
-        <v>199</v>
+        <v>385</v>
       </c>
       <c r="C31" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="D31" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E31" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F31" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G31" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B32" t="s">
         <v>143</v>
       </c>
       <c r="C32" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D32" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E32" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F32" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G32" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B33" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="C33" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="D33" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E33" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F33" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G33" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B34" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="C34" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="D34" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E34" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F34" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="G34" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B35" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="C35" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D35" t="s">
-        <v>229</v>
+        <v>503</v>
       </c>
       <c r="E35" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F35" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G35" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B36" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="C36" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="D36" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E36" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F36" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="G36" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B37" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="C37" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="D37" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E37" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F37" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="G37" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B38" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="C38" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="D38" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E38" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F38" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="G38" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B39" t="s">
         <v>118</v>
       </c>
       <c r="C39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D39" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E39" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F39" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G39" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B40" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="C40" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="D40" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E40" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F40" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G40" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B41" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="C41" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="D41" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E41" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F41" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G41" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B42" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C42" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="D42" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E42" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F42" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="G42" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B43" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="C43" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="D43" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E43" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F43" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G43" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B44" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="C44" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="D44" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E44" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F44" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="G44" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="B45" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="C45" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="D45" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E45" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F45" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G45" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B46" t="s">
         <v>118</v>
       </c>
       <c r="C46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D46" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E46" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F46" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G46" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B47" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C47" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="D47" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E47" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F47" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G47" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B48" t="s">
         <v>136</v>
       </c>
       <c r="C48" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D48" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E48" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F48" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G48" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B49" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="C49" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="D49" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E49" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F49" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="G49" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B50" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="C50" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="D50" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E50" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F50" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="G50" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="B51" t="s">
         <v>155</v>
       </c>
       <c r="C51" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D51" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E51" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F51" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G51" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B52" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="C52" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="D52" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E52" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F52" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G52" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B53" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="C53" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="D53" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E53" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F53" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="G53" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B54" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="C54" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="D54" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E54" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F54" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G54" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B55" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="C55" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="D55" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E55" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F55" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="G55" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B56" t="s">
-        <v>400</v>
+        <v>196</v>
       </c>
       <c r="C56" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="D56" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E56" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F56" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G56" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B57" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="C57" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="D57" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E57" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F57" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G57" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="B58" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="C58" t="s">
         <v>165</v>
       </c>
       <c r="D58" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E58" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F58" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="G58" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="B59" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="C59" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="D59" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E59" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F59" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="G59" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="B60" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="C60" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="D60" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E60" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F60" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G60" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B61" t="s">
         <v>120</v>
       </c>
       <c r="C61" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="D61" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E61" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F61" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="G61" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="B62" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="C62" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="D62" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E62" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F62" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="G62" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B63" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="C63" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="D63" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E63" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F63" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="G63" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="B64" t="s">
         <v>137</v>
       </c>
       <c r="C64" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D64" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E64" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F64" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="G64" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="B65" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="C65" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="D65" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E65" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F65" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G65" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="B66" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="C66" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="D66" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E66" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F66" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="G66" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="B67" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="C67" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="D67" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E67" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F67" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G67" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B68" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="C68" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="D68" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E68" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F68" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="G68" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B69" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="C69" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="D69" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E69" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F69" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="G69" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="B70" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="C70" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="D70" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E70" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F70" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="G70" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="B71" t="s">
         <v>112</v>
@@ -5823,21 +5874,21 @@
         <v>116</v>
       </c>
       <c r="D71" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E71" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F71" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="G71" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="B72" t="s">
         <v>117</v>
@@ -5846,522 +5897,522 @@
         <v>158</v>
       </c>
       <c r="D72" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="E72" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F72" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="G72" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B73" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="C73" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="D73" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E73" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F73" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G73" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B74" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="C74" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="D74" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E74" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F74" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="G74" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B75" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="C75" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="D75" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E75" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F75" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="G75" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B76" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="C76" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="D76" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E76" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F76" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="G76" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B77" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="C77" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="D77" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E77" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F77" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="G77" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="B78" t="s">
         <v>127</v>
       </c>
       <c r="C78" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D78" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E78" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F78" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="G78" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B79" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="C79" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="D79" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E79" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F79" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="G79" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B80" t="s">
         <v>136</v>
       </c>
       <c r="C80" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D80" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E80" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F80" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="G80" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B81" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="C81" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="D81" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E81" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F81" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="G81" t="s">
-        <v>540</v>
+        <v>556</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B82" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="C82" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="D82" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E82" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F82" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="G82" t="s">
-        <v>540</v>
+        <v>556</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B83" t="s">
         <v>131</v>
       </c>
       <c r="C83" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D83" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E83" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F83" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="G83" t="s">
-        <v>540</v>
+        <v>556</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="B84" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="C84" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="D84" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E84" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F84" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G84" t="s">
-        <v>540</v>
+        <v>556</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B85" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="C85" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="D85" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E85" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F85" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="G85" t="s">
-        <v>540</v>
+        <v>556</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B86" t="s">
         <v>142</v>
       </c>
       <c r="C86" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D86" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E86" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F86" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="G86" t="s">
-        <v>540</v>
+        <v>556</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B87" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="C87" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="D87" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E87" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F87" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="G87" t="s">
-        <v>540</v>
+        <v>556</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B88" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="C88" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="D88" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E88" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F88" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G88" t="s">
-        <v>540</v>
+        <v>556</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B89" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="C89" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="D89" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E89" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F89" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G89" t="s">
-        <v>540</v>
+        <v>556</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="B90" t="s">
         <v>136</v>
       </c>
       <c r="C90" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D90" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E90" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F90" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="G90" t="s">
-        <v>540</v>
+        <v>556</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B91" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="C91" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="D91" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E91" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F91" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="G91" t="s">
-        <v>540</v>
+        <v>556</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="B92" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="C92" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="D92" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E92" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F92" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G92" t="s">
-        <v>540</v>
+        <v>557</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="B93" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="C93" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="D93" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E93" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F93" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G93" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B94" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="C94" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D94" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E94" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F94" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="G94" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>

--- a/BigBasket/BigBasket_products.xlsx
+++ b/BigBasket/BigBasket_products.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="673">
   <si>
     <t>product_name</t>
   </si>
@@ -38,6 +38,36 @@
     <t>timestamp</t>
   </si>
   <si>
+    <t>Curry Leaves</t>
+  </si>
+  <si>
+    <t>Sweet Corn (Loose)</t>
+  </si>
+  <si>
+    <t>Ginger - Organically Grown</t>
+  </si>
+  <si>
+    <t>Bottle Gourd (Loose)</t>
+  </si>
+  <si>
+    <t>Ridge Gourd</t>
+  </si>
+  <si>
+    <t>Tomato - Local, Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Mint Leaves - Cleaned, without roots</t>
+  </si>
+  <si>
+    <t>Amla (Loose)</t>
+  </si>
+  <si>
+    <t>Spring Onion - With roots</t>
+  </si>
+  <si>
+    <t>Parwal (Loose)</t>
+  </si>
+  <si>
     <t>Onion</t>
   </si>
   <si>
@@ -89,33 +119,12 @@
     <t>Cucumber - English (Loose)</t>
   </si>
   <si>
-    <t>Curry Leaves</t>
-  </si>
-  <si>
     <t>Coccinia (Loose)</t>
   </si>
   <si>
-    <t>Sweet Corn (Loose)</t>
-  </si>
-  <si>
-    <t>Ginger - Organically Grown</t>
-  </si>
-  <si>
     <t>Drumstick/Moringa</t>
   </si>
   <si>
-    <t>Bottle Gourd (Loose)</t>
-  </si>
-  <si>
-    <t>Ridge Gourd</t>
-  </si>
-  <si>
-    <t>Tomato - Local, Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Mint Leaves - Cleaned, without roots</t>
-  </si>
-  <si>
     <t>Onion - Organically Grown (Loose)</t>
   </si>
   <si>
@@ -134,18 +143,9 @@
     <t>Bitter Gourd (Loose)</t>
   </si>
   <si>
-    <t>Amla (Loose)</t>
-  </si>
-  <si>
     <t>Beans - Broad (Loose)</t>
   </si>
   <si>
-    <t>Spring Onion - With roots</t>
-  </si>
-  <si>
-    <t>Parwal (Loose)</t>
-  </si>
-  <si>
     <t>Garlic - Organically Grown (Loose)</t>
   </si>
   <si>
@@ -176,36 +176,36 @@
     <t>Knol Khol (Loose)</t>
   </si>
   <si>
+    <t>Onion - Sambhar (Loose)</t>
+  </si>
+  <si>
+    <t>Corriander  - Organically Grown</t>
+  </si>
+  <si>
+    <t>Palak - Organically Grown</t>
+  </si>
+  <si>
+    <t>Ladies' Fingers - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Colocasia (Loose)</t>
+  </si>
+  <si>
+    <t>Potato - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Baby Potato (Loose)</t>
+  </si>
+  <si>
+    <t>Snake Gourd</t>
+  </si>
+  <si>
+    <t>Amaranthus - Red Cleaned, without roots</t>
+  </si>
+  <si>
     <t>Broccoli</t>
   </si>
   <si>
-    <t>Onion - Sambhar (Loose)</t>
-  </si>
-  <si>
-    <t>Corriander  - Organically Grown</t>
-  </si>
-  <si>
-    <t>Palak - Organically Grown</t>
-  </si>
-  <si>
-    <t>Ladies' Fingers - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Colocasia (Loose)</t>
-  </si>
-  <si>
-    <t>Potato - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Baby Potato (Loose)</t>
-  </si>
-  <si>
-    <t>Snake Gourd</t>
-  </si>
-  <si>
-    <t>Amaranthus - Red Cleaned, without roots</t>
-  </si>
-  <si>
     <t>Beetroot - Organically Grown (Loose)</t>
   </si>
   <si>
@@ -320,6 +320,63 @@
     <t>Cut Cauliflower, Washed</t>
   </si>
   <si>
+    <t>Chow Chow - Organically Grown, Rich In Vitamins, Good For Weight Loss</t>
+  </si>
+  <si>
+    <t>Ridge Gourd - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Ash Gourd (Loose)</t>
+  </si>
+  <si>
+    <t>Capsicum - Yellow, Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Beans - Diced</t>
+  </si>
+  <si>
+    <t>Coconut Flower - Medium, Rich In Fibre, Helps Manage Blood Sugar Levels</t>
+  </si>
+  <si>
+    <t>Red Cabbage - Medium</t>
+  </si>
+  <si>
+    <t>Tapioca (Loose)</t>
+  </si>
+  <si>
+    <t>Radish - White (Loose)</t>
+  </si>
+  <si>
+    <t>Lettuce - Romaine</t>
+  </si>
+  <si>
+    <t>₹166</t>
+  </si>
+  <si>
+    <t>₹76</t>
+  </si>
+  <si>
+    <t>₹128</t>
+  </si>
+  <si>
+    <t>₹32</t>
+  </si>
+  <si>
+    <t>₹58</t>
+  </si>
+  <si>
+    <t>₹33</t>
+  </si>
+  <si>
+    <t>₹180</t>
+  </si>
+  <si>
+    <t>₹18</t>
+  </si>
+  <si>
+    <t>₹205</t>
+  </si>
+  <si>
     <t>₹325</t>
   </si>
   <si>
@@ -362,30 +419,12 @@
     <t>₹53</t>
   </si>
   <si>
-    <t>₹166</t>
-  </si>
-  <si>
     <t>₹35</t>
   </si>
   <si>
-    <t>₹76</t>
-  </si>
-  <si>
-    <t>₹128</t>
-  </si>
-  <si>
     <t>₹221</t>
   </si>
   <si>
-    <t>₹32</t>
-  </si>
-  <si>
-    <t>₹58</t>
-  </si>
-  <si>
-    <t>₹33</t>
-  </si>
-  <si>
     <t>₹290</t>
   </si>
   <si>
@@ -401,18 +440,9 @@
     <t>₹68</t>
   </si>
   <si>
-    <t>₹180</t>
-  </si>
-  <si>
     <t>₹144</t>
   </si>
   <si>
-    <t>₹18</t>
-  </si>
-  <si>
-    <t>₹205</t>
-  </si>
-  <si>
     <t>₹190</t>
   </si>
   <si>
@@ -431,33 +461,33 @@
     <t>₹106</t>
   </si>
   <si>
+    <t>₹185</t>
+  </si>
+  <si>
+    <t>₹259</t>
+  </si>
+  <si>
+    <t>₹151</t>
+  </si>
+  <si>
+    <t>₹111</t>
+  </si>
+  <si>
+    <t>₹95</t>
+  </si>
+  <si>
+    <t>₹55</t>
+  </si>
+  <si>
+    <t>₹70</t>
+  </si>
+  <si>
+    <t>₹139</t>
+  </si>
+  <si>
     <t>₹13.16</t>
   </si>
   <si>
-    <t>₹185</t>
-  </si>
-  <si>
-    <t>₹259</t>
-  </si>
-  <si>
-    <t>₹151</t>
-  </si>
-  <si>
-    <t>₹111</t>
-  </si>
-  <si>
-    <t>₹95</t>
-  </si>
-  <si>
-    <t>₹55</t>
-  </si>
-  <si>
-    <t>₹70</t>
-  </si>
-  <si>
-    <t>₹139</t>
-  </si>
-  <si>
     <t>₹90</t>
   </si>
   <si>
@@ -500,10 +530,46 @@
     <t>₹54.79</t>
   </si>
   <si>
+    <t>₹124</t>
+  </si>
+  <si>
+    <t>₹153</t>
+  </si>
+  <si>
+    <t>₹61</t>
+  </si>
+  <si>
+    <t>₹100</t>
+  </si>
+  <si>
+    <t>₹121.18</t>
+  </si>
+  <si>
+    <t>₹55.48</t>
+  </si>
+  <si>
+    <t>₹93.44</t>
+  </si>
+  <si>
+    <t>₹23</t>
+  </si>
+  <si>
+    <t>₹24.09</t>
+  </si>
+  <si>
+    <t>₹131.4</t>
+  </si>
+  <si>
+    <t>₹13.14</t>
+  </si>
+  <si>
+    <t>₹149.65</t>
+  </si>
+  <si>
     <t>₹10</t>
   </si>
   <si>
-    <t>₹12.75</t>
+    <t>₹12</t>
   </si>
   <si>
     <t>₹83.5</t>
@@ -515,10 +581,10 @@
     <t>₹26</t>
   </si>
   <si>
-    <t>₹20</t>
-  </si>
-  <si>
-    <t>₹5.5</t>
+    <t>₹22.5</t>
+  </si>
+  <si>
+    <t>₹6</t>
   </si>
   <si>
     <t>₹26.28</t>
@@ -533,24 +599,12 @@
     <t>₹17.5</t>
   </si>
   <si>
-    <t>₹121.18</t>
-  </si>
-  <si>
-    <t>₹55.48</t>
-  </si>
-  <si>
-    <t>₹93.44</t>
+    <t>₹10.5</t>
   </si>
   <si>
     <t>₹161.33</t>
   </si>
   <si>
-    <t>₹23</t>
-  </si>
-  <si>
-    <t>₹24.09</t>
-  </si>
-  <si>
     <t>₹211.7</t>
   </si>
   <si>
@@ -563,18 +617,9 @@
     <t>₹49.64</t>
   </si>
   <si>
-    <t>₹131.4</t>
-  </si>
-  <si>
     <t>₹105.12</t>
   </si>
   <si>
-    <t>₹13.14</t>
-  </si>
-  <si>
-    <t>₹149.65</t>
-  </si>
-  <si>
     <t>₹138.7</t>
   </si>
   <si>
@@ -596,942 +641,1143 @@
     <t>₹59.13</t>
   </si>
   <si>
+    <t>₹77.38</t>
+  </si>
+  <si>
+    <t>₹109</t>
+  </si>
+  <si>
+    <t>₹189.07</t>
+  </si>
+  <si>
+    <t>₹110.23</t>
+  </si>
+  <si>
+    <t>₹81.03</t>
+  </si>
+  <si>
+    <t>₹69.35</t>
+  </si>
+  <si>
+    <t>₹40.15</t>
+  </si>
+  <si>
+    <t>₹51.1</t>
+  </si>
+  <si>
+    <t>₹101.47</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>₹65.7</t>
+  </si>
+  <si>
+    <t>₹22.63</t>
+  </si>
+  <si>
+    <t>₹78.11</t>
+  </si>
+  <si>
+    <t>₹109.5</t>
+  </si>
+  <si>
+    <t>₹31.39</t>
+  </si>
+  <si>
+    <t>₹88</t>
+  </si>
+  <si>
+    <t>₹108.04</t>
+  </si>
+  <si>
     <t>₹38</t>
   </si>
   <si>
-    <t>₹77.38</t>
-  </si>
-  <si>
-    <t>N/A</t>
+    <t>₹53.29</t>
+  </si>
+  <si>
+    <t>₹42.34</t>
+  </si>
+  <si>
+    <t>₹17.52</t>
+  </si>
+  <si>
+    <t>₹29.2</t>
+  </si>
+  <si>
+    <t>₹38.69</t>
+  </si>
+  <si>
+    <t>₹11.68</t>
+  </si>
+  <si>
+    <t>₹21.17</t>
+  </si>
+  <si>
+    <t>₹45.26</t>
+  </si>
+  <si>
+    <t>₹87.6</t>
+  </si>
+  <si>
+    <t>₹28.47</t>
+  </si>
+  <si>
+    <t>₹90.52</t>
+  </si>
+  <si>
+    <t>₹111.69</t>
+  </si>
+  <si>
+    <t>₹44.53</t>
+  </si>
+  <si>
+    <t>27% OFF</t>
+  </si>
+  <si>
+    <t>28% OFF</t>
+  </si>
+  <si>
+    <t>59% OFF</t>
+  </si>
+  <si>
+    <t>43% OFF</t>
+  </si>
+  <si>
+    <t>39% OFF</t>
+  </si>
+  <si>
+    <t>60% OFF</t>
+  </si>
+  <si>
+    <t>36% OFF</t>
+  </si>
+  <si>
+    <t>69% OFF</t>
+  </si>
+  <si>
+    <t>29% OFF</t>
+  </si>
+  <si>
+    <t>54% OFF</t>
+  </si>
+  <si>
+    <t>61% OFF</t>
+  </si>
+  <si>
+    <t>57% OFF</t>
+  </si>
+  <si>
+    <t>41% OFF</t>
+  </si>
+  <si>
+    <t>31% OFF</t>
+  </si>
+  <si>
+    <t>51% OFF</t>
+  </si>
+  <si>
+    <t>45% OFF</t>
+  </si>
+  <si>
+    <t>70% OFF</t>
+  </si>
+  <si>
+    <t>32% OFF</t>
+  </si>
+  <si>
+    <t>66% OFF</t>
+  </si>
+  <si>
+    <t>49% OFF</t>
+  </si>
+  <si>
+    <t>Fresh Vegetables</t>
+  </si>
+  <si>
+    <t>1 kg</t>
+  </si>
+  <si>
+    <t>2 pcs</t>
+  </si>
+  <si>
+    <t>500 g</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 500 g - 800 g)</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 100 g)</t>
+  </si>
+  <si>
+    <t>5 kg - Multipack</t>
+  </si>
+  <si>
+    <t>250 g</t>
+  </si>
+  <si>
+    <t>1 pc - (approx. 400 to 600 g)</t>
+  </si>
+  <si>
+    <t>1 pack - (Approx. 180g - 200 g)</t>
+  </si>
+  <si>
+    <t>1 pc - (approx. 500 g to 800 g)</t>
+  </si>
+  <si>
+    <t>5 kg</t>
+  </si>
+  <si>
+    <t>10 pcs</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 250g-500g)</t>
+  </si>
+  <si>
+    <t>350 g (2 pieces)</t>
+  </si>
+  <si>
+    <t>100 g</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx. 100g-250g)</t>
+  </si>
+  <si>
+    <t>1 Kg</t>
+  </si>
+  <si>
+    <t>1 pc - Approx. 400 to 600 g</t>
+  </si>
+  <si>
+    <t>1 pc</t>
+  </si>
+  <si>
+    <t>1 pc (approx. 300-1.3 Kg)</t>
+  </si>
+  <si>
+    <t>1 pc (Approx 500-1000 g)</t>
+  </si>
+  <si>
+    <t>300 g</t>
+  </si>
+  <si>
+    <t>1 pc - Approx. 2.5 to 4 Kg</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx 250 to 450 gm)</t>
+  </si>
+  <si>
+    <t>1 Pc (Approx.601 g-950 g)</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:57:45.701759+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:57:45.709761+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:57:45.712757+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:57:45.721712+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:57:45.724710+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:57:45.728712+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:57:45.732721+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:57:45.753927+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-17 15:57:45.764003+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.338507+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.355208+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.362102+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.370230+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.380106+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.381105+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.389145+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.400323+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.402306+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.416001+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.419251+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.430064+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.452030+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.465535+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.477018+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.481129+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.490419+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.498415+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.506929+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.513808+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.515809+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.523972+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.528712+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.539918+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.549128+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.552871+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.564332+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.568799+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.572635+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.577535+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.581725+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.586043+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.590142+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.593865+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.597684+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.599015+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.607029+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.611651+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.619698+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.628368+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.636404+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.643504+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.644507+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.652740+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.653739+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.658340+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.660909+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.663166+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.665589+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.666582+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.676046+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.680143+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.688168+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.691726+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.695070+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.703172+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.710187+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.714416+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.715457+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.723545+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.727810+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.733825+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.737920+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.744188+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.752271+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.759464+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.760464+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.769809+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.770808+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.776858+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:20:36.777904+05:30</t>
+  </si>
+  <si>
+    <t>Banana - Robusta</t>
+  </si>
+  <si>
+    <t>Apple - Shimla, Regular</t>
+  </si>
+  <si>
+    <t>Banana - Yelakki</t>
+  </si>
+  <si>
+    <t>Baby Apple Shimla</t>
+  </si>
+  <si>
+    <t>Pomegranate - Regular (Loose)</t>
+  </si>
+  <si>
+    <t>Coconut - Medium</t>
+  </si>
+  <si>
+    <t>Mini Orange Imported (Loose)</t>
+  </si>
+  <si>
+    <t>Papaya</t>
+  </si>
+  <si>
+    <t>Pomegranate (Loose)</t>
+  </si>
+  <si>
+    <t>Watermelon -  Medium</t>
+  </si>
+  <si>
+    <t>Tender Coconut</t>
+  </si>
+  <si>
+    <t>Orange - Nagpur, Regular (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala Economy</t>
+  </si>
+  <si>
+    <t>Kiwi - Green</t>
+  </si>
+  <si>
+    <t>Banana - Nendran</t>
+  </si>
+  <si>
+    <t>Guava - Thai (Loose)</t>
+  </si>
+  <si>
+    <t>Mosambi - Economy (Loose)</t>
+  </si>
+  <si>
+    <t>Pear - Green, Imported</t>
+  </si>
+  <si>
+    <t>Dragon Fruit (Loose)</t>
+  </si>
+  <si>
+    <t>Guava (Loose)</t>
+  </si>
+  <si>
+    <t>Avocado - Imported, Medium (Loose)</t>
+  </si>
+  <si>
+    <t>Papaya - Small</t>
+  </si>
+  <si>
+    <t>Muskmelon -  Netted Medium</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala, Regular</t>
+  </si>
+  <si>
+    <t>Avocado (Loose)</t>
+  </si>
+  <si>
+    <t>Grapes - Bangalore Blue</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala, Premium</t>
+  </si>
+  <si>
+    <t>Sapota</t>
+  </si>
+  <si>
+    <t>Banana - Yelakki, Organically Grown</t>
+  </si>
+  <si>
+    <t>Mosambi - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Banana - Raw Green (Loose)</t>
+  </si>
+  <si>
+    <t>Mango - Neelam</t>
+  </si>
+  <si>
+    <t>Blueberry</t>
+  </si>
+  <si>
+    <t>Raw Mango (Loose)</t>
+  </si>
+  <si>
+    <t>Orange - Nagpur, Small (Loose)</t>
+  </si>
+  <si>
+    <t>Pineapple</t>
+  </si>
+  <si>
+    <t>Coconut - Large</t>
+  </si>
+  <si>
+    <t>Pear Beauty</t>
+  </si>
+  <si>
+    <t>Pomegranate - Peeled</t>
+  </si>
+  <si>
+    <t>Banana - Red</t>
+  </si>
+  <si>
+    <t>Apple - Green, Premium</t>
+  </si>
+  <si>
+    <t>Fresh Figs</t>
+  </si>
+  <si>
+    <t>Apple - Shimla, Premium</t>
+  </si>
+  <si>
+    <t>Wood Apple - Kothbel (Loose)</t>
+  </si>
+  <si>
+    <t>Ber - Apple (Loose)</t>
+  </si>
+  <si>
+    <t>Apple - Ambri</t>
+  </si>
+  <si>
+    <t>Banana - Poovan</t>
+  </si>
+  <si>
+    <t>Orange - Imported (Loose)</t>
+  </si>
+  <si>
+    <t>Dates - Kimia, with Seed</t>
+  </si>
+  <si>
+    <t>Baby Banana - Robusta</t>
+  </si>
+  <si>
+    <t>Banana - Karpooravalli</t>
+  </si>
+  <si>
+    <t>Zespri Kiwi - Sun Gold</t>
+  </si>
+  <si>
+    <t>Longan</t>
+  </si>
+  <si>
+    <t>Apple - Pink Lady</t>
+  </si>
+  <si>
+    <t>Banana - Nendran, Organically Grown</t>
+  </si>
+  <si>
+    <t>Passion Fruit</t>
+  </si>
+  <si>
+    <t>Sugarcane - Diced</t>
+  </si>
+  <si>
+    <t>Pear - Beauty, Rich In Fiber, Vitamin C, Great For Gut Health</t>
+  </si>
+  <si>
+    <t>Mango - Raw Totapuri</t>
+  </si>
+  <si>
+    <t>Coconut with Husk - Pooja Coconut</t>
+  </si>
+  <si>
+    <t>Cherry - Kashmir</t>
+  </si>
+  <si>
+    <t>Apple - Red Delicious, Economy</t>
+  </si>
+  <si>
+    <t>Mosambi - Premium (Loose)</t>
+  </si>
+  <si>
+    <t>Pear - Naspathi, Indian</t>
+  </si>
+  <si>
+    <t>Pineapple - Slices</t>
+  </si>
+  <si>
+    <t>Grapes - Red Globe</t>
+  </si>
+  <si>
+    <t>Soursop</t>
+  </si>
+  <si>
+    <t>Apricot - Dried</t>
+  </si>
+  <si>
+    <t>Plum - Indian</t>
+  </si>
+  <si>
+    <t>Coconut - Diced</t>
+  </si>
+  <si>
+    <t>Papaya- Diced</t>
+  </si>
+  <si>
+    <t>Guava - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Coconut - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Pomegranate - Single Serve, Peeled</t>
+  </si>
+  <si>
+    <t>Apple - Red Delicious, Organically Grown</t>
+  </si>
+  <si>
+    <t>Grape fruit - Imported (Loose)</t>
+  </si>
+  <si>
+    <t>Pineapple - Chunks, Single Serve</t>
+  </si>
+  <si>
+    <t>Apple - Fuji Premium</t>
+  </si>
+  <si>
+    <t>Mosambi (Loose)</t>
+  </si>
+  <si>
+    <t>Orange - Nagpur Premium</t>
+  </si>
+  <si>
+    <t>Apple - Washington, Regular</t>
+  </si>
+  <si>
+    <t>Apple - Fuji, Economy</t>
+  </si>
+  <si>
+    <t>Rambutan</t>
+  </si>
+  <si>
+    <t>Tamarind - Sweet</t>
+  </si>
+  <si>
+    <t>Watermelon - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Kiwi - Dried</t>
+  </si>
+  <si>
+    <t>Plum - Imported</t>
+  </si>
+  <si>
+    <t>Ber (Loose)</t>
+  </si>
+  <si>
+    <t>Guava - Thai Organic, White</t>
+  </si>
+  <si>
+    <t>Pomelo - Peeled</t>
+  </si>
+  <si>
+    <t>Cherry</t>
+  </si>
+  <si>
+    <t>Cherry - Imported</t>
+  </si>
+  <si>
+    <t>Apple - Queen, Rose</t>
+  </si>
+  <si>
+    <t>₹328</t>
+  </si>
+  <si>
+    <t>₹216</t>
+  </si>
+  <si>
+    <t>₹307</t>
+  </si>
+  <si>
+    <t>₹405</t>
+  </si>
+  <si>
+    <t>₹80</t>
+  </si>
+  <si>
+    <t>₹268</t>
+  </si>
+  <si>
+    <t>₹87</t>
+  </si>
+  <si>
+    <t>₹196</t>
+  </si>
+  <si>
+    <t>₹41</t>
+  </si>
+  <si>
+    <t>₹72</t>
+  </si>
+  <si>
+    <t>₹428</t>
+  </si>
+  <si>
+    <t>₹98</t>
+  </si>
+  <si>
+    <t>₹65</t>
+  </si>
+  <si>
+    <t>₹443</t>
+  </si>
+  <si>
+    <t>₹136</t>
+  </si>
+  <si>
+    <t>₹530</t>
+  </si>
+  <si>
+    <t>₹147</t>
+  </si>
+  <si>
+    <t>₹127</t>
+  </si>
+  <si>
+    <t>₹439</t>
+  </si>
+  <si>
+    <t>₹50</t>
+  </si>
+  <si>
+    <t>₹125</t>
+  </si>
+  <si>
+    <t>₹96</t>
+  </si>
+  <si>
+    <t>₹44</t>
+  </si>
+  <si>
+    <t>₹383.56</t>
+  </si>
+  <si>
+    <t>₹502</t>
+  </si>
+  <si>
+    <t>₹210.53</t>
+  </si>
+  <si>
+    <t>₹442</t>
+  </si>
+  <si>
+    <t>₹17</t>
+  </si>
+  <si>
+    <t>₹254</t>
+  </si>
+  <si>
+    <t>₹305</t>
+  </si>
+  <si>
+    <t>₹84</t>
+  </si>
+  <si>
+    <t>₹473</t>
+  </si>
+  <si>
+    <t>₹336</t>
+  </si>
+  <si>
+    <t>₹240</t>
   </si>
   <si>
     <t>₹105</t>
   </si>
   <si>
-    <t>₹189.07</t>
-  </si>
-  <si>
-    <t>₹110.23</t>
-  </si>
-  <si>
-    <t>₹81.03</t>
-  </si>
-  <si>
-    <t>₹69.35</t>
-  </si>
-  <si>
-    <t>₹40.15</t>
-  </si>
-  <si>
-    <t>₹51.1</t>
-  </si>
-  <si>
-    <t>₹101.47</t>
-  </si>
-  <si>
-    <t>₹65.7</t>
-  </si>
-  <si>
-    <t>₹22.63</t>
-  </si>
-  <si>
-    <t>₹78.11</t>
-  </si>
-  <si>
-    <t>₹109.5</t>
-  </si>
-  <si>
-    <t>₹31.39</t>
-  </si>
-  <si>
-    <t>₹88</t>
-  </si>
-  <si>
-    <t>₹108.04</t>
-  </si>
-  <si>
-    <t>₹53.29</t>
-  </si>
-  <si>
-    <t>₹42.34</t>
-  </si>
-  <si>
-    <t>₹17.52</t>
-  </si>
-  <si>
-    <t>₹29.2</t>
-  </si>
-  <si>
-    <t>₹38.69</t>
-  </si>
-  <si>
-    <t>₹11.68</t>
-  </si>
-  <si>
-    <t>₹21.17</t>
-  </si>
-  <si>
-    <t>₹45.26</t>
-  </si>
-  <si>
-    <t>₹87.6</t>
-  </si>
-  <si>
-    <t>₹28.47</t>
-  </si>
-  <si>
-    <t>43% OFF</t>
-  </si>
-  <si>
-    <t>39% OFF</t>
-  </si>
-  <si>
-    <t>60% OFF</t>
-  </si>
-  <si>
-    <t>36% OFF</t>
-  </si>
-  <si>
-    <t>67% OFF</t>
-  </si>
-  <si>
-    <t>29% OFF</t>
-  </si>
-  <si>
-    <t>54% OFF</t>
-  </si>
-  <si>
-    <t>65% OFF</t>
-  </si>
-  <si>
-    <t>61% OFF</t>
-  </si>
-  <si>
-    <t>27% OFF</t>
-  </si>
-  <si>
-    <t>41% OFF</t>
-  </si>
-  <si>
-    <t>31% OFF</t>
-  </si>
-  <si>
-    <t>51% OFF</t>
-  </si>
-  <si>
-    <t>45% OFF</t>
-  </si>
-  <si>
-    <t>71% OFF</t>
-  </si>
-  <si>
-    <t>28% OFF</t>
-  </si>
-  <si>
-    <t>59% OFF</t>
-  </si>
-  <si>
-    <t>32% OFF</t>
-  </si>
-  <si>
-    <t>66% OFF</t>
+    <t>₹462</t>
+  </si>
+  <si>
+    <t>₹35.62</t>
+  </si>
+  <si>
+    <t>₹329</t>
+  </si>
+  <si>
+    <t>₹183</t>
+  </si>
+  <si>
+    <t>₹557</t>
+  </si>
+  <si>
+    <t>₹200</t>
+  </si>
+  <si>
+    <t>₹276</t>
+  </si>
+  <si>
+    <t>₹113</t>
+  </si>
+  <si>
+    <t>₹525</t>
+  </si>
+  <si>
+    <t>₹162</t>
+  </si>
+  <si>
+    <t>₹380</t>
+  </si>
+  <si>
+    <t>₹179</t>
+  </si>
+  <si>
+    <t>₹137</t>
+  </si>
+  <si>
+    <t>₹101.37</t>
+  </si>
+  <si>
+    <t>₹222</t>
+  </si>
+  <si>
+    <t>₹114</t>
+  </si>
+  <si>
+    <t>₹1146</t>
+  </si>
+  <si>
+    <t>₹132</t>
+  </si>
+  <si>
+    <t>₹1895</t>
+  </si>
+  <si>
+    <t>₹142</t>
+  </si>
+  <si>
+    <t>₹187</t>
+  </si>
+  <si>
+    <t>₹324.34</t>
+  </si>
+  <si>
+    <t>₹46</t>
+  </si>
+  <si>
+    <t>₹106.85</t>
+  </si>
+  <si>
+    <t>₹248</t>
+  </si>
+  <si>
+    <t>₹264</t>
+  </si>
+  <si>
+    <t>₹45</t>
+  </si>
+  <si>
+    <t>₹239.44</t>
+  </si>
+  <si>
+    <t>₹94</t>
+  </si>
+  <si>
+    <t>₹224.11</t>
+  </si>
+  <si>
+    <t>₹246</t>
+  </si>
+  <si>
+    <t>₹58.4</t>
+  </si>
+  <si>
+    <t>₹195.64</t>
+  </si>
+  <si>
+    <t>₹63.51</t>
+  </si>
+  <si>
+    <t>₹143.08</t>
+  </si>
+  <si>
+    <t>₹157</t>
+  </si>
+  <si>
+    <t>₹28</t>
+  </si>
+  <si>
+    <t>₹52.56</t>
+  </si>
+  <si>
+    <t>₹312.44</t>
+  </si>
+  <si>
+    <t>₹71.54</t>
+  </si>
+  <si>
+    <t>₹79.57</t>
+  </si>
+  <si>
+    <t>₹47.45</t>
+  </si>
+  <si>
+    <t>₹312</t>
+  </si>
+  <si>
+    <t>₹323.39</t>
+  </si>
+  <si>
+    <t>₹99.28</t>
+  </si>
+  <si>
+    <t>₹386.9</t>
+  </si>
+  <si>
+    <t>₹107.31</t>
+  </si>
+  <si>
+    <t>₹92.71</t>
+  </si>
+  <si>
+    <t>₹320.47</t>
+  </si>
+  <si>
+    <t>₹91.25</t>
+  </si>
+  <si>
+    <t>₹70.08</t>
+  </si>
+  <si>
+    <t>₹32.12</t>
+  </si>
+  <si>
+    <t>₹280</t>
+  </si>
+  <si>
+    <t>₹366.46</t>
+  </si>
+  <si>
+    <t>₹153.69</t>
+  </si>
+  <si>
+    <t>₹322.66</t>
+  </si>
+  <si>
+    <t>₹12.41</t>
+  </si>
+  <si>
+    <t>₹185.42</t>
+  </si>
+  <si>
+    <t>₹222.65</t>
+  </si>
+  <si>
+    <t>₹61.32</t>
+  </si>
+  <si>
+    <t>₹345.29</t>
+  </si>
+  <si>
+    <t>₹245.28</t>
+  </si>
+  <si>
+    <t>₹175.2</t>
+  </si>
+  <si>
+    <t>₹76.65</t>
+  </si>
+  <si>
+    <t>₹337.26</t>
+  </si>
+  <si>
+    <t>₹240.17</t>
+  </si>
+  <si>
+    <t>₹133.59</t>
+  </si>
+  <si>
+    <t>₹23.36</t>
+  </si>
+  <si>
+    <t>₹406.61</t>
+  </si>
+  <si>
+    <t>₹146</t>
+  </si>
+  <si>
+    <t>₹201.48</t>
+  </si>
+  <si>
+    <t>₹82.49</t>
+  </si>
+  <si>
+    <t>₹383.25</t>
+  </si>
+  <si>
+    <t>₹118.26</t>
+  </si>
+  <si>
+    <t>₹277.4</t>
+  </si>
+  <si>
+    <t>₹130.67</t>
+  </si>
+  <si>
+    <t>₹34</t>
+  </si>
+  <si>
+    <t>₹100.01</t>
+  </si>
+  <si>
+    <t>₹36.5</t>
+  </si>
+  <si>
+    <t>₹74</t>
+  </si>
+  <si>
+    <t>₹162.06</t>
+  </si>
+  <si>
+    <t>₹83.22</t>
+  </si>
+  <si>
+    <t>₹836.58</t>
+  </si>
+  <si>
+    <t>₹96.36</t>
+  </si>
+  <si>
+    <t>₹1383.35</t>
+  </si>
+  <si>
+    <t>₹103.66</t>
+  </si>
+  <si>
+    <t>₹136.51</t>
+  </si>
+  <si>
+    <t>₹236.77</t>
+  </si>
+  <si>
+    <t>₹33.58</t>
+  </si>
+  <si>
+    <t>₹78</t>
+  </si>
+  <si>
+    <t>₹181.04</t>
+  </si>
+  <si>
+    <t>40% OFF</t>
+  </si>
+  <si>
+    <t>42% OFF</t>
   </si>
   <si>
     <t>44% OFF</t>
   </si>
   <si>
-    <t>Fresh Vegetables</t>
-  </si>
-  <si>
-    <t>5 kg - Multipack</t>
-  </si>
-  <si>
-    <t>1 kg</t>
-  </si>
-  <si>
-    <t>250 g</t>
-  </si>
-  <si>
-    <t>500 g</t>
-  </si>
-  <si>
-    <t>1 pc - (approx. 400 to 600 g)</t>
-  </si>
-  <si>
-    <t>1 pack - (Approx. 180g - 200 g)</t>
-  </si>
-  <si>
-    <t>1 pc - (approx. 500 g to 800 g)</t>
-  </si>
-  <si>
-    <t>2 pcs</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx. 500 g - 800 g)</t>
-  </si>
-  <si>
-    <t>5 kg</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx. 100 g)</t>
-  </si>
-  <si>
-    <t>10 pcs</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx. 250g-500g)</t>
-  </si>
-  <si>
-    <t>350 g (2 pieces)</t>
-  </si>
-  <si>
-    <t>100 g</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx. 100g-250g)</t>
-  </si>
-  <si>
-    <t>1 Kg</t>
-  </si>
-  <si>
-    <t>1 pc - Approx. 400 to 600 g</t>
-  </si>
-  <si>
-    <t>1 pc</t>
-  </si>
-  <si>
-    <t>1 pc (approx. 300-1.3 Kg)</t>
-  </si>
-  <si>
-    <t>1 pc (Approx 500-1000 g)</t>
-  </si>
-  <si>
-    <t>300 g</t>
-  </si>
-  <si>
-    <t>2023-10-17 15:09:18.304418+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 15:09:18.345747+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 15:09:18.361389+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 15:09:18.378134+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 15:09:18.384003+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 15:09:18.400051+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 15:09:18.401050+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 15:09:18.416724+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 15:09:18.421733+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 15:09:18.439526+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 15:09:18.456060+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 15:09:18.457964+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 15:09:18.458503+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 15:09:18.474869+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 15:09:18.486763+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 15:09:18.503620+05:30</t>
-  </si>
-  <si>
-    <t>Banana - Robusta</t>
-  </si>
-  <si>
-    <t>Apple - Shimla, Regular</t>
-  </si>
-  <si>
-    <t>Banana - Yelakki</t>
-  </si>
-  <si>
-    <t>Baby Apple Shimla</t>
-  </si>
-  <si>
-    <t>Pomegranate - Regular (Loose)</t>
-  </si>
-  <si>
-    <t>Coconut - Medium</t>
-  </si>
-  <si>
-    <t>Mini Orange Imported (Loose)</t>
-  </si>
-  <si>
-    <t>Papaya</t>
-  </si>
-  <si>
-    <t>Pomegranate (Loose)</t>
-  </si>
-  <si>
-    <t>Watermelon -  Medium</t>
-  </si>
-  <si>
-    <t>Tender Coconut</t>
-  </si>
-  <si>
-    <t>Orange - Nagpur, Regular (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala Economy</t>
-  </si>
-  <si>
-    <t>Kiwi - Green</t>
-  </si>
-  <si>
-    <t>Banana - Nendran</t>
-  </si>
-  <si>
-    <t>Guava - Thai (Loose)</t>
-  </si>
-  <si>
-    <t>Mosambi - Economy (Loose)</t>
-  </si>
-  <si>
-    <t>Pear - Green, Imported</t>
-  </si>
-  <si>
-    <t>Dragon Fruit (Loose)</t>
-  </si>
-  <si>
-    <t>Guava (Loose)</t>
-  </si>
-  <si>
-    <t>Avocado - Imported, Medium (Loose)</t>
-  </si>
-  <si>
-    <t>Papaya - Small</t>
-  </si>
-  <si>
-    <t>Muskmelon -  Netted Medium</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala, Regular</t>
-  </si>
-  <si>
-    <t>Avocado (Loose)</t>
-  </si>
-  <si>
-    <t>Grapes - Bangalore Blue</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala, Premium</t>
-  </si>
-  <si>
-    <t>Sapota</t>
-  </si>
-  <si>
-    <t>Banana - Yelakki, Organically Grown</t>
-  </si>
-  <si>
-    <t>Mosambi - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Banana - Raw Green (Loose)</t>
-  </si>
-  <si>
-    <t>Mango - Neelam</t>
-  </si>
-  <si>
-    <t>Blueberry</t>
-  </si>
-  <si>
-    <t>Raw Mango (Loose)</t>
-  </si>
-  <si>
-    <t>Orange - Nagpur, Small (Loose)</t>
-  </si>
-  <si>
-    <t>Pineapple</t>
-  </si>
-  <si>
-    <t>Coconut - Large</t>
-  </si>
-  <si>
-    <t>Pear Beauty</t>
-  </si>
-  <si>
-    <t>Pomegranate - Peeled</t>
-  </si>
-  <si>
-    <t>Banana - Red</t>
-  </si>
-  <si>
-    <t>Apple - Green, Premium</t>
-  </si>
-  <si>
-    <t>Fresh Figs</t>
-  </si>
-  <si>
-    <t>Apple - Shimla, Premium</t>
-  </si>
-  <si>
-    <t>Wood Apple - Kothbel (Loose)</t>
-  </si>
-  <si>
-    <t>Ber - Apple (Loose)</t>
-  </si>
-  <si>
-    <t>Apple - Ambri</t>
-  </si>
-  <si>
-    <t>Banana - Poovan</t>
-  </si>
-  <si>
-    <t>Orange - Imported (Loose)</t>
-  </si>
-  <si>
-    <t>Dates - Kimia, with Seed</t>
-  </si>
-  <si>
-    <t>Baby Banana - Robusta</t>
-  </si>
-  <si>
-    <t>Banana - Karpooravalli</t>
-  </si>
-  <si>
-    <t>Zespri Kiwi - Sun Gold</t>
-  </si>
-  <si>
-    <t>Longan</t>
-  </si>
-  <si>
-    <t>Apple - Pink Lady</t>
-  </si>
-  <si>
-    <t>Banana - Nendran, Organically Grown</t>
-  </si>
-  <si>
-    <t>Passion Fruit</t>
-  </si>
-  <si>
-    <t>Sugarcane - Diced</t>
-  </si>
-  <si>
-    <t>Pear - Beauty, Rich In Fiber, Vitamin C, Great For Gut Health</t>
-  </si>
-  <si>
-    <t>Mango - Raw Totapuri</t>
-  </si>
-  <si>
-    <t>Coconut with Husk - Pooja Coconut</t>
-  </si>
-  <si>
-    <t>Cherry - Kashmir</t>
-  </si>
-  <si>
-    <t>Apple - Red Delicious, Economy</t>
-  </si>
-  <si>
-    <t>Mosambi - Premium (Loose)</t>
-  </si>
-  <si>
-    <t>Pear - Naspathi, Indian</t>
-  </si>
-  <si>
-    <t>Pineapple - Slices</t>
-  </si>
-  <si>
-    <t>Grapes - Red Globe</t>
-  </si>
-  <si>
-    <t>Soursop</t>
-  </si>
-  <si>
-    <t>Apricot - Dried</t>
-  </si>
-  <si>
-    <t>Plum - Indian</t>
-  </si>
-  <si>
-    <t>Coconut - Diced</t>
-  </si>
-  <si>
-    <t>Papaya- Diced</t>
-  </si>
-  <si>
-    <t>Guava - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Coconut - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Pomegranate - Single Serve, Peeled</t>
-  </si>
-  <si>
-    <t>Apple - Red Delicious, Organically Grown</t>
-  </si>
-  <si>
-    <t>Grape fruit - Imported (Loose)</t>
-  </si>
-  <si>
-    <t>Pineapple - Chunks, Single Serve</t>
-  </si>
-  <si>
-    <t>Apple - Fuji Premium</t>
-  </si>
-  <si>
-    <t>Mosambi (Loose)</t>
-  </si>
-  <si>
-    <t>Orange - Nagpur Premium</t>
-  </si>
-  <si>
-    <t>Apple - Washington, Regular</t>
-  </si>
-  <si>
-    <t>Apple - Fuji, Economy</t>
-  </si>
-  <si>
-    <t>Rambutan</t>
-  </si>
-  <si>
-    <t>Tamarind - Sweet</t>
-  </si>
-  <si>
-    <t>Watermelon - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Kiwi - Dried</t>
-  </si>
-  <si>
-    <t>Plum - Imported</t>
-  </si>
-  <si>
-    <t>Ber (Loose)</t>
-  </si>
-  <si>
-    <t>Guava - Thai Organic, White</t>
-  </si>
-  <si>
-    <t>Pomelo - Peeled</t>
-  </si>
-  <si>
-    <t>Cherry</t>
-  </si>
-  <si>
-    <t>Cherry - Imported</t>
-  </si>
-  <si>
-    <t>Apple - Queen, Rose</t>
-  </si>
-  <si>
-    <t>₹328</t>
-  </si>
-  <si>
-    <t>₹216</t>
-  </si>
-  <si>
-    <t>₹307</t>
-  </si>
-  <si>
-    <t>₹405</t>
-  </si>
-  <si>
-    <t>₹80</t>
-  </si>
-  <si>
-    <t>₹268</t>
-  </si>
-  <si>
-    <t>₹87</t>
-  </si>
-  <si>
-    <t>₹196</t>
-  </si>
-  <si>
-    <t>₹41</t>
-  </si>
-  <si>
-    <t>₹72</t>
-  </si>
-  <si>
-    <t>₹428</t>
-  </si>
-  <si>
-    <t>₹98</t>
-  </si>
-  <si>
-    <t>₹109</t>
-  </si>
-  <si>
-    <t>₹65</t>
-  </si>
-  <si>
-    <t>₹443</t>
-  </si>
-  <si>
-    <t>₹136</t>
-  </si>
-  <si>
-    <t>₹530</t>
-  </si>
-  <si>
-    <t>₹100</t>
-  </si>
-  <si>
-    <t>₹147</t>
-  </si>
-  <si>
-    <t>₹127</t>
-  </si>
-  <si>
-    <t>₹439</t>
-  </si>
-  <si>
-    <t>₹50</t>
-  </si>
-  <si>
-    <t>₹125</t>
-  </si>
-  <si>
-    <t>₹96</t>
-  </si>
-  <si>
-    <t>₹44</t>
-  </si>
-  <si>
-    <t>₹383.56</t>
-  </si>
-  <si>
-    <t>₹124</t>
-  </si>
-  <si>
-    <t>₹502</t>
-  </si>
-  <si>
-    <t>₹210.53</t>
-  </si>
-  <si>
-    <t>₹442</t>
-  </si>
-  <si>
-    <t>₹17</t>
-  </si>
-  <si>
-    <t>₹254</t>
-  </si>
-  <si>
-    <t>₹305</t>
-  </si>
-  <si>
-    <t>₹84</t>
-  </si>
-  <si>
-    <t>₹473</t>
-  </si>
-  <si>
-    <t>₹336</t>
-  </si>
-  <si>
-    <t>₹240</t>
-  </si>
-  <si>
-    <t>₹462</t>
-  </si>
-  <si>
-    <t>₹35.62</t>
-  </si>
-  <si>
-    <t>₹329</t>
-  </si>
-  <si>
-    <t>₹183</t>
-  </si>
-  <si>
-    <t>₹557</t>
-  </si>
-  <si>
-    <t>₹200</t>
-  </si>
-  <si>
-    <t>₹276</t>
-  </si>
-  <si>
-    <t>₹113</t>
-  </si>
-  <si>
-    <t>₹525</t>
-  </si>
-  <si>
-    <t>₹162</t>
-  </si>
-  <si>
-    <t>₹380</t>
-  </si>
-  <si>
-    <t>₹179</t>
-  </si>
-  <si>
-    <t>₹137</t>
-  </si>
-  <si>
-    <t>₹101.37</t>
-  </si>
-  <si>
-    <t>₹222</t>
-  </si>
-  <si>
-    <t>₹114</t>
-  </si>
-  <si>
-    <t>₹1146</t>
-  </si>
-  <si>
-    <t>₹132</t>
-  </si>
-  <si>
-    <t>₹1895</t>
-  </si>
-  <si>
-    <t>₹142</t>
-  </si>
-  <si>
-    <t>₹187</t>
-  </si>
-  <si>
-    <t>₹324.34</t>
-  </si>
-  <si>
-    <t>₹46</t>
-  </si>
-  <si>
-    <t>₹106.85</t>
-  </si>
-  <si>
-    <t>₹248</t>
-  </si>
-  <si>
-    <t>₹264</t>
-  </si>
-  <si>
-    <t>₹22</t>
-  </si>
-  <si>
-    <t>₹94</t>
-  </si>
-  <si>
-    <t>₹224.11</t>
-  </si>
-  <si>
-    <t>₹246</t>
-  </si>
-  <si>
-    <t>₹58.4</t>
-  </si>
-  <si>
-    <t>₹195.64</t>
-  </si>
-  <si>
-    <t>₹63.51</t>
-  </si>
-  <si>
-    <t>₹143.08</t>
-  </si>
-  <si>
-    <t>₹157</t>
-  </si>
-  <si>
-    <t>₹28</t>
-  </si>
-  <si>
-    <t>₹52.56</t>
-  </si>
-  <si>
-    <t>₹312.44</t>
-  </si>
-  <si>
-    <t>₹71.54</t>
-  </si>
-  <si>
-    <t>₹79.57</t>
-  </si>
-  <si>
-    <t>₹47.45</t>
-  </si>
-  <si>
-    <t>₹312</t>
-  </si>
-  <si>
-    <t>₹323.39</t>
-  </si>
-  <si>
-    <t>₹99.28</t>
-  </si>
-  <si>
-    <t>₹386.9</t>
-  </si>
-  <si>
-    <t>₹107.31</t>
-  </si>
-  <si>
-    <t>₹92.71</t>
-  </si>
-  <si>
-    <t>₹320.47</t>
-  </si>
-  <si>
-    <t>₹91.25</t>
-  </si>
-  <si>
-    <t>₹70.08</t>
-  </si>
-  <si>
-    <t>₹32.12</t>
-  </si>
-  <si>
-    <t>₹280</t>
-  </si>
-  <si>
-    <t>₹90.52</t>
-  </si>
-  <si>
-    <t>₹366.46</t>
-  </si>
-  <si>
-    <t>₹153.69</t>
-  </si>
-  <si>
-    <t>₹322.66</t>
-  </si>
-  <si>
-    <t>₹12.41</t>
-  </si>
-  <si>
-    <t>₹239.44</t>
-  </si>
-  <si>
-    <t>₹185.42</t>
-  </si>
-  <si>
-    <t>₹222.65</t>
-  </si>
-  <si>
-    <t>₹61.32</t>
-  </si>
-  <si>
-    <t>₹345.29</t>
-  </si>
-  <si>
-    <t>₹245.28</t>
-  </si>
-  <si>
-    <t>₹175.2</t>
-  </si>
-  <si>
-    <t>₹76.65</t>
-  </si>
-  <si>
-    <t>₹337.26</t>
-  </si>
-  <si>
-    <t>₹240.17</t>
-  </si>
-  <si>
-    <t>₹133.59</t>
-  </si>
-  <si>
-    <t>₹23.36</t>
-  </si>
-  <si>
-    <t>₹406.61</t>
-  </si>
-  <si>
-    <t>₹146</t>
-  </si>
-  <si>
-    <t>₹201.48</t>
-  </si>
-  <si>
-    <t>₹82.49</t>
-  </si>
-  <si>
-    <t>₹383.25</t>
-  </si>
-  <si>
-    <t>₹118.26</t>
-  </si>
-  <si>
-    <t>₹277.4</t>
-  </si>
-  <si>
-    <t>₹130.67</t>
-  </si>
-  <si>
-    <t>₹100.01</t>
-  </si>
-  <si>
-    <t>₹36.5</t>
-  </si>
-  <si>
-    <t>₹74</t>
-  </si>
-  <si>
-    <t>₹162.06</t>
-  </si>
-  <si>
-    <t>₹83.22</t>
-  </si>
-  <si>
-    <t>₹836.58</t>
-  </si>
-  <si>
-    <t>₹96.36</t>
-  </si>
-  <si>
-    <t>₹1383.35</t>
-  </si>
-  <si>
-    <t>₹103.66</t>
-  </si>
-  <si>
-    <t>₹136.51</t>
-  </si>
-  <si>
-    <t>₹236.77</t>
-  </si>
-  <si>
-    <t>₹33.58</t>
-  </si>
-  <si>
-    <t>₹78</t>
-  </si>
-  <si>
-    <t>₹181.04</t>
-  </si>
-  <si>
-    <t>49% OFF</t>
-  </si>
-  <si>
-    <t>40% OFF</t>
-  </si>
-  <si>
-    <t>42% OFF</t>
-  </si>
-  <si>
-    <t>37% OFF</t>
-  </si>
-  <si>
     <t>Fresh Fruits</t>
   </si>
   <si>
@@ -1646,52 +1892,148 @@
     <t>1 pc - approx. 300 g to 500 g</t>
   </si>
   <si>
-    <t>2023-10-17 15:10:00.220478+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 15:10:00.264864+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 15:10:00.281201+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 15:10:00.297893+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 15:10:00.313729+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 15:10:00.329480+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 15:10:00.330477+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 15:10:00.348781+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 15:10:00.359242+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 15:10:00.368023+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 15:10:00.369471+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 15:10:00.370471+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 15:10:00.386176+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 15:10:00.398787+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 15:10:00.414540+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 15:10:00.416718+05:30</t>
+    <t>2023-10-18 14:21:20.134096+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.179996+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.181988+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.191611+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.195460+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.196458+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.198850+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.202784+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.203781+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.208033+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.209034+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.215053+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.217755+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.219287+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.227053+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.228052+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.230321+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.234750+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.236747+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.240318+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.242982+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.244980+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.251532+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.258229+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.259231+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.260233+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.273817+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.276942+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.282352+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.286776+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.288385+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.291350+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.293618+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.302880+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.308914+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.310946+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.314960+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.316433+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.318434+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.322541+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.326208+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.327209+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.340686+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.342887+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.346802+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.347803+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.350068+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-18 14:21:20.352592+05:30</t>
   </si>
 </sst>
 </file>
@@ -2049,7 +2391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2083,22 +2425,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="D2" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="E2" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F2" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="G2" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2106,22 +2448,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="D3" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="E3" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F3" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="G3" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2129,22 +2471,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="D4" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="E4" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F4" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="G4" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2152,22 +2494,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D5" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="E5" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F5" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="G5" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2175,22 +2517,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D6" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="E6" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F6" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="G6" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2198,22 +2540,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="D7" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="E7" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G7" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2221,22 +2563,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="D8" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="E8" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F8" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G8" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2244,22 +2586,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="D9" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="E9" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F9" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="G9" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2267,22 +2609,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="D10" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="E10" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F10" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="G10" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2290,22 +2632,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D11" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="E11" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F11" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="G11" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2313,22 +2655,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="D12" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="E12" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F12" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="G12" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2336,22 +2678,22 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="D13" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="E13" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F13" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="G13" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2359,22 +2701,22 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="D14" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="E14" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F14" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G14" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2382,22 +2724,22 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C15" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="D15" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="E15" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F15" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="G15" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2405,22 +2747,22 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="D16" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="E16" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F16" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="G16" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2428,22 +2770,22 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="C17" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="D17" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="E17" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F17" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="G17" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2451,22 +2793,22 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C18" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="D18" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="E18" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F18" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="G18" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2474,22 +2816,22 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C19" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="D19" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="E19" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F19" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="G19" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2497,22 +2839,22 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C20" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="D20" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="E20" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F20" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G20" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2520,22 +2862,22 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="D21" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="E21" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F21" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="G21" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2543,22 +2885,22 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C22" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="D22" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E22" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F22" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G22" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2566,22 +2908,22 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C23" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D23" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="E23" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F23" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="G23" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2589,22 +2931,22 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C24" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D24" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E24" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F24" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="G24" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2612,22 +2954,22 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C25" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D25" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="E25" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F25" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="G25" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2635,22 +2977,22 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C26" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="D26" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E26" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F26" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="G26" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2658,22 +3000,22 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C27" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="D27" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="E27" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F27" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="G27" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2681,22 +3023,22 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C28" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D28" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="E28" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F28" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="G28" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2704,22 +3046,22 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>194</v>
       </c>
       <c r="D29" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="E29" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F29" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="G29" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2727,22 +3069,22 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C30" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="D30" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E30" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F30" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G30" t="s">
-        <v>270</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2750,22 +3092,22 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C31" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="D31" t="s">
         <v>239</v>
       </c>
       <c r="E31" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F31" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="G31" t="s">
-        <v>270</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2773,22 +3115,22 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C32" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="D32" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="E32" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F32" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G32" t="s">
-        <v>270</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2796,22 +3138,22 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="C33" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="D33" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E33" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F33" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G33" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2819,22 +3161,22 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="C34" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="D34" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="E34" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F34" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="G34" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2842,22 +3184,22 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C35" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="D35" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E35" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F35" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G35" t="s">
-        <v>270</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2865,22 +3207,22 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C36" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="D36" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E36" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F36" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="G36" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2888,22 +3230,22 @@
         <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C37" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="D37" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E37" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F37" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G37" t="s">
-        <v>271</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2911,22 +3253,22 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C38" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="D38" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E38" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F38" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="G38" t="s">
-        <v>271</v>
+        <v>318</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2934,22 +3276,22 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="C39" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="D39" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E39" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F39" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="G39" t="s">
-        <v>272</v>
+        <v>319</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2957,22 +3299,22 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="C40" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="D40" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E40" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F40" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="G40" t="s">
-        <v>272</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2980,22 +3322,22 @@
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C41" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="D41" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E41" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F41" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G41" t="s">
-        <v>272</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3003,22 +3345,22 @@
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="C42" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="D42" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E42" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F42" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G42" t="s">
-        <v>272</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3026,22 +3368,22 @@
         <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C43" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="D43" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E43" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F43" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="G43" t="s">
-        <v>272</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3049,22 +3391,22 @@
         <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C44" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="D44" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E44" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F44" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="G44" t="s">
-        <v>272</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3072,22 +3414,22 @@
         <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C45" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="D45" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E45" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F45" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G45" t="s">
-        <v>272</v>
+        <v>324</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3095,22 +3437,22 @@
         <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C46" t="s">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c r="D46" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="E46" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F46" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="G46" t="s">
-        <v>272</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3118,22 +3460,22 @@
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C47" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="D47" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E47" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F47" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G47" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3141,22 +3483,22 @@
         <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C48" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="D48" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="E48" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F48" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G48" t="s">
-        <v>272</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3164,22 +3506,22 @@
         <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C49" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="D49" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="E49" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F49" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G49" t="s">
-        <v>273</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3187,22 +3529,22 @@
         <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C50" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="D50" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E50" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F50" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G50" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3210,22 +3552,22 @@
         <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C51" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="D51" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E51" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F51" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G51" t="s">
-        <v>273</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3233,22 +3575,22 @@
         <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C52" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="D52" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E52" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F52" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G52" t="s">
-        <v>273</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3256,22 +3598,22 @@
         <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C53" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="D53" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E53" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F53" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G53" t="s">
-        <v>273</v>
+        <v>331</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3279,22 +3621,22 @@
         <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C54" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="D54" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E54" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F54" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G54" t="s">
-        <v>273</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3302,22 +3644,22 @@
         <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C55" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D55" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E55" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F55" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G55" t="s">
-        <v>273</v>
+        <v>332</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3325,22 +3667,22 @@
         <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="C56" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="D56" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E56" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F56" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G56" t="s">
-        <v>273</v>
+        <v>332</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3348,22 +3690,22 @@
         <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C57" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="D57" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E57" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F57" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="G57" t="s">
-        <v>273</v>
+        <v>333</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3371,22 +3713,22 @@
         <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C58" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="D58" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E58" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F58" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G58" t="s">
-        <v>274</v>
+        <v>333</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3394,22 +3736,22 @@
         <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C59" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="D59" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E59" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F59" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G59" t="s">
-        <v>275</v>
+        <v>333</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3417,22 +3759,22 @@
         <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C60" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="D60" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E60" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F60" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G60" t="s">
-        <v>276</v>
+        <v>334</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3440,22 +3782,22 @@
         <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C61" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="D61" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E61" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F61" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="G61" t="s">
-        <v>276</v>
+        <v>335</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3463,22 +3805,22 @@
         <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C62" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="D62" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E62" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F62" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G62" t="s">
-        <v>276</v>
+        <v>336</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3486,22 +3828,22 @@
         <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C63" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="D63" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E63" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F63" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="G63" t="s">
-        <v>276</v>
+        <v>336</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3509,22 +3851,22 @@
         <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C64" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="D64" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E64" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F64" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G64" t="s">
-        <v>276</v>
+        <v>337</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3532,22 +3874,22 @@
         <v>70</v>
       </c>
       <c r="B65" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C65" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="D65" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E65" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F65" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="G65" t="s">
-        <v>276</v>
+        <v>338</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3555,22 +3897,22 @@
         <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C66" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="D66" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="E66" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F66" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G66" t="s">
-        <v>276</v>
+        <v>339</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3578,22 +3920,22 @@
         <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C67" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="D67" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E67" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F67" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G67" t="s">
-        <v>276</v>
+        <v>340</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3601,22 +3943,22 @@
         <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C68" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="D68" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E68" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F68" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G68" t="s">
-        <v>276</v>
+        <v>341</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3624,22 +3966,22 @@
         <v>74</v>
       </c>
       <c r="B69" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C69" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="D69" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E69" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F69" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="G69" t="s">
-        <v>276</v>
+        <v>342</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3647,22 +3989,22 @@
         <v>75</v>
       </c>
       <c r="B70" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="C70" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="D70" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E70" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F70" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="G70" t="s">
-        <v>277</v>
+        <v>343</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3670,22 +4012,22 @@
         <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C71" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="D71" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E71" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F71" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="G71" t="s">
-        <v>277</v>
+        <v>343</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3693,22 +4035,22 @@
         <v>77</v>
       </c>
       <c r="B72" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C72" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="D72" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E72" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F72" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G72" t="s">
-        <v>277</v>
+        <v>343</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3716,22 +4058,22 @@
         <v>78</v>
       </c>
       <c r="B73" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C73" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="D73" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E73" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F73" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G73" t="s">
-        <v>277</v>
+        <v>344</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3739,22 +4081,22 @@
         <v>79</v>
       </c>
       <c r="B74" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="C74" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="D74" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E74" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F74" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="G74" t="s">
-        <v>277</v>
+        <v>345</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3762,22 +4104,22 @@
         <v>80</v>
       </c>
       <c r="B75" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C75" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="D75" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E75" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F75" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G75" t="s">
-        <v>277</v>
+        <v>345</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3785,22 +4127,22 @@
         <v>81</v>
       </c>
       <c r="B76" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C76" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="D76" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E76" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F76" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="G76" t="s">
-        <v>277</v>
+        <v>345</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3808,22 +4150,22 @@
         <v>82</v>
       </c>
       <c r="B77" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C77" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="D77" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E77" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F77" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G77" t="s">
-        <v>278</v>
+        <v>346</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3831,22 +4173,22 @@
         <v>83</v>
       </c>
       <c r="B78" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C78" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="D78" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E78" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F78" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="G78" t="s">
-        <v>278</v>
+        <v>347</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3854,22 +4196,22 @@
         <v>84</v>
       </c>
       <c r="B79" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="C79" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="D79" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E79" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F79" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="G79" t="s">
-        <v>278</v>
+        <v>348</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3877,22 +4219,22 @@
         <v>85</v>
       </c>
       <c r="B80" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C80" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="D80" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E80" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F80" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="G80" t="s">
-        <v>278</v>
+        <v>348</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3900,22 +4242,22 @@
         <v>86</v>
       </c>
       <c r="B81" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C81" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="D81" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E81" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F81" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G81" t="s">
-        <v>278</v>
+        <v>348</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3923,22 +4265,22 @@
         <v>87</v>
       </c>
       <c r="B82" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C82" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="D82" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E82" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F82" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G82" t="s">
-        <v>278</v>
+        <v>349</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3946,22 +4288,22 @@
         <v>88</v>
       </c>
       <c r="B83" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C83" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="D83" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E83" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F83" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G83" t="s">
-        <v>278</v>
+        <v>350</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3969,22 +4311,22 @@
         <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C84" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="D84" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E84" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F84" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="G84" t="s">
-        <v>278</v>
+        <v>351</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3992,22 +4334,22 @@
         <v>90</v>
       </c>
       <c r="B85" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C85" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="D85" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E85" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F85" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="G85" t="s">
-        <v>278</v>
+        <v>352</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -4015,22 +4357,22 @@
         <v>91</v>
       </c>
       <c r="B86" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C86" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="D86" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E86" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F86" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="G86" t="s">
-        <v>278</v>
+        <v>352</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -4038,22 +4380,22 @@
         <v>92</v>
       </c>
       <c r="B87" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C87" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D87" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E87" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F87" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="G87" t="s">
-        <v>278</v>
+        <v>353</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -4061,22 +4403,22 @@
         <v>93</v>
       </c>
       <c r="B88" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="C88" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="D88" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E88" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F88" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="G88" t="s">
-        <v>279</v>
+        <v>354</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -4084,22 +4426,22 @@
         <v>94</v>
       </c>
       <c r="B89" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C89" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="D89" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E89" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F89" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G89" t="s">
-        <v>279</v>
+        <v>354</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4107,22 +4449,22 @@
         <v>95</v>
       </c>
       <c r="B90" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C90" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="D90" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E90" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F90" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G90" t="s">
-        <v>279</v>
+        <v>355</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4130,22 +4472,22 @@
         <v>96</v>
       </c>
       <c r="B91" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C91" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D91" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E91" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F91" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="G91" t="s">
-        <v>279</v>
+        <v>356</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4153,22 +4495,22 @@
         <v>97</v>
       </c>
       <c r="B92" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C92" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="D92" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E92" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F92" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="G92" t="s">
-        <v>279</v>
+        <v>356</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4176,22 +4518,22 @@
         <v>98</v>
       </c>
       <c r="B93" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="C93" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="D93" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E93" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F93" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="G93" t="s">
-        <v>279</v>
+        <v>357</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4199,22 +4541,22 @@
         <v>99</v>
       </c>
       <c r="B94" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="C94" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="D94" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E94" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F94" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="G94" t="s">
-        <v>279</v>
+        <v>357</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4222,22 +4564,252 @@
         <v>100</v>
       </c>
       <c r="B95" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C95" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D95" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E95" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="F95" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="G95" t="s">
-        <v>279</v>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96" t="s">
+        <v>126</v>
+      </c>
+      <c r="C96" t="s">
+        <v>205</v>
+      </c>
+      <c r="D96" t="s">
+        <v>239</v>
+      </c>
+      <c r="E96" t="s">
+        <v>259</v>
+      </c>
+      <c r="F96" t="s">
+        <v>260</v>
+      </c>
+      <c r="G96" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97" t="s">
+        <v>146</v>
+      </c>
+      <c r="C97" t="s">
+        <v>207</v>
+      </c>
+      <c r="D97" t="s">
+        <v>239</v>
+      </c>
+      <c r="E97" t="s">
+        <v>259</v>
+      </c>
+      <c r="F97" t="s">
+        <v>260</v>
+      </c>
+      <c r="G97" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98" t="s">
+        <v>171</v>
+      </c>
+      <c r="C98" t="s">
+        <v>236</v>
+      </c>
+      <c r="D98" t="s">
+        <v>239</v>
+      </c>
+      <c r="E98" t="s">
+        <v>259</v>
+      </c>
+      <c r="F98" t="s">
+        <v>282</v>
+      </c>
+      <c r="G98" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99" t="s">
+        <v>131</v>
+      </c>
+      <c r="C99" t="s">
+        <v>233</v>
+      </c>
+      <c r="D99" t="s">
+        <v>239</v>
+      </c>
+      <c r="E99" t="s">
+        <v>259</v>
+      </c>
+      <c r="F99" t="s">
+        <v>278</v>
+      </c>
+      <c r="G99" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100" t="s">
+        <v>172</v>
+      </c>
+      <c r="C100" t="s">
+        <v>237</v>
+      </c>
+      <c r="D100" t="s">
+        <v>239</v>
+      </c>
+      <c r="E100" t="s">
+        <v>259</v>
+      </c>
+      <c r="F100" t="s">
+        <v>262</v>
+      </c>
+      <c r="G100" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101" t="s">
+        <v>154</v>
+      </c>
+      <c r="C101" t="s">
+        <v>215</v>
+      </c>
+      <c r="D101" t="s">
+        <v>239</v>
+      </c>
+      <c r="E101" t="s">
+        <v>259</v>
+      </c>
+      <c r="F101" t="s">
+        <v>283</v>
+      </c>
+      <c r="G101" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102" t="s">
+        <v>173</v>
+      </c>
+      <c r="C102" t="s">
+        <v>238</v>
+      </c>
+      <c r="D102" t="s">
+        <v>239</v>
+      </c>
+      <c r="E102" t="s">
+        <v>259</v>
+      </c>
+      <c r="F102" t="s">
+        <v>284</v>
+      </c>
+      <c r="G102" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103" t="s">
+        <v>125</v>
+      </c>
+      <c r="C103" t="s">
+        <v>226</v>
+      </c>
+      <c r="D103" t="s">
+        <v>239</v>
+      </c>
+      <c r="E103" t="s">
+        <v>259</v>
+      </c>
+      <c r="F103" t="s">
+        <v>260</v>
+      </c>
+      <c r="G103" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104" t="s">
+        <v>143</v>
+      </c>
+      <c r="C104" t="s">
+        <v>204</v>
+      </c>
+      <c r="D104" t="s">
+        <v>239</v>
+      </c>
+      <c r="E104" t="s">
+        <v>259</v>
+      </c>
+      <c r="F104" t="s">
+        <v>260</v>
+      </c>
+      <c r="G104" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105" t="s">
+        <v>174</v>
+      </c>
+      <c r="C105" t="s">
+        <v>125</v>
+      </c>
+      <c r="D105" t="s">
+        <v>239</v>
+      </c>
+      <c r="E105" t="s">
+        <v>259</v>
+      </c>
+      <c r="F105" t="s">
+        <v>262</v>
+      </c>
+      <c r="G105" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -4278,2141 +4850,2141 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>365</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>436</v>
+        <v>519</v>
       </c>
       <c r="D2" t="s">
-        <v>501</v>
+        <v>251</v>
       </c>
       <c r="E2" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F2" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="G2" t="s">
-        <v>543</v>
+        <v>625</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>281</v>
+        <v>366</v>
       </c>
       <c r="B3" t="s">
-        <v>373</v>
+        <v>458</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>520</v>
       </c>
       <c r="D3" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E3" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F3" t="s">
-        <v>506</v>
+        <v>588</v>
       </c>
       <c r="G3" t="s">
-        <v>544</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>282</v>
+        <v>367</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>437</v>
+        <v>521</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="E4" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F4" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G4" t="s">
-        <v>544</v>
+        <v>627</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>283</v>
+        <v>368</v>
       </c>
       <c r="B5" t="s">
-        <v>374</v>
+        <v>459</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D5" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="E5" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F5" t="s">
-        <v>507</v>
+        <v>589</v>
       </c>
       <c r="G5" t="s">
-        <v>544</v>
+        <v>627</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>284</v>
+        <v>369</v>
       </c>
       <c r="B6" t="s">
-        <v>375</v>
+        <v>460</v>
       </c>
       <c r="C6" t="s">
-        <v>438</v>
+        <v>522</v>
       </c>
       <c r="D6" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E6" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F6" t="s">
-        <v>508</v>
+        <v>590</v>
       </c>
       <c r="G6" t="s">
-        <v>544</v>
+        <v>627</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>285</v>
+        <v>370</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D7" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="E7" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F7" t="s">
-        <v>509</v>
+        <v>591</v>
       </c>
       <c r="G7" t="s">
-        <v>544</v>
+        <v>627</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>286</v>
+        <v>371</v>
       </c>
       <c r="B8" t="s">
-        <v>376</v>
+        <v>461</v>
       </c>
       <c r="C8" t="s">
-        <v>439</v>
+        <v>523</v>
       </c>
       <c r="D8" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="E8" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F8" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G8" t="s">
-        <v>544</v>
+        <v>628</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>287</v>
+        <v>372</v>
       </c>
       <c r="B9" t="s">
-        <v>377</v>
+        <v>462</v>
       </c>
       <c r="C9" t="s">
-        <v>440</v>
+        <v>524</v>
       </c>
       <c r="D9" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E9" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F9" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G9" t="s">
-        <v>544</v>
+        <v>629</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>288</v>
+        <v>373</v>
       </c>
       <c r="B10" t="s">
-        <v>378</v>
+        <v>463</v>
       </c>
       <c r="C10" t="s">
-        <v>441</v>
+        <v>525</v>
       </c>
       <c r="D10" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E10" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F10" t="s">
-        <v>510</v>
+        <v>592</v>
       </c>
       <c r="G10" t="s">
-        <v>544</v>
+        <v>630</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>289</v>
+        <v>374</v>
       </c>
       <c r="B11" t="s">
-        <v>379</v>
+        <v>464</v>
       </c>
       <c r="C11" t="s">
-        <v>442</v>
+        <v>526</v>
       </c>
       <c r="D11" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E11" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F11" t="s">
-        <v>511</v>
+        <v>593</v>
       </c>
       <c r="G11" t="s">
-        <v>544</v>
+        <v>631</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>290</v>
+        <v>375</v>
       </c>
       <c r="B12" t="s">
-        <v>377</v>
+        <v>462</v>
       </c>
       <c r="C12" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D12" t="s">
-        <v>502</v>
+        <v>584</v>
       </c>
       <c r="E12" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F12" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="G12" t="s">
-        <v>544</v>
+        <v>631</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>291</v>
+        <v>376</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="D13" t="s">
-        <v>503</v>
+        <v>585</v>
       </c>
       <c r="E13" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F13" t="s">
-        <v>512</v>
+        <v>594</v>
       </c>
       <c r="G13" t="s">
-        <v>545</v>
+        <v>632</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>292</v>
+        <v>377</v>
       </c>
       <c r="B14" t="s">
-        <v>380</v>
+        <v>465</v>
       </c>
       <c r="C14" t="s">
-        <v>443</v>
+        <v>527</v>
       </c>
       <c r="D14" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E14" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F14" t="s">
-        <v>513</v>
+        <v>595</v>
       </c>
       <c r="G14" t="s">
-        <v>545</v>
+        <v>633</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>293</v>
+        <v>378</v>
       </c>
       <c r="B15" t="s">
-        <v>374</v>
+        <v>459</v>
       </c>
       <c r="C15" t="s">
-        <v>444</v>
+        <v>528</v>
       </c>
       <c r="D15" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E15" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F15" t="s">
-        <v>514</v>
+        <v>596</v>
       </c>
       <c r="G15" t="s">
-        <v>545</v>
+        <v>634</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>294</v>
+        <v>379</v>
       </c>
       <c r="B16" t="s">
-        <v>381</v>
+        <v>466</v>
       </c>
       <c r="C16" t="s">
-        <v>445</v>
+        <v>529</v>
       </c>
       <c r="D16" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="E16" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F16" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="G16" t="s">
-        <v>545</v>
+        <v>635</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>295</v>
+        <v>380</v>
       </c>
       <c r="B17" t="s">
-        <v>382</v>
+        <v>467</v>
       </c>
       <c r="C17" t="s">
-        <v>446</v>
+        <v>530</v>
       </c>
       <c r="D17" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E17" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F17" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="G17" t="s">
-        <v>545</v>
+        <v>635</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>296</v>
+        <v>381</v>
       </c>
       <c r="B18" t="s">
-        <v>377</v>
+        <v>462</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E18" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F18" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G18" t="s">
-        <v>545</v>
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>297</v>
+        <v>382</v>
       </c>
       <c r="B19" t="s">
-        <v>383</v>
+        <v>468</v>
       </c>
       <c r="C19" t="s">
-        <v>447</v>
+        <v>531</v>
       </c>
       <c r="D19" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E19" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F19" t="s">
-        <v>506</v>
+        <v>588</v>
       </c>
       <c r="G19" t="s">
-        <v>545</v>
+        <v>635</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>298</v>
+        <v>383</v>
       </c>
       <c r="B20" t="s">
-        <v>384</v>
+        <v>469</v>
       </c>
       <c r="C20" t="s">
-        <v>448</v>
+        <v>532</v>
       </c>
       <c r="D20" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E20" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F20" t="s">
-        <v>515</v>
+        <v>597</v>
       </c>
       <c r="G20" t="s">
-        <v>545</v>
+        <v>635</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>299</v>
+        <v>384</v>
       </c>
       <c r="B21" t="s">
-        <v>385</v>
+        <v>209</v>
       </c>
       <c r="C21" t="s">
-        <v>449</v>
+        <v>533</v>
       </c>
       <c r="D21" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E21" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F21" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G21" t="s">
-        <v>545</v>
+        <v>636</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>300</v>
+        <v>385</v>
       </c>
       <c r="B22" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C22" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D22" t="s">
-        <v>240</v>
+        <v>586</v>
       </c>
       <c r="E22" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F22" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="G22" t="s">
-        <v>545</v>
+        <v>637</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>301</v>
+        <v>386</v>
       </c>
       <c r="B23" t="s">
-        <v>386</v>
+        <v>470</v>
       </c>
       <c r="C23" t="s">
-        <v>450</v>
+        <v>534</v>
       </c>
       <c r="D23" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E23" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F23" t="s">
-        <v>516</v>
+        <v>598</v>
       </c>
       <c r="G23" t="s">
-        <v>546</v>
+        <v>638</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>302</v>
+        <v>387</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="D24" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E24" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F24" t="s">
-        <v>517</v>
+        <v>599</v>
       </c>
       <c r="G24" t="s">
-        <v>546</v>
+        <v>638</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>303</v>
+        <v>388</v>
       </c>
       <c r="B25" t="s">
-        <v>383</v>
+        <v>468</v>
       </c>
       <c r="C25" t="s">
-        <v>451</v>
+        <v>535</v>
       </c>
       <c r="D25" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E25" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F25" t="s">
-        <v>506</v>
+        <v>588</v>
       </c>
       <c r="G25" t="s">
-        <v>546</v>
+        <v>638</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>304</v>
+        <v>389</v>
       </c>
       <c r="B26" t="s">
-        <v>387</v>
+        <v>471</v>
       </c>
       <c r="C26" t="s">
-        <v>452</v>
+        <v>536</v>
       </c>
       <c r="D26" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E26" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F26" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G26" t="s">
-        <v>546</v>
+        <v>639</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>305</v>
+        <v>390</v>
       </c>
       <c r="B27" t="s">
-        <v>388</v>
+        <v>472</v>
       </c>
       <c r="C27" t="s">
-        <v>453</v>
+        <v>537</v>
       </c>
       <c r="D27" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E27" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F27" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G27" t="s">
-        <v>546</v>
+        <v>640</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>306</v>
+        <v>391</v>
       </c>
       <c r="B28" t="s">
-        <v>389</v>
+        <v>473</v>
       </c>
       <c r="C28" t="s">
-        <v>454</v>
+        <v>538</v>
       </c>
       <c r="D28" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E28" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F28" t="s">
-        <v>518</v>
+        <v>600</v>
       </c>
       <c r="G28" t="s">
-        <v>546</v>
+        <v>641</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>307</v>
+        <v>392</v>
       </c>
       <c r="B29" t="s">
-        <v>390</v>
+        <v>174</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E29" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F29" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G29" t="s">
-        <v>546</v>
+        <v>641</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>308</v>
+        <v>393</v>
       </c>
       <c r="B30" t="s">
-        <v>391</v>
+        <v>474</v>
       </c>
       <c r="C30" t="s">
-        <v>455</v>
+        <v>539</v>
       </c>
       <c r="D30" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E30" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F30" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G30" t="s">
-        <v>546</v>
+        <v>641</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>309</v>
+        <v>394</v>
       </c>
       <c r="B31" t="s">
-        <v>385</v>
+        <v>209</v>
       </c>
       <c r="C31" t="s">
-        <v>449</v>
+        <v>533</v>
       </c>
       <c r="D31" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E31" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F31" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G31" t="s">
-        <v>546</v>
+        <v>642</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>310</v>
+        <v>395</v>
       </c>
       <c r="B32" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C32" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="D32" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E32" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F32" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G32" t="s">
-        <v>547</v>
+        <v>643</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>311</v>
+        <v>396</v>
       </c>
       <c r="B33" t="s">
-        <v>392</v>
+        <v>475</v>
       </c>
       <c r="C33" t="s">
-        <v>456</v>
+        <v>540</v>
       </c>
       <c r="D33" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E33" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F33" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G33" t="s">
-        <v>547</v>
+        <v>644</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>312</v>
+        <v>397</v>
       </c>
       <c r="B34" t="s">
-        <v>393</v>
+        <v>476</v>
       </c>
       <c r="C34" t="s">
-        <v>457</v>
+        <v>541</v>
       </c>
       <c r="D34" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E34" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F34" t="s">
-        <v>519</v>
+        <v>601</v>
       </c>
       <c r="G34" t="s">
-        <v>547</v>
+        <v>645</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>313</v>
+        <v>398</v>
       </c>
       <c r="B35" t="s">
-        <v>394</v>
+        <v>477</v>
       </c>
       <c r="C35" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="D35" t="s">
-        <v>503</v>
+        <v>585</v>
       </c>
       <c r="E35" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F35" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="G35" t="s">
-        <v>547</v>
+        <v>646</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>314</v>
+        <v>399</v>
       </c>
       <c r="B36" t="s">
-        <v>395</v>
+        <v>478</v>
       </c>
       <c r="C36" t="s">
-        <v>458</v>
+        <v>542</v>
       </c>
       <c r="D36" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E36" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F36" t="s">
-        <v>520</v>
+        <v>602</v>
       </c>
       <c r="G36" t="s">
-        <v>547</v>
+        <v>646</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>315</v>
+        <v>400</v>
       </c>
       <c r="B37" t="s">
-        <v>396</v>
+        <v>479</v>
       </c>
       <c r="C37" t="s">
-        <v>459</v>
+        <v>543</v>
       </c>
       <c r="D37" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E37" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F37" t="s">
-        <v>521</v>
+        <v>603</v>
       </c>
       <c r="G37" t="s">
-        <v>547</v>
+        <v>646</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>316</v>
+        <v>401</v>
       </c>
       <c r="B38" t="s">
-        <v>397</v>
+        <v>480</v>
       </c>
       <c r="C38" t="s">
-        <v>460</v>
+        <v>544</v>
       </c>
       <c r="D38" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E38" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F38" t="s">
-        <v>522</v>
+        <v>604</v>
       </c>
       <c r="G38" t="s">
-        <v>547</v>
+        <v>647</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>317</v>
+        <v>402</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C39" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D39" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E39" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F39" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="G39" t="s">
-        <v>547</v>
+        <v>647</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>318</v>
+        <v>403</v>
       </c>
       <c r="B40" t="s">
-        <v>398</v>
+        <v>481</v>
       </c>
       <c r="C40" t="s">
-        <v>461</v>
+        <v>545</v>
       </c>
       <c r="D40" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E40" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F40" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="G40" t="s">
-        <v>547</v>
+        <v>647</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>319</v>
+        <v>404</v>
       </c>
       <c r="B41" t="s">
-        <v>399</v>
+        <v>171</v>
       </c>
       <c r="C41" t="s">
-        <v>462</v>
+        <v>236</v>
       </c>
       <c r="D41" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E41" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F41" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G41" t="s">
-        <v>548</v>
+        <v>648</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>320</v>
+        <v>405</v>
       </c>
       <c r="B42" t="s">
-        <v>400</v>
+        <v>482</v>
       </c>
       <c r="C42" t="s">
-        <v>463</v>
+        <v>546</v>
       </c>
       <c r="D42" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E42" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F42" t="s">
-        <v>506</v>
+        <v>588</v>
       </c>
       <c r="G42" t="s">
-        <v>549</v>
+        <v>649</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>321</v>
+        <v>406</v>
       </c>
       <c r="B43" t="s">
-        <v>401</v>
+        <v>483</v>
       </c>
       <c r="C43" t="s">
-        <v>464</v>
+        <v>547</v>
       </c>
       <c r="D43" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E43" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F43" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G43" t="s">
-        <v>549</v>
+        <v>650</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>322</v>
+        <v>407</v>
       </c>
       <c r="B44" t="s">
-        <v>402</v>
+        <v>484</v>
       </c>
       <c r="C44" t="s">
-        <v>465</v>
+        <v>548</v>
       </c>
       <c r="D44" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E44" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F44" t="s">
-        <v>506</v>
+        <v>588</v>
       </c>
       <c r="G44" t="s">
-        <v>549</v>
+        <v>650</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>323</v>
+        <v>408</v>
       </c>
       <c r="B45" t="s">
-        <v>403</v>
+        <v>485</v>
       </c>
       <c r="C45" t="s">
-        <v>466</v>
+        <v>549</v>
       </c>
       <c r="D45" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E45" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F45" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="G45" t="s">
-        <v>549</v>
+        <v>650</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>324</v>
+        <v>409</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C46" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D46" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E46" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F46" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G46" t="s">
-        <v>549</v>
+        <v>650</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>325</v>
+        <v>410</v>
       </c>
       <c r="B47" t="s">
-        <v>373</v>
+        <v>458</v>
       </c>
       <c r="C47" t="s">
-        <v>467</v>
+        <v>520</v>
       </c>
       <c r="D47" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E47" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F47" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G47" t="s">
-        <v>549</v>
+        <v>650</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>326</v>
+        <v>411</v>
       </c>
       <c r="B48" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C48" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="D48" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E48" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F48" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G48" t="s">
-        <v>549</v>
+        <v>650</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>327</v>
+        <v>412</v>
       </c>
       <c r="B49" t="s">
-        <v>404</v>
+        <v>486</v>
       </c>
       <c r="C49" t="s">
-        <v>468</v>
+        <v>550</v>
       </c>
       <c r="D49" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E49" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F49" t="s">
-        <v>523</v>
+        <v>605</v>
       </c>
       <c r="G49" t="s">
-        <v>549</v>
+        <v>650</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>328</v>
+        <v>413</v>
       </c>
       <c r="B50" t="s">
-        <v>405</v>
+        <v>487</v>
       </c>
       <c r="C50" t="s">
-        <v>469</v>
+        <v>551</v>
       </c>
       <c r="D50" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E50" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F50" t="s">
-        <v>524</v>
+        <v>606</v>
       </c>
       <c r="G50" t="s">
-        <v>549</v>
+        <v>650</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>329</v>
+        <v>414</v>
       </c>
       <c r="B51" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C51" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="D51" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E51" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F51" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="G51" t="s">
-        <v>549</v>
+        <v>650</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>330</v>
+        <v>415</v>
       </c>
       <c r="B52" t="s">
-        <v>406</v>
+        <v>488</v>
       </c>
       <c r="C52" t="s">
-        <v>470</v>
+        <v>552</v>
       </c>
       <c r="D52" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E52" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F52" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G52" t="s">
-        <v>550</v>
+        <v>651</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>331</v>
+        <v>416</v>
       </c>
       <c r="B53" t="s">
-        <v>407</v>
+        <v>489</v>
       </c>
       <c r="C53" t="s">
-        <v>471</v>
+        <v>553</v>
       </c>
       <c r="D53" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E53" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F53" t="s">
-        <v>514</v>
+        <v>596</v>
       </c>
       <c r="G53" t="s">
-        <v>550</v>
+        <v>652</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>332</v>
+        <v>417</v>
       </c>
       <c r="B54" t="s">
-        <v>408</v>
+        <v>490</v>
       </c>
       <c r="C54" t="s">
-        <v>472</v>
+        <v>554</v>
       </c>
       <c r="D54" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E54" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F54" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G54" t="s">
-        <v>550</v>
+        <v>652</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>333</v>
+        <v>418</v>
       </c>
       <c r="B55" t="s">
-        <v>409</v>
+        <v>491</v>
       </c>
       <c r="C55" t="s">
-        <v>473</v>
+        <v>555</v>
       </c>
       <c r="D55" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E55" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F55" t="s">
-        <v>525</v>
+        <v>607</v>
       </c>
       <c r="G55" t="s">
-        <v>550</v>
+        <v>653</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>334</v>
+        <v>419</v>
       </c>
       <c r="B56" t="s">
-        <v>196</v>
+        <v>492</v>
       </c>
       <c r="C56" t="s">
-        <v>474</v>
+        <v>556</v>
       </c>
       <c r="D56" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E56" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F56" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="G56" t="s">
-        <v>550</v>
+        <v>653</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>335</v>
+        <v>420</v>
       </c>
       <c r="B57" t="s">
-        <v>410</v>
+        <v>493</v>
       </c>
       <c r="C57" t="s">
-        <v>475</v>
+        <v>557</v>
       </c>
       <c r="D57" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E57" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F57" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G57" t="s">
-        <v>550</v>
+        <v>653</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>336</v>
+        <v>421</v>
       </c>
       <c r="B58" t="s">
-        <v>411</v>
+        <v>494</v>
       </c>
       <c r="C58" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="D58" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E58" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F58" t="s">
-        <v>526</v>
+        <v>608</v>
       </c>
       <c r="G58" t="s">
-        <v>551</v>
+        <v>654</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>337</v>
+        <v>422</v>
       </c>
       <c r="B59" t="s">
-        <v>412</v>
+        <v>495</v>
       </c>
       <c r="C59" t="s">
-        <v>476</v>
+        <v>558</v>
       </c>
       <c r="D59" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E59" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F59" t="s">
-        <v>527</v>
+        <v>609</v>
       </c>
       <c r="G59" t="s">
-        <v>551</v>
+        <v>655</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>338</v>
+        <v>423</v>
       </c>
       <c r="B60" t="s">
-        <v>413</v>
+        <v>496</v>
       </c>
       <c r="C60" t="s">
-        <v>477</v>
+        <v>559</v>
       </c>
       <c r="D60" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E60" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F60" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G60" t="s">
-        <v>551</v>
+        <v>656</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>339</v>
+        <v>424</v>
       </c>
       <c r="B61" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C61" t="s">
-        <v>478</v>
+        <v>560</v>
       </c>
       <c r="D61" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E61" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F61" t="s">
-        <v>528</v>
+        <v>610</v>
       </c>
       <c r="G61" t="s">
-        <v>551</v>
+        <v>657</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>340</v>
+        <v>425</v>
       </c>
       <c r="B62" t="s">
-        <v>414</v>
+        <v>497</v>
       </c>
       <c r="C62" t="s">
-        <v>479</v>
+        <v>561</v>
       </c>
       <c r="D62" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E62" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F62" t="s">
-        <v>529</v>
+        <v>611</v>
       </c>
       <c r="G62" t="s">
-        <v>552</v>
+        <v>657</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>341</v>
+        <v>426</v>
       </c>
       <c r="B63" t="s">
-        <v>415</v>
+        <v>498</v>
       </c>
       <c r="C63" t="s">
-        <v>480</v>
+        <v>562</v>
       </c>
       <c r="D63" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E63" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F63" t="s">
-        <v>530</v>
+        <v>612</v>
       </c>
       <c r="G63" t="s">
-        <v>553</v>
+        <v>658</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>342</v>
+        <v>427</v>
       </c>
       <c r="B64" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C64" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="D64" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E64" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F64" t="s">
-        <v>531</v>
+        <v>613</v>
       </c>
       <c r="G64" t="s">
-        <v>554</v>
+        <v>658</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>343</v>
+        <v>428</v>
       </c>
       <c r="B65" t="s">
-        <v>416</v>
+        <v>499</v>
       </c>
       <c r="C65" t="s">
-        <v>481</v>
+        <v>563</v>
       </c>
       <c r="D65" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E65" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F65" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G65" t="s">
-        <v>554</v>
+        <v>658</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>344</v>
+        <v>429</v>
       </c>
       <c r="B66" t="s">
-        <v>417</v>
+        <v>500</v>
       </c>
       <c r="C66" t="s">
-        <v>482</v>
+        <v>564</v>
       </c>
       <c r="D66" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E66" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F66" t="s">
-        <v>526</v>
+        <v>608</v>
       </c>
       <c r="G66" t="s">
-        <v>554</v>
+        <v>659</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>345</v>
+        <v>430</v>
       </c>
       <c r="B67" t="s">
-        <v>418</v>
+        <v>501</v>
       </c>
       <c r="C67" t="s">
-        <v>483</v>
+        <v>565</v>
       </c>
       <c r="D67" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E67" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F67" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G67" t="s">
-        <v>554</v>
+        <v>660</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>346</v>
+        <v>431</v>
       </c>
       <c r="B68" t="s">
-        <v>419</v>
+        <v>502</v>
       </c>
       <c r="C68" t="s">
-        <v>484</v>
+        <v>566</v>
       </c>
       <c r="D68" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E68" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F68" t="s">
-        <v>532</v>
+        <v>614</v>
       </c>
       <c r="G68" t="s">
-        <v>554</v>
+        <v>660</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>347</v>
+        <v>432</v>
       </c>
       <c r="B69" t="s">
-        <v>420</v>
+        <v>503</v>
       </c>
       <c r="C69" t="s">
-        <v>485</v>
+        <v>567</v>
       </c>
       <c r="D69" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E69" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F69" t="s">
-        <v>526</v>
+        <v>608</v>
       </c>
       <c r="G69" t="s">
-        <v>554</v>
+        <v>660</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="B70" t="s">
-        <v>421</v>
+        <v>504</v>
       </c>
       <c r="C70" t="s">
-        <v>486</v>
+        <v>568</v>
       </c>
       <c r="D70" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E70" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F70" t="s">
-        <v>529</v>
+        <v>611</v>
       </c>
       <c r="G70" t="s">
-        <v>554</v>
+        <v>661</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>349</v>
+        <v>434</v>
       </c>
       <c r="B71" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C71" t="s">
-        <v>116</v>
+        <v>569</v>
       </c>
       <c r="D71" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="E71" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F71" t="s">
-        <v>533</v>
+        <v>615</v>
       </c>
       <c r="G71" t="s">
-        <v>554</v>
+        <v>662</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>350</v>
+        <v>435</v>
       </c>
       <c r="B72" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C72" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D72" t="s">
-        <v>504</v>
+        <v>242</v>
       </c>
       <c r="E72" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F72" t="s">
-        <v>526</v>
+        <v>608</v>
       </c>
       <c r="G72" t="s">
-        <v>554</v>
+        <v>663</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>351</v>
+        <v>436</v>
       </c>
       <c r="B73" t="s">
-        <v>422</v>
+        <v>505</v>
       </c>
       <c r="C73" t="s">
-        <v>487</v>
+        <v>570</v>
       </c>
       <c r="D73" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E73" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F73" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G73" t="s">
-        <v>555</v>
+        <v>663</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>352</v>
+        <v>437</v>
       </c>
       <c r="B74" t="s">
-        <v>394</v>
+        <v>477</v>
       </c>
       <c r="C74" t="s">
-        <v>488</v>
+        <v>571</v>
       </c>
       <c r="D74" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E74" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F74" t="s">
-        <v>534</v>
+        <v>616</v>
       </c>
       <c r="G74" t="s">
-        <v>555</v>
+        <v>664</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="B75" t="s">
-        <v>423</v>
+        <v>506</v>
       </c>
       <c r="C75" t="s">
-        <v>489</v>
+        <v>572</v>
       </c>
       <c r="D75" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E75" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F75" t="s">
-        <v>535</v>
+        <v>617</v>
       </c>
       <c r="G75" t="s">
-        <v>555</v>
+        <v>665</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>354</v>
+        <v>439</v>
       </c>
       <c r="B76" t="s">
-        <v>424</v>
+        <v>507</v>
       </c>
       <c r="C76" t="s">
-        <v>490</v>
+        <v>573</v>
       </c>
       <c r="D76" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E76" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F76" t="s">
-        <v>525</v>
+        <v>607</v>
       </c>
       <c r="G76" t="s">
-        <v>555</v>
+        <v>666</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>355</v>
+        <v>440</v>
       </c>
       <c r="B77" t="s">
-        <v>425</v>
+        <v>508</v>
       </c>
       <c r="C77" t="s">
-        <v>491</v>
+        <v>574</v>
       </c>
       <c r="D77" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E77" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F77" t="s">
-        <v>536</v>
+        <v>618</v>
       </c>
       <c r="G77" t="s">
-        <v>555</v>
+        <v>666</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>356</v>
+        <v>441</v>
       </c>
       <c r="B78" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C78" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="D78" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E78" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F78" t="s">
-        <v>535</v>
+        <v>617</v>
       </c>
       <c r="G78" t="s">
-        <v>555</v>
+        <v>666</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>357</v>
+        <v>442</v>
       </c>
       <c r="B79" t="s">
-        <v>426</v>
+        <v>509</v>
       </c>
       <c r="C79" t="s">
-        <v>492</v>
+        <v>575</v>
       </c>
       <c r="D79" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E79" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F79" t="s">
-        <v>506</v>
+        <v>588</v>
       </c>
       <c r="G79" t="s">
-        <v>555</v>
+        <v>666</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>358</v>
+        <v>443</v>
       </c>
       <c r="B80" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C80" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="D80" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E80" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F80" t="s">
-        <v>537</v>
+        <v>619</v>
       </c>
       <c r="G80" t="s">
-        <v>555</v>
+        <v>666</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>359</v>
+        <v>444</v>
       </c>
       <c r="B81" t="s">
-        <v>427</v>
+        <v>510</v>
       </c>
       <c r="C81" t="s">
-        <v>493</v>
+        <v>576</v>
       </c>
       <c r="D81" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E81" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F81" t="s">
-        <v>538</v>
+        <v>620</v>
       </c>
       <c r="G81" t="s">
-        <v>556</v>
+        <v>666</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>360</v>
+        <v>445</v>
       </c>
       <c r="B82" t="s">
-        <v>410</v>
+        <v>493</v>
       </c>
       <c r="C82" t="s">
-        <v>475</v>
+        <v>557</v>
       </c>
       <c r="D82" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E82" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F82" t="s">
-        <v>539</v>
+        <v>621</v>
       </c>
       <c r="G82" t="s">
-        <v>556</v>
+        <v>666</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>361</v>
+        <v>446</v>
       </c>
       <c r="B83" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C83" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D83" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E83" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F83" t="s">
-        <v>525</v>
+        <v>607</v>
       </c>
       <c r="G83" t="s">
-        <v>556</v>
+        <v>666</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>362</v>
+        <v>447</v>
       </c>
       <c r="B84" t="s">
-        <v>428</v>
+        <v>511</v>
       </c>
       <c r="C84" t="s">
-        <v>494</v>
+        <v>577</v>
       </c>
       <c r="D84" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E84" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F84" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G84" t="s">
-        <v>556</v>
+        <v>666</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>363</v>
+        <v>448</v>
       </c>
       <c r="B85" t="s">
-        <v>429</v>
+        <v>512</v>
       </c>
       <c r="C85" t="s">
-        <v>495</v>
+        <v>578</v>
       </c>
       <c r="D85" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E85" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F85" t="s">
-        <v>540</v>
+        <v>622</v>
       </c>
       <c r="G85" t="s">
-        <v>556</v>
+        <v>667</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>364</v>
+        <v>449</v>
       </c>
       <c r="B86" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C86" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="D86" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E86" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F86" t="s">
-        <v>541</v>
+        <v>623</v>
       </c>
       <c r="G86" t="s">
-        <v>556</v>
+        <v>668</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>365</v>
+        <v>450</v>
       </c>
       <c r="B87" t="s">
-        <v>430</v>
+        <v>513</v>
       </c>
       <c r="C87" t="s">
-        <v>496</v>
+        <v>579</v>
       </c>
       <c r="D87" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E87" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F87" t="s">
-        <v>526</v>
+        <v>608</v>
       </c>
       <c r="G87" t="s">
-        <v>556</v>
+        <v>668</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>366</v>
+        <v>451</v>
       </c>
       <c r="B88" t="s">
-        <v>431</v>
+        <v>514</v>
       </c>
       <c r="C88" t="s">
-        <v>497</v>
+        <v>580</v>
       </c>
       <c r="D88" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E88" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F88" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G88" t="s">
-        <v>556</v>
+        <v>668</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>367</v>
+        <v>452</v>
       </c>
       <c r="B89" t="s">
-        <v>432</v>
+        <v>515</v>
       </c>
       <c r="C89" t="s">
-        <v>498</v>
+        <v>581</v>
       </c>
       <c r="D89" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E89" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F89" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="G89" t="s">
-        <v>556</v>
+        <v>669</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>368</v>
+        <v>453</v>
       </c>
       <c r="B90" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C90" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="D90" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E90" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F90" t="s">
-        <v>542</v>
+        <v>624</v>
       </c>
       <c r="G90" t="s">
-        <v>556</v>
+        <v>670</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>369</v>
+        <v>454</v>
       </c>
       <c r="B91" t="s">
-        <v>433</v>
+        <v>516</v>
       </c>
       <c r="C91" t="s">
-        <v>499</v>
+        <v>582</v>
       </c>
       <c r="D91" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E91" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F91" t="s">
-        <v>526</v>
+        <v>608</v>
       </c>
       <c r="G91" t="s">
-        <v>556</v>
+        <v>671</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>370</v>
+        <v>455</v>
       </c>
       <c r="B92" t="s">
-        <v>392</v>
+        <v>475</v>
       </c>
       <c r="C92" t="s">
-        <v>456</v>
+        <v>540</v>
       </c>
       <c r="D92" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E92" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F92" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="G92" t="s">
-        <v>557</v>
+        <v>672</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>371</v>
+        <v>456</v>
       </c>
       <c r="B93" t="s">
-        <v>434</v>
+        <v>517</v>
       </c>
       <c r="C93" t="s">
-        <v>500</v>
+        <v>583</v>
       </c>
       <c r="D93" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E93" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F93" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="G93" t="s">
-        <v>558</v>
+        <v>672</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>372</v>
+        <v>457</v>
       </c>
       <c r="B94" t="s">
-        <v>435</v>
+        <v>518</v>
       </c>
       <c r="C94" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="D94" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E94" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="F94" t="s">
-        <v>525</v>
+        <v>607</v>
       </c>
       <c r="G94" t="s">
-        <v>558</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>

--- a/BigBasket/BigBasket_products.xlsx
+++ b/BigBasket/BigBasket_products.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="686">
   <si>
     <t>product_name</t>
   </si>
@@ -38,15 +38,102 @@
     <t>timestamp</t>
   </si>
   <si>
+    <t>Chow Chow - Organically Grown, Rich In Vitamins, Good For Weight Loss</t>
+  </si>
+  <si>
+    <t>Ridge Gourd - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Ash Gourd (Loose)</t>
+  </si>
+  <si>
+    <t>Capsicum - Yellow, Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Beans - Diced</t>
+  </si>
+  <si>
+    <t>Coconut Flower - Medium, Rich In Fibre, Helps Manage Blood Sugar Levels</t>
+  </si>
+  <si>
+    <t>Red Cabbage - Medium</t>
+  </si>
+  <si>
+    <t>Tapioca (Loose)</t>
+  </si>
+  <si>
+    <t>Radish - White (Loose)</t>
+  </si>
+  <si>
+    <t>Lettuce - Romaine</t>
+  </si>
+  <si>
+    <t>Onion</t>
+  </si>
+  <si>
+    <t>Potato</t>
+  </si>
+  <si>
+    <t>Carrot - Orange (Loose)</t>
+  </si>
+  <si>
+    <t>Tomato - Local (Loose)</t>
+  </si>
+  <si>
+    <t>Ladies' Fingers (Loose)</t>
+  </si>
+  <si>
+    <t>Coriander Leaves</t>
+  </si>
+  <si>
+    <t>Cucumber (Loose)</t>
+  </si>
+  <si>
+    <t>Capsicum - Green (Loose)</t>
+  </si>
+  <si>
+    <t>Beans - Haricot (Loose)</t>
+  </si>
+  <si>
+    <t>Tomato - Hybrid (Loose)</t>
+  </si>
+  <si>
+    <t>Cauliflower</t>
+  </si>
+  <si>
+    <t>Beetroot (Loose)</t>
+  </si>
+  <si>
+    <t>Palak - Cleaned, without roots</t>
+  </si>
+  <si>
+    <t>Mushrooms - Button</t>
+  </si>
+  <si>
+    <t>Chilli - Green, Organically Grown</t>
+  </si>
+  <si>
+    <t>Cabbage (Loose)</t>
+  </si>
+  <si>
+    <t>Cucumber - English (Loose)</t>
+  </si>
+  <si>
     <t>Curry Leaves</t>
   </si>
   <si>
+    <t>Coccinia (Loose)</t>
+  </si>
+  <si>
     <t>Sweet Corn (Loose)</t>
   </si>
   <si>
     <t>Ginger - Organically Grown</t>
   </si>
   <si>
+    <t>Drumstick/Moringa</t>
+  </si>
+  <si>
     <t>Bottle Gourd (Loose)</t>
   </si>
   <si>
@@ -59,93 +146,36 @@
     <t>Mint Leaves - Cleaned, without roots</t>
   </si>
   <si>
+    <t>Onion - Organically Grown (Loose)</t>
+  </si>
+  <si>
+    <t>Brinjal - Varikatri (Loose)</t>
+  </si>
+  <si>
+    <t>Methi/Venthaya Keerai - Cleaned, without roots</t>
+  </si>
+  <si>
+    <t>Brinjal - Bottle Shape (Loose)</t>
+  </si>
+  <si>
+    <t>Chow Chow (Loose)</t>
+  </si>
+  <si>
+    <t>Bitter Gourd (Loose)</t>
+  </si>
+  <si>
     <t>Amla (Loose)</t>
   </si>
   <si>
+    <t>Beans - Broad (Loose)</t>
+  </si>
+  <si>
     <t>Spring Onion - With roots</t>
   </si>
   <si>
     <t>Parwal (Loose)</t>
   </si>
   <si>
-    <t>Onion</t>
-  </si>
-  <si>
-    <t>Potato</t>
-  </si>
-  <si>
-    <t>Carrot - Orange (Loose)</t>
-  </si>
-  <si>
-    <t>Tomato - Local (Loose)</t>
-  </si>
-  <si>
-    <t>Ladies' Fingers (Loose)</t>
-  </si>
-  <si>
-    <t>Coriander Leaves</t>
-  </si>
-  <si>
-    <t>Cucumber (Loose)</t>
-  </si>
-  <si>
-    <t>Capsicum - Green (Loose)</t>
-  </si>
-  <si>
-    <t>Beans - Haricot (Loose)</t>
-  </si>
-  <si>
-    <t>Tomato - Hybrid (Loose)</t>
-  </si>
-  <si>
-    <t>Cauliflower</t>
-  </si>
-  <si>
-    <t>Beetroot (Loose)</t>
-  </si>
-  <si>
-    <t>Palak - Cleaned, without roots</t>
-  </si>
-  <si>
-    <t>Mushrooms - Button</t>
-  </si>
-  <si>
-    <t>Chilli - Green, Organically Grown</t>
-  </si>
-  <si>
-    <t>Cabbage (Loose)</t>
-  </si>
-  <si>
-    <t>Cucumber - English (Loose)</t>
-  </si>
-  <si>
-    <t>Coccinia (Loose)</t>
-  </si>
-  <si>
-    <t>Drumstick/Moringa</t>
-  </si>
-  <si>
-    <t>Onion - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Brinjal - Varikatri (Loose)</t>
-  </si>
-  <si>
-    <t>Methi/Venthaya Keerai - Cleaned, without roots</t>
-  </si>
-  <si>
-    <t>Brinjal - Bottle Shape (Loose)</t>
-  </si>
-  <si>
-    <t>Chow Chow (Loose)</t>
-  </si>
-  <si>
-    <t>Bitter Gourd (Loose)</t>
-  </si>
-  <si>
-    <t>Beans - Broad (Loose)</t>
-  </si>
-  <si>
     <t>Garlic - Organically Grown (Loose)</t>
   </si>
   <si>
@@ -176,6 +206,9 @@
     <t>Knol Khol (Loose)</t>
   </si>
   <si>
+    <t>Broccoli</t>
+  </si>
+  <si>
     <t>Onion - Sambhar (Loose)</t>
   </si>
   <si>
@@ -203,9 +236,6 @@
     <t>Amaranthus - Red Cleaned, without roots</t>
   </si>
   <si>
-    <t>Broccoli</t>
-  </si>
-  <si>
     <t>Beetroot - Organically Grown (Loose)</t>
   </si>
   <si>
@@ -320,45 +350,84 @@
     <t>Cut Cauliflower, Washed</t>
   </si>
   <si>
-    <t>Chow Chow - Organically Grown, Rich In Vitamins, Good For Weight Loss</t>
-  </si>
-  <si>
-    <t>Ridge Gourd - Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Ash Gourd (Loose)</t>
-  </si>
-  <si>
-    <t>Capsicum - Yellow, Organically Grown (Loose)</t>
-  </si>
-  <si>
-    <t>Beans - Diced</t>
-  </si>
-  <si>
-    <t>Coconut Flower - Medium, Rich In Fibre, Helps Manage Blood Sugar Levels</t>
-  </si>
-  <si>
-    <t>Red Cabbage - Medium</t>
-  </si>
-  <si>
-    <t>Tapioca (Loose)</t>
-  </si>
-  <si>
-    <t>Radish - White (Loose)</t>
-  </si>
-  <si>
-    <t>Lettuce - Romaine</t>
+    <t>₹57</t>
+  </si>
+  <si>
+    <t>₹81</t>
+  </si>
+  <si>
+    <t>₹124</t>
+  </si>
+  <si>
+    <t>₹62</t>
+  </si>
+  <si>
+    <t>₹153</t>
+  </si>
+  <si>
+    <t>₹70</t>
+  </si>
+  <si>
+    <t>₹61</t>
+  </si>
+  <si>
+    <t>₹73</t>
+  </si>
+  <si>
+    <t>₹103</t>
+  </si>
+  <si>
+    <t>₹100</t>
+  </si>
+  <si>
+    <t>₹325</t>
+  </si>
+  <si>
+    <t>₹54</t>
+  </si>
+  <si>
+    <t>₹25</t>
+  </si>
+  <si>
+    <t>₹39</t>
+  </si>
+  <si>
+    <t>₹207</t>
+  </si>
+  <si>
+    <t>₹14</t>
+  </si>
+  <si>
+    <t>₹36</t>
+  </si>
+  <si>
+    <t>₹27</t>
+  </si>
+  <si>
+    <t>₹158</t>
+  </si>
+  <si>
+    <t>₹91</t>
+  </si>
+  <si>
+    <t>₹53</t>
   </si>
   <si>
     <t>₹166</t>
   </si>
   <si>
+    <t>₹35</t>
+  </si>
+  <si>
     <t>₹76</t>
   </si>
   <si>
     <t>₹128</t>
   </si>
   <si>
+    <t>₹221</t>
+  </si>
+  <si>
     <t>₹32</t>
   </si>
   <si>
@@ -368,99 +437,48 @@
     <t>₹33</t>
   </si>
   <si>
+    <t>₹290</t>
+  </si>
+  <si>
+    <t>₹79</t>
+  </si>
+  <si>
+    <t>₹317</t>
+  </si>
+  <si>
+    <t>₹51</t>
+  </si>
+  <si>
+    <t>₹68</t>
+  </si>
+  <si>
     <t>₹180</t>
   </si>
   <si>
+    <t>₹144</t>
+  </si>
+  <si>
     <t>₹18</t>
   </si>
   <si>
     <t>₹205</t>
   </si>
   <si>
-    <t>₹325</t>
-  </si>
-  <si>
-    <t>₹54</t>
-  </si>
-  <si>
-    <t>₹25</t>
-  </si>
-  <si>
-    <t>₹39</t>
-  </si>
-  <si>
-    <t>₹207</t>
-  </si>
-  <si>
-    <t>₹73</t>
-  </si>
-  <si>
-    <t>₹57</t>
-  </si>
-  <si>
-    <t>₹14</t>
-  </si>
-  <si>
-    <t>₹36</t>
-  </si>
-  <si>
-    <t>₹27</t>
-  </si>
-  <si>
-    <t>₹158</t>
-  </si>
-  <si>
-    <t>₹62</t>
-  </si>
-  <si>
-    <t>₹91</t>
-  </si>
-  <si>
-    <t>₹53</t>
-  </si>
-  <si>
-    <t>₹35</t>
-  </si>
-  <si>
-    <t>₹221</t>
-  </si>
-  <si>
-    <t>₹290</t>
-  </si>
-  <si>
-    <t>₹79</t>
-  </si>
-  <si>
-    <t>₹317</t>
-  </si>
-  <si>
-    <t>₹51</t>
-  </si>
-  <si>
-    <t>₹68</t>
-  </si>
-  <si>
-    <t>₹144</t>
-  </si>
-  <si>
     <t>₹190</t>
   </si>
   <si>
-    <t>₹103</t>
-  </si>
-  <si>
     <t>₹99</t>
   </si>
   <si>
     <t>₹49.32</t>
   </si>
   <si>
-    <t>₹81</t>
-  </si>
-  <si>
     <t>₹106</t>
   </si>
   <si>
+    <t>₹13.16</t>
+  </si>
+  <si>
     <t>₹185</t>
   </si>
   <si>
@@ -479,15 +497,9 @@
     <t>₹55</t>
   </si>
   <si>
-    <t>₹70</t>
-  </si>
-  <si>
     <t>₹139</t>
   </si>
   <si>
-    <t>₹13.16</t>
-  </si>
-  <si>
     <t>₹90</t>
   </si>
   <si>
@@ -530,16 +542,61 @@
     <t>₹54.79</t>
   </si>
   <si>
-    <t>₹124</t>
-  </si>
-  <si>
-    <t>₹153</t>
-  </si>
-  <si>
-    <t>₹61</t>
-  </si>
-  <si>
-    <t>₹100</t>
+    <t>₹41.61</t>
+  </si>
+  <si>
+    <t>₹59.13</t>
+  </si>
+  <si>
+    <t>₹90.52</t>
+  </si>
+  <si>
+    <t>₹45.26</t>
+  </si>
+  <si>
+    <t>₹111.69</t>
+  </si>
+  <si>
+    <t>₹51.1</t>
+  </si>
+  <si>
+    <t>₹44.53</t>
+  </si>
+  <si>
+    <t>₹53.29</t>
+  </si>
+  <si>
+    <t>₹75.19</t>
+  </si>
+  <si>
+    <t>₹10</t>
+  </si>
+  <si>
+    <t>₹12</t>
+  </si>
+  <si>
+    <t>₹52</t>
+  </si>
+  <si>
+    <t>₹26</t>
+  </si>
+  <si>
+    <t>₹22.5</t>
+  </si>
+  <si>
+    <t>₹6</t>
+  </si>
+  <si>
+    <t>₹26.28</t>
+  </si>
+  <si>
+    <t>₹115.34</t>
+  </si>
+  <si>
+    <t>₹66.43</t>
+  </si>
+  <si>
+    <t>₹17</t>
   </si>
   <si>
     <t>₹121.18</t>
@@ -551,75 +608,42 @@
     <t>₹93.44</t>
   </si>
   <si>
+    <t>₹161.33</t>
+  </si>
+  <si>
     <t>₹23</t>
   </si>
   <si>
     <t>₹24.09</t>
   </si>
   <si>
+    <t>₹211.7</t>
+  </si>
+  <si>
+    <t>₹231.41</t>
+  </si>
+  <si>
+    <t>₹17.75</t>
+  </si>
+  <si>
+    <t>₹37.23</t>
+  </si>
+  <si>
+    <t>₹49.64</t>
+  </si>
+  <si>
     <t>₹131.4</t>
   </si>
   <si>
+    <t>₹105.12</t>
+  </si>
+  <si>
     <t>₹13.14</t>
   </si>
   <si>
     <t>₹149.65</t>
   </si>
   <si>
-    <t>₹10</t>
-  </si>
-  <si>
-    <t>₹12</t>
-  </si>
-  <si>
-    <t>₹83.5</t>
-  </si>
-  <si>
-    <t>₹52</t>
-  </si>
-  <si>
-    <t>₹26</t>
-  </si>
-  <si>
-    <t>₹22.5</t>
-  </si>
-  <si>
-    <t>₹6</t>
-  </si>
-  <si>
-    <t>₹26.28</t>
-  </si>
-  <si>
-    <t>₹115.34</t>
-  </si>
-  <si>
-    <t>₹66.43</t>
-  </si>
-  <si>
-    <t>₹17.5</t>
-  </si>
-  <si>
-    <t>₹10.5</t>
-  </si>
-  <si>
-    <t>₹161.33</t>
-  </si>
-  <si>
-    <t>₹211.7</t>
-  </si>
-  <si>
-    <t>₹231.41</t>
-  </si>
-  <si>
-    <t>₹37.23</t>
-  </si>
-  <si>
-    <t>₹49.64</t>
-  </si>
-  <si>
-    <t>₹105.12</t>
-  </si>
-  <si>
     <t>₹138.7</t>
   </si>
   <si>
@@ -629,21 +653,15 @@
     <t>₹39.42</t>
   </si>
   <si>
-    <t>₹75.19</t>
-  </si>
-  <si>
-    <t>₹41.61</t>
-  </si>
-  <si>
     <t>₹72.27</t>
   </si>
   <si>
-    <t>₹59.13</t>
-  </si>
-  <si>
     <t>₹77.38</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>₹109</t>
   </si>
   <si>
@@ -662,15 +680,9 @@
     <t>₹40.15</t>
   </si>
   <si>
-    <t>₹51.1</t>
-  </si>
-  <si>
     <t>₹101.47</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>₹65.7</t>
   </si>
   <si>
@@ -695,9 +707,6 @@
     <t>₹38</t>
   </si>
   <si>
-    <t>₹53.29</t>
-  </si>
-  <si>
     <t>₹42.34</t>
   </si>
   <si>
@@ -716,82 +725,70 @@
     <t>₹21.17</t>
   </si>
   <si>
-    <t>₹45.26</t>
-  </si>
-  <si>
     <t>₹87.6</t>
   </si>
   <si>
     <t>₹28.47</t>
   </si>
   <si>
-    <t>₹90.52</t>
-  </si>
-  <si>
-    <t>₹111.69</t>
-  </si>
-  <si>
-    <t>₹44.53</t>
-  </si>
-  <si>
     <t>27% OFF</t>
   </si>
   <si>
+    <t>43% OFF</t>
+  </si>
+  <si>
+    <t>39% OFF</t>
+  </si>
+  <si>
+    <t>60% OFF</t>
+  </si>
+  <si>
+    <t>36% OFF</t>
+  </si>
+  <si>
+    <t>69% OFF</t>
+  </si>
+  <si>
+    <t>62% OFF</t>
+  </si>
+  <si>
+    <t>29% OFF</t>
+  </si>
+  <si>
+    <t>54% OFF</t>
+  </si>
+  <si>
+    <t>61% OFF</t>
+  </si>
+  <si>
+    <t>57% OFF</t>
+  </si>
+  <si>
+    <t>41% OFF</t>
+  </si>
+  <si>
+    <t>31% OFF</t>
+  </si>
+  <si>
+    <t>53% OFF</t>
+  </si>
+  <si>
+    <t>45% OFF</t>
+  </si>
+  <si>
+    <t>71% OFF</t>
+  </si>
+  <si>
     <t>28% OFF</t>
   </si>
   <si>
     <t>59% OFF</t>
   </si>
   <si>
-    <t>43% OFF</t>
-  </si>
-  <si>
-    <t>39% OFF</t>
-  </si>
-  <si>
-    <t>60% OFF</t>
-  </si>
-  <si>
-    <t>36% OFF</t>
-  </si>
-  <si>
-    <t>69% OFF</t>
-  </si>
-  <si>
-    <t>29% OFF</t>
-  </si>
-  <si>
-    <t>54% OFF</t>
-  </si>
-  <si>
-    <t>61% OFF</t>
-  </si>
-  <si>
-    <t>57% OFF</t>
-  </si>
-  <si>
-    <t>41% OFF</t>
-  </si>
-  <si>
-    <t>31% OFF</t>
-  </si>
-  <si>
-    <t>51% OFF</t>
-  </si>
-  <si>
-    <t>45% OFF</t>
-  </si>
-  <si>
-    <t>70% OFF</t>
-  </si>
-  <si>
     <t>32% OFF</t>
   </si>
   <si>
-    <t>66% OFF</t>
-  </si>
-  <si>
-    <t>49% OFF</t>
+    <t>65% OFF</t>
   </si>
   <si>
     <t>Fresh Vegetables</t>
@@ -800,36 +797,48 @@
     <t>1 kg</t>
   </si>
   <si>
+    <t>1 pc - Approx. 2.5 to 4 Kg</t>
+  </si>
+  <si>
+    <t>1 pc</t>
+  </si>
+  <si>
+    <t>500 g</t>
+  </si>
+  <si>
+    <t>1 pc - (Approx 250 to 450 gm)</t>
+  </si>
+  <si>
+    <t>1 Pc (Approx.601 g-950 g)</t>
+  </si>
+  <si>
+    <t>5 kg - Multipack</t>
+  </si>
+  <si>
+    <t>250 g</t>
+  </si>
+  <si>
+    <t>1 pc - (approx. 400 to 600 g)</t>
+  </si>
+  <si>
+    <t>1 pack - (Approx. 180g - 200 g)</t>
+  </si>
+  <si>
+    <t>1 pc - (approx. 500 g to 800 g)</t>
+  </si>
+  <si>
     <t>2 pcs</t>
   </si>
   <si>
-    <t>500 g</t>
-  </si>
-  <si>
     <t>1 pc - (Approx. 500 g - 800 g)</t>
   </si>
   <si>
+    <t>5 kg</t>
+  </si>
+  <si>
     <t>1 pc - (Approx. 100 g)</t>
   </si>
   <si>
-    <t>5 kg - Multipack</t>
-  </si>
-  <si>
-    <t>250 g</t>
-  </si>
-  <si>
-    <t>1 pc - (approx. 400 to 600 g)</t>
-  </si>
-  <si>
-    <t>1 pack - (Approx. 180g - 200 g)</t>
-  </si>
-  <si>
-    <t>1 pc - (approx. 500 g to 800 g)</t>
-  </si>
-  <si>
-    <t>5 kg</t>
-  </si>
-  <si>
     <t>10 pcs</t>
   </si>
   <si>
@@ -851,9 +860,6 @@
     <t>1 pc - Approx. 400 to 600 g</t>
   </si>
   <si>
-    <t>1 pc</t>
-  </si>
-  <si>
     <t>1 pc (approx. 300-1.3 Kg)</t>
   </si>
   <si>
@@ -863,234 +869,6 @@
     <t>300 g</t>
   </si>
   <si>
-    <t>1 pc - Approx. 2.5 to 4 Kg</t>
-  </si>
-  <si>
-    <t>1 pc - (Approx 250 to 450 gm)</t>
-  </si>
-  <si>
-    <t>1 Pc (Approx.601 g-950 g)</t>
-  </si>
-  <si>
-    <t>2023-10-17 15:57:45.701759+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 15:57:45.709761+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 15:57:45.712757+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 15:57:45.721712+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 15:57:45.724710+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 15:57:45.728712+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 15:57:45.732721+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 15:57:45.753927+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-17 15:57:45.764003+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.338507+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.355208+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.362102+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.370230+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.380106+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.381105+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.389145+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.400323+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.402306+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.416001+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.419251+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.430064+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.452030+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.465535+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.477018+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.481129+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.490419+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.498415+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.506929+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.513808+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.515809+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.523972+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.528712+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.539918+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.549128+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.552871+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.564332+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.568799+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.572635+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.577535+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.581725+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.586043+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.590142+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.593865+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.597684+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.599015+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.607029+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.611651+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.619698+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.628368+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.636404+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.643504+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.644507+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.652740+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.653739+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.658340+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.660909+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.663166+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.665589+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.666582+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.676046+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.680143+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.688168+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.691726+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.695070+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.703172+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.710187+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.714416+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.715457+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.723545+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.727810+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.733825+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.737920+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:20:36.744188+05:30</t>
-  </si>
-  <si>
     <t>2023-10-18 14:20:36.752271+05:30</t>
   </si>
   <si>
@@ -1112,6 +890,273 @@
     <t>2023-10-18 14:20:36.777904+05:30</t>
   </si>
   <si>
+    <t>2023-10-19 11:36:07.115446+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.122596+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.126525+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.130448+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.132514+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.136378+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.139842+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.142263+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.143264+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.151281+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.154601+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.160955+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.167316+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.169313+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.172170+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.174592+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.182273+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.184270+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.187924+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.190926+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.191928+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.203718+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.207504+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.214314+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.216311+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.225237+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.231428+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.235796+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.239597+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.243615+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.245963+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.249453+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.252869+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.255975+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.257981+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.260022+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.263307+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.265416+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.267595+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.269708+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.273342+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.278068+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.280067+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.289815+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.294972+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.297760+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.307505+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.310976+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.313499+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.316498+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.317499+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.322438+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.327416+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.330463+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.333971+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.336231+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.341230+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.343216+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.345144+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.347853+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.349974+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.353020+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.355812+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.359198+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.361949+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.365313+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.368241+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.371781+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.374780+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.377675+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.381671+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.384682+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.387764+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.390506+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.395366+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.398902+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.405172+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.408420+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.416018+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.424341+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.430280+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.435690+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.440978+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.445600+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.452700+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.457099+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.458098+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.465289+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:07.473286+05:30</t>
+  </si>
+  <si>
     <t>Banana - Robusta</t>
   </si>
   <si>
@@ -1472,9 +1517,6 @@
     <t>₹442</t>
   </si>
   <si>
-    <t>₹17</t>
-  </si>
-  <si>
     <t>₹254</t>
   </si>
   <si>
@@ -1643,7 +1685,7 @@
     <t>₹320.47</t>
   </si>
   <si>
-    <t>₹91.25</t>
+    <t>₹69</t>
   </si>
   <si>
     <t>₹70.08</t>
@@ -1892,148 +1934,145 @@
     <t>1 pc - approx. 300 g to 500 g</t>
   </si>
   <si>
-    <t>2023-10-18 14:21:20.134096+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.179996+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.181988+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.191611+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.195460+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.196458+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.198850+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.202784+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.203781+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.208033+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.209034+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.215053+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.217755+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.219287+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.227053+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.228052+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.230321+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.234750+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.236747+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.240318+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.242982+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.244980+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.251532+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.258229+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.259231+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.260233+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.273817+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.276942+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.282352+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.286776+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.288385+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.291350+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.293618+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.302880+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.308914+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.310946+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.314960+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.316433+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.318434+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.322541+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.326208+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.327209+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.340686+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.342887+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.346802+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.347803+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.350068+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-18 14:21:20.352592+05:30</t>
+    <t>2023-10-19 11:36:49.946225+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:49.954890+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:49.962982+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:49.970980+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:49.979081+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:49.980119+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:49.988206+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:49.996318+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:49.997355+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:50.005444+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:50.014699+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:50.022784+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:50.030790+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:50.040737+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:50.048816+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:50.056815+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:50.065647+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:50.067335+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:50.075358+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:50.080945+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:50.082913+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:50.091010+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:50.100188+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:50.108244+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:50.116247+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:50.124248+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:50.132247+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:50.140203+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:50.149445+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:50.157444+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:50.158463+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:50.166551+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:50.174551+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:50.183177+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:50.184216+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:50.192280+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:50.200281+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:50.208290+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:50.216289+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:50.219822+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:50.222841+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:50.225501+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:50.229149+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:50.231168+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:50.235913+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:50.237999+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-19 11:36:50.241100+05:30</t>
   </si>
 </sst>
 </file>
@@ -2431,16 +2470,16 @@
         <v>175</v>
       </c>
       <c r="D2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2454,16 +2493,16 @@
         <v>176</v>
       </c>
       <c r="D3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2477,16 +2516,16 @@
         <v>177</v>
       </c>
       <c r="D4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2500,16 +2539,16 @@
         <v>178</v>
       </c>
       <c r="D5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2520,19 +2559,19 @@
         <v>115</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="D6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F6" t="s">
         <v>262</v>
       </c>
       <c r="G6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2543,19 +2582,19 @@
         <v>116</v>
       </c>
       <c r="C7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2563,22 +2602,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F8" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G8" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2586,22 +2625,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G9" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2609,22 +2648,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F10" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G10" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2632,22 +2671,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="D11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F11" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G11" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2655,22 +2694,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F12" t="s">
         <v>265</v>
       </c>
       <c r="G12" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2678,22 +2717,22 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="D13" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G13" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2701,22 +2740,22 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D14" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F14" t="s">
         <v>266</v>
       </c>
       <c r="G14" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2724,22 +2763,22 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D15" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2747,22 +2786,22 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D16" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F16" t="s">
         <v>262</v>
       </c>
       <c r="G16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2770,22 +2809,22 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C17" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="D17" t="s">
         <v>244</v>
       </c>
       <c r="E17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2793,22 +2832,22 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s">
         <v>186</v>
       </c>
       <c r="D18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G18" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2816,22 +2855,22 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C19" t="s">
         <v>187</v>
       </c>
       <c r="D19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F19" t="s">
         <v>262</v>
       </c>
       <c r="G19" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2839,22 +2878,22 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
         <v>188</v>
       </c>
       <c r="D20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F20" t="s">
         <v>266</v>
       </c>
       <c r="G20" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2862,22 +2901,22 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C21" t="s">
         <v>189</v>
       </c>
       <c r="D21" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F21" t="s">
         <v>262</v>
       </c>
       <c r="G21" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2885,22 +2924,22 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C22" t="s">
         <v>190</v>
       </c>
       <c r="D22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F22" t="s">
         <v>267</v>
       </c>
       <c r="G22" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2908,22 +2947,22 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C23" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D23" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F23" t="s">
         <v>262</v>
       </c>
       <c r="G23" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2931,22 +2970,22 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C24" t="s">
         <v>191</v>
       </c>
       <c r="D24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F24" t="s">
         <v>262</v>
       </c>
       <c r="G24" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2954,22 +2993,22 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C25" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F25" t="s">
         <v>268</v>
       </c>
       <c r="G25" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2977,22 +3016,22 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C26" t="s">
         <v>192</v>
       </c>
       <c r="D26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F26" t="s">
         <v>262</v>
       </c>
       <c r="G26" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3000,22 +3039,22 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C27" t="s">
         <v>193</v>
       </c>
       <c r="D27" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F27" t="s">
         <v>269</v>
       </c>
       <c r="G27" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3023,22 +3062,22 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C28" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D28" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F28" t="s">
         <v>262</v>
       </c>
       <c r="G28" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3046,22 +3085,22 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C29" t="s">
         <v>194</v>
       </c>
       <c r="D29" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="E29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F29" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G29" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3069,22 +3108,22 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C30" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D30" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="E30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F30" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G30" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3092,22 +3131,22 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E31" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F31" t="s">
         <v>270</v>
       </c>
       <c r="G31" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3115,22 +3154,22 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>196</v>
       </c>
       <c r="D32" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="E32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F32" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G32" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3138,22 +3177,22 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C33" t="s">
         <v>197</v>
       </c>
       <c r="D33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G33" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3161,22 +3200,22 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C34" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D34" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F34" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="G34" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3184,22 +3223,22 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C35" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="D35" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="E35" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F35" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G35" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3207,22 +3246,22 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C36" t="s">
         <v>199</v>
       </c>
       <c r="D36" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G36" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3230,22 +3269,22 @@
         <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C37" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G37" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3253,22 +3292,22 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F38" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="G38" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3276,22 +3315,22 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" t="s">
         <v>122</v>
       </c>
-      <c r="C39" t="s">
-        <v>202</v>
-      </c>
       <c r="D39" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="E39" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F39" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="G39" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3299,22 +3338,22 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="C40" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F40" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="G40" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3325,19 +3364,19 @@
         <v>143</v>
       </c>
       <c r="C41" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D41" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="E41" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F41" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G41" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3345,22 +3384,22 @@
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C42" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E42" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F42" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G42" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3371,19 +3410,19 @@
         <v>144</v>
       </c>
       <c r="C43" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E43" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F43" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="G43" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3394,19 +3433,19 @@
         <v>145</v>
       </c>
       <c r="C44" t="s">
-        <v>128</v>
+        <v>205</v>
       </c>
       <c r="D44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E44" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F44" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G44" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3417,19 +3456,19 @@
         <v>146</v>
       </c>
       <c r="C45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E45" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G45" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3437,22 +3476,22 @@
         <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C46" t="s">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="D46" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="E46" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F46" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="G46" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3460,22 +3499,22 @@
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C47" t="s">
         <v>208</v>
       </c>
       <c r="D47" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E47" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F47" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G47" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3483,22 +3522,22 @@
         <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C48" t="s">
         <v>209</v>
       </c>
       <c r="D48" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="E48" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F48" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G48" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3506,22 +3545,22 @@
         <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="C49" t="s">
         <v>210</v>
       </c>
       <c r="D49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E49" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F49" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="G49" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3529,22 +3568,22 @@
         <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="C50" t="s">
         <v>211</v>
       </c>
       <c r="D50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E50" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F50" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="G50" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3552,22 +3591,22 @@
         <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="C51" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="D51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E51" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F51" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G51" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3575,22 +3614,22 @@
         <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="C52" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="D52" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E52" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F52" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G52" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3598,22 +3637,22 @@
         <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C53" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D53" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E53" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F53" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="G53" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3621,22 +3660,22 @@
         <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C54" t="s">
-        <v>215</v>
+        <v>127</v>
       </c>
       <c r="D54" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E54" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F54" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G54" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3644,22 +3683,22 @@
         <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="C55" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="D55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E55" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F55" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G55" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3667,22 +3706,22 @@
         <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C56" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="D56" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="E56" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F56" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G56" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3690,22 +3729,22 @@
         <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C57" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D57" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F57" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="G57" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3713,19 +3752,19 @@
         <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C58" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="D58" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E58" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F58" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="G58" t="s">
         <v>333</v>
@@ -3736,22 +3775,22 @@
         <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C59" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D59" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="E59" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F59" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G59" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3759,22 +3798,22 @@
         <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C60" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D60" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E60" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F60" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G60" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3782,22 +3821,22 @@
         <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C61" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D61" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E61" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F61" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G61" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3805,22 +3844,22 @@
         <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="C62" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="D62" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E62" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F62" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G62" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3828,22 +3867,22 @@
         <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C63" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D63" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E63" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F63" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="G63" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3851,22 +3890,22 @@
         <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C64" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D64" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E64" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F64" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G64" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3874,22 +3913,22 @@
         <v>70</v>
       </c>
       <c r="B65" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="C65" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="D65" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E65" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F65" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G65" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3897,22 +3936,22 @@
         <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C66" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="D66" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="E66" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F66" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G66" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3920,22 +3959,22 @@
         <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C67" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="D67" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E67" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F67" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G67" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3943,22 +3982,22 @@
         <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C68" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="D68" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E68" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F68" t="s">
-        <v>260</v>
+   